--- a/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/correlation-values.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/correlation-values.xlsx
@@ -470,7 +470,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.8858305396817219</t>
+          <t>0.7589179786250452</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.5169460196844157</t>
+          <t>0.5087156603714074</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9778956822310348</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.234785410895787</t>
+          <t>0.20433308586639687</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.21436252004633563</t>
+          <t>0.18987779160708848</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.4245772473358201</t>
+          <t>0.44895060837138684</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.2196952379146075</t>
+          <t>0.2618781676639449</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.6299712872158142</t>
+          <t>0.5958579639986272</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.46523363914483695</t>
+          <t>0.402606409346879</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.25172458134372494</t>
+          <t>0.23427727500256448</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.494176736611758</t>
+          <t>0.4610805356147132</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.4248041451322798</t>
+          <t>0.44702472492239</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.21436252004633563</t>
+          <t>0.18987779160708848</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.6566195283512936</t>
+          <t>0.6585377287150944</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.3562127943877069</t>
+          <t>0.37514698448882605</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.3656419919365121</t>
+          <t>0.37514698448882605</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.352986124567546</t>
+          <t>0.42049640162330576</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.35707348081919815</t>
+          <t>0.37514698448882605</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.33618628333676825</t>
+          <t>0.4062457862453399</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.352986124567546</t>
+          <t>0.42049640162330576</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.3562127943877069</t>
+          <t>0.37514698448882605</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.324540107145098</t>
+          <t>0.4062457862453399</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.342673439076915</t>
+          <t>0.3845857076339466</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.3562127943877069</t>
+          <t>0.37514698448882605</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.3476527545647006</t>
+          <t>0.3845857076339466</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.6248273574242693</t>
+          <t>0.7151888522713932</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.28252950956524553</t>
+          <t>0.28009896101379317</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.44762870430799057</t>
+          <t>0.38850720221599017</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.5123313525972841</t>
+          <t>0.5145071141772903</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.3112290155643682</t>
+          <t>0.28782422411631686</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.36149297379750955</t>
+          <t>0.39060069955117915</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.33360304051374057</t>
+          <t>0.3905685741722076</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.4605265301794243</t>
+          <t>0.48425362859705406</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.36221774355486885</t>
+          <t>0.382024066360574</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.3934985774966448</t>
+          <t>0.41839992333616205</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.28571639230873563</t>
+          <t>0.3577452496046288</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.28571639230873563</t>
+          <t>0.348382791993708</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.9778956822310348</t>
+          <t>0.9239199275796416</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.7467734727944236</t>
+          <t>0.6776262942868875</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.5169460196844157</t>
+          <t>0.5087156603714074</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.9778956822310348</t>
+          <t>0.8599421798298059</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.234785410895787</t>
+          <t>0.1879149334792073</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.3562127943877069</t>
+          <t>0.37514698448882605</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.20791966830796046</t>
+          <t>0.30044936905801295</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.44088172324843916</t>
+          <t>0.33909546507458954</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.43350881027341404</t>
+          <t>0.46991463505520814</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.4342342784963312</t>
+          <t>0.5226487223030128</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.40937135555661375</t>
+          <t>0.31978662742983777</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.3580759629771329</t>
+          <t>0.4512362647626409</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.46381774674108944</t>
+          <t>0.44558142024926156</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.4315487382228103</t>
+          <t>0.4110606324673796</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.3580759629771329</t>
+          <t>0.4512362647626409</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.4491772478838183</t>
+          <t>0.4120069280830104</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.5952041445426012</t>
+          <t>0.6805556881639441</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.3580759629771329</t>
+          <t>0.4512362647626409</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.7811763817092738</t>
+          <t>0.8654627954252608</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.3271067056226461</t>
+          <t>0.29222509340151614</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.3271067056226461</t>
+          <t>0.29222509340151637</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.3378472634018696</t>
+          <t>0.2536431892520904</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.3271067056226461</t>
+          <t>0.29222509340151637</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.332350051846829</t>
+          <t>0.31517350556912804</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0.3378472634018696</t>
+          <t>0.2536431892520906</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.3271067056226461</t>
+          <t>0.29222509340151637</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.3241580876405271</t>
+          <t>0.2573383426989595</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0.40625849104175327</t>
+          <t>0.29763804009745337</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.3271067056226461</t>
+          <t>0.29222509340151637</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.40625849104175327</t>
+          <t>0.31517350556912804</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.6571442261031093</t>
+          <t>0.6133175018235846</t>
         </is>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.2852771472315792</t>
+          <t>0.3676771934911521</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.47325253748124635</t>
+          <t>0.3450463826659537</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.5599522225389638</t>
+          <t>0.533773344819657</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.3641239889915479</t>
+          <t>0.41182397239126173</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.39517621731765457</t>
+          <t>0.4123980056413099</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0.3873019972954739</t>
+          <t>0.33028444641749977</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0.34299948960417503</t>
+          <t>0.4135791901579065</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0.3432871213885719</t>
+          <t>0.3315299185139838</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0.3839680573020117</t>
+          <t>0.3343243345481226</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0.3749977390995607</t>
+          <t>0.3516259225278265</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0.3650105036226031</t>
+          <t>0.352210259809445</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0.8241389372056241</t>
+          <t>0.7589179786250452</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0.44088172324843916</t>
+          <t>0.33909546507458954</t>
         </is>
       </c>
     </row>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0.43350881027341404</t>
+          <t>0.44889761840757103</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0.3271067056226461</t>
+          <t>0.29222509340151637</t>
         </is>
       </c>
     </row>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0.30534782440186314</t>
+          <t>0.3053702530029941</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.506880914847165</t>
+          <t>0.5311646168138852</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0.16143191007279625</t>
+          <t>0.21487417385871446</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0.1477001241698316</t>
+          <t>0.20688903042638665</t>
         </is>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0.3370101249910274</t>
+          <t>0.28353924467164865</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0.1477001241698316</t>
+          <t>0.20688903042638665</t>
         </is>
       </c>
     </row>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0.37591687067936563</t>
+          <t>0.33785030698470236</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0.33964006638170985</t>
+          <t>0.28353924467164865</t>
         </is>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0.1477001241698316</t>
+          <t>0.20688903042638665</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0.35872258008654434</t>
+          <t>0.3060750101276807</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0.18236600100278863</t>
+          <t>0.19673425494976024</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0.1477001241698316</t>
+          <t>0.20688903042638665</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0.20096482344220556</t>
+          <t>0.19673425494976024</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.6241214081291597</t>
+          <t>0.6281059120259078</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0.6241214081291597</t>
+          <t>0.6281059120259078</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>0.39926452465342976</t>
+          <t>0.5016827242219571</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>0.5784634083598382</t>
+          <t>0.5979093344704101</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>0.5683875585080195</t>
+          <t>0.5728462507073623</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0.378552146968553</t>
+          <t>0.5016827242219575</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>0.5433886092850276</t>
+          <t>0.5979093344704102</t>
         </is>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>0.5326475300535362</t>
+          <t>0.5482112041695334</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>0.4429928977036434</t>
+          <t>0.5857479300630469</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>0.4690180511294014</t>
+          <t>0.5498460990958574</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>0.6256834390546355</t>
+          <t>0.6311952331478198</t>
         </is>
       </c>
     </row>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>0.550693937032872</t>
+          <t>0.4843538404504818</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>0.34632219430575034</t>
+          <t>0.31717993036067565</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0.5361886406389087</t>
+          <t>0.516962330561893</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>0.5168349747837717</t>
+          <t>0.5282152657402645</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>0.3461715211790384</t>
+          <t>0.3181393046018169</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>0.4706985152054824</t>
+          <t>0.5635390341531077</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0.6469894341523392</t>
+          <t>0.5567987154996854</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>0.47848273550557985</t>
+          <t>0.4121817852737162</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>0.27235343665971984</t>
+          <t>0.53502370261789</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>0.43796629145781385</t>
+          <t>0.46104735408819286</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>0.4152117469963582</t>
+          <t>0.5328752731280704</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>0.43374051553682974</t>
+          <t>0.52100911880785</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>0.5138358476880817</t>
+          <t>0.5722250484473208</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>0.4046637753297074</t>
+          <t>0.35328284235759</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>0.7344461802527668</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>0.7344461802527668</t>
+          <t>0.7080374952286669</t>
         </is>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>0.16143191007279625</t>
+          <t>0.21487417385871446</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>0.5918775127888565</t>
+          <t>0.5656206411597501</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>0.20039701256248707</t>
+          <t>0.22187483121874932</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>0.47065040895934723</t>
+          <t>0.4448444292802011</t>
         </is>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>0.38893840258160334</t>
+          <t>0.4317216097987877</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>0.47891144876127245</t>
+          <t>0.3942303724440094</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>0.38893840258160334</t>
+          <t>0.4317216097987877</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>0.4599912254543696</t>
+          <t>0.4557682903308298</t>
         </is>
       </c>
     </row>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>0.48895266809355425</t>
+          <t>0.4281987503152837</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>0.38893840258160334</t>
+          <t>0.4317216097987877</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>0.5110841451836617</t>
+          <t>0.40182005800144216</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>0.5649677413179722</t>
+          <t>0.5882054785907046</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>0.38893840258160334</t>
+          <t>0.4317216097987877</t>
         </is>
       </c>
     </row>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>0.762486906012334</t>
+          <t>0.8456991049834113</t>
         </is>
       </c>
     </row>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>0.4230177479063915</t>
+          <t>0.4599697243400553</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>0.4230177479063915</t>
+          <t>0.4599697243400553</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>0.4389511273846298</t>
+          <t>0.4743051885507252</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>0.4230177479063915</t>
+          <t>0.4599697243400553</t>
         </is>
       </c>
     </row>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>0.47428147822999034</t>
+          <t>0.4290431881612218</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>0.4389511273846298</t>
+          <t>0.4743051885507252</t>
         </is>
       </c>
     </row>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>0.4230177479063915</t>
+          <t>0.4599697243400553</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>0.41166209107414814</t>
+          <t>0.4290431881612218</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>0.5728823760247901</t>
+          <t>0.6111679888727563</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>0.4230177479063915</t>
+          <t>0.4599697243400553</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>0.5728823760247901</t>
+          <t>0.6111679888727563</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>0.712491341996058</t>
+          <t>0.6724911390032532</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>0.3428732817276683</t>
+          <t>0.3507473556857569</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>0.5339320749973153</t>
+          <t>0.3677459425807086</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>0.6047977777664206</t>
+          <t>0.5814514156273307</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>0.4958011125610864</t>
+          <t>0.48967685045385484</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>0.39349520535935767</t>
+          <t>0.41262740609230586</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>0.39622539745000673</t>
+          <t>0.34657460596664486</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>0.34299948960417503</t>
+          <t>0.38944983925479076</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>0.28586078309208435</t>
+          <t>0.3848957653930927</t>
         </is>
       </c>
     </row>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>0.3723973425481127</t>
+          <t>0.42156429896952785</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>0.33269364169377197</t>
+          <t>0.3797134806932459</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>0.38950788363476363</t>
+          <t>0.34657460596664486</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>0.9162040797549373</t>
+          <t>0.9560898739101289</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>0.506880914847165</t>
+          <t>0.5311646168138852</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>0.47065040895934723</t>
+          <t>0.4448444292802011</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>0.4230177479063915</t>
+          <t>0.4599697243400553</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>0.2159638174664804</t>
+          <t>0.3029796644375944</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>0.9182958340544891</t>
+          <t>0.9468188316776022</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>0.38762856231110343</t>
+          <t>0.37929659241092784</t>
         </is>
       </c>
     </row>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>0.9182958340544891</t>
+          <t>0.9468188316776022</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>0.727879245892213</t>
+          <t>0.6427083618377697</t>
         </is>
       </c>
     </row>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>0.38399345374653027</t>
+          <t>0.3401942596100818</t>
         </is>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>0.9182958340544891</t>
+          <t>0.9468188316776022</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>0.541109087273931</t>
+          <t>0.46238996085831197</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>0.24175938479001352</t>
+          <t>0.27519924027784887</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>0.9182958340544891</t>
+          <t>0.9468188316776022</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>0.4130773794570945</t>
+          <t>0.47765114336742315</t>
         </is>
       </c>
     </row>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>0.22476020829253365</t>
+          <t>0.24468063320723474</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>0.22476020829253365</t>
+          <t>0.24468063320723474</t>
         </is>
       </c>
     </row>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>0.2845206727574669</t>
+          <t>0.228003677401838</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>0.22476020829253365</t>
+          <t>0.22679102021240274</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>0.3484742073721021</t>
+          <t>0.32493672168010945</t>
         </is>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>0.2845206727574669</t>
+          <t>0.228003677401838</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>0.22476020829253365</t>
+          <t>0.22679102021240274</t>
         </is>
       </c>
     </row>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>0.3484742073721022</t>
+          <t>0.32493672168010945</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>0.2385438938852434</t>
+          <t>0.21443951295911443</t>
         </is>
       </c>
     </row>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>0.22476020829253365</t>
+          <t>0.22679102021240274</t>
         </is>
       </c>
     </row>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>0.26454545129957535</t>
+          <t>0.26134044881243634</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>0.3053483959128979</t>
+          <t>0.38251894147086435</t>
         </is>
       </c>
     </row>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>0.37023091966862187</t>
+          <t>0.3673177673855158</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>0.49663731680165185</t>
+          <t>0.46542515325802025</t>
         </is>
       </c>
     </row>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>0.4153447841612357</t>
+          <t>0.37237719231485095</t>
         </is>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>0.3130436703805798</t>
+          <t>0.37119315454063156</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>0.4384454894221345</t>
+          <t>0.43070221382764284</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>0.31304367038057984</t>
+          <t>0.3150467023636948</t>
         </is>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>0.37607931924685</t>
+          <t>0.34924279030082533</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>0.3541965871778484</t>
+          <t>0.4096893007381204</t>
         </is>
       </c>
     </row>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>0.30873809579343997</t>
+          <t>0.40906893486864154</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>0.3351286482826037</t>
+          <t>0.40684803806562625</t>
         </is>
       </c>
     </row>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>0.44842912545942193</t>
+          <t>0.4011511598836246</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>0.2621157352336785</t>
+          <t>0.20230586338051487</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>0.29378351123414204</t>
+          <t>0.33954642905764604</t>
         </is>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>0.16143191007279625</t>
+          <t>0.21487417385871446</t>
         </is>
       </c>
     </row>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>0.47294407357603885</t>
+          <t>0.3662297146586319</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>0.9468188316776022</t>
+          <t>0.9587118829771317</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>0.22476020829253365</t>
+          <t>0.2446806332072349</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>0.19389161498351196</t>
+          <t>0.2193541530685308</t>
         </is>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>0.39991052143311745</t>
+          <t>0.3961820573489579</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>0.9182958340544891</t>
+          <t>0.9468188316776022</t>
         </is>
       </c>
     </row>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>0.6222966772806342</t>
+          <t>0.5793055883503587</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>0.49759902283812524</t>
+          <t>0.40435611837896385</t>
         </is>
       </c>
     </row>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>0.9182958340544891</t>
+          <t>0.9468188316776022</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>0.6030448511036959</t>
+          <t>0.5058440254517312</t>
         </is>
       </c>
     </row>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>0.21909469737965143</t>
+          <t>0.2662679143712708</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>0.9182958340544891</t>
+          <t>0.9468188316776022</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>0.42338814216502124</t>
+          <t>0.4646531624393683</t>
         </is>
       </c>
     </row>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>0.19212473316717937</t>
+          <t>0.2327875819077052</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>0.19212473316717937</t>
+          <t>0.2327875819077052</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>0.2527200523252805</t>
+          <t>0.23951921700071352</t>
         </is>
       </c>
     </row>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>0.19212473316717937</t>
+          <t>0.20679786213921172</t>
         </is>
       </c>
     </row>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>0.3163270469569117</t>
+          <t>0.31304367038057995</t>
         </is>
       </c>
     </row>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>0.25272005232528083</t>
+          <t>0.23951921700071352</t>
         </is>
       </c>
     </row>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>0.1921247331671797</t>
+          <t>0.20679786213921172</t>
         </is>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>0.31632704695691183</t>
+          <t>0.31304367038057995</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>0.22405251175312324</t>
+          <t>0.19301417654650163</t>
         </is>
       </c>
     </row>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>0.19212473316717937</t>
+          <t>0.20679786213921172</t>
         </is>
       </c>
     </row>
@@ -4363,7 +4363,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>0.23815460286192366</t>
+          <t>0.24944739751290682</t>
         </is>
       </c>
     </row>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>0.3816094803441639</t>
+          <t>0.4133236034394747</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>0.39127157607113966</t>
+          <t>0.42731876391107837</t>
         </is>
       </c>
     </row>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>0.5678850781316426</t>
+          <t>0.49330015676584743</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>0.3832952390526646</t>
+          <t>0.35986426600183724</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>0.2908231168442175</t>
+          <t>0.30498583842833676</t>
         </is>
       </c>
     </row>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>0.4928392291668364</t>
+          <t>0.4512271348301719</t>
         </is>
       </c>
     </row>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>0.35536403981568687</t>
+          <t>0.3514904205632645</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>0.36447884439191264</t>
+          <t>0.3373497390012959</t>
         </is>
       </c>
     </row>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>0.41677160001687474</t>
+          <t>0.4463249618909184</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>0.3365119349900514</t>
+          <t>0.39717588356911177</t>
         </is>
       </c>
     </row>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>0.402507936055783</t>
+          <t>0.39495498676609697</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>0.43808465208593855</t>
+          <t>0.44404235543769593</t>
         </is>
       </c>
     </row>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>0.24529395675847812</t>
+          <t>0.1849334105170181</t>
         </is>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>0.3040357620427356</t>
+          <t>0.36849285865385034</t>
         </is>
       </c>
     </row>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>0.1477001241698316</t>
+          <t>0.20688903042638665</t>
         </is>
       </c>
     </row>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>0.39244634463163103</t>
+          <t>0.3137398420057084</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>0.9182958340544891</t>
+          <t>0.9468188316776022</t>
         </is>
       </c>
     </row>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>0.19212473316717937</t>
+          <t>0.23278758190770535</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>0.18582022931181963</t>
+          <t>0.22672579005553053</t>
         </is>
       </c>
     </row>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>0.39991052143311745</t>
+          <t>0.3961820573489579</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>0.39991052143311745</t>
+          <t>0.3961820573489579</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9088985780346425</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>0.39991052143311745</t>
+          <t>0.3961820573489579</t>
         </is>
       </c>
     </row>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>0.7452757839219933</t>
+          <t>0.6970460778666032</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>0.34373262429128815</t>
+          <t>0.34592782868411287</t>
         </is>
       </c>
     </row>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>0.3437326242912875</t>
+          <t>0.34592782868411254</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>0.4080666309148359</t>
+          <t>0.37195114089386505</t>
         </is>
       </c>
     </row>
@@ -4890,7 +4890,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>0.3147838472857705</t>
+          <t>0.3225727172610884</t>
         </is>
       </c>
     </row>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>0.45607113838351937</t>
+          <t>0.4003630288170899</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>0.39265850283655734</t>
+          <t>0.3673467616497841</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>0.3117390935342929</t>
+          <t>0.3219408854351443</t>
         </is>
       </c>
     </row>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>0.4917155225289803</t>
+          <t>0.4085224379249824</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>0.408066630914836</t>
+          <t>0.3719511408938652</t>
         </is>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>0.3117390935342929</t>
+          <t>0.3219408854351443</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>0.4168063609041019</t>
+          <t>0.3719511408938652</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>0.7368525675904196</t>
+          <t>0.7675208514695983</t>
         </is>
       </c>
     </row>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>0.7078149074160964</t>
+          <t>0.7774070751342499</t>
         </is>
       </c>
     </row>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>0.8155382394295998</t>
+          <t>0.8018827091899242</t>
         </is>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>0.7574223097095582</t>
+          <t>0.782670550276657</t>
         </is>
       </c>
     </row>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>0.43106401917470927</t>
+          <t>0.4191858567973403</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>0.6697472026026526</t>
+          <t>0.690762534137396</t>
         </is>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>0.7779572669758591</t>
+          <t>0.848636932801145</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>0.6799936487928736</t>
+          <t>0.6605542074537893</t>
         </is>
       </c>
     </row>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>0.32155154643779466</t>
+          <t>0.4352880359444055</t>
         </is>
       </c>
     </row>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>0.5975303013229843</t>
+          <t>0.6460879909264385</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>0.6939362401296165</t>
+          <t>0.8185278075865883</t>
         </is>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>0.6888761142889125</t>
+          <t>0.8285613842371033</t>
         </is>
       </c>
     </row>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>0.4109218226620718</t>
+          <t>0.38805100236209966</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>0.4167411841429774</t>
+          <t>0.3476292233880889</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>0.3370101249910274</t>
+          <t>0.28353924467164865</t>
         </is>
       </c>
     </row>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>0.39455276675489254</t>
+          <t>0.3244457777950712</t>
         </is>
       </c>
     </row>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>0.3572666681540323</t>
+          <t>0.37929659241092784</t>
         </is>
       </c>
     </row>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>0.3117390935342929</t>
+          <t>0.3219408854351443</t>
         </is>
       </c>
     </row>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>0.248754253304538</t>
+          <t>0.25849378887825974</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>0.6222966772806342</t>
+          <t>0.5793055883503587</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>0.49759902283812524</t>
+          <t>0.4872018477261635</t>
         </is>
       </c>
     </row>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>0.9182958340544891</t>
+          <t>0.9468188316776022</t>
         </is>
       </c>
     </row>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>0.6109944860575546</t>
+          <t>0.5058440254517312</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>0.24038937638865535</t>
+          <t>0.28757542673238895</t>
         </is>
       </c>
     </row>
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>0.9182958340544891</t>
+          <t>0.9468188316776022</t>
         </is>
       </c>
     </row>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>0.42338814216502124</t>
+          <t>0.4646531624393683</t>
         </is>
       </c>
     </row>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>0.19212473316717937</t>
+          <t>0.2327875819077052</t>
         </is>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>0.19212473316717937</t>
+          <t>0.2327875819077052</t>
         </is>
       </c>
     </row>
@@ -5502,7 +5502,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>0.2527200523252805</t>
+          <t>0.21975552655886393</t>
         </is>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>0.19212473316717937</t>
+          <t>0.18703417169736206</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>0.3163270469569117</t>
+          <t>0.31304367038057995</t>
         </is>
       </c>
     </row>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>0.25272005232528083</t>
+          <t>0.21975552655886402</t>
         </is>
       </c>
     </row>
@@ -5570,7 +5570,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>0.1921247331671797</t>
+          <t>0.18703417169736206</t>
         </is>
       </c>
     </row>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>0.31632704695691183</t>
+          <t>0.31304367038057995</t>
         </is>
       </c>
     </row>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>0.22405251175312324</t>
+          <t>0.1732504861046522</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>0.19212473316717937</t>
+          <t>0.18703417169736206</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>0.23815460286192366</t>
+          <t>0.24944739751290682</t>
         </is>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>0.3816094803441639</t>
+          <t>0.4133236034394747</t>
         </is>
       </c>
     </row>
@@ -5672,7 +5672,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>0.4713013556131841</t>
+          <t>0.5041226499131446</t>
         </is>
       </c>
     </row>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>0.5678850781316426</t>
+          <t>0.5032583347756449</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>0.3832952390526646</t>
+          <t>0.39382840383338086</t>
         </is>
       </c>
     </row>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>0.2908231168442175</t>
+          <t>0.30498583842833676</t>
         </is>
       </c>
     </row>
@@ -5740,7 +5740,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>0.4928392291668364</t>
+          <t>0.4512271348301719</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>0.35587499251131766</t>
+          <t>0.36157621676550955</t>
         </is>
       </c>
     </row>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>0.36447884439191264</t>
+          <t>0.3389715022657522</t>
         </is>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>0.41677160001687474</t>
+          <t>0.4463249618909184</t>
         </is>
       </c>
     </row>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>0.38927058666531605</t>
+          <t>0.41491980426405267</t>
         </is>
       </c>
     </row>
@@ -5825,7 +5825,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>0.402507936055783</t>
+          <t>0.39495498676609697</t>
         </is>
       </c>
     </row>
@@ -5842,7 +5842,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>0.43808465208593855</t>
+          <t>0.44404235543769593</t>
         </is>
       </c>
     </row>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>0.2656340965674998</t>
+          <t>0.30255102217125696</t>
         </is>
       </c>
     </row>
@@ -5876,7 +5876,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>0.20073779033689154</t>
+          <t>0.29524315585388783</t>
         </is>
       </c>
     </row>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>0.1477001241698316</t>
+          <t>0.20688903042638665</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>0.39244634463163103</t>
+          <t>0.30778522733372604</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>0.9182958340544891</t>
+          <t>0.9468188316776022</t>
         </is>
       </c>
     </row>
@@ -5944,7 +5944,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>0.19212473316717937</t>
+          <t>0.23278758190770535</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>0.18582022931181963</t>
+          <t>0.22672579005553053</t>
         </is>
       </c>
     </row>
@@ -5978,7 +5978,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>0.8676711198245338</t>
+          <t>0.924343842164097</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>0.6222966772806342</t>
+          <t>0.5793055883503587</t>
         </is>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>0.67060809276255</t>
+          <t>0.6504674159305601</t>
         </is>
       </c>
     </row>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>0.6222966772806342</t>
+          <t>0.5793055883503587</t>
         </is>
       </c>
     </row>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>0.8640247313608159</t>
+          <t>0.7304073491669757</t>
         </is>
       </c>
     </row>
@@ -6080,7 +6080,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>0.38691486497861716</t>
+          <t>0.40067832772740786</t>
         </is>
       </c>
     </row>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>0.38691486497861705</t>
+          <t>0.40067832772740786</t>
         </is>
       </c>
     </row>
@@ -6114,7 +6114,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>0.477666659169714</t>
+          <t>0.4171457216439603</t>
         </is>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>0.38691486497861705</t>
+          <t>0.40067832772740786</t>
         </is>
       </c>
     </row>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>0.5905134668909925</t>
+          <t>0.48393620594527226</t>
         </is>
       </c>
     </row>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>0.477666659169714</t>
+          <t>0.4171457216439603</t>
         </is>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>0.38691486497861705</t>
+          <t>0.40067832772740786</t>
         </is>
       </c>
     </row>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>0.5905134668909924</t>
+          <t>0.48393620594527226</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>0.50459125899323</t>
+          <t>0.4469029661929172</t>
         </is>
       </c>
     </row>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>0.38691486497861705</t>
+          <t>0.40067832772740786</t>
         </is>
       </c>
     </row>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>0.50459125899323</t>
+          <t>0.4469029661929172</t>
         </is>
       </c>
     </row>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>0.7275819714657263</t>
+          <t>0.7608581848572777</t>
         </is>
       </c>
     </row>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>0.7299643800557127</t>
+          <t>0.7562739102033489</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9425223664137268</t>
         </is>
       </c>
     </row>
@@ -6318,7 +6318,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>0.8466610156759287</t>
+          <t>0.9190854481162107</t>
         </is>
       </c>
     </row>
@@ -6335,7 +6335,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>0.3796544047018464</t>
+          <t>0.3902477412839726</t>
         </is>
       </c>
     </row>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>0.7145382671418894</t>
+          <t>0.8057868936397197</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>0.9680722152143111</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>0.7602326804736282</t>
+          <t>0.8101023253617069</t>
         </is>
       </c>
     </row>
@@ -6403,7 +6403,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>0.3476458694559978</t>
+          <t>0.3915992205998156</t>
         </is>
       </c>
     </row>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>0.7862702427467394</t>
+          <t>0.8284963083612247</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>0.8016055481719377</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -6454,7 +6454,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>0.7964488828671946</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>0.55317056601393</t>
+          <t>0.4562549604690207</t>
         </is>
       </c>
     </row>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>0.6011438111042925</t>
+          <t>0.5018118232295772</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>0.37591687067936563</t>
+          <t>0.33785030698470236</t>
         </is>
       </c>
     </row>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>0.6011438111042925</t>
+          <t>0.5018118232295772</t>
         </is>
       </c>
     </row>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>0.727879245892213</t>
+          <t>0.6427083618377697</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>0.38691486497861705</t>
+          <t>0.40067832772740786</t>
         </is>
       </c>
     </row>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>0.2598884457091272</t>
+          <t>0.19157739600165333</t>
         </is>
       </c>
     </row>
@@ -6590,7 +6590,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>0.44608930065024366</t>
+          <t>0.4538706497879114</t>
         </is>
       </c>
     </row>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>0.9307941906810289</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -6624,7 +6624,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>0.8442610409189661</t>
+          <t>0.7368733157775958</t>
         </is>
       </c>
     </row>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>0.3763201135666266</t>
+          <t>0.31860212331488047</t>
         </is>
       </c>
     </row>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>0.6785695822245655</t>
+          <t>0.5895700791238722</t>
         </is>
       </c>
     </row>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>0.3324002805861069</t>
+          <t>0.3438926512071362</t>
         </is>
       </c>
     </row>
@@ -6692,7 +6692,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>0.3324002805861075</t>
+          <t>0.3438926512071361</t>
         </is>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>0.4105472236229926</t>
+          <t>0.35979507738335015</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>0.3068518797415577</t>
+          <t>0.31214661946110445</t>
         </is>
       </c>
     </row>
@@ -6743,7 +6743,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>0.4599694907829485</t>
+          <t>0.3729902062909118</t>
         </is>
       </c>
     </row>
@@ -6760,7 +6760,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>0.39265850283655734</t>
+          <t>0.3467235376796423</t>
         </is>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>0.3029864148571419</t>
+          <t>0.3121466194611051</t>
         </is>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>0.4917155225289803</t>
+          <t>0.4085224379249824</t>
         </is>
       </c>
     </row>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>0.390445233379695</t>
+          <t>0.34389265120713647</t>
         </is>
       </c>
     </row>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>0.2984962081856721</t>
+          <t>0.28790102955825775</t>
         </is>
       </c>
     </row>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>0.4168063609041019</t>
+          <t>0.3695753192940088</t>
         </is>
       </c>
     </row>
@@ -6862,7 +6862,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>0.8062181502249777</t>
+          <t>0.7675208514695983</t>
         </is>
       </c>
     </row>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>0.6822650586155121</t>
+          <t>0.7774070751342499</t>
         </is>
       </c>
     </row>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>0.8903484540676481</t>
+          <t>0.8149441108051378</t>
         </is>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>0.6694733955776841</t>
+          <t>0.782670550276657</t>
         </is>
       </c>
     </row>
@@ -6930,7 +6930,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>0.46335441360963975</t>
+          <t>0.4191858567973404</t>
         </is>
       </c>
     </row>
@@ -6947,7 +6947,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>0.6652805216087668</t>
+          <t>0.690762534137396</t>
         </is>
       </c>
     </row>
@@ -6964,7 +6964,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>0.7741157024807118</t>
+          <t>0.848636932801145</t>
         </is>
       </c>
     </row>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>0.6901883250673005</t>
+          <t>0.6605542074537893</t>
         </is>
       </c>
     </row>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>0.32574813036375</t>
+          <t>0.4352880359444055</t>
         </is>
       </c>
     </row>
@@ -7015,7 +7015,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>0.6983891906399218</t>
+          <t>0.6460879909264385</t>
         </is>
       </c>
     </row>
@@ -7032,7 +7032,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>0.7236899413646968</t>
+          <t>0.8185278075865883</t>
         </is>
       </c>
     </row>
@@ -7049,7 +7049,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>0.7248679790269116</t>
+          <t>0.8285613842371032</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>0.46523363914483695</t>
+          <t>0.31611173382943203</t>
         </is>
       </c>
     </row>
@@ -7083,7 +7083,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>0.42437500678231344</t>
+          <t>0.3646573709015423</t>
         </is>
       </c>
     </row>
@@ -7100,7 +7100,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>0.33964006638170985</t>
+          <t>0.28353924467164865</t>
         </is>
       </c>
     </row>
@@ -7117,7 +7117,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>0.44751715013694904</t>
+          <t>0.3244457777950712</t>
         </is>
       </c>
     </row>
@@ -7134,7 +7134,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>0.41014227673769793</t>
+          <t>0.37419525282515154</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>0.2984962081856721</t>
+          <t>0.31214661946110445</t>
         </is>
       </c>
     </row>
@@ -7168,7 +7168,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>0.22761001336699385</t>
+          <t>0.20962354310843853</t>
         </is>
       </c>
     </row>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>0.6030448511036959</t>
+          <t>0.5058440254517312</t>
         </is>
       </c>
     </row>
@@ -7202,7 +7202,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>0.19666100333844153</t>
+          <t>0.2995971972100134</t>
         </is>
       </c>
     </row>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>0.9182958340544891</t>
+          <t>0.9468188316776022</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>0.42338814216502124</t>
+          <t>0.4646531624393683</t>
         </is>
       </c>
     </row>
@@ -7253,7 +7253,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>0.19212473316717937</t>
+          <t>0.2327875819077052</t>
         </is>
       </c>
     </row>
@@ -7270,7 +7270,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>0.19212473316717937</t>
+          <t>0.2327875819077052</t>
         </is>
       </c>
     </row>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>0.2527200523252805</t>
+          <t>0.21975552655886385</t>
         </is>
       </c>
     </row>
@@ -7304,7 +7304,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>0.19212473316717937</t>
+          <t>0.18703417169736206</t>
         </is>
       </c>
     </row>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>0.3163270469569117</t>
+          <t>0.31304367038057995</t>
         </is>
       </c>
     </row>
@@ -7338,7 +7338,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>0.25272005232528083</t>
+          <t>0.21975552655886385</t>
         </is>
       </c>
     </row>
@@ -7355,7 +7355,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>0.1921247331671797</t>
+          <t>0.18703417169736206</t>
         </is>
       </c>
     </row>
@@ -7372,7 +7372,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>0.31632704695691183</t>
+          <t>0.31304367038057995</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>0.22405251175312324</t>
+          <t>0.1732504861046522</t>
         </is>
       </c>
     </row>
@@ -7406,7 +7406,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>0.19212473316717937</t>
+          <t>0.18703417169736206</t>
         </is>
       </c>
     </row>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>0.23815460286192366</t>
+          <t>0.24944739751290682</t>
         </is>
       </c>
     </row>
@@ -7440,7 +7440,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>0.3816094803441639</t>
+          <t>0.4133236034394747</t>
         </is>
       </c>
     </row>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>0.39127157607113966</t>
+          <t>0.4707914519748919</t>
         </is>
       </c>
     </row>
@@ -7474,7 +7474,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>0.5678850781316426</t>
+          <t>0.49330015676584743</t>
         </is>
       </c>
     </row>
@@ -7491,7 +7491,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>0.3832952390526646</t>
+          <t>0.39382840383338086</t>
         </is>
       </c>
     </row>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>0.2908231168442175</t>
+          <t>0.30498583842833676</t>
         </is>
       </c>
     </row>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>0.4928392291668364</t>
+          <t>0.4512271348301719</t>
         </is>
       </c>
     </row>
@@ -7542,7 +7542,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>0.35536403981568687</t>
+          <t>0.3514904205632645</t>
         </is>
       </c>
     </row>
@@ -7559,7 +7559,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>0.36447884439191264</t>
+          <t>0.3373497390012959</t>
         </is>
       </c>
     </row>
@@ -7576,7 +7576,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>0.41677160001687474</t>
+          <t>0.4463249618909184</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>0.33673052555670835</t>
+          <t>0.39717588356911177</t>
         </is>
       </c>
     </row>
@@ -7610,7 +7610,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>0.402507936055783</t>
+          <t>0.39495498676609697</t>
         </is>
       </c>
     </row>
@@ -7627,7 +7627,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>0.43808465208593855</t>
+          <t>0.44873316561389687</t>
         </is>
       </c>
     </row>
@@ -7644,7 +7644,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>0.26563211727841324</t>
+          <t>0.24273464702119815</t>
         </is>
       </c>
     </row>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>0.20073779033689154</t>
+          <t>0.29524315585388783</t>
         </is>
       </c>
     </row>
@@ -7678,7 +7678,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>0.1477001241698316</t>
+          <t>0.20688903042638665</t>
         </is>
       </c>
     </row>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>0.39244634463163103</t>
+          <t>0.30778522733372604</t>
         </is>
       </c>
     </row>
@@ -7712,7 +7712,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>0.9182958340544891</t>
+          <t>0.9468188316776022</t>
         </is>
       </c>
     </row>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>0.19212473316717937</t>
+          <t>0.23278758190770535</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>0.18582022931181963</t>
+          <t>0.22672579005553053</t>
         </is>
       </c>
     </row>
@@ -7763,7 +7763,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>0.7837922076835679</t>
+          <t>0.6249175671299756</t>
         </is>
       </c>
     </row>
@@ -7780,7 +7780,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>0.6030448511036959</t>
+          <t>0.5058440254517312</t>
         </is>
       </c>
     </row>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>0.7943506774825009</t>
+          <t>0.6760172647311443</t>
         </is>
       </c>
     </row>
@@ -7814,7 +7814,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>0.36644055825330435</t>
+          <t>0.3732887056967082</t>
         </is>
       </c>
     </row>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>0.36644055825330435</t>
+          <t>0.3732887056967082</t>
         </is>
       </c>
     </row>
@@ -7848,7 +7848,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>0.4499196515262309</t>
+          <t>0.3989127503641182</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>0.36644055825330435</t>
+          <t>0.3732887056967082</t>
         </is>
       </c>
     </row>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>0.5400075197148972</t>
+          <t>0.44803570545064225</t>
         </is>
       </c>
     </row>
@@ -7899,7 +7899,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>0.45959985658587077</t>
+          <t>0.40377481066831233</t>
         </is>
       </c>
     </row>
@@ -7916,7 +7916,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>0.36644055825330435</t>
+          <t>0.3732887056967082</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>0.5400075197148972</t>
+          <t>0.44803570545064225</t>
         </is>
       </c>
     </row>
@@ -7950,7 +7950,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>0.4704816084995597</t>
+          <t>0.4242034062781624</t>
         </is>
       </c>
     </row>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>0.36644055825330435</t>
+          <t>0.3732887056967082</t>
         </is>
       </c>
     </row>
@@ -7984,7 +7984,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>0.4858963322715903</t>
+          <t>0.42884463877907536</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>0.7333889753042874</t>
+          <t>0.8442584206146244</t>
         </is>
       </c>
     </row>
@@ -8018,7 +8018,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>0.8068794692207447</t>
+          <t>0.8276083215248069</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>0.9039159615640504</t>
+          <t>0.9560898739101291</t>
         </is>
       </c>
     </row>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>0.3796544047018464</t>
+          <t>0.33152023883427795</t>
         </is>
       </c>
     </row>
@@ -8086,7 +8086,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>0.7837922076835679</t>
+          <t>0.8629338464233577</t>
         </is>
       </c>
     </row>
@@ -8120,7 +8120,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>0.7862702427467394</t>
+          <t>0.7991518127948039</t>
         </is>
       </c>
     </row>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>0.3806890196498463</t>
+          <t>0.5216201462112753</t>
         </is>
       </c>
     </row>
@@ -8154,7 +8154,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>0.7521906577609696</t>
+          <t>0.8365554245151754</t>
         </is>
       </c>
     </row>
@@ -8171,7 +8171,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>0.9340768271178619</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>0.8967988025845799</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -8205,7 +8205,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>0.46367565527575255</t>
+          <t>0.3734389244766753</t>
         </is>
       </c>
     </row>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>0.4784944449145983</t>
+          <t>0.4093016048319834</t>
         </is>
       </c>
     </row>
@@ -8239,7 +8239,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>0.35872258008654434</t>
+          <t>0.3060750101276807</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8256,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>0.4784944449145983</t>
+          <t>0.4093016048319834</t>
         </is>
       </c>
     </row>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>0.5509545155613469</t>
+          <t>0.46238996085831197</t>
         </is>
       </c>
     </row>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>0.36644055825330435</t>
+          <t>0.3732887056967082</t>
         </is>
       </c>
     </row>
@@ -8307,7 +8307,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>0.23702493180095782</t>
+          <t>0.20048868867715086</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>0.11467486851491987</t>
+          <t>0.21898483564964394</t>
         </is>
       </c>
     </row>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>0.2706554794794808</t>
+          <t>0.2601607439012952</t>
         </is>
       </c>
     </row>
@@ -8375,7 +8375,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>0.270655479479481</t>
+          <t>0.26016074390129534</t>
         </is>
       </c>
     </row>
@@ -8392,7 +8392,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>0.06601224606027137</t>
+          <t>0.07119908550997914</t>
         </is>
       </c>
     </row>
@@ -8409,7 +8409,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>0.06619824352035349</t>
+          <t>0.08025409483757799</t>
         </is>
       </c>
     </row>
@@ -8426,7 +8426,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>0.41607282493784803</t>
+          <t>0.31760025921013596</t>
         </is>
       </c>
     </row>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>0.09746048798106442</t>
+          <t>0.09977191907746574</t>
         </is>
       </c>
     </row>
@@ -8460,7 +8460,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>0.06619824352035349</t>
+          <t>0.08025409483757799</t>
         </is>
       </c>
     </row>
@@ -8477,7 +8477,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>0.33038444248636695</t>
+          <t>0.25794271826071014</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>0.09298777085892326</t>
+          <t>0.09424610006148333</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>0.046641638023925014</t>
+          <t>0.08025409483757799</t>
         </is>
       </c>
     </row>
@@ -8528,7 +8528,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>0.3055749246589765</t>
+          <t>0.2598884457091272</t>
         </is>
       </c>
     </row>
@@ -8545,7 +8545,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>0.5778620898624917</t>
+          <t>0.5625561774629823</t>
         </is>
       </c>
     </row>
@@ -8562,7 +8562,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>0.47960226471583517</t>
+          <t>0.5257095876631026</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>0.6586257514583681</t>
+          <t>0.4380755724007571</t>
         </is>
       </c>
     </row>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>0.32357445435514</t>
+          <t>0.3766413328648201</t>
         </is>
       </c>
     </row>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>0.5206213533767391</t>
+          <t>0.40675916418225333</t>
         </is>
       </c>
     </row>
@@ -8630,7 +8630,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>0.2756236976257038</t>
+          <t>0.41606514591283206</t>
         </is>
       </c>
     </row>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>0.4814397230864199</t>
+          <t>0.3507062039272625</t>
         </is>
       </c>
     </row>
@@ -8664,7 +8664,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>0.34825652336043417</t>
+          <t>0.3943093688077598</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>0.3976361116517461</t>
+          <t>0.366167209829541</t>
         </is>
       </c>
     </row>
@@ -8698,7 +8698,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>0.48606853298754715</t>
+          <t>0.4798858416899267</t>
         </is>
       </c>
     </row>
@@ -8715,7 +8715,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>0.3816969887021292</t>
+          <t>0.3530220833211469</t>
         </is>
       </c>
     </row>
@@ -8732,7 +8732,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>0.46506931340497265</t>
+          <t>0.4192805336082123</t>
         </is>
       </c>
     </row>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>0.39329429103318925</t>
+          <t>0.3787880341971511</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8766,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>0.49945801051724703</t>
+          <t>0.6425240711945523</t>
         </is>
       </c>
     </row>
@@ -8783,7 +8783,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>0.18236600100278863</t>
+          <t>0.19673425494976024</t>
         </is>
       </c>
     </row>
@@ -8800,7 +8800,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>0.5895134313728688</t>
+          <t>0.5579261200093194</t>
         </is>
       </c>
     </row>
@@ -8817,7 +8817,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>0.18549416402547123</t>
+          <t>0.24030750379064308</t>
         </is>
       </c>
     </row>
@@ -8834,7 +8834,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>0.15876445550371582</t>
+          <t>0.2025925651625112</t>
         </is>
       </c>
     </row>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>0.24107584052862285</t>
+          <t>0.26238113522116074</t>
         </is>
       </c>
     </row>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>0.42338814216502124</t>
+          <t>0.4646531624393683</t>
         </is>
       </c>
     </row>
@@ -8885,7 +8885,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>0.1921247331671797</t>
+          <t>0.2327875819077052</t>
         </is>
       </c>
     </row>
@@ -8902,7 +8902,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>0.1921247331671797</t>
+          <t>0.2327875819077052</t>
         </is>
       </c>
     </row>
@@ -8919,7 +8919,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>0.25272005232528083</t>
+          <t>0.18560427944718622</t>
         </is>
       </c>
     </row>
@@ -8936,7 +8936,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>0.1921247331671797</t>
+          <t>0.15288292458568484</t>
         </is>
       </c>
     </row>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>0.3163270469569117</t>
+          <t>0.31304367038057995</t>
         </is>
       </c>
     </row>
@@ -8970,7 +8970,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>0.25272005232528083</t>
+          <t>0.18560427944718655</t>
         </is>
       </c>
     </row>
@@ -8987,7 +8987,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>0.1921247331671797</t>
+          <t>0.15288292458568484</t>
         </is>
       </c>
     </row>
@@ -9004,7 +9004,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>0.31632704695691183</t>
+          <t>0.31304367038057995</t>
         </is>
       </c>
     </row>
@@ -9021,7 +9021,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>0.22405251175312324</t>
+          <t>0.15646542594182775</t>
         </is>
       </c>
     </row>
@@ -9038,7 +9038,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>0.1921247331671797</t>
+          <t>0.15288292458568484</t>
         </is>
       </c>
     </row>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>0.23815460286192366</t>
+          <t>0.24944739751290682</t>
         </is>
       </c>
     </row>
@@ -9072,7 +9072,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>0.3816094803441639</t>
+          <t>0.4133236034394747</t>
         </is>
       </c>
     </row>
@@ -9089,7 +9089,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>0.39127157607113966</t>
+          <t>0.42731876391107837</t>
         </is>
       </c>
     </row>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>0.5678850781316426</t>
+          <t>0.49330015676584743</t>
         </is>
       </c>
     </row>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>0.3832952390526646</t>
+          <t>0.35986426600183724</t>
         </is>
       </c>
     </row>
@@ -9140,7 +9140,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>0.2908231168442175</t>
+          <t>0.30498583842833676</t>
         </is>
       </c>
     </row>
@@ -9157,7 +9157,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>0.4928392291668364</t>
+          <t>0.4512271348301719</t>
         </is>
       </c>
     </row>
@@ -9174,7 +9174,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>0.35536403981568687</t>
+          <t>0.3514904205632645</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>0.36447884439191264</t>
+          <t>0.3373497390012959</t>
         </is>
       </c>
     </row>
@@ -9208,7 +9208,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>0.41677160001687474</t>
+          <t>0.4463249618909184</t>
         </is>
       </c>
     </row>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>0.3365119349900514</t>
+          <t>0.39717588356911177</t>
         </is>
       </c>
     </row>
@@ -9242,7 +9242,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>0.402507936055783</t>
+          <t>0.39495498676609697</t>
         </is>
       </c>
     </row>
@@ -9259,7 +9259,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>0.43808465208593855</t>
+          <t>0.44404235543769593</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>0.24529395675847812</t>
+          <t>0.20065321996474614</t>
         </is>
       </c>
     </row>
@@ -9293,7 +9293,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>0.20073779033689154</t>
+          <t>0.29524315585388783</t>
         </is>
       </c>
     </row>
@@ -9310,7 +9310,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>0.1477001241698316</t>
+          <t>0.20688903042638665</t>
         </is>
       </c>
     </row>
@@ -9327,7 +9327,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>0.39244634463163103</t>
+          <t>0.30778522733372604</t>
         </is>
       </c>
     </row>
@@ -9344,7 +9344,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>0.9182958340544891</t>
+          <t>0.9468188316776022</t>
         </is>
       </c>
     </row>
@@ -9361,7 +9361,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>0.1921247331671797</t>
+          <t>0.23278758190770535</t>
         </is>
       </c>
     </row>
@@ -9378,7 +9378,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>0.18582022931181963</t>
+          <t>0.22672579005553053</t>
         </is>
       </c>
     </row>
@@ -9395,7 +9395,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>0.2706554794794808</t>
+          <t>0.2601607439012952</t>
         </is>
       </c>
     </row>
@@ -9412,7 +9412,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>0.270655479479481</t>
+          <t>0.26016074390129534</t>
         </is>
       </c>
     </row>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>0.1844825621633069</t>
+          <t>0.1635655547168297</t>
         </is>
       </c>
     </row>
@@ -9446,7 +9446,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>0.1402053806508379</t>
+          <t>0.13318095504591437</t>
         </is>
       </c>
     </row>
@@ -9463,7 +9463,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>0.3756231821575085</t>
+          <t>0.3319215065335375</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>0.1844825621633069</t>
+          <t>0.1635655547168297</t>
         </is>
       </c>
     </row>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>0.1402053806508379</t>
+          <t>0.13318095504591437</t>
         </is>
       </c>
     </row>
@@ -9514,7 +9514,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>0.36067699164225486</t>
+          <t>0.28819313348332376</t>
         </is>
       </c>
     </row>
@@ -9531,7 +9531,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>0.14790707323653463</t>
+          <t>0.12962676238279958</t>
         </is>
       </c>
     </row>
@@ -9548,7 +9548,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>0.1402053806508379</t>
+          <t>0.13318095504591437</t>
         </is>
       </c>
     </row>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>0.32395060125471825</t>
+          <t>0.2663050103295676</t>
         </is>
       </c>
     </row>
@@ -9582,7 +9582,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>0.603909985993062</t>
+          <t>0.6257376163034019</t>
         </is>
       </c>
     </row>
@@ -9599,7 +9599,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>0.6298097971322403</t>
+          <t>0.6678329304461132</t>
         </is>
       </c>
     </row>
@@ -9616,7 +9616,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>0.7001215810217021</t>
+          <t>0.4776040990553387</t>
         </is>
       </c>
     </row>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>0.38017558095887166</t>
+          <t>0.4318275276583014</t>
         </is>
       </c>
     </row>
@@ -9650,7 +9650,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>0.5855642813314378</t>
+          <t>0.47288187973816254</t>
         </is>
       </c>
     </row>
@@ -9667,7 +9667,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>0.43437737606522575</t>
+          <t>0.4406369523598864</t>
         </is>
       </c>
     </row>
@@ -9684,7 +9684,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>0.47101955252795574</t>
+          <t>0.3507062039272625</t>
         </is>
       </c>
     </row>
@@ -9701,7 +9701,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>0.42010875213858845</t>
+          <t>0.4525304036266818</t>
         </is>
       </c>
     </row>
@@ -9718,7 +9718,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>0.3749426696011514</t>
+          <t>0.32187528294881174</t>
         </is>
       </c>
     </row>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>0.48989345071677326</t>
+          <t>0.5150263724587731</t>
         </is>
       </c>
     </row>
@@ -9752,7 +9752,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>0.40413538602346766</t>
+          <t>0.38537772392588077</t>
         </is>
       </c>
     </row>
@@ -9769,7 +9769,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>0.4927704818680878</t>
+          <t>0.5040133731971171</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9786,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>0.6202236091042962</t>
+          <t>0.6578867503795709</t>
         </is>
       </c>
     </row>
@@ -9803,7 +9803,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>0.6902837604611263</t>
+          <t>0.7457029881569638</t>
         </is>
       </c>
     </row>
@@ -9820,7 +9820,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>0.20096482344220556</t>
+          <t>0.19673425494976024</t>
         </is>
       </c>
     </row>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>0.6902837604611263</t>
+          <t>0.6890302658174002</t>
         </is>
       </c>
     </row>
@@ -9854,7 +9854,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>0.37790228820029764</t>
+          <t>0.43677815893154115</t>
         </is>
       </c>
     </row>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>0.15876445550371582</t>
+          <t>0.2025925651625112</t>
         </is>
       </c>
     </row>
@@ -9888,7 +9888,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>0.24107584052862285</t>
+          <t>0.2670786738758921</t>
         </is>
       </c>
     </row>
@@ -9905,7 +9905,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>0.8412367762002596</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -9922,7 +9922,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>0.4315878266296263</t>
+          <t>0.5682106500333173</t>
         </is>
       </c>
     </row>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>0.8412367762002596</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -9956,7 +9956,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>0.7839408956536437</t>
+          <t>0.8012136712667878</t>
         </is>
       </c>
     </row>
@@ -9973,7 +9973,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>0.4315878266296263</t>
+          <t>0.5677364617307223</t>
         </is>
       </c>
     </row>
@@ -9990,7 +9990,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>0.8412367762002596</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -10007,7 +10007,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>0.8412367762002596</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -10024,7 +10024,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>0.500984420711959</t>
+          <t>0.6538716193328764</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>0.8412367762002596</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -10058,7 +10058,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>0.5920721229537159</t>
+          <t>0.6768085135930892</t>
         </is>
       </c>
     </row>
@@ -10075,7 +10075,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>0.5534620837394274</t>
+          <t>0.5445696964147867</t>
         </is>
       </c>
     </row>
@@ -10092,7 +10092,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>0.35110877924486306</t>
+          <t>0.4402192514182877</t>
         </is>
       </c>
     </row>
@@ -10109,7 +10109,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>0.49070204667751627</t>
+          <t>0.4890399379096898</t>
         </is>
       </c>
     </row>
@@ -10126,7 +10126,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>0.41648989341245013</t>
+          <t>0.5121000817232979</t>
         </is>
       </c>
     </row>
@@ -10143,7 +10143,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>0.31582148787923775</t>
+          <t>0.27864593887769273</t>
         </is>
       </c>
     </row>
@@ -10160,7 +10160,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>0.3727786585128724</t>
+          <t>0.539462782298249</t>
         </is>
       </c>
     </row>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>0.5311607080789694</t>
+          <t>0.5221126451329529</t>
         </is>
       </c>
     </row>
@@ -10194,7 +10194,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>0.45911734106896546</t>
+          <t>0.4252413969958527</t>
         </is>
       </c>
     </row>
@@ -10211,7 +10211,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>0.2856711887892185</t>
+          <t>0.4882837251692382</t>
         </is>
       </c>
     </row>
@@ -10228,7 +10228,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>0.41911104044490466</t>
+          <t>0.49029978104275984</t>
         </is>
       </c>
     </row>
@@ -10245,7 +10245,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>0.44442649944991464</t>
+          <t>0.5109039138916892</t>
         </is>
       </c>
     </row>
@@ -10262,7 +10262,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>0.4193595119132126</t>
+          <t>0.543549940907587</t>
         </is>
       </c>
     </row>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>0.36062332004282593</t>
+          <t>0.4062723810394965</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10296,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>0.27943078794729215</t>
+          <t>0.2598884457091272</t>
         </is>
       </c>
     </row>
@@ -10313,7 +10313,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>0.6241214081291597</t>
+          <t>0.6281059120259078</t>
         </is>
       </c>
     </row>
@@ -10330,7 +10330,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>0.46571546117453166</t>
+          <t>0.4729691495542979</t>
         </is>
       </c>
     </row>
@@ -10347,7 +10347,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>0.22476020829253365</t>
+          <t>0.24468063320723474</t>
         </is>
       </c>
     </row>
@@ -10364,7 +10364,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>0.8412367762002596</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -10381,7 +10381,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>0.19406474841829258</t>
+          <t>0.2389096458153729</t>
         </is>
       </c>
     </row>
@@ -10398,7 +10398,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>0.4494746985240774</t>
+          <t>0.5677364617307222</t>
         </is>
       </c>
     </row>
@@ -10415,7 +10415,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>0.8412367762002596</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -10432,7 +10432,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>0.7839408956536437</t>
+          <t>0.8012136712667878</t>
         </is>
       </c>
     </row>
@@ -10449,7 +10449,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>0.43158782662962636</t>
+          <t>0.5677364617307225</t>
         </is>
       </c>
     </row>
@@ -10466,7 +10466,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>0.8412367762002596</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>0.8412367762002596</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>0.5009844207119588</t>
+          <t>0.6538716193328765</t>
         </is>
       </c>
     </row>
@@ -10517,7 +10517,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>0.8412367762002596</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -10534,7 +10534,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>0.5920721229537159</t>
+          <t>0.6768085135930892</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>0.5534620837394274</t>
+          <t>0.5445696964147866</t>
         </is>
       </c>
     </row>
@@ -10568,7 +10568,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>0.35110877924486306</t>
+          <t>0.4402192514182877</t>
         </is>
       </c>
     </row>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>0.49070204667751627</t>
+          <t>0.4890399379096898</t>
         </is>
       </c>
     </row>
@@ -10602,7 +10602,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>0.41648989341245013</t>
+          <t>0.5121000817232979</t>
         </is>
       </c>
     </row>
@@ -10619,7 +10619,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>0.3158214878792377</t>
+          <t>0.2786459388776927</t>
         </is>
       </c>
     </row>
@@ -10636,7 +10636,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>0.3727786585128724</t>
+          <t>0.539462782298249</t>
         </is>
       </c>
     </row>
@@ -10653,7 +10653,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>0.5311607080789696</t>
+          <t>0.5221126451329529</t>
         </is>
       </c>
     </row>
@@ -10670,7 +10670,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>0.45911734106896546</t>
+          <t>0.4252413969958527</t>
         </is>
       </c>
     </row>
@@ -10687,7 +10687,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>0.28567118878921854</t>
+          <t>0.4882837251692382</t>
         </is>
       </c>
     </row>
@@ -10704,7 +10704,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>0.41911104044490466</t>
+          <t>0.49029978104275984</t>
         </is>
       </c>
     </row>
@@ -10721,7 +10721,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>0.44442649944991464</t>
+          <t>0.5109039138916892</t>
         </is>
       </c>
     </row>
@@ -10738,7 +10738,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>0.4193595119132126</t>
+          <t>0.543549940907587</t>
         </is>
       </c>
     </row>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>0.3656419919365121</t>
+          <t>0.4062723810394964</t>
         </is>
       </c>
     </row>
@@ -10772,7 +10772,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>0.27943078794729215</t>
+          <t>0.2598884457091274</t>
         </is>
       </c>
     </row>
@@ -10789,7 +10789,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>0.6241214081291597</t>
+          <t>0.6281059120259078</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10806,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>0.46571546117453166</t>
+          <t>0.4729691495542979</t>
         </is>
       </c>
     </row>
@@ -10823,7 +10823,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>0.22476020829253357</t>
+          <t>0.24468063320723474</t>
         </is>
       </c>
     </row>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>0.8412367762002596</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -10857,7 +10857,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>0.19406474841829258</t>
+          <t>0.23890964581537324</t>
         </is>
       </c>
     </row>
@@ -10874,7 +10874,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>0.5009844207119588</t>
+          <t>0.6538716193328765</t>
         </is>
       </c>
     </row>
@@ -10891,7 +10891,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>0.9182958340544891</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -10908,7 +10908,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>0.9182958340544891</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>0.500984420711959</t>
+          <t>0.6538716193328765</t>
         </is>
       </c>
     </row>
@@ -10942,7 +10942,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>0.7988605516413231</t>
+          <t>0.829704187580579</t>
         </is>
       </c>
     </row>
@@ -10959,7 +10959,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -10976,7 +10976,7 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>0.32416860861668395</t>
+          <t>0.5128635341403686</t>
         </is>
       </c>
     </row>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -11010,7 +11010,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>0.7637666674908448</t>
+          <t>0.6855721961288964</t>
         </is>
       </c>
     </row>
@@ -11027,7 +11027,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>0.4554545043539372</t>
+          <t>0.5794340303076133</t>
         </is>
       </c>
     </row>
@@ -11044,7 +11044,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>0.7696642170843706</t>
+          <t>0.717845992185776</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>0.5324999317821743</t>
+          <t>0.5724775784846112</t>
         </is>
       </c>
     </row>
@@ -11078,7 +11078,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>0.5096425545073622</t>
+          <t>0.41572209971146945</t>
         </is>
       </c>
     </row>
@@ -11095,7 +11095,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>0.442380180786969</t>
+          <t>0.4150678587083444</t>
         </is>
       </c>
     </row>
@@ -11112,7 +11112,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>0.762736007708771</t>
+          <t>0.7046038601405935</t>
         </is>
       </c>
     </row>
@@ -11129,7 +11129,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>0.640155176665634</t>
+          <t>0.6242545509225126</t>
         </is>
       </c>
     </row>
@@ -11146,7 +11146,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>0.23667542153779833</t>
+          <t>0.4464677045944674</t>
         </is>
       </c>
     </row>
@@ -11163,7 +11163,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>0.5655794249391211</t>
+          <t>0.5989873796328843</t>
         </is>
       </c>
     </row>
@@ -11180,7 +11180,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>0.5388357484098155</t>
+          <t>0.6086290970934425</t>
         </is>
       </c>
     </row>
@@ -11197,7 +11197,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>0.5627043522988219</t>
+          <t>0.6166814246661321</t>
         </is>
       </c>
     </row>
@@ -11214,7 +11214,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>0.3828142865384641</t>
+          <t>0.4895204579026196</t>
         </is>
       </c>
     </row>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>0.2150615082799158</t>
+          <t>0.19639904307237263</t>
         </is>
       </c>
     </row>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>0.39926452465342976</t>
+          <t>0.5016827242219571</t>
         </is>
       </c>
     </row>
@@ -11265,7 +11265,7 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>0.48771832512750785</t>
+          <t>0.5007738637040815</t>
         </is>
       </c>
     </row>
@@ -11282,7 +11282,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>0.2845206727574669</t>
+          <t>0.2326146941550653</t>
         </is>
       </c>
     </row>
@@ -11299,7 +11299,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>0.39551822305097706</t>
+          <t>0.519106143211082</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11316,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>0.1699202652919772</t>
+          <t>0.15640840843634243</t>
         </is>
       </c>
     </row>
@@ -11333,7 +11333,7 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>0.7839408956536437</t>
+          <t>0.8012136712667878</t>
         </is>
       </c>
     </row>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>0.4909018434957731</t>
+          <t>0.6508502673749753</t>
         </is>
       </c>
     </row>
@@ -11367,7 +11367,7 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>0.8412367762002596</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -11384,7 +11384,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>0.8412367762002596</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>0.5009844207119588</t>
+          <t>0.6538716193328765</t>
         </is>
       </c>
     </row>
@@ -11418,7 +11418,7 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>0.8412367762002596</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>0.5920721229537159</t>
+          <t>0.677266591474251</t>
         </is>
       </c>
     </row>
@@ -11452,7 +11452,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>0.5534620837394274</t>
+          <t>0.5445696964147866</t>
         </is>
       </c>
     </row>
@@ -11469,7 +11469,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>0.35110877924486306</t>
+          <t>0.4402192514182877</t>
         </is>
       </c>
     </row>
@@ -11486,7 +11486,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>0.49070204667751627</t>
+          <t>0.4890399379096898</t>
         </is>
       </c>
     </row>
@@ -11503,7 +11503,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>0.41648989341245013</t>
+          <t>0.5121000817232979</t>
         </is>
       </c>
     </row>
@@ -11520,7 +11520,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>0.3158214878792377</t>
+          <t>0.2711303157832852</t>
         </is>
       </c>
     </row>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>0.3727786585128724</t>
+          <t>0.539462782298249</t>
         </is>
       </c>
     </row>
@@ -11554,7 +11554,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>0.5311607080789696</t>
+          <t>0.5221126451329529</t>
         </is>
       </c>
     </row>
@@ -11571,7 +11571,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>0.45911734106896546</t>
+          <t>0.4252413969958527</t>
         </is>
       </c>
     </row>
@@ -11588,7 +11588,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>0.28275507707272945</t>
+          <t>0.4882837251692382</t>
         </is>
       </c>
     </row>
@@ -11605,7 +11605,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>0.41911104044490466</t>
+          <t>0.49029978104275984</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>0.44442649944991464</t>
+          <t>0.5109039138916892</t>
         </is>
       </c>
     </row>
@@ -11639,7 +11639,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>0.4193595119132126</t>
+          <t>0.543549940907587</t>
         </is>
       </c>
     </row>
@@ -11656,7 +11656,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>0.36062332004282593</t>
+          <t>0.4062723810394964</t>
         </is>
       </c>
     </row>
@@ -11673,7 +11673,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>0.23230311207261656</t>
+          <t>0.20337799062311857</t>
         </is>
       </c>
     </row>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>0.5784634083598382</t>
+          <t>0.5979093344704101</t>
         </is>
       </c>
     </row>
@@ -11707,7 +11707,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>0.46571546117453166</t>
+          <t>0.48426407230049956</t>
         </is>
       </c>
     </row>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>0.22476020829253357</t>
+          <t>0.2070273297705531</t>
         </is>
       </c>
     </row>
@@ -11741,7 +11741,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>0.8412367762002596</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -11758,7 +11758,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>0.19406474841829258</t>
+          <t>0.20124356377333144</t>
         </is>
       </c>
     </row>
@@ -11775,7 +11775,7 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>0.9182958340544891</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -11792,7 +11792,7 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>0.7839408956536437</t>
+          <t>0.8012136712667878</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>0.9690632527820694</t>
+          <t>0.9468188316776022</t>
         </is>
       </c>
     </row>
@@ -11843,7 +11843,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>0.7839408956536437</t>
+          <t>0.8012136712667878</t>
         </is>
       </c>
     </row>
@@ -11877,7 +11877,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>0.7177056946946215</t>
+          <t>0.6718456168767765</t>
         </is>
       </c>
     </row>
@@ -11894,7 +11894,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>0.46686672793711814</t>
+          <t>0.5502557223908259</t>
         </is>
       </c>
     </row>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>0.6802573130086604</t>
+          <t>0.618431114004296</t>
         </is>
       </c>
     </row>
@@ -11928,7 +11928,7 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>0.4520856049668934</t>
+          <t>0.5285420000666734</t>
         </is>
       </c>
     </row>
@@ -11945,7 +11945,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>0.5615274920846004</t>
+          <t>0.4500666741323515</t>
         </is>
       </c>
     </row>
@@ -11962,7 +11962,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>0.3784695694256735</t>
+          <t>0.44781956150130087</t>
         </is>
       </c>
     </row>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>0.6377669101805066</t>
+          <t>0.6087344274740178</t>
         </is>
       </c>
     </row>
@@ -11996,7 +11996,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>0.6415229139119898</t>
+          <t>0.6554029745185621</t>
         </is>
       </c>
     </row>
@@ -12013,7 +12013,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>0.28571639230873563</t>
+          <t>0.44529459763998774</t>
         </is>
       </c>
     </row>
@@ -12030,7 +12030,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>0.5167556703324457</t>
+          <t>0.5303703860578822</t>
         </is>
       </c>
     </row>
@@ -12047,7 +12047,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>0.546315093895136</t>
+          <t>0.5529376465282859</t>
         </is>
       </c>
     </row>
@@ -12064,7 +12064,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>0.5511583822617889</t>
+          <t>0.546823963127957</t>
         </is>
       </c>
     </row>
@@ -12081,7 +12081,7 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>0.3579682727859017</t>
+          <t>0.4752698425246535</t>
         </is>
       </c>
     </row>
@@ -12098,7 +12098,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>0.28688186156161044</t>
+          <t>0.3660430856633205</t>
         </is>
       </c>
     </row>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>0.5683875585080195</t>
+          <t>0.5728462507073623</t>
         </is>
       </c>
     </row>
@@ -12132,7 +12132,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>0.4744175129481007</t>
+          <t>0.4656906774200619</t>
         </is>
       </c>
     </row>
@@ -12149,7 +12149,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>0.3484742073721021</t>
+          <t>0.32493672168010945</t>
         </is>
       </c>
     </row>
@@ -12166,7 +12166,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>0.7839408956536437</t>
+          <t>0.8012136712667878</t>
         </is>
       </c>
     </row>
@@ -12183,7 +12183,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>0.25607448078043143</t>
+          <t>0.31132776509422416</t>
         </is>
       </c>
     </row>
@@ -12200,7 +12200,7 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>0.43158782662962686</t>
+          <t>0.54212799628021</t>
         </is>
       </c>
     </row>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>0.7988605516413231</t>
+          <t>0.829704187580579</t>
         </is>
       </c>
     </row>
@@ -12234,7 +12234,7 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8412367762002596</t>
         </is>
       </c>
     </row>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>0.29521487998530266</t>
+          <t>0.47294783012757974</t>
         </is>
       </c>
     </row>
@@ -12268,7 +12268,7 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8412367762002596</t>
         </is>
       </c>
     </row>
@@ -12285,7 +12285,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>0.7637666674908448</t>
+          <t>0.6855721961288964</t>
         </is>
       </c>
     </row>
@@ -12302,7 +12302,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>0.4554545043539372</t>
+          <t>0.5794340303076133</t>
         </is>
       </c>
     </row>
@@ -12319,7 +12319,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>0.7696642170843706</t>
+          <t>0.717845992185776</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12336,7 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>0.5324999317821743</t>
+          <t>0.5724775784846112</t>
         </is>
       </c>
     </row>
@@ -12353,7 +12353,7 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>0.5096425545073622</t>
+          <t>0.41572209971146945</t>
         </is>
       </c>
     </row>
@@ -12370,7 +12370,7 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>0.44238018078696933</t>
+          <t>0.4150678587083444</t>
         </is>
       </c>
     </row>
@@ -12387,7 +12387,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>0.762736007708771</t>
+          <t>0.7046038601405935</t>
         </is>
       </c>
     </row>
@@ -12404,7 +12404,7 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>0.6401551766656343</t>
+          <t>0.6242545509225126</t>
         </is>
       </c>
     </row>
@@ -12421,7 +12421,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>0.23667542153779833</t>
+          <t>0.4464677045944674</t>
         </is>
       </c>
     </row>
@@ -12438,7 +12438,7 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>0.5655794249391211</t>
+          <t>0.5989873796328843</t>
         </is>
       </c>
     </row>
@@ -12455,7 +12455,7 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>0.5388357484098155</t>
+          <t>0.6086290970934425</t>
         </is>
       </c>
     </row>
@@ -12472,7 +12472,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>0.5627043522988219</t>
+          <t>0.6166814246661318</t>
         </is>
       </c>
     </row>
@@ -12489,7 +12489,7 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>0.3828142865384641</t>
+          <t>0.4895204579026196</t>
         </is>
       </c>
     </row>
@@ -12506,7 +12506,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>0.21506150827991558</t>
+          <t>0.19639904307237263</t>
         </is>
       </c>
     </row>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>0.378552146968553</t>
+          <t>0.5016827242219575</t>
         </is>
       </c>
     </row>
@@ -12540,7 +12540,7 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>0.48771832512750773</t>
+          <t>0.5007738637040815</t>
         </is>
       </c>
     </row>
@@ -12557,7 +12557,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>0.2845206727574669</t>
+          <t>0.2326146941550653</t>
         </is>
       </c>
     </row>
@@ -12574,7 +12574,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>0.3955182230509769</t>
+          <t>0.5149945281053903</t>
         </is>
       </c>
     </row>
@@ -12591,7 +12591,7 @@
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>0.1699202652919772</t>
+          <t>0.1564084084363426</t>
         </is>
       </c>
     </row>
@@ -12608,7 +12608,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>0.8412367762002596</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>0.500984420711959</t>
+          <t>0.6538716193328765</t>
         </is>
       </c>
     </row>
@@ -12642,7 +12642,7 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>0.8412367762002596</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -12659,7 +12659,7 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>0.5920721229537159</t>
+          <t>0.6768085135930892</t>
         </is>
       </c>
     </row>
@@ -12676,7 +12676,7 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>0.5534620837394274</t>
+          <t>0.5445696964147866</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>0.35110877924486306</t>
+          <t>0.4402192514182877</t>
         </is>
       </c>
     </row>
@@ -12710,7 +12710,7 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>0.49070204667751627</t>
+          <t>0.4890399379096898</t>
         </is>
       </c>
     </row>
@@ -12727,7 +12727,7 @@
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>0.41648989341245013</t>
+          <t>0.5121000817232979</t>
         </is>
       </c>
     </row>
@@ -12744,7 +12744,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>0.3158214878792377</t>
+          <t>0.2711303157832852</t>
         </is>
       </c>
     </row>
@@ -12761,7 +12761,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>0.3732835652872707</t>
+          <t>0.539462782298249</t>
         </is>
       </c>
     </row>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>0.5311607080789696</t>
+          <t>0.5221126451329529</t>
         </is>
       </c>
     </row>
@@ -12795,7 +12795,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>0.45911734106896546</t>
+          <t>0.4252413969958527</t>
         </is>
       </c>
     </row>
@@ -12812,7 +12812,7 @@
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>0.28275507707272945</t>
+          <t>0.4882837251692382</t>
         </is>
       </c>
     </row>
@@ -12829,7 +12829,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>0.41911104044490466</t>
+          <t>0.49029978104275984</t>
         </is>
       </c>
     </row>
@@ -12846,7 +12846,7 @@
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>0.44442649944991464</t>
+          <t>0.5109039138916892</t>
         </is>
       </c>
     </row>
@@ -12863,7 +12863,7 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>0.4193595119132126</t>
+          <t>0.543549940907587</t>
         </is>
       </c>
     </row>
@@ -12880,7 +12880,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>0.36062332004282593</t>
+          <t>0.4062723810394964</t>
         </is>
       </c>
     </row>
@@ -12897,7 +12897,7 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>0.23230311207261656</t>
+          <t>0.20337799062311857</t>
         </is>
       </c>
     </row>
@@ -12914,7 +12914,7 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>0.5433886092850276</t>
+          <t>0.5979093344704102</t>
         </is>
       </c>
     </row>
@@ -12931,7 +12931,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>0.46571546117453166</t>
+          <t>0.4729691495542979</t>
         </is>
       </c>
     </row>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>0.22476020829253357</t>
+          <t>0.2070273297705531</t>
         </is>
       </c>
     </row>
@@ -12965,7 +12965,7 @@
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>0.8412367762002596</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -12982,7 +12982,7 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>0.19406474841829258</t>
+          <t>0.20124356377333144</t>
         </is>
       </c>
     </row>
@@ -12999,7 +12999,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>0.7085914020029868</t>
+          <t>0.7266450151070276</t>
         </is>
       </c>
     </row>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>0.8412367762002596</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>0.7085914020029868</t>
+          <t>0.7266450151070276</t>
         </is>
       </c>
     </row>
@@ -13050,7 +13050,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>0.7177056946946215</t>
+          <t>0.6718456168767765</t>
         </is>
       </c>
     </row>
@@ -13067,7 +13067,7 @@
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>0.46686672793711814</t>
+          <t>0.5502557223908259</t>
         </is>
       </c>
     </row>
@@ -13084,7 +13084,7 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>0.6802573130086604</t>
+          <t>0.6280228062762186</t>
         </is>
       </c>
     </row>
@@ -13101,7 +13101,7 @@
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>0.4520856049668934</t>
+          <t>0.5285420000666734</t>
         </is>
       </c>
     </row>
@@ -13118,7 +13118,7 @@
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>0.6681273338436137</t>
+          <t>0.5916727785823269</t>
         </is>
       </c>
     </row>
@@ -13135,7 +13135,7 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>0.41338728929847873</t>
+          <t>0.46013997561169073</t>
         </is>
       </c>
     </row>
@@ -13152,7 +13152,7 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>0.6377669101805066</t>
+          <t>0.6087344274740178</t>
         </is>
       </c>
     </row>
@@ -13169,7 +13169,7 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>0.6415229139119898</t>
+          <t>0.6554029745185621</t>
         </is>
       </c>
     </row>
@@ -13186,7 +13186,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>0.24261016082702708</t>
+          <t>0.44529459763998774</t>
         </is>
       </c>
     </row>
@@ -13203,7 +13203,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>0.5167556703324457</t>
+          <t>0.5303703860578822</t>
         </is>
       </c>
     </row>
@@ -13220,7 +13220,7 @@
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>0.546315093895136</t>
+          <t>0.5529376465282858</t>
         </is>
       </c>
     </row>
@@ -13237,7 +13237,7 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>0.5511583822617889</t>
+          <t>0.5395871957988262</t>
         </is>
       </c>
     </row>
@@ -13254,7 +13254,7 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>0.3579682727859017</t>
+          <t>0.4752698425246535</t>
         </is>
       </c>
     </row>
@@ -13271,7 +13271,7 @@
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>0.27864593887769257</t>
+          <t>0.30413618836347733</t>
         </is>
       </c>
     </row>
@@ -13288,7 +13288,7 @@
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>0.5326475300535362</t>
+          <t>0.5482112041695334</t>
         </is>
       </c>
     </row>
@@ -13305,7 +13305,7 @@
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>0.4744175129481007</t>
+          <t>0.46569067742006204</t>
         </is>
       </c>
     </row>
@@ -13322,7 +13322,7 @@
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>0.3484742073721022</t>
+          <t>0.32493672168010945</t>
         </is>
       </c>
     </row>
@@ -13339,7 +13339,7 @@
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>0.8412367762002596</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -13356,7 +13356,7 @@
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>0.24258568745822745</t>
+          <t>0.2857779162936399</t>
         </is>
       </c>
     </row>
@@ -13373,7 +13373,7 @@
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>0.32416860861668395</t>
+          <t>0.5128635341403686</t>
         </is>
       </c>
     </row>
@@ -13390,7 +13390,7 @@
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8412367762002596</t>
         </is>
       </c>
     </row>
@@ -13407,7 +13407,7 @@
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>0.6444787033155622</t>
+          <t>0.5484731677784588</t>
         </is>
       </c>
     </row>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>0.38345109368489844</t>
+          <t>0.49310751290125016</t>
         </is>
       </c>
     </row>
@@ -13441,7 +13441,7 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>0.6934387283143642</t>
+          <t>0.6423586013910405</t>
         </is>
       </c>
     </row>
@@ -13458,7 +13458,7 @@
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>0.6007503302653485</t>
+          <t>0.7000209515615332</t>
         </is>
       </c>
     </row>
@@ -13475,7 +13475,7 @@
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>0.42470525142182175</t>
+          <t>0.3964731875819775</t>
         </is>
       </c>
     </row>
@@ -13492,7 +13492,7 @@
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>0.5252681750712732</t>
+          <t>0.5827010604416144</t>
         </is>
       </c>
     </row>
@@ -13509,7 +13509,7 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>0.743685286153465</t>
+          <t>0.7152833089982067</t>
         </is>
       </c>
     </row>
@@ -13526,7 +13526,7 @@
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>0.5481832061960946</t>
+          <t>0.512194419925349</t>
         </is>
       </c>
     </row>
@@ -13543,7 +13543,7 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>0.301405548923945</t>
+          <t>0.5224257554592574</t>
         </is>
       </c>
     </row>
@@ -13560,7 +13560,7 @@
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>0.5439411198569233</t>
+          <t>0.5538908981684879</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>0.6028632607684167</t>
+          <t>0.6804185558066548</t>
         </is>
       </c>
     </row>
@@ -13594,7 +13594,7 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>0.6028632607684165</t>
+          <t>0.6746600523648197</t>
         </is>
       </c>
     </row>
@@ -13611,7 +13611,7 @@
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>0.34784743686190095</t>
+          <t>0.4157111041846171</t>
         </is>
       </c>
     </row>
@@ -13628,7 +13628,7 @@
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>0.22592285592750866</t>
+          <t>0.2136976972514925</t>
         </is>
       </c>
     </row>
@@ -13645,7 +13645,7 @@
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>0.4429928977036434</t>
+          <t>0.5857479300630469</t>
         </is>
       </c>
     </row>
@@ -13662,7 +13662,7 @@
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>0.45814741897074157</t>
+          <t>0.49942212668702574</t>
         </is>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>0.2385438938852434</t>
+          <t>0.19467582251726487</t>
         </is>
       </c>
     </row>
@@ -13696,7 +13696,7 @@
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>0.4666332066983105</t>
+          <t>0.6221255875868447</t>
         </is>
       </c>
     </row>
@@ -13713,7 +13713,7 @@
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>0.20017038375944063</t>
+          <t>0.19239984539185906</t>
         </is>
       </c>
     </row>
@@ -13730,7 +13730,7 @@
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>0.5920721229537159</t>
+          <t>0.6768085135930892</t>
         </is>
       </c>
     </row>
@@ -13747,7 +13747,7 @@
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>0.5534620837394274</t>
+          <t>0.5445696964147866</t>
         </is>
       </c>
     </row>
@@ -13764,7 +13764,7 @@
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>0.35110877924486306</t>
+          <t>0.4402192514182877</t>
         </is>
       </c>
     </row>
@@ -13781,7 +13781,7 @@
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>0.49070204667751627</t>
+          <t>0.4890399379096898</t>
         </is>
       </c>
     </row>
@@ -13798,7 +13798,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>0.41648989341245013</t>
+          <t>0.5121000817232979</t>
         </is>
       </c>
     </row>
@@ -13815,7 +13815,7 @@
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>0.3158214878792377</t>
+          <t>0.2711303157832852</t>
         </is>
       </c>
     </row>
@@ -13832,7 +13832,7 @@
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>0.3727786585128724</t>
+          <t>0.539462782298249</t>
         </is>
       </c>
     </row>
@@ -13849,7 +13849,7 @@
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>0.5311607080789696</t>
+          <t>0.5221126451329529</t>
         </is>
       </c>
     </row>
@@ -13866,7 +13866,7 @@
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>0.45911734106896546</t>
+          <t>0.4252413969958527</t>
         </is>
       </c>
     </row>
@@ -13883,7 +13883,7 @@
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>0.28275507707272945</t>
+          <t>0.4882837251692382</t>
         </is>
       </c>
     </row>
@@ -13900,7 +13900,7 @@
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>0.41911104044490466</t>
+          <t>0.49029978104275984</t>
         </is>
       </c>
     </row>
@@ -13917,7 +13917,7 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>0.44442649944991464</t>
+          <t>0.5109039138916892</t>
         </is>
       </c>
     </row>
@@ -13934,7 +13934,7 @@
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>0.4193595119132126</t>
+          <t>0.543549940907587</t>
         </is>
       </c>
     </row>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>0.36062332004282593</t>
+          <t>0.4062723810394964</t>
         </is>
       </c>
     </row>
@@ -13968,7 +13968,7 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>0.23230311207261656</t>
+          <t>0.20337799062311857</t>
         </is>
       </c>
     </row>
@@ -13985,7 +13985,7 @@
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>0.4690180511294014</t>
+          <t>0.5498460990958574</t>
         </is>
       </c>
     </row>
@@ -14002,7 +14002,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>0.46571546117453166</t>
+          <t>0.4729691495542979</t>
         </is>
       </c>
     </row>
@@ -14019,7 +14019,7 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>0.22476020829253357</t>
+          <t>0.2070273297705531</t>
         </is>
       </c>
     </row>
@@ -14036,7 +14036,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>0.8412367762002596</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -14053,7 +14053,7 @@
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>0.19406474841829258</t>
+          <t>0.20124356377333144</t>
         </is>
       </c>
     </row>
@@ -14070,7 +14070,7 @@
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>0.6444787033155622</t>
+          <t>0.6055462975939414</t>
         </is>
       </c>
     </row>
@@ -14087,7 +14087,7 @@
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>0.38345109368489844</t>
+          <t>0.49310751290125016</t>
         </is>
       </c>
     </row>
@@ -14104,7 +14104,7 @@
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>0.6934387283143642</t>
+          <t>0.6423586013910405</t>
         </is>
       </c>
     </row>
@@ -14121,7 +14121,7 @@
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>0.6007503302653485</t>
+          <t>0.7000209515615332</t>
         </is>
       </c>
     </row>
@@ -14138,7 +14138,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>0.42470525142182175</t>
+          <t>0.3964731875819775</t>
         </is>
       </c>
     </row>
@@ -14155,7 +14155,7 @@
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>0.5252681750712732</t>
+          <t>0.5827010604416144</t>
         </is>
       </c>
     </row>
@@ -14172,7 +14172,7 @@
       </c>
       <c r="C808" t="inlineStr">
         <is>
-          <t>0.743685286153465</t>
+          <t>0.7152833089982067</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>0.5481832061960946</t>
+          <t>0.512194419925349</t>
         </is>
       </c>
     </row>
@@ -14206,7 +14206,7 @@
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>0.301405548923945</t>
+          <t>0.5224257554592574</t>
         </is>
       </c>
     </row>
@@ -14223,7 +14223,7 @@
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>0.5439411198569233</t>
+          <t>0.5538908981684879</t>
         </is>
       </c>
     </row>
@@ -14240,7 +14240,7 @@
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>0.6028632607684167</t>
+          <t>0.6804185558066548</t>
         </is>
       </c>
     </row>
@@ -14257,7 +14257,7 @@
       </c>
       <c r="C813" t="inlineStr">
         <is>
-          <t>0.6028632607684165</t>
+          <t>0.6746600523648197</t>
         </is>
       </c>
     </row>
@@ -14274,7 +14274,7 @@
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>0.34784743686190095</t>
+          <t>0.4157111041846171</t>
         </is>
       </c>
     </row>
@@ -14291,7 +14291,7 @@
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>0.3175448665823159</t>
+          <t>0.3024468127956474</t>
         </is>
       </c>
     </row>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>0.6256834390546355</t>
+          <t>0.6311952331478198</t>
         </is>
       </c>
     </row>
@@ -14325,7 +14325,7 @@
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>0.45814741897074157</t>
+          <t>0.49942212668702574</t>
         </is>
       </c>
     </row>
@@ -14342,7 +14342,7 @@
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>0.26454545129957535</t>
+          <t>0.26134044881243634</t>
         </is>
       </c>
     </row>
@@ -14359,7 +14359,7 @@
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>0.5920721229537159</t>
+          <t>0.6768085135930892</t>
         </is>
       </c>
     </row>
@@ -14376,7 +14376,7 @@
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>0.22194290975169165</t>
+          <t>0.27697891119693985</t>
         </is>
       </c>
     </row>
@@ -14393,7 +14393,7 @@
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>0.6716604135494015</t>
+          <t>0.6838234827084342</t>
         </is>
       </c>
     </row>
@@ -14427,7 +14427,7 @@
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>0.730051815268483</t>
+          <t>0.7203971648851433</t>
         </is>
       </c>
     </row>
@@ -14444,7 +14444,7 @@
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>0.532544615296419</t>
+          <t>0.4934749091763703</t>
         </is>
       </c>
     </row>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>0.6025164934281882</t>
+          <t>0.8720092226615503</t>
         </is>
       </c>
     </row>
@@ -14478,7 +14478,7 @@
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>0.767729987544787</t>
+          <t>0.9209959897596506</t>
         </is>
       </c>
     </row>
@@ -14495,7 +14495,7 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>0.7937793582088168</t>
+          <t>0.9209959897596506</t>
         </is>
       </c>
     </row>
@@ -14512,7 +14512,7 @@
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>0.42522985991359413</t>
+          <t>0.4225690804709377</t>
         </is>
       </c>
     </row>
@@ -14529,7 +14529,7 @@
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>0.6966679801928433</t>
+          <t>0.7828484248738852</t>
         </is>
       </c>
     </row>
@@ -14546,7 +14546,7 @@
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>0.7937793582088168</t>
+          <t>0.9307941906810291</t>
         </is>
       </c>
     </row>
@@ -14563,7 +14563,7 @@
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>0.8036427750978087</t>
+          <t>0.9307941906810291</t>
         </is>
       </c>
     </row>
@@ -14580,7 +14580,7 @@
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>0.629681122059021</t>
+          <t>0.6537788565306538</t>
         </is>
       </c>
     </row>
@@ -14597,7 +14597,7 @@
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>0.48233483251151116</t>
+          <t>0.5578744532753701</t>
         </is>
       </c>
     </row>
@@ -14614,7 +14614,7 @@
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>0.550693937032872</t>
+          <t>0.4843538404504818</t>
         </is>
       </c>
     </row>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>0.48233483251151116</t>
+          <t>0.5578744532753701</t>
         </is>
       </c>
     </row>
@@ -14648,7 +14648,7 @@
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>0.3053483959128979</t>
+          <t>0.38251894147086435</t>
         </is>
       </c>
     </row>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>0.5534620837394274</t>
+          <t>0.5445696964147866</t>
         </is>
       </c>
     </row>
@@ -14682,7 +14682,7 @@
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>0.32336959748941124</t>
+          <t>0.318791882002295</t>
         </is>
       </c>
     </row>
@@ -14699,7 +14699,7 @@
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t>0.8353019298714494</t>
+          <t>0.8760044523606563</t>
         </is>
       </c>
     </row>
@@ -14716,7 +14716,7 @@
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>0.6490676662202675</t>
+          <t>0.7814741022435939</t>
         </is>
       </c>
     </row>
@@ -14733,7 +14733,7 @@
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>0.4296625486232103</t>
+          <t>0.30524007109028173</t>
         </is>
       </c>
     </row>
@@ -14750,7 +14750,7 @@
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>0.6259534117257043</t>
+          <t>0.6821831234563833</t>
         </is>
       </c>
     </row>
@@ -14767,7 +14767,7 @@
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>0.7865294663944037</t>
+          <t>0.7814741022435941</t>
         </is>
       </c>
     </row>
@@ -14784,7 +14784,7 @@
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>0.7368525675904196</t>
+          <t>0.7481081062299596</t>
         </is>
       </c>
     </row>
@@ -14801,7 +14801,7 @@
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>0.5647883479048463</t>
+          <t>0.6392303516414456</t>
         </is>
       </c>
     </row>
@@ -14818,7 +14818,7 @@
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>0.6503054203322199</t>
+          <t>0.6392501916451727</t>
         </is>
       </c>
     </row>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="C847" t="inlineStr">
         <is>
-          <t>0.7647256322156217</t>
+          <t>0.7656627298635461</t>
         </is>
       </c>
     </row>
@@ -14852,7 +14852,7 @@
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>0.8152975655059423</t>
+          <t>0.8249047547594875</t>
         </is>
       </c>
     </row>
@@ -14869,7 +14869,7 @@
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>0.28088090936391935</t>
+          <t>0.2634620479935479</t>
         </is>
       </c>
     </row>
@@ -14886,7 +14886,7 @@
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>0.29872097348379356</t>
+          <t>0.3407055059591577</t>
         </is>
       </c>
     </row>
@@ -14903,7 +14903,7 @@
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>0.34632219430575034</t>
+          <t>0.31717993036067565</t>
         </is>
       </c>
     </row>
@@ -14920,7 +14920,7 @@
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>0.30980294087703697</t>
+          <t>0.3407055059591577</t>
         </is>
       </c>
     </row>
@@ -14937,7 +14937,7 @@
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>0.37023091966862187</t>
+          <t>0.3673177673855156</t>
         </is>
       </c>
     </row>
@@ -14954,7 +14954,7 @@
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>0.35110877924486306</t>
+          <t>0.45160933093094374</t>
         </is>
       </c>
     </row>
@@ -14971,7 +14971,7 @@
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>0.31323019407215086</t>
+          <t>0.36795088955986244</t>
         </is>
       </c>
     </row>
@@ -14988,7 +14988,7 @@
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>0.8803829645471767</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15005,7 +15005,7 @@
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>0.5151223991623617</t>
+          <t>0.4663792808694828</t>
         </is>
       </c>
     </row>
@@ -15022,7 +15022,7 @@
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>0.8405846052284555</t>
+          <t>0.8903484540676481</t>
         </is>
       </c>
     </row>
@@ -15039,7 +15039,7 @@
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>0.9279241991352504</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15056,7 +15056,7 @@
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>0.8903484540676481</t>
+          <t>0.9483085247724613</t>
         </is>
       </c>
     </row>
@@ -15073,7 +15073,7 @@
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>0.4936746446622737</t>
+          <t>0.44260893940671253</t>
         </is>
       </c>
     </row>
@@ -15090,7 +15090,7 @@
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>0.8650527708385483</t>
+          <t>0.8906461746019684</t>
         </is>
       </c>
     </row>
@@ -15107,7 +15107,7 @@
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>0.9307941906810289</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15124,7 +15124,7 @@
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>0.9279241991352504</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>0.4251638910188425</t>
+          <t>0.43194127011141153</t>
         </is>
       </c>
     </row>
@@ -15158,7 +15158,7 @@
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>0.4935597761005681</t>
+          <t>0.31315734362994824</t>
         </is>
       </c>
     </row>
@@ -15175,7 +15175,7 @@
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>0.5361886406389087</t>
+          <t>0.516962330561893</t>
         </is>
       </c>
     </row>
@@ -15192,7 +15192,7 @@
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>0.4935597761005681</t>
+          <t>0.44239901234091156</t>
         </is>
       </c>
     </row>
@@ -15209,7 +15209,7 @@
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>0.49663731680165185</t>
+          <t>0.46542515325802025</t>
         </is>
       </c>
     </row>
@@ -15226,7 +15226,7 @@
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>0.49070204667751627</t>
+          <t>0.4890399379096898</t>
         </is>
       </c>
     </row>
@@ -15243,7 +15243,7 @@
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>0.3528284792573311</t>
+          <t>0.36607697715768045</t>
         </is>
       </c>
     </row>
@@ -15260,7 +15260,7 @@
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>0.39034653397969454</t>
+          <t>0.33152023883427795</t>
         </is>
       </c>
     </row>
@@ -15277,7 +15277,7 @@
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>0.7413512802912542</t>
+          <t>0.8686331278097014</t>
         </is>
       </c>
     </row>
@@ -15294,7 +15294,7 @@
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>0.8848164612803978</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15311,7 +15311,7 @@
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>0.858810161767835</t>
+          <t>0.6740737035251133</t>
         </is>
       </c>
     </row>
@@ -15328,7 +15328,7 @@
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>0.32667036902500013</t>
+          <t>0.39817235089779957</t>
         </is>
       </c>
     </row>
@@ -15345,7 +15345,7 @@
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>0.6759213006253689</t>
+          <t>0.717802076575327</t>
         </is>
       </c>
     </row>
@@ -15362,7 +15362,7 @@
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>0.7811763817092738</t>
+          <t>0.8402233302134091</t>
         </is>
       </c>
     </row>
@@ -15379,7 +15379,7 @@
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>0.7811763817092738</t>
+          <t>0.8402233302134091</t>
         </is>
       </c>
     </row>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>0.5255435826884136</t>
+          <t>0.5433637212096644</t>
         </is>
       </c>
     </row>
@@ -15413,7 +15413,7 @@
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>0.3511120048183277</t>
+          <t>0.3933359727363489</t>
         </is>
       </c>
     </row>
@@ -15430,7 +15430,7 @@
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>0.5168349747837717</t>
+          <t>0.5282152657402645</t>
         </is>
       </c>
     </row>
@@ -15447,7 +15447,7 @@
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>0.44542313410597006</t>
+          <t>0.4117848878904976</t>
         </is>
       </c>
     </row>
@@ -15464,7 +15464,7 @@
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>0.4153447841612357</t>
+          <t>0.37237719231485095</t>
         </is>
       </c>
     </row>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>0.41648989341245013</t>
+          <t>0.5121000817232979</t>
         </is>
       </c>
     </row>
@@ -15498,7 +15498,7 @@
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>0.2450898347283941</t>
+          <t>0.31867112164867895</t>
         </is>
       </c>
     </row>
@@ -15515,7 +15515,7 @@
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>0.2875862688031756</t>
+          <t>0.3507313633060031</t>
         </is>
       </c>
     </row>
@@ -15532,7 +15532,7 @@
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>0.5181428660673952</t>
+          <t>0.4079205353624318</t>
         </is>
       </c>
     </row>
@@ -15549,7 +15549,7 @@
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>0.5578679255557488</t>
+          <t>0.47044479769800673</t>
         </is>
       </c>
     </row>
@@ -15566,7 +15566,7 @@
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>0.20871453019428687</t>
+          <t>0.26784031528958213</t>
         </is>
       </c>
     </row>
@@ -15583,7 +15583,7 @@
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>0.3737568551083204</t>
+          <t>0.31583642722702726</t>
         </is>
       </c>
     </row>
@@ -15600,7 +15600,7 @@
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>0.3660433422426081</t>
+          <t>0.29847795215082323</t>
         </is>
       </c>
     </row>
@@ -15617,7 +15617,7 @@
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>0.3660433422426081</t>
+          <t>0.29847795215082323</t>
         </is>
       </c>
     </row>
@@ -15634,7 +15634,7 @@
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>0.3481858523711098</t>
+          <t>0.28782422411631686</t>
         </is>
       </c>
     </row>
@@ -15651,7 +15651,7 @@
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>0.4133424051207502</t>
+          <t>0.3390073980831041</t>
         </is>
       </c>
     </row>
@@ -15668,7 +15668,7 @@
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>0.3461715211790384</t>
+          <t>0.3181393046018169</t>
         </is>
       </c>
     </row>
@@ -15685,7 +15685,7 @@
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>0.4133424051207502</t>
+          <t>0.3572661280051466</t>
         </is>
       </c>
     </row>
@@ -15702,7 +15702,7 @@
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>0.3130436703805798</t>
+          <t>0.37119315454063173</t>
         </is>
       </c>
     </row>
@@ -15719,7 +15719,7 @@
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>0.3158214878792377</t>
+          <t>0.2795334795621454</t>
         </is>
       </c>
     </row>
@@ -15736,7 +15736,7 @@
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>0.3985085918427758</t>
+          <t>0.43624975698925206</t>
         </is>
       </c>
     </row>
@@ -15753,7 +15753,7 @@
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>0.9230806778153167</t>
+          <t>0.9483085247724615</t>
         </is>
       </c>
     </row>
@@ -15770,7 +15770,7 @@
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>0.8365893755293495</t>
+          <t>0.9379113496604994</t>
         </is>
       </c>
     </row>
@@ -15787,7 +15787,7 @@
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>0.639232092919018</t>
+          <t>0.7487199845378673</t>
         </is>
       </c>
     </row>
@@ -15804,7 +15804,7 @@
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>0.8720092226615503</t>
+          <t>0.9363261834682793</t>
         </is>
       </c>
     </row>
@@ -15855,7 +15855,7 @@
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>0.3726921476232479</t>
+          <t>0.3834615976146828</t>
         </is>
       </c>
     </row>
@@ -15872,7 +15872,7 @@
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>0.3981578330515052</t>
+          <t>0.4265047070324246</t>
         </is>
       </c>
     </row>
@@ -15889,7 +15889,7 @@
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>0.4706985152054824</t>
+          <t>0.5635390341531077</t>
         </is>
       </c>
     </row>
@@ -15906,7 +15906,7 @@
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>0.3981578330515052</t>
+          <t>0.4265047070324246</t>
         </is>
       </c>
     </row>
@@ -15923,7 +15923,7 @@
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>0.4384454894221344</t>
+          <t>0.43070221382764284</t>
         </is>
       </c>
     </row>
@@ -15940,7 +15940,7 @@
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>0.3727786585128724</t>
+          <t>0.539462782298249</t>
         </is>
       </c>
     </row>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>0.39891125617100553</t>
+          <t>0.5671579296073939</t>
         </is>
       </c>
     </row>
@@ -15974,7 +15974,7 @@
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.8941829766102857</t>
         </is>
       </c>
     </row>
@@ -15991,7 +15991,7 @@
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>0.448825630741884</t>
+          <t>0.5304036542521808</t>
         </is>
       </c>
     </row>
@@ -16008,7 +16008,7 @@
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>0.9425223664137268</t>
+          <t>0.905620955225569</t>
         </is>
       </c>
     </row>
@@ -16059,7 +16059,7 @@
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>0.3289531530127749</t>
+          <t>0.30917020100108666</t>
         </is>
       </c>
     </row>
@@ -16076,7 +16076,7 @@
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>0.2568710133049462</t>
+          <t>0.2736527560290806</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>0.6469894341523392</t>
+          <t>0.5567987154996854</t>
         </is>
       </c>
     </row>
@@ -16110,7 +16110,7 @@
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>0.3888989986762137</t>
+          <t>0.3736522490616879</t>
         </is>
       </c>
     </row>
@@ -16127,7 +16127,7 @@
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>0.3130436703805801</t>
+          <t>0.3150467023636948</t>
         </is>
       </c>
     </row>
@@ -16144,7 +16144,7 @@
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>0.5311607080789696</t>
+          <t>0.5221126451329529</t>
         </is>
       </c>
     </row>
@@ -16161,7 +16161,7 @@
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>0.29778155633491576</t>
+          <t>0.2620234601882724</t>
         </is>
       </c>
     </row>
@@ -16178,7 +16178,7 @@
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>0.516409990508053</t>
+          <t>0.6058992910469715</t>
         </is>
       </c>
     </row>
@@ -16246,7 +16246,7 @@
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>0.48567878900622286</t>
+          <t>0.4924095033346827</t>
         </is>
       </c>
     </row>
@@ -16263,7 +16263,7 @@
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>0.30728904825296405</t>
+          <t>0.3202508832598127</t>
         </is>
       </c>
     </row>
@@ -16280,7 +16280,7 @@
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>0.47848273550557985</t>
+          <t>0.4121817852737162</t>
         </is>
       </c>
     </row>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>0.4029734665012587</t>
+          <t>0.3365955114174804</t>
         </is>
       </c>
     </row>
@@ -16314,7 +16314,7 @@
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>0.37607931924685</t>
+          <t>0.34924279030082533</t>
         </is>
       </c>
     </row>
@@ -16331,7 +16331,7 @@
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>0.45911734106896546</t>
+          <t>0.4252413969958527</t>
         </is>
       </c>
     </row>
@@ -16348,7 +16348,7 @@
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>0.4304247833503306</t>
+          <t>0.3413843652507956</t>
         </is>
       </c>
     </row>
@@ -16365,7 +16365,7 @@
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>0.5662987419387081</t>
+          <t>0.5772195607090721</t>
         </is>
       </c>
     </row>
@@ -16382,7 +16382,7 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>0.6392320929190178</t>
+          <t>0.7074082564371639</t>
         </is>
       </c>
     </row>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>0.6846517536308799</t>
+          <t>0.7183485083754075</t>
         </is>
       </c>
     </row>
@@ -16416,7 +16416,7 @@
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>0.3460136380625888</t>
+          <t>0.37554895272315375</t>
         </is>
       </c>
     </row>
@@ -16433,7 +16433,7 @@
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>0.38025604819573877</t>
+          <t>0.3172990055538726</t>
         </is>
       </c>
     </row>
@@ -16450,7 +16450,7 @@
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>0.27235343665971984</t>
+          <t>0.53502370261789</t>
         </is>
       </c>
     </row>
@@ -16467,7 +16467,7 @@
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>0.38025604819573877</t>
+          <t>0.3172990055538726</t>
         </is>
       </c>
     </row>
@@ -16484,7 +16484,7 @@
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>0.3541965871778484</t>
+          <t>0.4096893007381204</t>
         </is>
       </c>
     </row>
@@ -16501,7 +16501,7 @@
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>0.28275507707272945</t>
+          <t>0.4882837251692382</t>
         </is>
       </c>
     </row>
@@ -16518,7 +16518,7 @@
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>0.5830863199078391</t>
+          <t>0.6330024027563338</t>
         </is>
       </c>
     </row>
@@ -16569,7 +16569,7 @@
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>0.4098527380106496</t>
+          <t>0.4275312461620528</t>
         </is>
       </c>
     </row>
@@ -16586,7 +16586,7 @@
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>0.3435270944008602</t>
+          <t>0.4337903911991418</t>
         </is>
       </c>
     </row>
@@ -16603,7 +16603,7 @@
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>0.43796629145781385</t>
+          <t>0.46104735408819286</t>
         </is>
       </c>
     </row>
@@ -16620,7 +16620,7 @@
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>0.3655866710375271</t>
+          <t>0.4337903911991418</t>
         </is>
       </c>
     </row>
@@ -16637,7 +16637,7 @@
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>0.3087380957934398</t>
+          <t>0.40906893486864127</t>
         </is>
       </c>
     </row>
@@ -16654,7 +16654,7 @@
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>0.41911104044490466</t>
+          <t>0.49029978104275984</t>
         </is>
       </c>
     </row>
@@ -16671,7 +16671,7 @@
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>0.42720998318545284</t>
+          <t>0.367149893547051</t>
         </is>
       </c>
     </row>
@@ -16705,7 +16705,7 @@
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>0.32770744447676353</t>
+          <t>0.3613178425990573</t>
         </is>
       </c>
     </row>
@@ -16722,7 +16722,7 @@
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>0.2618781676639449</t>
+          <t>0.38284421925313333</t>
         </is>
       </c>
     </row>
@@ -16739,7 +16739,7 @@
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>0.4152117469963582</t>
+          <t>0.5328752731280704</t>
         </is>
       </c>
     </row>
@@ -16756,7 +16756,7 @@
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>0.4144370122882784</t>
+          <t>0.41541776861817253</t>
         </is>
       </c>
     </row>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>0.3351286482826037</t>
+          <t>0.4068480380656264</t>
         </is>
       </c>
     </row>
@@ -16790,7 +16790,7 @@
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>0.44442649944991464</t>
+          <t>0.5109039138916892</t>
         </is>
       </c>
     </row>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>0.38434007095546713</t>
+          <t>0.43865726470713884</t>
         </is>
       </c>
     </row>
@@ -16824,7 +16824,7 @@
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>0.32770744447676353</t>
+          <t>0.35166950678078573</t>
         </is>
       </c>
     </row>
@@ -16841,7 +16841,7 @@
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>0.2961477127401371</t>
+          <t>0.35022076000943075</t>
         </is>
       </c>
     </row>
@@ -16858,7 +16858,7 @@
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>0.43374051553682974</t>
+          <t>0.52100911880785</t>
         </is>
       </c>
     </row>
@@ -16875,7 +16875,7 @@
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>0.4144370122882784</t>
+          <t>0.41541776861817253</t>
         </is>
       </c>
     </row>
@@ -16892,7 +16892,7 @@
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>0.44842912545942215</t>
+          <t>0.4011511598836246</t>
         </is>
       </c>
     </row>
@@ -16909,7 +16909,7 @@
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>0.4193595119132126</t>
+          <t>0.543549940907587</t>
         </is>
       </c>
     </row>
@@ -16926,7 +16926,7 @@
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>0.4890481313957396</t>
+          <t>0.4504057219099746</t>
         </is>
       </c>
     </row>
@@ -16943,7 +16943,7 @@
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>0.6832328164574978</t>
+          <t>0.6919759900970556</t>
         </is>
       </c>
     </row>
@@ -16960,7 +16960,7 @@
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>0.5138358476880817</t>
+          <t>0.5722250484473208</t>
         </is>
       </c>
     </row>
@@ -16977,7 +16977,7 @@
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>0.9852281360342512</t>
+          <t>0.8903484540676482</t>
         </is>
       </c>
     </row>
@@ -16994,7 +16994,7 @@
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>0.2621157352336785</t>
+          <t>0.22215615899493607</t>
         </is>
       </c>
     </row>
@@ -17011,7 +17011,7 @@
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>0.36062332004282593</t>
+          <t>0.4062723810394964</t>
         </is>
       </c>
     </row>
@@ -17028,7 +17028,7 @@
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>0.18362433176269963</t>
+          <t>0.23649385515429078</t>
         </is>
       </c>
     </row>
@@ -17045,7 +17045,7 @@
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>0.4046637753297074</t>
+          <t>0.35328284235759</t>
         </is>
       </c>
     </row>
@@ -17079,7 +17079,7 @@
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>0.2948982210481487</t>
+          <t>0.33954642905764604</t>
         </is>
       </c>
     </row>
@@ -17096,7 +17096,7 @@
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>0.23230311207261656</t>
+          <t>0.24190111432700112</t>
         </is>
       </c>
     </row>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>0.23298385708060523</t>
+          <t>0.27559315656971706</t>
         </is>
       </c>
     </row>
@@ -17130,7 +17130,7 @@
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>0.7344461802527668</t>
+          <t>0.7080374952286669</t>
         </is>
       </c>
     </row>
@@ -17147,7 +17147,7 @@
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>0.16143191007279625</t>
+          <t>0.21487417385871446</t>
         </is>
       </c>
     </row>
@@ -17164,7 +17164,7 @@
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>0.5918775127888565</t>
+          <t>0.5656206411597501</t>
         </is>
       </c>
     </row>
@@ -17181,7 +17181,7 @@
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>0.20039701256248707</t>
+          <t>0.22187483121874932</t>
         </is>
       </c>
     </row>
@@ -17198,7 +17198,7 @@
       </c>
       <c r="C986" t="inlineStr">
         <is>
-          <t>0.47294407357603885</t>
+          <t>0.34557293605293926</t>
         </is>
       </c>
     </row>
@@ -17215,7 +17215,7 @@
       </c>
       <c r="C987" t="inlineStr">
         <is>
-          <t>0.46571546117453166</t>
+          <t>0.4729691495542979</t>
         </is>
       </c>
     </row>
@@ -17232,7 +17232,7 @@
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>0.24502390440919783</t>
+          <t>0.2445177719464483</t>
         </is>
       </c>
     </row>
@@ -17249,7 +17249,7 @@
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>0.22476020829253357</t>
+          <t>0.24468063320723457</t>
         </is>
       </c>
     </row>
@@ -17266,7 +17266,7 @@
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>0.19389161498351196</t>
+          <t>0.2193541530685308</t>
         </is>
       </c>
     </row>
@@ -17283,7 +17283,7 @@
       </c>
       <c r="C991" t="inlineStr">
         <is>
-          <t>0.19406474841829258</t>
+          <t>0.2769789111969399</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/correlation-values.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/correlation-values.xlsx
@@ -470,7 +470,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.7589179786250452</t>
+          <t>0.8008918343489466</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.5087156603714074</t>
+          <t>0.5320815499888586</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9954515828457711</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.20433308586639687</t>
+          <t>0.17158110083595157</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.18987779160708848</t>
+          <t>0.21053061780803983</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.44895060837138684</t>
+          <t>0.32240136892959886</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.2618781676639449</t>
+          <t>0.22368363103294137</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.5958579639986272</t>
+          <t>0.5443080599846535</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.402606409346879</t>
+          <t>0.36828011929176274</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.23427727500256448</t>
+          <t>0.21777075977057989</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.4610805356147132</t>
+          <t>0.34951313761781344</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.44702472492239</t>
+          <t>0.29102606835620515</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.18987779160708848</t>
+          <t>0.21053061780803983</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.6585377287150944</t>
+          <t>0.6100739269091892</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.37514698448882605</t>
+          <t>0.4408761807053034</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.37514698448882605</t>
+          <t>0.4408761807053034</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.42049640162330576</t>
+          <t>0.40691436152929933</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.37514698448882605</t>
+          <t>0.4408761807053034</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.4062457862453399</t>
+          <t>0.39171954087470207</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.42049640162330576</t>
+          <t>0.40691436152929933</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.37514698448882605</t>
+          <t>0.4408761807053034</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.4062457862453399</t>
+          <t>0.39171954087470207</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.3845857076339466</t>
+          <t>0.4157332338439136</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.37514698448882605</t>
+          <t>0.4408761807053034</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.3845857076339466</t>
+          <t>0.4157332338439136</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.7151888522713932</t>
+          <t>0.5792868737143053</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.28009896101379317</t>
+          <t>0.32442524962996067</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.38850720221599017</t>
+          <t>0.3483827919937079</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.5145071141772903</t>
+          <t>0.49456439761677845</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.28782422411631686</t>
+          <t>0.3712561187926595</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.39060069955117915</t>
+          <t>0.4178698809892377</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.3905685741722076</t>
+          <t>0.3811029373036007</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.48425362859705406</t>
+          <t>0.35991031272977525</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.382024066360574</t>
+          <t>0.29699507861214874</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.41839992333616205</t>
+          <t>0.3404121650512047</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.3577452496046288</t>
+          <t>0.3436387230009119</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.348382791993708</t>
+          <t>0.3436387230009119</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.9239199275796416</t>
+          <t>0.9166323148240506</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.6776262942868875</t>
+          <t>0.729022140834248</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.5087156603714074</t>
+          <t>0.5320815499888586</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.8599421798298059</t>
+          <t>0.8966583247632433</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.1879149334792073</t>
+          <t>0.1680564179390749</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.37514698448882605</t>
+          <t>0.4408761807053034</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.30044936905801295</t>
+          <t>0.32373547257375834</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.33909546507458954</t>
+          <t>0.3886088883818944</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9680722152143111</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.46991463505520814</t>
+          <t>0.4281396935668954</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.5226487223030128</t>
+          <t>0.3709126163883186</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.31978662742983777</t>
+          <t>0.29966452334019544</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.4512362647626409</t>
+          <t>0.35767242312426967</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.44558142024926156</t>
+          <t>0.33909599099105703</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.4110606324673796</t>
+          <t>0.30304915934568977</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.4512362647626409</t>
+          <t>0.35767242312426967</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.4120069280830104</t>
+          <t>0.35836731742633565</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.6805556881639441</t>
+          <t>0.5918214209999545</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.4512362647626409</t>
+          <t>0.35767242312426967</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.8654627954252608</t>
+          <t>0.6434947387745229</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.29222509340151614</t>
+          <t>0.3031938693845558</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.29222509340151637</t>
+          <t>0.3031938693845558</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.2536431892520904</t>
+          <t>0.31131259340074646</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.29222509340151637</t>
+          <t>0.3031938693845558</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.31517350556912804</t>
+          <t>0.28457334191862393</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0.2536431892520906</t>
+          <t>0.31131259340074635</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.29222509340151637</t>
+          <t>0.3031938693845558</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.2573383426989595</t>
+          <t>0.25258938002401055</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0.29763804009745337</t>
+          <t>0.3393121673360222</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.29222509340151637</t>
+          <t>0.3031938693845558</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.31517350556912804</t>
+          <t>0.3393121673360222</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.6133175018235846</t>
+          <t>0.8032553064286677</t>
         </is>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.3676771934911521</t>
+          <t>0.3836741976623195</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.3450463826659537</t>
+          <t>0.5293447520227049</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.533773344819657</t>
+          <t>0.5955218185949589</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.41182397239126173</t>
+          <t>0.3095395503742632</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.4123980056413099</t>
+          <t>0.4724730886219973</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0.33028444641749977</t>
+          <t>0.45937059025900856</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0.4135791901579065</t>
+          <t>0.3512882570672101</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0.3315299185139838</t>
+          <t>0.25448662451486287</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0.3343243345481226</t>
+          <t>0.4555164687755557</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0.3516259225278265</t>
+          <t>0.3725360269502196</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0.352210259809445</t>
+          <t>0.3894090506603887</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0.7589179786250452</t>
+          <t>0.8008918343489466</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0.33909546507458954</t>
+          <t>0.3886088883818944</t>
         </is>
       </c>
     </row>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0.44889761840757103</t>
+          <t>0.4281396935668954</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0.29222509340151637</t>
+          <t>0.3031938693845558</t>
         </is>
       </c>
     </row>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0.3053702530029941</t>
+          <t>0.3731605686888397</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.5311646168138852</t>
+          <t>0.4887534308491265</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0.21487417385871446</t>
+          <t>0.17102867078717549</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0.20688903042638665</t>
+          <t>0.13728882234081444</t>
         </is>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0.28353924467164865</t>
+          <t>0.241075840528623</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0.20688903042638665</t>
+          <t>0.14506242108065265</t>
         </is>
       </c>
     </row>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0.33785030698470236</t>
+          <t>0.2859536235715977</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0.28353924467164865</t>
+          <t>0.241075840528623</t>
         </is>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0.20688903042638665</t>
+          <t>0.14506242108065248</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0.3060750101276807</t>
+          <t>0.27010104883179403</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0.19673425494976024</t>
+          <t>0.10382523431939136</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0.20688903042638665</t>
+          <t>0.13728882234081444</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0.19673425494976024</t>
+          <t>0.10510839780976175</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.6281059120259078</t>
+          <t>0.5728536123372514</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0.6281059120259078</t>
+          <t>0.5728536123372515</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>0.5016827242219571</t>
+          <t>0.4230326199125635</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>0.5979093344704101</t>
+          <t>0.545599588200338</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>0.5728462507073623</t>
+          <t>0.5812053691480845</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0.5016827242219575</t>
+          <t>0.4230326199125635</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>0.5979093344704102</t>
+          <t>0.5428907456907561</t>
         </is>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>0.5482112041695334</t>
+          <t>0.5374769960978708</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>0.5857479300630469</t>
+          <t>0.4459519510249161</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>0.5498460990958574</t>
+          <t>0.5002470813466021</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>0.6311952331478198</t>
+          <t>0.5778924515350787</t>
         </is>
       </c>
     </row>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>0.4843538404504818</t>
+          <t>0.4932977312866361</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>0.31717993036067565</t>
+          <t>0.38109135366495406</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0.516962330561893</t>
+          <t>0.4887534308491265</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>0.5282152657402645</t>
+          <t>0.49405291906966997</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>0.3181393046018169</t>
+          <t>0.304014567611255</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>0.5635390341531077</t>
+          <t>0.5033474771713162</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0.5567987154996854</t>
+          <t>0.5572838881088523</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>0.4121817852737162</t>
+          <t>0.3712233581267917</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>0.53502370261789</t>
+          <t>0.43097088016431934</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>0.46104735408819286</t>
+          <t>0.4677953251480527</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>0.5328752731280704</t>
+          <t>0.4826912129608491</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>0.52100911880785</t>
+          <t>0.45810589515712385</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>0.5722250484473208</t>
+          <t>0.5462898381804455</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>0.35328284235759</t>
+          <t>0.33202591270950094</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.7642045065086204</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>0.7080374952286669</t>
+          <t>0.7007124430165569</t>
         </is>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>0.21487417385871446</t>
+          <t>0.17102867078717549</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>0.5656206411597501</t>
+          <t>0.5420719659373044</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>0.22187483121874932</t>
+          <t>0.20401226724621746</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>0.4448444292802011</t>
+          <t>0.4681040006507688</t>
         </is>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>0.4317216097987877</t>
+          <t>0.4288426663024966</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>0.3942303724440094</t>
+          <t>0.4131921610176957</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>0.4317216097987877</t>
+          <t>0.4288426663024966</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>0.4557682903308298</t>
+          <t>0.36730544770969537</t>
         </is>
       </c>
     </row>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>0.4281987503152837</t>
+          <t>0.42172357309015773</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>0.4317216097987877</t>
+          <t>0.4288426663024966</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>0.40182005800144216</t>
+          <t>0.4073316884973275</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>0.5882054785907046</t>
+          <t>0.5318727409588332</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>0.4317216097987877</t>
+          <t>0.4288426663024966</t>
         </is>
       </c>
     </row>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>0.8456991049834113</t>
+          <t>0.692621139554817</t>
         </is>
       </c>
     </row>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>0.4599697243400553</t>
+          <t>0.38926294101218417</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>0.4599697243400553</t>
+          <t>0.38926294101218417</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>0.4743051885507252</t>
+          <t>0.4404945763115662</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>0.4599697243400553</t>
+          <t>0.38926294101218417</t>
         </is>
       </c>
     </row>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>0.4290431881612218</t>
+          <t>0.4180469828974598</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>0.4743051885507252</t>
+          <t>0.4404945763115662</t>
         </is>
       </c>
     </row>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>0.4599697243400553</t>
+          <t>0.38926294101218417</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>0.4290431881612218</t>
+          <t>0.37014569438794265</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>0.6111679888727563</t>
+          <t>0.5101064389169427</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>0.4599697243400553</t>
+          <t>0.38926294101218417</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>0.6111679888727563</t>
+          <t>0.5101064389169427</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>0.6724911390032532</t>
+          <t>0.934076827117862</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>0.3507473556857569</t>
+          <t>0.37983967511968214</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>0.3677459425807086</t>
+          <t>0.6118408246095661</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>0.5814514156273307</t>
+          <t>0.6754014776770232</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>0.48967685045385484</t>
+          <t>0.47806202430077693</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>0.41262740609230586</t>
+          <t>0.5679730998294065</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>0.34657460596664486</t>
+          <t>0.5251555650643251</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>0.38944983925479076</t>
+          <t>0.3704731597897942</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>0.3848957653930927</t>
+          <t>0.2867625404437151</t>
         </is>
       </c>
     </row>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>0.42156429896952785</t>
+          <t>0.5370507964428354</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>0.3797134806932459</t>
+          <t>0.39015749070380157</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>0.34657460596664486</t>
+          <t>0.42585412190292093</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>0.9560898739101289</t>
+          <t>0.9264275265664572</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>0.5311646168138852</t>
+          <t>0.4887534308491265</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>0.4448444292802011</t>
+          <t>0.46810400065076885</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>0.4599697243400553</t>
+          <t>0.39903394268419146</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>0.3029796644375944</t>
+          <t>0.3976081747825989</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>0.9468188316776022</t>
+          <t>0.9182958340544891</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>0.37929659241092784</t>
+          <t>0.41765033271425694</t>
         </is>
       </c>
     </row>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>0.9468188316776022</t>
+          <t>0.9182958340544891</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>0.6427083618377697</t>
+          <t>0.5886580693084161</t>
         </is>
       </c>
     </row>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>0.3401942596100818</t>
+          <t>0.38340453129517615</t>
         </is>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>0.9468188316776022</t>
+          <t>0.9182958340544891</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>0.46238996085831197</t>
+          <t>0.4114758107735876</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>0.27519924027784887</t>
+          <t>0.30085721956608974</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>0.9468188316776022</t>
+          <t>0.9182958340544891</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>0.47765114336742315</t>
+          <t>0.5245093803508777</t>
         </is>
       </c>
     </row>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>0.24468063320723474</t>
+          <t>0.23107633045949758</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>0.24468063320723474</t>
+          <t>0.23107633045949758</t>
         </is>
       </c>
     </row>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>0.228003677401838</t>
+          <t>0.25574876373722066</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>0.22679102021240274</t>
+          <t>0.23107633045949758</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>0.32493672168010945</t>
+          <t>0.31854889701635125</t>
         </is>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>0.228003677401838</t>
+          <t>0.25574876373722066</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>0.22679102021240274</t>
+          <t>0.23107633045949758</t>
         </is>
       </c>
     </row>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>0.32493672168010945</t>
+          <t>0.31854889701635136</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>0.21443951295911443</t>
+          <t>0.24670685290146446</t>
         </is>
       </c>
     </row>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>0.22679102021240274</t>
+          <t>0.23107633045949758</t>
         </is>
       </c>
     </row>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>0.26134044881243634</t>
+          <t>0.27169181861737396</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>0.38251894147086435</t>
+          <t>0.3512243535437751</t>
         </is>
       </c>
     </row>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>0.3673177673855158</t>
+          <t>0.5147118364857972</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>0.46542515325802025</t>
+          <t>0.3941092565369758</t>
         </is>
       </c>
     </row>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>0.37237719231485095</t>
+          <t>0.362150793314689</t>
         </is>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>0.37119315454063156</t>
+          <t>0.4091382489814107</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>0.43070221382764284</t>
+          <t>0.46296607660926603</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>0.3150467023636948</t>
+          <t>0.3046023875029841</t>
         </is>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>0.34924279030082533</t>
+          <t>0.3113951834890789</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>0.4096893007381204</t>
+          <t>0.46443821126029955</t>
         </is>
       </c>
     </row>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>0.40906893486864154</t>
+          <t>0.42257478601105</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>0.40684803806562625</t>
+          <t>0.4072721937523894</t>
         </is>
       </c>
     </row>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>0.4011511598836246</t>
+          <t>0.3767206952821235</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>0.20230586338051487</t>
+          <t>0.21083279523512402</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>0.33954642905764604</t>
+          <t>0.36295876315223474</t>
         </is>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>0.21487417385871446</t>
+          <t>0.17102867078717549</t>
         </is>
       </c>
     </row>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>0.3662297146586319</t>
+          <t>0.31851352951938455</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>0.9587118829771317</t>
+          <t>0.9690632527820694</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>0.2446806332072349</t>
+          <t>0.23107633045949758</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>0.2193541530685308</t>
+          <t>0.27065055436937135</t>
         </is>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>0.3961820573489579</t>
+          <t>0.41765033271425694</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>0.9468188316776022</t>
+          <t>0.9182958340544891</t>
         </is>
       </c>
     </row>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>0.5793055883503587</t>
+          <t>0.5576829563816599</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>0.40435611837896385</t>
+          <t>0.3487291682120008</t>
         </is>
       </c>
     </row>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>0.9468188316776022</t>
+          <t>0.9182958340544891</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>0.5058440254517312</t>
+          <t>0.5629291064676989</t>
         </is>
       </c>
     </row>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>0.2662679143712708</t>
+          <t>0.2648089317641818</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>0.9468188316776022</t>
+          <t>0.9182958340544891</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>0.4646531624393683</t>
+          <t>0.524509380350878</t>
         </is>
       </c>
     </row>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>0.2327875819077052</t>
+          <t>0.18424580909118682</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>0.2327875819077052</t>
+          <t>0.18424580909118682</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>0.23951921700071352</t>
+          <t>0.1946577697077294</t>
         </is>
       </c>
     </row>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>0.20679786213921172</t>
+          <t>0.158903950594909</t>
         </is>
       </c>
     </row>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>0.31304367038057995</t>
+          <t>0.2677814782887711</t>
         </is>
       </c>
     </row>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>0.23951921700071352</t>
+          <t>0.1946577697077294</t>
         </is>
       </c>
     </row>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>0.20679786213921172</t>
+          <t>0.158903950594909</t>
         </is>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>0.31304367038057995</t>
+          <t>0.2677814782887712</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>0.19301417654650163</t>
+          <t>0.18226249378751885</t>
         </is>
       </c>
     </row>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>0.20679786213921172</t>
+          <t>0.158903950594909</t>
         </is>
       </c>
     </row>
@@ -4363,7 +4363,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>0.24944739751290682</t>
+          <t>0.2240525117531229</t>
         </is>
       </c>
     </row>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>0.4133236034394747</t>
+          <t>0.4935489512666795</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>0.42731876391107837</t>
+          <t>0.5450687162046315</t>
         </is>
       </c>
     </row>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>0.49330015676584743</t>
+          <t>0.5337348536835526</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>0.35986426600183724</t>
+          <t>0.33801471276344597</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>0.30498583842833676</t>
+          <t>0.36306746475518076</t>
         </is>
       </c>
     </row>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>0.4512271348301719</t>
+          <t>0.48868755292199917</t>
         </is>
       </c>
     </row>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>0.3514904205632645</t>
+          <t>0.3898165211612001</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>0.3373497390012959</t>
+          <t>0.40458998062278445</t>
         </is>
       </c>
     </row>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>0.4463249618909184</t>
+          <t>0.4955952167468274</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>0.39717588356911177</t>
+          <t>0.4776885324570239</t>
         </is>
       </c>
     </row>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>0.39495498676609697</t>
+          <t>0.43358146552992943</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>0.44404235543769593</t>
+          <t>0.4442073612285669</t>
         </is>
       </c>
     </row>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>0.1849334105170181</t>
+          <t>0.16797390563345982</t>
         </is>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>0.36849285865385034</t>
+          <t>0.29207263394817146</t>
         </is>
       </c>
     </row>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>0.20688903042638665</t>
+          <t>0.13728882234081444</t>
         </is>
       </c>
     </row>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>0.3137398420057084</t>
+          <t>0.27774257945458397</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>0.9468188316776022</t>
+          <t>0.9182958340544891</t>
         </is>
       </c>
     </row>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>0.23278758190770535</t>
+          <t>0.18424580909118665</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>0.22672579005553053</t>
+          <t>0.24388452227829666</t>
         </is>
       </c>
     </row>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>0.3961820573489579</t>
+          <t>0.34554342583441316</t>
         </is>
       </c>
     </row>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>0.924343842164097</t>
+          <t>0.9363261834682792</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>0.3961820573489579</t>
+          <t>0.34554342583441316</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>0.9088985780346425</t>
+          <t>0.9013622069895476</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>0.3961820573489579</t>
+          <t>0.34554342583441316</t>
         </is>
       </c>
     </row>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>0.6970460778666032</t>
+          <t>0.8014678364619714</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>0.34592782868411287</t>
+          <t>0.32671864465240913</t>
         </is>
       </c>
     </row>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>0.34592782868411254</t>
+          <t>0.32671864465240913</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>0.37195114089386505</t>
+          <t>0.3807056669833051</t>
         </is>
       </c>
     </row>
@@ -4890,7 +4890,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>0.3225727172610884</t>
+          <t>0.32671864465240913</t>
         </is>
       </c>
     </row>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>0.4003630288170899</t>
+          <t>0.4537997308321584</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>0.3673467616497841</t>
+          <t>0.3695753192940088</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>0.3219408854351443</t>
+          <t>0.32671864465240913</t>
         </is>
       </c>
     </row>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>0.4085224379249824</t>
+          <t>0.4537997308321586</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>0.3719511408938652</t>
+          <t>0.3807056669833051</t>
         </is>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>0.3219408854351443</t>
+          <t>0.32671864465240913</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>0.3719511408938652</t>
+          <t>0.3882438142267917</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>0.7675208514695983</t>
+          <t>0.7284669546545176</t>
         </is>
       </c>
     </row>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>0.7774070751342499</t>
+          <t>0.7895783660423027</t>
         </is>
       </c>
     </row>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>0.8018827091899242</t>
+          <t>0.8906461746019684</t>
         </is>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>0.782670550276657</t>
+          <t>0.6283768631612834</t>
         </is>
       </c>
     </row>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>0.4191858567973403</t>
+          <t>0.49510730914116113</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>0.690762534137396</t>
+          <t>0.7093908718613503</t>
         </is>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>0.848636932801145</t>
+          <t>0.8485794672313611</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>0.6605542074537893</t>
+          <t>0.7044145312551283</t>
         </is>
       </c>
     </row>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>0.4352880359444055</t>
+          <t>0.46013570727780295</t>
         </is>
       </c>
     </row>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>0.6460879909264385</t>
+          <t>0.6564174892806076</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>0.8185278075865883</t>
+          <t>0.7696449996502988</t>
         </is>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>0.8285613842371033</t>
+          <t>0.7690963089191604</t>
         </is>
       </c>
     </row>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>0.38805100236209966</t>
+          <t>0.3066205038120074</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>0.3476292233880889</t>
+          <t>0.2289895905715306</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>0.28353924467164865</t>
+          <t>0.241075840528623</t>
         </is>
       </c>
     </row>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>0.3244457777950712</t>
+          <t>0.3338262348260668</t>
         </is>
       </c>
     </row>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>0.37929659241092784</t>
+          <t>0.35838541054262085</t>
         </is>
       </c>
     </row>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>0.3219408854351443</t>
+          <t>0.32671864465240913</t>
         </is>
       </c>
     </row>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>0.25849378887825974</t>
+          <t>0.3122611693276612</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>0.5793055883503587</t>
+          <t>0.5576829563816599</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>0.4872018477261635</t>
+          <t>0.44596245422902886</t>
         </is>
       </c>
     </row>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>0.9468188316776022</t>
+          <t>0.9182958340544891</t>
         </is>
       </c>
     </row>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>0.5058440254517312</t>
+          <t>0.5629291064676989</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>0.28757542673238895</t>
+          <t>0.2747960822894307</t>
         </is>
       </c>
     </row>
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>0.9468188316776022</t>
+          <t>0.9182958340544891</t>
         </is>
       </c>
     </row>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>0.4646531624393683</t>
+          <t>0.4742299933028746</t>
         </is>
       </c>
     </row>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>0.2327875819077052</t>
+          <t>0.18424580909118682</t>
         </is>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>0.2327875819077052</t>
+          <t>0.18424580909118682</t>
         </is>
       </c>
     </row>
@@ -5502,7 +5502,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>0.21975552655886393</t>
+          <t>0.1826754284035476</t>
         </is>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>0.18703417169736206</t>
+          <t>0.14692160929072698</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>0.31304367038057995</t>
+          <t>0.2677814782887711</t>
         </is>
       </c>
     </row>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>0.21975552655886402</t>
+          <t>0.1826754284035476</t>
         </is>
       </c>
     </row>
@@ -5570,7 +5570,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>0.18703417169736206</t>
+          <t>0.14692160929072698</t>
         </is>
       </c>
     </row>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>0.31304367038057995</t>
+          <t>0.2677814782887712</t>
         </is>
       </c>
     </row>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>0.1732504861046522</t>
+          <t>0.17028015248333697</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>0.18703417169736206</t>
+          <t>0.14692160929072698</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>0.24944739751290682</t>
+          <t>0.2240525117531229</t>
         </is>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>0.4133236034394747</t>
+          <t>0.4935489512666795</t>
         </is>
       </c>
     </row>
@@ -5672,7 +5672,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>0.5041226499131446</t>
+          <t>0.6044773308704768</t>
         </is>
       </c>
     </row>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>0.5032583347756449</t>
+          <t>0.5337348536835526</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>0.39382840383338086</t>
+          <t>0.36067699164225486</t>
         </is>
       </c>
     </row>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>0.30498583842833676</t>
+          <t>0.36306746475518076</t>
         </is>
       </c>
     </row>
@@ -5740,7 +5740,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>0.4512271348301719</t>
+          <t>0.48868755292199917</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>0.36157621676550955</t>
+          <t>0.3898165211612001</t>
         </is>
       </c>
     </row>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>0.3389715022657522</t>
+          <t>0.44078030885319763</t>
         </is>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>0.4463249618909184</t>
+          <t>0.4955952167468274</t>
         </is>
       </c>
     </row>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>0.41491980426405267</t>
+          <t>0.4776885324570239</t>
         </is>
       </c>
     </row>
@@ -5825,7 +5825,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>0.39495498676609697</t>
+          <t>0.43788448736626473</t>
         </is>
       </c>
     </row>
@@ -5842,7 +5842,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>0.44404235543769593</t>
+          <t>0.4442073612285669</t>
         </is>
       </c>
     </row>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>0.30255102217125696</t>
+          <t>0.28712310330172186</t>
         </is>
       </c>
     </row>
@@ -5876,7 +5876,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>0.29524315585388783</t>
+          <t>0.2743386270099082</t>
         </is>
       </c>
     </row>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>0.20688903042638665</t>
+          <t>0.14506242108065265</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>0.30778522733372604</t>
+          <t>0.2765034488384145</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>0.9468188316776022</t>
+          <t>0.9182958340544891</t>
         </is>
       </c>
     </row>
@@ -5944,7 +5944,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>0.23278758190770535</t>
+          <t>0.18424580909118665</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>0.22672579005553053</t>
+          <t>0.24388452227829666</t>
         </is>
       </c>
     </row>
@@ -5978,7 +5978,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>0.924343842164097</t>
+          <t>0.9363261834682792</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>0.5793055883503587</t>
+          <t>0.5576829563816599</t>
         </is>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9560898739101291</t>
         </is>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>0.6504674159305601</t>
+          <t>0.5381330498960408</t>
         </is>
       </c>
     </row>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>0.5793055883503587</t>
+          <t>0.5576829563816599</t>
         </is>
       </c>
     </row>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>0.7304073491669757</t>
+          <t>0.6634157627650608</t>
         </is>
       </c>
     </row>
@@ -6080,7 +6080,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>0.40067832772740786</t>
+          <t>0.4065721491656779</t>
         </is>
       </c>
     </row>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>0.40067832772740786</t>
+          <t>0.4065721491656779</t>
         </is>
       </c>
     </row>
@@ -6114,7 +6114,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>0.4171457216439603</t>
+          <t>0.4137630693150979</t>
         </is>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>0.40067832772740786</t>
+          <t>0.4065721491656779</t>
         </is>
       </c>
     </row>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>0.48393620594527226</t>
+          <t>0.5176104229361815</t>
         </is>
       </c>
     </row>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>0.4171457216439603</t>
+          <t>0.4137630693150976</t>
         </is>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>0.40067832772740786</t>
+          <t>0.4065721491656779</t>
         </is>
       </c>
     </row>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>0.48393620594527226</t>
+          <t>0.5176104229361815</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>0.4469029661929172</t>
+          <t>0.4664197475698886</t>
         </is>
       </c>
     </row>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>0.40067832772740786</t>
+          <t>0.4065721491656779</t>
         </is>
       </c>
     </row>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>0.4469029661929172</t>
+          <t>0.4664197475698886</t>
         </is>
       </c>
     </row>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>0.7608581848572777</t>
+          <t>0.7191366208407042</t>
         </is>
       </c>
     </row>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>0.7562739102033489</t>
+          <t>0.841088088230184</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>0.9425223664137268</t>
+          <t>0.9190854481162107</t>
         </is>
       </c>
     </row>
@@ -6318,7 +6318,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>0.9190854481162107</t>
+          <t>0.7237220218430874</t>
         </is>
       </c>
     </row>
@@ -6335,7 +6335,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>0.3902477412839726</t>
+          <t>0.40783892511410147</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>0.8101023253617069</t>
+          <t>0.7665894110613813</t>
         </is>
       </c>
     </row>
@@ -6403,7 +6403,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>0.3915992205998156</t>
+          <t>0.4632816122890324</t>
         </is>
       </c>
     </row>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>0.8284963083612247</t>
+          <t>0.7696055395252643</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.8366545914969629</t>
         </is>
       </c>
     </row>
@@ -6454,7 +6454,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.8564785875436737</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>0.4562549604690207</t>
+          <t>0.4291885345805731</t>
         </is>
       </c>
     </row>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>0.5018118232295772</t>
+          <t>0.44909302813085805</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>0.33785030698470236</t>
+          <t>0.2859536235715977</t>
         </is>
       </c>
     </row>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>0.5018118232295772</t>
+          <t>0.44909302813085805</t>
         </is>
       </c>
     </row>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>0.6427083618377697</t>
+          <t>0.5886580693084161</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>0.40067832772740786</t>
+          <t>0.4065721491656779</t>
         </is>
       </c>
     </row>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>0.19157739600165333</t>
+          <t>0.268111059121973</t>
         </is>
       </c>
     </row>
@@ -6590,7 +6590,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>0.4538706497879114</t>
+          <t>0.42002612026558644</t>
         </is>
       </c>
     </row>
@@ -6624,7 +6624,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>0.7368733157775958</t>
+          <t>0.8016406728653532</t>
         </is>
       </c>
     </row>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>0.31860212331488047</t>
+          <t>0.3403927923140297</t>
         </is>
       </c>
     </row>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>0.5895700791238722</t>
+          <t>0.6704954156651417</t>
         </is>
       </c>
     </row>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>0.3438926512071362</t>
+          <t>0.31134361011832756</t>
         </is>
       </c>
     </row>
@@ -6692,7 +6692,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>0.3438926512071361</t>
+          <t>0.31134361011832756</t>
         </is>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>0.35979507738335015</t>
+          <t>0.3695753192940086</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>0.31214661946110445</t>
+          <t>0.31134361011832756</t>
         </is>
       </c>
     </row>
@@ -6743,7 +6743,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>0.3729902062909118</t>
+          <t>0.4537997308321584</t>
         </is>
       </c>
     </row>
@@ -6760,7 +6760,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>0.3467235376796423</t>
+          <t>0.3695753192940088</t>
         </is>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>0.3121466194611051</t>
+          <t>0.31134361011832756</t>
         </is>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>0.4085224379249824</t>
+          <t>0.4537997308321586</t>
         </is>
       </c>
     </row>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>0.34389265120713647</t>
+          <t>0.360952120262703</t>
         </is>
       </c>
     </row>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>0.28790102955825775</t>
+          <t>0.31134361011832756</t>
         </is>
       </c>
     </row>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>0.3695753192940088</t>
+          <t>0.3882438142267917</t>
         </is>
       </c>
     </row>
@@ -6862,7 +6862,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>0.7675208514695983</t>
+          <t>0.7284669546545176</t>
         </is>
       </c>
     </row>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>0.7774070751342499</t>
+          <t>0.7895783660423027</t>
         </is>
       </c>
     </row>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>0.8149441108051378</t>
+          <t>0.8906461746019684</t>
         </is>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>0.782670550276657</t>
+          <t>0.6474506061318634</t>
         </is>
       </c>
     </row>
@@ -6930,7 +6930,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>0.4191858567973404</t>
+          <t>0.49510730914116113</t>
         </is>
       </c>
     </row>
@@ -6947,7 +6947,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>0.690762534137396</t>
+          <t>0.7093908718613503</t>
         </is>
       </c>
     </row>
@@ -6964,7 +6964,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>0.848636932801145</t>
+          <t>0.8485794672313611</t>
         </is>
       </c>
     </row>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>0.6605542074537893</t>
+          <t>0.7044145312551284</t>
         </is>
       </c>
     </row>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>0.4352880359444055</t>
+          <t>0.46013570727780295</t>
         </is>
       </c>
     </row>
@@ -7015,7 +7015,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>0.6460879909264385</t>
+          <t>0.6564174892806076</t>
         </is>
       </c>
     </row>
@@ -7032,7 +7032,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>0.8185278075865883</t>
+          <t>0.7696449996502988</t>
         </is>
       </c>
     </row>
@@ -7049,7 +7049,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>0.8285613842371032</t>
+          <t>0.7690963089191604</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>0.31611173382943203</t>
+          <t>0.3066205038120074</t>
         </is>
       </c>
     </row>
@@ -7083,7 +7083,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>0.3646573709015423</t>
+          <t>0.23796760222774785</t>
         </is>
       </c>
     </row>
@@ -7100,7 +7100,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>0.28353924467164865</t>
+          <t>0.241075840528623</t>
         </is>
       </c>
     </row>
@@ -7117,7 +7117,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>0.3244457777950712</t>
+          <t>0.3338262348260668</t>
         </is>
       </c>
     </row>
@@ -7134,7 +7134,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>0.37419525282515154</t>
+          <t>0.33399082279967546</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>0.31214661946110445</t>
+          <t>0.31134361011832756</t>
         </is>
       </c>
     </row>
@@ -7168,7 +7168,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>0.20962354310843853</t>
+          <t>0.2790569180675677</t>
         </is>
       </c>
     </row>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>0.5058440254517312</t>
+          <t>0.5629291064676989</t>
         </is>
       </c>
     </row>
@@ -7202,7 +7202,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>0.2995971972100134</t>
+          <t>0.23443423916356082</t>
         </is>
       </c>
     </row>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>0.9468188316776022</t>
+          <t>0.9182958340544891</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>0.4646531624393683</t>
+          <t>0.4742299933028746</t>
         </is>
       </c>
     </row>
@@ -7253,7 +7253,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>0.2327875819077052</t>
+          <t>0.18424580909118682</t>
         </is>
       </c>
     </row>
@@ -7270,7 +7270,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>0.2327875819077052</t>
+          <t>0.18424580909118682</t>
         </is>
       </c>
     </row>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>0.21975552655886385</t>
+          <t>0.18267542840354745</t>
         </is>
       </c>
     </row>
@@ -7304,7 +7304,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>0.18703417169736206</t>
+          <t>0.14692160929072706</t>
         </is>
       </c>
     </row>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>0.31304367038057995</t>
+          <t>0.2677814782887711</t>
         </is>
       </c>
     </row>
@@ -7338,7 +7338,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>0.21975552655886385</t>
+          <t>0.18267542840354778</t>
         </is>
       </c>
     </row>
@@ -7355,7 +7355,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>0.18703417169736206</t>
+          <t>0.14692160929072706</t>
         </is>
       </c>
     </row>
@@ -7372,7 +7372,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>0.31304367038057995</t>
+          <t>0.2677814782887712</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>0.1732504861046522</t>
+          <t>0.17028015248333697</t>
         </is>
       </c>
     </row>
@@ -7406,7 +7406,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>0.18703417169736206</t>
+          <t>0.14692160929072706</t>
         </is>
       </c>
     </row>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>0.24944739751290682</t>
+          <t>0.2240525117531229</t>
         </is>
       </c>
     </row>
@@ -7440,7 +7440,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>0.4133236034394747</t>
+          <t>0.4935489512666795</t>
         </is>
       </c>
     </row>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>0.4707914519748919</t>
+          <t>0.5529676086825952</t>
         </is>
       </c>
     </row>
@@ -7474,7 +7474,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>0.49330015676584743</t>
+          <t>0.5337348536835526</t>
         </is>
       </c>
     </row>
@@ -7491,7 +7491,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>0.39382840383338086</t>
+          <t>0.3606769916422549</t>
         </is>
       </c>
     </row>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>0.30498583842833676</t>
+          <t>0.36306746475518076</t>
         </is>
       </c>
     </row>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>0.4512271348301719</t>
+          <t>0.48868755292199917</t>
         </is>
       </c>
     </row>
@@ -7542,7 +7542,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>0.3514904205632645</t>
+          <t>0.3898165211612001</t>
         </is>
       </c>
     </row>
@@ -7559,7 +7559,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>0.3373497390012959</t>
+          <t>0.40458998062278445</t>
         </is>
       </c>
     </row>
@@ -7576,7 +7576,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>0.4463249618909184</t>
+          <t>0.4955952167468274</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>0.39717588356911177</t>
+          <t>0.4776885324570239</t>
         </is>
       </c>
     </row>
@@ -7610,7 +7610,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>0.39495498676609697</t>
+          <t>0.43358146552992943</t>
         </is>
       </c>
     </row>
@@ -7627,7 +7627,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>0.44873316561389687</t>
+          <t>0.4442073612285669</t>
         </is>
       </c>
     </row>
@@ -7644,7 +7644,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>0.24273464702119815</t>
+          <t>0.2229983339960325</t>
         </is>
       </c>
     </row>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>0.29524315585388783</t>
+          <t>0.2743386270099082</t>
         </is>
       </c>
     </row>
@@ -7678,7 +7678,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>0.20688903042638665</t>
+          <t>0.14506242108065248</t>
         </is>
       </c>
     </row>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>0.30778522733372604</t>
+          <t>0.2765034488384145</t>
         </is>
       </c>
     </row>
@@ -7712,7 +7712,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>0.9468188316776022</t>
+          <t>0.9182958340544891</t>
         </is>
       </c>
     </row>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>0.23278758190770535</t>
+          <t>0.18424580909118665</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>0.22672579005553053</t>
+          <t>0.24388452227829666</t>
         </is>
       </c>
     </row>
@@ -7763,7 +7763,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>0.6249175671299756</t>
+          <t>0.672987356784714</t>
         </is>
       </c>
     </row>
@@ -7780,7 +7780,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>0.5058440254517312</t>
+          <t>0.5629291064676989</t>
         </is>
       </c>
     </row>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>0.6760172647311443</t>
+          <t>0.7837922076835679</t>
         </is>
       </c>
     </row>
@@ -7814,7 +7814,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>0.3732887056967082</t>
+          <t>0.3753566678077718</t>
         </is>
       </c>
     </row>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>0.3732887056967082</t>
+          <t>0.3753566678077719</t>
         </is>
       </c>
     </row>
@@ -7848,7 +7848,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>0.3989127503641182</t>
+          <t>0.40795984384163525</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>0.3732887056967082</t>
+          <t>0.3753566678077719</t>
         </is>
       </c>
     </row>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>0.44803570545064225</t>
+          <t>0.510310718637213</t>
         </is>
       </c>
     </row>
@@ -7899,7 +7899,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>0.40377481066831233</t>
+          <t>0.4079598438416354</t>
         </is>
       </c>
     </row>
@@ -7916,7 +7916,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>0.3732887056967082</t>
+          <t>0.3753566678077719</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>0.44803570545064225</t>
+          <t>0.510310718637213</t>
         </is>
       </c>
     </row>
@@ -7950,7 +7950,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>0.4242034062781624</t>
+          <t>0.4396069001934592</t>
         </is>
       </c>
     </row>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>0.3732887056967082</t>
+          <t>0.3753566678077719</t>
         </is>
       </c>
     </row>
@@ -7984,7 +7984,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>0.42884463877907536</t>
+          <t>0.4396069001934592</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>0.8442584206146244</t>
+          <t>0.8463431086702905</t>
         </is>
       </c>
     </row>
@@ -8018,7 +8018,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>0.8276083215248069</t>
+          <t>0.8302578394446175</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>0.9560898739101291</t>
+          <t>0.7568896972574701</t>
         </is>
       </c>
     </row>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>0.33152023883427795</t>
+          <t>0.3540601929148206</t>
         </is>
       </c>
     </row>
@@ -8086,7 +8086,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>0.8629338464233577</t>
+          <t>0.90275431160637</t>
         </is>
       </c>
     </row>
@@ -8120,7 +8120,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>0.7991518127948039</t>
+          <t>0.858810161767835</t>
         </is>
       </c>
     </row>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>0.5216201462112753</t>
+          <t>0.5178950781419346</t>
         </is>
       </c>
     </row>
@@ -8154,7 +8154,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>0.8365554245151754</t>
+          <t>0.8348919052847368</t>
         </is>
       </c>
     </row>
@@ -8171,7 +8171,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9088985780346422</t>
         </is>
       </c>
     </row>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9127250993213623</t>
         </is>
       </c>
     </row>
@@ -8205,7 +8205,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>0.3734389244766753</t>
+          <t>0.2930035642146153</t>
         </is>
       </c>
     </row>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>0.4093016048319834</t>
+          <t>0.3504775523117404</t>
         </is>
       </c>
     </row>
@@ -8239,7 +8239,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>0.3060750101276807</t>
+          <t>0.27010104883179403</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8256,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>0.4093016048319834</t>
+          <t>0.3504775523117404</t>
         </is>
       </c>
     </row>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>0.46238996085831197</t>
+          <t>0.45012944298930035</t>
         </is>
       </c>
     </row>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>0.3732887056967082</t>
+          <t>0.3753566678077719</t>
         </is>
       </c>
     </row>
@@ -8307,7 +8307,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>0.20048868867715086</t>
+          <t>0.3400844779925123</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>0.21898483564964394</t>
+          <t>0.14021913899381125</t>
         </is>
       </c>
     </row>
@@ -8341,7 +8341,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>0.9363261834682792</t>
+          <t>0.8419230270465997</t>
         </is>
       </c>
     </row>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>0.2601607439012952</t>
+          <t>0.2135419166282239</t>
         </is>
       </c>
     </row>
@@ -8375,7 +8375,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>0.26016074390129534</t>
+          <t>0.21354191662822405</t>
         </is>
       </c>
     </row>
@@ -8392,7 +8392,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>0.07119908550997914</t>
+          <t>0.07995525270087034</t>
         </is>
       </c>
     </row>
@@ -8409,7 +8409,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>0.08025409483757799</t>
+          <t>0.0516073151514752</t>
         </is>
       </c>
     </row>
@@ -8426,7 +8426,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>0.31760025921013596</t>
+          <t>0.28537460421983096</t>
         </is>
       </c>
     </row>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>0.09977191907746574</t>
+          <t>0.07995525270087034</t>
         </is>
       </c>
     </row>
@@ -8460,7 +8460,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>0.08025409483757799</t>
+          <t>0.0516073151514752</t>
         </is>
       </c>
     </row>
@@ -8477,7 +8477,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>0.25794271826071014</t>
+          <t>0.2831645885252066</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>0.09424610006148333</t>
+          <t>0.0694223324200239</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>0.08025409483757799</t>
+          <t>0.0516073151514752</t>
         </is>
       </c>
     </row>
@@ -8528,7 +8528,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>0.2598884457091272</t>
+          <t>0.26191329235736033</t>
         </is>
       </c>
     </row>
@@ -8545,7 +8545,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>0.5625561774629823</t>
+          <t>0.6187902931645479</t>
         </is>
       </c>
     </row>
@@ -8562,7 +8562,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>0.5257095876631026</t>
+          <t>0.5225027483020313</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>0.4380755724007571</t>
+          <t>0.5439151681371409</t>
         </is>
       </c>
     </row>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>0.3766413328648201</t>
+          <t>0.3481722744507942</t>
         </is>
       </c>
     </row>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>0.40675916418225333</t>
+          <t>0.5115646328567606</t>
         </is>
       </c>
     </row>
@@ -8630,7 +8630,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>0.41606514591283206</t>
+          <t>0.42967044349990624</t>
         </is>
       </c>
     </row>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>0.3507062039272625</t>
+          <t>0.46544234720368555</t>
         </is>
       </c>
     </row>
@@ -8664,7 +8664,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>0.3943093688077598</t>
+          <t>0.4211752827041094</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>0.366167209829541</t>
+          <t>0.3957195098294285</t>
         </is>
       </c>
     </row>
@@ -8698,7 +8698,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>0.4798858416899267</t>
+          <t>0.435983809733146</t>
         </is>
       </c>
     </row>
@@ -8715,7 +8715,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>0.3530220833211469</t>
+          <t>0.39963498298290706</t>
         </is>
       </c>
     </row>
@@ -8732,7 +8732,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>0.4192805336082123</t>
+          <t>0.5936426248808246</t>
         </is>
       </c>
     </row>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>0.3787880341971511</t>
+          <t>0.28085446892955307</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8766,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>0.6425240711945523</t>
+          <t>0.5527591465423187</t>
         </is>
       </c>
     </row>
@@ -8783,7 +8783,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>0.19673425494976024</t>
+          <t>0.10382523431939136</t>
         </is>
       </c>
     </row>
@@ -8800,7 +8800,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>0.5579261200093194</t>
+          <t>0.3888539963607554</t>
         </is>
       </c>
     </row>
@@ -8817,7 +8817,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>0.24030750379064308</t>
+          <t>0.22379764857762416</t>
         </is>
       </c>
     </row>
@@ -8834,7 +8834,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>0.2025925651625112</t>
+          <t>0.16656021792465</t>
         </is>
       </c>
     </row>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>0.26238113522116074</t>
+          <t>0.2649049589509125</t>
         </is>
       </c>
     </row>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>0.4646531624393683</t>
+          <t>0.4428260277731187</t>
         </is>
       </c>
     </row>
@@ -8885,7 +8885,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>0.2327875819077052</t>
+          <t>0.18424580909118682</t>
         </is>
       </c>
     </row>
@@ -8902,7 +8902,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>0.2327875819077052</t>
+          <t>0.18424580909118682</t>
         </is>
       </c>
     </row>
@@ -8919,7 +8919,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>0.18560427944718622</t>
+          <t>0.1456710026096296</t>
         </is>
       </c>
     </row>
@@ -8936,7 +8936,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>0.15288292458568484</t>
+          <t>0.10991718349680911</t>
         </is>
       </c>
     </row>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>0.31304367038057995</t>
+          <t>0.2677814782887711</t>
         </is>
       </c>
     </row>
@@ -8970,7 +8970,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>0.18560427944718655</t>
+          <t>0.1456710026096296</t>
         </is>
       </c>
     </row>
@@ -8987,7 +8987,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>0.15288292458568484</t>
+          <t>0.10991718349680911</t>
         </is>
       </c>
     </row>
@@ -9004,7 +9004,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>0.31304367038057995</t>
+          <t>0.2677814782887712</t>
         </is>
       </c>
     </row>
@@ -9021,7 +9021,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>0.15646542594182775</t>
+          <t>0.13327572668941903</t>
         </is>
       </c>
     </row>
@@ -9038,7 +9038,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>0.15288292458568484</t>
+          <t>0.10991718349680911</t>
         </is>
       </c>
     </row>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>0.24944739751290682</t>
+          <t>0.2240525117531229</t>
         </is>
       </c>
     </row>
@@ -9072,7 +9072,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>0.4133236034394747</t>
+          <t>0.4935489512666795</t>
         </is>
       </c>
     </row>
@@ -9089,7 +9089,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>0.42731876391107837</t>
+          <t>0.5450687162046315</t>
         </is>
       </c>
     </row>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>0.49330015676584743</t>
+          <t>0.5337348536835526</t>
         </is>
       </c>
     </row>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>0.35986426600183724</t>
+          <t>0.33801471276344597</t>
         </is>
       </c>
     </row>
@@ -9140,7 +9140,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>0.30498583842833676</t>
+          <t>0.36306746475518076</t>
         </is>
       </c>
     </row>
@@ -9157,7 +9157,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>0.4512271348301719</t>
+          <t>0.48868755292199917</t>
         </is>
       </c>
     </row>
@@ -9174,7 +9174,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>0.3514904205632645</t>
+          <t>0.3898165211612001</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>0.3373497390012959</t>
+          <t>0.40458998062278445</t>
         </is>
       </c>
     </row>
@@ -9208,7 +9208,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>0.4463249618909184</t>
+          <t>0.4955952167468274</t>
         </is>
       </c>
     </row>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>0.39717588356911177</t>
+          <t>0.4776885324570239</t>
         </is>
       </c>
     </row>
@@ -9242,7 +9242,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>0.39495498676609697</t>
+          <t>0.43358146552992943</t>
         </is>
       </c>
     </row>
@@ -9259,7 +9259,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>0.44404235543769593</t>
+          <t>0.4442073612285669</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>0.20065321996474614</t>
+          <t>0.17647802534798737</t>
         </is>
       </c>
     </row>
@@ -9293,7 +9293,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>0.29524315585388783</t>
+          <t>0.2743386270099082</t>
         </is>
       </c>
     </row>
@@ -9310,7 +9310,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>0.20688903042638665</t>
+          <t>0.13728882234081444</t>
         </is>
       </c>
     </row>
@@ -9327,7 +9327,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>0.30778522733372604</t>
+          <t>0.2765034488384145</t>
         </is>
       </c>
     </row>
@@ -9344,7 +9344,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>0.9468188316776022</t>
+          <t>0.9182958340544891</t>
         </is>
       </c>
     </row>
@@ -9361,7 +9361,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>0.23278758190770535</t>
+          <t>0.18424580909118665</t>
         </is>
       </c>
     </row>
@@ -9378,7 +9378,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>0.22672579005553053</t>
+          <t>0.24388452227829666</t>
         </is>
       </c>
     </row>
@@ -9395,7 +9395,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>0.2601607439012952</t>
+          <t>0.2281424139630955</t>
         </is>
       </c>
     </row>
@@ -9412,7 +9412,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>0.26016074390129534</t>
+          <t>0.22814241396309567</t>
         </is>
       </c>
     </row>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>0.1635655547168297</t>
+          <t>0.14472119523150864</t>
         </is>
       </c>
     </row>
@@ -9446,7 +9446,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>0.13318095504591437</t>
+          <t>0.1081733784708556</t>
         </is>
       </c>
     </row>
@@ -9463,7 +9463,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>0.3319215065335375</t>
+          <t>0.3213265784931143</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>0.1635655547168297</t>
+          <t>0.14472119523150864</t>
         </is>
       </c>
     </row>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>0.13318095504591437</t>
+          <t>0.1081733784708556</t>
         </is>
       </c>
     </row>
@@ -9514,7 +9514,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>0.28819313348332376</t>
+          <t>0.31663438638944325</t>
         </is>
       </c>
     </row>
@@ -9531,7 +9531,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>0.12962676238279958</t>
+          <t>0.13056411215858482</t>
         </is>
       </c>
     </row>
@@ -9548,7 +9548,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>0.13318095504591437</t>
+          <t>0.1081733784708556</t>
         </is>
       </c>
     </row>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>0.2663050103295676</t>
+          <t>0.2856711887892185</t>
         </is>
       </c>
     </row>
@@ -9582,7 +9582,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>0.6257376163034019</t>
+          <t>0.6041098813694286</t>
         </is>
       </c>
     </row>
@@ -9599,7 +9599,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>0.6678329304461132</t>
+          <t>0.6031389832492441</t>
         </is>
       </c>
     </row>
@@ -9616,7 +9616,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>0.4776040990553387</t>
+          <t>0.5238785627335707</t>
         </is>
       </c>
     </row>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>0.4318275276583014</t>
+          <t>0.28228415430593323</t>
         </is>
       </c>
     </row>
@@ -9650,7 +9650,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>0.47288187973816254</t>
+          <t>0.6087140471879614</t>
         </is>
       </c>
     </row>
@@ -9667,7 +9667,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>0.4406369523598864</t>
+          <t>0.4464393360516559</t>
         </is>
       </c>
     </row>
@@ -9684,7 +9684,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>0.3507062039272625</t>
+          <t>0.4524465487840279</t>
         </is>
       </c>
     </row>
@@ -9701,7 +9701,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>0.4525304036266818</t>
+          <t>0.45483883936160135</t>
         </is>
       </c>
     </row>
@@ -9718,7 +9718,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>0.32187528294881174</t>
+          <t>0.351652106386745</t>
         </is>
       </c>
     </row>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>0.5150263724587731</t>
+          <t>0.44193013535062065</t>
         </is>
       </c>
     </row>
@@ -9752,7 +9752,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>0.38537772392588077</t>
+          <t>0.3570287426041173</t>
         </is>
       </c>
     </row>
@@ -9769,7 +9769,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>0.5040133731971171</t>
+          <t>0.462497367680613</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9786,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>0.6578867503795709</t>
+          <t>0.4898966380470576</t>
         </is>
       </c>
     </row>
@@ -9803,7 +9803,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>0.7457029881569638</t>
+          <t>0.4992334582074905</t>
         </is>
       </c>
     </row>
@@ -9820,7 +9820,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>0.19673425494976024</t>
+          <t>0.10510839780976175</t>
         </is>
       </c>
     </row>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>0.6890302658174002</t>
+          <t>0.5067237880608129</t>
         </is>
       </c>
     </row>
@@ -9854,7 +9854,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>0.43677815893154115</t>
+          <t>0.43504467863545104</t>
         </is>
       </c>
     </row>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>0.2025925651625112</t>
+          <t>0.17794796904897534</t>
         </is>
       </c>
     </row>
@@ -9888,7 +9888,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>0.2670786738758921</t>
+          <t>0.29475059402307174</t>
         </is>
       </c>
     </row>
@@ -9905,7 +9905,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -9922,7 +9922,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>0.5682106500333173</t>
+          <t>0.4721706725372217</t>
         </is>
       </c>
     </row>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -9956,7 +9956,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>0.8012136712667878</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -9973,7 +9973,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>0.5677364617307223</t>
+          <t>0.4721706725372217</t>
         </is>
       </c>
     </row>
@@ -9990,7 +9990,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -10007,7 +10007,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -10024,7 +10024,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>0.6538716193328764</t>
+          <t>0.4983792384443422</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -10058,7 +10058,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>0.6768085135930892</t>
+          <t>0.6311952331478199</t>
         </is>
       </c>
     </row>
@@ -10075,7 +10075,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>0.5445696964147867</t>
+          <t>0.6391089301382081</t>
         </is>
       </c>
     </row>
@@ -10092,7 +10092,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>0.4402192514182877</t>
+          <t>0.5668868865575541</t>
         </is>
       </c>
     </row>
@@ -10109,7 +10109,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>0.4890399379096898</t>
+          <t>0.4849378519352577</t>
         </is>
       </c>
     </row>
@@ -10126,7 +10126,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>0.5121000817232979</t>
+          <t>0.4806933048059072</t>
         </is>
       </c>
     </row>
@@ -10143,7 +10143,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>0.27864593887769273</t>
+          <t>0.31646957815784643</t>
         </is>
       </c>
     </row>
@@ -10160,7 +10160,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>0.539462782298249</t>
+          <t>0.521091531273101</t>
         </is>
       </c>
     </row>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>0.5221126451329529</t>
+          <t>0.6157129464991861</t>
         </is>
       </c>
     </row>
@@ -10194,7 +10194,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>0.4252413969958527</t>
+          <t>0.4868014650080815</t>
         </is>
       </c>
     </row>
@@ -10211,7 +10211,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>0.4882837251692382</t>
+          <t>0.46689329274279834</t>
         </is>
       </c>
     </row>
@@ -10228,7 +10228,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>0.49029978104275984</t>
+          <t>0.48412042306617376</t>
         </is>
       </c>
     </row>
@@ -10245,7 +10245,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>0.5109039138916892</t>
+          <t>0.516429718109805</t>
         </is>
       </c>
     </row>
@@ -10262,7 +10262,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>0.543549940907587</t>
+          <t>0.5550282788896295</t>
         </is>
       </c>
     </row>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>0.4062723810394965</t>
+          <t>0.4923859028931848</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10296,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>0.2598884457091272</t>
+          <t>0.23403522798521162</t>
         </is>
       </c>
     </row>
@@ -10313,7 +10313,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>0.6281059120259078</t>
+          <t>0.5728536123372514</t>
         </is>
       </c>
     </row>
@@ -10330,7 +10330,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>0.4729691495542979</t>
+          <t>0.4721261377104422</t>
         </is>
       </c>
     </row>
@@ -10347,7 +10347,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>0.24468063320723474</t>
+          <t>0.2291334515308538</t>
         </is>
       </c>
     </row>
@@ -10364,7 +10364,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -10381,7 +10381,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>0.2389096458153729</t>
+          <t>0.24045799849335742</t>
         </is>
       </c>
     </row>
@@ -10398,7 +10398,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>0.5677364617307222</t>
+          <t>0.4721706725372217</t>
         </is>
       </c>
     </row>
@@ -10415,7 +10415,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -10432,7 +10432,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>0.8012136712667878</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -10449,7 +10449,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>0.5677364617307225</t>
+          <t>0.4721706725372217</t>
         </is>
       </c>
     </row>
@@ -10466,7 +10466,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>0.6538716193328765</t>
+          <t>0.4983792384443423</t>
         </is>
       </c>
     </row>
@@ -10517,7 +10517,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -10534,7 +10534,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>0.6768085135930892</t>
+          <t>0.6311952331478199</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>0.5445696964147866</t>
+          <t>0.6391089301382081</t>
         </is>
       </c>
     </row>
@@ -10568,7 +10568,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>0.4402192514182877</t>
+          <t>0.5668868865575543</t>
         </is>
       </c>
     </row>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>0.4890399379096898</t>
+          <t>0.4849378519352577</t>
         </is>
       </c>
     </row>
@@ -10602,7 +10602,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>0.5121000817232979</t>
+          <t>0.4806933048059072</t>
         </is>
       </c>
     </row>
@@ -10619,7 +10619,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>0.2786459388776927</t>
+          <t>0.31646957815784643</t>
         </is>
       </c>
     </row>
@@ -10636,7 +10636,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>0.539462782298249</t>
+          <t>0.521091531273101</t>
         </is>
       </c>
     </row>
@@ -10653,7 +10653,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>0.5221126451329529</t>
+          <t>0.6157129464991861</t>
         </is>
       </c>
     </row>
@@ -10670,7 +10670,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>0.4252413969958527</t>
+          <t>0.4868014650080815</t>
         </is>
       </c>
     </row>
@@ -10687,7 +10687,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>0.4882837251692382</t>
+          <t>0.4668932927427982</t>
         </is>
       </c>
     </row>
@@ -10704,7 +10704,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>0.49029978104275984</t>
+          <t>0.48412042306617376</t>
         </is>
       </c>
     </row>
@@ -10721,7 +10721,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>0.5109039138916892</t>
+          <t>0.516429718109805</t>
         </is>
       </c>
     </row>
@@ -10738,7 +10738,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>0.543549940907587</t>
+          <t>0.5550282788896295</t>
         </is>
       </c>
     </row>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>0.4062723810394964</t>
+          <t>0.4923859028931846</t>
         </is>
       </c>
     </row>
@@ -10772,7 +10772,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>0.2598884457091274</t>
+          <t>0.2386765976030864</t>
         </is>
       </c>
     </row>
@@ -10789,7 +10789,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>0.6281059120259078</t>
+          <t>0.5728536123372515</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10806,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>0.4729691495542979</t>
+          <t>0.5042160324818993</t>
         </is>
       </c>
     </row>
@@ -10823,7 +10823,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>0.24468063320723474</t>
+          <t>0.2291334515308538</t>
         </is>
       </c>
     </row>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -10857,7 +10857,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>0.23890964581537324</t>
+          <t>0.2404579984933578</t>
         </is>
       </c>
     </row>
@@ -10874,7 +10874,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>0.6538716193328765</t>
+          <t>0.4983792384443423</t>
         </is>
       </c>
     </row>
@@ -10891,7 +10891,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -10908,7 +10908,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>0.6538716193328765</t>
+          <t>0.4983792384443423</t>
         </is>
       </c>
     </row>
@@ -10942,7 +10942,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>0.829704187580579</t>
+          <t>0.8197304953178656</t>
         </is>
       </c>
     </row>
@@ -10976,7 +10976,7 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>0.5128635341403686</t>
+          <t>0.36349602259841235</t>
         </is>
       </c>
     </row>
@@ -11010,7 +11010,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>0.6855721961288964</t>
+          <t>0.7005277174714063</t>
         </is>
       </c>
     </row>
@@ -11027,7 +11027,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>0.5794340303076133</t>
+          <t>0.5504346679453248</t>
         </is>
       </c>
     </row>
@@ -11044,7 +11044,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>0.717845992185776</t>
+          <t>0.7802031144341663</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>0.5724775784846112</t>
+          <t>0.5252666502830183</t>
         </is>
       </c>
     </row>
@@ -11078,7 +11078,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>0.41572209971146945</t>
+          <t>0.47164163386701446</t>
         </is>
       </c>
     </row>
@@ -11095,7 +11095,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>0.4150678587083444</t>
+          <t>0.5219874421741322</t>
         </is>
       </c>
     </row>
@@ -11112,7 +11112,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>0.7046038601405935</t>
+          <t>0.8007264862230681</t>
         </is>
       </c>
     </row>
@@ -11129,7 +11129,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>0.6242545509225126</t>
+          <t>0.6289040605508334</t>
         </is>
       </c>
     </row>
@@ -11146,7 +11146,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>0.4464677045944674</t>
+          <t>0.3746402215513395</t>
         </is>
       </c>
     </row>
@@ -11163,7 +11163,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>0.5989873796328843</t>
+          <t>0.5450036956906945</t>
         </is>
       </c>
     </row>
@@ -11180,7 +11180,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>0.6086290970934425</t>
+          <t>0.6863894782318228</t>
         </is>
       </c>
     </row>
@@ -11197,7 +11197,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>0.6166814246661321</t>
+          <t>0.6567896223240687</t>
         </is>
       </c>
     </row>
@@ -11214,7 +11214,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>0.4895204579026196</t>
+          <t>0.4584240837171807</t>
         </is>
       </c>
     </row>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>0.19639904307237263</t>
+          <t>0.2085098370418407</t>
         </is>
       </c>
     </row>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>0.5016827242219571</t>
+          <t>0.4230326199125635</t>
         </is>
       </c>
     </row>
@@ -11265,7 +11265,7 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>0.5007738637040815</t>
+          <t>0.4461088979737096</t>
         </is>
       </c>
     </row>
@@ -11282,7 +11282,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>0.2326146941550653</t>
+          <t>0.2421812562408184</t>
         </is>
       </c>
     </row>
@@ -11299,7 +11299,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>0.519106143211082</t>
+          <t>0.4721706725372217</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11316,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>0.15640840843634243</t>
+          <t>0.26727413916912524</t>
         </is>
       </c>
     </row>
@@ -11333,7 +11333,7 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>0.8012136712667878</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>0.6508502673749753</t>
+          <t>0.4909018434957731</t>
         </is>
       </c>
     </row>
@@ -11367,7 +11367,7 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -11384,7 +11384,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>0.6538716193328765</t>
+          <t>0.4983792384443423</t>
         </is>
       </c>
     </row>
@@ -11418,7 +11418,7 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>0.677266591474251</t>
+          <t>0.6311952331478199</t>
         </is>
       </c>
     </row>
@@ -11452,7 +11452,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>0.5445696964147866</t>
+          <t>0.6391089301382081</t>
         </is>
       </c>
     </row>
@@ -11469,7 +11469,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>0.4402192514182877</t>
+          <t>0.5668868865575543</t>
         </is>
       </c>
     </row>
@@ -11486,7 +11486,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>0.4890399379096898</t>
+          <t>0.4849378519352577</t>
         </is>
       </c>
     </row>
@@ -11503,7 +11503,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>0.5121000817232979</t>
+          <t>0.4806933048059072</t>
         </is>
       </c>
     </row>
@@ -11520,7 +11520,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>0.2711303157832852</t>
+          <t>0.31646957815784643</t>
         </is>
       </c>
     </row>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>0.539462782298249</t>
+          <t>0.521091531273101</t>
         </is>
       </c>
     </row>
@@ -11554,7 +11554,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>0.5221126451329529</t>
+          <t>0.6157129464991861</t>
         </is>
       </c>
     </row>
@@ -11571,7 +11571,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>0.4252413969958527</t>
+          <t>0.4868014650080815</t>
         </is>
       </c>
     </row>
@@ -11588,7 +11588,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>0.4882837251692382</t>
+          <t>0.4668932927427982</t>
         </is>
       </c>
     </row>
@@ -11605,7 +11605,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>0.49029978104275984</t>
+          <t>0.48412042306617376</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>0.5109039138916892</t>
+          <t>0.516429718109805</t>
         </is>
       </c>
     </row>
@@ -11639,7 +11639,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>0.543549940907587</t>
+          <t>0.5550282788896295</t>
         </is>
       </c>
     </row>
@@ -11656,7 +11656,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>0.4062723810394964</t>
+          <t>0.4923859028931846</t>
         </is>
       </c>
     </row>
@@ -11673,7 +11673,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>0.20337799062311857</t>
+          <t>0.23403522798521162</t>
         </is>
       </c>
     </row>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>0.5979093344704101</t>
+          <t>0.545599588200338</t>
         </is>
       </c>
     </row>
@@ -11707,7 +11707,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>0.48426407230049956</t>
+          <t>0.4721261377104422</t>
         </is>
       </c>
     </row>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>0.2070273297705531</t>
+          <t>0.21750882296309546</t>
         </is>
       </c>
     </row>
@@ -11741,7 +11741,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -11758,7 +11758,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>0.20124356377333144</t>
+          <t>0.22046086584731503</t>
         </is>
       </c>
     </row>
@@ -11775,7 +11775,7 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -11792,7 +11792,7 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>0.8012136712667878</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>0.9468188316776022</t>
+          <t>0.93335726001798</t>
         </is>
       </c>
     </row>
@@ -11843,7 +11843,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>0.8012136712667878</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -11877,7 +11877,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>0.6718456168767765</t>
+          <t>0.7565414479227051</t>
         </is>
       </c>
     </row>
@@ -11894,7 +11894,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>0.5502557223908259</t>
+          <t>0.5962645478696741</t>
         </is>
       </c>
     </row>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>0.618431114004296</t>
+          <t>0.7341570833653213</t>
         </is>
       </c>
     </row>
@@ -11928,7 +11928,7 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>0.5285420000666734</t>
+          <t>0.46380849533844104</t>
         </is>
       </c>
     </row>
@@ -11945,7 +11945,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>0.4500666741323515</t>
+          <t>0.5699550177220379</t>
         </is>
       </c>
     </row>
@@ -11962,7 +11962,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>0.44781956150130087</t>
+          <t>0.5242353784367682</t>
         </is>
       </c>
     </row>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>0.6087344274740178</t>
+          <t>0.7667805361825403</t>
         </is>
       </c>
     </row>
@@ -11996,7 +11996,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>0.6554029745185621</t>
+          <t>0.7109025332290512</t>
         </is>
       </c>
     </row>
@@ -12013,7 +12013,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>0.44529459763998774</t>
+          <t>0.3540481724699535</t>
         </is>
       </c>
     </row>
@@ -12030,7 +12030,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>0.5303703860578822</t>
+          <t>0.5021087233525732</t>
         </is>
       </c>
     </row>
@@ -12047,7 +12047,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>0.5529376465282859</t>
+          <t>0.6592104428799236</t>
         </is>
       </c>
     </row>
@@ -12064,7 +12064,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>0.546823963127957</t>
+          <t>0.6632056725790297</t>
         </is>
       </c>
     </row>
@@ -12081,7 +12081,7 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>0.4752698425246535</t>
+          <t>0.4432292630625834</t>
         </is>
       </c>
     </row>
@@ -12098,7 +12098,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>0.3660430856633205</t>
+          <t>0.28739699389478146</t>
         </is>
       </c>
     </row>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>0.5728462507073623</t>
+          <t>0.5812053691480845</t>
         </is>
       </c>
     </row>
@@ -12132,7 +12132,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>0.4656906774200619</t>
+          <t>0.43990049939519243</t>
         </is>
       </c>
     </row>
@@ -12149,7 +12149,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>0.32493672168010945</t>
+          <t>0.31854889701635125</t>
         </is>
       </c>
     </row>
@@ -12166,7 +12166,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>0.8012136712667878</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -12183,7 +12183,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>0.31132776509422416</t>
+          <t>0.33470617127594804</t>
         </is>
       </c>
     </row>
@@ -12200,7 +12200,7 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>0.54212799628021</t>
+          <t>0.4721706725372219</t>
         </is>
       </c>
     </row>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>0.829704187580579</t>
+          <t>0.8197304953178656</t>
         </is>
       </c>
     </row>
@@ -12234,7 +12234,7 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>0.8412367762002596</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>0.47294783012757974</t>
+          <t>0.3372874566912921</t>
         </is>
       </c>
     </row>
@@ -12268,7 +12268,7 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>0.8412367762002596</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -12285,7 +12285,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>0.6855721961288964</t>
+          <t>0.7005277174714063</t>
         </is>
       </c>
     </row>
@@ -12302,7 +12302,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>0.5794340303076133</t>
+          <t>0.5504346679453248</t>
         </is>
       </c>
     </row>
@@ -12319,7 +12319,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>0.717845992185776</t>
+          <t>0.7802031144341663</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12336,7 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>0.5724775784846112</t>
+          <t>0.5252666502830183</t>
         </is>
       </c>
     </row>
@@ -12353,7 +12353,7 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>0.41572209971146945</t>
+          <t>0.47164163386701446</t>
         </is>
       </c>
     </row>
@@ -12370,7 +12370,7 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>0.4150678587083444</t>
+          <t>0.5219874421741322</t>
         </is>
       </c>
     </row>
@@ -12387,7 +12387,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>0.7046038601405935</t>
+          <t>0.8007264862230681</t>
         </is>
       </c>
     </row>
@@ -12404,7 +12404,7 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>0.6242545509225126</t>
+          <t>0.6289040605508334</t>
         </is>
       </c>
     </row>
@@ -12421,7 +12421,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>0.4464677045944674</t>
+          <t>0.3746402215513395</t>
         </is>
       </c>
     </row>
@@ -12438,7 +12438,7 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>0.5989873796328843</t>
+          <t>0.5450036956906945</t>
         </is>
       </c>
     </row>
@@ -12455,7 +12455,7 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>0.6086290970934425</t>
+          <t>0.6863894782318228</t>
         </is>
       </c>
     </row>
@@ -12472,7 +12472,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>0.6166814246661318</t>
+          <t>0.6567896223240687</t>
         </is>
       </c>
     </row>
@@ -12489,7 +12489,7 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>0.4895204579026196</t>
+          <t>0.4584240837171807</t>
         </is>
       </c>
     </row>
@@ -12506,7 +12506,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>0.19639904307237263</t>
+          <t>0.2085098370418407</t>
         </is>
       </c>
     </row>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>0.5016827242219575</t>
+          <t>0.4230326199125635</t>
         </is>
       </c>
     </row>
@@ -12540,7 +12540,7 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>0.5007738637040815</t>
+          <t>0.4461088979737096</t>
         </is>
       </c>
     </row>
@@ -12557,7 +12557,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>0.2326146941550653</t>
+          <t>0.2421812562408184</t>
         </is>
       </c>
     </row>
@@ -12574,7 +12574,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>0.5149945281053903</t>
+          <t>0.4721706725372217</t>
         </is>
       </c>
     </row>
@@ -12591,7 +12591,7 @@
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>0.1564084084363426</t>
+          <t>0.26727413916912524</t>
         </is>
       </c>
     </row>
@@ -12608,7 +12608,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>0.6538716193328765</t>
+          <t>0.4983792384443423</t>
         </is>
       </c>
     </row>
@@ -12642,7 +12642,7 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -12659,7 +12659,7 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>0.6768085135930892</t>
+          <t>0.6311952331478199</t>
         </is>
       </c>
     </row>
@@ -12676,7 +12676,7 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>0.5445696964147866</t>
+          <t>0.6391089301382081</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>0.4402192514182877</t>
+          <t>0.5668868865575543</t>
         </is>
       </c>
     </row>
@@ -12710,7 +12710,7 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>0.4890399379096898</t>
+          <t>0.4849378519352577</t>
         </is>
       </c>
     </row>
@@ -12727,7 +12727,7 @@
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>0.5121000817232979</t>
+          <t>0.4806933048059072</t>
         </is>
       </c>
     </row>
@@ -12744,7 +12744,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>0.2711303157832852</t>
+          <t>0.31646957815784643</t>
         </is>
       </c>
     </row>
@@ -12761,7 +12761,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>0.539462782298249</t>
+          <t>0.521091531273101</t>
         </is>
       </c>
     </row>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>0.5221126451329529</t>
+          <t>0.6157129464991861</t>
         </is>
       </c>
     </row>
@@ -12795,7 +12795,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>0.4252413969958527</t>
+          <t>0.4868014650080815</t>
         </is>
       </c>
     </row>
@@ -12812,7 +12812,7 @@
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>0.4882837251692382</t>
+          <t>0.4668932927427982</t>
         </is>
       </c>
     </row>
@@ -12829,7 +12829,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>0.49029978104275984</t>
+          <t>0.48412042306617376</t>
         </is>
       </c>
     </row>
@@ -12846,7 +12846,7 @@
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>0.5109039138916892</t>
+          <t>0.516429718109805</t>
         </is>
       </c>
     </row>
@@ -12863,7 +12863,7 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>0.543549940907587</t>
+          <t>0.5550282788896295</t>
         </is>
       </c>
     </row>
@@ -12880,7 +12880,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>0.4062723810394964</t>
+          <t>0.4923859028931846</t>
         </is>
       </c>
     </row>
@@ -12897,7 +12897,7 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>0.20337799062311857</t>
+          <t>0.23403522798521162</t>
         </is>
       </c>
     </row>
@@ -12914,7 +12914,7 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>0.5979093344704102</t>
+          <t>0.5428907456907561</t>
         </is>
       </c>
     </row>
@@ -12931,7 +12931,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>0.4729691495542979</t>
+          <t>0.4721261377104422</t>
         </is>
       </c>
     </row>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>0.2070273297705531</t>
+          <t>0.21750882296309546</t>
         </is>
       </c>
     </row>
@@ -12965,7 +12965,7 @@
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -12982,7 +12982,7 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>0.20124356377333144</t>
+          <t>0.22046086584731503</t>
         </is>
       </c>
     </row>
@@ -12999,7 +12999,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>0.7266450151070276</t>
+          <t>0.7601011241908682</t>
         </is>
       </c>
     </row>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>0.7266450151070276</t>
+          <t>0.7601011241908682</t>
         </is>
       </c>
     </row>
@@ -13050,7 +13050,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>0.6718456168767765</t>
+          <t>0.7565414479227051</t>
         </is>
       </c>
     </row>
@@ -13067,7 +13067,7 @@
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>0.5502557223908259</t>
+          <t>0.5962645478696741</t>
         </is>
       </c>
     </row>
@@ -13084,7 +13084,7 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>0.6280228062762186</t>
+          <t>0.7341570833653213</t>
         </is>
       </c>
     </row>
@@ -13101,7 +13101,7 @@
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>0.5285420000666734</t>
+          <t>0.46380849533844104</t>
         </is>
       </c>
     </row>
@@ -13118,7 +13118,7 @@
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>0.5916727785823269</t>
+          <t>0.6280228062762186</t>
         </is>
       </c>
     </row>
@@ -13135,7 +13135,7 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>0.46013997561169073</t>
+          <t>0.5242353784367682</t>
         </is>
       </c>
     </row>
@@ -13152,7 +13152,7 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>0.6087344274740178</t>
+          <t>0.7667805361825403</t>
         </is>
       </c>
     </row>
@@ -13169,7 +13169,7 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>0.6554029745185621</t>
+          <t>0.7109025332290513</t>
         </is>
       </c>
     </row>
@@ -13186,7 +13186,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>0.44529459763998774</t>
+          <t>0.3779077599408005</t>
         </is>
       </c>
     </row>
@@ -13203,7 +13203,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>0.5303703860578822</t>
+          <t>0.5021087233525732</t>
         </is>
       </c>
     </row>
@@ -13220,7 +13220,7 @@
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>0.5529376465282858</t>
+          <t>0.6592104428799236</t>
         </is>
       </c>
     </row>
@@ -13237,7 +13237,7 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>0.5395871957988262</t>
+          <t>0.6632056725790297</t>
         </is>
       </c>
     </row>
@@ -13254,7 +13254,7 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>0.4752698425246535</t>
+          <t>0.4432292630625834</t>
         </is>
       </c>
     </row>
@@ -13271,7 +13271,7 @@
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>0.30413618836347733</t>
+          <t>0.28578699719044576</t>
         </is>
       </c>
     </row>
@@ -13288,7 +13288,7 @@
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>0.5482112041695334</t>
+          <t>0.5374769960978708</t>
         </is>
       </c>
     </row>
@@ -13305,7 +13305,7 @@
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>0.46569067742006204</t>
+          <t>0.43990049939519243</t>
         </is>
       </c>
     </row>
@@ -13322,7 +13322,7 @@
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>0.32493672168010945</t>
+          <t>0.31854889701635136</t>
         </is>
       </c>
     </row>
@@ -13339,7 +13339,7 @@
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -13356,7 +13356,7 @@
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>0.2857779162936399</t>
+          <t>0.2727992739761047</t>
         </is>
       </c>
     </row>
@@ -13373,7 +13373,7 @@
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>0.5128635341403686</t>
+          <t>0.3634960225984125</t>
         </is>
       </c>
     </row>
@@ -13390,7 +13390,7 @@
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>0.8412367762002596</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -13407,7 +13407,7 @@
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>0.5484731677784588</t>
+          <t>0.7319354494159898</t>
         </is>
       </c>
     </row>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>0.49310751290125016</t>
+          <t>0.5303326777020267</t>
         </is>
       </c>
     </row>
@@ -13441,7 +13441,7 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>0.6423586013910405</t>
+          <t>0.8193921955164174</t>
         </is>
       </c>
     </row>
@@ -13458,7 +13458,7 @@
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>0.7000209515615332</t>
+          <t>0.5960843289654205</t>
         </is>
       </c>
     </row>
@@ -13475,7 +13475,7 @@
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>0.3964731875819775</t>
+          <t>0.4309510558672011</t>
         </is>
       </c>
     </row>
@@ -13492,7 +13492,7 @@
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>0.5827010604416144</t>
+          <t>0.5621171833163738</t>
         </is>
       </c>
     </row>
@@ -13509,7 +13509,7 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>0.7152833089982067</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -13526,7 +13526,7 @@
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>0.512194419925349</t>
+          <t>0.6514997835756751</t>
         </is>
       </c>
     </row>
@@ -13543,7 +13543,7 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>0.5224257554592574</t>
+          <t>0.42643227913313375</t>
         </is>
       </c>
     </row>
@@ -13560,7 +13560,7 @@
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>0.5538908981684879</t>
+          <t>0.5696249337146777</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>0.6804185558066548</t>
+          <t>0.7353115442678386</t>
         </is>
       </c>
     </row>
@@ -13594,7 +13594,7 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>0.6746600523648197</t>
+          <t>0.7393067739669446</t>
         </is>
       </c>
     </row>
@@ -13611,7 +13611,7 @@
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>0.4157111041846171</t>
+          <t>0.46724295603179505</t>
         </is>
       </c>
     </row>
@@ -13628,7 +13628,7 @@
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>0.2136976972514925</t>
+          <t>0.21608465348311123</t>
         </is>
       </c>
     </row>
@@ -13645,7 +13645,7 @@
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>0.5857479300630469</t>
+          <t>0.4459519510249161</t>
         </is>
       </c>
     </row>
@@ -13662,7 +13662,7 @@
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>0.49942212668702574</t>
+          <t>0.45217610586373996</t>
         </is>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>0.19467582251726487</t>
+          <t>0.23313934540506212</t>
         </is>
       </c>
     </row>
@@ -13696,7 +13696,7 @@
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>0.6221255875868447</t>
+          <t>0.4983792384443421</t>
         </is>
       </c>
     </row>
@@ -13713,7 +13713,7 @@
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>0.19239984539185906</t>
+          <t>0.28421974572650743</t>
         </is>
       </c>
     </row>
@@ -13730,7 +13730,7 @@
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>0.6768085135930892</t>
+          <t>0.6311952331478199</t>
         </is>
       </c>
     </row>
@@ -13747,7 +13747,7 @@
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>0.5445696964147866</t>
+          <t>0.6391089301382081</t>
         </is>
       </c>
     </row>
@@ -13764,7 +13764,7 @@
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>0.4402192514182877</t>
+          <t>0.5668868865575543</t>
         </is>
       </c>
     </row>
@@ -13781,7 +13781,7 @@
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>0.4890399379096898</t>
+          <t>0.4849378519352577</t>
         </is>
       </c>
     </row>
@@ -13798,7 +13798,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>0.5121000817232979</t>
+          <t>0.4806933048059072</t>
         </is>
       </c>
     </row>
@@ -13815,7 +13815,7 @@
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>0.2711303157832852</t>
+          <t>0.31646957815784643</t>
         </is>
       </c>
     </row>
@@ -13832,7 +13832,7 @@
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>0.539462782298249</t>
+          <t>0.521091531273101</t>
         </is>
       </c>
     </row>
@@ -13849,7 +13849,7 @@
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>0.5221126451329529</t>
+          <t>0.6157129464991861</t>
         </is>
       </c>
     </row>
@@ -13866,7 +13866,7 @@
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>0.4252413969958527</t>
+          <t>0.4868014650080815</t>
         </is>
       </c>
     </row>
@@ -13883,7 +13883,7 @@
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>0.4882837251692382</t>
+          <t>0.4668932927427982</t>
         </is>
       </c>
     </row>
@@ -13900,7 +13900,7 @@
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>0.49029978104275984</t>
+          <t>0.48412042306617376</t>
         </is>
       </c>
     </row>
@@ -13917,7 +13917,7 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>0.5109039138916892</t>
+          <t>0.516429718109805</t>
         </is>
       </c>
     </row>
@@ -13934,7 +13934,7 @@
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>0.543549940907587</t>
+          <t>0.5550282788896295</t>
         </is>
       </c>
     </row>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>0.4062723810394964</t>
+          <t>0.4923859028931846</t>
         </is>
       </c>
     </row>
@@ -13968,7 +13968,7 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>0.20337799062311857</t>
+          <t>0.23403522798521162</t>
         </is>
       </c>
     </row>
@@ -13985,7 +13985,7 @@
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>0.5498460990958574</t>
+          <t>0.5002470813466021</t>
         </is>
       </c>
     </row>
@@ -14002,7 +14002,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>0.4729691495542979</t>
+          <t>0.4721261377104422</t>
         </is>
       </c>
     </row>
@@ -14019,7 +14019,7 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>0.2070273297705531</t>
+          <t>0.21750882296309546</t>
         </is>
       </c>
     </row>
@@ -14036,7 +14036,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -14053,7 +14053,7 @@
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>0.20124356377333144</t>
+          <t>0.22046086584731503</t>
         </is>
       </c>
     </row>
@@ -14070,7 +14070,7 @@
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>0.6055462975939414</t>
+          <t>0.7319354494159898</t>
         </is>
       </c>
     </row>
@@ -14087,7 +14087,7 @@
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>0.49310751290125016</t>
+          <t>0.5303326777020267</t>
         </is>
       </c>
     </row>
@@ -14104,7 +14104,7 @@
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>0.6423586013910405</t>
+          <t>0.8193921955164174</t>
         </is>
       </c>
     </row>
@@ -14121,7 +14121,7 @@
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>0.7000209515615332</t>
+          <t>0.5960843289654205</t>
         </is>
       </c>
     </row>
@@ -14138,7 +14138,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>0.3964731875819775</t>
+          <t>0.4373839906642744</t>
         </is>
       </c>
     </row>
@@ -14155,7 +14155,7 @@
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>0.5827010604416144</t>
+          <t>0.5621171833163738</t>
         </is>
       </c>
     </row>
@@ -14172,7 +14172,7 @@
       </c>
       <c r="C808" t="inlineStr">
         <is>
-          <t>0.7152833089982067</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>0.512194419925349</t>
+          <t>0.6514997835756751</t>
         </is>
       </c>
     </row>
@@ -14206,7 +14206,7 @@
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>0.5224257554592574</t>
+          <t>0.42643227913313375</t>
         </is>
       </c>
     </row>
@@ -14223,7 +14223,7 @@
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>0.5538908981684879</t>
+          <t>0.5696249337146777</t>
         </is>
       </c>
     </row>
@@ -14240,7 +14240,7 @@
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>0.6804185558066548</t>
+          <t>0.7353115442678386</t>
         </is>
       </c>
     </row>
@@ -14257,7 +14257,7 @@
       </c>
       <c r="C813" t="inlineStr">
         <is>
-          <t>0.6746600523648197</t>
+          <t>0.7393067739669446</t>
         </is>
       </c>
     </row>
@@ -14274,7 +14274,7 @@
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>0.4157111041846171</t>
+          <t>0.46724295603179505</t>
         </is>
       </c>
     </row>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>0.6311952331478198</t>
+          <t>0.5778924515350787</t>
         </is>
       </c>
     </row>
@@ -14325,7 +14325,7 @@
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>0.49942212668702574</t>
+          <t>0.45217610586373996</t>
         </is>
       </c>
     </row>
@@ -14342,7 +14342,7 @@
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>0.26134044881243634</t>
+          <t>0.27169181861737396</t>
         </is>
       </c>
     </row>
@@ -14359,7 +14359,7 @@
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>0.6768085135930892</t>
+          <t>0.6311952331478199</t>
         </is>
       </c>
     </row>
@@ -14376,7 +14376,7 @@
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>0.27697891119693985</t>
+          <t>0.3104373272376427</t>
         </is>
       </c>
     </row>
@@ -14393,7 +14393,7 @@
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>0.6838234827084342</t>
+          <t>0.6418293002368591</t>
         </is>
       </c>
     </row>
@@ -14410,7 +14410,7 @@
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9253745019461711</t>
         </is>
       </c>
     </row>
@@ -14427,7 +14427,7 @@
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>0.7203971648851433</t>
+          <t>0.7984453595087448</t>
         </is>
       </c>
     </row>
@@ -14444,7 +14444,7 @@
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>0.4934749091763703</t>
+          <t>0.47713646961758316</t>
         </is>
       </c>
     </row>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>0.8720092226615503</t>
+          <t>0.8803829645471767</t>
         </is>
       </c>
     </row>
@@ -14478,7 +14478,7 @@
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>0.9209959897596506</t>
+          <t>0.9230806778153167</t>
         </is>
       </c>
     </row>
@@ -14495,7 +14495,7 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>0.9209959897596506</t>
+          <t>0.9230806778153167</t>
         </is>
       </c>
     </row>
@@ -14512,7 +14512,7 @@
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>0.4225690804709377</t>
+          <t>0.35338538119636426</t>
         </is>
       </c>
     </row>
@@ -14529,7 +14529,7 @@
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>0.7828484248738852</t>
+          <t>0.7510917886619245</t>
         </is>
       </c>
     </row>
@@ -14546,7 +14546,7 @@
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>0.9307941906810291</t>
+          <t>0.8803829645471767</t>
         </is>
       </c>
     </row>
@@ -14563,7 +14563,7 @@
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>0.9307941906810291</t>
+          <t>0.8803829645471767</t>
         </is>
       </c>
     </row>
@@ -14580,7 +14580,7 @@
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>0.6537788565306538</t>
+          <t>0.5792868737143053</t>
         </is>
       </c>
     </row>
@@ -14597,7 +14597,7 @@
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>0.5578744532753701</t>
+          <t>0.4517998517299892</t>
         </is>
       </c>
     </row>
@@ -14614,7 +14614,7 @@
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>0.4843538404504818</t>
+          <t>0.4932977312866361</t>
         </is>
       </c>
     </row>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>0.5578744532753701</t>
+          <t>0.4517998517299892</t>
         </is>
       </c>
     </row>
@@ -14648,7 +14648,7 @@
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>0.38251894147086435</t>
+          <t>0.3512243535437751</t>
         </is>
       </c>
     </row>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>0.5445696964147866</t>
+          <t>0.6391089301382081</t>
         </is>
       </c>
     </row>
@@ -14682,7 +14682,7 @@
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>0.318791882002295</t>
+          <t>0.372944503940655</t>
         </is>
       </c>
     </row>
@@ -14699,7 +14699,7 @@
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t>0.8760044523606563</t>
+          <t>0.8649350311144128</t>
         </is>
       </c>
     </row>
@@ -14716,7 +14716,7 @@
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>0.7814741022435939</t>
+          <t>0.5888885766077911</t>
         </is>
       </c>
     </row>
@@ -14733,7 +14733,7 @@
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>0.30524007109028173</t>
+          <t>0.34804654476617297</t>
         </is>
       </c>
     </row>
@@ -14750,7 +14750,7 @@
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>0.6821831234563833</t>
+          <t>0.7521458169355165</t>
         </is>
       </c>
     </row>
@@ -14767,7 +14767,7 @@
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>0.7814741022435941</t>
+          <t>0.831551896950142</t>
         </is>
       </c>
     </row>
@@ -14784,7 +14784,7 @@
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>0.7481081062299596</t>
+          <t>0.7521458169355165</t>
         </is>
       </c>
     </row>
@@ -14801,7 +14801,7 @@
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>0.6392303516414456</t>
+          <t>0.612494410301834</t>
         </is>
       </c>
     </row>
@@ -14818,7 +14818,7 @@
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>0.6392501916451727</t>
+          <t>0.6831118498882361</t>
         </is>
       </c>
     </row>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="C847" t="inlineStr">
         <is>
-          <t>0.7656627298635461</t>
+          <t>0.7995655165675516</t>
         </is>
       </c>
     </row>
@@ -14852,7 +14852,7 @@
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>0.8249047547594875</t>
+          <t>0.841088088230184</t>
         </is>
       </c>
     </row>
@@ -14869,7 +14869,7 @@
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>0.2634620479935479</t>
+          <t>0.29852574406903726</t>
         </is>
       </c>
     </row>
@@ -14886,7 +14886,7 @@
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>0.3407055059591577</t>
+          <t>0.38237704326176136</t>
         </is>
       </c>
     </row>
@@ -14903,7 +14903,7 @@
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>0.31717993036067565</t>
+          <t>0.38109135366495406</t>
         </is>
       </c>
     </row>
@@ -14920,7 +14920,7 @@
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>0.3407055059591577</t>
+          <t>0.38237704326176136</t>
         </is>
       </c>
     </row>
@@ -14937,7 +14937,7 @@
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>0.3673177673855156</t>
+          <t>0.5147118364857972</t>
         </is>
       </c>
     </row>
@@ -14954,7 +14954,7 @@
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>0.45160933093094374</t>
+          <t>0.5668868865575543</t>
         </is>
       </c>
     </row>
@@ -14971,7 +14971,7 @@
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>0.36795088955986244</t>
+          <t>0.5344722135532813</t>
         </is>
       </c>
     </row>
@@ -14988,7 +14988,7 @@
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.8237625383459871</t>
         </is>
       </c>
     </row>
@@ -15005,7 +15005,7 @@
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>0.4663792808694828</t>
+          <t>0.45261652767193555</t>
         </is>
       </c>
     </row>
@@ -15022,7 +15022,7 @@
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>0.8903484540676481</t>
+          <t>0.934076827117862</t>
         </is>
       </c>
     </row>
@@ -15056,7 +15056,7 @@
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>0.9483085247724613</t>
+          <t>0.8967988025845799</t>
         </is>
       </c>
     </row>
@@ -15073,7 +15073,7 @@
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>0.44260893940671253</t>
+          <t>0.46624724108775745</t>
         </is>
       </c>
     </row>
@@ -15090,7 +15090,7 @@
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>0.8906461746019684</t>
+          <t>0.8686331278097014</t>
         </is>
       </c>
     </row>
@@ -15107,7 +15107,7 @@
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.934076827117862</t>
         </is>
       </c>
     </row>
@@ -15124,7 +15124,7 @@
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.934076827117862</t>
         </is>
       </c>
     </row>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>0.43194127011141153</t>
+          <t>0.3660430856633203</t>
         </is>
       </c>
     </row>
@@ -15158,7 +15158,7 @@
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>0.31315734362994824</t>
+          <t>0.30973409516403944</t>
         </is>
       </c>
     </row>
@@ -15175,7 +15175,7 @@
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>0.516962330561893</t>
+          <t>0.4887534308491265</t>
         </is>
       </c>
     </row>
@@ -15192,7 +15192,7 @@
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>0.44239901234091156</t>
+          <t>0.39596563669261686</t>
         </is>
       </c>
     </row>
@@ -15209,7 +15209,7 @@
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>0.46542515325802025</t>
+          <t>0.3941092565369758</t>
         </is>
       </c>
     </row>
@@ -15226,7 +15226,7 @@
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>0.4890399379096898</t>
+          <t>0.4849378519352577</t>
         </is>
       </c>
     </row>
@@ -15243,7 +15243,7 @@
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>0.36607697715768045</t>
+          <t>0.4791146146521575</t>
         </is>
       </c>
     </row>
@@ -15260,7 +15260,7 @@
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>0.33152023883427795</t>
+          <t>0.384106747072444</t>
         </is>
       </c>
     </row>
@@ -15277,7 +15277,7 @@
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>0.8686331278097014</t>
+          <t>0.7997348672306069</t>
         </is>
       </c>
     </row>
@@ -15294,7 +15294,7 @@
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.7967502766151929</t>
         </is>
       </c>
     </row>
@@ -15311,7 +15311,7 @@
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>0.6740737035251133</t>
+          <t>0.660889459882144</t>
         </is>
       </c>
     </row>
@@ -15328,7 +15328,7 @@
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>0.39817235089779957</t>
+          <t>0.4128860773116864</t>
         </is>
       </c>
     </row>
@@ -15345,7 +15345,7 @@
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>0.717802076575327</t>
+          <t>0.740653139118883</t>
         </is>
       </c>
     </row>
@@ -15362,7 +15362,7 @@
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>0.8402233302134091</t>
+          <t>0.7997348672306069</t>
         </is>
       </c>
     </row>
@@ -15379,7 +15379,7 @@
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>0.8402233302134091</t>
+          <t>0.7997348672306069</t>
         </is>
       </c>
     </row>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>0.5433637212096644</t>
+          <t>0.47383041521922836</t>
         </is>
       </c>
     </row>
@@ -15413,7 +15413,7 @@
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>0.3933359727363489</t>
+          <t>0.34805889769033727</t>
         </is>
       </c>
     </row>
@@ -15430,7 +15430,7 @@
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>0.5282152657402645</t>
+          <t>0.49405291906966997</t>
         </is>
       </c>
     </row>
@@ -15447,7 +15447,7 @@
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>0.4117848878904976</t>
+          <t>0.4054992282775221</t>
         </is>
       </c>
     </row>
@@ -15464,7 +15464,7 @@
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>0.37237719231485095</t>
+          <t>0.3621507933146892</t>
         </is>
       </c>
     </row>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>0.5121000817232979</t>
+          <t>0.4806933048059072</t>
         </is>
       </c>
     </row>
@@ -15498,7 +15498,7 @@
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>0.31867112164867895</t>
+          <t>0.4189133558790153</t>
         </is>
       </c>
     </row>
@@ -15515,7 +15515,7 @@
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>0.3507313633060031</t>
+          <t>0.38809717762927737</t>
         </is>
       </c>
     </row>
@@ -15532,7 +15532,7 @@
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>0.4079205353624318</t>
+          <t>0.468673105000337</t>
         </is>
       </c>
     </row>
@@ -15549,7 +15549,7 @@
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>0.47044479769800673</t>
+          <t>0.5169460196844162</t>
         </is>
       </c>
     </row>
@@ -15566,7 +15566,7 @@
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>0.26784031528958213</t>
+          <t>0.2582880581906678</t>
         </is>
       </c>
     </row>
@@ -15583,7 +15583,7 @@
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>0.31583642722702726</t>
+          <t>0.34223744409038515</t>
         </is>
       </c>
     </row>
@@ -15600,7 +15600,7 @@
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>0.29847795215082323</t>
+          <t>0.336656766246811</t>
         </is>
       </c>
     </row>
@@ -15617,7 +15617,7 @@
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>0.29847795215082323</t>
+          <t>0.336656766246811</t>
         </is>
       </c>
     </row>
@@ -15634,7 +15634,7 @@
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>0.28782422411631686</t>
+          <t>0.35165702452722297</t>
         </is>
       </c>
     </row>
@@ -15651,7 +15651,7 @@
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>0.3390073980831041</t>
+          <t>0.36067699164225475</t>
         </is>
       </c>
     </row>
@@ -15668,7 +15668,7 @@
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>0.3181393046018169</t>
+          <t>0.304014567611255</t>
         </is>
       </c>
     </row>
@@ -15685,7 +15685,7 @@
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>0.3572661280051466</t>
+          <t>0.36067699164225475</t>
         </is>
       </c>
     </row>
@@ -15702,7 +15702,7 @@
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>0.37119315454063173</t>
+          <t>0.4091382489814107</t>
         </is>
       </c>
     </row>
@@ -15719,7 +15719,7 @@
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>0.2795334795621454</t>
+          <t>0.31646957815784643</t>
         </is>
       </c>
     </row>
@@ -15736,7 +15736,7 @@
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>0.43624975698925206</t>
+          <t>0.3708065754362771</t>
         </is>
       </c>
     </row>
@@ -15753,7 +15753,7 @@
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>0.9483085247724615</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15770,7 +15770,7 @@
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>0.9379113496604994</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15787,7 +15787,7 @@
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>0.7487199845378673</t>
+          <t>0.6378946588572293</t>
         </is>
       </c>
     </row>
@@ -15804,7 +15804,7 @@
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>0.9363261834682793</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15855,7 +15855,7 @@
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>0.3834615976146828</t>
+          <t>0.456268565026677</t>
         </is>
       </c>
     </row>
@@ -15872,7 +15872,7 @@
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>0.4265047070324246</t>
+          <t>0.505713876465915</t>
         </is>
       </c>
     </row>
@@ -15889,7 +15889,7 @@
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>0.5635390341531077</t>
+          <t>0.5033474771713162</t>
         </is>
       </c>
     </row>
@@ -15906,7 +15906,7 @@
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>0.4265047070324246</t>
+          <t>0.505713876465915</t>
         </is>
       </c>
     </row>
@@ -15923,7 +15923,7 @@
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>0.43070221382764284</t>
+          <t>0.46296607660926575</t>
         </is>
       </c>
     </row>
@@ -15940,7 +15940,7 @@
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>0.539462782298249</t>
+          <t>0.521091531273101</t>
         </is>
       </c>
     </row>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>0.5671579296073939</t>
+          <t>0.45941664262327153</t>
         </is>
       </c>
     </row>
@@ -15974,7 +15974,7 @@
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>0.8941829766102857</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15991,7 +15991,7 @@
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>0.5304036542521808</t>
+          <t>0.5934488424660225</t>
         </is>
       </c>
     </row>
@@ -16008,7 +16008,7 @@
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>0.905620955225569</t>
+          <t>0.9425223664137268</t>
         </is>
       </c>
     </row>
@@ -16059,7 +16059,7 @@
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>0.30917020100108666</t>
+          <t>0.38106424882617895</t>
         </is>
       </c>
     </row>
@@ -16076,7 +16076,7 @@
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>0.2736527560290806</t>
+          <t>0.301074061972341</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>0.5567987154996854</t>
+          <t>0.5572838881088523</t>
         </is>
       </c>
     </row>
@@ -16110,7 +16110,7 @@
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>0.3736522490616879</t>
+          <t>0.3820454765072633</t>
         </is>
       </c>
     </row>
@@ -16127,7 +16127,7 @@
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>0.3150467023636948</t>
+          <t>0.3046023875029841</t>
         </is>
       </c>
     </row>
@@ -16144,7 +16144,7 @@
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>0.5221126451329529</t>
+          <t>0.6157129464991861</t>
         </is>
       </c>
     </row>
@@ -16161,7 +16161,7 @@
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>0.2620234601882724</t>
+          <t>0.3854699400483852</t>
         </is>
       </c>
     </row>
@@ -16178,7 +16178,7 @@
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>0.6058992910469715</t>
+          <t>0.540198322051616</t>
         </is>
       </c>
     </row>
@@ -16195,7 +16195,7 @@
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9123615008599151</t>
         </is>
       </c>
     </row>
@@ -16246,7 +16246,7 @@
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>0.4924095033346827</t>
+          <t>0.3802946383669856</t>
         </is>
       </c>
     </row>
@@ -16263,7 +16263,7 @@
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>0.3202508832598127</t>
+          <t>0.24885226246036488</t>
         </is>
       </c>
     </row>
@@ -16280,7 +16280,7 @@
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>0.4121817852737162</t>
+          <t>0.3712233581267917</t>
         </is>
       </c>
     </row>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>0.3365955114174804</t>
+          <t>0.38539391644221266</t>
         </is>
       </c>
     </row>
@@ -16314,7 +16314,7 @@
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>0.34924279030082533</t>
+          <t>0.3278845967336977</t>
         </is>
       </c>
     </row>
@@ -16331,7 +16331,7 @@
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>0.4252413969958527</t>
+          <t>0.4868014650080815</t>
         </is>
       </c>
     </row>
@@ -16348,7 +16348,7 @@
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>0.3413843652507956</t>
+          <t>0.38560340106128194</t>
         </is>
       </c>
     </row>
@@ -16365,7 +16365,7 @@
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>0.5772195607090721</t>
+          <t>0.5984355965863613</t>
         </is>
       </c>
     </row>
@@ -16382,7 +16382,7 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>0.7074082564371639</t>
+          <t>0.7909745826306522</t>
         </is>
       </c>
     </row>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>0.7183485083754075</t>
+          <t>0.768961535838385</t>
         </is>
       </c>
     </row>
@@ -16416,7 +16416,7 @@
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>0.37554895272315375</t>
+          <t>0.3331463338025204</t>
         </is>
       </c>
     </row>
@@ -16433,7 +16433,7 @@
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>0.3172990055538726</t>
+          <t>0.27364663293879676</t>
         </is>
       </c>
     </row>
@@ -16450,7 +16450,7 @@
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>0.53502370261789</t>
+          <t>0.43097088016431934</t>
         </is>
       </c>
     </row>
@@ -16467,7 +16467,7 @@
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>0.3172990055538726</t>
+          <t>0.27364663293879676</t>
         </is>
       </c>
     </row>
@@ -16484,7 +16484,7 @@
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>0.4096893007381204</t>
+          <t>0.46443821126029955</t>
         </is>
       </c>
     </row>
@@ -16501,7 +16501,7 @@
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>0.4882837251692382</t>
+          <t>0.4668932927427982</t>
         </is>
       </c>
     </row>
@@ -16518,7 +16518,7 @@
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>0.6330024027563338</t>
+          <t>0.7066882055259132</t>
         </is>
       </c>
     </row>
@@ -16569,7 +16569,7 @@
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>0.4275312461620528</t>
+          <t>0.40594731998092665</t>
         </is>
       </c>
     </row>
@@ -16586,7 +16586,7 @@
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>0.4337903911991418</t>
+          <t>0.39460532946326987</t>
         </is>
       </c>
     </row>
@@ -16603,7 +16603,7 @@
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>0.46104735408819286</t>
+          <t>0.4677953251480527</t>
         </is>
       </c>
     </row>
@@ -16620,7 +16620,7 @@
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>0.4337903911991418</t>
+          <t>0.39460532946326987</t>
         </is>
       </c>
     </row>
@@ -16637,7 +16637,7 @@
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>0.40906893486864127</t>
+          <t>0.42257478601105</t>
         </is>
       </c>
     </row>
@@ -16654,7 +16654,7 @@
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>0.49029978104275984</t>
+          <t>0.48412042306617376</t>
         </is>
       </c>
     </row>
@@ -16671,7 +16671,7 @@
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>0.367149893547051</t>
+          <t>0.44422637606167525</t>
         </is>
       </c>
     </row>
@@ -16705,7 +16705,7 @@
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>0.3613178425990573</t>
+          <t>0.36859897373106254</t>
         </is>
       </c>
     </row>
@@ -16722,7 +16722,7 @@
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>0.38284421925313333</t>
+          <t>0.2980510420755993</t>
         </is>
       </c>
     </row>
@@ -16739,7 +16739,7 @@
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>0.5328752731280704</t>
+          <t>0.4826912129608491</t>
         </is>
       </c>
     </row>
@@ -16756,7 +16756,7 @@
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>0.41541776861817253</t>
+          <t>0.40309720013751593</t>
         </is>
       </c>
     </row>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>0.4068480380656264</t>
+          <t>0.4072721937523894</t>
         </is>
       </c>
     </row>
@@ -16790,7 +16790,7 @@
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>0.5109039138916892</t>
+          <t>0.516429718109805</t>
         </is>
       </c>
     </row>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>0.43865726470713884</t>
+          <t>0.45707838803921474</t>
         </is>
       </c>
     </row>
@@ -16824,7 +16824,7 @@
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>0.35166950678078573</t>
+          <t>0.33773922855538513</t>
         </is>
       </c>
     </row>
@@ -16841,7 +16841,7 @@
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>0.35022076000943075</t>
+          <t>0.3207821148504633</t>
         </is>
       </c>
     </row>
@@ -16858,7 +16858,7 @@
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>0.52100911880785</t>
+          <t>0.45810589515712385</t>
         </is>
       </c>
     </row>
@@ -16875,7 +16875,7 @@
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>0.41541776861817253</t>
+          <t>0.40309720013751593</t>
         </is>
       </c>
     </row>
@@ -16892,7 +16892,7 @@
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>0.4011511598836246</t>
+          <t>0.3767206952821235</t>
         </is>
       </c>
     </row>
@@ -16909,7 +16909,7 @@
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>0.543549940907587</t>
+          <t>0.5550282788896295</t>
         </is>
       </c>
     </row>
@@ -16926,7 +16926,7 @@
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>0.4504057219099746</t>
+          <t>0.5083952927663481</t>
         </is>
       </c>
     </row>
@@ -16943,7 +16943,7 @@
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>0.6919759900970556</t>
+          <t>0.7290221408342479</t>
         </is>
       </c>
     </row>
@@ -16960,7 +16960,7 @@
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>0.5722250484473208</t>
+          <t>0.5462898381804455</t>
         </is>
       </c>
     </row>
@@ -16977,7 +16977,7 @@
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>0.8903484540676482</t>
+          <t>0.9319595193537077</t>
         </is>
       </c>
     </row>
@@ -16994,7 +16994,7 @@
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>0.22215615899493607</t>
+          <t>0.19624809574175175</t>
         </is>
       </c>
     </row>
@@ -17011,7 +17011,7 @@
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>0.4062723810394964</t>
+          <t>0.4923859028931846</t>
         </is>
       </c>
     </row>
@@ -17028,7 +17028,7 @@
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>0.23649385515429078</t>
+          <t>0.270952553082202</t>
         </is>
       </c>
     </row>
@@ -17045,7 +17045,7 @@
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>0.35328284235759</t>
+          <t>0.33202591270950094</t>
         </is>
       </c>
     </row>
@@ -17079,7 +17079,7 @@
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>0.33954642905764604</t>
+          <t>0.36295876315223474</t>
         </is>
       </c>
     </row>
@@ -17096,7 +17096,7 @@
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>0.24190111432700112</t>
+          <t>0.23403522798521162</t>
         </is>
       </c>
     </row>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>0.27559315656971706</t>
+          <t>0.270655479479481</t>
         </is>
       </c>
     </row>
@@ -17130,7 +17130,7 @@
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>0.7080374952286669</t>
+          <t>0.7007124430165569</t>
         </is>
       </c>
     </row>
@@ -17147,7 +17147,7 @@
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>0.21487417385871446</t>
+          <t>0.17102867078717549</t>
         </is>
       </c>
     </row>
@@ -17164,7 +17164,7 @@
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>0.5656206411597501</t>
+          <t>0.5420719659373044</t>
         </is>
       </c>
     </row>
@@ -17181,7 +17181,7 @@
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>0.22187483121874932</t>
+          <t>0.20401226724621746</t>
         </is>
       </c>
     </row>
@@ -17198,7 +17198,7 @@
       </c>
       <c r="C986" t="inlineStr">
         <is>
-          <t>0.34557293605293926</t>
+          <t>0.31851352951938455</t>
         </is>
       </c>
     </row>
@@ -17215,7 +17215,7 @@
       </c>
       <c r="C987" t="inlineStr">
         <is>
-          <t>0.4729691495542979</t>
+          <t>0.4721261377104422</t>
         </is>
       </c>
     </row>
@@ -17232,7 +17232,7 @@
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>0.2445177719464483</t>
+          <t>0.270655479479481</t>
         </is>
       </c>
     </row>
@@ -17249,7 +17249,7 @@
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>0.24468063320723457</t>
+          <t>0.22913345153085363</t>
         </is>
       </c>
     </row>
@@ -17266,7 +17266,7 @@
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>0.2193541530685308</t>
+          <t>0.27065055436937135</t>
         </is>
       </c>
     </row>
@@ -17283,7 +17283,7 @@
       </c>
       <c r="C991" t="inlineStr">
         <is>
-          <t>0.2769789111969399</t>
+          <t>0.29865530620046904</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/correlation-values.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/correlation-values.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MIC" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="MIC" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -45,15 +45,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -422,7 +422,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -470,7 +470,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.8008918343489466</t>
+          <t>0.7697273525202285</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.5320815499888586</t>
+          <t>0.5120800424651059</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9954515828457711</t>
+          <t>0.9910760598382222</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.17158110083595157</t>
+          <t>0.19938487242862604</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.21053061780803983</t>
+          <t>0.24446078993687545</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.32240136892959886</t>
+          <t>0.3499227777757174</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.22368363103294137</t>
+          <t>0.24446078993687545</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.5443080599846535</t>
+          <t>0.5097416724901831</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.36828011929176274</t>
+          <t>0.3740292339813348</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.21777075977057989</t>
+          <t>0.24446078993687545</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.34951313761781344</t>
+          <t>0.4381699084607785</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.29102606835620515</t>
+          <t>0.3895216059044128</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.21053061780803983</t>
+          <t>0.24446078993687545</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.6100739269091892</t>
+          <t>0.6774409411733345</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.4408761807053034</t>
+          <t>0.3442633269776549</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.4408761807053034</t>
+          <t>0.35954982206256547</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.40691436152929933</t>
+          <t>0.3752923435809641</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.4408761807053034</t>
+          <t>0.3442633269776549</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.39171954087470207</t>
+          <t>0.37938839913423245</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.40691436152929933</t>
+          <t>0.3752923435809641</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.4408761807053034</t>
+          <t>0.3442633269776549</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.39171954087470207</t>
+          <t>0.3664627774657178</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.4157332338439136</t>
+          <t>0.33637791754081225</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.4408761807053034</t>
+          <t>0.3442633269776549</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.4157332338439136</t>
+          <t>0.33637791754081225</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.5792868737143053</t>
+          <t>0.6927320555250951</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.32442524962996067</t>
+          <t>0.2862773160586044</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.3483827919937079</t>
+          <t>0.3887813385249852</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.49456439761677845</t>
+          <t>0.4811392310292936</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.3712561187926595</t>
+          <t>0.3573008985411999</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.4178698809892377</t>
+          <t>0.4156091617444332</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.3811029373036007</t>
+          <t>0.3713735475271041</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.35991031272977525</t>
+          <t>0.4725837024071232</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.29699507861214874</t>
+          <t>0.3880437106501546</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.3404121650512047</t>
+          <t>0.4163476474302827</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.3436387230009119</t>
+          <t>0.3612548192957462</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.3436387230009119</t>
+          <t>0.35587785018092</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.9166323148240506</t>
+          <t>0.9852281360342512</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.729022140834248</t>
+          <t>0.7008416377835845</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.5320815499888586</t>
+          <t>0.5120800424651059</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.8966583247632433</t>
+          <t>0.8494027679507822</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.1680564179390749</t>
+          <t>0.19938487242862604</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.4408761807053034</t>
+          <t>0.3442633269776549</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.32373547257375834</t>
+          <t>0.3595001228778595</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.3886088883818944</t>
+          <t>0.40207949590514747</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.9680722152143111</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.4281396935668954</t>
+          <t>0.3968649436774805</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.3709126163883186</t>
+          <t>0.3312148341205677</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.29966452334019544</t>
+          <t>0.4174346204018831</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.35767242312426967</t>
+          <t>0.306149310713865</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.33909599099105703</t>
+          <t>0.4055652874545649</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.30304915934568977</t>
+          <t>0.4236253054540751</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.35767242312426967</t>
+          <t>0.306149310713865</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.35836731742633565</t>
+          <t>0.5494209366620896</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.5918214209999545</t>
+          <t>0.4830980846840414</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.35767242312426967</t>
+          <t>0.306149310713865</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.6434947387745229</t>
+          <t>0.6639846216248664</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.3031938693845558</t>
+          <t>0.32802377548971023</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.3031938693845558</t>
+          <t>0.32802377548971046</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.31131259340074646</t>
+          <t>0.2635005390813366</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.3031938693845558</t>
+          <t>0.32802377548971046</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.28457334191862393</t>
+          <t>0.3516695067807857</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0.31131259340074635</t>
+          <t>0.26350053908133675</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.3031938693845558</t>
+          <t>0.32802377548971046</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.25258938002401055</t>
+          <t>0.26698822023103624</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0.3393121673360222</t>
+          <t>0.2886290561494292</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.3031938693845558</t>
+          <t>0.32802377548971046</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.3393121673360222</t>
+          <t>0.35099514236289675</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.8032553064286677</t>
+          <t>0.8232376087350831</t>
         </is>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.3836741976623195</t>
+          <t>0.47411585966526</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.5293447520227049</t>
+          <t>0.4246235954255733</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.5955218185949589</t>
+          <t>0.5827491661452616</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.3095395503742632</t>
+          <t>0.3502406219560172</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.4724730886219973</t>
+          <t>0.4466379943981846</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0.45937059025900856</t>
+          <t>0.3286554878971834</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0.3512882570672101</t>
+          <t>0.314357661457369</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0.25448662451486287</t>
+          <t>0.2910797428295811</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0.4555164687755557</t>
+          <t>0.36953028979771263</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0.3725360269502196</t>
+          <t>0.37077926158729746</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0.3894090506603887</t>
+          <t>0.33420553556599425</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0.8008918343489466</t>
+          <t>0.8296208485587382</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0.3886088883818944</t>
+          <t>0.40207949590514747</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9056209552255691</t>
         </is>
       </c>
     </row>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0.4281396935668954</t>
+          <t>0.3968649436774805</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0.3031938693845558</t>
+          <t>0.32802377548971046</t>
         </is>
       </c>
     </row>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0.3731605686888397</t>
+          <t>0.33042345026698966</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.4887534308491265</t>
+          <t>0.539106836822744</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0.17102867078717549</t>
+          <t>0.2006282043592498</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0.13728882234081444</t>
+          <t>0.17172916232027724</t>
         </is>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0.241075840528623</t>
+          <t>0.2838994486038667</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0.14506242108065265</t>
+          <t>0.17172916232027724</t>
         </is>
       </c>
     </row>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0.2859536235715977</t>
+          <t>0.3479909528066682</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0.241075840528623</t>
+          <t>0.27263043520798824</t>
         </is>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0.14506242108065248</t>
+          <t>0.17172916232027724</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0.27010104883179403</t>
+          <t>0.2835909712865001</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0.10382523431939136</t>
+          <t>0.2191502789936033</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0.13728882234081444</t>
+          <t>0.17172916232027724</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0.10510839780976175</t>
+          <t>0.22081958370541097</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.5728536123372514</t>
+          <t>0.6034637690979351</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0.5728536123372515</t>
+          <t>0.6034637690979351</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>0.4230326199125635</t>
+          <t>0.4230406556557427</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>0.545599588200338</t>
+          <t>0.5713836617981523</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>0.5812053691480845</t>
+          <t>0.5493283091185057</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0.4230326199125635</t>
+          <t>0.4230406556557427</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>0.5428907456907561</t>
+          <t>0.5713836617981521</t>
         </is>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>0.5374769960978708</t>
+          <t>0.5794629238792841</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>0.4459519510249161</t>
+          <t>0.4958320747890359</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>0.5002470813466021</t>
+          <t>0.5259477473974908</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>0.5778924515350787</t>
+          <t>0.6055462975939414</t>
         </is>
       </c>
     </row>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>0.4932977312866361</t>
+          <t>0.5385514175949965</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>0.38109135366495406</t>
+          <t>0.31144169008377215</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0.4887534308491265</t>
+          <t>0.5372173365267696</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>0.49405291906966997</t>
+          <t>0.4890354487714227</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>0.304014567611255</t>
+          <t>0.3217867383186353</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>0.5033474771713162</t>
+          <t>0.5090140583989757</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0.5572838881088523</t>
+          <t>0.6530260151092797</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>0.3712233581267917</t>
+          <t>0.43885668731950184</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>0.43097088016431934</t>
+          <t>0.41893861516182446</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>0.4677953251480527</t>
+          <t>0.42353084207270364</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>0.4826912129608491</t>
+          <t>0.463470634894177</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>0.45810589515712385</t>
+          <t>0.5017391627326212</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>0.5462898381804455</t>
+          <t>0.487795216798126</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>0.33202591270950094</t>
+          <t>0.3940704671223554</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>0.7642045065086204</t>
+          <t>0.7918583525674832</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>0.7007124430165569</t>
+          <t>0.6830527498329857</t>
         </is>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>0.17102867078717549</t>
+          <t>0.2006282043592498</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>0.5420719659373044</t>
+          <t>0.5717177373519032</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>0.20401226724621746</t>
+          <t>0.24545032072899012</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>0.4681040006507688</t>
+          <t>0.4066011728386908</t>
         </is>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>0.4288426663024966</t>
+          <t>0.3418425420999426</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>0.4131921610176957</t>
+          <t>0.4174346204018831</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>0.4288426663024966</t>
+          <t>0.3418425420999426</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>0.36730544770969537</t>
+          <t>0.4055652874545649</t>
         </is>
       </c>
     </row>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>0.42172357309015773</t>
+          <t>0.4236253054540751</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>0.4288426663024966</t>
+          <t>0.3418425420999426</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>0.4073316884973275</t>
+          <t>0.5494209366620896</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>0.5318727409588332</t>
+          <t>0.4596615394315411</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>0.4288426663024966</t>
+          <t>0.3418425420999426</t>
         </is>
       </c>
     </row>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>0.692621139554817</t>
+          <t>0.6689210138293136</t>
         </is>
       </c>
     </row>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>0.38926294101218417</t>
+          <t>0.5158970539041068</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>0.38926294101218417</t>
+          <t>0.5158970539041068</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>0.4404945763115662</t>
+          <t>0.48115140056213024</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>0.38926294101218417</t>
+          <t>0.5158970539041068</t>
         </is>
       </c>
     </row>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>0.4180469828974598</t>
+          <t>0.4353926575754737</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>0.4404945763115662</t>
+          <t>0.48115140056213024</t>
         </is>
       </c>
     </row>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>0.38926294101218417</t>
+          <t>0.5158970539041068</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>0.37014569438794265</t>
+          <t>0.4353926575754737</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>0.5101064389169427</t>
+          <t>0.6195762318096373</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>0.38926294101218417</t>
+          <t>0.5158970539041068</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>0.5101064389169427</t>
+          <t>0.6195762318096373</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>0.934076827117862</t>
+          <t>0.8232376087350831</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>0.37983967511968214</t>
+          <t>0.47411585966526</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>0.6118408246095661</t>
+          <t>0.4246235954255733</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>0.6754014776770232</t>
+          <t>0.5827491661452616</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>0.47806202430077693</t>
+          <t>0.49697429582176533</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>0.5679730998294065</t>
+          <t>0.4466379943981846</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>0.5251555650643251</t>
+          <t>0.3286554878971834</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>0.3704731597897942</t>
+          <t>0.314357661457369</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>0.2867625404437151</t>
+          <t>0.2910797428295811</t>
         </is>
       </c>
     </row>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>0.5370507964428354</t>
+          <t>0.36953028979771263</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>0.39015749070380157</t>
+          <t>0.3800612214537146</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>0.42585412190292093</t>
+          <t>0.3800612214537146</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>0.9264275265664572</t>
+          <t>0.9852281360342512</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>0.4887534308491265</t>
+          <t>0.539106836822744</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9680722152143111</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>0.46810400065076885</t>
+          <t>0.4066011728386908</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>0.39903394268419146</t>
+          <t>0.5158970539041068</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>0.3976081747825989</t>
+          <t>0.333911371430253</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>0.41765033271425694</t>
+          <t>0.3833323886291569</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>0.5886580693084161</t>
+          <t>0.6085959349285547</t>
         </is>
       </c>
     </row>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>0.38340453129517615</t>
+          <t>0.37416414150645216</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>0.4114758107735876</t>
+          <t>0.5219479581024077</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>0.30085721956608974</t>
+          <t>0.2684880682085117</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>0.5245093803508777</t>
+          <t>0.3782598716346267</t>
         </is>
       </c>
     </row>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>0.23107633045949758</t>
+          <t>0.24618554470514611</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>0.23107633045949758</t>
+          <t>0.24618554470514611</t>
         </is>
       </c>
     </row>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>0.25574876373722066</t>
+          <t>0.2845206727574669</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>0.23107633045949758</t>
+          <t>0.24618554470514611</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>0.31854889701635125</t>
+          <t>0.34230917454360643</t>
         </is>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>0.25574876373722066</t>
+          <t>0.2845206727574669</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>0.23107633045949758</t>
+          <t>0.24618554470514611</t>
         </is>
       </c>
     </row>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>0.31854889701635136</t>
+          <t>0.34230917454360643</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>0.24670685290146446</t>
+          <t>0.2585370519584345</t>
         </is>
       </c>
     </row>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>0.23107633045949758</t>
+          <t>0.24618554470514611</t>
         </is>
       </c>
     </row>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>0.27169181861737396</t>
+          <t>0.26134044881243634</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>0.3512243535437751</t>
+          <t>0.33278077699624437</t>
         </is>
       </c>
     </row>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>0.5147118364857972</t>
+          <t>0.3415655533513099</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>0.3941092565369758</t>
+          <t>0.44072359607826406</t>
         </is>
       </c>
     </row>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>0.362150793314689</t>
+          <t>0.3107271685904993</t>
         </is>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>0.4091382489814107</t>
+          <t>0.32840447474181494</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>0.46296607660926603</t>
+          <t>0.36909335771506613</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>0.3046023875029841</t>
+          <t>0.31041177734636405</t>
         </is>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>0.3113951834890789</t>
+          <t>0.2562768375180588</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>0.46443821126029955</t>
+          <t>0.3967872016295837</t>
         </is>
       </c>
     </row>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>0.42257478601105</t>
+          <t>0.3223457155464703</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>0.4072721937523894</t>
+          <t>0.33486853200657357</t>
         </is>
       </c>
     </row>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>0.3767206952821235</t>
+          <t>0.4378523736764512</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>0.21083279523512402</t>
+          <t>0.22155602858030923</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>0.36295876315223474</t>
+          <t>0.39887899675754773</t>
         </is>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>0.17102867078717549</t>
+          <t>0.2006282043592498</t>
         </is>
       </c>
     </row>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>0.31851352951938455</t>
+          <t>0.4425726241244482</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>0.9690632527820694</t>
+          <t>0.9587118829771317</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>0.23107633045949758</t>
+          <t>0.24618554470514611</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>0.27065055436937135</t>
+          <t>0.24694182228042086</t>
         </is>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>0.41765033271425694</t>
+          <t>0.3833323886291566</t>
         </is>
       </c>
     </row>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>0.5576829563816599</t>
+          <t>0.6205992070360213</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>0.3487291682120008</t>
+          <t>0.42197030744091285</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>0.5629291064676989</t>
+          <t>0.6201544816665762</t>
         </is>
       </c>
     </row>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>0.2648089317641818</t>
+          <t>0.2418749089378916</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>0.524509380350878</t>
+          <t>0.42271898552588555</t>
         </is>
       </c>
     </row>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>0.18424580909118682</t>
+          <t>0.1921247331671797</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>0.18424580909118682</t>
+          <t>0.1921247331671797</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>0.1946577697077294</t>
+          <t>0.2527200523252805</t>
         </is>
       </c>
     </row>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>0.158903950594909</t>
+          <t>0.1921247331671797</t>
         </is>
       </c>
     </row>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>0.2677814782887711</t>
+          <t>0.29954183592032535</t>
         </is>
       </c>
     </row>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>0.1946577697077294</t>
+          <t>0.25272005232528083</t>
         </is>
       </c>
     </row>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>0.158903950594909</t>
+          <t>0.1921247331671797</t>
         </is>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>0.2677814782887712</t>
+          <t>0.2995418359203254</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>0.18226249378751885</t>
+          <t>0.22405251175312324</t>
         </is>
       </c>
     </row>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>0.158903950594909</t>
+          <t>0.1921247331671797</t>
         </is>
       </c>
     </row>
@@ -4363,7 +4363,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>0.2240525117531229</t>
+          <t>0.22405251175312324</t>
         </is>
       </c>
     </row>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>0.4935489512666795</t>
+          <t>0.44965420243497384</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>0.5450687162046315</t>
+          <t>0.468839105157558</t>
         </is>
       </c>
     </row>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>0.5337348536835526</t>
+          <t>0.525738423475165</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>0.33801471276344597</t>
+          <t>0.3214961268643953</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>0.36306746475518076</t>
+          <t>0.3293303547121065</t>
         </is>
       </c>
     </row>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>0.48868755292199917</t>
+          <t>0.42321278900297377</t>
         </is>
       </c>
     </row>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>0.3898165211612001</t>
+          <t>0.3799611264902045</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>0.40458998062278445</t>
+          <t>0.32073489754476553</t>
         </is>
       </c>
     </row>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>0.4955952167468274</t>
+          <t>0.5024957146332149</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>0.4776885324570239</t>
+          <t>0.3580861943980458</t>
         </is>
       </c>
     </row>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>0.43358146552992943</t>
+          <t>0.3800185244270398</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>0.4442073612285669</t>
+          <t>0.449610237099887</t>
         </is>
       </c>
     </row>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>0.16797390563345982</t>
+          <t>0.20993954007937776</t>
         </is>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>0.29207263394817146</t>
+          <t>0.3040357620427356</t>
         </is>
       </c>
     </row>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>0.13728882234081444</t>
+          <t>0.17172916232027724</t>
         </is>
       </c>
     </row>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>0.27774257945458397</t>
+          <t>0.3784955732817958</t>
         </is>
       </c>
     </row>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>0.18424580909118665</t>
+          <t>0.1921247331671797</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>0.24388452227829666</t>
+          <t>0.21940436196552143</t>
         </is>
       </c>
     </row>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>0.34554342583441316</t>
+          <t>0.3833323886291566</t>
         </is>
       </c>
     </row>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>0.9363261834682792</t>
+          <t>0.9983636725938129</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>0.34554342583441316</t>
+          <t>0.3739675768359897</t>
         </is>
       </c>
     </row>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9983636725938129</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>0.9013622069895476</t>
+          <t>0.9001563909125219</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>0.34554342583441316</t>
+          <t>0.3739675768359897</t>
         </is>
       </c>
     </row>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>0.8014678364619714</t>
+          <t>0.7379015151457913</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>0.32671864465240913</t>
+          <t>0.3635214286313652</t>
         </is>
       </c>
     </row>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>0.32671864465240913</t>
+          <t>0.3635214286313649</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>0.3807056669833051</t>
+          <t>0.4223519722821946</t>
         </is>
       </c>
     </row>
@@ -4890,7 +4890,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>0.32671864465240913</t>
+          <t>0.3193020683110169</t>
         </is>
       </c>
     </row>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>0.4537997308321584</t>
+          <t>0.4782412414744391</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>0.3695753192940088</t>
+          <t>0.413755960871402</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>0.32671864465240913</t>
+          <t>0.3193020683110174</t>
         </is>
       </c>
     </row>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>0.4537997308321586</t>
+          <t>0.4841629796669667</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>0.3807056669833051</t>
+          <t>0.4223519722821948</t>
         </is>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>0.32671864465240913</t>
+          <t>0.31051334756523713</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>0.3882438142267917</t>
+          <t>0.4223519722821948</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>0.7284669546545176</t>
+          <t>0.7944196156192005</t>
         </is>
       </c>
     </row>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>0.7895783660423027</t>
+          <t>0.8891916002354384</t>
         </is>
       </c>
     </row>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>0.8906461746019684</t>
+          <t>0.8775757285551334</t>
         </is>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>0.6283768631612834</t>
+          <t>0.7283480085568611</t>
         </is>
       </c>
     </row>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>0.49510730914116113</t>
+          <t>0.4141278625463938</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>0.7093908718613503</t>
+          <t>0.7960355727486672</t>
         </is>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>0.8485794672313611</t>
+          <t>0.9983636725938129</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>0.7044145312551283</t>
+          <t>0.7222674474765575</t>
         </is>
       </c>
     </row>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>0.46013570727780295</t>
+          <t>0.4201870321139895</t>
         </is>
       </c>
     </row>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>0.6564174892806076</t>
+          <t>0.6854215010022093</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>0.7696449996502988</t>
+          <t>0.8270417339946947</t>
         </is>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>0.7690963089191604</t>
+          <t>0.7833133609444811</t>
         </is>
       </c>
     </row>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>0.3066205038120074</t>
+          <t>0.2750507976924326</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>0.2289895905715306</t>
+          <t>0.26470087606188547</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>0.241075840528623</t>
+          <t>0.2838994486038667</t>
         </is>
       </c>
     </row>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>0.3338262348260668</t>
+          <t>0.3951890694192095</t>
         </is>
       </c>
     </row>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>0.35838541054262085</t>
+          <t>0.34085635009830634</t>
         </is>
       </c>
     </row>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>0.32671864465240913</t>
+          <t>0.3193020683110168</t>
         </is>
       </c>
     </row>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>0.3122611693276612</t>
+          <t>0.2855587397622107</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>0.5576829563816599</t>
+          <t>0.6205992070360213</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>0.44596245422902886</t>
+          <t>0.4283208009873271</t>
         </is>
       </c>
     </row>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>0.5629291064676989</t>
+          <t>0.6201544816665762</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>0.2747960822894307</t>
+          <t>0.28041196856419204</t>
         </is>
       </c>
     </row>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>0.4742299933028746</t>
+          <t>0.42271898552588555</t>
         </is>
       </c>
     </row>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>0.18424580909118682</t>
+          <t>0.19212473316717937</t>
         </is>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>0.18424580909118682</t>
+          <t>0.19212473316717937</t>
         </is>
       </c>
     </row>
@@ -5502,7 +5502,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>0.1826754284035476</t>
+          <t>0.2527200523252805</t>
         </is>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>0.14692160929072698</t>
+          <t>0.19212473316717937</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>0.2677814782887711</t>
+          <t>0.29954183592032535</t>
         </is>
       </c>
     </row>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>0.1826754284035476</t>
+          <t>0.25272005232528083</t>
         </is>
       </c>
     </row>
@@ -5570,7 +5570,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>0.14692160929072698</t>
+          <t>0.1921247331671797</t>
         </is>
       </c>
     </row>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>0.2677814782887712</t>
+          <t>0.2995418359203254</t>
         </is>
       </c>
     </row>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>0.17028015248333697</t>
+          <t>0.22405251175312324</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>0.14692160929072698</t>
+          <t>0.19212473316717937</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>0.2240525117531229</t>
+          <t>0.22405251175312324</t>
         </is>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>0.4935489512666795</t>
+          <t>0.44965420243497384</t>
         </is>
       </c>
     </row>
@@ -5672,7 +5672,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>0.6044773308704768</t>
+          <t>0.468839105157558</t>
         </is>
       </c>
     </row>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>0.5337348536835526</t>
+          <t>0.525738423475165</t>
         </is>
       </c>
     </row>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>0.36306746475518076</t>
+          <t>0.3293303547121065</t>
         </is>
       </c>
     </row>
@@ -5740,7 +5740,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>0.48868755292199917</t>
+          <t>0.42321278900297377</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>0.3898165211612001</t>
+          <t>0.3799611264902045</t>
         </is>
       </c>
     </row>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>0.44078030885319763</t>
+          <t>0.32073489754476553</t>
         </is>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>0.4955952167468274</t>
+          <t>0.5024957146332149</t>
         </is>
       </c>
     </row>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>0.4776885324570239</t>
+          <t>0.3580861943980458</t>
         </is>
       </c>
     </row>
@@ -5825,7 +5825,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>0.43788448736626473</t>
+          <t>0.3800185244270398</t>
         </is>
       </c>
     </row>
@@ -5842,7 +5842,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>0.4442073612285669</t>
+          <t>0.449610237099887</t>
         </is>
       </c>
     </row>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>0.28712310330172186</t>
+          <t>0.20993954007937776</t>
         </is>
       </c>
     </row>
@@ -5876,7 +5876,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>0.2743386270099082</t>
+          <t>0.2991964817393809</t>
         </is>
       </c>
     </row>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>0.14506242108065265</t>
+          <t>0.17172916232027724</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>0.2765034488384145</t>
+          <t>0.3784955732817958</t>
         </is>
       </c>
     </row>
@@ -5944,7 +5944,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>0.18424580909118665</t>
+          <t>0.19212473316717937</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>0.24388452227829666</t>
+          <t>0.21940436196552143</t>
         </is>
       </c>
     </row>
@@ -5978,7 +5978,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>0.9363261834682792</t>
+          <t>0.9680722152143111</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>0.5576829563816599</t>
+          <t>0.6205992070360213</t>
         </is>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>0.9560898739101291</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>0.5381330498960408</t>
+          <t>0.5398828843830126</t>
         </is>
       </c>
     </row>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>0.5576829563816599</t>
+          <t>0.6205992070360213</t>
         </is>
       </c>
     </row>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>0.6634157627650608</t>
+          <t>0.6839612374014514</t>
         </is>
       </c>
     </row>
@@ -6080,7 +6080,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>0.4065721491656779</t>
+          <t>0.38691486497861705</t>
         </is>
       </c>
     </row>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>0.4065721491656779</t>
+          <t>0.38691486497861716</t>
         </is>
       </c>
     </row>
@@ -6114,7 +6114,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>0.4137630693150979</t>
+          <t>0.477666659169714</t>
         </is>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>0.4065721491656779</t>
+          <t>0.38691486497861716</t>
         </is>
       </c>
     </row>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>0.5176104229361815</t>
+          <t>0.5418776940798181</t>
         </is>
       </c>
     </row>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>0.4137630693150976</t>
+          <t>0.477666659169714</t>
         </is>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>0.4065721491656779</t>
+          <t>0.38691486497861716</t>
         </is>
       </c>
     </row>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>0.5176104229361815</t>
+          <t>0.5418776940798181</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>0.4664197475698886</t>
+          <t>0.5043701840103877</t>
         </is>
       </c>
     </row>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>0.4065721491656779</t>
+          <t>0.38691486497861716</t>
         </is>
       </c>
     </row>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>0.4664197475698886</t>
+          <t>0.5043701840103877</t>
         </is>
       </c>
     </row>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>0.7191366208407042</t>
+          <t>0.7889113047216758</t>
         </is>
       </c>
     </row>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>0.841088088230184</t>
+          <t>0.8279306053204948</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>0.9190854481162107</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -6318,7 +6318,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>0.7237220218430874</t>
+          <t>0.784136103485066</t>
         </is>
       </c>
     </row>
@@ -6335,7 +6335,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>0.40783892511410147</t>
+          <t>0.398075822125161</t>
         </is>
       </c>
     </row>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>0.8057868936397197</t>
+          <t>0.833241523124903</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>0.7665894110613813</t>
+          <t>0.8456358473606264</t>
         </is>
       </c>
     </row>
@@ -6403,7 +6403,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>0.4632816122890324</t>
+          <t>0.3972596869774644</t>
         </is>
       </c>
     </row>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>0.7696055395252643</t>
+          <t>0.7837922076835678</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>0.8366545914969629</t>
+          <t>0.8986536794406986</t>
         </is>
       </c>
     </row>
@@ -6454,7 +6454,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>0.8564785875436737</t>
+          <t>0.8986536794406986</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>0.4291885345805731</t>
+          <t>0.45197400191161796</t>
         </is>
       </c>
     </row>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>0.44909302813085805</t>
+          <t>0.5343506269113031</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>0.2859536235715977</t>
+          <t>0.3479909528066682</t>
         </is>
       </c>
     </row>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>0.44909302813085805</t>
+          <t>0.5090411267472773</t>
         </is>
       </c>
     </row>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>0.5886580693084161</t>
+          <t>0.6085959349285547</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>0.4065721491656779</t>
+          <t>0.38691486497861716</t>
         </is>
       </c>
     </row>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>0.268111059121973</t>
+          <t>0.26184714509419704</t>
         </is>
       </c>
     </row>
@@ -6590,7 +6590,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>0.42002612026558644</t>
+          <t>0.42832080098732744</t>
         </is>
       </c>
     </row>
@@ -6624,7 +6624,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>0.8016406728653532</t>
+          <t>0.7884502394587565</t>
         </is>
       </c>
     </row>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>0.3403927923140297</t>
+          <t>0.3827860440910616</t>
         </is>
       </c>
     </row>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>0.6704954156651417</t>
+          <t>0.6613273284328993</t>
         </is>
       </c>
     </row>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>0.31134361011832756</t>
+          <t>0.35104810005704856</t>
         </is>
       </c>
     </row>
@@ -6692,7 +6692,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>0.31134361011832756</t>
+          <t>0.3471029702896196</t>
         </is>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>0.3695753192940086</t>
+          <t>0.4150008131555088</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>0.31134361011832756</t>
+          <t>0.3073197270068349</t>
         </is>
       </c>
     </row>
@@ -6743,7 +6743,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>0.4537997308321584</t>
+          <t>0.4856175540334966</t>
         </is>
       </c>
     </row>
@@ -6760,7 +6760,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>0.3695753192940088</t>
+          <t>0.4150008131555093</t>
         </is>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>0.31134361011832756</t>
+          <t>0.3193020683110174</t>
         </is>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>0.4537997308321586</t>
+          <t>0.48561755403349677</t>
         </is>
       </c>
     </row>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>0.360952120262703</t>
+          <t>0.4094144182081653</t>
         </is>
       </c>
     </row>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>0.31134361011832756</t>
+          <t>0.2940948892234919</t>
         </is>
       </c>
     </row>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>0.3882438142267917</t>
+          <t>0.4094144182081653</t>
         </is>
       </c>
     </row>
@@ -6862,7 +6862,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>0.7284669546545176</t>
+          <t>0.8511866299902244</t>
         </is>
       </c>
     </row>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>0.7895783660423027</t>
+          <t>0.839136452414087</t>
         </is>
       </c>
     </row>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>0.8906461746019684</t>
+          <t>0.9560898739101291</t>
         </is>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>0.6474506061318634</t>
+          <t>0.6491054098870906</t>
         </is>
       </c>
     </row>
@@ -6930,7 +6930,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>0.49510730914116113</t>
+          <t>0.4155824369129237</t>
         </is>
       </c>
     </row>
@@ -6947,7 +6947,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>0.7093908718613503</t>
+          <t>0.7974901471151973</t>
         </is>
       </c>
     </row>
@@ -6964,7 +6964,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>0.8485794672313611</t>
+          <t>0.9088985780346425</t>
         </is>
       </c>
     </row>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>0.7044145312551284</t>
+          <t>0.784499952804601</t>
         </is>
       </c>
     </row>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>0.46013570727780295</t>
+          <t>0.4312434975395437</t>
         </is>
       </c>
     </row>
@@ -7015,7 +7015,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>0.6564174892806076</t>
+          <t>0.7697218047159398</t>
         </is>
       </c>
     </row>
@@ -7032,7 +7032,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>0.7696449996502988</t>
+          <t>0.8299986157969532</t>
         </is>
       </c>
     </row>
@@ -7049,7 +7049,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>0.7690963089191604</t>
+          <t>0.8299986157969532</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>0.3066205038120074</t>
+          <t>0.29617274825305545</t>
         </is>
       </c>
     </row>
@@ -7083,7 +7083,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>0.23796760222774785</t>
+          <t>0.2658498630985971</t>
         </is>
       </c>
     </row>
@@ -7100,7 +7100,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>0.241075840528623</t>
+          <t>0.27263043520798824</t>
         </is>
       </c>
     </row>
@@ -7117,7 +7117,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>0.3338262348260668</t>
+          <t>0.3979914759039946</t>
         </is>
       </c>
     </row>
@@ -7134,7 +7134,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>0.33399082279967546</t>
+          <t>0.34367044427978277</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>0.31134361011832756</t>
+          <t>0.30731972700683463</t>
         </is>
       </c>
     </row>
@@ -7168,7 +7168,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>0.2790569180675677</t>
+          <t>0.20963551246488848</t>
         </is>
       </c>
     </row>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>0.5629291064676989</t>
+          <t>0.6201544816665762</t>
         </is>
       </c>
     </row>
@@ -7202,7 +7202,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>0.23443423916356082</t>
+          <t>0.24279588497191473</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>0.4742299933028746</t>
+          <t>0.42271898552588555</t>
         </is>
       </c>
     </row>
@@ -7253,7 +7253,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>0.18424580909118682</t>
+          <t>0.19212473316717937</t>
         </is>
       </c>
     </row>
@@ -7270,7 +7270,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>0.18424580909118682</t>
+          <t>0.19212473316717937</t>
         </is>
       </c>
     </row>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>0.18267542840354745</t>
+          <t>0.2527200523252805</t>
         </is>
       </c>
     </row>
@@ -7304,7 +7304,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>0.14692160929072706</t>
+          <t>0.19212473316717937</t>
         </is>
       </c>
     </row>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>0.2677814782887711</t>
+          <t>0.29954183592032535</t>
         </is>
       </c>
     </row>
@@ -7338,7 +7338,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>0.18267542840354778</t>
+          <t>0.25272005232528083</t>
         </is>
       </c>
     </row>
@@ -7355,7 +7355,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>0.14692160929072706</t>
+          <t>0.1921247331671797</t>
         </is>
       </c>
     </row>
@@ -7372,7 +7372,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>0.2677814782887712</t>
+          <t>0.2995418359203254</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>0.17028015248333697</t>
+          <t>0.22405251175312324</t>
         </is>
       </c>
     </row>
@@ -7406,7 +7406,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>0.14692160929072706</t>
+          <t>0.19212473316717937</t>
         </is>
       </c>
     </row>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>0.2240525117531229</t>
+          <t>0.22405251175312324</t>
         </is>
       </c>
     </row>
@@ -7440,7 +7440,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>0.4935489512666795</t>
+          <t>0.44965420243497384</t>
         </is>
       </c>
     </row>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>0.5529676086825952</t>
+          <t>0.468839105157558</t>
         </is>
       </c>
     </row>
@@ -7474,7 +7474,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>0.5337348536835526</t>
+          <t>0.525738423475165</t>
         </is>
       </c>
     </row>
@@ -7491,7 +7491,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>0.3606769916422549</t>
+          <t>0.3606769916422547</t>
         </is>
       </c>
     </row>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>0.36306746475518076</t>
+          <t>0.3293303547121065</t>
         </is>
       </c>
     </row>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>0.48868755292199917</t>
+          <t>0.42321278900297377</t>
         </is>
       </c>
     </row>
@@ -7542,7 +7542,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>0.3898165211612001</t>
+          <t>0.3799611264902045</t>
         </is>
       </c>
     </row>
@@ -7559,7 +7559,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>0.40458998062278445</t>
+          <t>0.3209666847332302</t>
         </is>
       </c>
     </row>
@@ -7576,7 +7576,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>0.4955952167468274</t>
+          <t>0.5024957146332149</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>0.4776885324570239</t>
+          <t>0.3580861943980458</t>
         </is>
       </c>
     </row>
@@ -7610,7 +7610,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>0.43358146552992943</t>
+          <t>0.3800185244270398</t>
         </is>
       </c>
     </row>
@@ -7627,7 +7627,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>0.4442073612285669</t>
+          <t>0.449610237099887</t>
         </is>
       </c>
     </row>
@@ -7644,7 +7644,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>0.2229983339960325</t>
+          <t>0.2226994735134462</t>
         </is>
       </c>
     </row>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>0.2743386270099082</t>
+          <t>0.2875995597918866</t>
         </is>
       </c>
     </row>
@@ -7678,7 +7678,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>0.14506242108065248</t>
+          <t>0.17172916232027724</t>
         </is>
       </c>
     </row>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>0.2765034488384145</t>
+          <t>0.3784955732817958</t>
         </is>
       </c>
     </row>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>0.18424580909118665</t>
+          <t>0.19212473316717937</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>0.24388452227829666</t>
+          <t>0.21940436196552143</t>
         </is>
       </c>
     </row>
@@ -7763,7 +7763,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>0.672987356784714</t>
+          <t>0.6510063416993958</t>
         </is>
       </c>
     </row>
@@ -7780,7 +7780,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>0.5629291064676989</t>
+          <t>0.6201544816665762</t>
         </is>
       </c>
     </row>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>0.7837922076835679</t>
+          <t>0.7043677625749754</t>
         </is>
       </c>
     </row>
@@ -7814,7 +7814,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>0.3753566678077718</t>
+          <t>0.36825907960831955</t>
         </is>
       </c>
     </row>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>0.3753566678077719</t>
+          <t>0.3607585005292953</t>
         </is>
       </c>
     </row>
@@ -7848,7 +7848,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>0.40795984384163525</t>
+          <t>0.42525783423511937</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>0.3753566678077719</t>
+          <t>0.33913089440292365</t>
         </is>
       </c>
     </row>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>0.510310718637213</t>
+          <t>0.47165431217852777</t>
         </is>
       </c>
     </row>
@@ -7899,7 +7899,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>0.4079598438416354</t>
+          <t>0.4357999827214173</t>
         </is>
       </c>
     </row>
@@ -7916,7 +7916,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>0.3753566678077719</t>
+          <t>0.33913089440292365</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>0.510310718637213</t>
+          <t>0.47165431217852777</t>
         </is>
       </c>
     </row>
@@ -7950,7 +7950,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>0.4396069001934592</t>
+          <t>0.44539305855219413</t>
         </is>
       </c>
     </row>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>0.3753566678077719</t>
+          <t>0.33913089440292365</t>
         </is>
       </c>
     </row>
@@ -7984,7 +7984,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>0.4396069001934592</t>
+          <t>0.44539305855219413</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>0.8463431086702905</t>
+          <t>0.7927460781224013</t>
         </is>
       </c>
     </row>
@@ -8018,7 +8018,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>0.8302578394446175</t>
+          <t>0.9279241991352504</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>0.7568896972574701</t>
+          <t>0.833241523124903</t>
         </is>
       </c>
     </row>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>0.3540601929148206</t>
+          <t>0.3966436437857395</t>
         </is>
       </c>
     </row>
@@ -8086,7 +8086,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>0.90275431160637</t>
+          <t>0.8420090642642071</t>
         </is>
       </c>
     </row>
@@ -8120,7 +8120,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>0.858810161767835</t>
+          <t>0.7744721184789459</t>
         </is>
       </c>
     </row>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>0.5178950781419346</t>
+          <t>0.4559373354156305</t>
         </is>
       </c>
     </row>
@@ -8154,7 +8154,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>0.8348919052847368</t>
+          <t>0.7540413667164692</t>
         </is>
       </c>
     </row>
@@ -8171,7 +8171,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>0.9088985780346422</t>
+          <t>0.9113772672031071</t>
         </is>
       </c>
     </row>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>0.9127250993213623</t>
+          <t>0.9046249925477006</t>
         </is>
       </c>
     </row>
@@ -8205,7 +8205,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>0.2930035642146153</t>
+          <t>0.36329792837749364</t>
         </is>
       </c>
     </row>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>0.3504775523117404</t>
+          <t>0.39589533963048285</t>
         </is>
       </c>
     </row>
@@ -8239,7 +8239,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>0.27010104883179403</t>
+          <t>0.2835909712865001</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8256,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>0.3504775523117404</t>
+          <t>0.4297375076500264</t>
         </is>
       </c>
     </row>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>0.45012944298930035</t>
+          <t>0.5219479581024079</t>
         </is>
       </c>
     </row>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>0.3753566678077719</t>
+          <t>0.33913089440292365</t>
         </is>
       </c>
     </row>
@@ -8307,7 +8307,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>0.3400844779925123</t>
+          <t>0.23545544535068735</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>0.14021913899381125</t>
+          <t>0.1607752715952529</t>
         </is>
       </c>
     </row>
@@ -8341,7 +8341,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>0.8419230270465997</t>
+          <t>0.8602545391490277</t>
         </is>
       </c>
     </row>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>0.2135419166282239</t>
+          <t>0.260917329679492</t>
         </is>
       </c>
     </row>
@@ -8375,7 +8375,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>0.21354191662822405</t>
+          <t>0.2609173296794918</t>
         </is>
       </c>
     </row>
@@ -8392,7 +8392,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>0.07995525270087034</t>
+          <t>0.08195594135201992</t>
         </is>
       </c>
     </row>
@@ -8409,7 +8409,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>0.0516073151514752</t>
+          <t>0.07178096052162052</t>
         </is>
       </c>
     </row>
@@ -8426,7 +8426,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>0.28537460421983096</t>
+          <t>0.37938839913423245</t>
         </is>
       </c>
     </row>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>0.07995525270087034</t>
+          <t>0.10263829547265874</t>
         </is>
       </c>
     </row>
@@ -8460,7 +8460,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>0.0516073151514752</t>
+          <t>0.07178096052162052</t>
         </is>
       </c>
     </row>
@@ -8477,7 +8477,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>0.2831645885252066</t>
+          <t>0.3476423673882008</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>0.0694223324200239</t>
+          <t>0.0969756374412845</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>0.0516073151514752</t>
+          <t>0.07178096052162052</t>
         </is>
       </c>
     </row>
@@ -8528,7 +8528,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>0.26191329235736033</t>
+          <t>0.29266336142552424</t>
         </is>
       </c>
     </row>
@@ -8545,7 +8545,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>0.6187902931645479</t>
+          <t>0.5986685143620045</t>
         </is>
       </c>
     </row>
@@ -8562,7 +8562,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>0.5225027483020313</t>
+          <t>0.5819580041109628</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>0.5439151681371409</t>
+          <t>0.510129172253484</t>
         </is>
       </c>
     </row>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>0.3481722744507942</t>
+          <t>0.27858899731961295</t>
         </is>
       </c>
     </row>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>0.5115646328567606</t>
+          <t>0.5100639562858709</t>
         </is>
       </c>
     </row>
@@ -8630,7 +8630,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>0.42967044349990624</t>
+          <t>0.3571860846996612</t>
         </is>
       </c>
     </row>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>0.46544234720368555</t>
+          <t>0.35338661109049435</t>
         </is>
       </c>
     </row>
@@ -8664,7 +8664,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>0.4211752827041094</t>
+          <t>0.43657718015095426</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>0.3957195098294285</t>
+          <t>0.3877701795437394</t>
         </is>
       </c>
     </row>
@@ -8698,7 +8698,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>0.435983809733146</t>
+          <t>0.45111190152641967</t>
         </is>
       </c>
     </row>
@@ -8715,7 +8715,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>0.39963498298290706</t>
+          <t>0.4201749471422439</t>
         </is>
       </c>
     </row>
@@ -8732,7 +8732,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>0.5936426248808246</t>
+          <t>0.4265523292937326</t>
         </is>
       </c>
     </row>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>0.28085446892955307</t>
+          <t>0.3244365345211309</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8766,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>0.5527591465423187</t>
+          <t>0.5169237418590124</t>
         </is>
       </c>
     </row>
@@ -8783,7 +8783,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>0.10382523431939136</t>
+          <t>0.2191502789936033</t>
         </is>
       </c>
     </row>
@@ -8800,7 +8800,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>0.3888539963607554</t>
+          <t>0.4064535936956087</t>
         </is>
       </c>
     </row>
@@ -8817,7 +8817,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>0.22379764857762416</t>
+          <t>0.22475969515829766</t>
         </is>
       </c>
     </row>
@@ -8834,7 +8834,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>0.16656021792465</t>
+          <t>0.21718895662927817</t>
         </is>
       </c>
     </row>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>0.2649049589509125</t>
+          <t>0.3108418856751532</t>
         </is>
       </c>
     </row>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>0.4428260277731187</t>
+          <t>0.42271898552588555</t>
         </is>
       </c>
     </row>
@@ -8885,7 +8885,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>0.18424580909118682</t>
+          <t>0.1921247331671797</t>
         </is>
       </c>
     </row>
@@ -8902,7 +8902,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>0.18424580909118682</t>
+          <t>0.1921247331671797</t>
         </is>
       </c>
     </row>
@@ -8919,7 +8919,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>0.1456710026096296</t>
+          <t>0.2527200523252805</t>
         </is>
       </c>
     </row>
@@ -8936,7 +8936,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>0.10991718349680911</t>
+          <t>0.1921247331671797</t>
         </is>
       </c>
     </row>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>0.2677814782887711</t>
+          <t>0.29954183592032535</t>
         </is>
       </c>
     </row>
@@ -8970,7 +8970,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>0.1456710026096296</t>
+          <t>0.25272005232528083</t>
         </is>
       </c>
     </row>
@@ -8987,7 +8987,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>0.10991718349680911</t>
+          <t>0.1921247331671797</t>
         </is>
       </c>
     </row>
@@ -9004,7 +9004,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>0.2677814782887712</t>
+          <t>0.2995418359203254</t>
         </is>
       </c>
     </row>
@@ -9021,7 +9021,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>0.13327572668941903</t>
+          <t>0.22405251175312324</t>
         </is>
       </c>
     </row>
@@ -9038,7 +9038,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>0.10991718349680911</t>
+          <t>0.1921247331671797</t>
         </is>
       </c>
     </row>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>0.2240525117531229</t>
+          <t>0.22405251175312324</t>
         </is>
       </c>
     </row>
@@ -9072,7 +9072,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>0.4935489512666795</t>
+          <t>0.44965420243497384</t>
         </is>
       </c>
     </row>
@@ -9089,7 +9089,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>0.5450687162046315</t>
+          <t>0.468839105157558</t>
         </is>
       </c>
     </row>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>0.5337348536835526</t>
+          <t>0.525738423475165</t>
         </is>
       </c>
     </row>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>0.33801471276344597</t>
+          <t>0.3214961268643953</t>
         </is>
       </c>
     </row>
@@ -9140,7 +9140,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>0.36306746475518076</t>
+          <t>0.3293303547121065</t>
         </is>
       </c>
     </row>
@@ -9157,7 +9157,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>0.48868755292199917</t>
+          <t>0.42321278900297377</t>
         </is>
       </c>
     </row>
@@ -9174,7 +9174,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>0.3898165211612001</t>
+          <t>0.3799611264902045</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>0.40458998062278445</t>
+          <t>0.32073489754476553</t>
         </is>
       </c>
     </row>
@@ -9208,7 +9208,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>0.4955952167468274</t>
+          <t>0.5024957146332149</t>
         </is>
       </c>
     </row>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>0.4776885324570239</t>
+          <t>0.3580861943980458</t>
         </is>
       </c>
     </row>
@@ -9242,7 +9242,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>0.43358146552992943</t>
+          <t>0.3800185244270398</t>
         </is>
       </c>
     </row>
@@ -9259,7 +9259,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>0.4442073612285669</t>
+          <t>0.449610237099887</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>0.17647802534798737</t>
+          <t>0.20993954007937776</t>
         </is>
       </c>
     </row>
@@ -9293,7 +9293,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>0.2743386270099082</t>
+          <t>0.2875995597918866</t>
         </is>
       </c>
     </row>
@@ -9310,7 +9310,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>0.13728882234081444</t>
+          <t>0.17172916232027724</t>
         </is>
       </c>
     </row>
@@ -9327,7 +9327,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>0.2765034488384145</t>
+          <t>0.3784955732817958</t>
         </is>
       </c>
     </row>
@@ -9361,7 +9361,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>0.18424580909118665</t>
+          <t>0.1921247331671797</t>
         </is>
       </c>
     </row>
@@ -9378,7 +9378,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>0.24388452227829666</t>
+          <t>0.21940436196552143</t>
         </is>
       </c>
     </row>
@@ -9395,7 +9395,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>0.2281424139630955</t>
+          <t>0.2721925717065031</t>
         </is>
       </c>
     </row>
@@ -9412,7 +9412,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>0.22814241396309567</t>
+          <t>0.2721925717065031</t>
         </is>
       </c>
     </row>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>0.14472119523150864</t>
+          <t>0.19903649423832598</t>
         </is>
       </c>
     </row>
@@ -9446,7 +9446,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>0.1081733784708556</t>
+          <t>0.13986337019289372</t>
         </is>
       </c>
     </row>
@@ -9463,7 +9463,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>0.3213265784931143</t>
+          <t>0.4153269601739221</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>0.14472119523150864</t>
+          <t>0.19903649423832598</t>
         </is>
       </c>
     </row>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>0.1081733784708556</t>
+          <t>0.13986337019289372</t>
         </is>
       </c>
     </row>
@@ -9514,7 +9514,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>0.31663438638944325</t>
+          <t>0.41532696017392207</t>
         </is>
       </c>
     </row>
@@ -9531,7 +9531,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>0.13056411215858482</t>
+          <t>0.1527661085547226</t>
         </is>
       </c>
     </row>
@@ -9548,7 +9548,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>0.1081733784708556</t>
+          <t>0.13986337019289372</t>
         </is>
       </c>
     </row>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>0.2856711887892185</t>
+          <t>0.3093483754470692</t>
         </is>
       </c>
     </row>
@@ -9582,7 +9582,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>0.6041098813694286</t>
+          <t>0.6531450846409879</t>
         </is>
       </c>
     </row>
@@ -9599,7 +9599,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>0.6031389832492441</t>
+          <t>0.6288907374743881</t>
         </is>
       </c>
     </row>
@@ -9616,7 +9616,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>0.5238785627335707</t>
+          <t>0.5337172706734036</t>
         </is>
       </c>
     </row>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>0.28228415430593323</t>
+          <t>0.29334309667613495</t>
         </is>
       </c>
     </row>
@@ -9650,7 +9650,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>0.6087140471879614</t>
+          <t>0.5987779019796365</t>
         </is>
       </c>
     </row>
@@ -9667,7 +9667,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>0.4464393360516559</t>
+          <t>0.38850621633557125</t>
         </is>
       </c>
     </row>
@@ -9684,7 +9684,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>0.4524465487840279</t>
+          <t>0.3743040761476709</t>
         </is>
       </c>
     </row>
@@ -9701,7 +9701,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>0.45483883936160135</t>
+          <t>0.489976599127862</t>
         </is>
       </c>
     </row>
@@ -9718,7 +9718,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>0.351652106386745</t>
+          <t>0.41379698920191876</t>
         </is>
       </c>
     </row>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>0.44193013535062065</t>
+          <t>0.5210150881544693</t>
         </is>
       </c>
     </row>
@@ -9752,7 +9752,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>0.3570287426041173</t>
+          <t>0.4363814403691558</t>
         </is>
       </c>
     </row>
@@ -9769,7 +9769,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>0.462497367680613</t>
+          <t>0.44416489074481436</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9786,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>0.4898966380470576</t>
+          <t>0.584499869730383</t>
         </is>
       </c>
     </row>
@@ -9803,7 +9803,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>0.4992334582074905</t>
+          <t>0.5712429051501894</t>
         </is>
       </c>
     </row>
@@ -9820,7 +9820,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>0.10510839780976175</t>
+          <t>0.22081958370541097</t>
         </is>
       </c>
     </row>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>0.5067237880608129</t>
+          <t>0.5741855084841893</t>
         </is>
       </c>
     </row>
@@ -9854,7 +9854,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>0.43504467863545104</t>
+          <t>0.33907455696720284</t>
         </is>
       </c>
     </row>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>0.17794796904897534</t>
+          <t>0.22846419865628925</t>
         </is>
       </c>
     </row>
@@ -9888,7 +9888,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>0.29475059402307174</t>
+          <t>0.3290223571476376</t>
         </is>
       </c>
     </row>
@@ -9905,7 +9905,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.8412367762002596</t>
         </is>
       </c>
     </row>
@@ -9922,7 +9922,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>0.4721706725372217</t>
+          <t>0.46906283423557343</t>
         </is>
       </c>
     </row>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.8412367762002596</t>
         </is>
       </c>
     </row>
@@ -9956,7 +9956,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.7793298789004163</t>
         </is>
       </c>
     </row>
@@ -9973,7 +9973,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>0.4721706725372217</t>
+          <t>0.46906283423557343</t>
         </is>
       </c>
     </row>
@@ -9990,7 +9990,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.8412367762002596</t>
         </is>
       </c>
     </row>
@@ -10007,7 +10007,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.8412367762002596</t>
         </is>
       </c>
     </row>
@@ -10024,7 +10024,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>0.4983792384443422</t>
+          <t>0.5519059936156049</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.8412367762002596</t>
         </is>
       </c>
     </row>
@@ -10058,7 +10058,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>0.6311952331478199</t>
+          <t>0.5904356408266698</t>
         </is>
       </c>
     </row>
@@ -10075,7 +10075,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>0.6391089301382081</t>
+          <t>0.554151468024345</t>
         </is>
       </c>
     </row>
@@ -10092,7 +10092,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>0.5668868865575541</t>
+          <t>0.5267860839679143</t>
         </is>
       </c>
     </row>
@@ -10109,7 +10109,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>0.4849378519352577</t>
+          <t>0.5405311114843226</t>
         </is>
       </c>
     </row>
@@ -10126,7 +10126,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>0.4806933048059072</t>
+          <t>0.42835147248645944</t>
         </is>
       </c>
     </row>
@@ -10143,7 +10143,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>0.31646957815784643</t>
+          <t>0.31687157850109365</t>
         </is>
       </c>
     </row>
@@ -10160,7 +10160,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>0.521091531273101</t>
+          <t>0.44134780602774504</t>
         </is>
       </c>
     </row>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>0.6157129464991861</t>
+          <t>0.6156690652986452</t>
         </is>
       </c>
     </row>
@@ -10194,7 +10194,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>0.4868014650080815</t>
+          <t>0.41881657517866605</t>
         </is>
       </c>
     </row>
@@ -10211,7 +10211,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>0.46689329274279834</t>
+          <t>0.43507844224879244</t>
         </is>
       </c>
     </row>
@@ -10228,7 +10228,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>0.48412042306617376</t>
+          <t>0.40045818845854997</t>
         </is>
       </c>
     </row>
@@ -10245,7 +10245,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>0.516429718109805</t>
+          <t>0.4430078867813132</t>
         </is>
       </c>
     </row>
@@ -10262,7 +10262,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>0.5550282788896295</t>
+          <t>0.5475286574799819</t>
         </is>
       </c>
     </row>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>0.4923859028931848</t>
+          <t>0.36611166057458994</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10296,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>0.23403522798521162</t>
+          <t>0.29221132704461056</t>
         </is>
       </c>
     </row>
@@ -10313,7 +10313,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>0.5728536123372514</t>
+          <t>0.6034637690979351</t>
         </is>
       </c>
     </row>
@@ -10330,7 +10330,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>0.4721261377104422</t>
+          <t>0.5217031478760714</t>
         </is>
       </c>
     </row>
@@ -10347,7 +10347,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>0.2291334515308538</t>
+          <t>0.24618554470514628</t>
         </is>
       </c>
     </row>
@@ -10364,7 +10364,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.8412367762002596</t>
         </is>
       </c>
     </row>
@@ -10381,7 +10381,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>0.24045799849335742</t>
+          <t>0.2810438761737987</t>
         </is>
       </c>
     </row>
@@ -10398,7 +10398,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>0.4721706725372217</t>
+          <t>0.4690628342355734</t>
         </is>
       </c>
     </row>
@@ -10415,7 +10415,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.8412367762002596</t>
         </is>
       </c>
     </row>
@@ -10432,7 +10432,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.7793298789004163</t>
         </is>
       </c>
     </row>
@@ -10449,7 +10449,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>0.4721706725372217</t>
+          <t>0.4690628342355734</t>
         </is>
       </c>
     </row>
@@ -10466,7 +10466,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.8412367762002596</t>
         </is>
       </c>
     </row>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.8412367762002596</t>
         </is>
       </c>
     </row>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>0.4983792384443423</t>
+          <t>0.5519059936156047</t>
         </is>
       </c>
     </row>
@@ -10517,7 +10517,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.8412367762002596</t>
         </is>
       </c>
     </row>
@@ -10534,7 +10534,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>0.6311952331478199</t>
+          <t>0.5904356408266698</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>0.6391089301382081</t>
+          <t>0.5541514680243452</t>
         </is>
       </c>
     </row>
@@ -10568,7 +10568,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>0.5668868865575543</t>
+          <t>0.5267860839679143</t>
         </is>
       </c>
     </row>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>0.4849378519352577</t>
+          <t>0.5405311114843226</t>
         </is>
       </c>
     </row>
@@ -10602,7 +10602,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>0.4806933048059072</t>
+          <t>0.42835147248645944</t>
         </is>
       </c>
     </row>
@@ -10619,7 +10619,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>0.31646957815784643</t>
+          <t>0.3259902594810524</t>
         </is>
       </c>
     </row>
@@ -10636,7 +10636,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>0.521091531273101</t>
+          <t>0.44134780602774515</t>
         </is>
       </c>
     </row>
@@ -10653,7 +10653,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>0.6157129464991861</t>
+          <t>0.6156690652986452</t>
         </is>
       </c>
     </row>
@@ -10670,7 +10670,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>0.4868014650080815</t>
+          <t>0.41881657517866605</t>
         </is>
       </c>
     </row>
@@ -10687,7 +10687,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>0.4668932927427982</t>
+          <t>0.43507844224879244</t>
         </is>
       </c>
     </row>
@@ -10704,7 +10704,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>0.48412042306617376</t>
+          <t>0.40045818845854997</t>
         </is>
       </c>
     </row>
@@ -10721,7 +10721,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>0.516429718109805</t>
+          <t>0.4430078867813132</t>
         </is>
       </c>
     </row>
@@ -10738,7 +10738,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>0.5550282788896295</t>
+          <t>0.5475286574799819</t>
         </is>
       </c>
     </row>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>0.4923859028931846</t>
+          <t>0.3852465290738947</t>
         </is>
       </c>
     </row>
@@ -10772,7 +10772,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>0.2386765976030864</t>
+          <t>0.29221132704461056</t>
         </is>
       </c>
     </row>
@@ -10789,7 +10789,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>0.5728536123372515</t>
+          <t>0.6034637690979351</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10806,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>0.5042160324818993</t>
+          <t>0.5217031478760714</t>
         </is>
       </c>
     </row>
@@ -10823,7 +10823,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>0.2291334515308538</t>
+          <t>0.24618554470514628</t>
         </is>
       </c>
     </row>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.8412367762002596</t>
         </is>
       </c>
     </row>
@@ -10857,7 +10857,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>0.2404579984933578</t>
+          <t>0.28104387617379906</t>
         </is>
       </c>
     </row>
@@ -10874,7 +10874,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>0.4983792384443423</t>
+          <t>0.551905993615605</t>
         </is>
       </c>
     </row>
@@ -10891,7 +10891,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9182958340544891</t>
         </is>
       </c>
     </row>
@@ -10908,7 +10908,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9182958340544891</t>
         </is>
       </c>
     </row>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>0.4983792384443423</t>
+          <t>0.5519059936156047</t>
         </is>
       </c>
     </row>
@@ -10942,7 +10942,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>0.8197304953178656</t>
+          <t>0.8745674610042754</t>
         </is>
       </c>
     </row>
@@ -10959,7 +10959,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -10976,7 +10976,7 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>0.36349602259841235</t>
+          <t>0.3754044137229271</t>
         </is>
       </c>
     </row>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -11010,7 +11010,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>0.7005277174714063</t>
+          <t>0.732430660331526</t>
         </is>
       </c>
     </row>
@@ -11027,7 +11027,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>0.5504346679453248</t>
+          <t>0.5598593953656011</t>
         </is>
       </c>
     </row>
@@ -11044,7 +11044,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>0.7802031144341663</t>
+          <t>0.7868129943695278</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>0.5252666502830183</t>
+          <t>0.5046868160242248</t>
         </is>
       </c>
     </row>
@@ -11078,7 +11078,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>0.47164163386701446</t>
+          <t>0.43068271757880777</t>
         </is>
       </c>
     </row>
@@ -11095,7 +11095,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>0.5219874421741322</t>
+          <t>0.47385138961004464</t>
         </is>
       </c>
     </row>
@@ -11112,7 +11112,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>0.8007264862230681</t>
+          <t>0.8745674610042754</t>
         </is>
       </c>
     </row>
@@ -11129,7 +11129,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>0.6289040605508334</t>
+          <t>0.7264912632619046</t>
         </is>
       </c>
     </row>
@@ -11146,7 +11146,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>0.3746402215513395</t>
+          <t>0.35105591239096623</t>
         </is>
       </c>
     </row>
@@ -11163,7 +11163,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>0.5450036956906945</t>
+          <t>0.608761347555273</t>
         </is>
       </c>
     </row>
@@ -11180,7 +11180,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>0.6863894782318228</t>
+          <t>0.6103535424774577</t>
         </is>
       </c>
     </row>
@@ -11197,7 +11197,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>0.6567896223240687</t>
+          <t>0.6414789390281281</t>
         </is>
       </c>
     </row>
@@ -11214,7 +11214,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>0.4584240837171807</t>
+          <t>0.43120716054050146</t>
         </is>
       </c>
     </row>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>0.2085098370418407</t>
+          <t>0.2646192444864573</t>
         </is>
       </c>
     </row>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>0.4230326199125635</t>
+          <t>0.4230406556557427</t>
         </is>
       </c>
     </row>
@@ -11265,7 +11265,7 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>0.4461088979737096</t>
+          <t>0.5220708608514197</t>
         </is>
       </c>
     </row>
@@ -11282,7 +11282,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>0.2421812562408184</t>
+          <t>0.2845206727574669</t>
         </is>
       </c>
     </row>
@@ -11299,7 +11299,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>0.4721706725372217</t>
+          <t>0.4373168024895417</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11316,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>0.26727413916912524</t>
+          <t>0.27090834752263404</t>
         </is>
       </c>
     </row>
@@ -11333,7 +11333,7 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.7793298789004163</t>
         </is>
       </c>
     </row>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>0.4909018434957731</t>
+          <t>0.5458603617918716</t>
         </is>
       </c>
     </row>
@@ -11367,7 +11367,7 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.8412367762002596</t>
         </is>
       </c>
     </row>
@@ -11384,7 +11384,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.8412367762002596</t>
         </is>
       </c>
     </row>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>0.4983792384443423</t>
+          <t>0.551905993615605</t>
         </is>
       </c>
     </row>
@@ -11418,7 +11418,7 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.8412367762002596</t>
         </is>
       </c>
     </row>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>0.6311952331478199</t>
+          <t>0.6100853645316889</t>
         </is>
       </c>
     </row>
@@ -11452,7 +11452,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>0.6391089301382081</t>
+          <t>0.5541514680243452</t>
         </is>
       </c>
     </row>
@@ -11469,7 +11469,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>0.5668868865575543</t>
+          <t>0.5267860839679143</t>
         </is>
       </c>
     </row>
@@ -11486,7 +11486,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>0.4849378519352577</t>
+          <t>0.5405311114843226</t>
         </is>
       </c>
     </row>
@@ -11503,7 +11503,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>0.4806933048059072</t>
+          <t>0.42835147248645944</t>
         </is>
       </c>
     </row>
@@ -11520,7 +11520,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>0.31646957815784643</t>
+          <t>0.31687157850109365</t>
         </is>
       </c>
     </row>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>0.521091531273101</t>
+          <t>0.44664925259311744</t>
         </is>
       </c>
     </row>
@@ -11554,7 +11554,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>0.6157129464991861</t>
+          <t>0.6156690652986452</t>
         </is>
       </c>
     </row>
@@ -11571,7 +11571,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>0.4868014650080815</t>
+          <t>0.41881657517866605</t>
         </is>
       </c>
     </row>
@@ -11588,7 +11588,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>0.4668932927427982</t>
+          <t>0.43507844224879244</t>
         </is>
       </c>
     </row>
@@ -11605,7 +11605,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>0.48412042306617376</t>
+          <t>0.40045818845854997</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>0.516429718109805</t>
+          <t>0.4430078867813132</t>
         </is>
       </c>
     </row>
@@ -11639,7 +11639,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>0.5550282788896295</t>
+          <t>0.5475286574799819</t>
         </is>
       </c>
     </row>
@@ -11656,7 +11656,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>0.4923859028931846</t>
+          <t>0.36611166057459</t>
         </is>
       </c>
     </row>
@@ -11673,7 +11673,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>0.23403522798521162</t>
+          <t>0.29221132704461056</t>
         </is>
       </c>
     </row>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>0.545599588200338</t>
+          <t>0.5713836617981523</t>
         </is>
       </c>
     </row>
@@ -11707,7 +11707,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>0.4721261377104422</t>
+          <t>0.5217031478760714</t>
         </is>
       </c>
     </row>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>0.21750882296309546</t>
+          <t>0.24618554470514628</t>
         </is>
       </c>
     </row>
@@ -11741,7 +11741,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.8412367762002596</t>
         </is>
       </c>
     </row>
@@ -11758,7 +11758,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>0.22046086584731503</t>
+          <t>0.2681794836166321</t>
         </is>
       </c>
     </row>
@@ -11775,7 +11775,7 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9182958340544891</t>
         </is>
       </c>
     </row>
@@ -11792,7 +11792,7 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.7793298789004163</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>0.93335726001798</t>
+          <t>0.9587118829771317</t>
         </is>
       </c>
     </row>
@@ -11843,7 +11843,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.7793298789004163</t>
         </is>
       </c>
     </row>
@@ -11877,7 +11877,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>0.7565414479227051</t>
+          <t>0.7390857840692546</t>
         </is>
       </c>
     </row>
@@ -11894,7 +11894,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>0.5962645478696741</t>
+          <t>0.5772343580182444</t>
         </is>
       </c>
     </row>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>0.7341570833653213</t>
+          <t>0.7290296380083405</t>
         </is>
       </c>
     </row>
@@ -11928,7 +11928,7 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>0.46380849533844104</t>
+          <t>0.38084197649836943</t>
         </is>
       </c>
     </row>
@@ -11945,7 +11945,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>0.5699550177220379</t>
+          <t>0.5594058214801693</t>
         </is>
       </c>
     </row>
@@ -11962,7 +11962,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>0.5242353784367682</t>
+          <t>0.3865151986011536</t>
         </is>
       </c>
     </row>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>0.7667805361825403</t>
+          <t>0.7664098523850637</t>
         </is>
       </c>
     </row>
@@ -11996,7 +11996,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>0.7109025332290512</t>
+          <t>0.6604058173938867</t>
         </is>
       </c>
     </row>
@@ -12013,7 +12013,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>0.3540481724699535</t>
+          <t>0.3504095506431499</t>
         </is>
       </c>
     </row>
@@ -12030,7 +12030,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>0.5021087233525732</t>
+          <t>0.5232791670087483</t>
         </is>
       </c>
     </row>
@@ -12047,7 +12047,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>0.6592104428799236</t>
+          <t>0.5539014099431749</t>
         </is>
       </c>
     </row>
@@ -12064,7 +12064,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>0.6632056725790297</t>
+          <t>0.5530876618258563</t>
         </is>
       </c>
     </row>
@@ -12081,7 +12081,7 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>0.4432292630625834</t>
+          <t>0.41951095080605616</t>
         </is>
       </c>
     </row>
@@ -12098,7 +12098,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>0.28739699389478146</t>
+          <t>0.3262236889565097</t>
         </is>
       </c>
     </row>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>0.5812053691480845</t>
+          <t>0.5493283091185057</t>
         </is>
       </c>
     </row>
@@ -12132,7 +12132,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>0.43990049939519243</t>
+          <t>0.5038984534760583</t>
         </is>
       </c>
     </row>
@@ -12149,7 +12149,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>0.31854889701635125</t>
+          <t>0.34230917454360643</t>
         </is>
       </c>
     </row>
@@ -12166,7 +12166,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.7793298789004163</t>
         </is>
       </c>
     </row>
@@ -12183,7 +12183,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>0.33470617127594804</t>
+          <t>0.27818443816930627</t>
         </is>
       </c>
     </row>
@@ -12200,7 +12200,7 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>0.4721706725372219</t>
+          <t>0.4690628342355736</t>
         </is>
       </c>
     </row>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>0.8197304953178656</t>
+          <t>0.8745674610042754</t>
         </is>
       </c>
     </row>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>0.3372874566912921</t>
+          <t>0.37540441372292727</t>
         </is>
       </c>
     </row>
@@ -12285,7 +12285,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>0.7005277174714063</t>
+          <t>0.732430660331526</t>
         </is>
       </c>
     </row>
@@ -12302,7 +12302,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>0.5504346679453248</t>
+          <t>0.5598593953656011</t>
         </is>
       </c>
     </row>
@@ -12319,7 +12319,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>0.7802031144341663</t>
+          <t>0.7868129943695278</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12336,7 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>0.5252666502830183</t>
+          <t>0.5046868160242248</t>
         </is>
       </c>
     </row>
@@ -12353,7 +12353,7 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>0.47164163386701446</t>
+          <t>0.43068271757880777</t>
         </is>
       </c>
     </row>
@@ -12370,7 +12370,7 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>0.5219874421741322</t>
+          <t>0.47385138961004464</t>
         </is>
       </c>
     </row>
@@ -12387,7 +12387,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>0.8007264862230681</t>
+          <t>0.8745674610042754</t>
         </is>
       </c>
     </row>
@@ -12404,7 +12404,7 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>0.6289040605508334</t>
+          <t>0.7264912632619046</t>
         </is>
       </c>
     </row>
@@ -12421,7 +12421,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>0.3746402215513395</t>
+          <t>0.35105591239096656</t>
         </is>
       </c>
     </row>
@@ -12438,7 +12438,7 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>0.5450036956906945</t>
+          <t>0.608761347555273</t>
         </is>
       </c>
     </row>
@@ -12455,7 +12455,7 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>0.6863894782318228</t>
+          <t>0.6103535424774577</t>
         </is>
       </c>
     </row>
@@ -12472,7 +12472,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>0.6567896223240687</t>
+          <t>0.6414789390281281</t>
         </is>
       </c>
     </row>
@@ -12489,7 +12489,7 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>0.4584240837171807</t>
+          <t>0.4312071605405016</t>
         </is>
       </c>
     </row>
@@ -12506,7 +12506,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>0.2085098370418407</t>
+          <t>0.2646192444864572</t>
         </is>
       </c>
     </row>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>0.4230326199125635</t>
+          <t>0.4230406556557427</t>
         </is>
       </c>
     </row>
@@ -12540,7 +12540,7 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>0.4461088979737096</t>
+          <t>0.5220708608514197</t>
         </is>
       </c>
     </row>
@@ -12557,7 +12557,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>0.2421812562408184</t>
+          <t>0.2845206727574669</t>
         </is>
       </c>
     </row>
@@ -12574,7 +12574,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>0.4721706725372217</t>
+          <t>0.4373168024895417</t>
         </is>
       </c>
     </row>
@@ -12591,7 +12591,7 @@
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>0.26727413916912524</t>
+          <t>0.27090834752263404</t>
         </is>
       </c>
     </row>
@@ -12608,7 +12608,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.8412367762002596</t>
         </is>
       </c>
     </row>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>0.4983792384443423</t>
+          <t>0.5519059936156049</t>
         </is>
       </c>
     </row>
@@ -12642,7 +12642,7 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.8412367762002596</t>
         </is>
       </c>
     </row>
@@ -12659,7 +12659,7 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>0.6311952331478199</t>
+          <t>0.5904356408266698</t>
         </is>
       </c>
     </row>
@@ -12676,7 +12676,7 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>0.6391089301382081</t>
+          <t>0.5541514680243452</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>0.5668868865575543</t>
+          <t>0.5267860839679143</t>
         </is>
       </c>
     </row>
@@ -12710,7 +12710,7 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>0.4849378519352577</t>
+          <t>0.5405311114843226</t>
         </is>
       </c>
     </row>
@@ -12727,7 +12727,7 @@
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>0.4806933048059072</t>
+          <t>0.42835147248645944</t>
         </is>
       </c>
     </row>
@@ -12744,7 +12744,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>0.31646957815784643</t>
+          <t>0.31687157850109365</t>
         </is>
       </c>
     </row>
@@ -12761,7 +12761,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>0.521091531273101</t>
+          <t>0.4466492525931178</t>
         </is>
       </c>
     </row>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>0.6157129464991861</t>
+          <t>0.6156690652986452</t>
         </is>
       </c>
     </row>
@@ -12795,7 +12795,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>0.4868014650080815</t>
+          <t>0.41881657517866605</t>
         </is>
       </c>
     </row>
@@ -12812,7 +12812,7 @@
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>0.4668932927427982</t>
+          <t>0.43507844224879244</t>
         </is>
       </c>
     </row>
@@ -12829,7 +12829,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>0.48412042306617376</t>
+          <t>0.40045818845854997</t>
         </is>
       </c>
     </row>
@@ -12846,7 +12846,7 @@
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>0.516429718109805</t>
+          <t>0.4430078867813132</t>
         </is>
       </c>
     </row>
@@ -12863,7 +12863,7 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>0.5550282788896295</t>
+          <t>0.5475286574799819</t>
         </is>
       </c>
     </row>
@@ -12880,7 +12880,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>0.4923859028931846</t>
+          <t>0.36611166057459</t>
         </is>
       </c>
     </row>
@@ -12897,7 +12897,7 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>0.23403522798521162</t>
+          <t>0.29221132704461056</t>
         </is>
       </c>
     </row>
@@ -12914,7 +12914,7 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>0.5428907456907561</t>
+          <t>0.5713836617981521</t>
         </is>
       </c>
     </row>
@@ -12931,7 +12931,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>0.4721261377104422</t>
+          <t>0.5217031478760714</t>
         </is>
       </c>
     </row>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>0.21750882296309546</t>
+          <t>0.24618554470514628</t>
         </is>
       </c>
     </row>
@@ -12965,7 +12965,7 @@
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.8412367762002596</t>
         </is>
       </c>
     </row>
@@ -12982,7 +12982,7 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>0.22046086584731503</t>
+          <t>0.2681794836166321</t>
         </is>
       </c>
     </row>
@@ -12999,7 +12999,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>0.7601011241908682</t>
+          <t>0.7620963149698013</t>
         </is>
       </c>
     </row>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.8412367762002596</t>
         </is>
       </c>
     </row>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>0.7601011241908682</t>
+          <t>0.7620963149698013</t>
         </is>
       </c>
     </row>
@@ -13050,7 +13050,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>0.7565414479227051</t>
+          <t>0.7390857840692546</t>
         </is>
       </c>
     </row>
@@ -13067,7 +13067,7 @@
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>0.5962645478696741</t>
+          <t>0.5772343580182444</t>
         </is>
       </c>
     </row>
@@ -13084,7 +13084,7 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>0.7341570833653213</t>
+          <t>0.7290296380083405</t>
         </is>
       </c>
     </row>
@@ -13101,7 +13101,7 @@
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>0.46380849533844104</t>
+          <t>0.38084197649836943</t>
         </is>
       </c>
     </row>
@@ -13118,7 +13118,7 @@
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>0.6280228062762186</t>
+          <t>0.7024665512903903</t>
         </is>
       </c>
     </row>
@@ -13135,7 +13135,7 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>0.5242353784367682</t>
+          <t>0.3996033655615318</t>
         </is>
       </c>
     </row>
@@ -13152,7 +13152,7 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>0.7667805361825403</t>
+          <t>0.7664098523850637</t>
         </is>
       </c>
     </row>
@@ -13169,7 +13169,7 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>0.7109025332290513</t>
+          <t>0.6604058173938867</t>
         </is>
       </c>
     </row>
@@ -13186,7 +13186,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>0.3779077599408005</t>
+          <t>0.3504095506431499</t>
         </is>
       </c>
     </row>
@@ -13203,7 +13203,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>0.5021087233525732</t>
+          <t>0.5232791670087483</t>
         </is>
       </c>
     </row>
@@ -13220,7 +13220,7 @@
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>0.6592104428799236</t>
+          <t>0.5539014099431752</t>
         </is>
       </c>
     </row>
@@ -13237,7 +13237,7 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>0.6632056725790297</t>
+          <t>0.5530876618258563</t>
         </is>
       </c>
     </row>
@@ -13254,7 +13254,7 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>0.4432292630625834</t>
+          <t>0.41951095080605616</t>
         </is>
       </c>
     </row>
@@ -13271,7 +13271,7 @@
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>0.28578699719044576</t>
+          <t>0.3444022132061393</t>
         </is>
       </c>
     </row>
@@ -13288,7 +13288,7 @@
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>0.5374769960978708</t>
+          <t>0.5794629238792841</t>
         </is>
       </c>
     </row>
@@ -13305,7 +13305,7 @@
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>0.43990049939519243</t>
+          <t>0.5038984534760583</t>
         </is>
       </c>
     </row>
@@ -13322,7 +13322,7 @@
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>0.31854889701635136</t>
+          <t>0.34230917454360643</t>
         </is>
       </c>
     </row>
@@ -13339,7 +13339,7 @@
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.8412367762002596</t>
         </is>
       </c>
     </row>
@@ -13356,7 +13356,7 @@
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>0.2727992739761047</t>
+          <t>0.2646169306729039</t>
         </is>
       </c>
     </row>
@@ -13373,7 +13373,7 @@
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>0.3634960225984125</t>
+          <t>0.37209149610992115</t>
         </is>
       </c>
     </row>
@@ -13407,7 +13407,7 @@
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>0.7319354494159898</t>
+          <t>0.6072639364050649</t>
         </is>
       </c>
     </row>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>0.5303326777020267</t>
+          <t>0.4845760232842377</t>
         </is>
       </c>
     </row>
@@ -13441,7 +13441,7 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>0.8193921955164174</t>
+          <t>0.7012200774520319</t>
         </is>
       </c>
     </row>
@@ -13458,7 +13458,7 @@
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>0.5960843289654205</t>
+          <t>0.6308024248887104</t>
         </is>
       </c>
     </row>
@@ -13475,7 +13475,7 @@
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>0.4309510558672011</t>
+          <t>0.37132268525747036</t>
         </is>
       </c>
     </row>
@@ -13492,7 +13492,7 @@
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>0.5621171833163738</t>
+          <t>0.5825718060157189</t>
         </is>
       </c>
     </row>
@@ -13526,7 +13526,7 @@
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>0.6514997835756751</t>
+          <t>0.5948963356346584</t>
         </is>
       </c>
     </row>
@@ -13543,7 +13543,7 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>0.42643227913313375</t>
+          <t>0.4071751023696053</t>
         </is>
       </c>
     </row>
@@ -13560,7 +13560,7 @@
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>0.5696249337146777</t>
+          <t>0.5622803512630212</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>0.7353115442678386</t>
+          <t>0.6713159977740465</t>
         </is>
       </c>
     </row>
@@ -13594,7 +13594,7 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>0.7393067739669446</t>
+          <t>0.7023023481730263</t>
         </is>
       </c>
     </row>
@@ -13611,7 +13611,7 @@
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>0.46724295603179505</t>
+          <t>0.3574082228538198</t>
         </is>
       </c>
     </row>
@@ -13628,7 +13628,7 @@
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>0.21608465348311123</t>
+          <t>0.2827180803005185</t>
         </is>
       </c>
     </row>
@@ -13645,7 +13645,7 @@
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>0.4459519510249161</t>
+          <t>0.4958320747890359</t>
         </is>
       </c>
     </row>
@@ -13662,7 +13662,7 @@
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>0.45217610586373996</t>
+          <t>0.5019406349435532</t>
         </is>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>0.23313934540506212</t>
+          <t>0.2585370519584345</t>
         </is>
       </c>
     </row>
@@ -13696,7 +13696,7 @@
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>0.4983792384443421</t>
+          <t>0.520159961869573</t>
         </is>
       </c>
     </row>
@@ -13713,7 +13713,7 @@
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>0.28421974572650743</t>
+          <t>0.30735278827261</t>
         </is>
       </c>
     </row>
@@ -13730,7 +13730,7 @@
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>0.6311952331478199</t>
+          <t>0.5904356408266698</t>
         </is>
       </c>
     </row>
@@ -13747,7 +13747,7 @@
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>0.6391089301382081</t>
+          <t>0.5541514680243452</t>
         </is>
       </c>
     </row>
@@ -13764,7 +13764,7 @@
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>0.5668868865575543</t>
+          <t>0.5267860839679143</t>
         </is>
       </c>
     </row>
@@ -13781,7 +13781,7 @@
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>0.4849378519352577</t>
+          <t>0.5405311114843226</t>
         </is>
       </c>
     </row>
@@ -13798,7 +13798,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>0.4806933048059072</t>
+          <t>0.42835147248645944</t>
         </is>
       </c>
     </row>
@@ -13815,7 +13815,7 @@
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>0.31646957815784643</t>
+          <t>0.31687157850109365</t>
         </is>
       </c>
     </row>
@@ -13832,7 +13832,7 @@
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>0.521091531273101</t>
+          <t>0.44134780602774515</t>
         </is>
       </c>
     </row>
@@ -13849,7 +13849,7 @@
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>0.6157129464991861</t>
+          <t>0.6156690652986452</t>
         </is>
       </c>
     </row>
@@ -13866,7 +13866,7 @@
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>0.4868014650080815</t>
+          <t>0.41881657517866605</t>
         </is>
       </c>
     </row>
@@ -13883,7 +13883,7 @@
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>0.4668932927427982</t>
+          <t>0.43507844224879244</t>
         </is>
       </c>
     </row>
@@ -13900,7 +13900,7 @@
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>0.48412042306617376</t>
+          <t>0.40045818845854997</t>
         </is>
       </c>
     </row>
@@ -13917,7 +13917,7 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>0.516429718109805</t>
+          <t>0.4430078867813132</t>
         </is>
       </c>
     </row>
@@ -13934,7 +13934,7 @@
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>0.5550282788896295</t>
+          <t>0.5475286574799819</t>
         </is>
       </c>
     </row>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>0.4923859028931846</t>
+          <t>0.36611166057459</t>
         </is>
       </c>
     </row>
@@ -13968,7 +13968,7 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>0.23403522798521162</t>
+          <t>0.29221132704461056</t>
         </is>
       </c>
     </row>
@@ -13985,7 +13985,7 @@
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>0.5002470813466021</t>
+          <t>0.5259477473974908</t>
         </is>
       </c>
     </row>
@@ -14002,7 +14002,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>0.4721261377104422</t>
+          <t>0.5217031478760714</t>
         </is>
       </c>
     </row>
@@ -14019,7 +14019,7 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>0.21750882296309546</t>
+          <t>0.24618554470514628</t>
         </is>
       </c>
     </row>
@@ -14036,7 +14036,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.8412367762002596</t>
         </is>
       </c>
     </row>
@@ -14053,7 +14053,7 @@
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>0.22046086584731503</t>
+          <t>0.2681794836166321</t>
         </is>
       </c>
     </row>
@@ -14070,7 +14070,7 @@
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>0.7319354494159898</t>
+          <t>0.6311952331478198</t>
         </is>
       </c>
     </row>
@@ -14087,7 +14087,7 @@
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>0.5303326777020267</t>
+          <t>0.4845760232842377</t>
         </is>
       </c>
     </row>
@@ -14104,7 +14104,7 @@
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>0.8193921955164174</t>
+          <t>0.7012200774520319</t>
         </is>
       </c>
     </row>
@@ -14121,7 +14121,7 @@
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>0.5960843289654205</t>
+          <t>0.6308024248887104</t>
         </is>
       </c>
     </row>
@@ -14138,7 +14138,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>0.4373839906642744</t>
+          <t>0.40245630871537363</t>
         </is>
       </c>
     </row>
@@ -14155,7 +14155,7 @@
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>0.5621171833163738</t>
+          <t>0.5825718060157189</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>0.6514997835756751</t>
+          <t>0.5948963356346584</t>
         </is>
       </c>
     </row>
@@ -14206,7 +14206,7 @@
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>0.42643227913313375</t>
+          <t>0.4071751023696053</t>
         </is>
       </c>
     </row>
@@ -14223,7 +14223,7 @@
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>0.5696249337146777</t>
+          <t>0.5622803512630212</t>
         </is>
       </c>
     </row>
@@ -14240,7 +14240,7 @@
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>0.7353115442678386</t>
+          <t>0.6713159977740465</t>
         </is>
       </c>
     </row>
@@ -14257,7 +14257,7 @@
       </c>
       <c r="C813" t="inlineStr">
         <is>
-          <t>0.7393067739669446</t>
+          <t>0.7023023481730263</t>
         </is>
       </c>
     </row>
@@ -14274,7 +14274,7 @@
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>0.46724295603179505</t>
+          <t>0.3574082228538198</t>
         </is>
       </c>
     </row>
@@ -14291,7 +14291,7 @@
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>0.3024468127956474</t>
+          <t>0.30140554854764473</t>
         </is>
       </c>
     </row>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>0.5778924515350787</t>
+          <t>0.6055462975939414</t>
         </is>
       </c>
     </row>
@@ -14325,7 +14325,7 @@
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>0.45217610586373996</t>
+          <t>0.5019406349435532</t>
         </is>
       </c>
     </row>
@@ -14342,7 +14342,7 @@
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>0.27169181861737396</t>
+          <t>0.26134044881243634</t>
         </is>
       </c>
     </row>
@@ -14359,7 +14359,7 @@
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>0.6311952331478199</t>
+          <t>0.5904356408266698</t>
         </is>
       </c>
     </row>
@@ -14376,7 +14376,7 @@
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>0.3104373272376427</t>
+          <t>0.30735278827261</t>
         </is>
       </c>
     </row>
@@ -14393,7 +14393,7 @@
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>0.6418293002368591</t>
+          <t>0.7185668693818853</t>
         </is>
       </c>
     </row>
@@ -14410,7 +14410,7 @@
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>0.9253745019461711</t>
+          <t>0.9690632527820694</t>
         </is>
       </c>
     </row>
@@ -14427,7 +14427,7 @@
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>0.7984453595087448</t>
+          <t>0.7825342366952975</t>
         </is>
       </c>
     </row>
@@ -14444,7 +14444,7 @@
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>0.47713646961758316</t>
+          <t>0.5446578337716417</t>
         </is>
       </c>
     </row>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>0.8803829645471767</t>
+          <t>0.6553657923968603</t>
         </is>
       </c>
     </row>
@@ -14478,7 +14478,7 @@
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>0.9230806778153167</t>
+          <t>0.8990734250303426</t>
         </is>
       </c>
     </row>
@@ -14495,7 +14495,7 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>0.9230806778153167</t>
+          <t>0.8760044523606563</t>
         </is>
       </c>
     </row>
@@ -14512,7 +14512,7 @@
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>0.35338538119636426</t>
+          <t>0.36882947592893056</t>
         </is>
       </c>
     </row>
@@ -14529,7 +14529,7 @@
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>0.7510917886619245</t>
+          <t>0.6833927390912248</t>
         </is>
       </c>
     </row>
@@ -14546,7 +14546,7 @@
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>0.8803829645471767</t>
+          <t>0.8452890803966985</t>
         </is>
       </c>
     </row>
@@ -14563,7 +14563,7 @@
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>0.8803829645471767</t>
+          <t>0.8452890803966985</t>
         </is>
       </c>
     </row>
@@ -14580,7 +14580,7 @@
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>0.5792868737143053</t>
+          <t>0.6615884484920241</t>
         </is>
       </c>
     </row>
@@ -14597,7 +14597,7 @@
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>0.4517998517299892</t>
+          <t>0.5370804097045635</t>
         </is>
       </c>
     </row>
@@ -14614,7 +14614,7 @@
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>0.4932977312866361</t>
+          <t>0.5385514175949965</t>
         </is>
       </c>
     </row>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>0.4517998517299892</t>
+          <t>0.48605202570226425</t>
         </is>
       </c>
     </row>
@@ -14648,7 +14648,7 @@
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>0.3512243535437751</t>
+          <t>0.33278077699624437</t>
         </is>
       </c>
     </row>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>0.6391089301382081</t>
+          <t>0.5541514680243452</t>
         </is>
       </c>
     </row>
@@ -14682,7 +14682,7 @@
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>0.372944503940655</t>
+          <t>0.3189472859722175</t>
         </is>
       </c>
     </row>
@@ -14699,7 +14699,7 @@
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t>0.8649350311144128</t>
+          <t>0.9123615008599153</t>
         </is>
       </c>
     </row>
@@ -14716,7 +14716,7 @@
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>0.5888885766077911</t>
+          <t>0.6486519551037241</t>
         </is>
       </c>
     </row>
@@ -14733,7 +14733,7 @@
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>0.34804654476617297</t>
+          <t>0.3810642488261792</t>
         </is>
       </c>
     </row>
@@ -14750,7 +14750,7 @@
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>0.7521458169355165</t>
+          <t>0.7374480086590602</t>
         </is>
       </c>
     </row>
@@ -14767,7 +14767,7 @@
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>0.831551896950142</t>
+          <t>0.8906461746019684</t>
         </is>
       </c>
     </row>
@@ -14784,7 +14784,7 @@
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>0.7521458169355165</t>
+          <t>0.816713381035107</t>
         </is>
       </c>
     </row>
@@ -14801,7 +14801,7 @@
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>0.612494410301834</t>
+          <t>0.6056674484397782</t>
         </is>
       </c>
     </row>
@@ -14818,7 +14818,7 @@
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>0.6831118498882361</t>
+          <t>0.7127358701976977</t>
         </is>
       </c>
     </row>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="C847" t="inlineStr">
         <is>
-          <t>0.7995655165675516</t>
+          <t>0.806726230509858</t>
         </is>
       </c>
     </row>
@@ -14852,7 +14852,7 @@
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>0.841088088230184</t>
+          <t>0.8445774475765003</t>
         </is>
       </c>
     </row>
@@ -14869,7 +14869,7 @@
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>0.29852574406903726</t>
+          <t>0.2765765823149985</t>
         </is>
       </c>
     </row>
@@ -14886,7 +14886,7 @@
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>0.38237704326176136</t>
+          <t>0.4031572860116415</t>
         </is>
       </c>
     </row>
@@ -14903,7 +14903,7 @@
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>0.38109135366495406</t>
+          <t>0.31144169008377215</t>
         </is>
       </c>
     </row>
@@ -14920,7 +14920,7 @@
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>0.38237704326176136</t>
+          <t>0.4068250224005362</t>
         </is>
       </c>
     </row>
@@ -14937,7 +14937,7 @@
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>0.5147118364857972</t>
+          <t>0.3421371460231157</t>
         </is>
       </c>
     </row>
@@ -14954,7 +14954,7 @@
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>0.5668868865575543</t>
+          <t>0.5267860839679143</t>
         </is>
       </c>
     </row>
@@ -14971,7 +14971,7 @@
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>0.5344722135532813</t>
+          <t>0.3985434717993242</t>
         </is>
       </c>
     </row>
@@ -14988,7 +14988,7 @@
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>0.8237625383459871</t>
+          <t>0.8366545914969629</t>
         </is>
       </c>
     </row>
@@ -15005,7 +15005,7 @@
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>0.45261652767193555</t>
+          <t>0.5062936997321987</t>
         </is>
       </c>
     </row>
@@ -15022,7 +15022,7 @@
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>0.934076827117862</t>
+          <t>0.833241523124903</t>
         </is>
       </c>
     </row>
@@ -15056,7 +15056,7 @@
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>0.8967988025845799</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15073,7 +15073,7 @@
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>0.46624724108775745</t>
+          <t>0.43041460192554787</t>
         </is>
       </c>
     </row>
@@ -15090,7 +15090,7 @@
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>0.8686331278097014</t>
+          <t>0.8249047547594875</t>
         </is>
       </c>
     </row>
@@ -15107,7 +15107,7 @@
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>0.934076827117862</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15124,7 +15124,7 @@
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>0.934076827117862</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>0.3660430856633203</t>
+          <t>0.4259377649250909</t>
         </is>
       </c>
     </row>
@@ -15158,7 +15158,7 @@
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>0.30973409516403944</t>
+          <t>0.37008351034524173</t>
         </is>
       </c>
     </row>
@@ -15175,7 +15175,7 @@
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>0.4887534308491265</t>
+          <t>0.5372173365267696</t>
         </is>
       </c>
     </row>
@@ -15192,7 +15192,7 @@
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>0.39596563669261686</t>
+          <t>0.4283896755317712</t>
         </is>
       </c>
     </row>
@@ -15209,7 +15209,7 @@
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>0.3941092565369758</t>
+          <t>0.44072359607826406</t>
         </is>
       </c>
     </row>
@@ -15226,7 +15226,7 @@
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>0.4849378519352577</t>
+          <t>0.5405311114843226</t>
         </is>
       </c>
     </row>
@@ -15243,7 +15243,7 @@
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>0.4791146146521575</t>
+          <t>0.4141889434889354</t>
         </is>
       </c>
     </row>
@@ -15260,7 +15260,7 @@
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>0.384106747072444</t>
+          <t>0.3303912724959484</t>
         </is>
       </c>
     </row>
@@ -15277,7 +15277,7 @@
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>0.7997348672306069</t>
+          <t>0.7693285929927646</t>
         </is>
       </c>
     </row>
@@ -15294,7 +15294,7 @@
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>0.7967502766151929</t>
+          <t>0.8618925821753551</t>
         </is>
       </c>
     </row>
@@ -15311,7 +15311,7 @@
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>0.660889459882144</t>
+          <t>0.6740737035251133</t>
         </is>
       </c>
     </row>
@@ -15328,7 +15328,7 @@
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>0.4128860773116864</t>
+          <t>0.3838976599962226</t>
         </is>
       </c>
     </row>
@@ -15345,7 +15345,7 @@
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>0.740653139118883</t>
+          <t>0.6436754666293736</t>
         </is>
       </c>
     </row>
@@ -15362,7 +15362,7 @@
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>0.7997348672306069</t>
+          <t>0.772919204486777</t>
         </is>
       </c>
     </row>
@@ -15379,7 +15379,7 @@
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>0.7997348672306069</t>
+          <t>0.772919204486777</t>
         </is>
       </c>
     </row>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>0.47383041521922836</t>
+          <t>0.47752675296879166</t>
         </is>
       </c>
     </row>
@@ -15413,7 +15413,7 @@
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>0.34805889769033727</t>
+          <t>0.3493716177925143</t>
         </is>
       </c>
     </row>
@@ -15430,7 +15430,7 @@
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>0.49405291906966997</t>
+          <t>0.4890354487714227</t>
         </is>
       </c>
     </row>
@@ -15447,7 +15447,7 @@
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>0.4054992282775221</t>
+          <t>0.40324660380552857</t>
         </is>
       </c>
     </row>
@@ -15464,7 +15464,7 @@
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>0.3621507933146892</t>
+          <t>0.3107271685904993</t>
         </is>
       </c>
     </row>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>0.4806933048059072</t>
+          <t>0.42835147248645944</t>
         </is>
       </c>
     </row>
@@ -15498,7 +15498,7 @@
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>0.4189133558790153</t>
+          <t>0.3377684120002405</t>
         </is>
       </c>
     </row>
@@ -15515,7 +15515,7 @@
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>0.38809717762927737</t>
+          <t>0.37389222207397627</t>
         </is>
       </c>
     </row>
@@ -15532,7 +15532,7 @@
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>0.468673105000337</t>
+          <t>0.5111372210521321</t>
         </is>
       </c>
     </row>
@@ -15549,7 +15549,7 @@
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>0.5169460196844162</t>
+          <t>0.5111372210521324</t>
         </is>
       </c>
     </row>
@@ -15566,7 +15566,7 @@
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>0.2582880581906678</t>
+          <t>0.3424309856978923</t>
         </is>
       </c>
     </row>
@@ -15583,7 +15583,7 @@
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>0.34223744409038515</t>
+          <t>0.310265227877228</t>
         </is>
       </c>
     </row>
@@ -15600,7 +15600,7 @@
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>0.336656766246811</t>
+          <t>0.3539311070930506</t>
         </is>
       </c>
     </row>
@@ -15617,7 +15617,7 @@
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>0.336656766246811</t>
+          <t>0.3539311070930506</t>
         </is>
       </c>
     </row>
@@ -15634,7 +15634,7 @@
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>0.35165702452722297</t>
+          <t>0.35030750111361636</t>
         </is>
       </c>
     </row>
@@ -15651,7 +15651,7 @@
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>0.36067699164225475</t>
+          <t>0.38160342021360144</t>
         </is>
       </c>
     </row>
@@ -15668,7 +15668,7 @@
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>0.304014567611255</t>
+          <t>0.3217867383186353</t>
         </is>
       </c>
     </row>
@@ -15685,7 +15685,7 @@
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>0.36067699164225475</t>
+          <t>0.4644516238010518</t>
         </is>
       </c>
     </row>
@@ -15702,7 +15702,7 @@
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>0.4091382489814107</t>
+          <t>0.32840447474181494</t>
         </is>
       </c>
     </row>
@@ -15719,7 +15719,7 @@
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>0.31646957815784643</t>
+          <t>0.3259902594810524</t>
         </is>
       </c>
     </row>
@@ -15736,7 +15736,7 @@
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>0.3708065754362771</t>
+          <t>0.3644192920740437</t>
         </is>
       </c>
     </row>
@@ -15753,7 +15753,7 @@
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.8906461746019684</t>
         </is>
       </c>
     </row>
@@ -15770,7 +15770,7 @@
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9039159615640504</t>
         </is>
       </c>
     </row>
@@ -15787,7 +15787,7 @@
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>0.6378946588572293</t>
+          <t>0.671408868282259</t>
         </is>
       </c>
     </row>
@@ -15804,7 +15804,7 @@
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.8197392315961142</t>
         </is>
       </c>
     </row>
@@ -15821,7 +15821,7 @@
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9379113496604994</t>
         </is>
       </c>
     </row>
@@ -15838,7 +15838,7 @@
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9379113496604994</t>
         </is>
       </c>
     </row>
@@ -15855,7 +15855,7 @@
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>0.456268565026677</t>
+          <t>0.40976123794046226</t>
         </is>
       </c>
     </row>
@@ -15872,7 +15872,7 @@
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>0.505713876465915</t>
+          <t>0.4465930686210228</t>
         </is>
       </c>
     </row>
@@ -15889,7 +15889,7 @@
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>0.5033474771713162</t>
+          <t>0.5090140583989757</t>
         </is>
       </c>
     </row>
@@ -15906,7 +15906,7 @@
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>0.505713876465915</t>
+          <t>0.4251936652092417</t>
         </is>
       </c>
     </row>
@@ -15923,7 +15923,7 @@
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>0.46296607660926575</t>
+          <t>0.3690933577150662</t>
         </is>
       </c>
     </row>
@@ -15940,7 +15940,7 @@
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>0.521091531273101</t>
+          <t>0.44134780602774515</t>
         </is>
       </c>
     </row>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>0.45941664262327153</t>
+          <t>0.4497971915286462</t>
         </is>
       </c>
     </row>
@@ -15974,7 +15974,7 @@
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9560898739101289</t>
         </is>
       </c>
     </row>
@@ -15991,7 +15991,7 @@
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>0.5934488424660225</t>
+          <t>0.5598276743912799</t>
         </is>
       </c>
     </row>
@@ -16008,7 +16008,7 @@
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>0.9425223664137268</t>
+          <t>0.8495152666899335</t>
         </is>
       </c>
     </row>
@@ -16025,7 +16025,7 @@
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9560898739101291</t>
         </is>
       </c>
     </row>
@@ -16042,7 +16042,7 @@
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9560898739101291</t>
         </is>
       </c>
     </row>
@@ -16059,7 +16059,7 @@
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>0.38106424882617895</t>
+          <t>0.358686911624266</t>
         </is>
       </c>
     </row>
@@ -16076,7 +16076,7 @@
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>0.301074061972341</t>
+          <t>0.2410264455422596</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>0.5572838881088523</t>
+          <t>0.6530260151092797</t>
         </is>
       </c>
     </row>
@@ -16110,7 +16110,7 @@
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>0.3820454765072633</t>
+          <t>0.39799147590399453</t>
         </is>
       </c>
     </row>
@@ -16127,7 +16127,7 @@
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>0.3046023875029841</t>
+          <t>0.31041177734636405</t>
         </is>
       </c>
     </row>
@@ -16144,7 +16144,7 @@
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>0.6157129464991861</t>
+          <t>0.6156690652986452</t>
         </is>
       </c>
     </row>
@@ -16161,7 +16161,7 @@
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>0.3854699400483852</t>
+          <t>0.2832559044584453</t>
         </is>
       </c>
     </row>
@@ -16178,7 +16178,7 @@
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>0.540198322051616</t>
+          <t>0.5146051512414769</t>
         </is>
       </c>
     </row>
@@ -16195,7 +16195,7 @@
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>0.9123615008599151</t>
+          <t>0.9425223664137268</t>
         </is>
       </c>
     </row>
@@ -16246,7 +16246,7 @@
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>0.3802946383669856</t>
+          <t>0.46295900358254644</t>
         </is>
       </c>
     </row>
@@ -16263,7 +16263,7 @@
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>0.24885226246036488</t>
+          <t>0.33899005050269987</t>
         </is>
       </c>
     </row>
@@ -16280,7 +16280,7 @@
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>0.3712233581267917</t>
+          <t>0.43885668731950184</t>
         </is>
       </c>
     </row>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>0.38539391644221266</t>
+          <t>0.40551063725218184</t>
         </is>
       </c>
     </row>
@@ -16314,7 +16314,7 @@
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>0.3278845967336977</t>
+          <t>0.26487957114289706</t>
         </is>
       </c>
     </row>
@@ -16331,7 +16331,7 @@
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>0.4868014650080815</t>
+          <t>0.41881657517866605</t>
         </is>
       </c>
     </row>
@@ -16348,7 +16348,7 @@
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>0.38560340106128194</t>
+          <t>0.2875671166107163</t>
         </is>
       </c>
     </row>
@@ -16365,7 +16365,7 @@
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>0.5984355965863613</t>
+          <t>0.5924959680339518</t>
         </is>
       </c>
     </row>
@@ -16382,7 +16382,7 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>0.7909745826306522</t>
+          <t>0.6595235476717154</t>
         </is>
       </c>
     </row>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>0.768961535838385</t>
+          <t>0.7001533857477272</t>
         </is>
       </c>
     </row>
@@ -16416,7 +16416,7 @@
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>0.3331463338025204</t>
+          <t>0.44788468293214273</t>
         </is>
       </c>
     </row>
@@ -16433,7 +16433,7 @@
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>0.27364663293879676</t>
+          <t>0.38791874479166993</t>
         </is>
       </c>
     </row>
@@ -16450,7 +16450,7 @@
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>0.43097088016431934</t>
+          <t>0.41893861516182446</t>
         </is>
       </c>
     </row>
@@ -16467,7 +16467,7 @@
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>0.27364663293879676</t>
+          <t>0.3042965212338798</t>
         </is>
       </c>
     </row>
@@ -16484,7 +16484,7 @@
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>0.46443821126029955</t>
+          <t>0.3967872016295838</t>
         </is>
       </c>
     </row>
@@ -16501,7 +16501,7 @@
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>0.4668932927427982</t>
+          <t>0.43507844224879244</t>
         </is>
       </c>
     </row>
@@ -16518,7 +16518,7 @@
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>0.7066882055259132</t>
+          <t>0.5112732962123132</t>
         </is>
       </c>
     </row>
@@ -16569,7 +16569,7 @@
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>0.40594731998092665</t>
+          <t>0.41569332607866494</t>
         </is>
       </c>
     </row>
@@ -16586,7 +16586,7 @@
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>0.39460532946326987</t>
+          <t>0.4723229168657737</t>
         </is>
       </c>
     </row>
@@ -16603,7 +16603,7 @@
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>0.4677953251480527</t>
+          <t>0.42353084207270364</t>
         </is>
       </c>
     </row>
@@ -16620,7 +16620,7 @@
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>0.39460532946326987</t>
+          <t>0.3935006596650816</t>
         </is>
       </c>
     </row>
@@ -16637,7 +16637,7 @@
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>0.42257478601105</t>
+          <t>0.32234571554647057</t>
         </is>
       </c>
     </row>
@@ -16654,7 +16654,7 @@
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>0.48412042306617376</t>
+          <t>0.40045818845854997</t>
         </is>
       </c>
     </row>
@@ -16671,7 +16671,7 @@
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>0.44422637606167525</t>
+          <t>0.40565083888681247</t>
         </is>
       </c>
     </row>
@@ -16705,7 +16705,7 @@
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>0.36859897373106254</t>
+          <t>0.3691284084525734</t>
         </is>
       </c>
     </row>
@@ -16722,7 +16722,7 @@
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>0.2980510420755993</t>
+          <t>0.3278537995598729</t>
         </is>
       </c>
     </row>
@@ -16739,7 +16739,7 @@
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>0.4826912129608491</t>
+          <t>0.463470634894177</t>
         </is>
       </c>
     </row>
@@ -16756,7 +16756,7 @@
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>0.40309720013751593</t>
+          <t>0.43681898949460113</t>
         </is>
       </c>
     </row>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>0.4072721937523894</t>
+          <t>0.33486853200657357</t>
         </is>
       </c>
     </row>
@@ -16790,7 +16790,7 @@
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>0.516429718109805</t>
+          <t>0.4430078867813132</t>
         </is>
       </c>
     </row>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>0.45707838803921474</t>
+          <t>0.4195232810776591</t>
         </is>
       </c>
     </row>
@@ -16824,7 +16824,7 @@
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>0.33773922855538513</t>
+          <t>0.3615950220848378</t>
         </is>
       </c>
     </row>
@@ -16841,7 +16841,7 @@
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>0.3207821148504633</t>
+          <t>0.336434216730509</t>
         </is>
       </c>
     </row>
@@ -16858,7 +16858,7 @@
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>0.45810589515712385</t>
+          <t>0.5017391627326212</t>
         </is>
       </c>
     </row>
@@ -16875,7 +16875,7 @@
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>0.40309720013751593</t>
+          <t>0.43681898949460113</t>
         </is>
       </c>
     </row>
@@ -16892,7 +16892,7 @@
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>0.3767206952821235</t>
+          <t>0.437852373676451</t>
         </is>
       </c>
     </row>
@@ -16909,7 +16909,7 @@
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>0.5550282788896295</t>
+          <t>0.5475286574799819</t>
         </is>
       </c>
     </row>
@@ -16926,7 +16926,7 @@
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>0.5083952927663481</t>
+          <t>0.512099388296828</t>
         </is>
       </c>
     </row>
@@ -16943,7 +16943,7 @@
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>0.7290221408342479</t>
+          <t>0.7523782927218439</t>
         </is>
       </c>
     </row>
@@ -16960,7 +16960,7 @@
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>0.5462898381804455</t>
+          <t>0.487795216798126</t>
         </is>
       </c>
     </row>
@@ -16977,7 +16977,7 @@
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>0.9319595193537077</t>
+          <t>0.9414997629840374</t>
         </is>
       </c>
     </row>
@@ -16994,7 +16994,7 @@
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>0.19624809574175175</t>
+          <t>0.22155602858030923</t>
         </is>
       </c>
     </row>
@@ -17011,7 +17011,7 @@
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>0.4923859028931846</t>
+          <t>0.36611166057459</t>
         </is>
       </c>
     </row>
@@ -17028,7 +17028,7 @@
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>0.270952553082202</t>
+          <t>0.26405582795160104</t>
         </is>
       </c>
     </row>
@@ -17045,7 +17045,7 @@
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>0.33202591270950094</t>
+          <t>0.3940704671223554</t>
         </is>
       </c>
     </row>
@@ -17079,7 +17079,7 @@
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>0.36295876315223474</t>
+          <t>0.39887899675754757</t>
         </is>
       </c>
     </row>
@@ -17096,7 +17096,7 @@
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>0.23403522798521162</t>
+          <t>0.29221132704461056</t>
         </is>
       </c>
     </row>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>0.270655479479481</t>
+          <t>0.2736471460730328</t>
         </is>
       </c>
     </row>
@@ -17130,7 +17130,7 @@
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>0.7007124430165569</t>
+          <t>0.6830527498329857</t>
         </is>
       </c>
     </row>
@@ -17147,7 +17147,7 @@
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>0.17102867078717549</t>
+          <t>0.2006282043592498</t>
         </is>
       </c>
     </row>
@@ -17164,7 +17164,7 @@
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>0.5420719659373044</t>
+          <t>0.5717177373519032</t>
         </is>
       </c>
     </row>
@@ -17181,7 +17181,7 @@
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>0.20401226724621746</t>
+          <t>0.24545032072899012</t>
         </is>
       </c>
     </row>
@@ -17198,7 +17198,7 @@
       </c>
       <c r="C986" t="inlineStr">
         <is>
-          <t>0.31851352951938455</t>
+          <t>0.4425726241244482</t>
         </is>
       </c>
     </row>
@@ -17215,7 +17215,7 @@
       </c>
       <c r="C987" t="inlineStr">
         <is>
-          <t>0.4721261377104422</t>
+          <t>0.5217031478760714</t>
         </is>
       </c>
     </row>
@@ -17232,7 +17232,7 @@
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>0.270655479479481</t>
+          <t>0.255991514118277</t>
         </is>
       </c>
     </row>
@@ -17249,7 +17249,7 @@
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>0.22913345153085363</t>
+          <t>0.24618554470514628</t>
         </is>
       </c>
     </row>
@@ -17266,7 +17266,7 @@
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>0.27065055436937135</t>
+          <t>0.24694182228042086</t>
         </is>
       </c>
     </row>
@@ -17283,11 +17283,11 @@
       </c>
       <c r="C991" t="inlineStr">
         <is>
-          <t>0.29865530620046904</t>
+          <t>0.2681794836166321</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/correlation-values.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/correlation-values.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="MIC" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MIC" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -470,7 +470,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9373889204053751</t>
+          <t>0.954635299543599</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.6253009773857571</t>
+          <t>0.7148881462351875</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9983636725938129</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.173526319806046</t>
+          <t>0.19755785170995915</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.22398617238790722</t>
+          <t>0.24078738652843237</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.31462117736918466</t>
+          <t>0.37413280322597214</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.22920257780568293</t>
+          <t>0.24078738652843237</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.45811742946522366</t>
+          <t>0.5756676449959574</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.42676805011896857</t>
+          <t>0.3826521727059141</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.22398617238790722</t>
+          <t>0.2541833949159426</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.47016390848259393</t>
+          <t>0.4519498145020462</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.2763627918536014</t>
+          <t>0.3350668046817207</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.22398617238790722</t>
+          <t>0.24078738652843237</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.5999877700099879</t>
+          <t>0.53590948770304</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.5332542727521933</t>
+          <t>0.6292271769356287</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.5332542727521933</t>
+          <t>0.6292271769356287</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.43687857212736175</t>
+          <t>0.5428479137837365</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.5332542727521933</t>
+          <t>0.6292271769356287</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.41242637969322304</t>
+          <t>0.5055108718194654</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.43687857212736175</t>
+          <t>0.5428479137837365</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.5207296216990047</t>
+          <t>0.6225509733003604</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.41242637969322304</t>
+          <t>0.5199595912367255</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.47186751199903987</t>
+          <t>0.5801787489488576</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.5126517666598237</t>
+          <t>0.6041184781729549</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.47186751199903987</t>
+          <t>0.5801787489488576</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.6248610442965365</t>
+          <t>0.7642039498928618</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.3283107742606734</t>
+          <t>0.3825860929196666</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.479622796540005</t>
+          <t>0.5715432459888516</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.4555514715167118</t>
+          <t>0.5105544535606018</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.32159288959292814</t>
+          <t>0.414448847476798</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.5158416157089437</t>
+          <t>0.522809933503755</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.4049265855874318</t>
+          <t>0.47017739160776706</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.431611215629259</t>
+          <t>0.39178274164832066</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.3638251965207934</t>
+          <t>0.45789407293545287</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.3996163753578973</t>
+          <t>0.39856457674055584</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.3848790520148435</t>
+          <t>0.49886223957897563</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.38351667398890693</t>
+          <t>0.4168889417390537</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9983636725938129</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.74024972976623</t>
+          <t>0.8165219710173579</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.6253009773857571</t>
+          <t>0.7148881462351875</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9983636725938129</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.173526319806046</t>
+          <t>0.19755785170995915</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.5126517666598237</t>
+          <t>0.6041184781729549</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.21625236317971974</t>
+          <t>0.2900351930497638</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.3486743584442944</t>
+          <t>0.5000866997699275</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.9256859869821294</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.41224007361264176</t>
+          <t>0.5127031746288467</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.4207713579580182</t>
+          <t>0.5163188697194604</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.25966164333021574</t>
+          <t>0.4197260752731704</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.4207713579580182</t>
+          <t>0.5163188697194604</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.35513353391188035</t>
+          <t>0.5561009994387924</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.3520311737652125</t>
+          <t>0.4409754795801024</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.4207713579580182</t>
+          <t>0.5163188697194604</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.3364041531489864</t>
+          <t>0.5295962972898471</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.5210201939381118</t>
+          <t>0.6328295080933338</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.4207713579580182</t>
+          <t>0.5163188697194604</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.63820702446472</t>
+          <t>0.7149571010081249</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.181863450260829</t>
+          <t>0.32564989166487246</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.181863450260829</t>
+          <t>0.32564989166487246</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.26382645042638475</t>
+          <t>0.35720777580559815</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.181863450260829</t>
+          <t>0.32564989166487246</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.2155308268944402</t>
+          <t>0.3533073989093317</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0.26382645042638475</t>
+          <t>0.35720777580559815</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.181863450260829</t>
+          <t>0.32564989166487246</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.2155308268944402</t>
+          <t>0.28670141798710524</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0.30111688319404506</t>
+          <t>0.42861520040417705</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.181863450260829</t>
+          <t>0.32564989166487246</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.30111688319404506</t>
+          <t>0.42861520040417705</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.5866055264170354</t>
+          <t>0.8522503803609405</t>
         </is>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.41581810529819163</t>
+          <t>0.4046559786742157</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.46438455155937886</t>
+          <t>0.6740007859924494</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.43137386343968404</t>
+          <t>0.6352368632199117</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.41231533021022293</t>
+          <t>0.312751636562777</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.43547538662296265</t>
+          <t>0.6152363949742523</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0.34778696503378737</t>
+          <t>0.3953724234608747</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0.373036640705476</t>
+          <t>0.3465610009379516</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0.3188614350113832</t>
+          <t>0.34630002694291867</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0.40905047104121883</t>
+          <t>0.4013447160560791</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0.35845110404408914</t>
+          <t>0.4668793385600661</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0.30445229093075243</t>
+          <t>0.4266933510580405</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0.9373889204053751</t>
+          <t>0.954635299543599</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0.998509098917632</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0.3486743584442944</t>
+          <t>0.5000866997699275</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0.9545454545454541</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0.4122400736126418</t>
+          <t>0.5127031746288467</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0.2504968718733361</t>
+          <t>0.32564989166487246</t>
         </is>
       </c>
     </row>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0.24436140293678216</t>
+          <t>0.28665606943615307</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.23761122584701336</t>
+          <t>0.47303215618255384</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0.1686020404544231</t>
+          <t>0.20894377738414507</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0.1645880419970547</t>
+          <t>0.15357320137094524</t>
         </is>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0.29235823708049247</t>
+          <t>0.3353966885149807</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0.1645880419970547</t>
+          <t>0.15357320137094524</t>
         </is>
       </c>
     </row>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0.34897835935360094</t>
+          <t>0.43364136066036635</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0.3068197143690098</t>
+          <t>0.32450509286699825</t>
         </is>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0.1645880419970547</t>
+          <t>0.15357320137094524</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0.3312984143318094</t>
+          <t>0.3769409211823908</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0.20727539806204773</t>
+          <t>0.1627155831712404</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0.1645880419970547</t>
+          <t>0.15357320137094524</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0.15953405120724046</t>
+          <t>0.1587729291109816</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.6253009773857571</t>
+          <t>0.7082119425999194</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0.6253009773857571</t>
+          <t>0.7082119425999194</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>0.43687857212736175</t>
+          <t>0.4931285322331685</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>0.5626898977911327</t>
+          <t>0.6629562793532694</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>0.5191352656096953</t>
+          <t>0.7116109233184235</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0.43687857212736175</t>
+          <t>0.484429617863956</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>0.5207296216990047</t>
+          <t>0.6261563939499927</t>
         </is>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>0.4750318513003837</t>
+          <t>0.6157086379221312</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>0.47186751199903987</t>
+          <t>0.5368569052833821</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>0.5126517666598236</t>
+          <t>0.5699480893391555</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>0.5546248503882224</t>
+          <t>0.7092898346710996</t>
         </is>
       </c>
     </row>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>0.6091521072677788</t>
+          <t>0.7138672085502374</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>0.30980757122154134</t>
+          <t>0.4174525357228982</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0.4839299480785302</t>
+          <t>0.6154587809277017</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>0.408639311106579</t>
+          <t>0.5487083623079247</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>0.2526263090558348</t>
+          <t>0.3996024176010812</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>0.4426818379084672</t>
+          <t>0.5483399343392193</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0.5928842098846943</t>
+          <t>0.7029155270281294</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>0.37770771113044466</t>
+          <t>0.4929324319859154</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>0.3189027409784027</t>
+          <t>0.40733046544895657</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>0.3678811523871915</t>
+          <t>0.4774785046410294</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>0.433191935230579</t>
+          <t>0.5126525674649292</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>0.38782796319047586</t>
+          <t>0.5317930024070758</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>0.6367966173615941</t>
+          <t>0.7148881462351875</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>0.4436039340964991</t>
+          <t>0.48289161707715866</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>0.7732266742876339</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>0.7732266742876339</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>0.1686020404544231</t>
+          <t>0.20894377738414507</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>0.5331897691039258</t>
+          <t>0.663963071979175</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>0.20278980478229267</t>
+          <t>0.2644358860625594</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>0.43856961206745904</t>
+          <t>0.5309036418355016</t>
         </is>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>0.4597466416912149</t>
+          <t>0.5731149228243761</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>0.41077725000728343</t>
+          <t>0.46540241086425993</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>0.4597466416912149</t>
+          <t>0.5731149228243761</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>0.44245113670490044</t>
+          <t>0.5561009994387924</t>
         </is>
       </c>
     </row>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>0.4572774794035325</t>
+          <t>0.4409754795801024</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>0.4597466416912149</t>
+          <t>0.5731149228243761</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>0.42355393659218304</t>
+          <t>0.5295962972898471</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>0.47533750781186196</t>
+          <t>0.5562130522802231</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>0.4597466416912149</t>
+          <t>0.5731149228243761</t>
         </is>
       </c>
     </row>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>0.6452354437627993</t>
+          <t>0.8035558981254178</t>
         </is>
       </c>
     </row>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>0.22890214863594036</t>
+          <t>0.4020243453491797</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>0.22890214863594044</t>
+          <t>0.40202434534917986</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>0.3151370429050365</t>
+          <t>0.47351647510556333</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>0.22890214863594044</t>
+          <t>0.40202434534917986</t>
         </is>
       </c>
     </row>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>0.3617357465517365</t>
+          <t>0.43521980311057235</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>0.3151370429050365</t>
+          <t>0.47351647510556333</t>
         </is>
       </c>
     </row>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>0.22890214863594044</t>
+          <t>0.40202434534917986</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>0.2638777304391897</t>
+          <t>0.4019766279155936</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>0.38268446625998864</t>
+          <t>0.5569250239305233</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>0.22890214863594044</t>
+          <t>0.40202434534917986</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>0.38268446625998864</t>
+          <t>0.5569250239305233</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>0.6402553071250262</t>
+          <t>0.8522503803609405</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>0.42179737010614254</t>
+          <t>0.4046559786742157</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>0.49398494303430845</t>
+          <t>0.6740007859924494</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>0.5375337376000727</t>
+          <t>0.6352368632199117</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>0.47925887765356184</t>
+          <t>0.47811066052432094</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>0.4131729523467402</t>
+          <t>0.6152363949742523</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>0.34293879418107387</t>
+          <t>0.4177064679007876</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>0.3916197464487753</t>
+          <t>0.4042945609881804</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>0.3104498432117759</t>
+          <t>0.34747679215832034</t>
         </is>
       </c>
     </row>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>0.3881303767720645</t>
+          <t>0.4042945609881804</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>0.3566539420399926</t>
+          <t>0.4668793385600661</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>0.34293879418107387</t>
+          <t>0.4266933510580405</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9983636725938129</t>
         </is>
       </c>
     </row>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>0.8732869397283834</t>
+          <t>0.9560898739101291</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>0.23761122584701336</t>
+          <t>0.47303215618255384</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>0.9545454545454541</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>0.43856961206745904</t>
+          <t>0.5309036418355016</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>0.22890214863594044</t>
+          <t>0.40202434534917986</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>0.22031717278511667</t>
+          <t>0.28665606943615307</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>0.3999395575083759</t>
+          <t>0.44095647355654227</t>
         </is>
       </c>
     </row>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>0.4433349173834442</t>
+          <t>0.578088439754593</t>
         </is>
       </c>
     </row>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>0.33725436787674695</t>
+          <t>0.36337089045331267</t>
         </is>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>0.3928523879166123</t>
+          <t>0.4418536735667695</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>0.21127517078201827</t>
+          <t>0.2507915352042477</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>0.38213308143379515</t>
+          <t>0.4510034246105668</t>
         </is>
       </c>
     </row>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>0.2169664208744548</t>
+          <t>0.2578035345308587</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>0.2169664208744548</t>
+          <t>0.25780353453085914</t>
         </is>
       </c>
     </row>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>0.22934480026848797</t>
+          <t>0.27127824161302255</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>0.19893395235386416</t>
+          <t>0.24548668393693546</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>0.2916663836264264</t>
+          <t>0.3436442285029989</t>
         </is>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>0.22934480026848797</t>
+          <t>0.27127824161302255</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>0.19893395235386416</t>
+          <t>0.24548668393693546</t>
         </is>
       </c>
     </row>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>0.29166638362642633</t>
+          <t>0.34364422850299886</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>0.21365162337667448</t>
+          <t>0.2533756357519133</t>
         </is>
       </c>
     </row>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>0.19893395235386416</t>
+          <t>0.24548668393693546</t>
         </is>
       </c>
     </row>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>0.23441964015946307</t>
+          <t>0.2845206727574669</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>0.2552209094171099</t>
+          <t>0.3473887699575347</t>
         </is>
       </c>
     </row>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>0.30871623292448114</t>
+          <t>0.3477783984578286</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>0.33500416882741313</t>
+          <t>0.42770828137352684</t>
         </is>
       </c>
     </row>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>0.37579418340413373</t>
+          <t>0.3494303868617336</t>
         </is>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>0.2229658838334019</t>
+          <t>0.2687499179593845</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>0.3088009180125802</t>
+          <t>0.4471742512810562</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>0.2649023148518554</t>
+          <t>0.29114716854259876</t>
         </is>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>0.21276607186438581</t>
+          <t>0.2981611106030612</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>0.40618544651459076</t>
+          <t>0.3765001858869249</t>
         </is>
       </c>
     </row>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>0.2807989290550851</t>
+          <t>0.31571105829482743</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>0.26191297606102093</t>
+          <t>0.31403152086999003</t>
         </is>
       </c>
     </row>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>0.2289809407990933</t>
+          <t>0.36370050938568116</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>0.10306031792185334</t>
+          <t>0.18646802038688798</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>0.332812534195959</t>
+          <t>0.42603399094958966</t>
         </is>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>0.1686020404544231</t>
+          <t>0.20894377738414507</t>
         </is>
       </c>
     </row>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>0.366421609271653</t>
+          <t>0.4416525341971574</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>0.9256859869821294</t>
+          <t>0.9468188316776022</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>0.21696642087445456</t>
+          <t>0.26083318805225364</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>0.20663187186322177</t>
+          <t>0.22564652359495185</t>
         </is>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>0.4322755863353964</t>
+          <t>0.4489486003019205</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>0.4950971501257681</t>
+          <t>0.5634975534769824</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>0.4198787320449225</t>
+          <t>0.4158015886752176</t>
         </is>
       </c>
     </row>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>0.4354025298045303</t>
+          <t>0.536498804817364</t>
         </is>
       </c>
     </row>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>0.21127517078201827</t>
+          <t>0.21995458943518553</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>0.4380873840933664</t>
+          <t>0.5209326478490961</t>
         </is>
       </c>
     </row>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>0.19893395235386424</t>
+          <t>0.21258293825892755</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>0.19893395235386424</t>
+          <t>0.21258293825892763</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>0.2293448002684878</t>
+          <t>0.21933784789392138</t>
         </is>
       </c>
     </row>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>0.19893395235386424</t>
+          <t>0.18204272258992132</t>
         </is>
       </c>
     </row>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>0.26837367943927554</t>
+          <t>0.2984236322310678</t>
         </is>
       </c>
     </row>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>0.2293448002684878</t>
+          <t>0.21933784789392138</t>
         </is>
       </c>
     </row>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>0.19893395235386424</t>
+          <t>0.18204272258992132</t>
         </is>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>0.2683736794392755</t>
+          <t>0.2984236322310679</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>0.21365162337667465</t>
+          <t>0.19398455795401462</t>
         </is>
       </c>
     </row>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>0.19893395235386424</t>
+          <t>0.18204272258992132</t>
         </is>
       </c>
     </row>
@@ -4363,7 +4363,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>0.21365162337667465</t>
+          <t>0.23930007648553578</t>
         </is>
       </c>
     </row>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>0.33486741007043236</t>
+          <t>0.4587908933794657</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>0.32675337647107294</t>
+          <t>0.368787446018571</t>
         </is>
       </c>
     </row>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>0.3757317878798618</t>
+          <t>0.5370168516652402</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>0.35910162564854914</t>
+          <t>0.322388314839432</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>0.24512772510079694</t>
+          <t>0.31947123520887455</t>
         </is>
       </c>
     </row>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>0.3657444301525013</t>
+          <t>0.4397260287056144</t>
         </is>
       </c>
     </row>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>0.29448845672991625</t>
+          <t>0.3455295020416162</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>0.2628326125426272</t>
+          <t>0.3869739640227722</t>
         </is>
       </c>
     </row>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>0.40298633112911303</t>
+          <t>0.40073246032336807</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>0.29327915233145674</t>
+          <t>0.36471760013886634</t>
         </is>
       </c>
     </row>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>0.25995632173587985</t>
+          <t>0.3678194765940396</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>0.29327915233145674</t>
+          <t>0.4243254884942007</t>
         </is>
       </c>
     </row>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>0.1613750927932827</t>
+          <t>0.18531923311697687</t>
         </is>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>0.2653356079533881</t>
+          <t>0.3774131780308531</t>
         </is>
       </c>
     </row>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>0.1645880419970547</t>
+          <t>0.15357320137094524</t>
         </is>
       </c>
     </row>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>0.32525514673937345</t>
+          <t>0.4498220860494694</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>0.19893395235386424</t>
+          <t>0.21258293825892768</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>0.2120516794133887</t>
+          <t>0.22088528756633286</t>
         </is>
       </c>
     </row>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>0.4322755863353964</t>
+          <t>0.4489486003019205</t>
         </is>
       </c>
     </row>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>0.9530545534630865</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>0.998509098917632</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>0.4322755863353964</t>
+          <t>0.4489486003019205</t>
         </is>
       </c>
     </row>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>0.998509098917632</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>0.7003753317292407</t>
+          <t>0.9983636725938129</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>0.4322755863353964</t>
+          <t>0.4489486003019205</t>
         </is>
       </c>
     </row>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>0.5168721843641763</t>
+          <t>0.7581959327577178</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>0.3468449298015905</t>
+          <t>0.3882438142267913</t>
         </is>
       </c>
     </row>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>0.3468449298015903</t>
+          <t>0.38824381422679133</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>0.5176481261263349</t>
+          <t>0.446480697460745</t>
         </is>
       </c>
     </row>
@@ -4890,7 +4890,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>0.34684492980159054</t>
+          <t>0.38824381422679133</t>
         </is>
       </c>
     </row>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>0.5340057884235802</t>
+          <t>0.4884765383476337</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>0.5176481261263349</t>
+          <t>0.446480697460745</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>0.3468449298015905</t>
+          <t>0.3882438142267917</t>
         </is>
       </c>
     </row>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>0.5214939352070541</t>
+          <t>0.5202225700936652</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>0.4546994164854574</t>
+          <t>0.4643145049035332</t>
         </is>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>0.2911506163329594</t>
+          <t>0.34632222088317566</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>0.4546994164854574</t>
+          <t>0.4719126785820207</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>0.7853292836497768</t>
+          <t>0.8573392579728359</t>
         </is>
       </c>
     </row>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>0.8651266050161187</t>
+          <t>0.7926477715661455</t>
         </is>
       </c>
     </row>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>0.998509098917632</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>0.7166394773129264</t>
+          <t>0.8019707319331975</t>
         </is>
       </c>
     </row>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>0.47270070148343235</t>
+          <t>0.37899534463713713</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>0.6790234594652078</t>
+          <t>0.8299986157969532</t>
         </is>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>0.8780456892512382</t>
+          <t>0.9190854481162107</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>0.8803897222591717</t>
+          <t>0.8686331278097014</t>
         </is>
       </c>
     </row>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>0.4980114347309368</t>
+          <t>0.5046867498057843</t>
         </is>
       </c>
     </row>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>0.7356046331342138</t>
+          <t>0.8760044523606563</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>0.8803897222591717</t>
+          <t>0.9253745019461711</t>
         </is>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>0.8718776960834081</t>
+          <t>0.9379113496604994</t>
         </is>
       </c>
     </row>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>0.31462117736918443</t>
+          <t>0.37413280322597214</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>0.3434344831249889</t>
+          <t>0.39857205129193873</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>0.29235823708049247</t>
+          <t>0.3353966885149807</t>
         </is>
       </c>
     </row>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>0.37310219335054967</t>
+          <t>0.4244299448194171</t>
         </is>
       </c>
     </row>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>0.3999395575083759</t>
+          <t>0.3615662408219133</t>
         </is>
       </c>
     </row>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>0.3468449298015905</t>
+          <t>0.3564977824807596</t>
         </is>
       </c>
     </row>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>0.18515050759453022</t>
+          <t>0.2693682556481319</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>0.4950971501257681</t>
+          <t>0.5634975534769824</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>0.3600147636250067</t>
+          <t>0.4517486125877636</t>
         </is>
       </c>
     </row>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>0.4354025298045303</t>
+          <t>0.536498804817364</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>0.2261620351468728</t>
+          <t>0.2543164471555113</t>
         </is>
       </c>
     </row>
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>0.4380873840933664</t>
+          <t>0.5209326478490961</t>
         </is>
       </c>
     </row>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>0.19367371668730396</t>
+          <t>0.21258293825892755</t>
         </is>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>0.19367371668730388</t>
+          <t>0.21258293825892763</t>
         </is>
       </c>
     </row>
@@ -5502,7 +5502,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>0.1667337206738637</t>
+          <t>0.20735550658973934</t>
         </is>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>0.13632287275923974</t>
+          <t>0.17006038128573947</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>0.26837367943927554</t>
+          <t>0.2984236322310678</t>
         </is>
       </c>
     </row>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>0.1667337206738637</t>
+          <t>0.20735550658973934</t>
         </is>
       </c>
     </row>
@@ -5570,7 +5570,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>0.13632287275923974</t>
+          <t>0.17006038128573947</t>
         </is>
       </c>
     </row>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>0.2683736794392755</t>
+          <t>0.2984236322310679</t>
         </is>
       </c>
     </row>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>0.15104054378205028</t>
+          <t>0.18200221664983282</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>0.13632287275923974</t>
+          <t>0.17006038128573947</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>0.21112693597231222</t>
+          <t>0.23930007648553578</t>
         </is>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>0.33486741007043236</t>
+          <t>0.4587908933794657</t>
         </is>
       </c>
     </row>
@@ -5672,7 +5672,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>0.39087933122226404</t>
+          <t>0.46125632916264636</t>
         </is>
       </c>
     </row>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>0.3757317878798618</t>
+          <t>0.5370168516652402</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>0.35250147921698277</t>
+          <t>0.34985916928134986</t>
         </is>
       </c>
     </row>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>0.24512772510079694</t>
+          <t>0.31947123520887455</t>
         </is>
       </c>
     </row>
@@ -5740,7 +5740,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>0.4055837787312738</t>
+          <t>0.4397260287056144</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>0.35209211464906015</t>
+          <t>0.34985916928134997</t>
         </is>
       </c>
     </row>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>0.3679194155307135</t>
+          <t>0.3869739640227722</t>
         </is>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>0.4768349689126621</t>
+          <t>0.40073246032336807</t>
         </is>
       </c>
     </row>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>0.2849944255905411</t>
+          <t>0.394185559407791</t>
         </is>
       </c>
     </row>
@@ -5825,7 +5825,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>0.3856644714391834</t>
+          <t>0.3835043629039083</t>
         </is>
       </c>
     </row>
@@ -5842,7 +5842,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>0.3679194155307135</t>
+          <t>0.4243254884942007</t>
         </is>
       </c>
     </row>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>0.22920257780568293</t>
+          <t>0.2177364844952045</t>
         </is>
       </c>
     </row>
@@ -5876,7 +5876,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>0.2634485380114402</t>
+          <t>0.3774131780308531</t>
         </is>
       </c>
     </row>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>0.1645880419970547</t>
+          <t>0.15357320137094524</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>0.32525514673937345</t>
+          <t>0.4498220860494694</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -5944,7 +5944,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>0.19367371668730396</t>
+          <t>0.21258293825892768</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>0.2120516794133887</t>
+          <t>0.22088528756633286</t>
         </is>
       </c>
     </row>
@@ -5978,7 +5978,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>0.9164718154077045</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>0.4950971501257681</t>
+          <t>0.5634975534769824</t>
         </is>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>0.5528702181912163</t>
+          <t>0.6395556341875601</t>
         </is>
       </c>
     </row>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>0.4950971501257681</t>
+          <t>0.5634975534769824</t>
         </is>
       </c>
     </row>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>0.6032721091064389</t>
+          <t>0.7434751465197066</t>
         </is>
       </c>
     </row>
@@ -6080,7 +6080,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>0.30437527860856634</t>
+          <t>0.38924031658522934</t>
         </is>
       </c>
     </row>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>0.29075477154951945</t>
+          <t>0.38924031658522934</t>
         </is>
       </c>
     </row>
@@ -6114,7 +6114,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>0.4898111629058842</t>
+          <t>0.4778540706077184</t>
         </is>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>0.2802197626597045</t>
+          <t>0.3817202298523469</t>
         </is>
       </c>
     </row>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>0.46143169473991896</t>
+          <t>0.5267377327528151</t>
         </is>
       </c>
     </row>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>0.4898111629058842</t>
+          <t>0.4778540706077184</t>
         </is>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>0.3043752786085665</t>
+          <t>0.3817202298523469</t>
         </is>
       </c>
     </row>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>0.46143169473991896</t>
+          <t>0.5267377327528151</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>0.43432221302546303</t>
+          <t>0.5080428779537469</t>
         </is>
       </c>
     </row>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>0.2802197626597045</t>
+          <t>0.3817202298523469</t>
         </is>
       </c>
     </row>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>0.43432221302546303</t>
+          <t>0.5080428779537469</t>
         </is>
       </c>
     </row>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>0.7868201847321444</t>
+          <t>0.8058791336588795</t>
         </is>
       </c>
     </row>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>0.8970607951595265</t>
+          <t>0.6832762852297066</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -6318,7 +6318,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>0.7035103037093104</t>
+          <t>0.8452890803966985</t>
         </is>
       </c>
     </row>
@@ -6335,7 +6335,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>0.39571520197181076</t>
+          <t>0.33424246523113416</t>
         </is>
       </c>
     </row>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>0.8359254329801443</t>
+          <t>0.8720092226615503</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9156850719552424</t>
         </is>
       </c>
     </row>
@@ -6403,7 +6403,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>0.592388560123731</t>
+          <t>0.5400528360323891</t>
         </is>
       </c>
     </row>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>0.7889328073226599</t>
+          <t>0.8608517786720337</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -6454,7 +6454,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>0.45811742946522355</t>
+          <t>0.5756676449959574</t>
         </is>
       </c>
     </row>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>0.45616548028884035</t>
+          <t>0.5886371641821949</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>0.34897835935360094</t>
+          <t>0.43364136066036635</t>
         </is>
       </c>
     </row>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>0.45811742946522355</t>
+          <t>0.5808558150445273</t>
         </is>
       </c>
     </row>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>0.4433349173834442</t>
+          <t>0.578088439754593</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>0.2802197626597045</t>
+          <t>0.3817202298523469</t>
         </is>
       </c>
     </row>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>0.17843546096611448</t>
+          <t>0.26755546412460474</t>
         </is>
       </c>
     </row>
@@ -6590,7 +6590,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>0.3600147636250067</t>
+          <t>0.4517486125877633</t>
         </is>
       </c>
     </row>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>0.917962716490072</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -6624,7 +6624,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>0.6228426213498864</t>
+          <t>0.8625701569942859</t>
         </is>
       </c>
     </row>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>0.3600147636250067</t>
+          <t>0.3850428566631164</t>
         </is>
       </c>
     </row>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>0.4235652798518115</t>
+          <t>0.635051819783</t>
         </is>
       </c>
     </row>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>0.3468449298015903</t>
+          <t>0.3882438142267913</t>
         </is>
       </c>
     </row>
@@ -6692,7 +6692,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>0.3043752786085665</t>
+          <t>0.38824381422679144</t>
         </is>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>0.4703849589905811</t>
+          <t>0.446480697460745</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>0.3043752786085666</t>
+          <t>0.38824381422679133</t>
         </is>
       </c>
     </row>
@@ -6743,7 +6743,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>0.5214939352070543</t>
+          <t>0.4884765383476337</t>
         </is>
       </c>
     </row>
@@ -6760,7 +6760,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>0.47038495899058097</t>
+          <t>0.446480697460745</t>
         </is>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>0.3468449298015905</t>
+          <t>0.3882438142267917</t>
         </is>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>0.4492505552843213</t>
+          <t>0.5202225700936652</t>
         </is>
       </c>
     </row>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>0.41857772652409114</t>
+          <t>0.44034207189734015</t>
         </is>
       </c>
     </row>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>0.2659199789530978</t>
+          <t>0.32850241585959344</t>
         </is>
       </c>
     </row>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>0.41857772652409114</t>
+          <t>0.4719126785820207</t>
         </is>
       </c>
     </row>
@@ -6862,7 +6862,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>0.8886348521872537</t>
+          <t>0.8573392579728359</t>
         </is>
       </c>
     </row>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>0.7787606054568751</t>
+          <t>0.7926477715661455</t>
         </is>
       </c>
     </row>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>0.998509098917632</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>0.7778385092688435</t>
+          <t>0.8019707319331975</t>
         </is>
       </c>
     </row>
@@ -6930,7 +6930,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>0.40760000800854096</t>
+          <t>0.37899534463713713</t>
         </is>
       </c>
     </row>
@@ -6947,7 +6947,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>0.7244631559598259</t>
+          <t>0.8299986157969532</t>
         </is>
       </c>
     </row>
@@ -6964,7 +6964,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>0.8996792001540689</t>
+          <t>0.9190854481162107</t>
         </is>
       </c>
     </row>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>0.8666885539038429</t>
+          <t>0.8686331278097014</t>
         </is>
       </c>
     </row>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>0.5498999734641833</t>
+          <t>0.5046867498057843</t>
         </is>
       </c>
     </row>
@@ -7015,7 +7015,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>0.7480647805391347</t>
+          <t>0.8760044523606563</t>
         </is>
       </c>
     </row>
@@ -7032,7 +7032,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>0.8666885539038429</t>
+          <t>0.9253745019461711</t>
         </is>
       </c>
     </row>
@@ -7049,7 +7049,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>0.9164718154077045</t>
+          <t>0.9379113496604994</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>0.42676805011896857</t>
+          <t>0.3826521727059141</t>
         </is>
       </c>
     </row>
@@ -7083,7 +7083,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>0.36198561137555507</t>
+          <t>0.3705676712040307</t>
         </is>
       </c>
     </row>
@@ -7100,7 +7100,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>0.3068197143690098</t>
+          <t>0.32450509286699825</t>
         </is>
       </c>
     </row>
@@ -7117,7 +7117,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>0.41645878844808465</t>
+          <t>0.4244299448194171</t>
         </is>
       </c>
     </row>
@@ -7134,7 +7134,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>0.3266999713606074</t>
+          <t>0.30217031313062775</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>0.3043752786085663</t>
+          <t>0.3564977824807596</t>
         </is>
       </c>
     </row>
@@ -7168,7 +7168,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>0.18121775861428296</t>
+          <t>0.2372895844395379</t>
         </is>
       </c>
     </row>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>0.4354025298045303</t>
+          <t>0.536498804817364</t>
         </is>
       </c>
     </row>
@@ -7202,7 +7202,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>0.2261620351468728</t>
+          <t>0.2522235459541428</t>
         </is>
       </c>
     </row>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>0.4380873840933664</t>
+          <t>0.5209326478490961</t>
         </is>
       </c>
     </row>
@@ -7253,7 +7253,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>0.19367371668730396</t>
+          <t>0.21258293825892755</t>
         </is>
       </c>
     </row>
@@ -7270,7 +7270,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>0.19367371668730388</t>
+          <t>0.21258293825892763</t>
         </is>
       </c>
     </row>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>0.16673372067386352</t>
+          <t>0.20735550658973934</t>
         </is>
       </c>
     </row>
@@ -7304,7 +7304,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>0.1363228727592398</t>
+          <t>0.1700603812857393</t>
         </is>
       </c>
     </row>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>0.26837367943927554</t>
+          <t>0.2984236322310678</t>
         </is>
       </c>
     </row>
@@ -7338,7 +7338,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>0.16673372067386352</t>
+          <t>0.20735550658973934</t>
         </is>
       </c>
     </row>
@@ -7355,7 +7355,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>0.1363228727592398</t>
+          <t>0.1700603812857393</t>
         </is>
       </c>
     </row>
@@ -7372,7 +7372,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>0.2683736794392755</t>
+          <t>0.2984236322310679</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>0.15104054378205012</t>
+          <t>0.1820022166498326</t>
         </is>
       </c>
     </row>
@@ -7406,7 +7406,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>0.1363228727592398</t>
+          <t>0.1700603812857393</t>
         </is>
       </c>
     </row>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>0.21112693597231222</t>
+          <t>0.23930007648553578</t>
         </is>
       </c>
     </row>
@@ -7440,7 +7440,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>0.33486741007043236</t>
+          <t>0.4587908933794657</t>
         </is>
       </c>
     </row>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>0.39737864132834344</t>
+          <t>0.4097466069747651</t>
         </is>
       </c>
     </row>
@@ -7474,7 +7474,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>0.3757317878798618</t>
+          <t>0.5370168516652402</t>
         </is>
       </c>
     </row>
@@ -7491,7 +7491,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>0.35250147921698277</t>
+          <t>0.3498591692813497</t>
         </is>
       </c>
     </row>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>0.32960366396804264</t>
+          <t>0.31947123520887455</t>
         </is>
       </c>
     </row>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>0.4055837787312735</t>
+          <t>0.4397260287056144</t>
         </is>
       </c>
     </row>
@@ -7542,7 +7542,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>0.3520921146490598</t>
+          <t>0.3498591692813498</t>
         </is>
       </c>
     </row>
@@ -7559,7 +7559,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>0.36791941553071317</t>
+          <t>0.403766935789724</t>
         </is>
       </c>
     </row>
@@ -7576,7 +7576,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>0.4768349689126624</t>
+          <t>0.40073246032336807</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>0.2849944255905411</t>
+          <t>0.4379139324580045</t>
         </is>
       </c>
     </row>
@@ -7610,7 +7610,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>0.3856644714391834</t>
+          <t>0.4016946174619939</t>
         </is>
       </c>
     </row>
@@ -7627,7 +7627,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>0.36791941553071317</t>
+          <t>0.4243254884942007</t>
         </is>
       </c>
     </row>
@@ -7644,7 +7644,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>0.20876629914441544</t>
+          <t>0.2541833949159426</t>
         </is>
       </c>
     </row>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>0.2634485380114402</t>
+          <t>0.3774131780308531</t>
         </is>
       </c>
     </row>
@@ -7678,7 +7678,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>0.1645880419970547</t>
+          <t>0.15357320137094524</t>
         </is>
       </c>
     </row>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>0.32525514673937345</t>
+          <t>0.4498220860494694</t>
         </is>
       </c>
     </row>
@@ -7712,7 +7712,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>0.19367371668730396</t>
+          <t>0.21258293825892768</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>0.2120516794133887</t>
+          <t>0.22088528756633286</t>
         </is>
       </c>
     </row>
@@ -7763,7 +7763,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>0.5112689612998246</t>
+          <t>0.6994286463470526</t>
         </is>
       </c>
     </row>
@@ -7780,7 +7780,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>0.4354025298045303</t>
+          <t>0.536498804817364</t>
         </is>
       </c>
     </row>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>0.5910024683172643</t>
+          <t>0.8516026974880263</t>
         </is>
       </c>
     </row>
@@ -7814,7 +7814,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>0.3468449298015903</t>
+          <t>0.3806089982851191</t>
         </is>
       </c>
     </row>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>0.3248275837128231</t>
+          <t>0.3806089982851191</t>
         </is>
       </c>
     </row>
@@ -7848,7 +7848,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>0.4883354454906422</t>
+          <t>0.47248578090554894</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>0.3248275837128231</t>
+          <t>0.36957531929400844</t>
         </is>
       </c>
     </row>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>0.5214939352070543</t>
+          <t>0.5191624752214343</t>
         </is>
       </c>
     </row>
@@ -7899,7 +7899,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>0.488335445490642</t>
+          <t>0.47248578090554927</t>
         </is>
       </c>
     </row>
@@ -7916,7 +7916,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>0.3468449298015905</t>
+          <t>0.4079598438416354</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>0.4837321026169151</t>
+          <t>0.5152078252272999</t>
         </is>
       </c>
     </row>
@@ -7950,7 +7950,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>0.4365282130241522</t>
+          <t>0.4741127058249118</t>
         </is>
       </c>
     </row>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>0.28021976265970433</t>
+          <t>0.36591862272593223</t>
         </is>
       </c>
     </row>
@@ -7984,7 +7984,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>0.4365282130241522</t>
+          <t>0.49863350108749305</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>0.7868201847321444</t>
+          <t>0.8540566215360029</t>
         </is>
       </c>
     </row>
@@ -8018,7 +8018,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>0.8970607951595264</t>
+          <t>0.7984339299248802</t>
         </is>
       </c>
     </row>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>0.7060379016762148</t>
+          <t>0.8162024295877968</t>
         </is>
       </c>
     </row>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>0.4335941172605442</t>
+          <t>0.405357165964314</t>
         </is>
       </c>
     </row>
@@ -8086,7 +8086,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>0.7771986565691511</t>
+          <t>0.9209959897596507</t>
         </is>
       </c>
     </row>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -8120,7 +8120,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9173221743734815</t>
         </is>
       </c>
     </row>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>0.5827670319607378</t>
+          <t>0.5364623390185153</t>
         </is>
       </c>
     </row>
@@ -8154,7 +8154,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>0.8000742844970475</t>
+          <t>0.9307941906810291</t>
         </is>
       </c>
     </row>
@@ -8171,7 +8171,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -8205,7 +8205,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>0.47016390848259393</t>
+          <t>0.45194981450204613</t>
         </is>
       </c>
     </row>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>0.4386613923483062</t>
+          <t>0.4376903873635428</t>
         </is>
       </c>
     </row>
@@ -8239,7 +8239,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>0.3312984143318094</t>
+          <t>0.3769409211823908</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8256,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>0.4986850815688651</t>
+          <t>0.42731417492424423</t>
         </is>
       </c>
     </row>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>0.3928523879166123</t>
+          <t>0.4418536735667695</t>
         </is>
       </c>
     </row>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>0.3248275837128232</t>
+          <t>0.36591862272593223</t>
         </is>
       </c>
     </row>
@@ -8307,7 +8307,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>0.17021590100662778</t>
+          <t>0.288593057773524</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>0.167296342742715</t>
+          <t>0.14738197038804532</t>
         </is>
       </c>
     </row>
@@ -8341,7 +8341,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>0.81119646702174</t>
+          <t>0.8477784614627688</t>
         </is>
       </c>
     </row>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>0.13919302404248268</t>
+          <t>0.268204942435083</t>
         </is>
       </c>
     </row>
@@ -8375,7 +8375,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>0.13919302404248268</t>
+          <t>0.2682049424350829</t>
         </is>
       </c>
     </row>
@@ -8392,7 +8392,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>0.07252638951406144</t>
+          <t>0.059373915292476244</t>
         </is>
       </c>
     </row>
@@ -8409,7 +8409,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>0.06116106718517968</t>
+          <t>0.053945467249996305</t>
         </is>
       </c>
     </row>
@@ -8426,7 +8426,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>0.21684390420410019</t>
+          <t>0.3441750308362601</t>
         </is>
       </c>
     </row>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>0.07252638951406144</t>
+          <t>0.05937391529247657</t>
         </is>
       </c>
     </row>
@@ -8460,7 +8460,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>0.06116106718517968</t>
+          <t>0.053945467249996305</t>
         </is>
       </c>
     </row>
@@ -8477,7 +8477,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>0.24142515238992562</t>
+          <t>0.30482753369762094</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>0.06256128953265791</t>
+          <t>0.047370830724187636</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>0.05623845026150818</t>
+          <t>0.0433289244145246</t>
         </is>
       </c>
     </row>
@@ -8528,7 +8528,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>0.20753189485536905</t>
+          <t>0.30099223842911754</t>
         </is>
       </c>
     </row>
@@ -8545,7 +8545,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>0.5675541717909574</t>
+          <t>0.7271546832734901</t>
         </is>
       </c>
     </row>
@@ -8562,7 +8562,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>0.31817475095506714</t>
+          <t>0.40001904828831286</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>0.5958082628393859</t>
+          <t>0.7375350455219145</t>
         </is>
       </c>
     </row>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>0.26215769254400706</t>
+          <t>0.30679453442122123</t>
         </is>
       </c>
     </row>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>0.4729984445022723</t>
+          <t>0.5264096875566026</t>
         </is>
       </c>
     </row>
@@ -8630,7 +8630,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>0.25230223044409406</t>
+          <t>0.3162085370861655</t>
         </is>
       </c>
     </row>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>0.5678504599642443</t>
+          <t>0.4535101740761573</t>
         </is>
       </c>
     </row>
@@ -8664,7 +8664,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>0.43888291358452924</t>
+          <t>0.4292958487504502</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>0.4420738752728062</t>
+          <t>0.3910766875264714</t>
         </is>
       </c>
     </row>
@@ -8698,7 +8698,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>0.3359437087440565</t>
+          <t>0.3906819264562249</t>
         </is>
       </c>
     </row>
@@ -8715,7 +8715,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>0.22700336721332004</t>
+          <t>0.36180263374807176</t>
         </is>
       </c>
     </row>
@@ -8732,7 +8732,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>0.36406375171344857</t>
+          <t>0.5069607424188433</t>
         </is>
       </c>
     </row>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>0.27034773488791003</t>
+          <t>0.2925982223725074</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8766,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>0.5986580270948997</t>
+          <t>0.6181881588970374</t>
         </is>
       </c>
     </row>
@@ -8783,7 +8783,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>0.20727539806204773</t>
+          <t>0.1627155831712404</t>
         </is>
       </c>
     </row>
@@ -8800,7 +8800,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>0.4924940686324146</t>
+          <t>0.5673984718395855</t>
         </is>
       </c>
     </row>
@@ -8817,7 +8817,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>0.21127517078201827</t>
+          <t>0.2507915352042477</t>
         </is>
       </c>
     </row>
@@ -8834,7 +8834,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>0.09694010323765372</t>
+          <t>0.18906438649048338</t>
         </is>
       </c>
     </row>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>0.3097872233767651</t>
+          <t>0.30471933043796173</t>
         </is>
       </c>
     </row>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>0.4380873840933664</t>
+          <t>0.5209326478490961</t>
         </is>
       </c>
     </row>
@@ -8885,7 +8885,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>0.19367371668730396</t>
+          <t>0.21258293825892755</t>
         </is>
       </c>
     </row>
@@ -8902,7 +8902,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>0.19367371668730388</t>
+          <t>0.21258293825892763</t>
         </is>
       </c>
     </row>
@@ -8919,7 +8919,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>0.12275489263456056</t>
+          <t>0.1685878070530921</t>
         </is>
       </c>
     </row>
@@ -8936,7 +8936,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>0.09234404471993636</t>
+          <t>0.13129268174909223</t>
         </is>
       </c>
     </row>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>0.26837367943927554</t>
+          <t>0.2984236322310678</t>
         </is>
       </c>
     </row>
@@ -8970,7 +8970,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>0.12275489263456056</t>
+          <t>0.1685878070530921</t>
         </is>
       </c>
     </row>
@@ -8987,7 +8987,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>0.09234404471993636</t>
+          <t>0.13129268174909223</t>
         </is>
       </c>
     </row>
@@ -9004,7 +9004,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>0.2683736794392755</t>
+          <t>0.2984236322310679</t>
         </is>
       </c>
     </row>
@@ -9021,7 +9021,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>0.10706171574274699</t>
+          <t>0.1432345171131857</t>
         </is>
       </c>
     </row>
@@ -9038,7 +9038,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>0.09234404471993636</t>
+          <t>0.13129268174909223</t>
         </is>
       </c>
     </row>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>0.21112693597231222</t>
+          <t>0.23930007648553578</t>
         </is>
       </c>
     </row>
@@ -9072,7 +9072,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>0.33486741007043236</t>
+          <t>0.4587908933794657</t>
         </is>
       </c>
     </row>
@@ -9089,7 +9089,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>0.32675337647107294</t>
+          <t>0.368787446018571</t>
         </is>
       </c>
     </row>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>0.3757317878798618</t>
+          <t>0.5370168516652402</t>
         </is>
       </c>
     </row>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>0.35250147921698277</t>
+          <t>0.322388314839432</t>
         </is>
       </c>
     </row>
@@ -9140,7 +9140,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>0.24512772510079694</t>
+          <t>0.31947123520887455</t>
         </is>
       </c>
     </row>
@@ -9157,7 +9157,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>0.32813229822548584</t>
+          <t>0.4397260287056144</t>
         </is>
       </c>
     </row>
@@ -9174,7 +9174,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>0.29448845672991625</t>
+          <t>0.3455295020416162</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>0.2628326125426272</t>
+          <t>0.3869739640227722</t>
         </is>
       </c>
     </row>
@@ -9208,7 +9208,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>0.40298633112911303</t>
+          <t>0.40073246032336807</t>
         </is>
       </c>
     </row>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>0.25750622486793406</t>
+          <t>0.36471760013886634</t>
         </is>
       </c>
     </row>
@@ -9242,7 +9242,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>0.24779792499683806</t>
+          <t>0.3678194765940396</t>
         </is>
       </c>
     </row>
@@ -9259,7 +9259,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>0.2625697838003773</t>
+          <t>0.4243254884942007</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>0.17352677305725198</t>
+          <t>0.18531923311697687</t>
         </is>
       </c>
     </row>
@@ -9293,7 +9293,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>0.2634485380114402</t>
+          <t>0.3774131780308531</t>
         </is>
       </c>
     </row>
@@ -9310,7 +9310,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>0.1645880419970547</t>
+          <t>0.15357320137094524</t>
         </is>
       </c>
     </row>
@@ -9327,7 +9327,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>0.32525514673937345</t>
+          <t>0.4498220860494694</t>
         </is>
       </c>
     </row>
@@ -9344,7 +9344,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -9361,7 +9361,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>0.19367371668730396</t>
+          <t>0.21258293825892768</t>
         </is>
       </c>
     </row>
@@ -9378,7 +9378,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>0.2120516794133887</t>
+          <t>0.22088528756633286</t>
         </is>
       </c>
     </row>
@@ -9395,7 +9395,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>0.22932334625871667</t>
+          <t>0.2738288929129448</t>
         </is>
       </c>
     </row>
@@ -9412,7 +9412,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>0.2293233462587165</t>
+          <t>0.2738288929129448</t>
         </is>
       </c>
     </row>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>0.14069890169082103</t>
+          <t>0.16320088132864635</t>
         </is>
       </c>
     </row>
@@ -9446,7 +9446,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>0.11915072677170734</t>
+          <t>0.1362630317338009</t>
         </is>
       </c>
     </row>
@@ -9463,7 +9463,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>0.3111264952458313</t>
+          <t>0.3652260070455467</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>0.14069890169082103</t>
+          <t>0.16320088132864635</t>
         </is>
       </c>
     </row>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>0.11915072677170734</t>
+          <t>0.1362630317338009</t>
         </is>
       </c>
     </row>
@@ -9514,7 +9514,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>0.29253368559908904</t>
+          <t>0.329152525116918</t>
         </is>
       </c>
     </row>
@@ -9531,7 +9531,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>0.12799825344721916</t>
+          <t>0.14374711268156024</t>
         </is>
       </c>
     </row>
@@ -9548,7 +9548,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>0.11915072677170734</t>
+          <t>0.1362630317338009</t>
         </is>
       </c>
     </row>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>0.28094588488109207</t>
+          <t>0.31080294981359924</t>
         </is>
       </c>
     </row>
@@ -9582,7 +9582,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>0.5397372671517736</t>
+          <t>0.6817541071682018</t>
         </is>
       </c>
     </row>
@@ -9599,7 +9599,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>0.5018086216812081</t>
+          <t>0.5301165441561463</t>
         </is>
       </c>
     </row>
@@ -9616,7 +9616,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>0.5394750961455853</t>
+          <t>0.7218853103837246</t>
         </is>
       </c>
     </row>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>0.27186302464001266</t>
+          <t>0.3012885917506143</t>
         </is>
       </c>
     </row>
@@ -9650,7 +9650,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>0.34844433067874925</t>
+          <t>0.5412772448460308</t>
         </is>
       </c>
     </row>
@@ -9667,7 +9667,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>0.27717487540512914</t>
+          <t>0.37626595675237545</t>
         </is>
       </c>
     </row>
@@ -9684,7 +9684,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>0.388262447708589</t>
+          <t>0.4313493973075634</t>
         </is>
       </c>
     </row>
@@ -9701,7 +9701,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>0.4941566891329966</t>
+          <t>0.42035678112696123</t>
         </is>
       </c>
     </row>
@@ -9718,7 +9718,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>0.37270810108048535</t>
+          <t>0.4249702586703673</t>
         </is>
       </c>
     </row>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>0.37188596477423247</t>
+          <t>0.440914371455386</t>
         </is>
       </c>
     </row>
@@ -9752,7 +9752,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>0.26352044979832523</t>
+          <t>0.3832730583865667</t>
         </is>
       </c>
     </row>
@@ -9769,7 +9769,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>0.3195954870368303</t>
+          <t>0.4746910443717528</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9786,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>0.5999877700099879</t>
+          <t>0.53590948770304</t>
         </is>
       </c>
     </row>
@@ -9803,7 +9803,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>0.726267236273636</t>
+          <t>0.6368374064429086</t>
         </is>
       </c>
     </row>
@@ -9820,7 +9820,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>0.15953405120724046</t>
+          <t>0.1587729291109816</t>
         </is>
       </c>
     </row>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>0.6718508659602894</t>
+          <t>0.7167311644121463</t>
         </is>
       </c>
     </row>
@@ -9854,7 +9854,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>0.38213308143379515</t>
+          <t>0.4456250292065934</t>
         </is>
       </c>
     </row>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>0.13501374237540337</t>
+          <t>0.1923161856139166</t>
         </is>
       </c>
     </row>
@@ -9888,7 +9888,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>0.29075477154951956</t>
+          <t>0.3362828341322844</t>
         </is>
       </c>
     </row>
@@ -9905,7 +9905,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -9922,7 +9922,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>0.5429642223604272</t>
+          <t>0.5946479588255665</t>
         </is>
       </c>
     </row>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -9956,7 +9956,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>0.7998963911678907</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -9973,7 +9973,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>0.5429642223604271</t>
+          <t>0.5883237659348974</t>
         </is>
       </c>
     </row>
@@ -9990,7 +9990,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -10007,7 +10007,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -10024,7 +10024,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>0.5492164914335638</t>
+          <t>0.5946479588255666</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -10058,7 +10058,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>0.6022001010930377</t>
+          <t>0.699092273711303</t>
         </is>
       </c>
     </row>
@@ -10075,7 +10075,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>0.4008935625736466</t>
+          <t>0.5998892071521699</t>
         </is>
       </c>
     </row>
@@ -10092,7 +10092,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>0.4062505237434241</t>
+          <t>0.44784557471932773</t>
         </is>
       </c>
     </row>
@@ -10109,7 +10109,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>0.39408982117343255</t>
+          <t>0.49177207588498895</t>
         </is>
       </c>
     </row>
@@ -10126,7 +10126,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>0.36885918379357086</t>
+          <t>0.5131668748329558</t>
         </is>
       </c>
     </row>
@@ -10143,7 +10143,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>0.4213310513856669</t>
+          <t>0.4353828192990374</t>
         </is>
       </c>
     </row>
@@ -10160,7 +10160,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>0.31718140268276207</t>
+          <t>0.44578885501758625</t>
         </is>
       </c>
     </row>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>0.32637790881762396</t>
+          <t>0.5060883604535684</t>
         </is>
       </c>
     </row>
@@ -10194,7 +10194,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>0.32629615519237315</t>
+          <t>0.47026710937760235</t>
         </is>
       </c>
     </row>
@@ -10211,7 +10211,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>0.510007753907581</t>
+          <t>0.49191655770842246</t>
         </is>
       </c>
     </row>
@@ -10228,7 +10228,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>0.29725170534569406</t>
+          <t>0.5133633663215261</t>
         </is>
       </c>
     </row>
@@ -10245,7 +10245,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>0.4561510313402445</t>
+          <t>0.5487540105642498</t>
         </is>
       </c>
     </row>
@@ -10262,7 +10262,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>0.3758558957412587</t>
+          <t>0.5010673191136287</t>
         </is>
       </c>
     </row>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>0.5126517666598239</t>
+          <t>0.6225509733003602</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10296,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>0.2502848263832274</t>
+          <t>0.36251223440722047</t>
         </is>
       </c>
     </row>
@@ -10313,7 +10313,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>0.6253009773857571</t>
+          <t>0.7082119425999194</t>
         </is>
       </c>
     </row>
@@ -10330,7 +10330,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>0.540473205254399</t>
+          <t>0.5997663863335141</t>
         </is>
       </c>
     </row>
@@ -10347,7 +10347,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>0.2169664208744548</t>
+          <t>0.2578035345308587</t>
         </is>
       </c>
     </row>
@@ -10364,7 +10364,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -10381,7 +10381,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>0.2505135706949531</t>
+          <t>0.30672140132093767</t>
         </is>
       </c>
     </row>
@@ -10398,7 +10398,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>0.5429642223604272</t>
+          <t>0.5883237659348974</t>
         </is>
       </c>
     </row>
@@ -10415,7 +10415,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -10432,7 +10432,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>0.7998963911678907</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -10449,7 +10449,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>0.5429642223604271</t>
+          <t>0.5883237659348972</t>
         </is>
       </c>
     </row>
@@ -10466,7 +10466,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>0.5492164914335639</t>
+          <t>0.5946479588255666</t>
         </is>
       </c>
     </row>
@@ -10517,7 +10517,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -10534,7 +10534,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>0.6022001010930377</t>
+          <t>0.699092273711303</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>0.40089356257364633</t>
+          <t>0.5998892071521699</t>
         </is>
       </c>
     </row>
@@ -10568,7 +10568,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>0.40625052374342396</t>
+          <t>0.44784557471932773</t>
         </is>
       </c>
     </row>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>0.39408982117343255</t>
+          <t>0.49177207588498895</t>
         </is>
       </c>
     </row>
@@ -10602,7 +10602,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>0.36885918379357086</t>
+          <t>0.5131668748329558</t>
         </is>
       </c>
     </row>
@@ -10619,7 +10619,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>0.4213310513856669</t>
+          <t>0.4353828192990374</t>
         </is>
       </c>
     </row>
@@ -10636,7 +10636,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>0.31718140268276207</t>
+          <t>0.44578885501758625</t>
         </is>
       </c>
     </row>
@@ -10653,7 +10653,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>0.32637790881762413</t>
+          <t>0.5060883604535684</t>
         </is>
       </c>
     </row>
@@ -10670,7 +10670,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>0.32629615519237315</t>
+          <t>0.47026710937760235</t>
         </is>
       </c>
     </row>
@@ -10687,7 +10687,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>0.510007753907581</t>
+          <t>0.5032583347756449</t>
         </is>
       </c>
     </row>
@@ -10704,7 +10704,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>0.2972517053456939</t>
+          <t>0.5133633663215261</t>
         </is>
       </c>
     </row>
@@ -10721,7 +10721,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>0.4561510313402445</t>
+          <t>0.5487540105642498</t>
         </is>
       </c>
     </row>
@@ -10738,7 +10738,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>0.3758558957412587</t>
+          <t>0.5010673191136287</t>
         </is>
       </c>
     </row>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>0.5126517666598239</t>
+          <t>0.6051924982241568</t>
         </is>
       </c>
     </row>
@@ -10772,7 +10772,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>0.2502848263832274</t>
+          <t>0.36251223440722047</t>
         </is>
       </c>
     </row>
@@ -10789,7 +10789,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>0.6253009773857571</t>
+          <t>0.7082119425999194</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10806,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>0.5404732052543989</t>
+          <t>0.6314267358770039</t>
         </is>
       </c>
     </row>
@@ -10823,7 +10823,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>0.2169664208744548</t>
+          <t>0.25780353453085914</t>
         </is>
       </c>
     </row>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -10857,7 +10857,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>0.25051357069495295</t>
+          <t>0.30672140132093767</t>
         </is>
       </c>
     </row>
@@ -10874,7 +10874,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>0.5492164914335639</t>
+          <t>0.5946479588255665</t>
         </is>
       </c>
     </row>
@@ -10891,7 +10891,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.93335726001798</t>
         </is>
       </c>
     </row>
@@ -10908,7 +10908,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.93335726001798</t>
         </is>
       </c>
     </row>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>0.5492164914335638</t>
+          <t>0.5946479588255668</t>
         </is>
       </c>
     </row>
@@ -10942,7 +10942,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>0.8397822032003542</t>
+          <t>0.8714503627181368</t>
         </is>
       </c>
     </row>
@@ -10959,7 +10959,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>0.8756633923230396</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -10976,7 +10976,7 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>0.37416166536244194</t>
+          <t>0.45085986317538224</t>
         </is>
       </c>
     </row>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>0.8756633923230396</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -11010,7 +11010,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>0.6838593887004073</t>
+          <t>0.817734839142674</t>
         </is>
       </c>
     </row>
@@ -11027,7 +11027,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>0.43800490442028284</t>
+          <t>0.525204648105181</t>
         </is>
       </c>
     </row>
@@ -11044,7 +11044,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>0.6817226931461904</t>
+          <t>0.8095434654182938</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>0.47781689398793736</t>
+          <t>0.5497481184328107</t>
         </is>
       </c>
     </row>
@@ -11078,7 +11078,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>0.524754580568185</t>
+          <t>0.6470145887105037</t>
         </is>
       </c>
     </row>
@@ -11095,7 +11095,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>0.472925170244075</t>
+          <t>0.5277330388667048</t>
         </is>
       </c>
     </row>
@@ -11112,7 +11112,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>0.70926504192467</t>
+          <t>0.7019081561480637</t>
         </is>
       </c>
     </row>
@@ -11129,7 +11129,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>0.6200626130962572</t>
+          <t>0.6741306120018394</t>
         </is>
       </c>
     </row>
@@ -11146,7 +11146,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>0.3705567559917795</t>
+          <t>0.39345055369706605</t>
         </is>
       </c>
     </row>
@@ -11163,7 +11163,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>0.5578502188079518</t>
+          <t>0.5498978240217546</t>
         </is>
       </c>
     </row>
@@ -11180,7 +11180,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>0.6079701363771782</t>
+          <t>0.6109114624259868</t>
         </is>
       </c>
     </row>
@@ -11197,7 +11197,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>0.5387569191586149</t>
+          <t>0.6004456355171187</t>
         </is>
       </c>
     </row>
@@ -11214,7 +11214,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>0.4531688660565371</t>
+          <t>0.5428479137837368</t>
         </is>
       </c>
     </row>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>0.2210696085018497</t>
+          <t>0.3287451430742155</t>
         </is>
       </c>
     </row>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>0.43687857212736175</t>
+          <t>0.4931285322331685</t>
         </is>
       </c>
     </row>
@@ -11265,7 +11265,7 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>0.48504950282048714</t>
+          <t>0.5621466209068173</t>
         </is>
       </c>
     </row>
@@ -11282,7 +11282,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>0.2293448002684879</t>
+          <t>0.27127824161302244</t>
         </is>
       </c>
     </row>
@@ -11299,7 +11299,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>0.5070736877407265</t>
+          <t>0.5002783599408707</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11316,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>0.16674325564814108</t>
+          <t>0.21119856010004162</t>
         </is>
       </c>
     </row>
@@ -11333,7 +11333,7 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>0.7998963911678907</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>0.5429642223604271</t>
+          <t>0.5883237659348972</t>
         </is>
       </c>
     </row>
@@ -11367,7 +11367,7 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -11384,7 +11384,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>0.5492164914335639</t>
+          <t>0.5946479588255666</t>
         </is>
       </c>
     </row>
@@ -11418,7 +11418,7 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>0.6022001010930377</t>
+          <t>0.699092273711303</t>
         </is>
       </c>
     </row>
@@ -11452,7 +11452,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>0.40089356257364633</t>
+          <t>0.5998892071521699</t>
         </is>
       </c>
     </row>
@@ -11469,7 +11469,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>0.40625052374342396</t>
+          <t>0.44784557471932773</t>
         </is>
       </c>
     </row>
@@ -11486,7 +11486,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>0.39408982117343255</t>
+          <t>0.49177207588498895</t>
         </is>
       </c>
     </row>
@@ -11503,7 +11503,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>0.36885918379357086</t>
+          <t>0.5131668748329558</t>
         </is>
       </c>
     </row>
@@ -11520,7 +11520,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>0.4213310513856669</t>
+          <t>0.4353828192990374</t>
         </is>
       </c>
     </row>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>0.3233366826304554</t>
+          <t>0.44578885501758625</t>
         </is>
       </c>
     </row>
@@ -11554,7 +11554,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>0.36316394823947606</t>
+          <t>0.5060883604535684</t>
         </is>
       </c>
     </row>
@@ -11571,7 +11571,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>0.32629615519237315</t>
+          <t>0.47026710937760235</t>
         </is>
       </c>
     </row>
@@ -11588,7 +11588,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>0.510007753907581</t>
+          <t>0.49191655770842246</t>
         </is>
       </c>
     </row>
@@ -11605,7 +11605,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>0.2972517053456939</t>
+          <t>0.5133633663215261</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>0.4561510313402445</t>
+          <t>0.5487540105642498</t>
         </is>
       </c>
     </row>
@@ -11639,7 +11639,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>0.3758558957412587</t>
+          <t>0.5010673191136287</t>
         </is>
       </c>
     </row>
@@ -11656,7 +11656,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>0.5207296216990047</t>
+          <t>0.6225509733003604</t>
         </is>
       </c>
     </row>
@@ -11673,7 +11673,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>0.2502848263832274</t>
+          <t>0.36251223440722047</t>
         </is>
       </c>
     </row>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>0.5626898977911327</t>
+          <t>0.6629562793532694</t>
         </is>
       </c>
     </row>
@@ -11707,7 +11707,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>0.5404732052543989</t>
+          <t>0.5997663863335141</t>
         </is>
       </c>
     </row>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>0.198933952353864</t>
+          <t>0.24548668393693537</t>
         </is>
       </c>
     </row>
@@ -11741,7 +11741,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -11758,7 +11758,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>0.17071822128704278</t>
+          <t>0.24441217683631616</t>
         </is>
       </c>
     </row>
@@ -11775,7 +11775,7 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.93335726001798</t>
         </is>
       </c>
     </row>
@@ -11792,7 +11792,7 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>0.7998963911678907</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>0.9456603046006401</t>
+          <t>0.9690632527820694</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11826,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>0.8756633923230396</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -11843,7 +11843,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>0.7998963911678907</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -11860,7 +11860,7 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>0.8756633923230396</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -11877,7 +11877,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>0.5969459754533614</t>
+          <t>0.7273495737935876</t>
         </is>
       </c>
     </row>
@@ -11894,7 +11894,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>0.4419100870172151</t>
+          <t>0.5063660993266962</t>
         </is>
       </c>
     </row>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>0.6090674859573814</t>
+          <t>0.6988187944586057</t>
         </is>
       </c>
     </row>
@@ -11928,7 +11928,7 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>0.38813037677206463</t>
+          <t>0.5071708359846883</t>
         </is>
       </c>
     </row>
@@ -11945,7 +11945,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>0.6321786249533784</t>
+          <t>0.5881108718296884</t>
         </is>
       </c>
     </row>
@@ -11962,7 +11962,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>0.3991198414336183</t>
+          <t>0.4444922922391948</t>
         </is>
       </c>
     </row>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>0.5442982256538075</t>
+          <t>0.5807538371305797</t>
         </is>
       </c>
     </row>
@@ -11996,7 +11996,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>0.5249069522641906</t>
+          <t>0.6326841628929499</t>
         </is>
       </c>
     </row>
@@ -12013,7 +12013,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>0.426362244513386</t>
+          <t>0.4190270929504037</t>
         </is>
       </c>
     </row>
@@ -12030,7 +12030,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>0.4583635312373137</t>
+          <t>0.5483908655491858</t>
         </is>
       </c>
     </row>
@@ -12047,7 +12047,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>0.514716474634494</t>
+          <t>0.5366316648266878</t>
         </is>
       </c>
     </row>
@@ -12064,7 +12064,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>0.4584201669828327</t>
+          <t>0.5511550820931268</t>
         </is>
       </c>
     </row>
@@ -12081,7 +12081,7 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>0.4318525836085265</t>
+          <t>0.5055108718194654</t>
         </is>
       </c>
     </row>
@@ -12098,7 +12098,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>0.19990029380334803</t>
+          <t>0.3359425625629221</t>
         </is>
       </c>
     </row>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>0.5191352656096953</t>
+          <t>0.7116109233184235</t>
         </is>
       </c>
     </row>
@@ -12132,7 +12132,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>0.4701394687764142</t>
+          <t>0.552019366093709</t>
         </is>
       </c>
     </row>
@@ -12149,7 +12149,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>0.2916663836264264</t>
+          <t>0.3436442285029989</t>
         </is>
       </c>
     </row>
@@ -12166,7 +12166,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>0.7998963911678907</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -12183,7 +12183,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>0.3764274433488188</t>
+          <t>0.3652618778289934</t>
         </is>
       </c>
     </row>
@@ -12200,7 +12200,7 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>0.5070736877407266</t>
+          <t>0.5320243916869024</t>
         </is>
       </c>
     </row>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>0.8397822032003542</t>
+          <t>0.8714503627181368</t>
         </is>
       </c>
     </row>
@@ -12234,7 +12234,7 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>0.8756633923230396</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>0.3741616653624419</t>
+          <t>0.4082692084278821</t>
         </is>
       </c>
     </row>
@@ -12268,7 +12268,7 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>0.8756633923230396</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -12285,7 +12285,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>0.6838593887004073</t>
+          <t>0.817734839142674</t>
         </is>
       </c>
     </row>
@@ -12302,7 +12302,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>0.43800490442028284</t>
+          <t>0.525204648105181</t>
         </is>
       </c>
     </row>
@@ -12319,7 +12319,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>0.6817226931461904</t>
+          <t>0.8095434654182938</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12336,7 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>0.47781689398793736</t>
+          <t>0.5497481184328107</t>
         </is>
       </c>
     </row>
@@ -12353,7 +12353,7 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>0.524754580568185</t>
+          <t>0.6470145887105037</t>
         </is>
       </c>
     </row>
@@ -12370,7 +12370,7 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>0.472925170244075</t>
+          <t>0.5277330388667048</t>
         </is>
       </c>
     </row>
@@ -12387,7 +12387,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>0.70926504192467</t>
+          <t>0.7019081561480637</t>
         </is>
       </c>
     </row>
@@ -12404,7 +12404,7 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>0.6200626130962572</t>
+          <t>0.6741306120018397</t>
         </is>
       </c>
     </row>
@@ -12421,7 +12421,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>0.3705567559917795</t>
+          <t>0.39345055369706605</t>
         </is>
       </c>
     </row>
@@ -12438,7 +12438,7 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>0.5578502188079518</t>
+          <t>0.5498978240217546</t>
         </is>
       </c>
     </row>
@@ -12455,7 +12455,7 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>0.6079701363771782</t>
+          <t>0.6109114624259868</t>
         </is>
       </c>
     </row>
@@ -12472,7 +12472,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>0.5387569191586149</t>
+          <t>0.6004456355171187</t>
         </is>
       </c>
     </row>
@@ -12489,7 +12489,7 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>0.45316886605653695</t>
+          <t>0.5428479137837365</t>
         </is>
       </c>
     </row>
@@ -12506,7 +12506,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>0.2210696085018497</t>
+          <t>0.3287451430742155</t>
         </is>
       </c>
     </row>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>0.43687857212736175</t>
+          <t>0.484429617863956</t>
         </is>
       </c>
     </row>
@@ -12540,7 +12540,7 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>0.48504950282048714</t>
+          <t>0.5621466209068173</t>
         </is>
       </c>
     </row>
@@ -12557,7 +12557,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>0.2293448002684879</t>
+          <t>0.27127824161302244</t>
         </is>
       </c>
     </row>
@@ -12574,7 +12574,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>0.5070736877407265</t>
+          <t>0.5002783599408707</t>
         </is>
       </c>
     </row>
@@ -12591,7 +12591,7 @@
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>0.16674325564814108</t>
+          <t>0.21119856010004162</t>
         </is>
       </c>
     </row>
@@ -12608,7 +12608,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>0.5492164914335638</t>
+          <t>0.5946479588255668</t>
         </is>
       </c>
     </row>
@@ -12642,7 +12642,7 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -12659,7 +12659,7 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>0.6022001010930377</t>
+          <t>0.699092273711303</t>
         </is>
       </c>
     </row>
@@ -12676,7 +12676,7 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>0.40089356257364633</t>
+          <t>0.5998892071521699</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>0.40625052374342396</t>
+          <t>0.44784557471932773</t>
         </is>
       </c>
     </row>
@@ -12710,7 +12710,7 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>0.39408982117343255</t>
+          <t>0.49177207588498895</t>
         </is>
       </c>
     </row>
@@ -12727,7 +12727,7 @@
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>0.36885918379357086</t>
+          <t>0.5131668748329558</t>
         </is>
       </c>
     </row>
@@ -12744,7 +12744,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>0.4213310513856669</t>
+          <t>0.4353828192990374</t>
         </is>
       </c>
     </row>
@@ -12761,7 +12761,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>0.32333668263045556</t>
+          <t>0.44578885501758625</t>
         </is>
       </c>
     </row>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>0.36316394823947623</t>
+          <t>0.5060883604535684</t>
         </is>
       </c>
     </row>
@@ -12795,7 +12795,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>0.32629615519237315</t>
+          <t>0.47026710937760235</t>
         </is>
       </c>
     </row>
@@ -12812,7 +12812,7 @@
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>0.510007753907581</t>
+          <t>0.49191655770842246</t>
         </is>
       </c>
     </row>
@@ -12829,7 +12829,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>0.2972517053456939</t>
+          <t>0.5133633663215261</t>
         </is>
       </c>
     </row>
@@ -12846,7 +12846,7 @@
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>0.4561510313402445</t>
+          <t>0.5487540105642498</t>
         </is>
       </c>
     </row>
@@ -12863,7 +12863,7 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>0.3758558957412587</t>
+          <t>0.5010673191136287</t>
         </is>
       </c>
     </row>
@@ -12880,7 +12880,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>0.5207296216990047</t>
+          <t>0.6225509733003604</t>
         </is>
       </c>
     </row>
@@ -12897,7 +12897,7 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>0.2502848263832274</t>
+          <t>0.36251223440722047</t>
         </is>
       </c>
     </row>
@@ -12914,7 +12914,7 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>0.5207296216990047</t>
+          <t>0.6261563939499927</t>
         </is>
       </c>
     </row>
@@ -12931,7 +12931,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>0.5404732052543989</t>
+          <t>0.5997663863335141</t>
         </is>
       </c>
     </row>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>0.198933952353864</t>
+          <t>0.24548668393693537</t>
         </is>
       </c>
     </row>
@@ -12965,7 +12965,7 @@
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -12982,7 +12982,7 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>0.17071822128704278</t>
+          <t>0.24441217683631616</t>
         </is>
       </c>
     </row>
@@ -12999,7 +12999,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>0.7281582787850157</t>
+          <t>0.8056959500093788</t>
         </is>
       </c>
     </row>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>0.7281582787850157</t>
+          <t>0.8056959500093788</t>
         </is>
       </c>
     </row>
@@ -13050,7 +13050,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>0.5969459754533613</t>
+          <t>0.7273495737935876</t>
         </is>
       </c>
     </row>
@@ -13067,7 +13067,7 @@
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>0.45074145636668883</t>
+          <t>0.5063660993266962</t>
         </is>
       </c>
     </row>
@@ -13084,7 +13084,7 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>0.6840384356390417</t>
+          <t>0.6988187944586057</t>
         </is>
       </c>
     </row>
@@ -13101,7 +13101,7 @@
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>0.3869193377718762</t>
+          <t>0.5071708359846883</t>
         </is>
       </c>
     </row>
@@ -13118,7 +13118,7 @@
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>0.6321786249533784</t>
+          <t>0.6461853495222436</t>
         </is>
       </c>
     </row>
@@ -13135,7 +13135,7 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>0.30301237678188137</t>
+          <t>0.43250995093501293</t>
         </is>
       </c>
     </row>
@@ -13152,7 +13152,7 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>0.5500929946120433</t>
+          <t>0.5807538371305797</t>
         </is>
       </c>
     </row>
@@ -13169,7 +13169,7 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>0.5500929946120433</t>
+          <t>0.6326841628929499</t>
         </is>
       </c>
     </row>
@@ -13186,7 +13186,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>0.426362244513386</t>
+          <t>0.4413514374758016</t>
         </is>
       </c>
     </row>
@@ -13203,7 +13203,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>0.5369879209707134</t>
+          <t>0.5483908655491858</t>
         </is>
       </c>
     </row>
@@ -13220,7 +13220,7 @@
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>0.514716474634494</t>
+          <t>0.5366316648266879</t>
         </is>
       </c>
     </row>
@@ -13237,7 +13237,7 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>0.4584201669828327</t>
+          <t>0.5511550820931268</t>
         </is>
       </c>
     </row>
@@ -13254,7 +13254,7 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>0.4318525836085263</t>
+          <t>0.5199595912367255</t>
         </is>
       </c>
     </row>
@@ -13271,7 +13271,7 @@
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>0.2872965562804667</t>
+          <t>0.30397745242489976</t>
         </is>
       </c>
     </row>
@@ -13288,7 +13288,7 @@
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>0.4750318513003837</t>
+          <t>0.6157086379221312</t>
         </is>
       </c>
     </row>
@@ -13305,7 +13305,7 @@
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>0.47013946877641427</t>
+          <t>0.552019366093709</t>
         </is>
       </c>
     </row>
@@ -13322,7 +13322,7 @@
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>0.29166638362642633</t>
+          <t>0.34364422850299886</t>
         </is>
       </c>
     </row>
@@ -13339,7 +13339,7 @@
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -13356,7 +13356,7 @@
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>0.3764274433488189</t>
+          <t>0.3652618778289933</t>
         </is>
       </c>
     </row>
@@ -13373,7 +13373,7 @@
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>0.3719376491658309</t>
+          <t>0.45085986317538224</t>
         </is>
       </c>
     </row>
@@ -13390,7 +13390,7 @@
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>0.8756633923230396</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -13407,7 +13407,7 @@
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>0.5897249026911137</t>
+          <t>0.7527107453773279</t>
         </is>
       </c>
     </row>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>0.37864828658456134</t>
+          <t>0.4582840917412809</t>
         </is>
       </c>
     </row>
@@ -13441,7 +13441,7 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>0.602936119595767</t>
+          <t>0.8141414893052435</t>
         </is>
       </c>
     </row>
@@ -13458,7 +13458,7 @@
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>0.43432221302546303</t>
+          <t>0.5547971015649678</t>
         </is>
       </c>
     </row>
@@ -13475,7 +13475,7 @@
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>0.4201669382328938</t>
+          <t>0.5283148995385651</t>
         </is>
       </c>
     </row>
@@ -13492,7 +13492,7 @@
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>0.512027028686676</t>
+          <t>0.582027607746627</t>
         </is>
       </c>
     </row>
@@ -13509,7 +13509,7 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>0.629551541793257</t>
+          <t>0.7089162435418992</t>
         </is>
       </c>
     </row>
@@ -13526,7 +13526,7 @@
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>0.5431817904346149</t>
+          <t>0.6173049500342045</t>
         </is>
       </c>
     </row>
@@ -13543,7 +13543,7 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>0.40189485376461775</t>
+          <t>0.4445534347660251</t>
         </is>
       </c>
     </row>
@@ -13560,7 +13560,7 @@
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>0.4907922030901641</t>
+          <t>0.5705971525482497</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>0.6252190739445426</t>
+          <t>0.7350215115702312</t>
         </is>
       </c>
     </row>
@@ -13594,7 +13594,7 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>0.5278648925962216</t>
+          <t>0.6821032303925342</t>
         </is>
       </c>
     </row>
@@ -13611,7 +13611,7 @@
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>0.47186751199903987</t>
+          <t>0.5801787489488578</t>
         </is>
       </c>
     </row>
@@ -13628,7 +13628,7 @@
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>0.23448772670499077</t>
+          <t>0.35005428337669114</t>
         </is>
       </c>
     </row>
@@ -13645,7 +13645,7 @@
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>0.47186751199903987</t>
+          <t>0.5368569052833821</t>
         </is>
       </c>
     </row>
@@ -13662,7 +13662,7 @@
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>0.5096648227401338</t>
+          <t>0.5833728009265591</t>
         </is>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>0.21365162337667448</t>
+          <t>0.2533756357519133</t>
         </is>
       </c>
     </row>
@@ -13696,7 +13696,7 @@
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>0.5492164914335637</t>
+          <t>0.5629019270795349</t>
         </is>
       </c>
     </row>
@@ -13713,7 +13713,7 @@
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>0.1801613738512822</t>
+          <t>0.24994444892742967</t>
         </is>
       </c>
     </row>
@@ -13730,7 +13730,7 @@
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>0.6022001010930377</t>
+          <t>0.699092273711303</t>
         </is>
       </c>
     </row>
@@ -13747,7 +13747,7 @@
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>0.40089356257364633</t>
+          <t>0.5998892071521699</t>
         </is>
       </c>
     </row>
@@ -13764,7 +13764,7 @@
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>0.40625052374342396</t>
+          <t>0.44784557471932773</t>
         </is>
       </c>
     </row>
@@ -13781,7 +13781,7 @@
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>0.39408982117343255</t>
+          <t>0.49177207588498895</t>
         </is>
       </c>
     </row>
@@ -13798,7 +13798,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>0.36885918379357086</t>
+          <t>0.5131668748329558</t>
         </is>
       </c>
     </row>
@@ -13815,7 +13815,7 @@
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>0.4213310513856669</t>
+          <t>0.4353828192990374</t>
         </is>
       </c>
     </row>
@@ -13832,7 +13832,7 @@
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>0.31718140268276207</t>
+          <t>0.44578885501758625</t>
         </is>
       </c>
     </row>
@@ -13849,7 +13849,7 @@
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>0.32637790881762413</t>
+          <t>0.5060883604535684</t>
         </is>
       </c>
     </row>
@@ -13866,7 +13866,7 @@
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>0.32629615519237315</t>
+          <t>0.47026710937760235</t>
         </is>
       </c>
     </row>
@@ -13883,7 +13883,7 @@
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>0.510007753907581</t>
+          <t>0.49191655770842246</t>
         </is>
       </c>
     </row>
@@ -13900,7 +13900,7 @@
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>0.2972517053456939</t>
+          <t>0.5133633663215261</t>
         </is>
       </c>
     </row>
@@ -13917,7 +13917,7 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>0.4561510313402445</t>
+          <t>0.5487540105642498</t>
         </is>
       </c>
     </row>
@@ -13934,7 +13934,7 @@
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>0.3758558957412587</t>
+          <t>0.5010673191136287</t>
         </is>
       </c>
     </row>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>0.5126517666598239</t>
+          <t>0.6041184781729552</t>
         </is>
       </c>
     </row>
@@ -13968,7 +13968,7 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>0.2502848263832274</t>
+          <t>0.36251223440722047</t>
         </is>
       </c>
     </row>
@@ -13985,7 +13985,7 @@
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>0.5126517666598236</t>
+          <t>0.5699480893391555</t>
         </is>
       </c>
     </row>
@@ -14002,7 +14002,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>0.5404732052543989</t>
+          <t>0.5997663863335141</t>
         </is>
       </c>
     </row>
@@ -14019,7 +14019,7 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>0.198933952353864</t>
+          <t>0.24548668393693537</t>
         </is>
       </c>
     </row>
@@ -14036,7 +14036,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -14053,7 +14053,7 @@
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>0.17071822128704278</t>
+          <t>0.24441217683631616</t>
         </is>
       </c>
     </row>
@@ -14070,7 +14070,7 @@
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>0.6325125567936412</t>
+          <t>0.7527107453773279</t>
         </is>
       </c>
     </row>
@@ -14087,7 +14087,7 @@
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>0.37864828658456134</t>
+          <t>0.4582840917412809</t>
         </is>
       </c>
     </row>
@@ -14104,7 +14104,7 @@
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>0.602936119595767</t>
+          <t>0.8141414893052435</t>
         </is>
       </c>
     </row>
@@ -14121,7 +14121,7 @@
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>0.43432221302546303</t>
+          <t>0.5547971015649678</t>
         </is>
       </c>
     </row>
@@ -14138,7 +14138,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>0.4201669382328938</t>
+          <t>0.5283148995385651</t>
         </is>
       </c>
     </row>
@@ -14155,7 +14155,7 @@
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>0.512027028686676</t>
+          <t>0.582027607746627</t>
         </is>
       </c>
     </row>
@@ -14172,7 +14172,7 @@
       </c>
       <c r="C808" t="inlineStr">
         <is>
-          <t>0.629551541793257</t>
+          <t>0.7089162435418992</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>0.5431817904346149</t>
+          <t>0.6173049500342045</t>
         </is>
       </c>
     </row>
@@ -14206,7 +14206,7 @@
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>0.40189485376461775</t>
+          <t>0.4445534347660251</t>
         </is>
       </c>
     </row>
@@ -14223,7 +14223,7 @@
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>0.4907922030901641</t>
+          <t>0.5705971525482497</t>
         </is>
       </c>
     </row>
@@ -14240,7 +14240,7 @@
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>0.6252190739445426</t>
+          <t>0.7350215115702312</t>
         </is>
       </c>
     </row>
@@ -14257,7 +14257,7 @@
       </c>
       <c r="C813" t="inlineStr">
         <is>
-          <t>0.5278648925962216</t>
+          <t>0.6821032303925342</t>
         </is>
       </c>
     </row>
@@ -14274,7 +14274,7 @@
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>0.47186751199903987</t>
+          <t>0.5801787489488578</t>
         </is>
       </c>
     </row>
@@ -14291,7 +14291,7 @@
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>0.23448772670499077</t>
+          <t>0.35005428337669114</t>
         </is>
       </c>
     </row>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>0.5546248503882224</t>
+          <t>0.7092898346710996</t>
         </is>
       </c>
     </row>
@@ -14325,7 +14325,7 @@
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>0.5096648227401338</t>
+          <t>0.5833728009265591</t>
         </is>
       </c>
     </row>
@@ -14342,7 +14342,7 @@
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>0.23441964015946307</t>
+          <t>0.2845206727574669</t>
         </is>
       </c>
     </row>
@@ -14359,7 +14359,7 @@
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>0.6022001010930377</t>
+          <t>0.699092273711303</t>
         </is>
       </c>
     </row>
@@ -14376,7 +14376,7 @@
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>0.3452732453302694</t>
+          <t>0.3442671400223501</t>
         </is>
       </c>
     </row>
@@ -14393,7 +14393,7 @@
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>0.7868201847321444</t>
+          <t>0.7035511600721477</t>
         </is>
       </c>
     </row>
@@ -14410,7 +14410,7 @@
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>0.9256859869821294</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -14427,7 +14427,7 @@
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>0.8807928977764419</t>
+          <t>0.8728341199762156</t>
         </is>
       </c>
     </row>
@@ -14444,7 +14444,7 @@
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>0.5096687072835645</t>
+          <t>0.6148712363209827</t>
         </is>
       </c>
     </row>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>0.650456548368508</t>
+          <t>0.7792595439685595</t>
         </is>
       </c>
     </row>
@@ -14478,7 +14478,7 @@
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>0.8251968949342463</t>
+          <t>0.7881625505131378</t>
         </is>
       </c>
     </row>
@@ -14495,7 +14495,7 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>0.7960670081782801</t>
+          <t>0.772252981554741</t>
         </is>
       </c>
     </row>
@@ -14512,7 +14512,7 @@
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>0.5773245316887811</t>
+          <t>0.48629481408195346</t>
         </is>
       </c>
     </row>
@@ -14529,7 +14529,7 @@
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>0.7008181040593444</t>
+          <t>0.6565103601651208</t>
         </is>
       </c>
     </row>
@@ -14546,7 +14546,7 @@
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>0.7960670081782801</t>
+          <t>0.7792595439685595</t>
         </is>
       </c>
     </row>
@@ -14563,7 +14563,7 @@
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>0.7960670081782801</t>
+          <t>0.7792595439685595</t>
         </is>
       </c>
     </row>
@@ -14580,7 +14580,7 @@
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>0.6248610442965365</t>
+          <t>0.7642039498928617</t>
         </is>
       </c>
     </row>
@@ -14597,7 +14597,7 @@
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>0.4267845738022347</t>
+          <t>0.5943956676240301</t>
         </is>
       </c>
     </row>
@@ -14614,7 +14614,7 @@
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>0.6091521072677788</t>
+          <t>0.7138672085502374</t>
         </is>
       </c>
     </row>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>0.5831568649323574</t>
+          <t>0.6667213520416455</t>
         </is>
       </c>
     </row>
@@ -14648,7 +14648,7 @@
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>0.2552209094171101</t>
+          <t>0.3473887699575347</t>
         </is>
       </c>
     </row>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>0.40089356257364633</t>
+          <t>0.5998892071521699</t>
         </is>
       </c>
     </row>
@@ -14682,7 +14682,7 @@
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>0.30607623851563215</t>
+          <t>0.3810926944988946</t>
         </is>
       </c>
     </row>
@@ -14699,7 +14699,7 @@
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9156850719552424</t>
         </is>
       </c>
     </row>
@@ -14716,7 +14716,7 @@
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>0.7035103037093104</t>
+          <t>0.5814703136567769</t>
         </is>
       </c>
     </row>
@@ -14733,7 +14733,7 @@
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>0.3869709701415221</t>
+          <t>0.36277596329720146</t>
         </is>
       </c>
     </row>
@@ -14750,7 +14750,7 @@
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>0.8934100923660718</t>
+          <t>0.7372038858376462</t>
         </is>
       </c>
     </row>
@@ -14767,7 +14767,7 @@
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.7473916042214731</t>
         </is>
       </c>
     </row>
@@ -14784,7 +14784,7 @@
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.8116993396258765</t>
         </is>
       </c>
     </row>
@@ -14801,7 +14801,7 @@
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>0.804006426503862</t>
+          <t>0.6858154656525228</t>
         </is>
       </c>
     </row>
@@ -14818,7 +14818,7 @@
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>0.8896647051756054</t>
+          <t>0.8152975655059423</t>
         </is>
       </c>
     </row>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="C847" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.8903484540676481</t>
         </is>
       </c>
     </row>
@@ -14852,7 +14852,7 @@
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9483085247724613</t>
         </is>
       </c>
     </row>
@@ -14869,7 +14869,7 @@
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>0.32831077426067345</t>
+          <t>0.3825860929196665</t>
         </is>
       </c>
     </row>
@@ -14886,7 +14886,7 @@
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>0.26206300814699507</t>
+          <t>0.39308015547315306</t>
         </is>
       </c>
     </row>
@@ -14903,7 +14903,7 @@
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>0.30980757122154134</t>
+          <t>0.4174525357228982</t>
         </is>
       </c>
     </row>
@@ -14920,7 +14920,7 @@
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>0.26785372192201873</t>
+          <t>0.35630988593765284</t>
         </is>
       </c>
     </row>
@@ -14937,7 +14937,7 @@
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>0.30871623292448114</t>
+          <t>0.3477783984578286</t>
         </is>
       </c>
     </row>
@@ -14954,7 +14954,7 @@
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>0.40625052374342396</t>
+          <t>0.44784557471932773</t>
         </is>
       </c>
     </row>
@@ -14971,7 +14971,7 @@
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>0.27024226267784984</t>
+          <t>0.4183011129200479</t>
         </is>
       </c>
     </row>
@@ -14988,7 +14988,7 @@
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>0.8275409279421797</t>
+          <t>0.9340768271178619</t>
         </is>
       </c>
     </row>
@@ -15005,7 +15005,7 @@
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>0.41161559649527063</t>
+          <t>0.5503073333297466</t>
         </is>
       </c>
     </row>
@@ -15022,7 +15022,7 @@
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>0.7861421714762828</t>
+          <t>0.9425223664137268</t>
         </is>
       </c>
     </row>
@@ -15039,7 +15039,7 @@
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15056,7 +15056,7 @@
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9156850719552424</t>
         </is>
       </c>
     </row>
@@ -15073,7 +15073,7 @@
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>0.7079891911499864</t>
+          <t>0.6415123997208447</t>
         </is>
       </c>
     </row>
@@ -15090,7 +15090,7 @@
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>0.8436854418505092</t>
+          <t>0.9045801517222475</t>
         </is>
       </c>
     </row>
@@ -15107,7 +15107,7 @@
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15124,7 +15124,7 @@
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>0.479622796540005</t>
+          <t>0.5715432459888516</t>
         </is>
       </c>
     </row>
@@ -15158,7 +15158,7 @@
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>0.3976289403512507</t>
+          <t>0.5694956703583551</t>
         </is>
       </c>
     </row>
@@ -15175,7 +15175,7 @@
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>0.4839299480785302</t>
+          <t>0.6154587809277017</t>
         </is>
       </c>
     </row>
@@ -15192,7 +15192,7 @@
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>0.479622796540005</t>
+          <t>0.5620042913571779</t>
         </is>
       </c>
     </row>
@@ -15209,7 +15209,7 @@
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>0.33500416882741313</t>
+          <t>0.42770828137352684</t>
         </is>
       </c>
     </row>
@@ -15226,7 +15226,7 @@
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>0.39408982117343255</t>
+          <t>0.49177207588498895</t>
         </is>
       </c>
     </row>
@@ -15243,7 +15243,7 @@
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>0.409512308244075</t>
+          <t>0.4219880495235412</t>
         </is>
       </c>
     </row>
@@ -15260,7 +15260,7 @@
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>0.2740348457972766</t>
+          <t>0.40605371407846375</t>
         </is>
       </c>
     </row>
@@ -15277,7 +15277,7 @@
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>0.6948483155363008</t>
+          <t>0.7495514109030879</t>
         </is>
       </c>
     </row>
@@ -15294,7 +15294,7 @@
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>0.7997066138112057</t>
+          <t>0.817487004083267</t>
         </is>
       </c>
     </row>
@@ -15311,7 +15311,7 @@
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>0.7997066138112057</t>
+          <t>0.7521906577609695</t>
         </is>
       </c>
     </row>
@@ -15328,7 +15328,7 @@
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>0.5015421911855087</t>
+          <t>0.4026207845221839</t>
         </is>
       </c>
     </row>
@@ -15345,7 +15345,7 @@
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>0.6402553071250262</t>
+          <t>0.7703691820105993</t>
         </is>
       </c>
     </row>
@@ -15362,7 +15362,7 @@
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>0.7997066138112057</t>
+          <t>0.7495514109030879</t>
         </is>
       </c>
     </row>
@@ -15379,7 +15379,7 @@
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>0.7997066138112057</t>
+          <t>0.7495514109030879</t>
         </is>
       </c>
     </row>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>0.4555514715167118</t>
+          <t>0.5105544535606018</t>
         </is>
       </c>
     </row>
@@ -15413,7 +15413,7 @@
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>0.3520573820573307</t>
+          <t>0.4019188506971638</t>
         </is>
       </c>
     </row>
@@ -15430,7 +15430,7 @@
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>0.408639311106579</t>
+          <t>0.5487083623079247</t>
         </is>
       </c>
     </row>
@@ -15447,7 +15447,7 @@
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>0.47977119137474555</t>
+          <t>0.47636259571133543</t>
         </is>
       </c>
     </row>
@@ -15464,7 +15464,7 @@
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>0.37579418340413373</t>
+          <t>0.3494303868617336</t>
         </is>
       </c>
     </row>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>0.36885918379357086</t>
+          <t>0.5131668748329558</t>
         </is>
       </c>
     </row>
@@ -15498,7 +15498,7 @@
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>0.2794371808869417</t>
+          <t>0.2665360567681437</t>
         </is>
       </c>
     </row>
@@ -15515,7 +15515,7 @@
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>0.24431821192980605</t>
+          <t>0.35228945072651</t>
         </is>
       </c>
     </row>
@@ -15532,7 +15532,7 @@
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>0.41901084524233567</t>
+          <t>0.6640493282686909</t>
         </is>
       </c>
     </row>
@@ -15549,7 +15549,7 @@
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>0.4335941172605442</t>
+          <t>0.6323032965226588</t>
         </is>
       </c>
     </row>
@@ -15566,7 +15566,7 @@
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>0.3170007152085467</t>
+          <t>0.38269285380192286</t>
         </is>
       </c>
     </row>
@@ -15583,7 +15583,7 @@
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>0.38282468122945496</t>
+          <t>0.40311100702533</t>
         </is>
       </c>
     </row>
@@ -15600,7 +15600,7 @@
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>0.34147452236896836</t>
+          <t>0.34930389119462474</t>
         </is>
       </c>
     </row>
@@ -15617,7 +15617,7 @@
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>0.34147452236896836</t>
+          <t>0.42337657555433356</t>
         </is>
       </c>
     </row>
@@ -15634,7 +15634,7 @@
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>0.32159288959292814</t>
+          <t>0.36803068593488697</t>
         </is>
       </c>
     </row>
@@ -15651,7 +15651,7 @@
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>0.27303801470746103</t>
+          <t>0.37153660458225557</t>
         </is>
       </c>
     </row>
@@ -15668,7 +15668,7 @@
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>0.2526263090558348</t>
+          <t>0.3996024176010812</t>
         </is>
       </c>
     </row>
@@ -15685,7 +15685,7 @@
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>0.35571555578189096</t>
+          <t>0.3622175120720811</t>
         </is>
       </c>
     </row>
@@ -15702,7 +15702,7 @@
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>0.2229658838334019</t>
+          <t>0.27416960669424245</t>
         </is>
       </c>
     </row>
@@ -15719,7 +15719,7 @@
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>0.4213310513856669</t>
+          <t>0.4353828192990374</t>
         </is>
       </c>
     </row>
@@ -15736,7 +15736,7 @@
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>0.39629082667335297</t>
+          <t>0.5004537921507615</t>
         </is>
       </c>
     </row>
@@ -15753,7 +15753,7 @@
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15770,7 +15770,7 @@
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15787,7 +15787,7 @@
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>0.7787423296929633</t>
+          <t>0.8014678364619716</t>
         </is>
       </c>
     </row>
@@ -15804,7 +15804,7 @@
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>0.7771986565691511</t>
+          <t>0.934076827117862</t>
         </is>
       </c>
     </row>
@@ -15821,7 +15821,7 @@
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15838,7 +15838,7 @@
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15855,7 +15855,7 @@
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>0.5158416157089437</t>
+          <t>0.522809933503755</t>
         </is>
       </c>
     </row>
@@ -15872,7 +15872,7 @@
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>0.3087336531773333</t>
+          <t>0.3522840139799054</t>
         </is>
       </c>
     </row>
@@ -15889,7 +15889,7 @@
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>0.4426818379084672</t>
+          <t>0.5483399343392193</t>
         </is>
       </c>
     </row>
@@ -15906,7 +15906,7 @@
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>0.4164271180595705</t>
+          <t>0.47372358991636565</t>
         </is>
       </c>
     </row>
@@ -15923,7 +15923,7 @@
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>0.3088009180125802</t>
+          <t>0.4471742512810563</t>
         </is>
       </c>
     </row>
@@ -15940,7 +15940,7 @@
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>0.31718140268276207</t>
+          <t>0.44578885501758625</t>
         </is>
       </c>
     </row>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>0.39400877722473493</t>
+          <t>0.4997466087455868</t>
         </is>
       </c>
     </row>
@@ -15974,7 +15974,7 @@
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15991,7 +15991,7 @@
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>0.7079891911499864</t>
+          <t>0.698978029656733</t>
         </is>
       </c>
     </row>
@@ -16008,7 +16008,7 @@
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>0.917962716490072</t>
+          <t>0.9340768271178619</t>
         </is>
       </c>
     </row>
@@ -16025,7 +16025,7 @@
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -16042,7 +16042,7 @@
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -16059,7 +16059,7 @@
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>0.4049265855874318</t>
+          <t>0.47017739160776706</t>
         </is>
       </c>
     </row>
@@ -16076,7 +16076,7 @@
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>0.34753675845523124</t>
+          <t>0.4277718980060125</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>0.5928842098846943</t>
+          <t>0.7029155270281294</t>
         </is>
       </c>
     </row>
@@ -16110,7 +16110,7 @@
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>0.4049265855874318</t>
+          <t>0.47372358991636565</t>
         </is>
       </c>
     </row>
@@ -16127,7 +16127,7 @@
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>0.2649023148518554</t>
+          <t>0.29114716854259876</t>
         </is>
       </c>
     </row>
@@ -16144,7 +16144,7 @@
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>0.32637790881762413</t>
+          <t>0.5060883604535684</t>
         </is>
       </c>
     </row>
@@ -16161,7 +16161,7 @@
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>0.27149297719981297</t>
+          <t>0.3872805148151406</t>
         </is>
       </c>
     </row>
@@ -16178,7 +16178,7 @@
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>0.6608026320727708</t>
+          <t>0.6430516235991681</t>
         </is>
       </c>
     </row>
@@ -16195,7 +16195,7 @@
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9190854481162105</t>
         </is>
       </c>
     </row>
@@ -16212,7 +16212,7 @@
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -16229,7 +16229,7 @@
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -16246,7 +16246,7 @@
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>0.431611215629259</t>
+          <t>0.39178274164832066</t>
         </is>
       </c>
     </row>
@@ -16263,7 +16263,7 @@
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>0.31156676675184874</t>
+          <t>0.3062821080641511</t>
         </is>
       </c>
     </row>
@@ -16280,7 +16280,7 @@
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>0.37770771113044466</t>
+          <t>0.4929324319859154</t>
         </is>
       </c>
     </row>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>0.3936192339289017</t>
+          <t>0.3845113849863816</t>
         </is>
       </c>
     </row>
@@ -16314,7 +16314,7 @@
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>0.22989078288370668</t>
+          <t>0.2981611106030612</t>
         </is>
       </c>
     </row>
@@ -16331,7 +16331,7 @@
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>0.32629615519237315</t>
+          <t>0.47026710937760235</t>
         </is>
       </c>
     </row>
@@ -16348,7 +16348,7 @@
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>0.309672291257409</t>
+          <t>0.41457713114803335</t>
         </is>
       </c>
     </row>
@@ -16365,7 +16365,7 @@
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>0.5994132276224119</t>
+          <t>0.6293585323087786</t>
         </is>
       </c>
     </row>
@@ -16382,7 +16382,7 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>0.6623919779028781</t>
+          <t>0.6915799630064797</t>
         </is>
       </c>
     </row>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>0.7253707281833444</t>
+          <t>0.7306508931782006</t>
         </is>
       </c>
     </row>
@@ -16416,7 +16416,7 @@
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>0.3638251965207934</t>
+          <t>0.45789407293545287</t>
         </is>
       </c>
     </row>
@@ -16433,7 +16433,7 @@
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>0.2682045352094194</t>
+          <t>0.36879821436859317</t>
         </is>
       </c>
     </row>
@@ -16450,7 +16450,7 @@
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>0.3189027409784027</t>
+          <t>0.40733046544895657</t>
         </is>
       </c>
     </row>
@@ -16467,7 +16467,7 @@
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>0.3638251965207934</t>
+          <t>0.40418981905339163</t>
         </is>
       </c>
     </row>
@@ -16484,7 +16484,7 @@
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>0.40618544651459076</t>
+          <t>0.3765001858869249</t>
         </is>
       </c>
     </row>
@@ -16501,7 +16501,7 @@
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>0.510007753907581</t>
+          <t>0.49191655770842246</t>
         </is>
       </c>
     </row>
@@ -16518,7 +16518,7 @@
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>0.4831706463680568</t>
+          <t>0.6268176385167491</t>
         </is>
       </c>
     </row>
@@ -16535,7 +16535,7 @@
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>0.917962716490072</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -16552,7 +16552,7 @@
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>0.917962716490072</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -16569,7 +16569,7 @@
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>0.3996163753578973</t>
+          <t>0.39856457674055584</t>
         </is>
       </c>
     </row>
@@ -16586,7 +16586,7 @@
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>0.3002216270015698</t>
+          <t>0.2796482526266743</t>
         </is>
       </c>
     </row>
@@ -16603,7 +16603,7 @@
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>0.3678811523871915</t>
+          <t>0.4774785046410294</t>
         </is>
       </c>
     </row>
@@ -16620,7 +16620,7 @@
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>0.370872961625015</t>
+          <t>0.339233585793611</t>
         </is>
       </c>
     </row>
@@ -16637,7 +16637,7 @@
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>0.2807989290550851</t>
+          <t>0.31571105829482743</t>
         </is>
       </c>
     </row>
@@ -16654,7 +16654,7 @@
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>0.2972517053456939</t>
+          <t>0.5133633663215261</t>
         </is>
       </c>
     </row>
@@ -16671,7 +16671,7 @@
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>0.4473153869023902</t>
+          <t>0.4905915442169744</t>
         </is>
       </c>
     </row>
@@ -16688,7 +16688,7 @@
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -16705,7 +16705,7 @@
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>0.3848790520148435</t>
+          <t>0.49886223957897563</t>
         </is>
       </c>
     </row>
@@ -16722,7 +16722,7 @@
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>0.3087336531773333</t>
+          <t>0.2660694999205808</t>
         </is>
       </c>
     </row>
@@ -16739,7 +16739,7 @@
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>0.433191935230579</t>
+          <t>0.5126525674649292</t>
         </is>
       </c>
     </row>
@@ -16756,7 +16756,7 @@
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>0.34963402504593316</t>
+          <t>0.39625281978992544</t>
         </is>
       </c>
     </row>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>0.26191297606102093</t>
+          <t>0.31403152086999003</t>
         </is>
       </c>
     </row>
@@ -16790,7 +16790,7 @@
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>0.4561510313402445</t>
+          <t>0.5487540105642498</t>
         </is>
       </c>
     </row>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>0.38811707925782557</t>
+          <t>0.5450687162046315</t>
         </is>
       </c>
     </row>
@@ -16824,7 +16824,7 @@
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>0.38351667398890676</t>
+          <t>0.41688894173905355</t>
         </is>
       </c>
     </row>
@@ -16841,7 +16841,7 @@
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>0.3087336531773333</t>
+          <t>0.2660694999205808</t>
         </is>
       </c>
     </row>
@@ -16858,7 +16858,7 @@
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>0.38782796319047586</t>
+          <t>0.5317930024070758</t>
         </is>
       </c>
     </row>
@@ -16875,7 +16875,7 @@
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>0.34963402504593316</t>
+          <t>0.3845113849863816</t>
         </is>
       </c>
     </row>
@@ -16892,7 +16892,7 @@
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>0.23365952462246786</t>
+          <t>0.36370050938568116</t>
         </is>
       </c>
     </row>
@@ -16909,7 +16909,7 @@
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>0.3758558957412587</t>
+          <t>0.5010673191136287</t>
         </is>
       </c>
     </row>
@@ -16926,7 +16926,7 @@
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>0.44342960178045604</t>
+          <t>0.6098517876332177</t>
         </is>
       </c>
     </row>
@@ -16943,7 +16943,7 @@
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>0.74024972976623</t>
+          <t>0.8165219710173579</t>
         </is>
       </c>
     </row>
@@ -16960,7 +16960,7 @@
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>0.6367966173615941</t>
+          <t>0.7148881462351875</t>
         </is>
       </c>
     </row>
@@ -16977,7 +16977,7 @@
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9983636725938129</t>
         </is>
       </c>
     </row>
@@ -16994,7 +16994,7 @@
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>0.11318223596500834</t>
+          <t>0.18646802038688798</t>
         </is>
       </c>
     </row>
@@ -17011,7 +17011,7 @@
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>0.5126517666598239</t>
+          <t>0.6041184781729552</t>
         </is>
       </c>
     </row>
@@ -17028,7 +17028,7 @@
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>0.21625236317971974</t>
+          <t>0.2900351930497636</t>
         </is>
       </c>
     </row>
@@ -17045,7 +17045,7 @@
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>0.4436039340964991</t>
+          <t>0.48289161707715866</t>
         </is>
       </c>
     </row>
@@ -17062,7 +17062,7 @@
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>0.998509098917632</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -17079,7 +17079,7 @@
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>0.332812534195959</t>
+          <t>0.42603399094958966</t>
         </is>
       </c>
     </row>
@@ -17096,7 +17096,7 @@
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>0.2502848263832274</t>
+          <t>0.36251223440722047</t>
         </is>
       </c>
     </row>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>0.27593544073839327</t>
+          <t>0.3483827919937081</t>
         </is>
       </c>
     </row>
@@ -17130,7 +17130,7 @@
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>0.7732266742876339</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -17147,7 +17147,7 @@
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>0.1686020404544231</t>
+          <t>0.20894377738414507</t>
         </is>
       </c>
     </row>
@@ -17164,7 +17164,7 @@
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>0.5331897691039258</t>
+          <t>0.663963071979175</t>
         </is>
       </c>
     </row>
@@ -17181,7 +17181,7 @@
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>0.20278980478229267</t>
+          <t>0.2644358860625594</t>
         </is>
       </c>
     </row>
@@ -17198,7 +17198,7 @@
       </c>
       <c r="C986" t="inlineStr">
         <is>
-          <t>0.366421609271653</t>
+          <t>0.4416525341971574</t>
         </is>
       </c>
     </row>
@@ -17215,7 +17215,7 @@
       </c>
       <c r="C987" t="inlineStr">
         <is>
-          <t>0.5404732052543989</t>
+          <t>0.5997663863335141</t>
         </is>
       </c>
     </row>
@@ -17232,7 +17232,7 @@
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>0.24754102947541534</t>
+          <t>0.346280788629154</t>
         </is>
       </c>
     </row>
@@ -17249,7 +17249,7 @@
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>0.2169664208744549</t>
+          <t>0.2578035345308588</t>
         </is>
       </c>
     </row>
@@ -17266,7 +17266,7 @@
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>0.20663187186322177</t>
+          <t>0.22564652359495185</t>
         </is>
       </c>
     </row>
@@ -17283,7 +17283,7 @@
       </c>
       <c r="C991" t="inlineStr">
         <is>
-          <t>0.2050590252404077</t>
+          <t>0.3067214013209377</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/correlation-values.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/correlation-values.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MIC" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="MIC" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -470,7 +470,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.954635299543599</t>
+          <t>0.7806662203246189</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.7148881462351875</t>
+          <t>0.5238235696850987</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9983636725938129</t>
+          <t>0.9865446300055647</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.19755785170995915</t>
+          <t>0.12463477575221504</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.24078738652843237</t>
+          <t>0.15284501049829907</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.37413280322597214</t>
+          <t>0.24352544098868584</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.24078738652843237</t>
+          <t>0.17580986920772007</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.5756676449959574</t>
+          <t>0.3813667700103443</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.3826521727059141</t>
+          <t>0.24352544098868584</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.2541833949159426</t>
+          <t>0.15229906764016818</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.4519498145020462</t>
+          <t>0.2475410294754155</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.3350668046817207</t>
+          <t>0.26929846167866145</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.24078738652843237</t>
+          <t>0.17652749151702624</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.53590948770304</t>
+          <t>0.4401687508909026</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.6292271769356287</t>
+          <t>0.33556851939282706</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.6292271769356287</t>
+          <t>0.33556851939282706</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.5428479137837365</t>
+          <t>0.4476569880870346</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.6292271769356287</t>
+          <t>0.3539651081888908</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.5055108718194654</t>
+          <t>0.35263996647052626</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.5428479137837365</t>
+          <t>0.4476569880870346</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.6225509733003604</t>
+          <t>0.3539651081888908</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.5199595912367255</t>
+          <t>0.35263996647052626</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.5801787489488576</t>
+          <t>0.3874202619735598</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.6041184781729549</t>
+          <t>0.33556851939282706</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.5801787489488576</t>
+          <t>0.3874202619735598</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.7642039498928618</t>
+          <t>0.4765540824208275</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.3825860929196666</t>
+          <t>0.26227791745738743</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.5715432459888516</t>
+          <t>0.305866179690934</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.5105544535606018</t>
+          <t>0.48998846109728483</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.414448847476798</t>
+          <t>0.2912804338923249</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.522809933503755</t>
+          <t>0.2611279041205111</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.47017739160776706</t>
+          <t>0.2559923940293445</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.39178274164832066</t>
+          <t>0.3007857239882122</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.45789407293545287</t>
+          <t>0.26330281448280546</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.39856457674055584</t>
+          <t>0.25618504887078547</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.49886223957897563</t>
+          <t>0.38045973191946264</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.4168889417390537</t>
+          <t>0.2778250638978901</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.9983636725938129</t>
+          <t>0.9865446300055647</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.8165219710173579</t>
+          <t>0.5835475057540315</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.7148881462351875</t>
+          <t>0.5238235696850987</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.9983636725938129</t>
+          <t>0.9239335504109405</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.19755785170995915</t>
+          <t>0.15155172022030583</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.6041184781729549</t>
+          <t>0.33556851939282706</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.2900351930497638</t>
+          <t>0.2733925504109166</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.5000866997699275</t>
+          <t>0.38021876395152715</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.5127031746288467</t>
+          <t>0.40932340520203303</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.5163188697194604</t>
+          <t>0.40932340520203364</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.4197260752731704</t>
+          <t>0.44337268149961556</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.5163188697194604</t>
+          <t>0.3825868699231622</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.5561009994387924</t>
+          <t>0.35410841559132983</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.4409754795801024</t>
+          <t>0.5250479679096549</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.5163188697194604</t>
+          <t>0.40932340520203364</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.5295962972898471</t>
+          <t>0.34135783449762525</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.6328295080933338</t>
+          <t>0.5327662241821854</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.5163188697194604</t>
+          <t>0.4494439816151019</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.7149571010081249</t>
+          <t>0.7605905729633706</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.32564989166487246</t>
+          <t>0.21324512557997125</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.32564989166487246</t>
+          <t>0.21324512557997125</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.35720777580559815</t>
+          <t>0.2880074321873586</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.32564989166487246</t>
+          <t>0.21324512557997125</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.3533073989093317</t>
+          <t>0.33793807636960616</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0.35720777580559815</t>
+          <t>0.2880074321873586</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.32564989166487246</t>
+          <t>0.21324512557997125</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.28670141798710524</t>
+          <t>0.23343346793605452</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0.42861520040417705</t>
+          <t>0.35227213325283147</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.32564989166487246</t>
+          <t>0.21324512557997125</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.42861520040417705</t>
+          <t>0.35227213325283147</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.8522503803609405</t>
+          <t>0.5517273022166373</t>
         </is>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.4046559786742157</t>
+          <t>0.30216427523400424</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.6740007859924494</t>
+          <t>0.41118089982786504</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.6352368632199117</t>
+          <t>0.6169121161381432</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.312751636562777</t>
+          <t>0.2138052227119753</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.6152363949742523</t>
+          <t>0.45038262153160996</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0.3953724234608747</t>
+          <t>0.43174153412552596</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0.3465610009379516</t>
+          <t>0.34414109973343815</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0.34630002694291867</t>
+          <t>0.44242065621706034</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0.4013447160560791</t>
+          <t>0.34780366366651877</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0.4668793385600661</t>
+          <t>0.34414109973343815</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0.4266933510580405</t>
+          <t>0.4407168617724644</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0.954635299543599</t>
+          <t>0.7806662203246189</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0.5000866997699275</t>
+          <t>0.38021876395152715</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0.5127031746288467</t>
+          <t>0.36325720763698105</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0.32564989166487246</t>
+          <t>0.2378266530606309</t>
         </is>
       </c>
     </row>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0.28665606943615307</t>
+          <t>0.44162361861237226</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.47303215618255384</t>
+          <t>0.41418091582888705</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0.20894377738414507</t>
+          <t>0.14651443231590777</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0.15357320137094524</t>
+          <t>0.19161531326867542</t>
         </is>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0.3353966885149807</t>
+          <t>0.26846233184390605</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0.15357320137094524</t>
+          <t>0.19161531326867542</t>
         </is>
       </c>
     </row>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0.43364136066036635</t>
+          <t>0.3519103142566383</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0.32450509286699825</t>
+          <t>0.28753020979363886</t>
         </is>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0.15357320137094524</t>
+          <t>0.19161531326867542</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0.3769409211823908</t>
+          <t>0.30300415481674137</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0.1627155831712404</t>
+          <t>0.07589377993740172</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0.15357320137094524</t>
+          <t>0.19161531326867542</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0.1587729291109816</t>
+          <t>0.11970877364501464</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.7082119425999194</t>
+          <t>0.6262947211324302</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0.7082119425999194</t>
+          <t>0.6262947211324302</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>0.4931285322331685</t>
+          <t>0.45004068706519934</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>0.6629562793532694</t>
+          <t>0.5626898977911327</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>0.7116109233184235</t>
+          <t>0.45593710535682314</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0.484429617863956</t>
+          <t>0.4368785721273616</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>0.6261563939499927</t>
+          <t>0.5228806528001618</t>
         </is>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>0.6157086379221312</t>
+          <t>0.4315286637002637</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>0.5368569052833821</t>
+          <t>0.5126517666598237</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>0.5699480893391555</t>
+          <t>0.4368785721273616</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>0.7092898346710996</t>
+          <t>0.5452822458230049</t>
         </is>
       </c>
     </row>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>0.7138672085502374</t>
+          <t>0.45283754911828805</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>0.4174525357228982</t>
+          <t>0.3686751047471736</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0.6154587809277017</t>
+          <t>0.6480045150983854</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>0.5487083623079247</t>
+          <t>0.60254996964384</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>0.3996024176010812</t>
+          <t>0.2350055701600986</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>0.5483399343392193</t>
+          <t>0.5853934355037612</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0.7029155270281294</t>
+          <t>0.5004994015603611</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>0.4929324319859154</t>
+          <t>0.3318854949900574</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>0.40733046544895657</t>
+          <t>0.4312074564681128</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>0.4774785046410294</t>
+          <t>0.40305053581502825</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>0.5126525674649292</t>
+          <t>0.4302216905035463</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>0.5317930024070758</t>
+          <t>0.4302216905035463</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>0.7148881462351875</t>
+          <t>0.4653137280624542</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>0.48289161707715866</t>
+          <t>0.250523569011251</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.7732266742876339</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.6823175833785431</t>
         </is>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>0.20894377738414507</t>
+          <t>0.16524381307880126</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>0.663963071979175</t>
+          <t>0.5031552479679859</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>0.2644358860625594</t>
+          <t>0.175086044178128</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>0.5309036418355016</t>
+          <t>0.3475745976437271</t>
         </is>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>0.5731149228243761</t>
+          <t>0.4028587222104441</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>0.46540241086425993</t>
+          <t>0.34160465611616175</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>0.5731149228243761</t>
+          <t>0.4028587222104441</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>0.5561009994387924</t>
+          <t>0.3328455207748678</t>
         </is>
       </c>
     </row>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>0.4409754795801024</t>
+          <t>0.3743184332523164</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>0.5731149228243761</t>
+          <t>0.4028587222104441</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>0.5295962972898471</t>
+          <t>0.34546271536449774</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>0.5562130522802231</t>
+          <t>0.5439276188165214</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>0.5731149228243761</t>
+          <t>0.4028587222104441</t>
         </is>
       </c>
     </row>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>0.8035558981254178</t>
+          <t>0.7676189922614498</t>
         </is>
       </c>
     </row>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>0.4020243453491797</t>
+          <t>0.316207771284512</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>0.40202434534917986</t>
+          <t>0.3162077712845123</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>0.47351647510556333</t>
+          <t>0.4220226066126171</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>0.40202434534917986</t>
+          <t>0.3162077712845123</t>
         </is>
       </c>
     </row>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>0.43521980311057235</t>
+          <t>0.5053362394348502</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>0.47351647510556333</t>
+          <t>0.3998963402653797</t>
         </is>
       </c>
     </row>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>0.40202434534917986</t>
+          <t>0.3162077712845123</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>0.4019766279155936</t>
+          <t>0.45238716779997273</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>0.5569250239305233</t>
+          <t>0.544751934254837</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>0.40202434534917986</t>
+          <t>0.3162077712845123</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>0.5569250239305233</t>
+          <t>0.5810992307985686</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>0.8522503803609405</t>
+          <t>0.5517273022166373</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>0.4046559786742157</t>
+          <t>0.3076546143291442</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>0.6740007859924494</t>
+          <t>0.41118089982786504</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>0.6352368632199117</t>
+          <t>0.5409534957280914</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>0.47811066052432094</t>
+          <t>0.46321972458220295</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>0.6152363949742523</t>
+          <t>0.3637126210630599</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>0.4177064679007876</t>
+          <t>0.4758157199724801</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>0.4042945609881804</t>
+          <t>0.37695202191398425</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>0.34747679215832034</t>
+          <t>0.33213062983531366</t>
         </is>
       </c>
     </row>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>0.4042945609881804</t>
+          <t>0.3490216812853598</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>0.4668793385600661</t>
+          <t>0.3868024590538067</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>0.4266933510580405</t>
+          <t>0.3868024590538067</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>0.9983636725938129</t>
+          <t>0.9865446300055647</t>
         </is>
       </c>
     </row>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>0.9560898739101291</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>0.47303215618255384</t>
+          <t>0.41418091582888705</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>0.5309036418355016</t>
+          <t>0.3475745976437271</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>0.40202434534917986</t>
+          <t>0.3216461060228202</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>0.28665606943615307</t>
+          <t>0.5322955386493149</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.962412735462992</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>0.44095647355654227</t>
+          <t>0.3283414397883153</t>
         </is>
       </c>
     </row>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.962412735462992</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>0.578088439754593</t>
+          <t>0.5625247447687954</t>
         </is>
       </c>
     </row>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>0.36337089045331267</t>
+          <t>0.345879065460152</t>
         </is>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.962412735462992</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>0.4418536735667695</t>
+          <t>0.45055683539039887</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>0.2507915352042477</t>
+          <t>0.31265979431252644</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.962412735462992</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>0.4510034246105668</t>
+          <t>0.4571367119079419</t>
         </is>
       </c>
     </row>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>0.2578035345308587</t>
+          <t>0.3114841918858876</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>0.25780353453085914</t>
+          <t>0.3114841918858876</t>
         </is>
       </c>
     </row>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>0.27127824161302255</t>
+          <t>0.2483993618207649</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>0.24548668393693546</t>
+          <t>0.3114841918858876</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>0.3436442285029989</t>
+          <t>0.33113359030957046</t>
         </is>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>0.27127824161302255</t>
+          <t>0.2483993618207649</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>0.24548668393693546</t>
+          <t>0.3114841918858876</t>
         </is>
       </c>
     </row>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>0.34364422850299886</t>
+          <t>0.33113359030957046</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>0.2533756357519133</t>
+          <t>0.26457080179220094</t>
         </is>
       </c>
     </row>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>0.24548668393693546</t>
+          <t>0.3114841918858876</t>
         </is>
       </c>
     </row>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>0.2845206727574669</t>
+          <t>0.26457080179220094</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>0.3473887699575347</t>
+          <t>0.27909337370180426</t>
         </is>
       </c>
     </row>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>0.3477783984578286</t>
+          <t>0.36342034992414324</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>0.42770828137352684</t>
+          <t>0.31592956873907935</t>
         </is>
       </c>
     </row>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>0.3494303868617336</t>
+          <t>0.2800408498423754</t>
         </is>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>0.2687499179593845</t>
+          <t>0.2709224254217026</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>0.4471742512810562</t>
+          <t>0.31366475603728644</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>0.29114716854259876</t>
+          <t>0.23118551849714547</t>
         </is>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>0.2981611106030612</t>
+          <t>0.4061318883537047</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>0.3765001858869249</t>
+          <t>0.3577100578468569</t>
         </is>
       </c>
     </row>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>0.31571105829482743</t>
+          <t>0.38138702101703553</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>0.31403152086999003</t>
+          <t>0.34797368665440065</t>
         </is>
       </c>
     </row>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>0.36370050938568116</t>
+          <t>0.43923935108880496</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>0.18646802038688798</t>
+          <t>0.12463477575221504</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>0.42603399094958966</t>
+          <t>0.27320776755300047</t>
         </is>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>0.20894377738414507</t>
+          <t>0.14651443231590777</t>
         </is>
       </c>
     </row>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>0.4416525341971574</t>
+          <t>0.308067719805286</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>0.9468188316776022</t>
+          <t>0.9865446300055647</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>0.26083318805225364</t>
+          <t>0.3134961474790739</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>0.22564652359495185</t>
+          <t>0.191558555781555</t>
         </is>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>0.4489486003019205</t>
+          <t>0.3372543678767471</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.962412735462992</t>
         </is>
       </c>
     </row>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>0.5634975534769824</t>
+          <t>0.5111516200139885</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>0.4158015886752176</t>
+          <t>0.4925984143277516</t>
         </is>
       </c>
     </row>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.962412735462992</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>0.536498804817364</t>
+          <t>0.5451466329881068</t>
         </is>
       </c>
     </row>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>0.21995458943518553</t>
+          <t>0.3042931357665743</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.962412735462992</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>0.5209326478490961</t>
+          <t>0.4571367119079419</t>
         </is>
       </c>
     </row>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>0.21258293825892755</t>
+          <t>0.2893642529365013</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>0.21258293825892763</t>
+          <t>0.2893642529365015</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>0.21933784789392138</t>
+          <t>0.28936425293650114</t>
         </is>
       </c>
     </row>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>0.18204272258992132</t>
+          <t>0.2893642529365013</t>
         </is>
       </c>
     </row>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>0.2984236322310678</t>
+          <t>0.3944092872176561</t>
         </is>
       </c>
     </row>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>0.21933784789392138</t>
+          <t>0.28936425293650114</t>
         </is>
       </c>
     </row>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>0.18204272258992132</t>
+          <t>0.2893642529365015</t>
         </is>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>0.2984236322310679</t>
+          <t>0.3944092872176562</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>0.19398455795401462</t>
+          <t>0.2583962198296885</t>
         </is>
       </c>
     </row>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>0.18204272258992132</t>
+          <t>0.2893642529365013</t>
         </is>
       </c>
     </row>
@@ -4363,7 +4363,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>0.23930007648553578</t>
+          <t>0.28278207729369426</t>
         </is>
       </c>
     </row>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>0.4587908933794657</t>
+          <t>0.3358756578426087</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>0.368787446018571</t>
+          <t>0.2814125789684942</t>
         </is>
       </c>
     </row>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>0.5370168516652402</t>
+          <t>0.3910931624214839</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>0.322388314839432</t>
+          <t>0.2493503004094005</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>0.31947123520887455</t>
+          <t>0.3089162003904774</t>
         </is>
       </c>
     </row>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>0.4397260287056144</t>
+          <t>0.36440002078625666</t>
         </is>
       </c>
     </row>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>0.3455295020416162</t>
+          <t>0.33544937616846854</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>0.3869739640227722</t>
+          <t>0.4630057837971265</t>
         </is>
       </c>
     </row>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>0.40073246032336807</t>
+          <t>0.48587679278503876</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>0.36471760013886634</t>
+          <t>0.4445796291771946</t>
         </is>
       </c>
     </row>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>0.3678194765940396</t>
+          <t>0.43391160424618974</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>0.4243254884942007</t>
+          <t>0.5024319592489641</t>
         </is>
       </c>
     </row>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>0.18531923311697687</t>
+          <t>0.15284501049829893</t>
         </is>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>0.3774131780308531</t>
+          <t>0.25767880510333135</t>
         </is>
       </c>
     </row>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>0.15357320137094524</t>
+          <t>0.19161531326867542</t>
         </is>
       </c>
     </row>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>0.4498220860494694</t>
+          <t>0.290545504416714</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.962412735462992</t>
         </is>
       </c>
     </row>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>0.21258293825892768</t>
+          <t>0.2893642529365015</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>0.22088528756633286</t>
+          <t>0.22017099769906984</t>
         </is>
       </c>
     </row>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>0.4489486003019205</t>
+          <t>0.31344819457979584</t>
         </is>
       </c>
     </row>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.8904434738684622</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.998509098917632</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>0.4489486003019205</t>
+          <t>0.31344819457979584</t>
         </is>
       </c>
     </row>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.998509098917632</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>0.9983636725938129</t>
+          <t>0.7592608055723085</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>0.4489486003019205</t>
+          <t>0.31344819457979584</t>
         </is>
       </c>
     </row>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>0.7581959327577178</t>
+          <t>0.5982226680241937</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>0.3882438142267913</t>
+          <t>0.37239830297138904</t>
         </is>
       </c>
     </row>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>0.38824381422679133</t>
+          <t>0.372398302971389</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>0.446480697460745</t>
+          <t>0.35209211464906</t>
         </is>
       </c>
     </row>
@@ -4890,7 +4890,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>0.38824381422679133</t>
+          <t>0.32694375751684357</t>
         </is>
       </c>
     </row>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>0.4884765383476337</t>
+          <t>0.37239830297138904</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>0.446480697460745</t>
+          <t>0.35209211464906015</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>0.3882438142267917</t>
+          <t>0.32694375751684357</t>
         </is>
       </c>
     </row>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>0.5202225700936652</t>
+          <t>0.3836700721995204</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>0.4643145049035332</t>
+          <t>0.3625074707625152</t>
         </is>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>0.34632222088317566</t>
+          <t>0.32574353754280444</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>0.4719126785820207</t>
+          <t>0.3723983029713889</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>0.8573392579728359</t>
+          <t>0.697735880004357</t>
         </is>
       </c>
     </row>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>0.7926477715661455</t>
+          <t>0.7963026164789268</t>
         </is>
       </c>
     </row>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.7853292836497768</t>
         </is>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>0.8019707319331975</t>
+          <t>0.7045470005938475</t>
         </is>
       </c>
     </row>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>0.37899534463713713</t>
+          <t>0.36789457107767193</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>0.8299986157969532</t>
+          <t>0.6327457332986066</t>
         </is>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>0.9190854481162107</t>
+          <t>0.8758581656023543</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>0.8686331278097014</t>
+          <t>0.5185542393485161</t>
         </is>
       </c>
     </row>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>0.5046867498057843</t>
+          <t>0.4661801758531973</t>
         </is>
       </c>
     </row>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>0.8760044523606563</t>
+          <t>0.5501837319181282</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>0.9253745019461711</t>
+          <t>0.638105942871856</t>
         </is>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>0.9379113496604994</t>
+          <t>0.638105942871856</t>
         </is>
       </c>
     </row>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>0.37413280322597214</t>
+          <t>0.20041492854207388</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>0.39857205129193873</t>
+          <t>0.27871909343887147</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>0.3353966885149807</t>
+          <t>0.26846233184390605</t>
         </is>
       </c>
     </row>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>0.4244299448194171</t>
+          <t>0.3792840544769054</t>
         </is>
       </c>
     </row>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>0.3615662408219133</t>
+          <t>0.31235337831218885</t>
         </is>
       </c>
     </row>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>0.3564977824807596</t>
+          <t>0.37239830297138904</t>
         </is>
       </c>
     </row>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>0.2693682556481319</t>
+          <t>0.35178492990113736</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>0.5634975534769824</t>
+          <t>0.5111516200139885</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>0.4517486125877636</t>
+          <t>0.3868024590538067</t>
         </is>
       </c>
     </row>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.962412735462992</t>
         </is>
       </c>
     </row>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>0.536498804817364</t>
+          <t>0.5451466329881068</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>0.2543164471555113</t>
+          <t>0.3450545734332318</t>
         </is>
       </c>
     </row>
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.962412735462992</t>
         </is>
       </c>
     </row>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>0.5209326478490961</t>
+          <t>0.4079015641072877</t>
         </is>
       </c>
     </row>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>0.21258293825892755</t>
+          <t>0.2893642529365013</t>
         </is>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>0.21258293825892763</t>
+          <t>0.2893642529365015</t>
         </is>
       </c>
     </row>
@@ -5502,7 +5502,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>0.20735550658973934</t>
+          <t>0.2893642529365013</t>
         </is>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>0.17006038128573947</t>
+          <t>0.2893642529365013</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>0.2984236322310678</t>
+          <t>0.3944092872176561</t>
         </is>
       </c>
     </row>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>0.20735550658973934</t>
+          <t>0.2893642529365013</t>
         </is>
       </c>
     </row>
@@ -5570,7 +5570,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>0.17006038128573947</t>
+          <t>0.2893642529365015</t>
         </is>
       </c>
     </row>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>0.2984236322310679</t>
+          <t>0.3944092872176562</t>
         </is>
       </c>
     </row>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>0.18200221664983282</t>
+          <t>0.2583962198296885</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>0.17006038128573947</t>
+          <t>0.2893642529365013</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>0.23930007648553578</t>
+          <t>0.28278207729369426</t>
         </is>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>0.4587908933794657</t>
+          <t>0.3608604819371465</t>
         </is>
       </c>
     </row>
@@ -5672,7 +5672,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>0.46125632916264636</t>
+          <t>0.2814125789684942</t>
         </is>
       </c>
     </row>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>0.5370168516652402</t>
+          <t>0.3910931624214839</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>0.34985916928134986</t>
+          <t>0.41645878844808465</t>
         </is>
       </c>
     </row>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>0.31947123520887455</t>
+          <t>0.3089162003904774</t>
         </is>
       </c>
     </row>
@@ -5740,7 +5740,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>0.4397260287056144</t>
+          <t>0.36440002078625666</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>0.34985916928134997</t>
+          <t>0.3608604819371461</t>
         </is>
       </c>
     </row>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>0.3869739640227722</t>
+          <t>0.4630057837971265</t>
         </is>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>0.40073246032336807</t>
+          <t>0.48587679278503876</t>
         </is>
       </c>
     </row>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>0.394185559407791</t>
+          <t>0.4445796291771946</t>
         </is>
       </c>
     </row>
@@ -5825,7 +5825,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>0.3835043629039083</t>
+          <t>0.43391160424618974</t>
         </is>
       </c>
     </row>
@@ -5842,7 +5842,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>0.4243254884942007</t>
+          <t>0.5024319592489641</t>
         </is>
       </c>
     </row>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>0.2177364844952045</t>
+          <t>0.17580986920772007</t>
         </is>
       </c>
     </row>
@@ -5876,7 +5876,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>0.3774131780308531</t>
+          <t>0.22758311922223606</t>
         </is>
       </c>
     </row>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>0.15357320137094524</t>
+          <t>0.19161531326867542</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>0.4498220860494694</t>
+          <t>0.290545504416714</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.962412735462992</t>
         </is>
       </c>
     </row>
@@ -5944,7 +5944,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>0.21258293825892768</t>
+          <t>0.2893642529365015</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>0.22088528756633286</t>
+          <t>0.22017099769906984</t>
         </is>
       </c>
     </row>
@@ -5978,7 +5978,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.8904434738684622</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>0.5634975534769824</t>
+          <t>0.5111516200139885</t>
         </is>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>0.6395556341875601</t>
+          <t>0.43983377710818305</t>
         </is>
       </c>
     </row>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>0.5634975534769824</t>
+          <t>0.5111516200139885</t>
         </is>
       </c>
     </row>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>0.7434751465197066</t>
+          <t>0.4672027975089874</t>
         </is>
       </c>
     </row>
@@ -6080,7 +6080,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>0.38924031658522934</t>
+          <t>0.37922169168920883</t>
         </is>
       </c>
     </row>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>0.38924031658522934</t>
+          <t>0.37922169168920883</t>
         </is>
       </c>
     </row>
@@ -6114,7 +6114,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>0.4778540706077184</t>
+          <t>0.33201844253059093</t>
         </is>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>0.3817202298523469</t>
+          <t>0.37922169168920883</t>
         </is>
       </c>
     </row>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>0.5267377327528151</t>
+          <t>0.426128844658619</t>
         </is>
       </c>
     </row>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>0.4778540706077184</t>
+          <t>0.33201844253059143</t>
         </is>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>0.3817202298523469</t>
+          <t>0.37922169168920883</t>
         </is>
       </c>
     </row>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>0.5267377327528151</t>
+          <t>0.426128844658619</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>0.5080428779537469</t>
+          <t>0.39408982117343255</t>
         </is>
       </c>
     </row>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>0.3817202298523469</t>
+          <t>0.37922169168920883</t>
         </is>
       </c>
     </row>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>0.5080428779537469</t>
+          <t>0.39408982117343255</t>
         </is>
       </c>
     </row>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>0.8058791336588795</t>
+          <t>0.6635523309217408</t>
         </is>
       </c>
     </row>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>0.6832762852297066</t>
+          <t>0.7770155175311637</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.8694307406026871</t>
         </is>
       </c>
     </row>
@@ -6318,7 +6318,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>0.8452890803966985</t>
+          <t>0.8230206025671954</t>
         </is>
       </c>
     </row>
@@ -6335,7 +6335,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>0.33424246523113416</t>
+          <t>0.2782983759439966</t>
         </is>
       </c>
     </row>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>0.8720092226615503</t>
+          <t>0.6549928026742513</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9865446300055647</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>0.9156850719552424</t>
+          <t>0.5188109126303097</t>
         </is>
       </c>
     </row>
@@ -6403,7 +6403,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>0.5400528360323891</t>
+          <t>0.44792997437586457</t>
         </is>
       </c>
     </row>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>0.8608517786720337</t>
+          <t>0.7035103037093104</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.7035103037093104</t>
         </is>
       </c>
     </row>
@@ -6454,7 +6454,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.7035103037093104</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>0.5756676449959574</t>
+          <t>0.3813667700103442</t>
         </is>
       </c>
     </row>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>0.5886371641821949</t>
+          <t>0.3676522923050993</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>0.43364136066036635</t>
+          <t>0.3519103142566383</t>
         </is>
       </c>
     </row>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>0.5808558150445273</t>
+          <t>0.3676522923050993</t>
         </is>
       </c>
     </row>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>0.578088439754593</t>
+          <t>0.5625247447687954</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>0.3817202298523469</t>
+          <t>0.37922169168920883</t>
         </is>
       </c>
     </row>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>0.26755546412460474</t>
+          <t>0.31087706935817083</t>
         </is>
       </c>
     </row>
@@ -6590,7 +6590,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>0.4517486125877633</t>
+          <t>0.3064751518914546</t>
         </is>
       </c>
     </row>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.998509098917632</t>
         </is>
       </c>
     </row>
@@ -6624,7 +6624,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>0.8625701569942859</t>
+          <t>0.5908537707037389</t>
         </is>
       </c>
     </row>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>0.3850428566631164</t>
+          <t>0.3019777740760627</t>
         </is>
       </c>
     </row>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>0.635051819783</t>
+          <t>0.6274513577190481</t>
         </is>
       </c>
     </row>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>0.3882438142267913</t>
+          <t>0.37239830297138904</t>
         </is>
       </c>
     </row>
@@ -6692,7 +6692,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>0.38824381422679144</t>
+          <t>0.3723983029713889</t>
         </is>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>0.446480697460745</t>
+          <t>0.35209211464906</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>0.38824381422679133</t>
+          <t>0.32694375751684357</t>
         </is>
       </c>
     </row>
@@ -6743,7 +6743,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>0.4884765383476337</t>
+          <t>0.37239830297138904</t>
         </is>
       </c>
     </row>
@@ -6760,7 +6760,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>0.446480697460745</t>
+          <t>0.35209211464906015</t>
         </is>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>0.3882438142267917</t>
+          <t>0.32694375751684357</t>
         </is>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>0.5202225700936652</t>
+          <t>0.3836700721995204</t>
         </is>
       </c>
     </row>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>0.44034207189734015</t>
+          <t>0.34064345272674956</t>
         </is>
       </c>
     </row>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>0.32850241585959344</t>
+          <t>0.2974600501928515</t>
         </is>
       </c>
     </row>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>0.4719126785820207</t>
+          <t>0.3723983029713889</t>
         </is>
       </c>
     </row>
@@ -6862,7 +6862,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>0.8573392579728359</t>
+          <t>0.697735880004357</t>
         </is>
       </c>
     </row>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>0.7926477715661455</t>
+          <t>0.7963026164789268</t>
         </is>
       </c>
     </row>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.7853292836497768</t>
         </is>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>0.8019707319331975</t>
+          <t>0.7045470005938475</t>
         </is>
       </c>
     </row>
@@ -6930,7 +6930,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>0.37899534463713713</t>
+          <t>0.36789457107767193</t>
         </is>
       </c>
     </row>
@@ -6947,7 +6947,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>0.8299986157969532</t>
+          <t>0.6825351514527309</t>
         </is>
       </c>
     </row>
@@ -6964,7 +6964,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>0.9190854481162107</t>
+          <t>0.8758581656023543</t>
         </is>
       </c>
     </row>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>0.8686331278097014</t>
+          <t>0.5185542393485161</t>
         </is>
       </c>
     </row>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>0.5046867498057843</t>
+          <t>0.4661801758531973</t>
         </is>
       </c>
     </row>
@@ -7015,7 +7015,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>0.8760044523606563</t>
+          <t>0.6176388486369969</t>
         </is>
       </c>
     </row>
@@ -7032,7 +7032,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>0.9253745019461711</t>
+          <t>0.638105942871856</t>
         </is>
       </c>
     </row>
@@ -7049,7 +7049,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>0.9379113496604994</t>
+          <t>0.638105942871856</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>0.3826521727059141</t>
+          <t>0.2241610601356872</t>
         </is>
       </c>
     </row>
@@ -7083,7 +7083,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>0.3705676712040307</t>
+          <t>0.33826756386148243</t>
         </is>
       </c>
     </row>
@@ -7100,7 +7100,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>0.32450509286699825</t>
+          <t>0.28753020979363886</t>
         </is>
       </c>
     </row>
@@ -7117,7 +7117,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>0.4244299448194171</t>
+          <t>0.28982818515053593</t>
         </is>
       </c>
     </row>
@@ -7134,7 +7134,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>0.30217031313062775</t>
+          <t>0.32419137945918186</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>0.3564977824807596</t>
+          <t>0.37239830297138904</t>
         </is>
       </c>
     </row>
@@ -7168,7 +7168,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>0.2372895844395379</t>
+          <t>0.28917385030651316</t>
         </is>
       </c>
     </row>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>0.536498804817364</t>
+          <t>0.5451466329881068</t>
         </is>
       </c>
     </row>
@@ -7202,7 +7202,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>0.2522235459541428</t>
+          <t>0.2686026469621992</t>
         </is>
       </c>
     </row>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.962412735462992</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>0.5209326478490961</t>
+          <t>0.43338179194332227</t>
         </is>
       </c>
     </row>
@@ -7253,7 +7253,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>0.21258293825892755</t>
+          <t>0.28936425293650164</t>
         </is>
       </c>
     </row>
@@ -7270,7 +7270,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>0.21258293825892763</t>
+          <t>0.28936425293650164</t>
         </is>
       </c>
     </row>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>0.20735550658973934</t>
+          <t>0.2893642529365013</t>
         </is>
       </c>
     </row>
@@ -7304,7 +7304,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>0.1700603812857393</t>
+          <t>0.28936425293650164</t>
         </is>
       </c>
     </row>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>0.2984236322310678</t>
+          <t>0.3944092872176561</t>
         </is>
       </c>
     </row>
@@ -7338,7 +7338,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>0.20735550658973934</t>
+          <t>0.2893642529365013</t>
         </is>
       </c>
     </row>
@@ -7355,7 +7355,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>0.1700603812857393</t>
+          <t>0.28936425293650164</t>
         </is>
       </c>
     </row>
@@ -7372,7 +7372,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>0.2984236322310679</t>
+          <t>0.3944092872176562</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>0.1820022166498326</t>
+          <t>0.2583962198296885</t>
         </is>
       </c>
     </row>
@@ -7406,7 +7406,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>0.1700603812857393</t>
+          <t>0.28936425293650164</t>
         </is>
       </c>
     </row>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>0.23930007648553578</t>
+          <t>0.28278207729369426</t>
         </is>
       </c>
     </row>
@@ -7440,7 +7440,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>0.4587908933794657</t>
+          <t>0.41105541027337333</t>
         </is>
       </c>
     </row>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>0.4097466069747651</t>
+          <t>0.2814125789684942</t>
         </is>
       </c>
     </row>
@@ -7474,7 +7474,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>0.5370168516652402</t>
+          <t>0.41105541027337333</t>
         </is>
       </c>
     </row>
@@ -7491,7 +7491,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>0.3498591692813497</t>
+          <t>0.41645878844808465</t>
         </is>
       </c>
     </row>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>0.31947123520887455</t>
+          <t>0.3089162003904774</t>
         </is>
       </c>
     </row>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>0.4397260287056144</t>
+          <t>0.4722842132653304</t>
         </is>
       </c>
     </row>
@@ -7542,7 +7542,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>0.3498591692813498</t>
+          <t>0.33544937616846854</t>
         </is>
       </c>
     </row>
@@ -7559,7 +7559,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>0.403766935789724</t>
+          <t>0.4630057837971265</t>
         </is>
       </c>
     </row>
@@ -7576,7 +7576,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>0.40073246032336807</t>
+          <t>0.48587679278503876</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>0.4379139324580045</t>
+          <t>0.4445796291771946</t>
         </is>
       </c>
     </row>
@@ -7610,7 +7610,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>0.4016946174619939</t>
+          <t>0.43391160424618974</t>
         </is>
       </c>
     </row>
@@ -7627,7 +7627,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>0.4243254884942007</t>
+          <t>0.5024319592489641</t>
         </is>
       </c>
     </row>
@@ -7644,7 +7644,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>0.2541833949159426</t>
+          <t>0.13371683927762246</t>
         </is>
       </c>
     </row>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>0.3774131780308531</t>
+          <t>0.22758311922223606</t>
         </is>
       </c>
     </row>
@@ -7678,7 +7678,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>0.15357320137094524</t>
+          <t>0.19161531326867542</t>
         </is>
       </c>
     </row>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>0.4498220860494694</t>
+          <t>0.290545504416714</t>
         </is>
       </c>
     </row>
@@ -7712,7 +7712,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.962412735462992</t>
         </is>
       </c>
     </row>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>0.21258293825892768</t>
+          <t>0.28936425293650164</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>0.22088528756633286</t>
+          <t>0.22017099769906984</t>
         </is>
       </c>
     </row>
@@ -7763,7 +7763,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>0.6994286463470526</t>
+          <t>0.4799101707723106</t>
         </is>
       </c>
     </row>
@@ -7780,7 +7780,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>0.536498804817364</t>
+          <t>0.5451466329881068</t>
         </is>
       </c>
     </row>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>0.8516026974880263</t>
+          <t>0.5023160201448436</t>
         </is>
       </c>
     </row>
@@ -7814,7 +7814,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>0.3806089982851191</t>
+          <t>0.3991198414336183</t>
         </is>
       </c>
     </row>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>0.3806089982851191</t>
+          <t>0.3991198414336181</t>
         </is>
       </c>
     </row>
@@ -7848,7 +7848,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>0.47248578090554894</t>
+          <t>0.3976289403512505</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>0.36957531929400844</t>
+          <t>0.3710736909686989</t>
         </is>
       </c>
     </row>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>0.5191624752214343</t>
+          <t>0.4073359006880008</t>
         </is>
       </c>
     </row>
@@ -7899,7 +7899,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>0.47248578090554927</t>
+          <t>0.3976289403512505</t>
         </is>
       </c>
     </row>
@@ -7916,7 +7916,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>0.4079598438416354</t>
+          <t>0.3826176839577454</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>0.5152078252272999</t>
+          <t>0.41478500018801834</t>
         </is>
       </c>
     </row>
@@ -7950,7 +7950,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>0.4741127058249118</t>
+          <t>0.41207132229397053</t>
         </is>
       </c>
     </row>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>0.36591862272593223</t>
+          <t>0.3710736909686989</t>
         </is>
       </c>
     </row>
@@ -7984,7 +7984,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>0.49863350108749305</t>
+          <t>0.41207132229397053</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>0.8540566215360029</t>
+          <t>0.7079891911499864</t>
         </is>
       </c>
     </row>
@@ -8018,7 +8018,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>0.7984339299248802</t>
+          <t>0.7119153581889095</t>
         </is>
       </c>
     </row>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.8970607951595264</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>0.8162024295877968</t>
+          <t>0.7802515065392427</t>
         </is>
       </c>
     </row>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>0.405357165964314</t>
+          <t>0.2939184704167176</t>
         </is>
       </c>
     </row>
@@ -8086,7 +8086,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>0.9209959897596507</t>
+          <t>0.7396055720864547</t>
         </is>
       </c>
     </row>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.8795365903336055</t>
         </is>
       </c>
     </row>
@@ -8120,7 +8120,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>0.9173221743734815</t>
+          <t>0.582656220025508</t>
         </is>
       </c>
     </row>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>0.5364623390185153</t>
+          <t>0.5032843390964504</t>
         </is>
       </c>
     </row>
@@ -8154,7 +8154,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>0.9307941906810291</t>
+          <t>0.668092270345477</t>
         </is>
       </c>
     </row>
@@ -8171,7 +8171,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.6696481341683064</t>
         </is>
       </c>
     </row>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.6738862768031804</t>
         </is>
       </c>
     </row>
@@ -8205,7 +8205,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>0.45194981450204613</t>
+          <t>0.22531509227195978</t>
         </is>
       </c>
     </row>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>0.4376903873635428</t>
+          <t>0.2664735209390886</t>
         </is>
       </c>
     </row>
@@ -8239,7 +8239,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>0.3769409211823908</t>
+          <t>0.30300415481674137</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8256,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>0.42731417492424423</t>
+          <t>0.2823143046127327</t>
         </is>
       </c>
     </row>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>0.4418536735667695</t>
+          <t>0.45055683539039887</t>
         </is>
       </c>
     </row>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>0.36591862272593223</t>
+          <t>0.3991198414336182</t>
         </is>
       </c>
     </row>
@@ -8307,7 +8307,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>0.288593057773524</t>
+          <t>0.36885918379357086</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>0.14738197038804532</t>
+          <t>0.20749193881029937</t>
         </is>
       </c>
     </row>
@@ -8341,7 +8341,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>0.8477784614627688</t>
+          <t>0.8836054251650916</t>
         </is>
       </c>
     </row>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>0.268204942435083</t>
+          <t>0.2443028922416425</t>
         </is>
       </c>
     </row>
@@ -8375,7 +8375,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>0.2682049424350829</t>
+          <t>0.24430289224164234</t>
         </is>
       </c>
     </row>
@@ -8392,7 +8392,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>0.059373915292476244</t>
+          <t>0.08346877788034661</t>
         </is>
       </c>
     </row>
@@ -8409,7 +8409,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>0.053945467249996305</t>
+          <t>0.10662058564747305</t>
         </is>
       </c>
     </row>
@@ -8426,7 +8426,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>0.3441750308362601</t>
+          <t>0.3116347349463228</t>
         </is>
       </c>
     </row>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>0.05937391529247657</t>
+          <t>0.11817480631576155</t>
         </is>
       </c>
     </row>
@@ -8460,7 +8460,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>0.053945467249996305</t>
+          <t>0.1066205856474732</t>
         </is>
       </c>
     </row>
@@ -8477,7 +8477,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>0.30482753369762094</t>
+          <t>0.2613225217188274</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>0.047370830724187636</t>
+          <t>0.11595079011915062</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>0.0433289244145246</t>
+          <t>0.10650619101166921</t>
         </is>
       </c>
     </row>
@@ -8528,7 +8528,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>0.30099223842911754</t>
+          <t>0.23704150187890127</t>
         </is>
       </c>
     </row>
@@ -8545,7 +8545,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>0.7271546832734901</t>
+          <t>0.38359432800456283</t>
         </is>
       </c>
     </row>
@@ -8562,7 +8562,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>0.40001904828831286</t>
+          <t>0.47039793479375436</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>0.7375350455219145</t>
+          <t>0.4372860863722541</t>
         </is>
       </c>
     </row>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>0.30679453442122123</t>
+          <t>0.24385978636479563</t>
         </is>
       </c>
     </row>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>0.5264096875566026</t>
+          <t>0.36290026965855693</t>
         </is>
       </c>
     </row>
@@ -8630,7 +8630,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>0.3162085370861655</t>
+          <t>0.2649211996906104</t>
         </is>
       </c>
     </row>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>0.4535101740761573</t>
+          <t>0.2966958978387488</t>
         </is>
       </c>
     </row>
@@ -8664,7 +8664,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>0.4292958487504502</t>
+          <t>0.34857535774175047</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>0.3910766875264714</t>
+          <t>0.31602872434587814</t>
         </is>
       </c>
     </row>
@@ -8698,7 +8698,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>0.3906819264562249</t>
+          <t>0.3203559101951579</t>
         </is>
       </c>
     </row>
@@ -8715,7 +8715,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>0.36180263374807176</t>
+          <t>0.31349614747907417</t>
         </is>
       </c>
     </row>
@@ -8732,7 +8732,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>0.5069607424188433</t>
+          <t>0.46453037601358405</t>
         </is>
       </c>
     </row>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>0.2925982223725074</t>
+          <t>0.2692984616786615</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8766,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>0.6181881588970374</t>
+          <t>0.596613924719088</t>
         </is>
       </c>
     </row>
@@ -8783,7 +8783,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>0.1627155831712404</t>
+          <t>0.07589377993740172</t>
         </is>
       </c>
     </row>
@@ -8800,7 +8800,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>0.5673984718395855</t>
+          <t>0.5207247240647149</t>
         </is>
       </c>
     </row>
@@ -8817,7 +8817,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>0.2507915352042477</t>
+          <t>0.23226024003958864</t>
         </is>
       </c>
     </row>
@@ -8834,7 +8834,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>0.18906438649048338</t>
+          <t>0.191558555781555</t>
         </is>
       </c>
     </row>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>0.30471933043796173</t>
+          <t>0.2048794352920329</t>
         </is>
       </c>
     </row>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>0.5209326478490961</t>
+          <t>0.407561664738732</t>
         </is>
       </c>
     </row>
@@ -8885,7 +8885,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>0.21258293825892755</t>
+          <t>0.2893642529365013</t>
         </is>
       </c>
     </row>
@@ -8902,7 +8902,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>0.21258293825892763</t>
+          <t>0.2893642529365015</t>
         </is>
       </c>
     </row>
@@ -8919,7 +8919,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>0.1685878070530921</t>
+          <t>0.2893642529365015</t>
         </is>
       </c>
     </row>
@@ -8936,7 +8936,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>0.13129268174909223</t>
+          <t>0.2893642529365013</t>
         </is>
       </c>
     </row>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>0.2984236322310678</t>
+          <t>0.3944092872176561</t>
         </is>
       </c>
     </row>
@@ -8970,7 +8970,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>0.1685878070530921</t>
+          <t>0.2893642529365015</t>
         </is>
       </c>
     </row>
@@ -8987,7 +8987,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>0.13129268174909223</t>
+          <t>0.2893642529365015</t>
         </is>
       </c>
     </row>
@@ -9004,7 +9004,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>0.2984236322310679</t>
+          <t>0.3944092872176562</t>
         </is>
       </c>
     </row>
@@ -9021,7 +9021,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>0.1432345171131857</t>
+          <t>0.2583962198296885</t>
         </is>
       </c>
     </row>
@@ -9038,7 +9038,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>0.13129268174909223</t>
+          <t>0.2893642529365013</t>
         </is>
       </c>
     </row>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>0.23930007648553578</t>
+          <t>0.28278207729369426</t>
         </is>
       </c>
     </row>
@@ -9072,7 +9072,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>0.4587908933794657</t>
+          <t>0.3358756578426087</t>
         </is>
       </c>
     </row>
@@ -9089,7 +9089,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>0.368787446018571</t>
+          <t>0.2814125789684942</t>
         </is>
       </c>
     </row>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>0.5370168516652402</t>
+          <t>0.3910931624214839</t>
         </is>
       </c>
     </row>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>0.322388314839432</t>
+          <t>0.2493503004094005</t>
         </is>
       </c>
     </row>
@@ -9140,7 +9140,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>0.31947123520887455</t>
+          <t>0.3089162003904774</t>
         </is>
       </c>
     </row>
@@ -9157,7 +9157,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>0.4397260287056144</t>
+          <t>0.36440002078625666</t>
         </is>
       </c>
     </row>
@@ -9174,7 +9174,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>0.3455295020416162</t>
+          <t>0.33544937616846854</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>0.3869739640227722</t>
+          <t>0.4630057837971265</t>
         </is>
       </c>
     </row>
@@ -9208,7 +9208,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>0.40073246032336807</t>
+          <t>0.48587679278503876</t>
         </is>
       </c>
     </row>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>0.36471760013886634</t>
+          <t>0.4445796291771946</t>
         </is>
       </c>
     </row>
@@ -9242,7 +9242,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>0.3678194765940396</t>
+          <t>0.43391160424618974</t>
         </is>
       </c>
     </row>
@@ -9259,7 +9259,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>0.4243254884942007</t>
+          <t>0.5024319592489641</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>0.18531923311697687</t>
+          <t>0.17652749151702624</t>
         </is>
       </c>
     </row>
@@ -9293,7 +9293,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>0.3774131780308531</t>
+          <t>0.22758311922223606</t>
         </is>
       </c>
     </row>
@@ -9310,7 +9310,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>0.15357320137094524</t>
+          <t>0.19161531326867542</t>
         </is>
       </c>
     </row>
@@ -9327,7 +9327,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>0.4498220860494694</t>
+          <t>0.290545504416714</t>
         </is>
       </c>
     </row>
@@ -9344,7 +9344,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.962412735462992</t>
         </is>
       </c>
     </row>
@@ -9361,7 +9361,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>0.21258293825892768</t>
+          <t>0.2893642529365015</t>
         </is>
       </c>
     </row>
@@ -9378,7 +9378,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>0.22088528756633286</t>
+          <t>0.22017099769906984</t>
         </is>
       </c>
     </row>
@@ -9395,7 +9395,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>0.2738288929129448</t>
+          <t>0.2443028922416425</t>
         </is>
       </c>
     </row>
@@ -9412,7 +9412,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>0.2738288929129448</t>
+          <t>0.24430289224164234</t>
         </is>
       </c>
     </row>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>0.16320088132864635</t>
+          <t>0.16762602934191953</t>
         </is>
       </c>
     </row>
@@ -9446,7 +9446,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>0.1362630317338009</t>
+          <t>0.1800856426142045</t>
         </is>
       </c>
     </row>
@@ -9463,7 +9463,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>0.3652260070455467</t>
+          <t>0.28217754539659234</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>0.16320088132864635</t>
+          <t>0.16762602934191953</t>
         </is>
       </c>
     </row>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>0.1362630317338009</t>
+          <t>0.1800856426142045</t>
         </is>
       </c>
     </row>
@@ -9514,7 +9514,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>0.329152525116918</t>
+          <t>0.32453286105919954</t>
         </is>
       </c>
     </row>
@@ -9531,7 +9531,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>0.14374711268156024</t>
+          <t>0.15649106290570144</t>
         </is>
       </c>
     </row>
@@ -9548,7 +9548,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>0.1362630317338009</t>
+          <t>0.1800856426142045</t>
         </is>
       </c>
     </row>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>0.31080294981359924</t>
+          <t>0.23704150187890127</t>
         </is>
       </c>
     </row>
@@ -9582,7 +9582,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>0.6817541071682018</t>
+          <t>0.5038891557932174</t>
         </is>
       </c>
     </row>
@@ -9599,7 +9599,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>0.5301165441561463</t>
+          <t>0.5171433257157327</t>
         </is>
       </c>
     </row>
@@ -9616,7 +9616,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>0.7218853103837246</t>
+          <t>0.3965241758534682</t>
         </is>
       </c>
     </row>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>0.3012885917506143</t>
+          <t>0.2883040452682347</t>
         </is>
       </c>
     </row>
@@ -9650,7 +9650,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>0.5412772448460308</t>
+          <t>0.5110972541295645</t>
         </is>
       </c>
     </row>
@@ -9667,7 +9667,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>0.37626595675237545</t>
+          <t>0.39397304464825456</t>
         </is>
       </c>
     </row>
@@ -9684,7 +9684,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>0.4313493973075634</t>
+          <t>0.38810647489154515</t>
         </is>
       </c>
     </row>
@@ -9701,7 +9701,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>0.42035678112696123</t>
+          <t>0.4031695822013021</t>
         </is>
       </c>
     </row>
@@ -9718,7 +9718,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>0.4249702586703673</t>
+          <t>0.41632811076864634</t>
         </is>
       </c>
     </row>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>0.440914371455386</t>
+          <t>0.39837108735867194</t>
         </is>
       </c>
     </row>
@@ -9752,7 +9752,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>0.3832730583865667</t>
+          <t>0.3376237170294352</t>
         </is>
       </c>
     </row>
@@ -9769,7 +9769,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>0.4746910443717528</t>
+          <t>0.42882416682935265</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9786,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>0.53590948770304</t>
+          <t>0.4401687508909026</t>
         </is>
       </c>
     </row>
@@ -9803,7 +9803,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>0.6368374064429086</t>
+          <t>0.7846466898435648</t>
         </is>
       </c>
     </row>
@@ -9820,7 +9820,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>0.1587729291109816</t>
+          <t>0.11970877364501464</t>
         </is>
       </c>
     </row>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>0.7167311644121463</t>
+          <t>0.6051446707065252</t>
         </is>
       </c>
     </row>
@@ -9854,7 +9854,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>0.4456250292065934</t>
+          <t>0.36822611668594435</t>
         </is>
       </c>
     </row>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>0.1923161856139166</t>
+          <t>0.191558555781555</t>
         </is>
       </c>
     </row>
@@ -9888,7 +9888,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>0.3362828341322844</t>
+          <t>0.2326672035882741</t>
         </is>
       </c>
     </row>
@@ -9905,7 +9905,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -9922,7 +9922,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>0.5946479588255665</t>
+          <t>0.5027669855193111</t>
         </is>
       </c>
     </row>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -9956,7 +9956,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.7460787246454881</t>
         </is>
       </c>
     </row>
@@ -9973,7 +9973,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>0.5883237659348974</t>
+          <t>0.5027669855193111</t>
         </is>
       </c>
     </row>
@@ -9990,7 +9990,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -10007,7 +10007,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -10024,7 +10024,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>0.5946479588255666</t>
+          <t>0.5979663839670762</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -10058,7 +10058,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>0.699092273711303</t>
+          <t>0.5979663839670762</t>
         </is>
       </c>
     </row>
@@ -10075,7 +10075,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>0.5998892071521699</t>
+          <t>0.45239091959937117</t>
         </is>
       </c>
     </row>
@@ -10092,7 +10092,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>0.44784557471932773</t>
+          <t>0.4431016169973408</t>
         </is>
       </c>
     </row>
@@ -10109,7 +10109,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>0.49177207588498895</t>
+          <t>0.5394295052415122</t>
         </is>
       </c>
     </row>
@@ -10126,7 +10126,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>0.5131668748329558</t>
+          <t>0.42374838023601524</t>
         </is>
       </c>
     </row>
@@ -10143,7 +10143,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>0.4353828192990374</t>
+          <t>0.305866179690934</t>
         </is>
       </c>
     </row>
@@ -10160,7 +10160,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>0.44578885501758625</t>
+          <t>0.40610634837613024</t>
         </is>
       </c>
     </row>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>0.5060883604535684</t>
+          <t>0.4161077605002234</t>
         </is>
       </c>
     </row>
@@ -10194,7 +10194,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>0.47026710937760235</t>
+          <t>0.33798823105363435</t>
         </is>
       </c>
     </row>
@@ -10211,7 +10211,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>0.49191655770842246</t>
+          <t>0.4996924467167325</t>
         </is>
       </c>
     </row>
@@ -10228,7 +10228,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>0.5133633663215261</t>
+          <t>0.3963006548984916</t>
         </is>
       </c>
     </row>
@@ -10245,7 +10245,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>0.5487540105642498</t>
+          <t>0.3885406460281271</t>
         </is>
       </c>
     </row>
@@ -10262,7 +10262,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>0.5010673191136287</t>
+          <t>0.3743547157982526</t>
         </is>
       </c>
     </row>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>0.6225509733003602</t>
+          <t>0.2865912843066449</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10296,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>0.36251223440722047</t>
+          <t>0.17587621805823794</t>
         </is>
       </c>
     </row>
@@ -10313,7 +10313,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>0.7082119425999194</t>
+          <t>0.6262947211324302</t>
         </is>
       </c>
     </row>
@@ -10330,7 +10330,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>0.5997663863335141</t>
+          <t>0.33142808292507353</t>
         </is>
       </c>
     </row>
@@ -10347,7 +10347,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>0.2578035345308587</t>
+          <t>0.33486741007043225</t>
         </is>
       </c>
     </row>
@@ -10364,7 +10364,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -10381,7 +10381,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>0.30672140132093767</t>
+          <t>0.25820385652062516</t>
         </is>
       </c>
     </row>
@@ -10398,7 +10398,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>0.5883237659348974</t>
+          <t>0.5027669855193112</t>
         </is>
       </c>
     </row>
@@ -10415,7 +10415,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -10432,7 +10432,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.7460787246454881</t>
         </is>
       </c>
     </row>
@@ -10449,7 +10449,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>0.5883237659348972</t>
+          <t>0.5027669855193112</t>
         </is>
       </c>
     </row>
@@ -10466,7 +10466,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>0.5946479588255666</t>
+          <t>0.5979663839670764</t>
         </is>
       </c>
     </row>
@@ -10517,7 +10517,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -10534,7 +10534,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>0.699092273711303</t>
+          <t>0.5979663839670764</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>0.5998892071521699</t>
+          <t>0.45239091959937117</t>
         </is>
       </c>
     </row>
@@ -10568,7 +10568,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>0.44784557471932773</t>
+          <t>0.4643004030132851</t>
         </is>
       </c>
     </row>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>0.49177207588498895</t>
+          <t>0.5260596897064618</t>
         </is>
       </c>
     </row>
@@ -10602,7 +10602,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>0.5131668748329558</t>
+          <t>0.42374838023601524</t>
         </is>
       </c>
     </row>
@@ -10619,7 +10619,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>0.4353828192990374</t>
+          <t>0.30586617969093416</t>
         </is>
       </c>
     </row>
@@ -10636,7 +10636,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>0.44578885501758625</t>
+          <t>0.40610634837613024</t>
         </is>
       </c>
     </row>
@@ -10653,7 +10653,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>0.5060883604535684</t>
+          <t>0.35967428560263126</t>
         </is>
       </c>
     </row>
@@ -10670,7 +10670,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>0.47026710937760235</t>
+          <t>0.33798823105363435</t>
         </is>
       </c>
     </row>
@@ -10687,7 +10687,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>0.5032583347756449</t>
+          <t>0.4996924467167325</t>
         </is>
       </c>
     </row>
@@ -10704,7 +10704,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>0.5133633663215261</t>
+          <t>0.3963006548984918</t>
         </is>
       </c>
     </row>
@@ -10721,7 +10721,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>0.5487540105642498</t>
+          <t>0.3885406460281271</t>
         </is>
       </c>
     </row>
@@ -10738,7 +10738,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>0.5010673191136287</t>
+          <t>0.37435471579825264</t>
         </is>
       </c>
     </row>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>0.6051924982241568</t>
+          <t>0.2865912843066449</t>
         </is>
       </c>
     </row>
@@ -10772,7 +10772,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>0.36251223440722047</t>
+          <t>0.17587621805823794</t>
         </is>
       </c>
     </row>
@@ -10789,7 +10789,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>0.7082119425999194</t>
+          <t>0.6262947211324302</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10806,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>0.6314267358770039</t>
+          <t>0.33142808292507353</t>
         </is>
       </c>
     </row>
@@ -10823,7 +10823,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>0.25780353453085914</t>
+          <t>0.33486741007043225</t>
         </is>
       </c>
     </row>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -10857,7 +10857,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>0.30672140132093767</t>
+          <t>0.25820385652062533</t>
         </is>
       </c>
     </row>
@@ -10874,7 +10874,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>0.5946479588255665</t>
+          <t>0.6044241172896486</t>
         </is>
       </c>
     </row>
@@ -10891,7 +10891,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>0.93335726001798</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -10908,7 +10908,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>0.93335726001798</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>0.5946479588255668</t>
+          <t>0.6044241172896487</t>
         </is>
       </c>
     </row>
@@ -10942,7 +10942,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>0.8714503627181368</t>
+          <t>0.7251144405272457</t>
         </is>
       </c>
     </row>
@@ -10959,7 +10959,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8756633923230396</t>
         </is>
       </c>
     </row>
@@ -10976,7 +10976,7 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>0.45085986317538224</t>
+          <t>0.37416166536244166</t>
         </is>
       </c>
     </row>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8453509366224361</t>
         </is>
       </c>
     </row>
@@ -11010,7 +11010,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>0.817734839142674</t>
+          <t>0.6538857299257393</t>
         </is>
       </c>
     </row>
@@ -11027,7 +11027,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>0.525204648105181</t>
+          <t>0.49478184291871014</t>
         </is>
       </c>
     </row>
@@ -11044,7 +11044,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>0.8095434654182938</t>
+          <t>0.7597680318611902</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>0.5497481184328107</t>
+          <t>0.4396690922033718</t>
         </is>
       </c>
     </row>
@@ -11078,7 +11078,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>0.6470145887105037</t>
+          <t>0.3544949186703264</t>
         </is>
       </c>
     </row>
@@ -11095,7 +11095,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>0.5277330388667048</t>
+          <t>0.5192156297936593</t>
         </is>
       </c>
     </row>
@@ -11112,7 +11112,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>0.7019081561480637</t>
+          <t>0.5536820733474648</t>
         </is>
       </c>
     </row>
@@ -11129,7 +11129,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>0.6741306120018394</t>
+          <t>0.5404990670695566</t>
         </is>
       </c>
     </row>
@@ -11146,7 +11146,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>0.39345055369706605</t>
+          <t>0.5073952857089417</t>
         </is>
       </c>
     </row>
@@ -11163,7 +11163,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>0.5498978240217546</t>
+          <t>0.5044438508784573</t>
         </is>
       </c>
     </row>
@@ -11180,7 +11180,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>0.6109114624259868</t>
+          <t>0.5561039599144402</t>
         </is>
       </c>
     </row>
@@ -11197,7 +11197,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>0.6004456355171187</t>
+          <t>0.5755938336062785</t>
         </is>
       </c>
     </row>
@@ -11214,7 +11214,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>0.5428479137837368</t>
+          <t>0.38561695761141324</t>
         </is>
       </c>
     </row>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>0.3287451430742155</t>
+          <t>0.17587621805823794</t>
         </is>
       </c>
     </row>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>0.4931285322331685</t>
+          <t>0.45004068706519934</t>
         </is>
       </c>
     </row>
@@ -11265,7 +11265,7 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>0.5621466209068173</t>
+          <t>0.37092175680519457</t>
         </is>
       </c>
     </row>
@@ -11282,7 +11282,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>0.27127824161302244</t>
+          <t>0.2893642529365014</t>
         </is>
       </c>
     </row>
@@ -11299,7 +11299,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>0.5002783599408707</t>
+          <t>0.41739708930280184</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11316,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>0.21119856010004162</t>
+          <t>0.3766277889302677</t>
         </is>
       </c>
     </row>
@@ -11333,7 +11333,7 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.7460787246454881</t>
         </is>
       </c>
     </row>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>0.5883237659348972</t>
+          <t>0.5959478320199011</t>
         </is>
       </c>
     </row>
@@ -11367,7 +11367,7 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -11384,7 +11384,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>0.5946479588255666</t>
+          <t>0.6044241172896487</t>
         </is>
       </c>
     </row>
@@ -11418,7 +11418,7 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>0.699092273711303</t>
+          <t>0.6044241172896487</t>
         </is>
       </c>
     </row>
@@ -11452,7 +11452,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>0.5998892071521699</t>
+          <t>0.45239091959937117</t>
         </is>
       </c>
     </row>
@@ -11469,7 +11469,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>0.44784557471932773</t>
+          <t>0.4431016169973408</t>
         </is>
       </c>
     </row>
@@ -11486,7 +11486,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>0.49177207588498895</t>
+          <t>0.46567694847249996</t>
         </is>
       </c>
     </row>
@@ -11503,7 +11503,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>0.5131668748329558</t>
+          <t>0.46567694847249996</t>
         </is>
       </c>
     </row>
@@ -11520,7 +11520,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>0.4353828192990374</t>
+          <t>0.263298928562102</t>
         </is>
       </c>
     </row>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>0.44578885501758625</t>
+          <t>0.40610634837613024</t>
         </is>
       </c>
     </row>
@@ -11554,7 +11554,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>0.5060883604535684</t>
+          <t>0.35967428560263126</t>
         </is>
       </c>
     </row>
@@ -11571,7 +11571,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>0.47026710937760235</t>
+          <t>0.3352146530231602</t>
         </is>
       </c>
     </row>
@@ -11588,7 +11588,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>0.49191655770842246</t>
+          <t>0.4996924467167325</t>
         </is>
       </c>
     </row>
@@ -11605,7 +11605,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>0.5133633663215261</t>
+          <t>0.3963006548984918</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>0.5487540105642498</t>
+          <t>0.3885406460281271</t>
         </is>
       </c>
     </row>
@@ -11639,7 +11639,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>0.5010673191136287</t>
+          <t>0.37435471579825264</t>
         </is>
       </c>
     </row>
@@ -11656,7 +11656,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>0.6225509733003604</t>
+          <t>0.29501988786196354</t>
         </is>
       </c>
     </row>
@@ -11673,7 +11673,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>0.36251223440722047</t>
+          <t>0.17587621805823794</t>
         </is>
       </c>
     </row>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>0.6629562793532694</t>
+          <t>0.5626898977911327</t>
         </is>
       </c>
     </row>
@@ -11707,7 +11707,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>0.5997663863335141</t>
+          <t>0.3539651081888908</t>
         </is>
       </c>
     </row>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>0.24548668393693537</t>
+          <t>0.33486741007043225</t>
         </is>
       </c>
     </row>
@@ -11741,7 +11741,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -11758,7 +11758,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>0.24441217683631616</t>
+          <t>0.25820385652062533</t>
         </is>
       </c>
     </row>
@@ -11775,7 +11775,7 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>0.93335726001798</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -11792,7 +11792,7 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.7460787246454881</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>0.9690632527820694</t>
+          <t>0.9760206482366148</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11826,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.7827398570278118</t>
         </is>
       </c>
     </row>
@@ -11843,7 +11843,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.7460787246454881</t>
         </is>
       </c>
     </row>
@@ -11860,7 +11860,7 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.7827398570278118</t>
         </is>
       </c>
     </row>
@@ -11877,7 +11877,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>0.7273495737935876</t>
+          <t>0.5872785050010226</t>
         </is>
       </c>
     </row>
@@ -11894,7 +11894,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>0.5063660993266962</t>
+          <t>0.40539913517874293</t>
         </is>
       </c>
     </row>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>0.6988187944586057</t>
+          <t>0.6369373744762331</t>
         </is>
       </c>
     </row>
@@ -11928,7 +11928,7 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>0.5071708359846883</t>
+          <t>0.3349390704266386</t>
         </is>
       </c>
     </row>
@@ -11945,7 +11945,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>0.5881108718296884</t>
+          <t>0.46017127631451266</t>
         </is>
       </c>
     </row>
@@ -11962,7 +11962,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>0.4444922922391948</t>
+          <t>0.3808104376460295</t>
         </is>
       </c>
     </row>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>0.5807538371305797</t>
+          <t>0.4917920383758937</t>
         </is>
       </c>
     </row>
@@ -11996,7 +11996,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>0.6326841628929499</t>
+          <t>0.5557600513445728</t>
         </is>
       </c>
     </row>
@@ -12013,7 +12013,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>0.4190270929504037</t>
+          <t>0.42434417411464403</t>
         </is>
       </c>
     </row>
@@ -12030,7 +12030,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>0.5483908655491858</t>
+          <t>0.4608482593122589</t>
         </is>
       </c>
     </row>
@@ -12047,7 +12047,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>0.5366316648266878</t>
+          <t>0.48490528995252263</t>
         </is>
       </c>
     </row>
@@ -12064,7 +12064,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>0.5511550820931268</t>
+          <t>0.48986218784293734</t>
         </is>
       </c>
     </row>
@@ -12081,7 +12081,7 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>0.5055108718194654</t>
+          <t>0.3338152921620666</t>
         </is>
       </c>
     </row>
@@ -12098,7 +12098,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>0.3359425625629221</t>
+          <t>0.20027786233966144</t>
         </is>
       </c>
     </row>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>0.7116109233184235</t>
+          <t>0.45593710535682314</t>
         </is>
       </c>
     </row>
@@ -12132,7 +12132,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>0.552019366093709</t>
+          <t>0.3266606902538064</t>
         </is>
       </c>
     </row>
@@ -12149,7 +12149,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>0.3436442285029989</t>
+          <t>0.39247943668469987</t>
         </is>
       </c>
     </row>
@@ -12166,7 +12166,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.7460787246454881</t>
         </is>
       </c>
     </row>
@@ -12183,7 +12183,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>0.3652618778289934</t>
+          <t>0.5221859297538736</t>
         </is>
       </c>
     </row>
@@ -12200,7 +12200,7 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>0.5320243916869024</t>
+          <t>0.5161368010543613</t>
         </is>
       </c>
     </row>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>0.8714503627181368</t>
+          <t>0.7251144405272457</t>
         </is>
       </c>
     </row>
@@ -12234,7 +12234,7 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8453509366224361</t>
         </is>
       </c>
     </row>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>0.4082692084278821</t>
+          <t>0.3388579587866284</t>
         </is>
       </c>
     </row>
@@ -12268,7 +12268,7 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8453509366224361</t>
         </is>
       </c>
     </row>
@@ -12285,7 +12285,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>0.817734839142674</t>
+          <t>0.6538857299257393</t>
         </is>
       </c>
     </row>
@@ -12302,7 +12302,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>0.525204648105181</t>
+          <t>0.49478184291871014</t>
         </is>
       </c>
     </row>
@@ -12319,7 +12319,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>0.8095434654182938</t>
+          <t>0.7597680318611902</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12336,7 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>0.5497481184328107</t>
+          <t>0.4298257999894034</t>
         </is>
       </c>
     </row>
@@ -12353,7 +12353,7 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>0.6470145887105037</t>
+          <t>0.3544949186703265</t>
         </is>
       </c>
     </row>
@@ -12370,7 +12370,7 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>0.5277330388667048</t>
+          <t>0.5192156297936593</t>
         </is>
       </c>
     </row>
@@ -12387,7 +12387,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>0.7019081561480637</t>
+          <t>0.5536820733474648</t>
         </is>
       </c>
     </row>
@@ -12404,7 +12404,7 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>0.6741306120018397</t>
+          <t>0.5404990670695566</t>
         </is>
       </c>
     </row>
@@ -12421,7 +12421,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>0.39345055369706605</t>
+          <t>0.5073952857089417</t>
         </is>
       </c>
     </row>
@@ -12438,7 +12438,7 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>0.5498978240217546</t>
+          <t>0.5044438508784573</t>
         </is>
       </c>
     </row>
@@ -12455,7 +12455,7 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>0.6109114624259868</t>
+          <t>0.5561039599144402</t>
         </is>
       </c>
     </row>
@@ -12472,7 +12472,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>0.6004456355171187</t>
+          <t>0.5755938336062785</t>
         </is>
       </c>
     </row>
@@ -12489,7 +12489,7 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>0.5428479137837365</t>
+          <t>0.3856169576114133</t>
         </is>
       </c>
     </row>
@@ -12506,7 +12506,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>0.3287451430742155</t>
+          <t>0.17587621805823794</t>
         </is>
       </c>
     </row>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>0.484429617863956</t>
+          <t>0.4368785721273616</t>
         </is>
       </c>
     </row>
@@ -12540,7 +12540,7 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>0.5621466209068173</t>
+          <t>0.3709217568051944</t>
         </is>
       </c>
     </row>
@@ -12557,7 +12557,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>0.27127824161302244</t>
+          <t>0.2893642529365014</t>
         </is>
       </c>
     </row>
@@ -12574,7 +12574,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>0.5002783599408707</t>
+          <t>0.41739708930280184</t>
         </is>
       </c>
     </row>
@@ -12591,7 +12591,7 @@
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>0.21119856010004162</t>
+          <t>0.3766277889302677</t>
         </is>
       </c>
     </row>
@@ -12608,7 +12608,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>0.5946479588255668</t>
+          <t>0.6044241172896487</t>
         </is>
       </c>
     </row>
@@ -12642,7 +12642,7 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -12659,7 +12659,7 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>0.699092273711303</t>
+          <t>0.6044241172896487</t>
         </is>
       </c>
     </row>
@@ -12676,7 +12676,7 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>0.5998892071521699</t>
+          <t>0.45239091959937117</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>0.44784557471932773</t>
+          <t>0.4431016169973408</t>
         </is>
       </c>
     </row>
@@ -12710,7 +12710,7 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>0.49177207588498895</t>
+          <t>0.4939749597869663</t>
         </is>
       </c>
     </row>
@@ -12727,7 +12727,7 @@
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>0.5131668748329558</t>
+          <t>0.4939749597869666</t>
         </is>
       </c>
     </row>
@@ -12744,7 +12744,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>0.4353828192990374</t>
+          <t>0.263298928562102</t>
         </is>
       </c>
     </row>
@@ -12761,7 +12761,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>0.44578885501758625</t>
+          <t>0.4247344889488811</t>
         </is>
       </c>
     </row>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>0.5060883604535684</t>
+          <t>0.37065321504567816</t>
         </is>
       </c>
     </row>
@@ -12795,7 +12795,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>0.47026710937760235</t>
+          <t>0.3352146530231602</t>
         </is>
       </c>
     </row>
@@ -12812,7 +12812,7 @@
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>0.49191655770842246</t>
+          <t>0.4996924467167325</t>
         </is>
       </c>
     </row>
@@ -12829,7 +12829,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>0.5133633663215261</t>
+          <t>0.3963006548984918</t>
         </is>
       </c>
     </row>
@@ -12846,7 +12846,7 @@
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>0.5487540105642498</t>
+          <t>0.3885406460281271</t>
         </is>
       </c>
     </row>
@@ -12863,7 +12863,7 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>0.5010673191136287</t>
+          <t>0.37435471579825264</t>
         </is>
       </c>
     </row>
@@ -12880,7 +12880,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>0.6225509733003604</t>
+          <t>0.29501988786196387</t>
         </is>
       </c>
     </row>
@@ -12897,7 +12897,7 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>0.36251223440722047</t>
+          <t>0.17587621805823794</t>
         </is>
       </c>
     </row>
@@ -12914,7 +12914,7 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>0.6261563939499927</t>
+          <t>0.5228806528001618</t>
         </is>
       </c>
     </row>
@@ -12931,7 +12931,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>0.5997663863335141</t>
+          <t>0.3539651081888908</t>
         </is>
       </c>
     </row>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>0.24548668393693537</t>
+          <t>0.33486741007043225</t>
         </is>
       </c>
     </row>
@@ -12965,7 +12965,7 @@
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -12982,7 +12982,7 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>0.24441217683631616</t>
+          <t>0.25820385652062533</t>
         </is>
       </c>
     </row>
@@ -12999,7 +12999,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>0.8056959500093788</t>
+          <t>0.594906618243939</t>
         </is>
       </c>
     </row>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>0.8056959500093788</t>
+          <t>0.594906618243939</t>
         </is>
       </c>
     </row>
@@ -13050,7 +13050,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>0.7273495737935876</t>
+          <t>0.5714728304955529</t>
         </is>
       </c>
     </row>
@@ -13067,7 +13067,7 @@
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>0.5063660993266962</t>
+          <t>0.40539913517874293</t>
         </is>
       </c>
     </row>
@@ -13084,7 +13084,7 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>0.6988187944586057</t>
+          <t>0.5945423729108992</t>
         </is>
       </c>
     </row>
@@ -13101,7 +13101,7 @@
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>0.5071708359846883</t>
+          <t>0.3448152879390078</t>
         </is>
       </c>
     </row>
@@ -13118,7 +13118,7 @@
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>0.6461853495222436</t>
+          <t>0.6208082556140923</t>
         </is>
       </c>
     </row>
@@ -13135,7 +13135,7 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>0.43250995093501293</t>
+          <t>0.3808104376460295</t>
         </is>
       </c>
     </row>
@@ -13152,7 +13152,7 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>0.5807538371305797</t>
+          <t>0.4917920383758934</t>
         </is>
       </c>
     </row>
@@ -13169,7 +13169,7 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>0.6326841628929499</t>
+          <t>0.5557600513445728</t>
         </is>
       </c>
     </row>
@@ -13186,7 +13186,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>0.4413514374758016</t>
+          <t>0.42434417411464403</t>
         </is>
       </c>
     </row>
@@ -13203,7 +13203,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>0.5483908655491858</t>
+          <t>0.4608482593122591</t>
         </is>
       </c>
     </row>
@@ -13220,7 +13220,7 @@
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>0.5366316648266879</t>
+          <t>0.41088947427388306</t>
         </is>
       </c>
     </row>
@@ -13237,7 +13237,7 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>0.5511550820931268</t>
+          <t>0.48986218784293734</t>
         </is>
       </c>
     </row>
@@ -13254,7 +13254,7 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>0.5199595912367255</t>
+          <t>0.3338152921620666</t>
         </is>
       </c>
     </row>
@@ -13271,7 +13271,7 @@
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>0.30397745242489976</t>
+          <t>0.2504968718733361</t>
         </is>
       </c>
     </row>
@@ -13288,7 +13288,7 @@
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>0.6157086379221312</t>
+          <t>0.4315286637002637</t>
         </is>
       </c>
     </row>
@@ -13305,7 +13305,7 @@
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>0.552019366093709</t>
+          <t>0.3266606902538064</t>
         </is>
       </c>
     </row>
@@ -13322,7 +13322,7 @@
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>0.34364422850299886</t>
+          <t>0.39247943668469987</t>
         </is>
       </c>
     </row>
@@ -13339,7 +13339,7 @@
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -13356,7 +13356,7 @@
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>0.3652618778289933</t>
+          <t>0.31722514636019494</t>
         </is>
       </c>
     </row>
@@ -13373,7 +13373,7 @@
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>0.45085986317538224</t>
+          <t>0.3741616653624419</t>
         </is>
       </c>
     </row>
@@ -13390,7 +13390,7 @@
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8453509366224361</t>
         </is>
       </c>
     </row>
@@ -13407,7 +13407,7 @@
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>0.7527107453773279</t>
+          <t>0.5211540614749269</t>
         </is>
       </c>
     </row>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>0.4582840917412809</t>
+          <t>0.4377394967461677</t>
         </is>
       </c>
     </row>
@@ -13441,7 +13441,7 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>0.8141414893052435</t>
+          <t>0.7465210378588731</t>
         </is>
       </c>
     </row>
@@ -13458,7 +13458,7 @@
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>0.5547971015649678</t>
+          <t>0.5601325018697656</t>
         </is>
       </c>
     </row>
@@ -13475,7 +13475,7 @@
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>0.5283148995385651</t>
+          <t>0.2526679904520118</t>
         </is>
       </c>
     </row>
@@ -13492,7 +13492,7 @@
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>0.582027607746627</t>
+          <t>0.6171895725927145</t>
         </is>
       </c>
     </row>
@@ -13509,7 +13509,7 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>0.7089162435418992</t>
+          <t>0.6718174815451697</t>
         </is>
       </c>
     </row>
@@ -13526,7 +13526,7 @@
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>0.6173049500342045</t>
+          <t>0.44346376977822716</t>
         </is>
       </c>
     </row>
@@ -13543,7 +13543,7 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>0.4445534347660251</t>
+          <t>0.608935860472276</t>
         </is>
       </c>
     </row>
@@ -13560,7 +13560,7 @@
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>0.5705971525482497</t>
+          <t>0.5211540614749269</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>0.7350215115702312</t>
+          <t>0.5677514200787481</t>
         </is>
       </c>
     </row>
@@ -13594,7 +13594,7 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>0.6821032303925342</t>
+          <t>0.6068433547671471</t>
         </is>
       </c>
     </row>
@@ -13611,7 +13611,7 @@
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>0.5801787489488578</t>
+          <t>0.3208732135568048</t>
         </is>
       </c>
     </row>
@@ -13628,7 +13628,7 @@
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>0.35005428337669114</t>
+          <t>0.20679152796430209</t>
         </is>
       </c>
     </row>
@@ -13645,7 +13645,7 @@
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>0.5368569052833821</t>
+          <t>0.5126517666598237</t>
         </is>
       </c>
     </row>
@@ -13662,7 +13662,7 @@
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>0.5833728009265591</t>
+          <t>0.37000199694284697</t>
         </is>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>0.2533756357519133</t>
+          <t>0.2936744625004654</t>
         </is>
       </c>
     </row>
@@ -13696,7 +13696,7 @@
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>0.5629019270795349</t>
+          <t>0.508070340864031</t>
         </is>
       </c>
     </row>
@@ -13713,7 +13713,7 @@
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>0.24994444892742967</t>
+          <t>0.43751411909787513</t>
         </is>
       </c>
     </row>
@@ -13730,7 +13730,7 @@
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>0.699092273711303</t>
+          <t>0.5371690144386504</t>
         </is>
       </c>
     </row>
@@ -13747,7 +13747,7 @@
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>0.5998892071521699</t>
+          <t>0.45239091959937117</t>
         </is>
       </c>
     </row>
@@ -13764,7 +13764,7 @@
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>0.44784557471932773</t>
+          <t>0.4431016169973408</t>
         </is>
       </c>
     </row>
@@ -13781,7 +13781,7 @@
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>0.49177207588498895</t>
+          <t>0.4345383518748829</t>
         </is>
       </c>
     </row>
@@ -13798,7 +13798,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>0.5131668748329558</t>
+          <t>0.42374838023601524</t>
         </is>
       </c>
     </row>
@@ -13815,7 +13815,7 @@
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>0.4353828192990374</t>
+          <t>0.263298928562102</t>
         </is>
       </c>
     </row>
@@ -13832,7 +13832,7 @@
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>0.44578885501758625</t>
+          <t>0.40610634837613024</t>
         </is>
       </c>
     </row>
@@ -13849,7 +13849,7 @@
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>0.5060883604535684</t>
+          <t>0.35967428560263126</t>
         </is>
       </c>
     </row>
@@ -13866,7 +13866,7 @@
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>0.47026710937760235</t>
+          <t>0.3352146530231602</t>
         </is>
       </c>
     </row>
@@ -13883,7 +13883,7 @@
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>0.49191655770842246</t>
+          <t>0.4996924467167325</t>
         </is>
       </c>
     </row>
@@ -13900,7 +13900,7 @@
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>0.5133633663215261</t>
+          <t>0.3963006548984918</t>
         </is>
       </c>
     </row>
@@ -13917,7 +13917,7 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>0.5487540105642498</t>
+          <t>0.3885406460281271</t>
         </is>
       </c>
     </row>
@@ -13934,7 +13934,7 @@
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>0.5010673191136287</t>
+          <t>0.37435471579825264</t>
         </is>
       </c>
     </row>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>0.6041184781729552</t>
+          <t>0.2865912843066449</t>
         </is>
       </c>
     </row>
@@ -13968,7 +13968,7 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>0.36251223440722047</t>
+          <t>0.17587621805823794</t>
         </is>
       </c>
     </row>
@@ -13985,7 +13985,7 @@
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>0.5699480893391555</t>
+          <t>0.4368785721273616</t>
         </is>
       </c>
     </row>
@@ -14002,7 +14002,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>0.5997663863335141</t>
+          <t>0.33142808292507353</t>
         </is>
       </c>
     </row>
@@ -14019,7 +14019,7 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>0.24548668393693537</t>
+          <t>0.33486741007043225</t>
         </is>
       </c>
     </row>
@@ -14036,7 +14036,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -14053,7 +14053,7 @@
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>0.24441217683631616</t>
+          <t>0.25820385652062533</t>
         </is>
       </c>
     </row>
@@ -14070,7 +14070,7 @@
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>0.7527107453773279</t>
+          <t>0.5211540614749269</t>
         </is>
       </c>
     </row>
@@ -14087,7 +14087,7 @@
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>0.4582840917412809</t>
+          <t>0.4377394967461677</t>
         </is>
       </c>
     </row>
@@ -14104,7 +14104,7 @@
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>0.8141414893052435</t>
+          <t>0.7465210378588731</t>
         </is>
       </c>
     </row>
@@ -14121,7 +14121,7 @@
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>0.5547971015649678</t>
+          <t>0.5601325018697656</t>
         </is>
       </c>
     </row>
@@ -14138,7 +14138,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>0.5283148995385651</t>
+          <t>0.3442231065543927</t>
         </is>
       </c>
     </row>
@@ -14155,7 +14155,7 @@
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>0.582027607746627</t>
+          <t>0.6171895725927145</t>
         </is>
       </c>
     </row>
@@ -14172,7 +14172,7 @@
       </c>
       <c r="C808" t="inlineStr">
         <is>
-          <t>0.7089162435418992</t>
+          <t>0.6718174815451697</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>0.6173049500342045</t>
+          <t>0.44346376977822716</t>
         </is>
       </c>
     </row>
@@ -14206,7 +14206,7 @@
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>0.4445534347660251</t>
+          <t>0.608935860472276</t>
         </is>
       </c>
     </row>
@@ -14223,7 +14223,7 @@
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>0.5705971525482497</t>
+          <t>0.5305852138591308</t>
         </is>
       </c>
     </row>
@@ -14240,7 +14240,7 @@
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>0.7350215115702312</t>
+          <t>0.5677514200787481</t>
         </is>
       </c>
     </row>
@@ -14257,7 +14257,7 @@
       </c>
       <c r="C813" t="inlineStr">
         <is>
-          <t>0.6821032303925342</t>
+          <t>0.6068433547671471</t>
         </is>
       </c>
     </row>
@@ -14274,7 +14274,7 @@
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>0.5801787489488578</t>
+          <t>0.3208732135568048</t>
         </is>
       </c>
     </row>
@@ -14291,7 +14291,7 @@
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>0.35005428337669114</t>
+          <t>0.254477341392282</t>
         </is>
       </c>
     </row>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>0.7092898346710996</t>
+          <t>0.5452822458230049</t>
         </is>
       </c>
     </row>
@@ -14325,7 +14325,7 @@
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>0.5833728009265591</t>
+          <t>0.37000199694284697</t>
         </is>
       </c>
     </row>
@@ -14342,7 +14342,7 @@
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>0.2845206727574669</t>
+          <t>0.2936744625004654</t>
         </is>
       </c>
     </row>
@@ -14359,7 +14359,7 @@
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>0.699092273711303</t>
+          <t>0.5371690144386504</t>
         </is>
       </c>
     </row>
@@ -14376,7 +14376,7 @@
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>0.3442671400223501</t>
+          <t>0.5157281964313012</t>
         </is>
       </c>
     </row>
@@ -14393,7 +14393,7 @@
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>0.7035511600721477</t>
+          <t>0.6672977181122078</t>
         </is>
       </c>
     </row>
@@ -14410,7 +14410,7 @@
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -14427,7 +14427,7 @@
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>0.8728341199762156</t>
+          <t>0.5956203266041756</t>
         </is>
       </c>
     </row>
@@ -14444,7 +14444,7 @@
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>0.6148712363209827</t>
+          <t>0.43346439718638174</t>
         </is>
       </c>
     </row>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>0.7792595439685595</t>
+          <t>0.6559148988622828</t>
         </is>
       </c>
     </row>
@@ -14478,7 +14478,7 @@
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>0.7881625505131378</t>
+          <t>0.8121667612161266</t>
         </is>
       </c>
     </row>
@@ -14495,7 +14495,7 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>0.772252981554741</t>
+          <t>0.8181818181818177</t>
         </is>
       </c>
     </row>
@@ -14512,7 +14512,7 @@
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>0.48629481408195346</t>
+          <t>0.5272025028557376</t>
         </is>
       </c>
     </row>
@@ -14529,7 +14529,7 @@
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>0.6565103601651208</t>
+          <t>0.7697375480727926</t>
         </is>
       </c>
     </row>
@@ -14546,7 +14546,7 @@
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>0.7792595439685595</t>
+          <t>0.7697375480727926</t>
         </is>
       </c>
     </row>
@@ -14563,7 +14563,7 @@
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>0.7792595439685595</t>
+          <t>0.917962716490072</t>
         </is>
       </c>
     </row>
@@ -14580,7 +14580,7 @@
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>0.7642039498928617</t>
+          <t>0.4765540824208275</t>
         </is>
       </c>
     </row>
@@ -14597,7 +14597,7 @@
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>0.5943956676240301</t>
+          <t>0.5252466432826777</t>
         </is>
       </c>
     </row>
@@ -14614,7 +14614,7 @@
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>0.7138672085502374</t>
+          <t>0.45283754911828805</t>
         </is>
       </c>
     </row>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>0.6667213520416455</t>
+          <t>0.5252466432826777</t>
         </is>
       </c>
     </row>
@@ -14648,7 +14648,7 @@
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>0.3473887699575347</t>
+          <t>0.30570044632811033</t>
         </is>
       </c>
     </row>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>0.5998892071521699</t>
+          <t>0.45239091959937117</t>
         </is>
       </c>
     </row>
@@ -14682,7 +14682,7 @@
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>0.3810926944988946</t>
+          <t>0.45451022900886</t>
         </is>
       </c>
     </row>
@@ -14699,7 +14699,7 @@
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t>0.9156850719552424</t>
+          <t>0.8133883022390875</t>
         </is>
       </c>
     </row>
@@ -14716,7 +14716,7 @@
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>0.5814703136567769</t>
+          <t>0.6777398903617483</t>
         </is>
       </c>
     </row>
@@ -14733,7 +14733,7 @@
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>0.36277596329720146</t>
+          <t>0.39911984143361806</t>
         </is>
       </c>
     </row>
@@ -14750,7 +14750,7 @@
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>0.7372038858376462</t>
+          <t>0.6146012889028414</t>
         </is>
       </c>
     </row>
@@ -14767,7 +14767,7 @@
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>0.7473916042214731</t>
+          <t>0.8275409279421797</t>
         </is>
       </c>
     </row>
@@ -14784,7 +14784,7 @@
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>0.8116993396258765</t>
+          <t>0.679380367697719</t>
         </is>
       </c>
     </row>
@@ -14801,7 +14801,7 @@
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>0.6858154656525228</t>
+          <t>0.6517975808695494</t>
         </is>
       </c>
     </row>
@@ -14818,7 +14818,7 @@
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>0.8152975655059423</t>
+          <t>0.7614924181447105</t>
         </is>
       </c>
     </row>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="C847" t="inlineStr">
         <is>
-          <t>0.8903484540676481</t>
+          <t>0.753888149470217</t>
         </is>
       </c>
     </row>
@@ -14852,7 +14852,7 @@
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>0.9483085247724613</t>
+          <t>0.7253707281833444</t>
         </is>
       </c>
     </row>
@@ -14869,7 +14869,7 @@
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>0.3825860929196665</t>
+          <t>0.26227791745738743</t>
         </is>
       </c>
     </row>
@@ -14886,7 +14886,7 @@
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>0.39308015547315306</t>
+          <t>0.3462440544378902</t>
         </is>
       </c>
     </row>
@@ -14903,7 +14903,7 @@
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>0.4174525357228982</t>
+          <t>0.3686751047471736</t>
         </is>
       </c>
     </row>
@@ -14920,7 +14920,7 @@
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>0.35630988593765284</t>
+          <t>0.3462440544378902</t>
         </is>
       </c>
     </row>
@@ -14937,7 +14937,7 @@
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>0.3477783984578286</t>
+          <t>0.30624744160457973</t>
         </is>
       </c>
     </row>
@@ -14954,7 +14954,7 @@
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>0.44784557471932773</t>
+          <t>0.5217949832975768</t>
         </is>
       </c>
     </row>
@@ -14971,7 +14971,7 @@
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>0.4183011129200479</t>
+          <t>0.31836784373910393</t>
         </is>
       </c>
     </row>
@@ -14988,7 +14988,7 @@
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>0.9340768271178619</t>
+          <t>0.8524948864619754</t>
         </is>
       </c>
     </row>
@@ -15005,7 +15005,7 @@
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>0.5503073333297466</t>
+          <t>0.4999999999999995</t>
         </is>
       </c>
     </row>
@@ -15022,7 +15022,7 @@
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>0.9425223664137268</t>
+          <t>0.6513476299360628</t>
         </is>
       </c>
     </row>
@@ -15039,7 +15039,7 @@
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.8524948864619754</t>
         </is>
       </c>
     </row>
@@ -15056,7 +15056,7 @@
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>0.9156850719552424</t>
+          <t>0.8436854418505092</t>
         </is>
       </c>
     </row>
@@ -15073,7 +15073,7 @@
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>0.6415123997208447</t>
+          <t>0.559683717727841</t>
         </is>
       </c>
     </row>
@@ -15090,7 +15090,7 @@
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>0.9045801517222475</t>
+          <t>0.8626853640916717</t>
         </is>
       </c>
     </row>
@@ -15107,7 +15107,7 @@
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.8524948864619754</t>
         </is>
       </c>
     </row>
@@ -15124,7 +15124,7 @@
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9262474432309875</t>
         </is>
       </c>
     </row>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>0.5715432459888516</t>
+          <t>0.3730366407054759</t>
         </is>
       </c>
     </row>
@@ -15158,7 +15158,7 @@
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>0.5694956703583551</t>
+          <t>0.34870738749050273</t>
         </is>
       </c>
     </row>
@@ -15175,7 +15175,7 @@
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>0.6154587809277017</t>
+          <t>0.6480045150983854</t>
         </is>
       </c>
     </row>
@@ -15192,7 +15192,7 @@
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>0.5620042913571779</t>
+          <t>0.3848790520148433</t>
         </is>
       </c>
     </row>
@@ -15209,7 +15209,7 @@
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>0.42770828137352684</t>
+          <t>0.3159295687390792</t>
         </is>
       </c>
     </row>
@@ -15226,7 +15226,7 @@
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>0.49177207588498895</t>
+          <t>0.4345383518748829</t>
         </is>
       </c>
     </row>
@@ -15243,7 +15243,7 @@
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>0.4219880495235412</t>
+          <t>0.45003134156818414</t>
         </is>
       </c>
     </row>
@@ -15260,7 +15260,7 @@
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>0.40605371407846375</t>
+          <t>0.4192198651697643</t>
         </is>
       </c>
     </row>
@@ -15277,7 +15277,7 @@
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>0.7495514109030879</t>
+          <t>0.7272727272727267</t>
         </is>
       </c>
     </row>
@@ -15294,7 +15294,7 @@
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>0.817487004083267</t>
+          <t>0.7981020598379998</t>
         </is>
       </c>
     </row>
@@ -15311,7 +15311,7 @@
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>0.7521906577609695</t>
+          <t>0.4979372019265092</t>
         </is>
       </c>
     </row>
@@ -15328,7 +15328,7 @@
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>0.4026207845221839</t>
+          <t>0.4960477411077986</t>
         </is>
       </c>
     </row>
@@ -15345,7 +15345,7 @@
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>0.7703691820105993</t>
+          <t>0.5304036477270225</t>
         </is>
       </c>
     </row>
@@ -15362,7 +15362,7 @@
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>0.7495514109030879</t>
+          <t>0.5898135824503619</t>
         </is>
       </c>
     </row>
@@ -15379,7 +15379,7 @@
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>0.7495514109030879</t>
+          <t>0.5898135824503619</t>
         </is>
       </c>
     </row>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>0.5105544535606018</t>
+          <t>0.48998846109728483</t>
         </is>
       </c>
     </row>
@@ -15413,7 +15413,7 @@
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>0.4019188506971638</t>
+          <t>0.32078814402240713</t>
         </is>
       </c>
     </row>
@@ -15430,7 +15430,7 @@
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>0.5487083623079247</t>
+          <t>0.60254996964384</t>
         </is>
       </c>
     </row>
@@ -15447,7 +15447,7 @@
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>0.47636259571133543</t>
+          <t>0.3848790520148433</t>
         </is>
       </c>
     </row>
@@ -15464,7 +15464,7 @@
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>0.3494303868617336</t>
+          <t>0.2800408498423754</t>
         </is>
       </c>
     </row>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>0.5131668748329558</t>
+          <t>0.42374838023601524</t>
         </is>
       </c>
     </row>
@@ -15498,7 +15498,7 @@
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>0.2665360567681437</t>
+          <t>0.4405924953802416</t>
         </is>
       </c>
     </row>
@@ -15515,7 +15515,7 @@
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>0.35228945072651</t>
+          <t>0.2321358547641491</t>
         </is>
       </c>
     </row>
@@ -15532,7 +15532,7 @@
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>0.6640493282686909</t>
+          <t>0.5297774805291069</t>
         </is>
       </c>
     </row>
@@ -15549,7 +15549,7 @@
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>0.6323032965226588</t>
+          <t>0.401760933694083</t>
         </is>
       </c>
     </row>
@@ -15566,7 +15566,7 @@
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>0.38269285380192286</t>
+          <t>0.23915833229007125</t>
         </is>
       </c>
     </row>
@@ -15583,7 +15583,7 @@
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>0.40311100702533</t>
+          <t>0.3180363352868919</t>
         </is>
       </c>
     </row>
@@ -15600,7 +15600,7 @@
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>0.34930389119462474</t>
+          <t>0.301451565715879</t>
         </is>
       </c>
     </row>
@@ -15617,7 +15617,7 @@
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>0.42337657555433356</t>
+          <t>0.3180363352868919</t>
         </is>
       </c>
     </row>
@@ -15634,7 +15634,7 @@
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>0.36803068593488697</t>
+          <t>0.25519528500772015</t>
         </is>
       </c>
     </row>
@@ -15651,7 +15651,7 @@
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>0.37153660458225557</t>
+          <t>0.2624678573955814</t>
         </is>
       </c>
     </row>
@@ -15668,7 +15668,7 @@
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>0.3996024176010812</t>
+          <t>0.2350055701600986</t>
         </is>
       </c>
     </row>
@@ -15685,7 +15685,7 @@
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>0.3622175120720811</t>
+          <t>0.30642224572870524</t>
         </is>
       </c>
     </row>
@@ -15702,7 +15702,7 @@
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>0.27416960669424245</t>
+          <t>0.2709224254217026</t>
         </is>
       </c>
     </row>
@@ -15719,7 +15719,7 @@
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>0.4353828192990374</t>
+          <t>0.3442231065543927</t>
         </is>
       </c>
     </row>
@@ -15736,7 +15736,7 @@
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>0.5004537921507615</t>
+          <t>0.29255408177930986</t>
         </is>
       </c>
     </row>
@@ -15753,7 +15753,7 @@
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.7771986565691511</t>
         </is>
       </c>
     </row>
@@ -15770,7 +15770,7 @@
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.806871759129691</t>
         </is>
       </c>
     </row>
@@ -15787,7 +15787,7 @@
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>0.8014678364619716</t>
+          <t>0.6601846709153506</t>
         </is>
       </c>
     </row>
@@ -15804,7 +15804,7 @@
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>0.934076827117862</t>
+          <t>0.8818806233415394</t>
         </is>
       </c>
     </row>
@@ -15821,7 +15821,7 @@
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.8844053107459013</t>
         </is>
       </c>
     </row>
@@ -15838,7 +15838,7 @@
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.8844053107459013</t>
         </is>
       </c>
     </row>
@@ -15855,7 +15855,7 @@
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>0.522809933503755</t>
+          <t>0.2611279041205111</t>
         </is>
       </c>
     </row>
@@ -15872,7 +15872,7 @@
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>0.3522840139799054</t>
+          <t>0.2604670820477841</t>
         </is>
       </c>
     </row>
@@ -15889,7 +15889,7 @@
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>0.5483399343392193</t>
+          <t>0.5853934355037612</t>
         </is>
       </c>
     </row>
@@ -15906,7 +15906,7 @@
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>0.47372358991636565</t>
+          <t>0.3848790520148433</t>
         </is>
       </c>
     </row>
@@ -15923,7 +15923,7 @@
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>0.4471742512810563</t>
+          <t>0.31366475603728644</t>
         </is>
       </c>
     </row>
@@ -15940,7 +15940,7 @@
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>0.44578885501758625</t>
+          <t>0.40610634837613024</t>
         </is>
       </c>
     </row>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>0.4997466087455868</t>
+          <t>0.5081105852111567</t>
         </is>
       </c>
     </row>
@@ -15974,7 +15974,7 @@
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.862685364091672</t>
         </is>
       </c>
     </row>
@@ -15991,7 +15991,7 @@
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>0.698978029656733</t>
+          <t>0.670543730422786</t>
         </is>
       </c>
     </row>
@@ -16008,7 +16008,7 @@
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>0.9340768271178619</t>
+          <t>0.8432591601763687</t>
         </is>
       </c>
     </row>
@@ -16025,7 +16025,7 @@
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.8432591601763687</t>
         </is>
       </c>
     </row>
@@ -16042,7 +16042,7 @@
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.8432591601763687</t>
         </is>
       </c>
     </row>
@@ -16059,7 +16059,7 @@
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>0.47017739160776706</t>
+          <t>0.259390489010369</t>
         </is>
       </c>
     </row>
@@ -16076,7 +16076,7 @@
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>0.4277718980060125</t>
+          <t>0.29727989685127215</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>0.7029155270281294</t>
+          <t>0.5004994015603611</t>
         </is>
       </c>
     </row>
@@ -16110,7 +16110,7 @@
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>0.47372358991636565</t>
+          <t>0.3848790520148433</t>
         </is>
       </c>
     </row>
@@ -16127,7 +16127,7 @@
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>0.29114716854259876</t>
+          <t>0.23118551849714547</t>
         </is>
       </c>
     </row>
@@ -16144,7 +16144,7 @@
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>0.5060883604535684</t>
+          <t>0.3693590595372423</t>
         </is>
       </c>
     </row>
@@ -16161,7 +16161,7 @@
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>0.3872805148151406</t>
+          <t>0.47398644641556437</t>
         </is>
       </c>
     </row>
@@ -16178,7 +16178,7 @@
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>0.6430516235991681</t>
+          <t>0.7941215903190535</t>
         </is>
       </c>
     </row>
@@ -16195,7 +16195,7 @@
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>0.9190854481162105</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -16212,7 +16212,7 @@
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -16229,7 +16229,7 @@
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -16246,7 +16246,7 @@
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>0.39178274164832066</t>
+          <t>0.300785723988212</t>
         </is>
       </c>
     </row>
@@ -16263,7 +16263,7 @@
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>0.3062821080641511</t>
+          <t>0.23096034471175114</t>
         </is>
       </c>
     </row>
@@ -16280,7 +16280,7 @@
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>0.4929324319859154</t>
+          <t>0.3318854949900574</t>
         </is>
       </c>
     </row>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>0.3845113849863816</t>
+          <t>0.27420674194191286</t>
         </is>
       </c>
     </row>
@@ -16314,7 +16314,7 @@
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>0.2981611106030612</t>
+          <t>0.4061762210797766</t>
         </is>
       </c>
     </row>
@@ -16331,7 +16331,7 @@
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>0.47026710937760235</t>
+          <t>0.3374040979198062</t>
         </is>
       </c>
     </row>
@@ -16348,7 +16348,7 @@
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>0.41457713114803335</t>
+          <t>0.479378429440581</t>
         </is>
       </c>
     </row>
@@ -16365,7 +16365,7 @@
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>0.6293585323087786</t>
+          <t>0.8227211577322666</t>
         </is>
       </c>
     </row>
@@ -16382,7 +16382,7 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>0.6915799630064797</t>
+          <t>0.8289903910902391</t>
         </is>
       </c>
     </row>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>0.7306508931782006</t>
+          <t>0.8681794549862104</t>
         </is>
       </c>
     </row>
@@ -16416,7 +16416,7 @@
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>0.45789407293545287</t>
+          <t>0.26330281448280546</t>
         </is>
       </c>
     </row>
@@ -16433,7 +16433,7 @@
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>0.36879821436859317</t>
+          <t>0.2050423264187907</t>
         </is>
       </c>
     </row>
@@ -16450,7 +16450,7 @@
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>0.40733046544895657</t>
+          <t>0.4312074564681128</t>
         </is>
       </c>
     </row>
@@ -16467,7 +16467,7 @@
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>0.40418981905339163</t>
+          <t>0.20879269250915675</t>
         </is>
       </c>
     </row>
@@ -16484,7 +16484,7 @@
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>0.3765001858869249</t>
+          <t>0.4283613728103408</t>
         </is>
       </c>
     </row>
@@ -16501,7 +16501,7 @@
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>0.49191655770842246</t>
+          <t>0.4996924467167325</t>
         </is>
       </c>
     </row>
@@ -16518,7 +16518,7 @@
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>0.6268176385167491</t>
+          <t>0.6024615965340436</t>
         </is>
       </c>
     </row>
@@ -16535,7 +16535,7 @@
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -16552,7 +16552,7 @@
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -16569,7 +16569,7 @@
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>0.39856457674055584</t>
+          <t>0.259390489010369</t>
         </is>
       </c>
     </row>
@@ -16586,7 +16586,7 @@
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>0.2796482526266743</t>
+          <t>0.284969013737429</t>
         </is>
       </c>
     </row>
@@ -16603,7 +16603,7 @@
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>0.4774785046410294</t>
+          <t>0.40305053581502825</t>
         </is>
       </c>
     </row>
@@ -16620,7 +16620,7 @@
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>0.339233585793611</t>
+          <t>0.284969013737429</t>
         </is>
       </c>
     </row>
@@ -16637,7 +16637,7 @@
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>0.31571105829482743</t>
+          <t>0.38138702101703537</t>
         </is>
       </c>
     </row>
@@ -16654,7 +16654,7 @@
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>0.5133633663215261</t>
+          <t>0.3963006548984918</t>
         </is>
       </c>
     </row>
@@ -16671,7 +16671,7 @@
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>0.4905915442169744</t>
+          <t>0.44336281006231526</t>
         </is>
       </c>
     </row>
@@ -16688,7 +16688,7 @@
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -16705,7 +16705,7 @@
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>0.49886223957897563</t>
+          <t>0.38045973191946264</t>
         </is>
       </c>
     </row>
@@ -16722,7 +16722,7 @@
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>0.2660694999205808</t>
+          <t>0.3086763916547973</t>
         </is>
       </c>
     </row>
@@ -16739,7 +16739,7 @@
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>0.5126525674649292</t>
+          <t>0.4302216905035463</t>
         </is>
       </c>
     </row>
@@ -16756,7 +16756,7 @@
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>0.39625281978992544</t>
+          <t>0.3086763916547973</t>
         </is>
       </c>
     </row>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>0.31403152086999003</t>
+          <t>0.3479736866544007</t>
         </is>
       </c>
     </row>
@@ -16790,7 +16790,7 @@
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>0.5487540105642498</t>
+          <t>0.3885406460281271</t>
         </is>
       </c>
     </row>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>0.5450687162046315</t>
+          <t>0.5157281964313014</t>
         </is>
       </c>
     </row>
@@ -16824,7 +16824,7 @@
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>0.41688894173905355</t>
+          <t>0.2778250638978901</t>
         </is>
       </c>
     </row>
@@ -16841,7 +16841,7 @@
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>0.2660694999205808</t>
+          <t>0.3102205722776557</t>
         </is>
       </c>
     </row>
@@ -16858,7 +16858,7 @@
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>0.5317930024070758</t>
+          <t>0.4302216905035463</t>
         </is>
       </c>
     </row>
@@ -16875,7 +16875,7 @@
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>0.3845113849863816</t>
+          <t>0.3102205722776557</t>
         </is>
       </c>
     </row>
@@ -16892,7 +16892,7 @@
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>0.36370050938568116</t>
+          <t>0.43923935108880496</t>
         </is>
       </c>
     </row>
@@ -16909,7 +16909,7 @@
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>0.5010673191136287</t>
+          <t>0.37435471579825264</t>
         </is>
       </c>
     </row>
@@ -16926,7 +16926,7 @@
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>0.6098517876332177</t>
+          <t>0.5157281964313012</t>
         </is>
       </c>
     </row>
@@ -16943,7 +16943,7 @@
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>0.8165219710173579</t>
+          <t>0.5835475057540315</t>
         </is>
       </c>
     </row>
@@ -16960,7 +16960,7 @@
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>0.7148881462351875</t>
+          <t>0.4653137280624542</t>
         </is>
       </c>
     </row>
@@ -16977,7 +16977,7 @@
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>0.9983636725938129</t>
+          <t>0.9239335504109405</t>
         </is>
       </c>
     </row>
@@ -16994,7 +16994,7 @@
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>0.18646802038688798</t>
+          <t>0.15155172022030583</t>
         </is>
       </c>
     </row>
@@ -17011,7 +17011,7 @@
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>0.6041184781729552</t>
+          <t>0.2865912843066449</t>
         </is>
       </c>
     </row>
@@ -17028,7 +17028,7 @@
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>0.2900351930497636</t>
+          <t>0.2733925504109166</t>
         </is>
       </c>
     </row>
@@ -17045,7 +17045,7 @@
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>0.48289161707715866</t>
+          <t>0.250523569011251</t>
         </is>
       </c>
     </row>
@@ -17062,7 +17062,7 @@
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -17079,7 +17079,7 @@
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>0.42603399094958966</t>
+          <t>0.27320776755300047</t>
         </is>
       </c>
     </row>
@@ -17096,7 +17096,7 @@
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>0.36251223440722047</t>
+          <t>0.20876629914441527</t>
         </is>
       </c>
     </row>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>0.3483827919937081</t>
+          <t>0.28807314893824265</t>
         </is>
       </c>
     </row>
@@ -17130,7 +17130,7 @@
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.6823175833785431</t>
         </is>
       </c>
     </row>
@@ -17147,7 +17147,7 @@
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>0.20894377738414507</t>
+          <t>0.16524381307880126</t>
         </is>
       </c>
     </row>
@@ -17164,7 +17164,7 @@
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>0.663963071979175</t>
+          <t>0.5031552479679859</t>
         </is>
       </c>
     </row>
@@ -17181,7 +17181,7 @@
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>0.2644358860625594</t>
+          <t>0.175086044178128</t>
         </is>
       </c>
     </row>
@@ -17198,7 +17198,7 @@
       </c>
       <c r="C986" t="inlineStr">
         <is>
-          <t>0.4416525341971574</t>
+          <t>0.25134626448540703</t>
         </is>
       </c>
     </row>
@@ -17215,7 +17215,7 @@
       </c>
       <c r="C987" t="inlineStr">
         <is>
-          <t>0.5997663863335141</t>
+          <t>0.33142808292507353</t>
         </is>
       </c>
     </row>
@@ -17232,7 +17232,7 @@
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>0.346280788629154</t>
+          <t>0.2815990801264355</t>
         </is>
       </c>
     </row>
@@ -17249,7 +17249,7 @@
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>0.2578035345308588</t>
+          <t>0.33486741007043225</t>
         </is>
       </c>
     </row>
@@ -17266,7 +17266,7 @@
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>0.22564652359495185</t>
+          <t>0.21560572795280905</t>
         </is>
       </c>
     </row>
@@ -17283,7 +17283,7 @@
       </c>
       <c r="C991" t="inlineStr">
         <is>
-          <t>0.3067214013209377</t>
+          <t>0.30197522078062566</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/correlation-values.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/correlation-values.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -45,15 +45,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -422,7 +422,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -470,7 +470,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9373889204053751</t>
+          <t>0.954635299543599</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.6253009773857571</t>
+          <t>0.7148881462351875</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9983636725938129</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.173526319806046</t>
+          <t>0.19755785170995915</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.22398617238790722</t>
+          <t>0.24078738652843237</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.31462117736918466</t>
+          <t>0.37413280322597214</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.22920257780568293</t>
+          <t>0.24078738652843237</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.45811742946522366</t>
+          <t>0.5756676449959574</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.42676805011896857</t>
+          <t>0.3826521727059141</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.22398617238790722</t>
+          <t>0.2541833949159426</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.47016390848259393</t>
+          <t>0.4519498145020462</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.2763627918536014</t>
+          <t>0.3350668046817207</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.22398617238790722</t>
+          <t>0.24078738652843237</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.5999877700099879</t>
+          <t>0.53590948770304</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.5332542727521933</t>
+          <t>0.6292271769356287</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.5332542727521933</t>
+          <t>0.6292271769356287</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.43687857212736175</t>
+          <t>0.5428479137837365</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.5332542727521933</t>
+          <t>0.6292271769356287</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.41242637969322304</t>
+          <t>0.5055108718194654</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.43687857212736175</t>
+          <t>0.5428479137837365</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.5207296216990047</t>
+          <t>0.6225509733003604</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.41242637969322304</t>
+          <t>0.5199595912367255</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.47186751199903987</t>
+          <t>0.5801787489488576</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.5126517666598237</t>
+          <t>0.6041184781729549</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.47186751199903987</t>
+          <t>0.5801787489488576</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.6248610442965365</t>
+          <t>0.7642039498928618</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.3283107742606734</t>
+          <t>0.3825860929196666</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.479622796540005</t>
+          <t>0.5715432459888516</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.4555514715167118</t>
+          <t>0.5105544535606018</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.32159288959292814</t>
+          <t>0.414448847476798</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.5158416157089437</t>
+          <t>0.522809933503755</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.4049265855874318</t>
+          <t>0.47017739160776706</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.431611215629259</t>
+          <t>0.39178274164832066</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.3638251965207934</t>
+          <t>0.45789407293545287</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.3996163753578973</t>
+          <t>0.39856457674055584</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.3848790520148435</t>
+          <t>0.49886223957897563</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.38351667398890693</t>
+          <t>0.4168889417390537</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9983636725938129</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.74024972976623</t>
+          <t>0.8165219710173579</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.6253009773857571</t>
+          <t>0.7148881462351875</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9983636725938129</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.173526319806046</t>
+          <t>0.19755785170995915</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.5126517666598237</t>
+          <t>0.6041184781729549</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.21625236317971974</t>
+          <t>0.2900351930497638</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.3486743584442944</t>
+          <t>0.5000866997699275</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.9256859869821294</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.41224007361264176</t>
+          <t>0.5127031746288467</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.4207713579580182</t>
+          <t>0.5163188697194604</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.25966164333021574</t>
+          <t>0.4197260752731704</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.4207713579580182</t>
+          <t>0.5163188697194604</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.35513353391188035</t>
+          <t>0.5561009994387924</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.3520311737652125</t>
+          <t>0.4409754795801024</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.4207713579580182</t>
+          <t>0.5163188697194604</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.3364041531489864</t>
+          <t>0.5295962972898471</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.5210201939381118</t>
+          <t>0.6328295080933338</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.4207713579580182</t>
+          <t>0.5163188697194604</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.63820702446472</t>
+          <t>0.7149571010081249</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.181863450260829</t>
+          <t>0.32564989166487246</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.181863450260829</t>
+          <t>0.32564989166487246</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.26382645042638475</t>
+          <t>0.35720777580559815</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.181863450260829</t>
+          <t>0.32564989166487246</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.2155308268944402</t>
+          <t>0.3533073989093317</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0.26382645042638475</t>
+          <t>0.35720777580559815</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.181863450260829</t>
+          <t>0.32564989166487246</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.2155308268944402</t>
+          <t>0.28670141798710524</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0.30111688319404506</t>
+          <t>0.42861520040417705</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.181863450260829</t>
+          <t>0.32564989166487246</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.30111688319404506</t>
+          <t>0.42861520040417705</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.5866055264170354</t>
+          <t>0.8522503803609405</t>
         </is>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.41581810529819163</t>
+          <t>0.4046559786742157</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.46438455155937886</t>
+          <t>0.6740007859924494</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.43137386343968404</t>
+          <t>0.6352368632199117</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.41231533021022293</t>
+          <t>0.312751636562777</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.43547538662296265</t>
+          <t>0.6152363949742523</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0.34778696503378737</t>
+          <t>0.3953724234608747</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0.373036640705476</t>
+          <t>0.3465610009379516</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0.3188614350113832</t>
+          <t>0.34630002694291867</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0.40905047104121883</t>
+          <t>0.4013447160560791</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0.35845110404408914</t>
+          <t>0.4668793385600661</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0.30445229093075243</t>
+          <t>0.4266933510580405</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0.9373889204053751</t>
+          <t>0.954635299543599</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0.998509098917632</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0.3486743584442944</t>
+          <t>0.5000866997699275</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0.9545454545454541</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0.4122400736126418</t>
+          <t>0.5127031746288467</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0.2504968718733361</t>
+          <t>0.32564989166487246</t>
         </is>
       </c>
     </row>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0.24436140293678216</t>
+          <t>0.28665606943615307</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.23761122584701336</t>
+          <t>0.47303215618255384</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0.1686020404544231</t>
+          <t>0.20894377738414507</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0.1645880419970547</t>
+          <t>0.15357320137094524</t>
         </is>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0.29235823708049247</t>
+          <t>0.3353966885149807</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0.1645880419970547</t>
+          <t>0.15357320137094524</t>
         </is>
       </c>
     </row>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0.34897835935360094</t>
+          <t>0.43364136066036635</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0.3068197143690098</t>
+          <t>0.32450509286699825</t>
         </is>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0.1645880419970547</t>
+          <t>0.15357320137094524</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0.3312984143318094</t>
+          <t>0.3769409211823908</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0.20727539806204773</t>
+          <t>0.1627155831712404</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0.1645880419970547</t>
+          <t>0.15357320137094524</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0.15953405120724046</t>
+          <t>0.1587729291109816</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.6253009773857571</t>
+          <t>0.7082119425999194</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0.6253009773857571</t>
+          <t>0.7082119425999194</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>0.43687857212736175</t>
+          <t>0.4931285322331685</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>0.5626898977911327</t>
+          <t>0.6629562793532694</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>0.5191352656096953</t>
+          <t>0.7116109233184235</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0.43687857212736175</t>
+          <t>0.484429617863956</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>0.5207296216990047</t>
+          <t>0.6261563939499927</t>
         </is>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>0.4750318513003837</t>
+          <t>0.6157086379221312</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>0.47186751199903987</t>
+          <t>0.5368569052833821</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>0.5126517666598236</t>
+          <t>0.5699480893391555</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>0.5546248503882224</t>
+          <t>0.7092898346710996</t>
         </is>
       </c>
     </row>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>0.6091521072677788</t>
+          <t>0.7138672085502374</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>0.30980757122154134</t>
+          <t>0.4174525357228982</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0.4839299480785302</t>
+          <t>0.6154587809277017</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>0.408639311106579</t>
+          <t>0.5487083623079247</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>0.2526263090558348</t>
+          <t>0.3996024176010812</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>0.4426818379084672</t>
+          <t>0.5483399343392193</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0.5928842098846943</t>
+          <t>0.7029155270281294</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>0.37770771113044466</t>
+          <t>0.4929324319859154</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>0.3189027409784027</t>
+          <t>0.40733046544895657</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>0.3678811523871915</t>
+          <t>0.4774785046410294</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>0.433191935230579</t>
+          <t>0.5126525674649292</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>0.38782796319047586</t>
+          <t>0.5317930024070758</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>0.6367966173615941</t>
+          <t>0.7148881462351875</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>0.4436039340964991</t>
+          <t>0.48289161707715866</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>0.7732266742876339</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>0.7732266742876339</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>0.1686020404544231</t>
+          <t>0.20894377738414507</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>0.5331897691039258</t>
+          <t>0.663963071979175</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>0.20278980478229267</t>
+          <t>0.2644358860625594</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>0.43856961206745904</t>
+          <t>0.5309036418355016</t>
         </is>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>0.4597466416912149</t>
+          <t>0.5731149228243761</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>0.41077725000728343</t>
+          <t>0.46540241086425993</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>0.4597466416912149</t>
+          <t>0.5731149228243761</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>0.44245113670490044</t>
+          <t>0.5561009994387924</t>
         </is>
       </c>
     </row>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>0.4572774794035325</t>
+          <t>0.4409754795801024</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>0.4597466416912149</t>
+          <t>0.5731149228243761</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>0.42355393659218304</t>
+          <t>0.5295962972898471</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>0.47533750781186196</t>
+          <t>0.5562130522802231</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>0.4597466416912149</t>
+          <t>0.5731149228243761</t>
         </is>
       </c>
     </row>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>0.6452354437627993</t>
+          <t>0.8035558981254178</t>
         </is>
       </c>
     </row>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>0.22890214863594036</t>
+          <t>0.4020243453491797</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>0.22890214863594044</t>
+          <t>0.40202434534917986</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>0.3151370429050365</t>
+          <t>0.47351647510556333</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>0.22890214863594044</t>
+          <t>0.40202434534917986</t>
         </is>
       </c>
     </row>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>0.3617357465517365</t>
+          <t>0.43521980311057235</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>0.3151370429050365</t>
+          <t>0.47351647510556333</t>
         </is>
       </c>
     </row>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>0.22890214863594044</t>
+          <t>0.40202434534917986</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>0.2638777304391897</t>
+          <t>0.4019766279155936</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>0.38268446625998864</t>
+          <t>0.5569250239305233</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>0.22890214863594044</t>
+          <t>0.40202434534917986</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>0.38268446625998864</t>
+          <t>0.5569250239305233</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>0.6402553071250262</t>
+          <t>0.8522503803609405</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>0.42179737010614254</t>
+          <t>0.4046559786742157</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>0.49398494303430845</t>
+          <t>0.6740007859924494</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>0.5375337376000727</t>
+          <t>0.6352368632199117</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>0.47925887765356184</t>
+          <t>0.47811066052432094</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>0.4131729523467402</t>
+          <t>0.6152363949742523</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>0.34293879418107387</t>
+          <t>0.4177064679007876</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>0.3916197464487753</t>
+          <t>0.4042945609881804</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>0.3104498432117759</t>
+          <t>0.34747679215832034</t>
         </is>
       </c>
     </row>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>0.3881303767720645</t>
+          <t>0.4042945609881804</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>0.3566539420399926</t>
+          <t>0.4668793385600661</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>0.34293879418107387</t>
+          <t>0.4266933510580405</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9983636725938129</t>
         </is>
       </c>
     </row>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>0.8732869397283834</t>
+          <t>0.9560898739101291</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>0.23761122584701336</t>
+          <t>0.47303215618255384</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>0.9545454545454541</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>0.43856961206745904</t>
+          <t>0.5309036418355016</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>0.22890214863594044</t>
+          <t>0.40202434534917986</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>0.22031717278511667</t>
+          <t>0.28665606943615307</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>0.3999395575083759</t>
+          <t>0.44095647355654227</t>
         </is>
       </c>
     </row>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>0.4433349173834442</t>
+          <t>0.578088439754593</t>
         </is>
       </c>
     </row>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>0.33725436787674695</t>
+          <t>0.36337089045331267</t>
         </is>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>0.3928523879166123</t>
+          <t>0.4418536735667695</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>0.21127517078201827</t>
+          <t>0.2507915352042477</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>0.38213308143379515</t>
+          <t>0.4510034246105668</t>
         </is>
       </c>
     </row>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>0.2169664208744548</t>
+          <t>0.2578035345308587</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>0.2169664208744548</t>
+          <t>0.25780353453085914</t>
         </is>
       </c>
     </row>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>0.22934480026848797</t>
+          <t>0.27127824161302255</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>0.19893395235386416</t>
+          <t>0.24548668393693546</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>0.2916663836264264</t>
+          <t>0.3436442285029989</t>
         </is>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>0.22934480026848797</t>
+          <t>0.27127824161302255</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>0.19893395235386416</t>
+          <t>0.24548668393693546</t>
         </is>
       </c>
     </row>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>0.29166638362642633</t>
+          <t>0.34364422850299886</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>0.21365162337667448</t>
+          <t>0.2533756357519133</t>
         </is>
       </c>
     </row>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>0.19893395235386416</t>
+          <t>0.24548668393693546</t>
         </is>
       </c>
     </row>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>0.23441964015946307</t>
+          <t>0.2845206727574669</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>0.2552209094171099</t>
+          <t>0.3473887699575347</t>
         </is>
       </c>
     </row>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>0.30871623292448114</t>
+          <t>0.3477783984578286</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>0.33500416882741313</t>
+          <t>0.42770828137352684</t>
         </is>
       </c>
     </row>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>0.37579418340413373</t>
+          <t>0.3494303868617336</t>
         </is>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>0.2229658838334019</t>
+          <t>0.2687499179593845</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>0.3088009180125802</t>
+          <t>0.4471742512810562</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>0.2649023148518554</t>
+          <t>0.29114716854259876</t>
         </is>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>0.21276607186438581</t>
+          <t>0.2981611106030612</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>0.40618544651459076</t>
+          <t>0.3765001858869249</t>
         </is>
       </c>
     </row>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>0.2807989290550851</t>
+          <t>0.31571105829482743</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>0.26191297606102093</t>
+          <t>0.31403152086999003</t>
         </is>
       </c>
     </row>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>0.2289809407990933</t>
+          <t>0.36370050938568116</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>0.10306031792185334</t>
+          <t>0.18646802038688798</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>0.332812534195959</t>
+          <t>0.42603399094958966</t>
         </is>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>0.1686020404544231</t>
+          <t>0.20894377738414507</t>
         </is>
       </c>
     </row>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>0.366421609271653</t>
+          <t>0.4416525341971574</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>0.9256859869821294</t>
+          <t>0.9468188316776022</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>0.21696642087445456</t>
+          <t>0.26083318805225364</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>0.20663187186322177</t>
+          <t>0.22564652359495185</t>
         </is>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>0.4322755863353964</t>
+          <t>0.4489486003019205</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>0.4950971501257681</t>
+          <t>0.5634975534769824</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>0.4198787320449225</t>
+          <t>0.4158015886752176</t>
         </is>
       </c>
     </row>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>0.4354025298045303</t>
+          <t>0.536498804817364</t>
         </is>
       </c>
     </row>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>0.21127517078201827</t>
+          <t>0.21995458943518553</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>0.4380873840933664</t>
+          <t>0.5209326478490961</t>
         </is>
       </c>
     </row>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>0.19893395235386424</t>
+          <t>0.21258293825892755</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>0.19893395235386424</t>
+          <t>0.21258293825892763</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>0.2293448002684878</t>
+          <t>0.21933784789392138</t>
         </is>
       </c>
     </row>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>0.19893395235386424</t>
+          <t>0.18204272258992132</t>
         </is>
       </c>
     </row>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>0.26837367943927554</t>
+          <t>0.2984236322310678</t>
         </is>
       </c>
     </row>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>0.2293448002684878</t>
+          <t>0.21933784789392138</t>
         </is>
       </c>
     </row>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>0.19893395235386424</t>
+          <t>0.18204272258992132</t>
         </is>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>0.2683736794392755</t>
+          <t>0.2984236322310679</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>0.21365162337667465</t>
+          <t>0.19398455795401462</t>
         </is>
       </c>
     </row>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>0.19893395235386424</t>
+          <t>0.18204272258992132</t>
         </is>
       </c>
     </row>
@@ -4363,7 +4363,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>0.21365162337667465</t>
+          <t>0.23930007648553578</t>
         </is>
       </c>
     </row>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>0.33486741007043236</t>
+          <t>0.4587908933794657</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>0.32675337647107294</t>
+          <t>0.368787446018571</t>
         </is>
       </c>
     </row>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>0.3757317878798618</t>
+          <t>0.5370168516652402</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>0.35910162564854914</t>
+          <t>0.322388314839432</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>0.24512772510079694</t>
+          <t>0.31947123520887455</t>
         </is>
       </c>
     </row>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>0.3657444301525013</t>
+          <t>0.4397260287056144</t>
         </is>
       </c>
     </row>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>0.29448845672991625</t>
+          <t>0.3455295020416162</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>0.2628326125426272</t>
+          <t>0.3869739640227722</t>
         </is>
       </c>
     </row>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>0.40298633112911303</t>
+          <t>0.40073246032336807</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>0.29327915233145674</t>
+          <t>0.36471760013886634</t>
         </is>
       </c>
     </row>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>0.25995632173587985</t>
+          <t>0.3678194765940396</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>0.29327915233145674</t>
+          <t>0.4243254884942007</t>
         </is>
       </c>
     </row>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>0.1613750927932827</t>
+          <t>0.18531923311697687</t>
         </is>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>0.2653356079533881</t>
+          <t>0.3774131780308531</t>
         </is>
       </c>
     </row>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>0.1645880419970547</t>
+          <t>0.15357320137094524</t>
         </is>
       </c>
     </row>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>0.32525514673937345</t>
+          <t>0.4498220860494694</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>0.19893395235386424</t>
+          <t>0.21258293825892768</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>0.2120516794133887</t>
+          <t>0.22088528756633286</t>
         </is>
       </c>
     </row>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>0.4322755863353964</t>
+          <t>0.4489486003019205</t>
         </is>
       </c>
     </row>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>0.9530545534630865</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>0.998509098917632</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>0.4322755863353964</t>
+          <t>0.4489486003019205</t>
         </is>
       </c>
     </row>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>0.998509098917632</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>0.7003753317292407</t>
+          <t>0.9983636725938129</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>0.4322755863353964</t>
+          <t>0.4489486003019205</t>
         </is>
       </c>
     </row>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>0.5168721843641763</t>
+          <t>0.7581959327577178</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>0.3468449298015905</t>
+          <t>0.3882438142267913</t>
         </is>
       </c>
     </row>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>0.3468449298015903</t>
+          <t>0.38824381422679133</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>0.5176481261263349</t>
+          <t>0.446480697460745</t>
         </is>
       </c>
     </row>
@@ -4890,7 +4890,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>0.34684492980159054</t>
+          <t>0.38824381422679133</t>
         </is>
       </c>
     </row>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>0.5340057884235802</t>
+          <t>0.4884765383476337</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>0.5176481261263349</t>
+          <t>0.446480697460745</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>0.3468449298015905</t>
+          <t>0.3882438142267917</t>
         </is>
       </c>
     </row>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>0.5214939352070541</t>
+          <t>0.5202225700936652</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>0.4546994164854574</t>
+          <t>0.4643145049035332</t>
         </is>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>0.2911506163329594</t>
+          <t>0.34632222088317566</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>0.4546994164854574</t>
+          <t>0.4719126785820207</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>0.7853292836497768</t>
+          <t>0.8573392579728359</t>
         </is>
       </c>
     </row>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>0.8651266050161187</t>
+          <t>0.7926477715661455</t>
         </is>
       </c>
     </row>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>0.998509098917632</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>0.7166394773129264</t>
+          <t>0.8019707319331975</t>
         </is>
       </c>
     </row>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>0.47270070148343235</t>
+          <t>0.37899534463713713</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>0.6790234594652078</t>
+          <t>0.8299986157969532</t>
         </is>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>0.8780456892512382</t>
+          <t>0.9190854481162107</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>0.8803897222591717</t>
+          <t>0.8686331278097014</t>
         </is>
       </c>
     </row>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>0.4980114347309368</t>
+          <t>0.5046867498057843</t>
         </is>
       </c>
     </row>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>0.7356046331342138</t>
+          <t>0.8760044523606563</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>0.8803897222591717</t>
+          <t>0.9253745019461711</t>
         </is>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>0.8718776960834081</t>
+          <t>0.9379113496604994</t>
         </is>
       </c>
     </row>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>0.31462117736918443</t>
+          <t>0.37413280322597214</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>0.3434344831249889</t>
+          <t>0.39857205129193873</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>0.29235823708049247</t>
+          <t>0.3353966885149807</t>
         </is>
       </c>
     </row>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>0.37310219335054967</t>
+          <t>0.4244299448194171</t>
         </is>
       </c>
     </row>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>0.3999395575083759</t>
+          <t>0.3615662408219133</t>
         </is>
       </c>
     </row>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>0.3468449298015905</t>
+          <t>0.3564977824807596</t>
         </is>
       </c>
     </row>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>0.18515050759453022</t>
+          <t>0.2693682556481319</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>0.4950971501257681</t>
+          <t>0.5634975534769824</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>0.3600147636250067</t>
+          <t>0.4517486125877636</t>
         </is>
       </c>
     </row>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>0.4354025298045303</t>
+          <t>0.536498804817364</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>0.2261620351468728</t>
+          <t>0.2543164471555113</t>
         </is>
       </c>
     </row>
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>0.4380873840933664</t>
+          <t>0.5209326478490961</t>
         </is>
       </c>
     </row>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>0.19367371668730396</t>
+          <t>0.21258293825892755</t>
         </is>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>0.19367371668730388</t>
+          <t>0.21258293825892763</t>
         </is>
       </c>
     </row>
@@ -5502,7 +5502,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>0.1667337206738637</t>
+          <t>0.20735550658973934</t>
         </is>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>0.13632287275923974</t>
+          <t>0.17006038128573947</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>0.26837367943927554</t>
+          <t>0.2984236322310678</t>
         </is>
       </c>
     </row>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>0.1667337206738637</t>
+          <t>0.20735550658973934</t>
         </is>
       </c>
     </row>
@@ -5570,7 +5570,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>0.13632287275923974</t>
+          <t>0.17006038128573947</t>
         </is>
       </c>
     </row>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>0.2683736794392755</t>
+          <t>0.2984236322310679</t>
         </is>
       </c>
     </row>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>0.15104054378205028</t>
+          <t>0.18200221664983282</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>0.13632287275923974</t>
+          <t>0.17006038128573947</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>0.21112693597231222</t>
+          <t>0.23930007648553578</t>
         </is>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>0.33486741007043236</t>
+          <t>0.4587908933794657</t>
         </is>
       </c>
     </row>
@@ -5672,7 +5672,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>0.39087933122226404</t>
+          <t>0.46125632916264636</t>
         </is>
       </c>
     </row>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>0.3757317878798618</t>
+          <t>0.5370168516652402</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>0.35250147921698277</t>
+          <t>0.34985916928134986</t>
         </is>
       </c>
     </row>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>0.24512772510079694</t>
+          <t>0.31947123520887455</t>
         </is>
       </c>
     </row>
@@ -5740,7 +5740,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>0.4055837787312738</t>
+          <t>0.4397260287056144</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>0.35209211464906015</t>
+          <t>0.34985916928134997</t>
         </is>
       </c>
     </row>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>0.3679194155307135</t>
+          <t>0.3869739640227722</t>
         </is>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>0.4768349689126621</t>
+          <t>0.40073246032336807</t>
         </is>
       </c>
     </row>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>0.2849944255905411</t>
+          <t>0.394185559407791</t>
         </is>
       </c>
     </row>
@@ -5825,7 +5825,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>0.3856644714391834</t>
+          <t>0.3835043629039083</t>
         </is>
       </c>
     </row>
@@ -5842,7 +5842,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>0.3679194155307135</t>
+          <t>0.4243254884942007</t>
         </is>
       </c>
     </row>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>0.22920257780568293</t>
+          <t>0.2177364844952045</t>
         </is>
       </c>
     </row>
@@ -5876,7 +5876,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>0.2634485380114402</t>
+          <t>0.3774131780308531</t>
         </is>
       </c>
     </row>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>0.1645880419970547</t>
+          <t>0.15357320137094524</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>0.32525514673937345</t>
+          <t>0.4498220860494694</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -5944,7 +5944,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>0.19367371668730396</t>
+          <t>0.21258293825892768</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>0.2120516794133887</t>
+          <t>0.22088528756633286</t>
         </is>
       </c>
     </row>
@@ -5978,7 +5978,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>0.9164718154077045</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>0.4950971501257681</t>
+          <t>0.5634975534769824</t>
         </is>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>0.5528702181912163</t>
+          <t>0.6395556341875601</t>
         </is>
       </c>
     </row>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>0.4950971501257681</t>
+          <t>0.5634975534769824</t>
         </is>
       </c>
     </row>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>0.6032721091064389</t>
+          <t>0.7434751465197066</t>
         </is>
       </c>
     </row>
@@ -6080,7 +6080,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>0.30437527860856634</t>
+          <t>0.38924031658522934</t>
         </is>
       </c>
     </row>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>0.29075477154951945</t>
+          <t>0.38924031658522934</t>
         </is>
       </c>
     </row>
@@ -6114,7 +6114,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>0.4898111629058842</t>
+          <t>0.4778540706077184</t>
         </is>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>0.2802197626597045</t>
+          <t>0.3817202298523469</t>
         </is>
       </c>
     </row>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>0.46143169473991896</t>
+          <t>0.5267377327528151</t>
         </is>
       </c>
     </row>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>0.4898111629058842</t>
+          <t>0.4778540706077184</t>
         </is>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>0.3043752786085665</t>
+          <t>0.3817202298523469</t>
         </is>
       </c>
     </row>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>0.46143169473991896</t>
+          <t>0.5267377327528151</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>0.43432221302546303</t>
+          <t>0.5080428779537469</t>
         </is>
       </c>
     </row>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>0.2802197626597045</t>
+          <t>0.3817202298523469</t>
         </is>
       </c>
     </row>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>0.43432221302546303</t>
+          <t>0.5080428779537469</t>
         </is>
       </c>
     </row>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>0.7868201847321444</t>
+          <t>0.8058791336588795</t>
         </is>
       </c>
     </row>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>0.8970607951595265</t>
+          <t>0.6832762852297066</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -6318,7 +6318,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>0.7035103037093104</t>
+          <t>0.8452890803966985</t>
         </is>
       </c>
     </row>
@@ -6335,7 +6335,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>0.39571520197181076</t>
+          <t>0.33424246523113416</t>
         </is>
       </c>
     </row>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>0.8359254329801443</t>
+          <t>0.8720092226615503</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9156850719552424</t>
         </is>
       </c>
     </row>
@@ -6403,7 +6403,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>0.592388560123731</t>
+          <t>0.5400528360323891</t>
         </is>
       </c>
     </row>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>0.7889328073226599</t>
+          <t>0.8608517786720337</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -6454,7 +6454,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>0.45811742946522355</t>
+          <t>0.5756676449959574</t>
         </is>
       </c>
     </row>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>0.45616548028884035</t>
+          <t>0.5886371641821949</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>0.34897835935360094</t>
+          <t>0.43364136066036635</t>
         </is>
       </c>
     </row>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>0.45811742946522355</t>
+          <t>0.5808558150445273</t>
         </is>
       </c>
     </row>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>0.4433349173834442</t>
+          <t>0.578088439754593</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>0.2802197626597045</t>
+          <t>0.3817202298523469</t>
         </is>
       </c>
     </row>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>0.17843546096611448</t>
+          <t>0.26755546412460474</t>
         </is>
       </c>
     </row>
@@ -6590,7 +6590,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>0.3600147636250067</t>
+          <t>0.4517486125877633</t>
         </is>
       </c>
     </row>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>0.917962716490072</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -6624,7 +6624,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>0.6228426213498864</t>
+          <t>0.8625701569942859</t>
         </is>
       </c>
     </row>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>0.3600147636250067</t>
+          <t>0.3850428566631164</t>
         </is>
       </c>
     </row>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>0.4235652798518115</t>
+          <t>0.635051819783</t>
         </is>
       </c>
     </row>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>0.3468449298015903</t>
+          <t>0.3882438142267913</t>
         </is>
       </c>
     </row>
@@ -6692,7 +6692,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>0.3043752786085665</t>
+          <t>0.38824381422679144</t>
         </is>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>0.4703849589905811</t>
+          <t>0.446480697460745</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>0.3043752786085666</t>
+          <t>0.38824381422679133</t>
         </is>
       </c>
     </row>
@@ -6743,7 +6743,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>0.5214939352070543</t>
+          <t>0.4884765383476337</t>
         </is>
       </c>
     </row>
@@ -6760,7 +6760,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>0.47038495899058097</t>
+          <t>0.446480697460745</t>
         </is>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>0.3468449298015905</t>
+          <t>0.3882438142267917</t>
         </is>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>0.4492505552843213</t>
+          <t>0.5202225700936652</t>
         </is>
       </c>
     </row>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>0.41857772652409114</t>
+          <t>0.44034207189734015</t>
         </is>
       </c>
     </row>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>0.2659199789530978</t>
+          <t>0.32850241585959344</t>
         </is>
       </c>
     </row>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>0.41857772652409114</t>
+          <t>0.4719126785820207</t>
         </is>
       </c>
     </row>
@@ -6862,7 +6862,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>0.8886348521872537</t>
+          <t>0.8573392579728359</t>
         </is>
       </c>
     </row>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>0.7787606054568751</t>
+          <t>0.7926477715661455</t>
         </is>
       </c>
     </row>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>0.998509098917632</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>0.7778385092688435</t>
+          <t>0.8019707319331975</t>
         </is>
       </c>
     </row>
@@ -6930,7 +6930,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>0.40760000800854096</t>
+          <t>0.37899534463713713</t>
         </is>
       </c>
     </row>
@@ -6947,7 +6947,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>0.7244631559598259</t>
+          <t>0.8299986157969532</t>
         </is>
       </c>
     </row>
@@ -6964,7 +6964,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>0.8996792001540689</t>
+          <t>0.9190854481162107</t>
         </is>
       </c>
     </row>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>0.8666885539038429</t>
+          <t>0.8686331278097014</t>
         </is>
       </c>
     </row>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>0.5498999734641833</t>
+          <t>0.5046867498057843</t>
         </is>
       </c>
     </row>
@@ -7015,7 +7015,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>0.7480647805391347</t>
+          <t>0.8760044523606563</t>
         </is>
       </c>
     </row>
@@ -7032,7 +7032,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>0.8666885539038429</t>
+          <t>0.9253745019461711</t>
         </is>
       </c>
     </row>
@@ -7049,7 +7049,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>0.9164718154077045</t>
+          <t>0.9379113496604994</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>0.42676805011896857</t>
+          <t>0.3826521727059141</t>
         </is>
       </c>
     </row>
@@ -7083,7 +7083,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>0.36198561137555507</t>
+          <t>0.3705676712040307</t>
         </is>
       </c>
     </row>
@@ -7100,7 +7100,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>0.3068197143690098</t>
+          <t>0.32450509286699825</t>
         </is>
       </c>
     </row>
@@ -7117,7 +7117,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>0.41645878844808465</t>
+          <t>0.4244299448194171</t>
         </is>
       </c>
     </row>
@@ -7134,7 +7134,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>0.3266999713606074</t>
+          <t>0.30217031313062775</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>0.3043752786085663</t>
+          <t>0.3564977824807596</t>
         </is>
       </c>
     </row>
@@ -7168,7 +7168,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>0.18121775861428296</t>
+          <t>0.2372895844395379</t>
         </is>
       </c>
     </row>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>0.4354025298045303</t>
+          <t>0.536498804817364</t>
         </is>
       </c>
     </row>
@@ -7202,7 +7202,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>0.2261620351468728</t>
+          <t>0.2522235459541428</t>
         </is>
       </c>
     </row>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>0.4380873840933664</t>
+          <t>0.5209326478490961</t>
         </is>
       </c>
     </row>
@@ -7253,7 +7253,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>0.19367371668730396</t>
+          <t>0.21258293825892755</t>
         </is>
       </c>
     </row>
@@ -7270,7 +7270,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>0.19367371668730388</t>
+          <t>0.21258293825892763</t>
         </is>
       </c>
     </row>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>0.16673372067386352</t>
+          <t>0.20735550658973934</t>
         </is>
       </c>
     </row>
@@ -7304,7 +7304,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>0.1363228727592398</t>
+          <t>0.1700603812857393</t>
         </is>
       </c>
     </row>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>0.26837367943927554</t>
+          <t>0.2984236322310678</t>
         </is>
       </c>
     </row>
@@ -7338,7 +7338,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>0.16673372067386352</t>
+          <t>0.20735550658973934</t>
         </is>
       </c>
     </row>
@@ -7355,7 +7355,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>0.1363228727592398</t>
+          <t>0.1700603812857393</t>
         </is>
       </c>
     </row>
@@ -7372,7 +7372,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>0.2683736794392755</t>
+          <t>0.2984236322310679</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>0.15104054378205012</t>
+          <t>0.1820022166498326</t>
         </is>
       </c>
     </row>
@@ -7406,7 +7406,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>0.1363228727592398</t>
+          <t>0.1700603812857393</t>
         </is>
       </c>
     </row>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>0.21112693597231222</t>
+          <t>0.23930007648553578</t>
         </is>
       </c>
     </row>
@@ -7440,7 +7440,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>0.33486741007043236</t>
+          <t>0.4587908933794657</t>
         </is>
       </c>
     </row>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>0.39737864132834344</t>
+          <t>0.4097466069747651</t>
         </is>
       </c>
     </row>
@@ -7474,7 +7474,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>0.3757317878798618</t>
+          <t>0.5370168516652402</t>
         </is>
       </c>
     </row>
@@ -7491,7 +7491,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>0.35250147921698277</t>
+          <t>0.3498591692813497</t>
         </is>
       </c>
     </row>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>0.32960366396804264</t>
+          <t>0.31947123520887455</t>
         </is>
       </c>
     </row>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>0.4055837787312735</t>
+          <t>0.4397260287056144</t>
         </is>
       </c>
     </row>
@@ -7542,7 +7542,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>0.3520921146490598</t>
+          <t>0.3498591692813498</t>
         </is>
       </c>
     </row>
@@ -7559,7 +7559,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>0.36791941553071317</t>
+          <t>0.403766935789724</t>
         </is>
       </c>
     </row>
@@ -7576,7 +7576,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>0.4768349689126624</t>
+          <t>0.40073246032336807</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>0.2849944255905411</t>
+          <t>0.4379139324580045</t>
         </is>
       </c>
     </row>
@@ -7610,7 +7610,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>0.3856644714391834</t>
+          <t>0.4016946174619939</t>
         </is>
       </c>
     </row>
@@ -7627,7 +7627,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>0.36791941553071317</t>
+          <t>0.4243254884942007</t>
         </is>
       </c>
     </row>
@@ -7644,7 +7644,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>0.20876629914441544</t>
+          <t>0.2541833949159426</t>
         </is>
       </c>
     </row>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>0.2634485380114402</t>
+          <t>0.3774131780308531</t>
         </is>
       </c>
     </row>
@@ -7678,7 +7678,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>0.1645880419970547</t>
+          <t>0.15357320137094524</t>
         </is>
       </c>
     </row>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>0.32525514673937345</t>
+          <t>0.4498220860494694</t>
         </is>
       </c>
     </row>
@@ -7712,7 +7712,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>0.19367371668730396</t>
+          <t>0.21258293825892768</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>0.2120516794133887</t>
+          <t>0.22088528756633286</t>
         </is>
       </c>
     </row>
@@ -7763,7 +7763,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>0.5112689612998246</t>
+          <t>0.6994286463470526</t>
         </is>
       </c>
     </row>
@@ -7780,7 +7780,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>0.4354025298045303</t>
+          <t>0.536498804817364</t>
         </is>
       </c>
     </row>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>0.5910024683172643</t>
+          <t>0.8516026974880263</t>
         </is>
       </c>
     </row>
@@ -7814,7 +7814,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>0.3468449298015903</t>
+          <t>0.3806089982851191</t>
         </is>
       </c>
     </row>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>0.3248275837128231</t>
+          <t>0.3806089982851191</t>
         </is>
       </c>
     </row>
@@ -7848,7 +7848,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>0.4883354454906422</t>
+          <t>0.47248578090554894</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>0.3248275837128231</t>
+          <t>0.36957531929400844</t>
         </is>
       </c>
     </row>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>0.5214939352070543</t>
+          <t>0.5191624752214343</t>
         </is>
       </c>
     </row>
@@ -7899,7 +7899,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>0.488335445490642</t>
+          <t>0.47248578090554927</t>
         </is>
       </c>
     </row>
@@ -7916,7 +7916,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>0.3468449298015905</t>
+          <t>0.4079598438416354</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>0.4837321026169151</t>
+          <t>0.5152078252272999</t>
         </is>
       </c>
     </row>
@@ -7950,7 +7950,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>0.4365282130241522</t>
+          <t>0.4741127058249118</t>
         </is>
       </c>
     </row>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>0.28021976265970433</t>
+          <t>0.36591862272593223</t>
         </is>
       </c>
     </row>
@@ -7984,7 +7984,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>0.4365282130241522</t>
+          <t>0.49863350108749305</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>0.7868201847321444</t>
+          <t>0.8540566215360029</t>
         </is>
       </c>
     </row>
@@ -8018,7 +8018,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>0.8970607951595264</t>
+          <t>0.7984339299248802</t>
         </is>
       </c>
     </row>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>0.7060379016762148</t>
+          <t>0.8162024295877968</t>
         </is>
       </c>
     </row>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>0.4335941172605442</t>
+          <t>0.405357165964314</t>
         </is>
       </c>
     </row>
@@ -8086,7 +8086,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>0.7771986565691511</t>
+          <t>0.9209959897596507</t>
         </is>
       </c>
     </row>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -8120,7 +8120,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9173221743734815</t>
         </is>
       </c>
     </row>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>0.5827670319607378</t>
+          <t>0.5364623390185153</t>
         </is>
       </c>
     </row>
@@ -8154,7 +8154,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>0.8000742844970475</t>
+          <t>0.9307941906810291</t>
         </is>
       </c>
     </row>
@@ -8171,7 +8171,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -8205,7 +8205,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>0.47016390848259393</t>
+          <t>0.45194981450204613</t>
         </is>
       </c>
     </row>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>0.4386613923483062</t>
+          <t>0.4376903873635428</t>
         </is>
       </c>
     </row>
@@ -8239,7 +8239,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>0.3312984143318094</t>
+          <t>0.3769409211823908</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8256,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>0.4986850815688651</t>
+          <t>0.42731417492424423</t>
         </is>
       </c>
     </row>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>0.3928523879166123</t>
+          <t>0.4418536735667695</t>
         </is>
       </c>
     </row>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>0.3248275837128232</t>
+          <t>0.36591862272593223</t>
         </is>
       </c>
     </row>
@@ -8307,7 +8307,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>0.17021590100662778</t>
+          <t>0.288593057773524</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>0.167296342742715</t>
+          <t>0.14738197038804532</t>
         </is>
       </c>
     </row>
@@ -8341,7 +8341,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>0.81119646702174</t>
+          <t>0.8477784614627688</t>
         </is>
       </c>
     </row>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>0.13919302404248268</t>
+          <t>0.268204942435083</t>
         </is>
       </c>
     </row>
@@ -8375,7 +8375,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>0.13919302404248268</t>
+          <t>0.2682049424350829</t>
         </is>
       </c>
     </row>
@@ -8392,7 +8392,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>0.07252638951406144</t>
+          <t>0.059373915292476244</t>
         </is>
       </c>
     </row>
@@ -8409,7 +8409,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>0.06116106718517968</t>
+          <t>0.053945467249996305</t>
         </is>
       </c>
     </row>
@@ -8426,7 +8426,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>0.21684390420410019</t>
+          <t>0.3441750308362601</t>
         </is>
       </c>
     </row>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>0.07252638951406144</t>
+          <t>0.05937391529247657</t>
         </is>
       </c>
     </row>
@@ -8460,7 +8460,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>0.06116106718517968</t>
+          <t>0.053945467249996305</t>
         </is>
       </c>
     </row>
@@ -8477,7 +8477,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>0.24142515238992562</t>
+          <t>0.30482753369762094</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>0.06256128953265791</t>
+          <t>0.047370830724187636</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>0.05623845026150818</t>
+          <t>0.0433289244145246</t>
         </is>
       </c>
     </row>
@@ -8528,7 +8528,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>0.20753189485536905</t>
+          <t>0.30099223842911754</t>
         </is>
       </c>
     </row>
@@ -8545,7 +8545,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>0.5675541717909574</t>
+          <t>0.7271546832734901</t>
         </is>
       </c>
     </row>
@@ -8562,7 +8562,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>0.31817475095506714</t>
+          <t>0.40001904828831286</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>0.5958082628393859</t>
+          <t>0.7375350455219145</t>
         </is>
       </c>
     </row>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>0.26215769254400706</t>
+          <t>0.30679453442122123</t>
         </is>
       </c>
     </row>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>0.4729984445022723</t>
+          <t>0.5264096875566026</t>
         </is>
       </c>
     </row>
@@ -8630,7 +8630,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>0.25230223044409406</t>
+          <t>0.3162085370861655</t>
         </is>
       </c>
     </row>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>0.5678504599642443</t>
+          <t>0.4535101740761573</t>
         </is>
       </c>
     </row>
@@ -8664,7 +8664,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>0.43888291358452924</t>
+          <t>0.4292958487504502</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>0.4420738752728062</t>
+          <t>0.3910766875264714</t>
         </is>
       </c>
     </row>
@@ -8698,7 +8698,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>0.3359437087440565</t>
+          <t>0.3906819264562249</t>
         </is>
       </c>
     </row>
@@ -8715,7 +8715,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>0.22700336721332004</t>
+          <t>0.36180263374807176</t>
         </is>
       </c>
     </row>
@@ -8732,7 +8732,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>0.36406375171344857</t>
+          <t>0.5069607424188433</t>
         </is>
       </c>
     </row>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>0.27034773488791003</t>
+          <t>0.2925982223725074</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8766,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>0.5986580270948997</t>
+          <t>0.6181881588970374</t>
         </is>
       </c>
     </row>
@@ -8783,7 +8783,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>0.20727539806204773</t>
+          <t>0.1627155831712404</t>
         </is>
       </c>
     </row>
@@ -8800,7 +8800,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>0.4924940686324146</t>
+          <t>0.5673984718395855</t>
         </is>
       </c>
     </row>
@@ -8817,7 +8817,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>0.21127517078201827</t>
+          <t>0.2507915352042477</t>
         </is>
       </c>
     </row>
@@ -8834,7 +8834,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>0.09694010323765372</t>
+          <t>0.18906438649048338</t>
         </is>
       </c>
     </row>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>0.3097872233767651</t>
+          <t>0.30471933043796173</t>
         </is>
       </c>
     </row>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>0.4380873840933664</t>
+          <t>0.5209326478490961</t>
         </is>
       </c>
     </row>
@@ -8885,7 +8885,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>0.19367371668730396</t>
+          <t>0.21258293825892755</t>
         </is>
       </c>
     </row>
@@ -8902,7 +8902,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>0.19367371668730388</t>
+          <t>0.21258293825892763</t>
         </is>
       </c>
     </row>
@@ -8919,7 +8919,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>0.12275489263456056</t>
+          <t>0.1685878070530921</t>
         </is>
       </c>
     </row>
@@ -8936,7 +8936,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>0.09234404471993636</t>
+          <t>0.13129268174909223</t>
         </is>
       </c>
     </row>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>0.26837367943927554</t>
+          <t>0.2984236322310678</t>
         </is>
       </c>
     </row>
@@ -8970,7 +8970,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>0.12275489263456056</t>
+          <t>0.1685878070530921</t>
         </is>
       </c>
     </row>
@@ -8987,7 +8987,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>0.09234404471993636</t>
+          <t>0.13129268174909223</t>
         </is>
       </c>
     </row>
@@ -9004,7 +9004,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>0.2683736794392755</t>
+          <t>0.2984236322310679</t>
         </is>
       </c>
     </row>
@@ -9021,7 +9021,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>0.10706171574274699</t>
+          <t>0.1432345171131857</t>
         </is>
       </c>
     </row>
@@ -9038,7 +9038,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>0.09234404471993636</t>
+          <t>0.13129268174909223</t>
         </is>
       </c>
     </row>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>0.21112693597231222</t>
+          <t>0.23930007648553578</t>
         </is>
       </c>
     </row>
@@ -9072,7 +9072,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>0.33486741007043236</t>
+          <t>0.4587908933794657</t>
         </is>
       </c>
     </row>
@@ -9089,7 +9089,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>0.32675337647107294</t>
+          <t>0.368787446018571</t>
         </is>
       </c>
     </row>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>0.3757317878798618</t>
+          <t>0.5370168516652402</t>
         </is>
       </c>
     </row>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>0.35250147921698277</t>
+          <t>0.322388314839432</t>
         </is>
       </c>
     </row>
@@ -9140,7 +9140,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>0.24512772510079694</t>
+          <t>0.31947123520887455</t>
         </is>
       </c>
     </row>
@@ -9157,7 +9157,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>0.32813229822548584</t>
+          <t>0.4397260287056144</t>
         </is>
       </c>
     </row>
@@ -9174,7 +9174,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>0.29448845672991625</t>
+          <t>0.3455295020416162</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>0.2628326125426272</t>
+          <t>0.3869739640227722</t>
         </is>
       </c>
     </row>
@@ -9208,7 +9208,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>0.40298633112911303</t>
+          <t>0.40073246032336807</t>
         </is>
       </c>
     </row>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>0.25750622486793406</t>
+          <t>0.36471760013886634</t>
         </is>
       </c>
     </row>
@@ -9242,7 +9242,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>0.24779792499683806</t>
+          <t>0.3678194765940396</t>
         </is>
       </c>
     </row>
@@ -9259,7 +9259,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>0.2625697838003773</t>
+          <t>0.4243254884942007</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>0.17352677305725198</t>
+          <t>0.18531923311697687</t>
         </is>
       </c>
     </row>
@@ -9293,7 +9293,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>0.2634485380114402</t>
+          <t>0.3774131780308531</t>
         </is>
       </c>
     </row>
@@ -9310,7 +9310,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>0.1645880419970547</t>
+          <t>0.15357320137094524</t>
         </is>
       </c>
     </row>
@@ -9327,7 +9327,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>0.32525514673937345</t>
+          <t>0.4498220860494694</t>
         </is>
       </c>
     </row>
@@ -9344,7 +9344,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -9361,7 +9361,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>0.19367371668730396</t>
+          <t>0.21258293825892768</t>
         </is>
       </c>
     </row>
@@ -9378,7 +9378,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>0.2120516794133887</t>
+          <t>0.22088528756633286</t>
         </is>
       </c>
     </row>
@@ -9395,7 +9395,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>0.22932334625871667</t>
+          <t>0.2738288929129448</t>
         </is>
       </c>
     </row>
@@ -9412,7 +9412,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>0.2293233462587165</t>
+          <t>0.2738288929129448</t>
         </is>
       </c>
     </row>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>0.14069890169082103</t>
+          <t>0.16320088132864635</t>
         </is>
       </c>
     </row>
@@ -9446,7 +9446,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>0.11915072677170734</t>
+          <t>0.1362630317338009</t>
         </is>
       </c>
     </row>
@@ -9463,7 +9463,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>0.3111264952458313</t>
+          <t>0.3652260070455467</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>0.14069890169082103</t>
+          <t>0.16320088132864635</t>
         </is>
       </c>
     </row>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>0.11915072677170734</t>
+          <t>0.1362630317338009</t>
         </is>
       </c>
     </row>
@@ -9514,7 +9514,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>0.29253368559908904</t>
+          <t>0.329152525116918</t>
         </is>
       </c>
     </row>
@@ -9531,7 +9531,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>0.12799825344721916</t>
+          <t>0.14374711268156024</t>
         </is>
       </c>
     </row>
@@ -9548,7 +9548,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>0.11915072677170734</t>
+          <t>0.1362630317338009</t>
         </is>
       </c>
     </row>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>0.28094588488109207</t>
+          <t>0.31080294981359924</t>
         </is>
       </c>
     </row>
@@ -9582,7 +9582,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>0.5397372671517736</t>
+          <t>0.6817541071682018</t>
         </is>
       </c>
     </row>
@@ -9599,7 +9599,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>0.5018086216812081</t>
+          <t>0.5301165441561463</t>
         </is>
       </c>
     </row>
@@ -9616,7 +9616,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>0.5394750961455853</t>
+          <t>0.7218853103837246</t>
         </is>
       </c>
     </row>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>0.27186302464001266</t>
+          <t>0.3012885917506143</t>
         </is>
       </c>
     </row>
@@ -9650,7 +9650,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>0.34844433067874925</t>
+          <t>0.5412772448460308</t>
         </is>
       </c>
     </row>
@@ -9667,7 +9667,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>0.27717487540512914</t>
+          <t>0.37626595675237545</t>
         </is>
       </c>
     </row>
@@ -9684,7 +9684,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>0.388262447708589</t>
+          <t>0.4313493973075634</t>
         </is>
       </c>
     </row>
@@ -9701,7 +9701,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>0.4941566891329966</t>
+          <t>0.42035678112696123</t>
         </is>
       </c>
     </row>
@@ -9718,7 +9718,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>0.37270810108048535</t>
+          <t>0.4249702586703673</t>
         </is>
       </c>
     </row>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>0.37188596477423247</t>
+          <t>0.440914371455386</t>
         </is>
       </c>
     </row>
@@ -9752,7 +9752,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>0.26352044979832523</t>
+          <t>0.3832730583865667</t>
         </is>
       </c>
     </row>
@@ -9769,7 +9769,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>0.3195954870368303</t>
+          <t>0.4746910443717528</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9786,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>0.5999877700099879</t>
+          <t>0.53590948770304</t>
         </is>
       </c>
     </row>
@@ -9803,7 +9803,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>0.726267236273636</t>
+          <t>0.6368374064429086</t>
         </is>
       </c>
     </row>
@@ -9820,7 +9820,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>0.15953405120724046</t>
+          <t>0.1587729291109816</t>
         </is>
       </c>
     </row>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>0.6718508659602894</t>
+          <t>0.7167311644121463</t>
         </is>
       </c>
     </row>
@@ -9854,7 +9854,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>0.38213308143379515</t>
+          <t>0.4456250292065934</t>
         </is>
       </c>
     </row>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>0.13501374237540337</t>
+          <t>0.1923161856139166</t>
         </is>
       </c>
     </row>
@@ -9888,7 +9888,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>0.29075477154951956</t>
+          <t>0.3362828341322844</t>
         </is>
       </c>
     </row>
@@ -9905,7 +9905,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -9922,7 +9922,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>0.5429642223604272</t>
+          <t>0.5946479588255665</t>
         </is>
       </c>
     </row>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -9956,7 +9956,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>0.7998963911678907</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -9973,7 +9973,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>0.5429642223604271</t>
+          <t>0.5883237659348974</t>
         </is>
       </c>
     </row>
@@ -9990,7 +9990,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -10007,7 +10007,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -10024,7 +10024,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>0.5492164914335638</t>
+          <t>0.5946479588255666</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -10058,7 +10058,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>0.6022001010930377</t>
+          <t>0.699092273711303</t>
         </is>
       </c>
     </row>
@@ -10075,7 +10075,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>0.4008935625736466</t>
+          <t>0.5998892071521699</t>
         </is>
       </c>
     </row>
@@ -10092,7 +10092,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>0.4062505237434241</t>
+          <t>0.44784557471932773</t>
         </is>
       </c>
     </row>
@@ -10109,7 +10109,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>0.39408982117343255</t>
+          <t>0.49177207588498895</t>
         </is>
       </c>
     </row>
@@ -10126,7 +10126,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>0.36885918379357086</t>
+          <t>0.5131668748329558</t>
         </is>
       </c>
     </row>
@@ -10143,7 +10143,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>0.4213310513856669</t>
+          <t>0.4353828192990374</t>
         </is>
       </c>
     </row>
@@ -10160,7 +10160,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>0.31718140268276207</t>
+          <t>0.44578885501758625</t>
         </is>
       </c>
     </row>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>0.32637790881762396</t>
+          <t>0.5060883604535684</t>
         </is>
       </c>
     </row>
@@ -10194,7 +10194,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>0.32629615519237315</t>
+          <t>0.47026710937760235</t>
         </is>
       </c>
     </row>
@@ -10211,7 +10211,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>0.510007753907581</t>
+          <t>0.49191655770842246</t>
         </is>
       </c>
     </row>
@@ -10228,7 +10228,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>0.29725170534569406</t>
+          <t>0.5133633663215261</t>
         </is>
       </c>
     </row>
@@ -10245,7 +10245,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>0.4561510313402445</t>
+          <t>0.5487540105642498</t>
         </is>
       </c>
     </row>
@@ -10262,7 +10262,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>0.3758558957412587</t>
+          <t>0.5010673191136287</t>
         </is>
       </c>
     </row>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>0.5126517666598239</t>
+          <t>0.6225509733003602</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10296,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>0.2502848263832274</t>
+          <t>0.36251223440722047</t>
         </is>
       </c>
     </row>
@@ -10313,7 +10313,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>0.6253009773857571</t>
+          <t>0.7082119425999194</t>
         </is>
       </c>
     </row>
@@ -10330,7 +10330,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>0.540473205254399</t>
+          <t>0.5997663863335141</t>
         </is>
       </c>
     </row>
@@ -10347,7 +10347,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>0.2169664208744548</t>
+          <t>0.2578035345308587</t>
         </is>
       </c>
     </row>
@@ -10364,7 +10364,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -10381,7 +10381,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>0.2505135706949531</t>
+          <t>0.30672140132093767</t>
         </is>
       </c>
     </row>
@@ -10398,7 +10398,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>0.5429642223604272</t>
+          <t>0.5883237659348974</t>
         </is>
       </c>
     </row>
@@ -10415,7 +10415,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -10432,7 +10432,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>0.7998963911678907</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -10449,7 +10449,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>0.5429642223604271</t>
+          <t>0.5883237659348972</t>
         </is>
       </c>
     </row>
@@ -10466,7 +10466,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>0.5492164914335639</t>
+          <t>0.5946479588255666</t>
         </is>
       </c>
     </row>
@@ -10517,7 +10517,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -10534,7 +10534,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>0.6022001010930377</t>
+          <t>0.699092273711303</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>0.40089356257364633</t>
+          <t>0.5998892071521699</t>
         </is>
       </c>
     </row>
@@ -10568,7 +10568,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>0.40625052374342396</t>
+          <t>0.44784557471932773</t>
         </is>
       </c>
     </row>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>0.39408982117343255</t>
+          <t>0.49177207588498895</t>
         </is>
       </c>
     </row>
@@ -10602,7 +10602,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>0.36885918379357086</t>
+          <t>0.5131668748329558</t>
         </is>
       </c>
     </row>
@@ -10619,7 +10619,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>0.4213310513856669</t>
+          <t>0.4353828192990374</t>
         </is>
       </c>
     </row>
@@ -10636,7 +10636,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>0.31718140268276207</t>
+          <t>0.44578885501758625</t>
         </is>
       </c>
     </row>
@@ -10653,7 +10653,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>0.32637790881762413</t>
+          <t>0.5060883604535684</t>
         </is>
       </c>
     </row>
@@ -10670,7 +10670,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>0.32629615519237315</t>
+          <t>0.47026710937760235</t>
         </is>
       </c>
     </row>
@@ -10687,7 +10687,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>0.510007753907581</t>
+          <t>0.5032583347756449</t>
         </is>
       </c>
     </row>
@@ -10704,7 +10704,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>0.2972517053456939</t>
+          <t>0.5133633663215261</t>
         </is>
       </c>
     </row>
@@ -10721,7 +10721,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>0.4561510313402445</t>
+          <t>0.5487540105642498</t>
         </is>
       </c>
     </row>
@@ -10738,7 +10738,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>0.3758558957412587</t>
+          <t>0.5010673191136287</t>
         </is>
       </c>
     </row>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>0.5126517666598239</t>
+          <t>0.6051924982241568</t>
         </is>
       </c>
     </row>
@@ -10772,7 +10772,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>0.2502848263832274</t>
+          <t>0.36251223440722047</t>
         </is>
       </c>
     </row>
@@ -10789,7 +10789,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>0.6253009773857571</t>
+          <t>0.7082119425999194</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10806,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>0.5404732052543989</t>
+          <t>0.6314267358770039</t>
         </is>
       </c>
     </row>
@@ -10823,7 +10823,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>0.2169664208744548</t>
+          <t>0.25780353453085914</t>
         </is>
       </c>
     </row>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -10857,7 +10857,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>0.25051357069495295</t>
+          <t>0.30672140132093767</t>
         </is>
       </c>
     </row>
@@ -10874,7 +10874,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>0.5492164914335639</t>
+          <t>0.5946479588255665</t>
         </is>
       </c>
     </row>
@@ -10891,7 +10891,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.93335726001798</t>
         </is>
       </c>
     </row>
@@ -10908,7 +10908,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.93335726001798</t>
         </is>
       </c>
     </row>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>0.5492164914335638</t>
+          <t>0.5946479588255668</t>
         </is>
       </c>
     </row>
@@ -10942,7 +10942,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>0.8397822032003542</t>
+          <t>0.8714503627181368</t>
         </is>
       </c>
     </row>
@@ -10959,7 +10959,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>0.8756633923230396</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -10976,7 +10976,7 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>0.37416166536244194</t>
+          <t>0.45085986317538224</t>
         </is>
       </c>
     </row>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>0.8756633923230396</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -11010,7 +11010,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>0.6838593887004073</t>
+          <t>0.817734839142674</t>
         </is>
       </c>
     </row>
@@ -11027,7 +11027,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>0.43800490442028284</t>
+          <t>0.525204648105181</t>
         </is>
       </c>
     </row>
@@ -11044,7 +11044,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>0.6817226931461904</t>
+          <t>0.8095434654182938</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>0.47781689398793736</t>
+          <t>0.5497481184328107</t>
         </is>
       </c>
     </row>
@@ -11078,7 +11078,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>0.524754580568185</t>
+          <t>0.6470145887105037</t>
         </is>
       </c>
     </row>
@@ -11095,7 +11095,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>0.472925170244075</t>
+          <t>0.5277330388667048</t>
         </is>
       </c>
     </row>
@@ -11112,7 +11112,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>0.70926504192467</t>
+          <t>0.7019081561480637</t>
         </is>
       </c>
     </row>
@@ -11129,7 +11129,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>0.6200626130962572</t>
+          <t>0.6741306120018394</t>
         </is>
       </c>
     </row>
@@ -11146,7 +11146,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>0.3705567559917795</t>
+          <t>0.39345055369706605</t>
         </is>
       </c>
     </row>
@@ -11163,7 +11163,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>0.5578502188079518</t>
+          <t>0.5498978240217546</t>
         </is>
       </c>
     </row>
@@ -11180,7 +11180,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>0.6079701363771782</t>
+          <t>0.6109114624259868</t>
         </is>
       </c>
     </row>
@@ -11197,7 +11197,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>0.5387569191586149</t>
+          <t>0.6004456355171187</t>
         </is>
       </c>
     </row>
@@ -11214,7 +11214,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>0.4531688660565371</t>
+          <t>0.5428479137837368</t>
         </is>
       </c>
     </row>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>0.2210696085018497</t>
+          <t>0.3287451430742155</t>
         </is>
       </c>
     </row>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>0.43687857212736175</t>
+          <t>0.4931285322331685</t>
         </is>
       </c>
     </row>
@@ -11265,7 +11265,7 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>0.48504950282048714</t>
+          <t>0.5621466209068173</t>
         </is>
       </c>
     </row>
@@ -11282,7 +11282,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>0.2293448002684879</t>
+          <t>0.27127824161302244</t>
         </is>
       </c>
     </row>
@@ -11299,7 +11299,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>0.5070736877407265</t>
+          <t>0.5002783599408707</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11316,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>0.16674325564814108</t>
+          <t>0.21119856010004162</t>
         </is>
       </c>
     </row>
@@ -11333,7 +11333,7 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>0.7998963911678907</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>0.5429642223604271</t>
+          <t>0.5883237659348972</t>
         </is>
       </c>
     </row>
@@ -11367,7 +11367,7 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -11384,7 +11384,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>0.5492164914335639</t>
+          <t>0.5946479588255666</t>
         </is>
       </c>
     </row>
@@ -11418,7 +11418,7 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>0.6022001010930377</t>
+          <t>0.699092273711303</t>
         </is>
       </c>
     </row>
@@ -11452,7 +11452,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>0.40089356257364633</t>
+          <t>0.5998892071521699</t>
         </is>
       </c>
     </row>
@@ -11469,7 +11469,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>0.40625052374342396</t>
+          <t>0.44784557471932773</t>
         </is>
       </c>
     </row>
@@ -11486,7 +11486,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>0.39408982117343255</t>
+          <t>0.49177207588498895</t>
         </is>
       </c>
     </row>
@@ -11503,7 +11503,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>0.36885918379357086</t>
+          <t>0.5131668748329558</t>
         </is>
       </c>
     </row>
@@ -11520,7 +11520,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>0.4213310513856669</t>
+          <t>0.4353828192990374</t>
         </is>
       </c>
     </row>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>0.3233366826304554</t>
+          <t>0.44578885501758625</t>
         </is>
       </c>
     </row>
@@ -11554,7 +11554,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>0.36316394823947606</t>
+          <t>0.5060883604535684</t>
         </is>
       </c>
     </row>
@@ -11571,7 +11571,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>0.32629615519237315</t>
+          <t>0.47026710937760235</t>
         </is>
       </c>
     </row>
@@ -11588,7 +11588,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>0.510007753907581</t>
+          <t>0.49191655770842246</t>
         </is>
       </c>
     </row>
@@ -11605,7 +11605,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>0.2972517053456939</t>
+          <t>0.5133633663215261</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>0.4561510313402445</t>
+          <t>0.5487540105642498</t>
         </is>
       </c>
     </row>
@@ -11639,7 +11639,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>0.3758558957412587</t>
+          <t>0.5010673191136287</t>
         </is>
       </c>
     </row>
@@ -11656,7 +11656,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>0.5207296216990047</t>
+          <t>0.6225509733003604</t>
         </is>
       </c>
     </row>
@@ -11673,7 +11673,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>0.2502848263832274</t>
+          <t>0.36251223440722047</t>
         </is>
       </c>
     </row>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>0.5626898977911327</t>
+          <t>0.6629562793532694</t>
         </is>
       </c>
     </row>
@@ -11707,7 +11707,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>0.5404732052543989</t>
+          <t>0.5997663863335141</t>
         </is>
       </c>
     </row>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>0.198933952353864</t>
+          <t>0.24548668393693537</t>
         </is>
       </c>
     </row>
@@ -11741,7 +11741,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -11758,7 +11758,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>0.17071822128704278</t>
+          <t>0.24441217683631616</t>
         </is>
       </c>
     </row>
@@ -11775,7 +11775,7 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.93335726001798</t>
         </is>
       </c>
     </row>
@@ -11792,7 +11792,7 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>0.7998963911678907</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>0.9456603046006401</t>
+          <t>0.9690632527820694</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11826,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>0.8756633923230396</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -11843,7 +11843,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>0.7998963911678907</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -11860,7 +11860,7 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>0.8756633923230396</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -11877,7 +11877,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>0.5969459754533614</t>
+          <t>0.7273495737935876</t>
         </is>
       </c>
     </row>
@@ -11894,7 +11894,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>0.4419100870172151</t>
+          <t>0.5063660993266962</t>
         </is>
       </c>
     </row>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>0.6090674859573814</t>
+          <t>0.6988187944586057</t>
         </is>
       </c>
     </row>
@@ -11928,7 +11928,7 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>0.38813037677206463</t>
+          <t>0.5071708359846883</t>
         </is>
       </c>
     </row>
@@ -11945,7 +11945,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>0.6321786249533784</t>
+          <t>0.5881108718296884</t>
         </is>
       </c>
     </row>
@@ -11962,7 +11962,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>0.3991198414336183</t>
+          <t>0.4444922922391948</t>
         </is>
       </c>
     </row>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>0.5442982256538075</t>
+          <t>0.5807538371305797</t>
         </is>
       </c>
     </row>
@@ -11996,7 +11996,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>0.5249069522641906</t>
+          <t>0.6326841628929499</t>
         </is>
       </c>
     </row>
@@ -12013,7 +12013,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>0.426362244513386</t>
+          <t>0.4190270929504037</t>
         </is>
       </c>
     </row>
@@ -12030,7 +12030,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>0.4583635312373137</t>
+          <t>0.5483908655491858</t>
         </is>
       </c>
     </row>
@@ -12047,7 +12047,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>0.514716474634494</t>
+          <t>0.5366316648266878</t>
         </is>
       </c>
     </row>
@@ -12064,7 +12064,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>0.4584201669828327</t>
+          <t>0.5511550820931268</t>
         </is>
       </c>
     </row>
@@ -12081,7 +12081,7 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>0.4318525836085265</t>
+          <t>0.5055108718194654</t>
         </is>
       </c>
     </row>
@@ -12098,7 +12098,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>0.19990029380334803</t>
+          <t>0.3359425625629221</t>
         </is>
       </c>
     </row>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>0.5191352656096953</t>
+          <t>0.7116109233184235</t>
         </is>
       </c>
     </row>
@@ -12132,7 +12132,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>0.4701394687764142</t>
+          <t>0.552019366093709</t>
         </is>
       </c>
     </row>
@@ -12149,7 +12149,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>0.2916663836264264</t>
+          <t>0.3436442285029989</t>
         </is>
       </c>
     </row>
@@ -12166,7 +12166,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>0.7998963911678907</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -12183,7 +12183,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>0.3764274433488188</t>
+          <t>0.3652618778289934</t>
         </is>
       </c>
     </row>
@@ -12200,7 +12200,7 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>0.5070736877407266</t>
+          <t>0.5320243916869024</t>
         </is>
       </c>
     </row>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>0.8397822032003542</t>
+          <t>0.8714503627181368</t>
         </is>
       </c>
     </row>
@@ -12234,7 +12234,7 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>0.8756633923230396</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>0.3741616653624419</t>
+          <t>0.4082692084278821</t>
         </is>
       </c>
     </row>
@@ -12268,7 +12268,7 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>0.8756633923230396</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -12285,7 +12285,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>0.6838593887004073</t>
+          <t>0.817734839142674</t>
         </is>
       </c>
     </row>
@@ -12302,7 +12302,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>0.43800490442028284</t>
+          <t>0.525204648105181</t>
         </is>
       </c>
     </row>
@@ -12319,7 +12319,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>0.6817226931461904</t>
+          <t>0.8095434654182938</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12336,7 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>0.47781689398793736</t>
+          <t>0.5497481184328107</t>
         </is>
       </c>
     </row>
@@ -12353,7 +12353,7 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>0.524754580568185</t>
+          <t>0.6470145887105037</t>
         </is>
       </c>
     </row>
@@ -12370,7 +12370,7 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>0.472925170244075</t>
+          <t>0.5277330388667048</t>
         </is>
       </c>
     </row>
@@ -12387,7 +12387,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>0.70926504192467</t>
+          <t>0.7019081561480637</t>
         </is>
       </c>
     </row>
@@ -12404,7 +12404,7 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>0.6200626130962572</t>
+          <t>0.6741306120018397</t>
         </is>
       </c>
     </row>
@@ -12421,7 +12421,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>0.3705567559917795</t>
+          <t>0.39345055369706605</t>
         </is>
       </c>
     </row>
@@ -12438,7 +12438,7 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>0.5578502188079518</t>
+          <t>0.5498978240217546</t>
         </is>
       </c>
     </row>
@@ -12455,7 +12455,7 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>0.6079701363771782</t>
+          <t>0.6109114624259868</t>
         </is>
       </c>
     </row>
@@ -12472,7 +12472,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>0.5387569191586149</t>
+          <t>0.6004456355171187</t>
         </is>
       </c>
     </row>
@@ -12489,7 +12489,7 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>0.45316886605653695</t>
+          <t>0.5428479137837365</t>
         </is>
       </c>
     </row>
@@ -12506,7 +12506,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>0.2210696085018497</t>
+          <t>0.3287451430742155</t>
         </is>
       </c>
     </row>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>0.43687857212736175</t>
+          <t>0.484429617863956</t>
         </is>
       </c>
     </row>
@@ -12540,7 +12540,7 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>0.48504950282048714</t>
+          <t>0.5621466209068173</t>
         </is>
       </c>
     </row>
@@ -12557,7 +12557,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>0.2293448002684879</t>
+          <t>0.27127824161302244</t>
         </is>
       </c>
     </row>
@@ -12574,7 +12574,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>0.5070736877407265</t>
+          <t>0.5002783599408707</t>
         </is>
       </c>
     </row>
@@ -12591,7 +12591,7 @@
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>0.16674325564814108</t>
+          <t>0.21119856010004162</t>
         </is>
       </c>
     </row>
@@ -12608,7 +12608,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>0.5492164914335638</t>
+          <t>0.5946479588255668</t>
         </is>
       </c>
     </row>
@@ -12642,7 +12642,7 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -12659,7 +12659,7 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>0.6022001010930377</t>
+          <t>0.699092273711303</t>
         </is>
       </c>
     </row>
@@ -12676,7 +12676,7 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>0.40089356257364633</t>
+          <t>0.5998892071521699</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>0.40625052374342396</t>
+          <t>0.44784557471932773</t>
         </is>
       </c>
     </row>
@@ -12710,7 +12710,7 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>0.39408982117343255</t>
+          <t>0.49177207588498895</t>
         </is>
       </c>
     </row>
@@ -12727,7 +12727,7 @@
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>0.36885918379357086</t>
+          <t>0.5131668748329558</t>
         </is>
       </c>
     </row>
@@ -12744,7 +12744,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>0.4213310513856669</t>
+          <t>0.4353828192990374</t>
         </is>
       </c>
     </row>
@@ -12761,7 +12761,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>0.32333668263045556</t>
+          <t>0.44578885501758625</t>
         </is>
       </c>
     </row>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>0.36316394823947623</t>
+          <t>0.5060883604535684</t>
         </is>
       </c>
     </row>
@@ -12795,7 +12795,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>0.32629615519237315</t>
+          <t>0.47026710937760235</t>
         </is>
       </c>
     </row>
@@ -12812,7 +12812,7 @@
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>0.510007753907581</t>
+          <t>0.49191655770842246</t>
         </is>
       </c>
     </row>
@@ -12829,7 +12829,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>0.2972517053456939</t>
+          <t>0.5133633663215261</t>
         </is>
       </c>
     </row>
@@ -12846,7 +12846,7 @@
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>0.4561510313402445</t>
+          <t>0.5487540105642498</t>
         </is>
       </c>
     </row>
@@ -12863,7 +12863,7 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>0.3758558957412587</t>
+          <t>0.5010673191136287</t>
         </is>
       </c>
     </row>
@@ -12880,7 +12880,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>0.5207296216990047</t>
+          <t>0.6225509733003604</t>
         </is>
       </c>
     </row>
@@ -12897,7 +12897,7 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>0.2502848263832274</t>
+          <t>0.36251223440722047</t>
         </is>
       </c>
     </row>
@@ -12914,7 +12914,7 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>0.5207296216990047</t>
+          <t>0.6261563939499927</t>
         </is>
       </c>
     </row>
@@ -12931,7 +12931,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>0.5404732052543989</t>
+          <t>0.5997663863335141</t>
         </is>
       </c>
     </row>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>0.198933952353864</t>
+          <t>0.24548668393693537</t>
         </is>
       </c>
     </row>
@@ -12965,7 +12965,7 @@
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -12982,7 +12982,7 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>0.17071822128704278</t>
+          <t>0.24441217683631616</t>
         </is>
       </c>
     </row>
@@ -12999,7 +12999,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>0.7281582787850157</t>
+          <t>0.8056959500093788</t>
         </is>
       </c>
     </row>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>0.7281582787850157</t>
+          <t>0.8056959500093788</t>
         </is>
       </c>
     </row>
@@ -13050,7 +13050,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>0.5969459754533613</t>
+          <t>0.7273495737935876</t>
         </is>
       </c>
     </row>
@@ -13067,7 +13067,7 @@
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>0.45074145636668883</t>
+          <t>0.5063660993266962</t>
         </is>
       </c>
     </row>
@@ -13084,7 +13084,7 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>0.6840384356390417</t>
+          <t>0.6988187944586057</t>
         </is>
       </c>
     </row>
@@ -13101,7 +13101,7 @@
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>0.3869193377718762</t>
+          <t>0.5071708359846883</t>
         </is>
       </c>
     </row>
@@ -13118,7 +13118,7 @@
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>0.6321786249533784</t>
+          <t>0.6461853495222436</t>
         </is>
       </c>
     </row>
@@ -13135,7 +13135,7 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>0.30301237678188137</t>
+          <t>0.43250995093501293</t>
         </is>
       </c>
     </row>
@@ -13152,7 +13152,7 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>0.5500929946120433</t>
+          <t>0.5807538371305797</t>
         </is>
       </c>
     </row>
@@ -13169,7 +13169,7 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>0.5500929946120433</t>
+          <t>0.6326841628929499</t>
         </is>
       </c>
     </row>
@@ -13186,7 +13186,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>0.426362244513386</t>
+          <t>0.4413514374758016</t>
         </is>
       </c>
     </row>
@@ -13203,7 +13203,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>0.5369879209707134</t>
+          <t>0.5483908655491858</t>
         </is>
       </c>
     </row>
@@ -13220,7 +13220,7 @@
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>0.514716474634494</t>
+          <t>0.5366316648266879</t>
         </is>
       </c>
     </row>
@@ -13237,7 +13237,7 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>0.4584201669828327</t>
+          <t>0.5511550820931268</t>
         </is>
       </c>
     </row>
@@ -13254,7 +13254,7 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>0.4318525836085263</t>
+          <t>0.5199595912367255</t>
         </is>
       </c>
     </row>
@@ -13271,7 +13271,7 @@
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>0.2872965562804667</t>
+          <t>0.30397745242489976</t>
         </is>
       </c>
     </row>
@@ -13288,7 +13288,7 @@
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>0.4750318513003837</t>
+          <t>0.6157086379221312</t>
         </is>
       </c>
     </row>
@@ -13305,7 +13305,7 @@
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>0.47013946877641427</t>
+          <t>0.552019366093709</t>
         </is>
       </c>
     </row>
@@ -13322,7 +13322,7 @@
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>0.29166638362642633</t>
+          <t>0.34364422850299886</t>
         </is>
       </c>
     </row>
@@ -13339,7 +13339,7 @@
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -13356,7 +13356,7 @@
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>0.3764274433488189</t>
+          <t>0.3652618778289933</t>
         </is>
       </c>
     </row>
@@ -13373,7 +13373,7 @@
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>0.3719376491658309</t>
+          <t>0.45085986317538224</t>
         </is>
       </c>
     </row>
@@ -13390,7 +13390,7 @@
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>0.8756633923230396</t>
+          <t>0.9015982354056711</t>
         </is>
       </c>
     </row>
@@ -13407,7 +13407,7 @@
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>0.5897249026911137</t>
+          <t>0.7527107453773279</t>
         </is>
       </c>
     </row>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>0.37864828658456134</t>
+          <t>0.4582840917412809</t>
         </is>
       </c>
     </row>
@@ -13441,7 +13441,7 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>0.602936119595767</t>
+          <t>0.8141414893052435</t>
         </is>
       </c>
     </row>
@@ -13458,7 +13458,7 @@
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>0.43432221302546303</t>
+          <t>0.5547971015649678</t>
         </is>
       </c>
     </row>
@@ -13475,7 +13475,7 @@
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>0.4201669382328938</t>
+          <t>0.5283148995385651</t>
         </is>
       </c>
     </row>
@@ -13492,7 +13492,7 @@
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>0.512027028686676</t>
+          <t>0.582027607746627</t>
         </is>
       </c>
     </row>
@@ -13509,7 +13509,7 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>0.629551541793257</t>
+          <t>0.7089162435418992</t>
         </is>
       </c>
     </row>
@@ -13526,7 +13526,7 @@
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>0.5431817904346149</t>
+          <t>0.6173049500342045</t>
         </is>
       </c>
     </row>
@@ -13543,7 +13543,7 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>0.40189485376461775</t>
+          <t>0.4445534347660251</t>
         </is>
       </c>
     </row>
@@ -13560,7 +13560,7 @@
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>0.4907922030901641</t>
+          <t>0.5705971525482497</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>0.6252190739445426</t>
+          <t>0.7350215115702312</t>
         </is>
       </c>
     </row>
@@ -13594,7 +13594,7 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>0.5278648925962216</t>
+          <t>0.6821032303925342</t>
         </is>
       </c>
     </row>
@@ -13611,7 +13611,7 @@
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>0.47186751199903987</t>
+          <t>0.5801787489488578</t>
         </is>
       </c>
     </row>
@@ -13628,7 +13628,7 @@
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>0.23448772670499077</t>
+          <t>0.35005428337669114</t>
         </is>
       </c>
     </row>
@@ -13645,7 +13645,7 @@
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>0.47186751199903987</t>
+          <t>0.5368569052833821</t>
         </is>
       </c>
     </row>
@@ -13662,7 +13662,7 @@
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>0.5096648227401338</t>
+          <t>0.5833728009265591</t>
         </is>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>0.21365162337667448</t>
+          <t>0.2533756357519133</t>
         </is>
       </c>
     </row>
@@ -13696,7 +13696,7 @@
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>0.5492164914335637</t>
+          <t>0.5629019270795349</t>
         </is>
       </c>
     </row>
@@ -13713,7 +13713,7 @@
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>0.1801613738512822</t>
+          <t>0.24994444892742967</t>
         </is>
       </c>
     </row>
@@ -13730,7 +13730,7 @@
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>0.6022001010930377</t>
+          <t>0.699092273711303</t>
         </is>
       </c>
     </row>
@@ -13747,7 +13747,7 @@
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>0.40089356257364633</t>
+          <t>0.5998892071521699</t>
         </is>
       </c>
     </row>
@@ -13764,7 +13764,7 @@
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>0.40625052374342396</t>
+          <t>0.44784557471932773</t>
         </is>
       </c>
     </row>
@@ -13781,7 +13781,7 @@
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>0.39408982117343255</t>
+          <t>0.49177207588498895</t>
         </is>
       </c>
     </row>
@@ -13798,7 +13798,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>0.36885918379357086</t>
+          <t>0.5131668748329558</t>
         </is>
       </c>
     </row>
@@ -13815,7 +13815,7 @@
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>0.4213310513856669</t>
+          <t>0.4353828192990374</t>
         </is>
       </c>
     </row>
@@ -13832,7 +13832,7 @@
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>0.31718140268276207</t>
+          <t>0.44578885501758625</t>
         </is>
       </c>
     </row>
@@ -13849,7 +13849,7 @@
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>0.32637790881762413</t>
+          <t>0.5060883604535684</t>
         </is>
       </c>
     </row>
@@ -13866,7 +13866,7 @@
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>0.32629615519237315</t>
+          <t>0.47026710937760235</t>
         </is>
       </c>
     </row>
@@ -13883,7 +13883,7 @@
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>0.510007753907581</t>
+          <t>0.49191655770842246</t>
         </is>
       </c>
     </row>
@@ -13900,7 +13900,7 @@
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>0.2972517053456939</t>
+          <t>0.5133633663215261</t>
         </is>
       </c>
     </row>
@@ -13917,7 +13917,7 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>0.4561510313402445</t>
+          <t>0.5487540105642498</t>
         </is>
       </c>
     </row>
@@ -13934,7 +13934,7 @@
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>0.3758558957412587</t>
+          <t>0.5010673191136287</t>
         </is>
       </c>
     </row>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>0.5126517666598239</t>
+          <t>0.6041184781729552</t>
         </is>
       </c>
     </row>
@@ -13968,7 +13968,7 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>0.2502848263832274</t>
+          <t>0.36251223440722047</t>
         </is>
       </c>
     </row>
@@ -13985,7 +13985,7 @@
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>0.5126517666598236</t>
+          <t>0.5699480893391555</t>
         </is>
       </c>
     </row>
@@ -14002,7 +14002,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>0.5404732052543989</t>
+          <t>0.5997663863335141</t>
         </is>
       </c>
     </row>
@@ -14019,7 +14019,7 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>0.198933952353864</t>
+          <t>0.24548668393693537</t>
         </is>
       </c>
     </row>
@@ -14036,7 +14036,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>0.8453509366224361</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -14053,7 +14053,7 @@
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>0.17071822128704278</t>
+          <t>0.24441217683631616</t>
         </is>
       </c>
     </row>
@@ -14070,7 +14070,7 @@
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>0.6325125567936412</t>
+          <t>0.7527107453773279</t>
         </is>
       </c>
     </row>
@@ -14087,7 +14087,7 @@
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>0.37864828658456134</t>
+          <t>0.4582840917412809</t>
         </is>
       </c>
     </row>
@@ -14104,7 +14104,7 @@
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>0.602936119595767</t>
+          <t>0.8141414893052435</t>
         </is>
       </c>
     </row>
@@ -14121,7 +14121,7 @@
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>0.43432221302546303</t>
+          <t>0.5547971015649678</t>
         </is>
       </c>
     </row>
@@ -14138,7 +14138,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>0.4201669382328938</t>
+          <t>0.5283148995385651</t>
         </is>
       </c>
     </row>
@@ -14155,7 +14155,7 @@
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>0.512027028686676</t>
+          <t>0.582027607746627</t>
         </is>
       </c>
     </row>
@@ -14172,7 +14172,7 @@
       </c>
       <c r="C808" t="inlineStr">
         <is>
-          <t>0.629551541793257</t>
+          <t>0.7089162435418992</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>0.5431817904346149</t>
+          <t>0.6173049500342045</t>
         </is>
       </c>
     </row>
@@ -14206,7 +14206,7 @@
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>0.40189485376461775</t>
+          <t>0.4445534347660251</t>
         </is>
       </c>
     </row>
@@ -14223,7 +14223,7 @@
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>0.4907922030901641</t>
+          <t>0.5705971525482497</t>
         </is>
       </c>
     </row>
@@ -14240,7 +14240,7 @@
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>0.6252190739445426</t>
+          <t>0.7350215115702312</t>
         </is>
       </c>
     </row>
@@ -14257,7 +14257,7 @@
       </c>
       <c r="C813" t="inlineStr">
         <is>
-          <t>0.5278648925962216</t>
+          <t>0.6821032303925342</t>
         </is>
       </c>
     </row>
@@ -14274,7 +14274,7 @@
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>0.47186751199903987</t>
+          <t>0.5801787489488578</t>
         </is>
       </c>
     </row>
@@ -14291,7 +14291,7 @@
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>0.23448772670499077</t>
+          <t>0.35005428337669114</t>
         </is>
       </c>
     </row>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>0.5546248503882224</t>
+          <t>0.7092898346710996</t>
         </is>
       </c>
     </row>
@@ -14325,7 +14325,7 @@
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>0.5096648227401338</t>
+          <t>0.5833728009265591</t>
         </is>
       </c>
     </row>
@@ -14342,7 +14342,7 @@
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>0.23441964015946307</t>
+          <t>0.2845206727574669</t>
         </is>
       </c>
     </row>
@@ -14359,7 +14359,7 @@
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>0.6022001010930377</t>
+          <t>0.699092273711303</t>
         </is>
       </c>
     </row>
@@ -14376,7 +14376,7 @@
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>0.3452732453302694</t>
+          <t>0.3442671400223501</t>
         </is>
       </c>
     </row>
@@ -14393,7 +14393,7 @@
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>0.7868201847321444</t>
+          <t>0.7035511600721477</t>
         </is>
       </c>
     </row>
@@ -14410,7 +14410,7 @@
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>0.9256859869821294</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -14427,7 +14427,7 @@
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>0.8807928977764419</t>
+          <t>0.8728341199762156</t>
         </is>
       </c>
     </row>
@@ -14444,7 +14444,7 @@
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>0.5096687072835645</t>
+          <t>0.6148712363209827</t>
         </is>
       </c>
     </row>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>0.650456548368508</t>
+          <t>0.7792595439685595</t>
         </is>
       </c>
     </row>
@@ -14478,7 +14478,7 @@
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>0.8251968949342463</t>
+          <t>0.7881625505131378</t>
         </is>
       </c>
     </row>
@@ -14495,7 +14495,7 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>0.7960670081782801</t>
+          <t>0.772252981554741</t>
         </is>
       </c>
     </row>
@@ -14512,7 +14512,7 @@
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>0.5773245316887811</t>
+          <t>0.48629481408195346</t>
         </is>
       </c>
     </row>
@@ -14529,7 +14529,7 @@
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>0.7008181040593444</t>
+          <t>0.6565103601651208</t>
         </is>
       </c>
     </row>
@@ -14546,7 +14546,7 @@
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>0.7960670081782801</t>
+          <t>0.7792595439685595</t>
         </is>
       </c>
     </row>
@@ -14563,7 +14563,7 @@
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>0.7960670081782801</t>
+          <t>0.7792595439685595</t>
         </is>
       </c>
     </row>
@@ -14580,7 +14580,7 @@
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>0.6248610442965365</t>
+          <t>0.7642039498928617</t>
         </is>
       </c>
     </row>
@@ -14597,7 +14597,7 @@
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>0.4267845738022347</t>
+          <t>0.5943956676240301</t>
         </is>
       </c>
     </row>
@@ -14614,7 +14614,7 @@
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>0.6091521072677788</t>
+          <t>0.7138672085502374</t>
         </is>
       </c>
     </row>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>0.5831568649323574</t>
+          <t>0.6667213520416455</t>
         </is>
       </c>
     </row>
@@ -14648,7 +14648,7 @@
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>0.2552209094171101</t>
+          <t>0.3473887699575347</t>
         </is>
       </c>
     </row>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>0.40089356257364633</t>
+          <t>0.5998892071521699</t>
         </is>
       </c>
     </row>
@@ -14682,7 +14682,7 @@
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>0.30607623851563215</t>
+          <t>0.3810926944988946</t>
         </is>
       </c>
     </row>
@@ -14699,7 +14699,7 @@
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9156850719552424</t>
         </is>
       </c>
     </row>
@@ -14716,7 +14716,7 @@
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>0.7035103037093104</t>
+          <t>0.5814703136567769</t>
         </is>
       </c>
     </row>
@@ -14733,7 +14733,7 @@
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>0.3869709701415221</t>
+          <t>0.36277596329720146</t>
         </is>
       </c>
     </row>
@@ -14750,7 +14750,7 @@
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>0.8934100923660718</t>
+          <t>0.7372038858376462</t>
         </is>
       </c>
     </row>
@@ -14767,7 +14767,7 @@
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.7473916042214731</t>
         </is>
       </c>
     </row>
@@ -14784,7 +14784,7 @@
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.8116993396258765</t>
         </is>
       </c>
     </row>
@@ -14801,7 +14801,7 @@
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>0.804006426503862</t>
+          <t>0.6858154656525228</t>
         </is>
       </c>
     </row>
@@ -14818,7 +14818,7 @@
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>0.8896647051756054</t>
+          <t>0.8152975655059423</t>
         </is>
       </c>
     </row>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="C847" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.8903484540676481</t>
         </is>
       </c>
     </row>
@@ -14852,7 +14852,7 @@
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9483085247724613</t>
         </is>
       </c>
     </row>
@@ -14869,7 +14869,7 @@
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>0.32831077426067345</t>
+          <t>0.3825860929196665</t>
         </is>
       </c>
     </row>
@@ -14886,7 +14886,7 @@
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>0.26206300814699507</t>
+          <t>0.39308015547315306</t>
         </is>
       </c>
     </row>
@@ -14903,7 +14903,7 @@
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>0.30980757122154134</t>
+          <t>0.4174525357228982</t>
         </is>
       </c>
     </row>
@@ -14920,7 +14920,7 @@
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>0.26785372192201873</t>
+          <t>0.35630988593765284</t>
         </is>
       </c>
     </row>
@@ -14937,7 +14937,7 @@
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>0.30871623292448114</t>
+          <t>0.3477783984578286</t>
         </is>
       </c>
     </row>
@@ -14954,7 +14954,7 @@
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>0.40625052374342396</t>
+          <t>0.44784557471932773</t>
         </is>
       </c>
     </row>
@@ -14971,7 +14971,7 @@
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>0.27024226267784984</t>
+          <t>0.4183011129200479</t>
         </is>
       </c>
     </row>
@@ -14988,7 +14988,7 @@
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>0.8275409279421797</t>
+          <t>0.9340768271178619</t>
         </is>
       </c>
     </row>
@@ -15005,7 +15005,7 @@
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>0.41161559649527063</t>
+          <t>0.5503073333297466</t>
         </is>
       </c>
     </row>
@@ -15022,7 +15022,7 @@
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>0.7861421714762828</t>
+          <t>0.9425223664137268</t>
         </is>
       </c>
     </row>
@@ -15039,7 +15039,7 @@
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15056,7 +15056,7 @@
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9156850719552424</t>
         </is>
       </c>
     </row>
@@ -15073,7 +15073,7 @@
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>0.7079891911499864</t>
+          <t>0.6415123997208447</t>
         </is>
       </c>
     </row>
@@ -15090,7 +15090,7 @@
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>0.8436854418505092</t>
+          <t>0.9045801517222475</t>
         </is>
       </c>
     </row>
@@ -15107,7 +15107,7 @@
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15124,7 +15124,7 @@
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>0.479622796540005</t>
+          <t>0.5715432459888516</t>
         </is>
       </c>
     </row>
@@ -15158,7 +15158,7 @@
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>0.3976289403512507</t>
+          <t>0.5694956703583551</t>
         </is>
       </c>
     </row>
@@ -15175,7 +15175,7 @@
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>0.4839299480785302</t>
+          <t>0.6154587809277017</t>
         </is>
       </c>
     </row>
@@ -15192,7 +15192,7 @@
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>0.479622796540005</t>
+          <t>0.5620042913571779</t>
         </is>
       </c>
     </row>
@@ -15209,7 +15209,7 @@
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>0.33500416882741313</t>
+          <t>0.42770828137352684</t>
         </is>
       </c>
     </row>
@@ -15226,7 +15226,7 @@
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>0.39408982117343255</t>
+          <t>0.49177207588498895</t>
         </is>
       </c>
     </row>
@@ -15243,7 +15243,7 @@
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>0.409512308244075</t>
+          <t>0.4219880495235412</t>
         </is>
       </c>
     </row>
@@ -15260,7 +15260,7 @@
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>0.2740348457972766</t>
+          <t>0.40605371407846375</t>
         </is>
       </c>
     </row>
@@ -15277,7 +15277,7 @@
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>0.6948483155363008</t>
+          <t>0.7495514109030879</t>
         </is>
       </c>
     </row>
@@ -15294,7 +15294,7 @@
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>0.7997066138112057</t>
+          <t>0.817487004083267</t>
         </is>
       </c>
     </row>
@@ -15311,7 +15311,7 @@
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>0.7997066138112057</t>
+          <t>0.7521906577609695</t>
         </is>
       </c>
     </row>
@@ -15328,7 +15328,7 @@
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>0.5015421911855087</t>
+          <t>0.4026207845221839</t>
         </is>
       </c>
     </row>
@@ -15345,7 +15345,7 @@
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>0.6402553071250262</t>
+          <t>0.7703691820105993</t>
         </is>
       </c>
     </row>
@@ -15362,7 +15362,7 @@
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>0.7997066138112057</t>
+          <t>0.7495514109030879</t>
         </is>
       </c>
     </row>
@@ -15379,7 +15379,7 @@
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>0.7997066138112057</t>
+          <t>0.7495514109030879</t>
         </is>
       </c>
     </row>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>0.4555514715167118</t>
+          <t>0.5105544535606018</t>
         </is>
       </c>
     </row>
@@ -15413,7 +15413,7 @@
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>0.3520573820573307</t>
+          <t>0.4019188506971638</t>
         </is>
       </c>
     </row>
@@ -15430,7 +15430,7 @@
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>0.408639311106579</t>
+          <t>0.5487083623079247</t>
         </is>
       </c>
     </row>
@@ -15447,7 +15447,7 @@
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>0.47977119137474555</t>
+          <t>0.47636259571133543</t>
         </is>
       </c>
     </row>
@@ -15464,7 +15464,7 @@
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>0.37579418340413373</t>
+          <t>0.3494303868617336</t>
         </is>
       </c>
     </row>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>0.36885918379357086</t>
+          <t>0.5131668748329558</t>
         </is>
       </c>
     </row>
@@ -15498,7 +15498,7 @@
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>0.2794371808869417</t>
+          <t>0.2665360567681437</t>
         </is>
       </c>
     </row>
@@ -15515,7 +15515,7 @@
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>0.24431821192980605</t>
+          <t>0.35228945072651</t>
         </is>
       </c>
     </row>
@@ -15532,7 +15532,7 @@
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>0.41901084524233567</t>
+          <t>0.6640493282686909</t>
         </is>
       </c>
     </row>
@@ -15549,7 +15549,7 @@
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>0.4335941172605442</t>
+          <t>0.6323032965226588</t>
         </is>
       </c>
     </row>
@@ -15566,7 +15566,7 @@
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>0.3170007152085467</t>
+          <t>0.38269285380192286</t>
         </is>
       </c>
     </row>
@@ -15583,7 +15583,7 @@
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>0.38282468122945496</t>
+          <t>0.40311100702533</t>
         </is>
       </c>
     </row>
@@ -15600,7 +15600,7 @@
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>0.34147452236896836</t>
+          <t>0.34930389119462474</t>
         </is>
       </c>
     </row>
@@ -15617,7 +15617,7 @@
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>0.34147452236896836</t>
+          <t>0.42337657555433356</t>
         </is>
       </c>
     </row>
@@ -15634,7 +15634,7 @@
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>0.32159288959292814</t>
+          <t>0.36803068593488697</t>
         </is>
       </c>
     </row>
@@ -15651,7 +15651,7 @@
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>0.27303801470746103</t>
+          <t>0.37153660458225557</t>
         </is>
       </c>
     </row>
@@ -15668,7 +15668,7 @@
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>0.2526263090558348</t>
+          <t>0.3996024176010812</t>
         </is>
       </c>
     </row>
@@ -15685,7 +15685,7 @@
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>0.35571555578189096</t>
+          <t>0.3622175120720811</t>
         </is>
       </c>
     </row>
@@ -15702,7 +15702,7 @@
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>0.2229658838334019</t>
+          <t>0.27416960669424245</t>
         </is>
       </c>
     </row>
@@ -15719,7 +15719,7 @@
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>0.4213310513856669</t>
+          <t>0.4353828192990374</t>
         </is>
       </c>
     </row>
@@ -15736,7 +15736,7 @@
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>0.39629082667335297</t>
+          <t>0.5004537921507615</t>
         </is>
       </c>
     </row>
@@ -15753,7 +15753,7 @@
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15770,7 +15770,7 @@
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15787,7 +15787,7 @@
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>0.7787423296929633</t>
+          <t>0.8014678364619716</t>
         </is>
       </c>
     </row>
@@ -15804,7 +15804,7 @@
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>0.7771986565691511</t>
+          <t>0.934076827117862</t>
         </is>
       </c>
     </row>
@@ -15821,7 +15821,7 @@
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15838,7 +15838,7 @@
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15855,7 +15855,7 @@
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>0.5158416157089437</t>
+          <t>0.522809933503755</t>
         </is>
       </c>
     </row>
@@ -15872,7 +15872,7 @@
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>0.3087336531773333</t>
+          <t>0.3522840139799054</t>
         </is>
       </c>
     </row>
@@ -15889,7 +15889,7 @@
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>0.4426818379084672</t>
+          <t>0.5483399343392193</t>
         </is>
       </c>
     </row>
@@ -15906,7 +15906,7 @@
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>0.4164271180595705</t>
+          <t>0.47372358991636565</t>
         </is>
       </c>
     </row>
@@ -15923,7 +15923,7 @@
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>0.3088009180125802</t>
+          <t>0.4471742512810563</t>
         </is>
       </c>
     </row>
@@ -15940,7 +15940,7 @@
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>0.31718140268276207</t>
+          <t>0.44578885501758625</t>
         </is>
       </c>
     </row>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>0.39400877722473493</t>
+          <t>0.4997466087455868</t>
         </is>
       </c>
     </row>
@@ -15974,7 +15974,7 @@
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15991,7 +15991,7 @@
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>0.7079891911499864</t>
+          <t>0.698978029656733</t>
         </is>
       </c>
     </row>
@@ -16008,7 +16008,7 @@
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>0.917962716490072</t>
+          <t>0.9340768271178619</t>
         </is>
       </c>
     </row>
@@ -16025,7 +16025,7 @@
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -16042,7 +16042,7 @@
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -16059,7 +16059,7 @@
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>0.4049265855874318</t>
+          <t>0.47017739160776706</t>
         </is>
       </c>
     </row>
@@ -16076,7 +16076,7 @@
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>0.34753675845523124</t>
+          <t>0.4277718980060125</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>0.5928842098846943</t>
+          <t>0.7029155270281294</t>
         </is>
       </c>
     </row>
@@ -16110,7 +16110,7 @@
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>0.4049265855874318</t>
+          <t>0.47372358991636565</t>
         </is>
       </c>
     </row>
@@ -16127,7 +16127,7 @@
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>0.2649023148518554</t>
+          <t>0.29114716854259876</t>
         </is>
       </c>
     </row>
@@ -16144,7 +16144,7 @@
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>0.32637790881762413</t>
+          <t>0.5060883604535684</t>
         </is>
       </c>
     </row>
@@ -16161,7 +16161,7 @@
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>0.27149297719981297</t>
+          <t>0.3872805148151406</t>
         </is>
       </c>
     </row>
@@ -16178,7 +16178,7 @@
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>0.6608026320727708</t>
+          <t>0.6430516235991681</t>
         </is>
       </c>
     </row>
@@ -16195,7 +16195,7 @@
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9190854481162105</t>
         </is>
       </c>
     </row>
@@ -16212,7 +16212,7 @@
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -16229,7 +16229,7 @@
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -16246,7 +16246,7 @@
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>0.431611215629259</t>
+          <t>0.39178274164832066</t>
         </is>
       </c>
     </row>
@@ -16263,7 +16263,7 @@
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>0.31156676675184874</t>
+          <t>0.3062821080641511</t>
         </is>
       </c>
     </row>
@@ -16280,7 +16280,7 @@
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>0.37770771113044466</t>
+          <t>0.4929324319859154</t>
         </is>
       </c>
     </row>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>0.3936192339289017</t>
+          <t>0.3845113849863816</t>
         </is>
       </c>
     </row>
@@ -16314,7 +16314,7 @@
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>0.22989078288370668</t>
+          <t>0.2981611106030612</t>
         </is>
       </c>
     </row>
@@ -16331,7 +16331,7 @@
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>0.32629615519237315</t>
+          <t>0.47026710937760235</t>
         </is>
       </c>
     </row>
@@ -16348,7 +16348,7 @@
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>0.309672291257409</t>
+          <t>0.41457713114803335</t>
         </is>
       </c>
     </row>
@@ -16365,7 +16365,7 @@
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>0.5994132276224119</t>
+          <t>0.6293585323087786</t>
         </is>
       </c>
     </row>
@@ -16382,7 +16382,7 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>0.6623919779028781</t>
+          <t>0.6915799630064797</t>
         </is>
       </c>
     </row>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>0.7253707281833444</t>
+          <t>0.7306508931782006</t>
         </is>
       </c>
     </row>
@@ -16416,7 +16416,7 @@
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>0.3638251965207934</t>
+          <t>0.45789407293545287</t>
         </is>
       </c>
     </row>
@@ -16433,7 +16433,7 @@
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>0.2682045352094194</t>
+          <t>0.36879821436859317</t>
         </is>
       </c>
     </row>
@@ -16450,7 +16450,7 @@
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>0.3189027409784027</t>
+          <t>0.40733046544895657</t>
         </is>
       </c>
     </row>
@@ -16467,7 +16467,7 @@
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>0.3638251965207934</t>
+          <t>0.40418981905339163</t>
         </is>
       </c>
     </row>
@@ -16484,7 +16484,7 @@
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>0.40618544651459076</t>
+          <t>0.3765001858869249</t>
         </is>
       </c>
     </row>
@@ -16501,7 +16501,7 @@
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>0.510007753907581</t>
+          <t>0.49191655770842246</t>
         </is>
       </c>
     </row>
@@ -16518,7 +16518,7 @@
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>0.4831706463680568</t>
+          <t>0.6268176385167491</t>
         </is>
       </c>
     </row>
@@ -16535,7 +16535,7 @@
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>0.917962716490072</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -16552,7 +16552,7 @@
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>0.917962716490072</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -16569,7 +16569,7 @@
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>0.3996163753578973</t>
+          <t>0.39856457674055584</t>
         </is>
       </c>
     </row>
@@ -16586,7 +16586,7 @@
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>0.3002216270015698</t>
+          <t>0.2796482526266743</t>
         </is>
       </c>
     </row>
@@ -16603,7 +16603,7 @@
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>0.3678811523871915</t>
+          <t>0.4774785046410294</t>
         </is>
       </c>
     </row>
@@ -16620,7 +16620,7 @@
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>0.370872961625015</t>
+          <t>0.339233585793611</t>
         </is>
       </c>
     </row>
@@ -16637,7 +16637,7 @@
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>0.2807989290550851</t>
+          <t>0.31571105829482743</t>
         </is>
       </c>
     </row>
@@ -16654,7 +16654,7 @@
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>0.2972517053456939</t>
+          <t>0.5133633663215261</t>
         </is>
       </c>
     </row>
@@ -16671,7 +16671,7 @@
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>0.4473153869023902</t>
+          <t>0.4905915442169744</t>
         </is>
       </c>
     </row>
@@ -16688,7 +16688,7 @@
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -16705,7 +16705,7 @@
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>0.3848790520148435</t>
+          <t>0.49886223957897563</t>
         </is>
       </c>
     </row>
@@ -16722,7 +16722,7 @@
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>0.3087336531773333</t>
+          <t>0.2660694999205808</t>
         </is>
       </c>
     </row>
@@ -16739,7 +16739,7 @@
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>0.433191935230579</t>
+          <t>0.5126525674649292</t>
         </is>
       </c>
     </row>
@@ -16756,7 +16756,7 @@
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>0.34963402504593316</t>
+          <t>0.39625281978992544</t>
         </is>
       </c>
     </row>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>0.26191297606102093</t>
+          <t>0.31403152086999003</t>
         </is>
       </c>
     </row>
@@ -16790,7 +16790,7 @@
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>0.4561510313402445</t>
+          <t>0.5487540105642498</t>
         </is>
       </c>
     </row>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>0.38811707925782557</t>
+          <t>0.5450687162046315</t>
         </is>
       </c>
     </row>
@@ -16824,7 +16824,7 @@
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>0.38351667398890676</t>
+          <t>0.41688894173905355</t>
         </is>
       </c>
     </row>
@@ -16841,7 +16841,7 @@
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>0.3087336531773333</t>
+          <t>0.2660694999205808</t>
         </is>
       </c>
     </row>
@@ -16858,7 +16858,7 @@
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>0.38782796319047586</t>
+          <t>0.5317930024070758</t>
         </is>
       </c>
     </row>
@@ -16875,7 +16875,7 @@
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>0.34963402504593316</t>
+          <t>0.3845113849863816</t>
         </is>
       </c>
     </row>
@@ -16892,7 +16892,7 @@
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>0.23365952462246786</t>
+          <t>0.36370050938568116</t>
         </is>
       </c>
     </row>
@@ -16909,7 +16909,7 @@
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>0.3758558957412587</t>
+          <t>0.5010673191136287</t>
         </is>
       </c>
     </row>
@@ -16926,7 +16926,7 @@
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>0.44342960178045604</t>
+          <t>0.6098517876332177</t>
         </is>
       </c>
     </row>
@@ -16943,7 +16943,7 @@
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>0.74024972976623</t>
+          <t>0.8165219710173579</t>
         </is>
       </c>
     </row>
@@ -16960,7 +16960,7 @@
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>0.6367966173615941</t>
+          <t>0.7148881462351875</t>
         </is>
       </c>
     </row>
@@ -16977,7 +16977,7 @@
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9983636725938129</t>
         </is>
       </c>
     </row>
@@ -16994,7 +16994,7 @@
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>0.11318223596500834</t>
+          <t>0.18646802038688798</t>
         </is>
       </c>
     </row>
@@ -17011,7 +17011,7 @@
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>0.5126517666598239</t>
+          <t>0.6041184781729552</t>
         </is>
       </c>
     </row>
@@ -17028,7 +17028,7 @@
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>0.21625236317971974</t>
+          <t>0.2900351930497636</t>
         </is>
       </c>
     </row>
@@ -17045,7 +17045,7 @@
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>0.4436039340964991</t>
+          <t>0.48289161707715866</t>
         </is>
       </c>
     </row>
@@ -17062,7 +17062,7 @@
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>0.998509098917632</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -17079,7 +17079,7 @@
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>0.332812534195959</t>
+          <t>0.42603399094958966</t>
         </is>
       </c>
     </row>
@@ -17096,7 +17096,7 @@
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>0.2502848263832274</t>
+          <t>0.36251223440722047</t>
         </is>
       </c>
     </row>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>0.27593544073839327</t>
+          <t>0.3483827919937081</t>
         </is>
       </c>
     </row>
@@ -17130,7 +17130,7 @@
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>0.7732266742876339</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -17147,7 +17147,7 @@
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>0.1686020404544231</t>
+          <t>0.20894377738414507</t>
         </is>
       </c>
     </row>
@@ -17164,7 +17164,7 @@
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>0.5331897691039258</t>
+          <t>0.663963071979175</t>
         </is>
       </c>
     </row>
@@ -17181,7 +17181,7 @@
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>0.20278980478229267</t>
+          <t>0.2644358860625594</t>
         </is>
       </c>
     </row>
@@ -17198,7 +17198,7 @@
       </c>
       <c r="C986" t="inlineStr">
         <is>
-          <t>0.366421609271653</t>
+          <t>0.4416525341971574</t>
         </is>
       </c>
     </row>
@@ -17215,7 +17215,7 @@
       </c>
       <c r="C987" t="inlineStr">
         <is>
-          <t>0.5404732052543989</t>
+          <t>0.5997663863335141</t>
         </is>
       </c>
     </row>
@@ -17232,7 +17232,7 @@
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>0.24754102947541534</t>
+          <t>0.346280788629154</t>
         </is>
       </c>
     </row>
@@ -17249,7 +17249,7 @@
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>0.2169664208744549</t>
+          <t>0.2578035345308588</t>
         </is>
       </c>
     </row>
@@ -17266,7 +17266,7 @@
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>0.20663187186322177</t>
+          <t>0.22564652359495185</t>
         </is>
       </c>
     </row>
@@ -17283,11 +17283,11 @@
       </c>
       <c r="C991" t="inlineStr">
         <is>
-          <t>0.2050590252404077</t>
+          <t>0.3067214013209377</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/correlation-values.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/correlation-values.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -45,15 +45,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -422,7 +422,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -470,7 +470,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.954635299543599</t>
+          <t>0.7837347627229889</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.7148881462351875</t>
+          <t>0.49454187459533727</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.19755785170995915</t>
+          <t>0.24875154804848737</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.24078738652843237</t>
+          <t>0.28061573126436873</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.37413280322597214</t>
+          <t>0.29933930777943907</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.24078738652843237</t>
+          <t>0.28061573126436873</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.5756676449959574</t>
+          <t>0.5964037105045181</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.3826521727059141</t>
+          <t>0.33022668966265006</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.2541833949159426</t>
+          <t>0.28061573126436873</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.4519498145020462</t>
+          <t>0.3783068001070032</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.3350668046817207</t>
+          <t>0.3893837628616456</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.24078738652843237</t>
+          <t>0.28061573126436873</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.53590948770304</t>
+          <t>0.60828650810337</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.6292271769356287</t>
+          <t>0.4341809043647049</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.6292271769356287</t>
+          <t>0.4341809043647049</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.5428479137837365</t>
+          <t>0.4927132125756856</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.6292271769356287</t>
+          <t>0.4341809043647049</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.5055108718194654</t>
+          <t>0.4698048790553762</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.5428479137837365</t>
+          <t>0.4927132125756856</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.6225509733003604</t>
+          <t>0.4341809043647049</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.5199595912367255</t>
+          <t>0.4698048790553762</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.5801787489488576</t>
+          <t>0.42102403166091834</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.6041184781729549</t>
+          <t>0.4341809043647049</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.5801787489488576</t>
+          <t>0.42102403166091834</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.7642039498928618</t>
+          <t>0.5833772278175468</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.3825860929196666</t>
+          <t>0.4077232968291963</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.5715432459888516</t>
+          <t>0.3724593937973763</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.5105544535606018</t>
+          <t>0.4767064184500158</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.414448847476798</t>
+          <t>0.3493038911946247</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.522809933503755</t>
+          <t>0.37585419340642046</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.47017739160776706</t>
+          <t>0.4253414987385144</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.39178274164832066</t>
+          <t>0.5800768080279897</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.45789407293545287</t>
+          <t>0.3990727128204651</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.39856457674055584</t>
+          <t>0.46335010909276464</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.49886223957897563</t>
+          <t>0.33658393614582405</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.4168889417390537</t>
+          <t>0.3244140516663769</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.9983636725938129</t>
+          <t>0.9954515828457711</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.8165219710173579</t>
+          <t>0.6356147033646652</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.7148881462351875</t>
+          <t>0.49454187459533727</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.9983636725938129</t>
+          <t>0.8594420451309569</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.19755785170995915</t>
+          <t>0.24875154804848737</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.6041184781729549</t>
+          <t>0.4341809043647049</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.2900351930497638</t>
+          <t>0.3236485261118734</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.5000866997699275</t>
+          <t>0.4038083286957725</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.5127031746288467</t>
+          <t>0.4571072741159896</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.5163188697194604</t>
+          <t>0.43797140072868285</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.4197260752731704</t>
+          <t>0.4774941823540069</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.5163188697194604</t>
+          <t>0.43797140072868285</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.5561009994387924</t>
+          <t>0.5260196505988888</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.4409754795801024</t>
+          <t>0.4993322148170272</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.5163188697194604</t>
+          <t>0.43797140072868285</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.5295962972898471</t>
+          <t>0.4299714681162115</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.6328295080933338</t>
+          <t>0.4745091203874024</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.5163188697194604</t>
+          <t>0.43797140072868285</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.7149571010081249</t>
+          <t>0.6555449163506603</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.32564989166487246</t>
+          <t>0.40924237215617</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.32564989166487246</t>
+          <t>0.40924237215617</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.35720777580559815</t>
+          <t>0.37100841315542876</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.32564989166487246</t>
+          <t>0.40924237215617</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.3533073989093317</t>
+          <t>0.36277596329720135</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0.35720777580559815</t>
+          <t>0.37100841315542876</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.32564989166487246</t>
+          <t>0.40924237215617</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.28670141798710524</t>
+          <t>0.35379709516089924</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0.42861520040417705</t>
+          <t>0.42596226663643627</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.32564989166487246</t>
+          <t>0.40924237215617</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.42861520040417705</t>
+          <t>0.42596226663643627</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.8522503803609405</t>
+          <t>0.7894632956214763</t>
         </is>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.4046559786742157</t>
+          <t>0.5195814918476986</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.6740007859924494</t>
+          <t>0.506155699806296</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.6352368632199117</t>
+          <t>0.7070303572294226</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.312751636562777</t>
+          <t>0.33838740051918387</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.6152363949742523</t>
+          <t>0.5068925511933657</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0.3953724234608747</t>
+          <t>0.36971464739794707</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0.3465610009379516</t>
+          <t>0.3653990922479821</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0.34630002694291867</t>
+          <t>0.3160936969142221</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0.4013447160560791</t>
+          <t>0.42743848007153595</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0.4668793385600661</t>
+          <t>0.33723433029070476</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0.4266933510580405</t>
+          <t>0.35964080329163384</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0.954635299543599</t>
+          <t>0.8465640928174281</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0.5000866997699275</t>
+          <t>0.4038083286957725</t>
         </is>
       </c>
     </row>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0.5127031746288467</t>
+          <t>0.4571072741159896</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0.32564989166487246</t>
+          <t>0.40924237215617</t>
         </is>
       </c>
     </row>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0.28665606943615307</t>
+          <t>0.36119794803929844</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.47303215618255384</t>
+          <t>0.506880914847165</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0.20894377738414507</t>
+          <t>0.1956854321292013</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0.15357320137094524</t>
+          <t>0.12287174751921559</t>
         </is>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0.3353966885149807</t>
+          <t>0.2547856456762907</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0.15357320137094524</t>
+          <t>0.12287174751921559</t>
         </is>
       </c>
     </row>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0.43364136066036635</t>
+          <t>0.33814304349616814</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0.32450509286699825</t>
+          <t>0.24576279319461966</t>
         </is>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0.15357320137094524</t>
+          <t>0.12287174751921559</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0.3769409211823908</t>
+          <t>0.2472068511711864</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0.1627155831712404</t>
+          <t>0.19051896085701328</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0.15357320137094524</t>
+          <t>0.12287174751921559</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0.1587729291109816</t>
+          <t>0.19051896085701328</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.7082119425999194</t>
+          <t>0.6236235445348882</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0.7082119425999194</t>
+          <t>0.6236235445348882</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>0.4931285322331685</t>
+          <t>0.46663039544649976</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>0.6629562793532694</t>
+          <t>0.621733752446258</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>0.7116109233184235</t>
+          <t>0.5731206149729126</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0.484429617863956</t>
+          <t>0.4666303954465001</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>0.6261563939499927</t>
+          <t>0.6217337524462581</t>
         </is>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>0.6157086379221312</t>
+          <t>0.5393305707579432</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>0.5368569052833821</t>
+          <t>0.4690180511294014</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>0.5699480893391555</t>
+          <t>0.530578909650542</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>0.7092898346710996</t>
+          <t>0.6251508347313245</t>
         </is>
       </c>
     </row>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>0.7138672085502374</t>
+          <t>0.4725842730944526</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>0.4174525357228982</t>
+          <t>0.37284906892312947</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0.6154587809277017</t>
+          <t>0.45128159172756055</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>0.5487083623079247</t>
+          <t>0.46763179144512707</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>0.3996024176010812</t>
+          <t>0.34180722018569537</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>0.5483399343392193</t>
+          <t>0.43353279472459294</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0.7029155270281294</t>
+          <t>0.5956138427945634</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>0.4929324319859154</t>
+          <t>0.38277724378301</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>0.40733046544895657</t>
+          <t>0.4161327230303815</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>0.4774785046410294</t>
+          <t>0.40791706799688165</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>0.5126525674649292</t>
+          <t>0.3932753457555694</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>0.5317930024070758</t>
+          <t>0.46881691137142933</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>0.7148881462351875</t>
+          <t>0.5165315119245918</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>0.48289161707715866</t>
+          <t>0.3870045758471272</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.7344461802527668</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.6709541167607033</t>
         </is>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>0.20894377738414507</t>
+          <t>0.1956854321292014</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>0.663963071979175</t>
+          <t>0.5918775127888565</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>0.2644358860625594</t>
+          <t>0.24949849531507615</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>0.5309036418355016</t>
+          <t>0.3985944044877707</t>
         </is>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>0.5731149228243761</t>
+          <t>0.33635960252513386</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>0.46540241086425993</t>
+          <t>0.4774941823540069</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>0.5731149228243761</t>
+          <t>0.33635960252513386</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>0.5561009994387924</t>
+          <t>0.5260196505988888</t>
         </is>
       </c>
     </row>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>0.4409754795801024</t>
+          <t>0.4993322148170272</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>0.5731149228243761</t>
+          <t>0.33635960252513386</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>0.5295962972898471</t>
+          <t>0.4299714681162115</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>0.5562130522802231</t>
+          <t>0.500483442913183</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>0.5731149228243761</t>
+          <t>0.33635960252513386</t>
         </is>
       </c>
     </row>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>0.8035558981254178</t>
+          <t>0.7068939313820733</t>
         </is>
       </c>
     </row>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>0.4020243453491797</t>
+          <t>0.48197208724837626</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>0.40202434534917986</t>
+          <t>0.4819720872483764</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>0.47351647510556333</t>
+          <t>0.4860516409312434</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>0.40202434534917986</t>
+          <t>0.4819720872483764</t>
         </is>
       </c>
     </row>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>0.43521980311057235</t>
+          <t>0.5481784672318453</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>0.47351647510556333</t>
+          <t>0.4860516409312434</t>
         </is>
       </c>
     </row>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>0.40202434534917986</t>
+          <t>0.4819720872483764</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>0.4019766279155936</t>
+          <t>0.4318330259803657</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>0.5569250239305233</t>
+          <t>0.5904746591814525</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>0.40202434534917986</t>
+          <t>0.4819720872483764</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>0.5569250239305233</t>
+          <t>0.5904746591814525</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>0.8522503803609405</t>
+          <t>0.7894632956214763</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>0.4046559786742157</t>
+          <t>0.5195814918476986</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>0.6740007859924494</t>
+          <t>0.506155699806296</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>0.6352368632199117</t>
+          <t>0.7070303572294226</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>0.47811066052432094</t>
+          <t>0.5715326038193874</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>0.6152363949742523</t>
+          <t>0.5068925511933657</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>0.4177064679007876</t>
+          <t>0.36971464739794707</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>0.4042945609881804</t>
+          <t>0.3653990922479821</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>0.34747679215832034</t>
+          <t>0.3160936969142221</t>
         </is>
       </c>
     </row>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>0.4042945609881804</t>
+          <t>0.42743848007153595</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>0.4668793385600661</t>
+          <t>0.33723433029070476</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>0.4266933510580405</t>
+          <t>0.35964080329163384</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>0.9983636725938129</t>
+          <t>0.9954515828457711</t>
         </is>
       </c>
     </row>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>0.9560898739101291</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>0.47303215618255384</t>
+          <t>0.506880914847165</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>0.5309036418355016</t>
+          <t>0.39859440448777056</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>0.40202434534917986</t>
+          <t>0.4819720872483764</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>0.28665606943615307</t>
+          <t>0.3020850220645954</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>0.44095647355654227</t>
+          <t>0.4292051739643861</t>
         </is>
       </c>
     </row>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>0.578088439754593</t>
+          <t>0.575220061937785</t>
         </is>
       </c>
     </row>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>0.36337089045331267</t>
+          <t>0.371236489043109</t>
         </is>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>0.4418536735667695</t>
+          <t>0.3839184258202177</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>0.2507915352042477</t>
+          <t>0.2874393936563244</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>0.4510034246105668</t>
+          <t>0.5021243901047805</t>
         </is>
       </c>
     </row>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>0.2578035345308587</t>
+          <t>0.23989705159363708</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>0.25780353453085914</t>
+          <t>0.23989705159363708</t>
         </is>
       </c>
     </row>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>0.27127824161302255</t>
+          <t>0.2341105157768489</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>0.24548668393693546</t>
+          <t>0.23989705159363708</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>0.3436442285029989</t>
+          <t>0.2985408344729549</t>
         </is>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>0.27127824161302255</t>
+          <t>0.2341105157768489</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>0.24548668393693546</t>
+          <t>0.23989705159363708</t>
         </is>
       </c>
     </row>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>0.34364422850299886</t>
+          <t>0.2985408344729549</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>0.2533756357519133</t>
+          <t>0.2481776934221702</t>
         </is>
       </c>
     </row>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>0.24548668393693546</t>
+          <t>0.23989705159363708</t>
         </is>
       </c>
     </row>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>0.2845206727574669</t>
+          <t>0.2578035345308586</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>0.3473887699575347</t>
+          <t>0.30386268204781525</t>
         </is>
       </c>
     </row>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>0.3477783984578286</t>
+          <t>0.3410893578855814</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>0.42770828137352684</t>
+          <t>0.3867603476210346</t>
         </is>
       </c>
     </row>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>0.3494303868617336</t>
+          <t>0.29163161084389155</t>
         </is>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>0.2687499179593845</t>
+          <t>0.36598018995630693</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>0.4471742512810562</t>
+          <t>0.504269158588869</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>0.29114716854259876</t>
+          <t>0.3367376801321767</t>
         </is>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>0.2981611106030612</t>
+          <t>0.3609702005210634</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>0.3765001858869249</t>
+          <t>0.5176179413346554</t>
         </is>
       </c>
     </row>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>0.31571105829482743</t>
+          <t>0.319070152002913</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>0.31403152086999003</t>
+          <t>0.32305767352032305</t>
         </is>
       </c>
     </row>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>0.36370050938568116</t>
+          <t>0.3737389652715958</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>0.18646802038688798</t>
+          <t>0.25217929361481745</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>0.42603399094958966</t>
+          <t>0.4204169163763543</t>
         </is>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>0.20894377738414507</t>
+          <t>0.1956854321292013</t>
         </is>
       </c>
     </row>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>0.4416525341971574</t>
+          <t>0.4644632937248563</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>0.26083318805225364</t>
+          <t>0.23989705159363708</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>0.22564652359495185</t>
+          <t>0.2666776004850358</t>
         </is>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>0.4489486003019205</t>
+          <t>0.4292051739643858</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>0.5634975534769824</t>
+          <t>0.6077714831504353</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>0.4158015886752176</t>
+          <t>0.4080202395375498</t>
         </is>
       </c>
     </row>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>0.536498804817364</t>
+          <t>0.46021146062088486</t>
         </is>
       </c>
     </row>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>0.21995458943518553</t>
+          <t>0.24345479644614318</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>0.5209326478490961</t>
+          <t>0.5021243901047805</t>
         </is>
       </c>
     </row>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>0.21258293825892755</t>
+          <t>0.1570461230034545</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>0.21258293825892763</t>
+          <t>0.1570461230034545</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>0.21933784789392138</t>
+          <t>0.20155734416848398</t>
         </is>
       </c>
     </row>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>0.18204272258992132</t>
+          <t>0.1570461230034545</t>
         </is>
       </c>
     </row>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>0.2984236322310678</t>
+          <t>0.2394280004913811</t>
         </is>
       </c>
     </row>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>0.21933784789392138</t>
+          <t>0.20155734416848428</t>
         </is>
       </c>
     </row>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>0.18204272258992132</t>
+          <t>0.1570461230034545</t>
         </is>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>0.2984236322310679</t>
+          <t>0.23942800049138127</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>0.19398455795401462</t>
+          <t>0.18968641991373766</t>
         </is>
       </c>
     </row>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>0.18204272258992132</t>
+          <t>0.1570461230034545</t>
         </is>
       </c>
     </row>
@@ -4363,7 +4363,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>0.23930007648553578</t>
+          <t>0.20155734416848428</t>
         </is>
       </c>
     </row>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>0.4587908933794657</t>
+          <t>0.41180648180481433</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>0.368787446018571</t>
+          <t>0.39780147719873604</t>
         </is>
       </c>
     </row>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>0.5370168516652402</t>
+          <t>0.49223109110628027</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>0.322388314839432</t>
+          <t>0.34130395472606473</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>0.31947123520887455</t>
+          <t>0.31457442925833373</t>
         </is>
       </c>
     </row>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>0.4397260287056144</t>
+          <t>0.5614591765516176</t>
         </is>
       </c>
     </row>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>0.3455295020416162</t>
+          <t>0.4365287580150673</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>0.3869739640227722</t>
+          <t>0.3720905243622603</t>
         </is>
       </c>
     </row>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>0.40073246032336807</t>
+          <t>0.587595001753439</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>0.36471760013886634</t>
+          <t>0.3958452272273292</t>
         </is>
       </c>
     </row>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>0.3678194765940396</t>
+          <t>0.3873503720097874</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>0.4243254884942007</t>
+          <t>0.4413278115545641</t>
         </is>
       </c>
     </row>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>0.18531923311697687</t>
+          <t>0.286813555304658</t>
         </is>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>0.3774131780308531</t>
+          <t>0.3040357620427356</t>
         </is>
       </c>
     </row>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>0.15357320137094524</t>
+          <t>0.12287174751921559</t>
         </is>
       </c>
     </row>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>0.4498220860494694</t>
+          <t>0.4244853505523972</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>0.21258293825892768</t>
+          <t>0.1570461230034545</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>0.22088528756633286</t>
+          <t>0.23393894911481516</t>
         </is>
       </c>
     </row>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>0.4489486003019205</t>
+          <t>0.37830352017124513</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>0.4489486003019205</t>
+          <t>0.37830352017124513</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>0.9983636725938129</t>
+          <t>0.9279241991352504</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>0.4489486003019205</t>
+          <t>0.37830352017124513</t>
         </is>
       </c>
     </row>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>0.7581959327577178</t>
+          <t>0.7228962675058498</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>0.3882438142267913</t>
+          <t>0.30957078018485373</t>
         </is>
       </c>
     </row>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>0.38824381422679133</t>
+          <t>0.30957078018485357</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>0.446480697460745</t>
+          <t>0.422069636888282</t>
         </is>
       </c>
     </row>
@@ -4890,7 +4890,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>0.38824381422679133</t>
+          <t>0.277824748438822</t>
         </is>
       </c>
     </row>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>0.4884765383476337</t>
+          <t>0.4303321096733613</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>0.446480697460745</t>
+          <t>0.422069636888282</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>0.3882438142267917</t>
+          <t>0.2778247484388223</t>
         </is>
       </c>
     </row>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>0.5202225700936652</t>
+          <t>0.4537997308321586</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>0.4643145049035332</t>
+          <t>0.37124510325957305</t>
         </is>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>0.34632222088317566</t>
+          <t>0.27739568315167323</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>0.4719126785820207</t>
+          <t>0.3882438142267917</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>0.8573392579728359</t>
+          <t>0.8421737325589584</t>
         </is>
       </c>
     </row>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>0.7926477715661455</t>
+          <t>0.9425223664137268</t>
         </is>
       </c>
     </row>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9560898739101289</t>
         </is>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>0.8019707319331975</t>
+          <t>0.7929262184467493</t>
         </is>
       </c>
     </row>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>0.37899534463713713</t>
+          <t>0.4116849262395709</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>0.8299986157969532</t>
+          <t>0.7964387391459472</t>
         </is>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>0.9190854481162107</t>
+          <t>0.9279241991352505</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>0.8686331278097014</t>
+          <t>0.8367148971018239</t>
         </is>
       </c>
     </row>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>0.5046867498057843</t>
+          <t>0.4314474343717497</t>
         </is>
       </c>
     </row>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>0.8760044523606563</t>
+          <t>0.7207141663233686</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>0.9253745019461711</t>
+          <t>0.8463431086702904</t>
         </is>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>0.9379113496604994</t>
+          <t>0.8572966158276011</t>
         </is>
       </c>
     </row>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>0.37413280322597214</t>
+          <t>0.27801315382559455</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>0.39857205129193873</t>
+          <t>0.26646637764151254</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>0.3353966885149807</t>
+          <t>0.2547856456762907</t>
         </is>
       </c>
     </row>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>0.4244299448194171</t>
+          <t>0.34300888127030454</t>
         </is>
       </c>
     </row>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>0.3615662408219133</t>
+          <t>0.3205356790060601</t>
         </is>
       </c>
     </row>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>0.3564977824807596</t>
+          <t>0.32190931673034084</t>
         </is>
       </c>
     </row>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>0.2693682556481319</t>
+          <t>0.30696538543238094</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>0.5634975534769824</t>
+          <t>0.6077714831504353</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>0.4517486125877636</t>
+          <t>0.4517486125877633</t>
         </is>
       </c>
     </row>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>0.536498804817364</t>
+          <t>0.46021146062088486</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>0.2543164471555113</t>
+          <t>0.27586501835037197</t>
         </is>
       </c>
     </row>
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>0.5209326478490961</t>
+          <t>0.497489485154167</t>
         </is>
       </c>
     </row>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>0.21258293825892755</t>
+          <t>0.15704612300345433</t>
         </is>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>0.21258293825892763</t>
+          <t>0.15704612300345433</t>
         </is>
       </c>
     </row>
@@ -5502,7 +5502,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>0.20735550658973934</t>
+          <t>0.20155734416848398</t>
         </is>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>0.17006038128573947</t>
+          <t>0.15704612300345433</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>0.2984236322310678</t>
+          <t>0.2394280004913811</t>
         </is>
       </c>
     </row>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>0.20735550658973934</t>
+          <t>0.20155734416848428</t>
         </is>
       </c>
     </row>
@@ -5570,7 +5570,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>0.17006038128573947</t>
+          <t>0.1570461230034545</t>
         </is>
       </c>
     </row>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>0.2984236322310679</t>
+          <t>0.23942800049138127</t>
         </is>
       </c>
     </row>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>0.18200221664983282</t>
+          <t>0.18968641991373766</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>0.17006038128573947</t>
+          <t>0.1570461230034545</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>0.23930007648553578</t>
+          <t>0.20155734416848428</t>
         </is>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>0.4587908933794657</t>
+          <t>0.41180648180481433</t>
         </is>
       </c>
     </row>
@@ -5672,7 +5672,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>0.46125632916264636</t>
+          <t>0.4590472893533758</t>
         </is>
       </c>
     </row>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>0.5370168516652402</t>
+          <t>0.49223109110628027</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>0.34985916928134986</t>
+          <t>0.34130395472606473</t>
         </is>
       </c>
     </row>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>0.31947123520887455</t>
+          <t>0.31457442925833373</t>
         </is>
       </c>
     </row>
@@ -5740,7 +5740,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>0.4397260287056144</t>
+          <t>0.5614591765516176</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>0.34985916928134997</t>
+          <t>0.4365287580150673</t>
         </is>
       </c>
     </row>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>0.3869739640227722</t>
+          <t>0.3720905243622603</t>
         </is>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>0.40073246032336807</t>
+          <t>0.587595001753439</t>
         </is>
       </c>
     </row>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>0.394185559407791</t>
+          <t>0.3958452272273292</t>
         </is>
       </c>
     </row>
@@ -5825,7 +5825,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>0.3835043629039083</t>
+          <t>0.3873503720097874</t>
         </is>
       </c>
     </row>
@@ -5842,7 +5842,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>0.4243254884942007</t>
+          <t>0.4413278115545641</t>
         </is>
       </c>
     </row>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>0.2177364844952045</t>
+          <t>0.286813555304658</t>
         </is>
       </c>
     </row>
@@ -5876,7 +5876,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>0.3774131780308531</t>
+          <t>0.2948242489321051</t>
         </is>
       </c>
     </row>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>0.15357320137094524</t>
+          <t>0.12287174751921559</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>0.4498220860494694</t>
+          <t>0.4244853505523972</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -5944,7 +5944,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>0.21258293825892768</t>
+          <t>0.15704612300345433</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>0.22088528756633286</t>
+          <t>0.26029918456443357</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>0.5634975534769824</t>
+          <t>0.6077714831504353</t>
         </is>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>0.6395556341875601</t>
+          <t>0.6294699725425369</t>
         </is>
       </c>
     </row>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>0.5634975534769824</t>
+          <t>0.6077714831504353</t>
         </is>
       </c>
     </row>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>0.7434751465197066</t>
+          <t>0.7884901014091863</t>
         </is>
       </c>
     </row>
@@ -6080,7 +6080,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>0.38924031658522934</t>
+          <t>0.34927626861906186</t>
         </is>
       </c>
     </row>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>0.38924031658522934</t>
+          <t>0.34927626861906186</t>
         </is>
       </c>
     </row>
@@ -6114,7 +6114,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>0.4778540706077184</t>
+          <t>0.4991711404379956</t>
         </is>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>0.3817202298523469</t>
+          <t>0.34927626861906186</t>
         </is>
       </c>
     </row>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>0.5267377327528151</t>
+          <t>0.4990858240471232</t>
         </is>
       </c>
     </row>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>0.4778540706077184</t>
+          <t>0.4991711404379956</t>
         </is>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>0.3817202298523469</t>
+          <t>0.34927626861906186</t>
         </is>
       </c>
     </row>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>0.5267377327528151</t>
+          <t>0.4990858240471232</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>0.5080428779537469</t>
+          <t>0.45593892125793084</t>
         </is>
       </c>
     </row>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>0.3817202298523469</t>
+          <t>0.34927626861906186</t>
         </is>
       </c>
     </row>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>0.5080428779537469</t>
+          <t>0.45593892125793084</t>
         </is>
       </c>
     </row>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>0.8058791336588795</t>
+          <t>0.7927460781224013</t>
         </is>
       </c>
     </row>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>0.6832762852297066</t>
+          <t>0.8658124521856001</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9340768271178619</t>
         </is>
       </c>
     </row>
@@ -6318,7 +6318,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>0.8452890803966985</t>
+          <t>0.7967502766151928</t>
         </is>
       </c>
     </row>
@@ -6335,7 +6335,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>0.33424246523113416</t>
+          <t>0.38413897384245205</t>
         </is>
       </c>
     </row>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>0.8720092226615503</t>
+          <t>0.7712108921888025</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>0.9156850719552424</t>
+          <t>0.9363261834682793</t>
         </is>
       </c>
     </row>
@@ -6403,7 +6403,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>0.5400528360323891</t>
+          <t>0.4410268750363729</t>
         </is>
       </c>
     </row>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>0.8608517786720337</t>
+          <t>0.7665065523048897</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9363261834682792</t>
         </is>
       </c>
     </row>
@@ -6454,7 +6454,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9363261834682792</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>0.5756676449959574</t>
+          <t>0.5167540516114503</t>
         </is>
       </c>
     </row>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>0.5886371641821949</t>
+          <t>0.5034557636043452</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>0.43364136066036635</t>
+          <t>0.33814304349616814</t>
         </is>
       </c>
     </row>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>0.5808558150445273</t>
+          <t>0.4811397552927737</t>
         </is>
       </c>
     </row>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>0.578088439754593</t>
+          <t>0.575220061937785</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>0.3817202298523469</t>
+          <t>0.34927626861906186</t>
         </is>
       </c>
     </row>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>0.26755546412460474</t>
+          <t>0.24689103026625253</t>
         </is>
       </c>
     </row>
@@ -6590,7 +6590,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>0.4517486125877633</t>
+          <t>0.4080202395375498</t>
         </is>
       </c>
     </row>
@@ -6624,7 +6624,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>0.8625701569942859</t>
+          <t>0.7971924265808772</t>
         </is>
       </c>
     </row>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>0.3850428566631164</t>
+          <t>0.3511208954052993</t>
         </is>
       </c>
     </row>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>0.635051819783</t>
+          <t>0.6478181787146774</t>
         </is>
       </c>
     </row>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>0.3882438142267913</t>
+          <t>0.29549936030419</t>
         </is>
       </c>
     </row>
@@ -6692,7 +6692,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>0.38824381422679144</t>
+          <t>0.2954993603041901</t>
         </is>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>0.446480697460745</t>
+          <t>0.4008076572266032</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>0.38824381422679133</t>
+          <t>0.2658424071346397</t>
         </is>
       </c>
     </row>
@@ -6743,7 +6743,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>0.4884765383476337</t>
+          <t>0.42205369908612667</t>
         </is>
       </c>
     </row>
@@ -6760,7 +6760,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>0.446480697460745</t>
+          <t>0.4008076572266032</t>
         </is>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>0.3882438142267917</t>
+          <t>0.2778247484388223</t>
         </is>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>0.5202225700936652</t>
+          <t>0.4537997308321586</t>
         </is>
       </c>
     </row>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>0.44034207189734015</t>
+          <t>0.3609240437216799</t>
         </is>
       </c>
     </row>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>0.32850241585959344</t>
+          <t>0.2630619128655943</t>
         </is>
       </c>
     </row>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>0.4719126785820207</t>
+          <t>0.3882438142267917</t>
         </is>
       </c>
     </row>
@@ -6862,7 +6862,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>0.8573392579728359</t>
+          <t>0.9046249925477006</t>
         </is>
       </c>
     </row>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>0.7926477715661455</t>
+          <t>0.922758675971877</t>
         </is>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>0.8019707319331975</t>
+          <t>0.7168198219340959</t>
         </is>
       </c>
     </row>
@@ -6930,7 +6930,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>0.37899534463713713</t>
+          <t>0.4571315177215736</t>
         </is>
       </c>
     </row>
@@ -6947,7 +6947,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>0.8299986157969532</t>
+          <t>0.8084210804501292</t>
         </is>
       </c>
     </row>
@@ -6964,7 +6964,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>0.9190854481162107</t>
+          <t>0.9253745019461711</t>
         </is>
       </c>
     </row>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>0.8686331278097014</t>
+          <t>0.8359250880785022</t>
         </is>
       </c>
     </row>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>0.5046867498057843</t>
+          <t>0.43654070212816043</t>
         </is>
       </c>
     </row>
@@ -7015,7 +7015,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>0.8760044523606563</t>
+          <t>0.7779596231995676</t>
         </is>
       </c>
     </row>
@@ -7049,7 +7049,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>0.9379113496604994</t>
+          <t>0.9560898739101289</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>0.3826521727059141</t>
+          <t>0.3396871654766036</t>
         </is>
       </c>
     </row>
@@ -7083,7 +7083,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>0.3705676712040307</t>
+          <t>0.26902405818170233</t>
         </is>
       </c>
     </row>
@@ -7100,7 +7100,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>0.32450509286699825</t>
+          <t>0.24576279319461966</t>
         </is>
       </c>
     </row>
@@ -7117,7 +7117,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>0.4244299448194171</t>
+          <t>0.34596885390418475</t>
         </is>
       </c>
     </row>
@@ -7134,7 +7134,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>0.30217031313062775</t>
+          <t>0.30571186497401054</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>0.3564977824807596</t>
+          <t>0.2658424071346395</t>
         </is>
       </c>
     </row>
@@ -7168,7 +7168,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>0.2372895844395379</t>
+          <t>0.24689103026625267</t>
         </is>
       </c>
     </row>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>0.536498804817364</t>
+          <t>0.46021146062088486</t>
         </is>
       </c>
     </row>
@@ -7202,7 +7202,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>0.2522235459541428</t>
+          <t>0.25367812032067244</t>
         </is>
       </c>
     </row>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>0.5209326478490961</t>
+          <t>0.497489485154167</t>
         </is>
       </c>
     </row>
@@ -7253,7 +7253,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>0.21258293825892755</t>
+          <t>0.15704612300345433</t>
         </is>
       </c>
     </row>
@@ -7270,7 +7270,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>0.21258293825892763</t>
+          <t>0.15704612300345433</t>
         </is>
       </c>
     </row>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>0.20735550658973934</t>
+          <t>0.20155734416848398</t>
         </is>
       </c>
     </row>
@@ -7304,7 +7304,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>0.1700603812857393</t>
+          <t>0.15704612300345433</t>
         </is>
       </c>
     </row>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>0.2984236322310678</t>
+          <t>0.2394280004913811</t>
         </is>
       </c>
     </row>
@@ -7338,7 +7338,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>0.20735550658973934</t>
+          <t>0.20155734416848428</t>
         </is>
       </c>
     </row>
@@ -7355,7 +7355,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>0.1700603812857393</t>
+          <t>0.1570461230034545</t>
         </is>
       </c>
     </row>
@@ -7372,7 +7372,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>0.2984236322310679</t>
+          <t>0.23942800049138127</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>0.1820022166498326</t>
+          <t>0.18968641991373766</t>
         </is>
       </c>
     </row>
@@ -7406,7 +7406,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>0.1700603812857393</t>
+          <t>0.1570461230034545</t>
         </is>
       </c>
     </row>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>0.23930007648553578</t>
+          <t>0.20155734416848428</t>
         </is>
       </c>
     </row>
@@ -7440,7 +7440,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>0.4587908933794657</t>
+          <t>0.41180648180481433</t>
         </is>
       </c>
     </row>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>0.4097466069747651</t>
+          <t>0.4033365749989805</t>
         </is>
       </c>
     </row>
@@ -7474,7 +7474,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>0.5370168516652402</t>
+          <t>0.49223109110628027</t>
         </is>
       </c>
     </row>
@@ -7491,7 +7491,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>0.3498591692813497</t>
+          <t>0.34130395472606473</t>
         </is>
       </c>
     </row>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>0.31947123520887455</t>
+          <t>0.31457442925833373</t>
         </is>
       </c>
     </row>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>0.4397260287056144</t>
+          <t>0.5614591765516176</t>
         </is>
       </c>
     </row>
@@ -7542,7 +7542,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>0.3498591692813498</t>
+          <t>0.4365287580150673</t>
         </is>
       </c>
     </row>
@@ -7559,7 +7559,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>0.403766935789724</t>
+          <t>0.3720905243622603</t>
         </is>
       </c>
     </row>
@@ -7576,7 +7576,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>0.40073246032336807</t>
+          <t>0.587595001753439</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>0.4379139324580045</t>
+          <t>0.3958452272273292</t>
         </is>
       </c>
     </row>
@@ -7610,7 +7610,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>0.4016946174619939</t>
+          <t>0.3873503720097874</t>
         </is>
       </c>
     </row>
@@ -7627,7 +7627,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>0.4243254884942007</t>
+          <t>0.4413278115545641</t>
         </is>
       </c>
     </row>
@@ -7644,7 +7644,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>0.2541833949159426</t>
+          <t>0.286813555304658</t>
         </is>
       </c>
     </row>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>0.3774131780308531</t>
+          <t>0.2948242489321051</t>
         </is>
       </c>
     </row>
@@ -7678,7 +7678,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>0.15357320137094524</t>
+          <t>0.12287174751921559</t>
         </is>
       </c>
     </row>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>0.4498220860494694</t>
+          <t>0.4244853505523972</t>
         </is>
       </c>
     </row>
@@ -7712,7 +7712,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>0.21258293825892768</t>
+          <t>0.15704612300345433</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>0.22088528756633286</t>
+          <t>0.2602991845644338</t>
         </is>
       </c>
     </row>
@@ -7763,7 +7763,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>0.6994286463470526</t>
+          <t>0.7377621664326476</t>
         </is>
       </c>
     </row>
@@ -7780,7 +7780,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>0.536498804817364</t>
+          <t>0.46021146062088486</t>
         </is>
       </c>
     </row>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>0.8516026974880263</t>
+          <t>0.7775302212400044</t>
         </is>
       </c>
     </row>
@@ -7814,7 +7814,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>0.3806089982851191</t>
+          <t>0.301168795851825</t>
         </is>
       </c>
     </row>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>0.3806089982851191</t>
+          <t>0.301168795851825</t>
         </is>
       </c>
     </row>
@@ -7848,7 +7848,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>0.47248578090554894</t>
+          <t>0.44511072315828126</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>0.36957531929400844</t>
+          <t>0.301168795851825</t>
         </is>
       </c>
     </row>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>0.5191624752214343</t>
+          <t>0.44216121226665656</t>
         </is>
       </c>
     </row>
@@ -7899,7 +7899,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>0.47248578090554927</t>
+          <t>0.44511072315828126</t>
         </is>
       </c>
     </row>
@@ -7916,7 +7916,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>0.4079598438416354</t>
+          <t>0.301168795851825</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>0.5152078252272999</t>
+          <t>0.44216121226665656</t>
         </is>
       </c>
     </row>
@@ -7950,7 +7950,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>0.4741127058249118</t>
+          <t>0.3914161979837935</t>
         </is>
       </c>
     </row>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>0.36591862272593223</t>
+          <t>0.301168795851825</t>
         </is>
       </c>
     </row>
@@ -7984,7 +7984,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>0.49863350108749305</t>
+          <t>0.4079598438416356</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>0.8540566215360029</t>
+          <t>0.9141572776607838</t>
         </is>
       </c>
     </row>
@@ -8018,7 +8018,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>0.7984339299248802</t>
+          <t>0.9483085247724613</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>0.8162024295877968</t>
+          <t>0.8786202783349504</t>
         </is>
       </c>
     </row>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>0.405357165964314</t>
+          <t>0.378380470400617</t>
         </is>
       </c>
     </row>
@@ -8086,7 +8086,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>0.9209959897596507</t>
+          <t>0.9123615008599151</t>
         </is>
       </c>
     </row>
@@ -8120,7 +8120,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>0.9173221743734815</t>
+          <t>0.9243438421640973</t>
         </is>
       </c>
     </row>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>0.5364623390185153</t>
+          <t>0.46690829059145533</t>
         </is>
       </c>
     </row>
@@ -8154,7 +8154,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>0.9307941906810291</t>
+          <t>0.8331597342573913</t>
         </is>
       </c>
     </row>
@@ -8171,7 +8171,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9279241991352505</t>
         </is>
       </c>
     </row>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9279241991352505</t>
         </is>
       </c>
     </row>
@@ -8205,7 +8205,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>0.45194981450204613</t>
+          <t>0.30350066253386915</t>
         </is>
       </c>
     </row>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>0.4376903873635428</t>
+          <t>0.3338559518069289</t>
         </is>
       </c>
     </row>
@@ -8239,7 +8239,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>0.3769409211823908</t>
+          <t>0.2472068511711864</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8256,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>0.42731417492424423</t>
+          <t>0.356620856547144</t>
         </is>
       </c>
     </row>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>0.4418536735667695</t>
+          <t>0.3514604634157156</t>
         </is>
       </c>
     </row>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>0.36591862272593223</t>
+          <t>0.301168795851825</t>
         </is>
       </c>
     </row>
@@ -8307,7 +8307,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>0.288593057773524</t>
+          <t>0.24689103026625267</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>0.14738197038804532</t>
+          <t>0.16892547863757293</t>
         </is>
       </c>
     </row>
@@ -8341,7 +8341,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>0.8477784614627688</t>
+          <t>0.9363261834682792</t>
         </is>
       </c>
     </row>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>0.268204942435083</t>
+          <t>0.2598884457091272</t>
         </is>
       </c>
     </row>
@@ -8375,7 +8375,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>0.2682049424350829</t>
+          <t>0.2598884457091272</t>
         </is>
       </c>
     </row>
@@ -8392,7 +8392,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>0.059373915292476244</t>
+          <t>0.08094923286541499</t>
         </is>
       </c>
     </row>
@@ -8409,7 +8409,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>0.053945467249996305</t>
+          <t>0.06931715651152555</t>
         </is>
       </c>
     </row>
@@ -8426,7 +8426,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>0.3441750308362601</t>
+          <t>0.37183050973854376</t>
         </is>
       </c>
     </row>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>0.05937391529247657</t>
+          <t>0.09298777085892342</t>
         </is>
       </c>
     </row>
@@ -8460,7 +8460,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>0.053945467249996305</t>
+          <t>0.06931715651152555</t>
         </is>
       </c>
     </row>
@@ -8477,7 +8477,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>0.30482753369762094</t>
+          <t>0.2980510420755994</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>0.047370830724187636</t>
+          <t>0.09083079116134647</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>0.0433289244145246</t>
+          <t>0.06931715651152555</t>
         </is>
       </c>
     </row>
@@ -8528,7 +8528,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>0.30099223842911754</t>
+          <t>0.3108029498135991</t>
         </is>
       </c>
     </row>
@@ -8545,7 +8545,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>0.7271546832734901</t>
+          <t>0.5565717508970655</t>
         </is>
       </c>
     </row>
@@ -8562,7 +8562,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>0.40001904828831286</t>
+          <t>0.5951439193872172</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>0.7375350455219145</t>
+          <t>0.5364034191481761</t>
         </is>
       </c>
     </row>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>0.30679453442122123</t>
+          <t>0.22763717241744635</t>
         </is>
       </c>
     </row>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>0.5264096875566026</t>
+          <t>0.3950025802292178</t>
         </is>
       </c>
     </row>
@@ -8630,7 +8630,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>0.3162085370861655</t>
+          <t>0.433057151365159</t>
         </is>
       </c>
     </row>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>0.4535101740761573</t>
+          <t>0.5174564566640414</t>
         </is>
       </c>
     </row>
@@ -8664,7 +8664,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>0.4292958487504502</t>
+          <t>0.5974785845045438</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>0.3910766875264714</t>
+          <t>0.40505700531056354</t>
         </is>
       </c>
     </row>
@@ -8698,7 +8698,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>0.3906819264562249</t>
+          <t>0.5608613275227112</t>
         </is>
       </c>
     </row>
@@ -8715,7 +8715,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>0.36180263374807176</t>
+          <t>0.4054385703498738</t>
         </is>
       </c>
     </row>
@@ -8732,7 +8732,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>0.5069607424188433</t>
+          <t>0.47755963127490136</t>
         </is>
       </c>
     </row>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>0.2925982223725074</t>
+          <t>0.3269816235093488</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8766,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>0.6181881588970374</t>
+          <t>0.4963127934346709</t>
         </is>
       </c>
     </row>
@@ -8783,7 +8783,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>0.1627155831712404</t>
+          <t>0.19051896085701328</t>
         </is>
       </c>
     </row>
@@ -8800,7 +8800,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>0.5673984718395855</t>
+          <t>0.5095315186782541</t>
         </is>
       </c>
     </row>
@@ -8817,7 +8817,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>0.2507915352042477</t>
+          <t>0.2437110206061107</t>
         </is>
       </c>
     </row>
@@ -8834,7 +8834,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>0.18906438649048338</t>
+          <t>0.22814241396309567</t>
         </is>
       </c>
     </row>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>0.30471933043796173</t>
+          <t>0.31663438638944313</t>
         </is>
       </c>
     </row>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>0.5209326478490961</t>
+          <t>0.497489485154167</t>
         </is>
       </c>
     </row>
@@ -8885,7 +8885,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>0.21258293825892755</t>
+          <t>0.15704612300345433</t>
         </is>
       </c>
     </row>
@@ -8902,7 +8902,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>0.21258293825892763</t>
+          <t>0.15704612300345433</t>
         </is>
       </c>
     </row>
@@ -8919,7 +8919,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>0.1685878070530921</t>
+          <t>0.20155734416848398</t>
         </is>
       </c>
     </row>
@@ -8936,7 +8936,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>0.13129268174909223</t>
+          <t>0.15704612300345433</t>
         </is>
       </c>
     </row>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>0.2984236322310678</t>
+          <t>0.2394280004913811</t>
         </is>
       </c>
     </row>
@@ -8970,7 +8970,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>0.1685878070530921</t>
+          <t>0.20155734416848428</t>
         </is>
       </c>
     </row>
@@ -8987,7 +8987,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>0.13129268174909223</t>
+          <t>0.1570461230034545</t>
         </is>
       </c>
     </row>
@@ -9004,7 +9004,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>0.2984236322310679</t>
+          <t>0.23942800049138127</t>
         </is>
       </c>
     </row>
@@ -9021,7 +9021,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>0.1432345171131857</t>
+          <t>0.18968641991373766</t>
         </is>
       </c>
     </row>
@@ -9038,7 +9038,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>0.13129268174909223</t>
+          <t>0.1570461230034545</t>
         </is>
       </c>
     </row>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>0.23930007648553578</t>
+          <t>0.20155734416848428</t>
         </is>
       </c>
     </row>
@@ -9072,7 +9072,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>0.4587908933794657</t>
+          <t>0.41180648180481433</t>
         </is>
       </c>
     </row>
@@ -9089,7 +9089,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>0.368787446018571</t>
+          <t>0.39780147719873604</t>
         </is>
       </c>
     </row>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>0.5370168516652402</t>
+          <t>0.49223109110628027</t>
         </is>
       </c>
     </row>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>0.322388314839432</t>
+          <t>0.34130395472606473</t>
         </is>
       </c>
     </row>
@@ -9140,7 +9140,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>0.31947123520887455</t>
+          <t>0.31457442925833373</t>
         </is>
       </c>
     </row>
@@ -9157,7 +9157,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>0.4397260287056144</t>
+          <t>0.5614591765516176</t>
         </is>
       </c>
     </row>
@@ -9174,7 +9174,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>0.3455295020416162</t>
+          <t>0.4365287580150673</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>0.3869739640227722</t>
+          <t>0.3720905243622603</t>
         </is>
       </c>
     </row>
@@ -9208,7 +9208,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>0.40073246032336807</t>
+          <t>0.587595001753439</t>
         </is>
       </c>
     </row>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>0.36471760013886634</t>
+          <t>0.3958452272273292</t>
         </is>
       </c>
     </row>
@@ -9242,7 +9242,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>0.3678194765940396</t>
+          <t>0.3873503720097874</t>
         </is>
       </c>
     </row>
@@ -9259,7 +9259,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>0.4243254884942007</t>
+          <t>0.4413278115545641</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>0.18531923311697687</t>
+          <t>0.286813555304658</t>
         </is>
       </c>
     </row>
@@ -9293,7 +9293,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>0.3774131780308531</t>
+          <t>0.2948242489321051</t>
         </is>
       </c>
     </row>
@@ -9310,7 +9310,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>0.15357320137094524</t>
+          <t>0.12287174751921559</t>
         </is>
       </c>
     </row>
@@ -9327,7 +9327,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>0.4498220860494694</t>
+          <t>0.4244853505523972</t>
         </is>
       </c>
     </row>
@@ -9344,7 +9344,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -9361,7 +9361,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>0.21258293825892768</t>
+          <t>0.15704612300345433</t>
         </is>
       </c>
     </row>
@@ -9378,7 +9378,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>0.22088528756633286</t>
+          <t>0.23393894911481516</t>
         </is>
       </c>
     </row>
@@ -9395,7 +9395,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>0.2738288929129448</t>
+          <t>0.2598884457091272</t>
         </is>
       </c>
     </row>
@@ -9412,7 +9412,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>0.2738288929129448</t>
+          <t>0.2598884457091272</t>
         </is>
       </c>
     </row>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>0.16320088132864635</t>
+          <t>0.19062874387293743</t>
         </is>
       </c>
     </row>
@@ -9446,7 +9446,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>0.1362630317338009</t>
+          <t>0.1408925445357617</t>
         </is>
       </c>
     </row>
@@ -9463,7 +9463,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>0.3652260070455467</t>
+          <t>0.3832334757929576</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>0.16320088132864635</t>
+          <t>0.19062874387293727</t>
         </is>
       </c>
     </row>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>0.1362630317338009</t>
+          <t>0.1408925445357617</t>
         </is>
       </c>
     </row>
@@ -9514,7 +9514,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>0.329152525116918</t>
+          <t>0.3317237536050764</t>
         </is>
       </c>
     </row>
@@ -9531,7 +9531,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>0.14374711268156024</t>
+          <t>0.15500331005811668</t>
         </is>
       </c>
     </row>
@@ -9548,7 +9548,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>0.1362630317338009</t>
+          <t>0.1408925445357617</t>
         </is>
       </c>
     </row>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>0.31080294981359924</t>
+          <t>0.3181530323188975</t>
         </is>
       </c>
     </row>
@@ -9582,7 +9582,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>0.6817541071682018</t>
+          <t>0.6150161159015992</t>
         </is>
       </c>
     </row>
@@ -9599,7 +9599,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>0.5301165441561463</t>
+          <t>0.767500103282422</t>
         </is>
       </c>
     </row>
@@ -9616,7 +9616,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>0.7218853103837246</t>
+          <t>0.6244664483706059</t>
         </is>
       </c>
     </row>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>0.3012885917506143</t>
+          <t>0.3126140672794965</t>
         </is>
       </c>
     </row>
@@ -9650,7 +9650,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>0.5412772448460308</t>
+          <t>0.47873830600235184</t>
         </is>
       </c>
     </row>
@@ -9667,7 +9667,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>0.37626595675237545</t>
+          <t>0.46620277330732024</t>
         </is>
       </c>
     </row>
@@ -9684,7 +9684,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>0.4313493973075634</t>
+          <t>0.5377876710142276</t>
         </is>
       </c>
     </row>
@@ -9701,7 +9701,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>0.42035678112696123</t>
+          <t>0.6301563622370473</t>
         </is>
       </c>
     </row>
@@ -9718,7 +9718,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>0.4249702586703673</t>
+          <t>0.4342550473542565</t>
         </is>
       </c>
     </row>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>0.440914371455386</t>
+          <t>0.5252606125773686</t>
         </is>
       </c>
     </row>
@@ -9752,7 +9752,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>0.3832730583865667</t>
+          <t>0.4296990151477297</t>
         </is>
       </c>
     </row>
@@ -9769,7 +9769,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>0.4746910443717528</t>
+          <t>0.5170290523540362</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9786,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>0.53590948770304</t>
+          <t>0.5156605655066537</t>
         </is>
       </c>
     </row>
@@ -9803,7 +9803,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>0.6368374064429086</t>
+          <t>0.5715369518091068</t>
         </is>
       </c>
     </row>
@@ -9820,7 +9820,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>0.1587729291109816</t>
+          <t>0.19051896085701328</t>
         </is>
       </c>
     </row>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>0.7167311644121463</t>
+          <t>0.6274880125062314</t>
         </is>
       </c>
     </row>
@@ -9854,7 +9854,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>0.4456250292065934</t>
+          <t>0.4125979503929431</t>
         </is>
       </c>
     </row>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>0.1923161856139166</t>
+          <t>0.22814241396309567</t>
         </is>
       </c>
     </row>
@@ -9888,7 +9888,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>0.3362828341322844</t>
+          <t>0.31663438638944313</t>
         </is>
       </c>
     </row>
@@ -9905,7 +9905,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -9922,7 +9922,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>0.5946479588255665</t>
+          <t>0.4721706725372217</t>
         </is>
       </c>
     </row>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -9956,7 +9956,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.7659975659334801</t>
         </is>
       </c>
     </row>
@@ -9973,7 +9973,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>0.5883237659348974</t>
+          <t>0.4721706725372217</t>
         </is>
       </c>
     </row>
@@ -9990,7 +9990,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -10007,7 +10007,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -10024,7 +10024,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>0.5946479588255666</t>
+          <t>0.5279623067294861</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -10058,7 +10058,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>0.699092273711303</t>
+          <t>0.6311952331478198</t>
         </is>
       </c>
     </row>
@@ -10075,7 +10075,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>0.5998892071521699</t>
+          <t>0.6733778196813706</t>
         </is>
       </c>
     </row>
@@ -10092,7 +10092,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>0.44784557471932773</t>
+          <t>0.46630448074125636</t>
         </is>
       </c>
     </row>
@@ -10109,7 +10109,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>0.49177207588498895</t>
+          <t>0.44768410871109493</t>
         </is>
       </c>
     </row>
@@ -10126,7 +10126,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>0.5131668748329558</t>
+          <t>0.5678338348998805</t>
         </is>
       </c>
     </row>
@@ -10143,7 +10143,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>0.4353828192990374</t>
+          <t>0.3287138354313423</t>
         </is>
       </c>
     </row>
@@ -10160,7 +10160,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>0.44578885501758625</t>
+          <t>0.4872767055624077</t>
         </is>
       </c>
     </row>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>0.5060883604535684</t>
+          <t>0.5404298550318657</t>
         </is>
       </c>
     </row>
@@ -10194,7 +10194,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>0.47026710937760235</t>
+          <t>0.406572149165678</t>
         </is>
       </c>
     </row>
@@ -10211,7 +10211,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>0.49191655770842246</t>
+          <t>0.35842374173994673</t>
         </is>
       </c>
     </row>
@@ -10228,7 +10228,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>0.5133633663215261</t>
+          <t>0.420806467124619</t>
         </is>
       </c>
     </row>
@@ -10245,7 +10245,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>0.5487540105642498</t>
+          <t>0.4395807577299877</t>
         </is>
       </c>
     </row>
@@ -10262,7 +10262,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>0.5010673191136287</t>
+          <t>0.46665667266754185</t>
         </is>
       </c>
     </row>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>0.6225509733003602</t>
+          <t>0.4923859028931848</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10296,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>0.36251223440722047</t>
+          <t>0.3447849457051402</t>
         </is>
       </c>
     </row>
@@ -10313,7 +10313,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>0.7082119425999194</t>
+          <t>0.6236235445348882</t>
         </is>
       </c>
     </row>
@@ -10330,7 +10330,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>0.5997663863335141</t>
+          <t>0.5545416087514384</t>
         </is>
       </c>
     </row>
@@ -10347,7 +10347,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>0.2578035345308587</t>
+          <t>0.23989705159363725</t>
         </is>
       </c>
     </row>
@@ -10364,7 +10364,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -10381,7 +10381,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>0.30672140132093767</t>
+          <t>0.24989003499592172</t>
         </is>
       </c>
     </row>
@@ -10398,7 +10398,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>0.5883237659348974</t>
+          <t>0.4721706725372217</t>
         </is>
       </c>
     </row>
@@ -10415,7 +10415,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -10432,7 +10432,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.7659975659334801</t>
         </is>
       </c>
     </row>
@@ -10449,7 +10449,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>0.5883237659348972</t>
+          <t>0.4721706725372217</t>
         </is>
       </c>
     </row>
@@ -10466,7 +10466,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>0.5946479588255666</t>
+          <t>0.527962306729486</t>
         </is>
       </c>
     </row>
@@ -10517,7 +10517,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -10534,7 +10534,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>0.699092273711303</t>
+          <t>0.6311952331478198</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>0.5998892071521699</t>
+          <t>0.6733778196813706</t>
         </is>
       </c>
     </row>
@@ -10568,7 +10568,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>0.44784557471932773</t>
+          <t>0.46630448074125636</t>
         </is>
       </c>
     </row>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>0.49177207588498895</t>
+          <t>0.44768410871109493</t>
         </is>
       </c>
     </row>
@@ -10602,7 +10602,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>0.5131668748329558</t>
+          <t>0.5678338348998805</t>
         </is>
       </c>
     </row>
@@ -10619,7 +10619,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>0.4353828192990374</t>
+          <t>0.3287138354313423</t>
         </is>
       </c>
     </row>
@@ -10636,7 +10636,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>0.44578885501758625</t>
+          <t>0.4872767055624077</t>
         </is>
       </c>
     </row>
@@ -10653,7 +10653,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>0.5060883604535684</t>
+          <t>0.5404298550318657</t>
         </is>
       </c>
     </row>
@@ -10670,7 +10670,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>0.47026710937760235</t>
+          <t>0.406572149165678</t>
         </is>
       </c>
     </row>
@@ -10687,7 +10687,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>0.5032583347756449</t>
+          <t>0.35842374173994673</t>
         </is>
       </c>
     </row>
@@ -10704,7 +10704,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>0.5133633663215261</t>
+          <t>0.420806467124619</t>
         </is>
       </c>
     </row>
@@ -10721,7 +10721,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>0.5487540105642498</t>
+          <t>0.4395807577299877</t>
         </is>
       </c>
     </row>
@@ -10738,7 +10738,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>0.5010673191136287</t>
+          <t>0.46665667266754185</t>
         </is>
       </c>
     </row>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>0.6051924982241568</t>
+          <t>0.4923859028931846</t>
         </is>
       </c>
     </row>
@@ -10772,7 +10772,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>0.36251223440722047</t>
+          <t>0.3447849457051402</t>
         </is>
       </c>
     </row>
@@ -10789,7 +10789,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>0.7082119425999194</t>
+          <t>0.6236235445348882</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10806,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>0.6314267358770039</t>
+          <t>0.5545416087514384</t>
         </is>
       </c>
     </row>
@@ -10823,7 +10823,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>0.25780353453085914</t>
+          <t>0.23989705159363717</t>
         </is>
       </c>
     </row>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -10857,7 +10857,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>0.30672140132093767</t>
+          <t>0.24989003499592163</t>
         </is>
       </c>
     </row>
@@ -10874,7 +10874,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>0.5946479588255665</t>
+          <t>0.527962306729486</t>
         </is>
       </c>
     </row>
@@ -10891,7 +10891,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>0.93335726001798</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -10908,7 +10908,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>0.93335726001798</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>0.5946479588255668</t>
+          <t>0.527962306729486</t>
         </is>
       </c>
     </row>
@@ -10942,7 +10942,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>0.8714503627181368</t>
+          <t>0.8174811389674482</t>
         </is>
       </c>
     </row>
@@ -10959,7 +10959,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -10976,7 +10976,7 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>0.45085986317538224</t>
+          <t>0.3930790908835561</t>
         </is>
       </c>
     </row>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -11010,7 +11010,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>0.817734839142674</t>
+          <t>0.8197304953178658</t>
         </is>
       </c>
     </row>
@@ -11027,7 +11027,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>0.525204648105181</t>
+          <t>0.5891062887626148</t>
         </is>
       </c>
     </row>
@@ -11044,7 +11044,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>0.8095434654182938</t>
+          <t>0.8317128366220478</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>0.5497481184328107</t>
+          <t>0.5514646657678854</t>
         </is>
       </c>
     </row>
@@ -11078,7 +11078,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>0.6470145887105037</t>
+          <t>0.4854463738219158</t>
         </is>
       </c>
     </row>
@@ -11095,7 +11095,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>0.5277330388667048</t>
+          <t>0.4649457271990004</t>
         </is>
       </c>
     </row>
@@ -11112,7 +11112,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>0.7019081561480637</t>
+          <t>0.7471044210626211</t>
         </is>
       </c>
     </row>
@@ -11129,7 +11129,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>0.6741306120018394</t>
+          <t>0.6444998494148108</t>
         </is>
       </c>
     </row>
@@ -11146,7 +11146,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>0.39345055369706605</t>
+          <t>0.34586074487170526</t>
         </is>
       </c>
     </row>
@@ -11163,7 +11163,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>0.5498978240217546</t>
+          <t>0.6279259245252811</t>
         </is>
       </c>
     </row>
@@ -11180,7 +11180,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>0.6109114624259868</t>
+          <t>0.644751787149397</t>
         </is>
       </c>
     </row>
@@ -11197,7 +11197,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>0.6004456355171187</t>
+          <t>0.6835194866860443</t>
         </is>
       </c>
     </row>
@@ -11214,7 +11214,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>0.5428479137837368</t>
+          <t>0.48734494627509306</t>
         </is>
       </c>
     </row>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>0.3287451430742155</t>
+          <t>0.31388690964622235</t>
         </is>
       </c>
     </row>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>0.4931285322331685</t>
+          <t>0.46663039544649976</t>
         </is>
       </c>
     </row>
@@ -11265,7 +11265,7 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>0.5621466209068173</t>
+          <t>0.5249116102430059</t>
         </is>
       </c>
     </row>
@@ -11282,7 +11282,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>0.27127824161302244</t>
+          <t>0.24548668393693537</t>
         </is>
       </c>
     </row>
@@ -11299,7 +11299,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>0.5002783599408707</t>
+          <t>0.4404246407911901</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11316,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>0.21119856010004162</t>
+          <t>0.24677168985170525</t>
         </is>
       </c>
     </row>
@@ -11333,7 +11333,7 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.7659975659334801</t>
         </is>
       </c>
     </row>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>0.5883237659348972</t>
+          <t>0.5220469427063926</t>
         </is>
       </c>
     </row>
@@ -11367,7 +11367,7 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -11384,7 +11384,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>0.5946479588255666</t>
+          <t>0.5279623067294862</t>
         </is>
       </c>
     </row>
@@ -11418,7 +11418,7 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>0.699092273711303</t>
+          <t>0.6311952331478198</t>
         </is>
       </c>
     </row>
@@ -11452,7 +11452,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>0.5998892071521699</t>
+          <t>0.6733778196813706</t>
         </is>
       </c>
     </row>
@@ -11469,7 +11469,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>0.44784557471932773</t>
+          <t>0.46630448074125636</t>
         </is>
       </c>
     </row>
@@ -11486,7 +11486,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>0.49177207588498895</t>
+          <t>0.44768410871109493</t>
         </is>
       </c>
     </row>
@@ -11503,7 +11503,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>0.5131668748329558</t>
+          <t>0.5678338348998805</t>
         </is>
       </c>
     </row>
@@ -11520,7 +11520,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>0.4353828192990374</t>
+          <t>0.3287138354313423</t>
         </is>
       </c>
     </row>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>0.44578885501758625</t>
+          <t>0.4872767055624077</t>
         </is>
       </c>
     </row>
@@ -11554,7 +11554,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>0.5060883604535684</t>
+          <t>0.5404298550318657</t>
         </is>
       </c>
     </row>
@@ -11571,7 +11571,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>0.47026710937760235</t>
+          <t>0.406572149165678</t>
         </is>
       </c>
     </row>
@@ -11588,7 +11588,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>0.49191655770842246</t>
+          <t>0.35842374173994673</t>
         </is>
       </c>
     </row>
@@ -11605,7 +11605,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>0.5133633663215261</t>
+          <t>0.420806467124619</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>0.5487540105642498</t>
+          <t>0.4395807577299877</t>
         </is>
       </c>
     </row>
@@ -11639,7 +11639,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>0.5010673191136287</t>
+          <t>0.46665667266754185</t>
         </is>
       </c>
     </row>
@@ -11656,7 +11656,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>0.6225509733003604</t>
+          <t>0.4923859028931846</t>
         </is>
       </c>
     </row>
@@ -11673,7 +11673,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>0.36251223440722047</t>
+          <t>0.3447849457051402</t>
         </is>
       </c>
     </row>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>0.6629562793532694</t>
+          <t>0.621733752446258</t>
         </is>
       </c>
     </row>
@@ -11707,7 +11707,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>0.5997663863335141</t>
+          <t>0.5545416087514384</t>
         </is>
       </c>
     </row>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>0.24548668393693537</t>
+          <t>0.23989705159363717</t>
         </is>
       </c>
     </row>
@@ -11741,7 +11741,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -11758,7 +11758,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>0.24441217683631616</t>
+          <t>0.22035598380336646</t>
         </is>
       </c>
     </row>
@@ -11775,7 +11775,7 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>0.93335726001798</t>
+          <t>0.8832225588099292</t>
         </is>
       </c>
     </row>
@@ -11792,7 +11792,7 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.7659975659334801</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>0.9690632527820694</t>
+          <t>0.93335726001798</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11826,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -11843,7 +11843,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.7659975659334801</t>
         </is>
       </c>
     </row>
@@ -11860,7 +11860,7 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8631205685666311</t>
         </is>
       </c>
     </row>
@@ -11877,7 +11877,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>0.7273495737935876</t>
+          <t>0.8562976890295143</t>
         </is>
       </c>
     </row>
@@ -11894,7 +11894,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>0.5063660993266962</t>
+          <t>0.5930625607293527</t>
         </is>
       </c>
     </row>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>0.6988187944586057</t>
+          <t>0.7290516460760733</t>
         </is>
       </c>
     </row>
@@ -11928,7 +11928,7 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>0.5071708359846883</t>
+          <t>0.49608996675510947</t>
         </is>
       </c>
     </row>
@@ -11945,7 +11945,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>0.5881108718296884</t>
+          <t>0.5561384747476391</t>
         </is>
       </c>
     </row>
@@ -11962,7 +11962,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>0.4444922922391948</t>
+          <t>0.4376661131372418</t>
         </is>
       </c>
     </row>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>0.5807538371305797</t>
+          <t>0.6388294174113751</t>
         </is>
       </c>
     </row>
@@ -11996,7 +11996,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>0.6326841628929499</t>
+          <t>0.6188104890662769</t>
         </is>
       </c>
     </row>
@@ -12013,7 +12013,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>0.4190270929504037</t>
+          <t>0.3305842326827207</t>
         </is>
       </c>
     </row>
@@ -12030,7 +12030,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>0.5483908655491858</t>
+          <t>0.5827102264428442</t>
         </is>
       </c>
     </row>
@@ -12047,7 +12047,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>0.5366316648266878</t>
+          <t>0.5937219208378038</t>
         </is>
       </c>
     </row>
@@ -12064,7 +12064,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>0.5511550820931268</t>
+          <t>0.5869063704681188</t>
         </is>
       </c>
     </row>
@@ -12081,7 +12081,7 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>0.5055108718194654</t>
+          <t>0.4616849483301997</t>
         </is>
       </c>
     </row>
@@ -12098,7 +12098,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>0.3359425625629221</t>
+          <t>0.3493038911946247</t>
         </is>
       </c>
     </row>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>0.7116109233184235</t>
+          <t>0.5731206149729126</t>
         </is>
       </c>
     </row>
@@ -12132,7 +12132,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>0.552019366093709</t>
+          <t>0.5154523894976998</t>
         </is>
       </c>
     </row>
@@ -12149,7 +12149,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>0.3436442285029989</t>
+          <t>0.2985408344729549</t>
         </is>
       </c>
     </row>
@@ -12166,7 +12166,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.7659975659334801</t>
         </is>
       </c>
     </row>
@@ -12183,7 +12183,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>0.3652618778289934</t>
+          <t>0.32072631894965775</t>
         </is>
       </c>
     </row>
@@ -12200,7 +12200,7 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>0.5320243916869024</t>
+          <t>0.4721706725372219</t>
         </is>
       </c>
     </row>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>0.8714503627181368</t>
+          <t>0.8174811389674482</t>
         </is>
       </c>
     </row>
@@ -12234,7 +12234,7 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8412367762002596</t>
         </is>
       </c>
     </row>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>0.4082692084278821</t>
+          <t>0.35430691520139757</t>
         </is>
       </c>
     </row>
@@ -12268,7 +12268,7 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8412367762002596</t>
         </is>
       </c>
     </row>
@@ -12285,7 +12285,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>0.817734839142674</t>
+          <t>0.8197304953178658</t>
         </is>
       </c>
     </row>
@@ -12302,7 +12302,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>0.525204648105181</t>
+          <t>0.5891062887626148</t>
         </is>
       </c>
     </row>
@@ -12319,7 +12319,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>0.8095434654182938</t>
+          <t>0.8317128366220478</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12336,7 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>0.5497481184328107</t>
+          <t>0.5514646657678854</t>
         </is>
       </c>
     </row>
@@ -12353,7 +12353,7 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>0.6470145887105037</t>
+          <t>0.4854463738219156</t>
         </is>
       </c>
     </row>
@@ -12370,7 +12370,7 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>0.5277330388667048</t>
+          <t>0.4649457271990004</t>
         </is>
       </c>
     </row>
@@ -12387,7 +12387,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>0.7019081561480637</t>
+          <t>0.7471044210626211</t>
         </is>
       </c>
     </row>
@@ -12404,7 +12404,7 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>0.6741306120018397</t>
+          <t>0.6444998494148108</t>
         </is>
       </c>
     </row>
@@ -12421,7 +12421,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>0.39345055369706605</t>
+          <t>0.34586074487170526</t>
         </is>
       </c>
     </row>
@@ -12438,7 +12438,7 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>0.5498978240217546</t>
+          <t>0.6279259245252811</t>
         </is>
       </c>
     </row>
@@ -12455,7 +12455,7 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>0.6109114624259868</t>
+          <t>0.644751787149397</t>
         </is>
       </c>
     </row>
@@ -12472,7 +12472,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>0.6004456355171187</t>
+          <t>0.6835194866860443</t>
         </is>
       </c>
     </row>
@@ -12489,7 +12489,7 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>0.5428479137837365</t>
+          <t>0.48734494627509306</t>
         </is>
       </c>
     </row>
@@ -12506,7 +12506,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>0.3287451430742155</t>
+          <t>0.31388690964622235</t>
         </is>
       </c>
     </row>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>0.484429617863956</t>
+          <t>0.4666303954465001</t>
         </is>
       </c>
     </row>
@@ -12540,7 +12540,7 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>0.5621466209068173</t>
+          <t>0.5249116102430059</t>
         </is>
       </c>
     </row>
@@ -12557,7 +12557,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>0.27127824161302244</t>
+          <t>0.24548668393693537</t>
         </is>
       </c>
     </row>
@@ -12574,7 +12574,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>0.5002783599408707</t>
+          <t>0.4404246407911901</t>
         </is>
       </c>
     </row>
@@ -12591,7 +12591,7 @@
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>0.21119856010004162</t>
+          <t>0.24677168985170525</t>
         </is>
       </c>
     </row>
@@ -12608,7 +12608,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>0.5946479588255668</t>
+          <t>0.5279623067294861</t>
         </is>
       </c>
     </row>
@@ -12642,7 +12642,7 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -12659,7 +12659,7 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>0.699092273711303</t>
+          <t>0.6311952331478198</t>
         </is>
       </c>
     </row>
@@ -12676,7 +12676,7 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>0.5998892071521699</t>
+          <t>0.6733778196813706</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>0.44784557471932773</t>
+          <t>0.46630448074125636</t>
         </is>
       </c>
     </row>
@@ -12710,7 +12710,7 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>0.49177207588498895</t>
+          <t>0.44768410871109493</t>
         </is>
       </c>
     </row>
@@ -12727,7 +12727,7 @@
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>0.5131668748329558</t>
+          <t>0.5678338348998805</t>
         </is>
       </c>
     </row>
@@ -12744,7 +12744,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>0.4353828192990374</t>
+          <t>0.3287138354313423</t>
         </is>
       </c>
     </row>
@@ -12761,7 +12761,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>0.44578885501758625</t>
+          <t>0.4872767055624077</t>
         </is>
       </c>
     </row>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>0.5060883604535684</t>
+          <t>0.5404298550318657</t>
         </is>
       </c>
     </row>
@@ -12795,7 +12795,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>0.47026710937760235</t>
+          <t>0.406572149165678</t>
         </is>
       </c>
     </row>
@@ -12812,7 +12812,7 @@
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>0.49191655770842246</t>
+          <t>0.35842374173994673</t>
         </is>
       </c>
     </row>
@@ -12829,7 +12829,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>0.5133633663215261</t>
+          <t>0.420806467124619</t>
         </is>
       </c>
     </row>
@@ -12846,7 +12846,7 @@
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>0.5487540105642498</t>
+          <t>0.4395807577299877</t>
         </is>
       </c>
     </row>
@@ -12863,7 +12863,7 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>0.5010673191136287</t>
+          <t>0.46665667266754185</t>
         </is>
       </c>
     </row>
@@ -12880,7 +12880,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>0.6225509733003604</t>
+          <t>0.4923859028931846</t>
         </is>
       </c>
     </row>
@@ -12897,7 +12897,7 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>0.36251223440722047</t>
+          <t>0.3447849457051402</t>
         </is>
       </c>
     </row>
@@ -12914,7 +12914,7 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>0.6261563939499927</t>
+          <t>0.6217337524462581</t>
         </is>
       </c>
     </row>
@@ -12931,7 +12931,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>0.5997663863335141</t>
+          <t>0.5545416087514384</t>
         </is>
       </c>
     </row>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>0.24548668393693537</t>
+          <t>0.23989705159363717</t>
         </is>
       </c>
     </row>
@@ -12965,7 +12965,7 @@
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -12982,7 +12982,7 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>0.24441217683631616</t>
+          <t>0.22035598380336646</t>
         </is>
       </c>
     </row>
@@ -12999,7 +12999,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>0.8056959500093788</t>
+          <t>0.7382173318244967</t>
         </is>
       </c>
     </row>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>0.8056959500093788</t>
+          <t>0.7382173318244967</t>
         </is>
       </c>
     </row>
@@ -13050,7 +13050,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>0.7273495737935876</t>
+          <t>0.8562976890295143</t>
         </is>
       </c>
     </row>
@@ -13067,7 +13067,7 @@
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>0.5063660993266962</t>
+          <t>0.5930625607293527</t>
         </is>
       </c>
     </row>
@@ -13084,7 +13084,7 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>0.6988187944586057</t>
+          <t>0.7344461802527668</t>
         </is>
       </c>
     </row>
@@ -13101,7 +13101,7 @@
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>0.5071708359846883</t>
+          <t>0.49608996675510947</t>
         </is>
       </c>
     </row>
@@ -13118,7 +13118,7 @@
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>0.6461853495222436</t>
+          <t>0.6280228062762186</t>
         </is>
       </c>
     </row>
@@ -13135,7 +13135,7 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>0.43250995093501293</t>
+          <t>0.4376661131372418</t>
         </is>
       </c>
     </row>
@@ -13152,7 +13152,7 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>0.5807538371305797</t>
+          <t>0.6388294174113751</t>
         </is>
       </c>
     </row>
@@ -13169,7 +13169,7 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>0.6326841628929499</t>
+          <t>0.6188104890662769</t>
         </is>
       </c>
     </row>
@@ -13186,7 +13186,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>0.4413514374758016</t>
+          <t>0.3305842326827207</t>
         </is>
       </c>
     </row>
@@ -13203,7 +13203,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>0.5483908655491858</t>
+          <t>0.5827102264428442</t>
         </is>
       </c>
     </row>
@@ -13220,7 +13220,7 @@
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>0.5366316648266879</t>
+          <t>0.5937219208378038</t>
         </is>
       </c>
     </row>
@@ -13237,7 +13237,7 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>0.5511550820931268</t>
+          <t>0.5869063704681188</t>
         </is>
       </c>
     </row>
@@ -13254,7 +13254,7 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>0.5199595912367255</t>
+          <t>0.4616849483301997</t>
         </is>
       </c>
     </row>
@@ -13271,7 +13271,7 @@
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>0.30397745242489976</t>
+          <t>0.3218489925936724</t>
         </is>
       </c>
     </row>
@@ -13288,7 +13288,7 @@
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>0.6157086379221312</t>
+          <t>0.5393305707579432</t>
         </is>
       </c>
     </row>
@@ -13305,7 +13305,7 @@
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>0.552019366093709</t>
+          <t>0.5154523894976996</t>
         </is>
       </c>
     </row>
@@ -13322,7 +13322,7 @@
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>0.34364422850299886</t>
+          <t>0.2985408344729549</t>
         </is>
       </c>
     </row>
@@ -13339,7 +13339,7 @@
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -13356,7 +13356,7 @@
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>0.3652618778289933</t>
+          <t>0.2951764701490733</t>
         </is>
       </c>
     </row>
@@ -13373,7 +13373,7 @@
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>0.45085986317538224</t>
+          <t>0.39307909088355614</t>
         </is>
       </c>
     </row>
@@ -13390,7 +13390,7 @@
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>0.9015982354056711</t>
+          <t>0.8412367762002596</t>
         </is>
       </c>
     </row>
@@ -13407,7 +13407,7 @@
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>0.7527107453773279</t>
+          <t>0.7063535603543297</t>
         </is>
       </c>
     </row>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>0.4582840917412809</t>
+          <t>0.5298167826701612</t>
         </is>
       </c>
     </row>
@@ -13441,7 +13441,7 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>0.8141414893052435</t>
+          <t>0.6874396360667677</t>
         </is>
       </c>
     </row>
@@ -13458,7 +13458,7 @@
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>0.5547971015649678</t>
+          <t>0.5872685222320057</t>
         </is>
       </c>
     </row>
@@ -13475,7 +13475,7 @@
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>0.5283148995385651</t>
+          <t>0.4275314233130338</t>
         </is>
       </c>
     </row>
@@ -13492,7 +13492,7 @@
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>0.582027607746627</t>
+          <t>0.5568534911067099</t>
         </is>
       </c>
     </row>
@@ -13509,7 +13509,7 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>0.7089162435418992</t>
+          <t>0.7459986809621644</t>
         </is>
       </c>
     </row>
@@ -13526,7 +13526,7 @@
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>0.6173049500342045</t>
+          <t>0.5658267947134226</t>
         </is>
       </c>
     </row>
@@ -13543,7 +13543,7 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>0.4445534347660251</t>
+          <t>0.3546926798606576</t>
         </is>
       </c>
     </row>
@@ -13560,7 +13560,7 @@
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>0.5705971525482497</t>
+          <t>0.5351381648487634</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>0.7350215115702312</t>
+          <t>0.6494322054076751</t>
         </is>
       </c>
     </row>
@@ -13594,7 +13594,7 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>0.6821032303925342</t>
+          <t>0.6804185558066548</t>
         </is>
       </c>
     </row>
@@ -13611,7 +13611,7 @@
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>0.5801787489488578</t>
+          <t>0.47841100190547087</t>
         </is>
       </c>
     </row>
@@ -13628,7 +13628,7 @@
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>0.35005428337669114</t>
+          <t>0.33081004471742625</t>
         </is>
       </c>
     </row>
@@ -13645,7 +13645,7 @@
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>0.5368569052833821</t>
+          <t>0.4690180511294014</t>
         </is>
       </c>
     </row>
@@ -13662,7 +13662,7 @@
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>0.5833728009265591</t>
+          <t>0.5403737229643103</t>
         </is>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>0.2533756357519133</t>
+          <t>0.2481776934221702</t>
         </is>
       </c>
     </row>
@@ -13696,7 +13696,7 @@
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>0.5629019270795349</t>
+          <t>0.4962162749834543</t>
         </is>
       </c>
     </row>
@@ -13713,7 +13713,7 @@
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>0.24994444892742967</t>
+          <t>0.2750415405810106</t>
         </is>
       </c>
     </row>
@@ -13730,7 +13730,7 @@
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>0.699092273711303</t>
+          <t>0.6311952331478198</t>
         </is>
       </c>
     </row>
@@ -13747,7 +13747,7 @@
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>0.5998892071521699</t>
+          <t>0.6733778196813706</t>
         </is>
       </c>
     </row>
@@ -13764,7 +13764,7 @@
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>0.44784557471932773</t>
+          <t>0.46630448074125636</t>
         </is>
       </c>
     </row>
@@ -13781,7 +13781,7 @@
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>0.49177207588498895</t>
+          <t>0.44768410871109493</t>
         </is>
       </c>
     </row>
@@ -13798,7 +13798,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>0.5131668748329558</t>
+          <t>0.5678338348998805</t>
         </is>
       </c>
     </row>
@@ -13815,7 +13815,7 @@
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>0.4353828192990374</t>
+          <t>0.3287138354313423</t>
         </is>
       </c>
     </row>
@@ -13832,7 +13832,7 @@
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>0.44578885501758625</t>
+          <t>0.4872767055624077</t>
         </is>
       </c>
     </row>
@@ -13849,7 +13849,7 @@
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>0.5060883604535684</t>
+          <t>0.5404298550318657</t>
         </is>
       </c>
     </row>
@@ -13866,7 +13866,7 @@
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>0.47026710937760235</t>
+          <t>0.406572149165678</t>
         </is>
       </c>
     </row>
@@ -13883,7 +13883,7 @@
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>0.49191655770842246</t>
+          <t>0.35842374173994673</t>
         </is>
       </c>
     </row>
@@ -13900,7 +13900,7 @@
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>0.5133633663215261</t>
+          <t>0.420806467124619</t>
         </is>
       </c>
     </row>
@@ -13917,7 +13917,7 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>0.5487540105642498</t>
+          <t>0.4395807577299877</t>
         </is>
       </c>
     </row>
@@ -13934,7 +13934,7 @@
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>0.5010673191136287</t>
+          <t>0.46665667266754185</t>
         </is>
       </c>
     </row>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>0.6041184781729552</t>
+          <t>0.4923859028931846</t>
         </is>
       </c>
     </row>
@@ -13968,7 +13968,7 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>0.36251223440722047</t>
+          <t>0.3447849457051402</t>
         </is>
       </c>
     </row>
@@ -13985,7 +13985,7 @@
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>0.5699480893391555</t>
+          <t>0.530578909650542</t>
         </is>
       </c>
     </row>
@@ -14002,7 +14002,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>0.5997663863335141</t>
+          <t>0.5545416087514384</t>
         </is>
       </c>
     </row>
@@ -14019,7 +14019,7 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>0.24548668393693537</t>
+          <t>0.23989705159363717</t>
         </is>
       </c>
     </row>
@@ -14036,7 +14036,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.8175072881213616</t>
         </is>
       </c>
     </row>
@@ -14053,7 +14053,7 @@
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>0.24441217683631616</t>
+          <t>0.22035598380336646</t>
         </is>
       </c>
     </row>
@@ -14070,7 +14070,7 @@
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>0.7527107453773279</t>
+          <t>0.7063535603543297</t>
         </is>
       </c>
     </row>
@@ -14087,7 +14087,7 @@
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>0.4582840917412809</t>
+          <t>0.5298167826701612</t>
         </is>
       </c>
     </row>
@@ -14104,7 +14104,7 @@
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>0.8141414893052435</t>
+          <t>0.6874396360667677</t>
         </is>
       </c>
     </row>
@@ -14121,7 +14121,7 @@
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>0.5547971015649678</t>
+          <t>0.5872685222320057</t>
         </is>
       </c>
     </row>
@@ -14138,7 +14138,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>0.5283148995385651</t>
+          <t>0.4607665863757019</t>
         </is>
       </c>
     </row>
@@ -14155,7 +14155,7 @@
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>0.582027607746627</t>
+          <t>0.5568534911067099</t>
         </is>
       </c>
     </row>
@@ -14172,7 +14172,7 @@
       </c>
       <c r="C808" t="inlineStr">
         <is>
-          <t>0.7089162435418992</t>
+          <t>0.7459986809621644</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>0.6173049500342045</t>
+          <t>0.5658267947134226</t>
         </is>
       </c>
     </row>
@@ -14206,7 +14206,7 @@
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>0.4445534347660251</t>
+          <t>0.3546926798606576</t>
         </is>
       </c>
     </row>
@@ -14223,7 +14223,7 @@
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>0.5705971525482497</t>
+          <t>0.5351381648487634</t>
         </is>
       </c>
     </row>
@@ -14240,7 +14240,7 @@
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>0.7350215115702312</t>
+          <t>0.6494322054076751</t>
         </is>
       </c>
     </row>
@@ -14257,7 +14257,7 @@
       </c>
       <c r="C813" t="inlineStr">
         <is>
-          <t>0.6821032303925342</t>
+          <t>0.6804185558066548</t>
         </is>
       </c>
     </row>
@@ -14274,7 +14274,7 @@
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>0.5801787489488578</t>
+          <t>0.47841100190547087</t>
         </is>
       </c>
     </row>
@@ -14291,7 +14291,7 @@
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>0.35005428337669114</t>
+          <t>0.33081004471742625</t>
         </is>
       </c>
     </row>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>0.7092898346710996</t>
+          <t>0.6251508347313245</t>
         </is>
       </c>
     </row>
@@ -14325,7 +14325,7 @@
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>0.5833728009265591</t>
+          <t>0.5403737229643103</t>
         </is>
       </c>
     </row>
@@ -14342,7 +14342,7 @@
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>0.2845206727574669</t>
+          <t>0.2578035345308586</t>
         </is>
       </c>
     </row>
@@ -14359,7 +14359,7 @@
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>0.699092273711303</t>
+          <t>0.6311952331478198</t>
         </is>
       </c>
     </row>
@@ -14376,7 +14376,7 @@
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>0.3442671400223501</t>
+          <t>0.29562772805569887</t>
         </is>
       </c>
     </row>
@@ -14393,7 +14393,7 @@
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>0.7035511600721477</t>
+          <t>0.7656136834339384</t>
         </is>
       </c>
     </row>
@@ -14427,7 +14427,7 @@
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>0.8728341199762156</t>
+          <t>0.7897544115288491</t>
         </is>
       </c>
     </row>
@@ -14444,7 +14444,7 @@
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>0.6148712363209827</t>
+          <t>0.5719207344480417</t>
         </is>
       </c>
     </row>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>0.7792595439685595</t>
+          <t>0.7764870119178279</t>
         </is>
       </c>
     </row>
@@ -14478,7 +14478,7 @@
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>0.7881625505131378</t>
+          <t>0.8421737325589584</t>
         </is>
       </c>
     </row>
@@ -14495,7 +14495,7 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>0.772252981554741</t>
+          <t>0.8327309447226083</t>
         </is>
       </c>
     </row>
@@ -14512,7 +14512,7 @@
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>0.48629481408195346</t>
+          <t>0.41043392847220883</t>
         </is>
       </c>
     </row>
@@ -14529,7 +14529,7 @@
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>0.6565103601651208</t>
+          <t>0.7594610554513269</t>
         </is>
       </c>
     </row>
@@ -14546,7 +14546,7 @@
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>0.7792595439685595</t>
+          <t>0.8327309447226083</t>
         </is>
       </c>
     </row>
@@ -14563,7 +14563,7 @@
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>0.7792595439685595</t>
+          <t>0.8728341199762158</t>
         </is>
       </c>
     </row>
@@ -14580,7 +14580,7 @@
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>0.7642039498928617</t>
+          <t>0.5344796582710443</t>
         </is>
       </c>
     </row>
@@ -14597,7 +14597,7 @@
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>0.5943956676240301</t>
+          <t>0.5430911203730543</t>
         </is>
       </c>
     </row>
@@ -14614,7 +14614,7 @@
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>0.7138672085502374</t>
+          <t>0.4725842730944526</t>
         </is>
       </c>
     </row>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>0.6667213520416455</t>
+          <t>0.5430911203730543</t>
         </is>
       </c>
     </row>
@@ -14648,7 +14648,7 @@
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>0.3473887699575347</t>
+          <t>0.30386268204781525</t>
         </is>
       </c>
     </row>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>0.5998892071521699</t>
+          <t>0.6733778196813706</t>
         </is>
       </c>
     </row>
@@ -14682,7 +14682,7 @@
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>0.3810926944988946</t>
+          <t>0.43356138178785364</t>
         </is>
       </c>
     </row>
@@ -14699,7 +14699,7 @@
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t>0.9156850719552424</t>
+          <t>0.9227586759718769</t>
         </is>
       </c>
     </row>
@@ -14716,7 +14716,7 @@
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>0.5814703136567769</t>
+          <t>0.8466200810174342</t>
         </is>
       </c>
     </row>
@@ -14733,7 +14733,7 @@
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>0.36277596329720146</t>
+          <t>0.3643757305966676</t>
         </is>
       </c>
     </row>
@@ -14750,7 +14750,7 @@
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>0.7372038858376462</t>
+          <t>0.8852264858671106</t>
         </is>
       </c>
     </row>
@@ -14767,7 +14767,7 @@
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>0.7473916042214731</t>
+          <t>0.9173221743734817</t>
         </is>
       </c>
     </row>
@@ -14784,7 +14784,7 @@
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>0.8116993396258765</t>
+          <t>0.8509307569319995</t>
         </is>
       </c>
     </row>
@@ -14801,7 +14801,7 @@
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>0.6858154656525228</t>
+          <t>0.7121113907714658</t>
         </is>
       </c>
     </row>
@@ -14818,7 +14818,7 @@
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>0.8152975655059423</t>
+          <t>0.7927460781224013</t>
         </is>
       </c>
     </row>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="C847" t="inlineStr">
         <is>
-          <t>0.8903484540676481</t>
+          <t>0.8582359526977396</t>
         </is>
       </c>
     </row>
@@ -14852,7 +14852,7 @@
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>0.9483085247724613</t>
+          <t>0.8686331278097014</t>
         </is>
       </c>
     </row>
@@ -14869,7 +14869,7 @@
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>0.3825860929196665</t>
+          <t>0.3796110150409093</t>
         </is>
       </c>
     </row>
@@ -14886,7 +14886,7 @@
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>0.39308015547315306</t>
+          <t>0.3622382311025777</t>
         </is>
       </c>
     </row>
@@ -14903,7 +14903,7 @@
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>0.4174525357228982</t>
+          <t>0.37284906892312947</t>
         </is>
       </c>
     </row>
@@ -14920,7 +14920,7 @@
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>0.35630988593765284</t>
+          <t>0.3622382311025777</t>
         </is>
       </c>
     </row>
@@ -14937,7 +14937,7 @@
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>0.3477783984578286</t>
+          <t>0.3410893578855814</t>
         </is>
       </c>
     </row>
@@ -14954,7 +14954,7 @@
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>0.44784557471932773</t>
+          <t>0.46630448074125636</t>
         </is>
       </c>
     </row>
@@ -14971,7 +14971,7 @@
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>0.4183011129200479</t>
+          <t>0.4424633717956969</t>
         </is>
       </c>
     </row>
@@ -15005,7 +15005,7 @@
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>0.5503073333297466</t>
+          <t>0.6198544191595348</t>
         </is>
       </c>
     </row>
@@ -15022,7 +15022,7 @@
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>0.9425223664137268</t>
+          <t>0.8903484540676482</t>
         </is>
       </c>
     </row>
@@ -15039,7 +15039,7 @@
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9253745019461711</t>
         </is>
       </c>
     </row>
@@ -15056,7 +15056,7 @@
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>0.9156850719552424</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -15073,7 +15073,7 @@
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>0.6415123997208447</t>
+          <t>0.49263079881062743</t>
         </is>
       </c>
     </row>
@@ -15090,7 +15090,7 @@
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>0.9045801517222475</t>
+          <t>0.8720092226615501</t>
         </is>
       </c>
     </row>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>0.5715432459888516</t>
+          <t>0.3860942359814779</t>
         </is>
       </c>
     </row>
@@ -15158,7 +15158,7 @@
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>0.5694956703583551</t>
+          <t>0.37817326609283186</t>
         </is>
       </c>
     </row>
@@ -15175,7 +15175,7 @@
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>0.6154587809277017</t>
+          <t>0.45128159172756055</t>
         </is>
       </c>
     </row>
@@ -15192,7 +15192,7 @@
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>0.5620042913571779</t>
+          <t>0.37817326609283186</t>
         </is>
       </c>
     </row>
@@ -15209,7 +15209,7 @@
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>0.42770828137352684</t>
+          <t>0.3867603476210346</t>
         </is>
       </c>
     </row>
@@ -15226,7 +15226,7 @@
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>0.49177207588498895</t>
+          <t>0.44768410871109493</t>
         </is>
       </c>
     </row>
@@ -15243,7 +15243,7 @@
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>0.4219880495235412</t>
+          <t>0.3392364391846777</t>
         </is>
       </c>
     </row>
@@ -15260,7 +15260,7 @@
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>0.40605371407846375</t>
+          <t>0.36750744410187997</t>
         </is>
       </c>
     </row>
@@ -15277,7 +15277,7 @@
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>0.7495514109030879</t>
+          <t>0.7281502424187285</t>
         </is>
       </c>
     </row>
@@ -15294,7 +15294,7 @@
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>0.817487004083267</t>
+          <t>0.8848164612803978</t>
         </is>
       </c>
     </row>
@@ -15311,7 +15311,7 @@
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>0.7521906577609695</t>
+          <t>0.8169512066599742</t>
         </is>
       </c>
     </row>
@@ -15328,7 +15328,7 @@
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>0.4026207845221839</t>
+          <t>0.4148187944275889</t>
         </is>
       </c>
     </row>
@@ -15345,7 +15345,7 @@
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>0.7703691820105993</t>
+          <t>0.6688041416458984</t>
         </is>
       </c>
     </row>
@@ -15362,7 +15362,7 @@
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>0.7495514109030879</t>
+          <t>0.7377457291933804</t>
         </is>
       </c>
     </row>
@@ -15379,7 +15379,7 @@
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>0.7495514109030879</t>
+          <t>0.7327443905133892</t>
         </is>
       </c>
     </row>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>0.5105544535606018</t>
+          <t>0.48015903371706237</t>
         </is>
       </c>
     </row>
@@ -15413,7 +15413,7 @@
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>0.4019188506971638</t>
+          <t>0.38825847231624866</t>
         </is>
       </c>
     </row>
@@ -15430,7 +15430,7 @@
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>0.5487083623079247</t>
+          <t>0.46763179144512707</t>
         </is>
       </c>
     </row>
@@ -15447,7 +15447,7 @@
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>0.47636259571133543</t>
+          <t>0.38825847231624866</t>
         </is>
       </c>
     </row>
@@ -15464,7 +15464,7 @@
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>0.3494303868617336</t>
+          <t>0.29163161084389155</t>
         </is>
       </c>
     </row>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>0.5131668748329558</t>
+          <t>0.5678338348998805</t>
         </is>
       </c>
     </row>
@@ -15498,7 +15498,7 @@
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>0.2665360567681437</t>
+          <t>0.4114389021056236</t>
         </is>
       </c>
     </row>
@@ -15515,7 +15515,7 @@
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>0.35228945072651</t>
+          <t>0.343843874269598</t>
         </is>
       </c>
     </row>
@@ -15532,7 +15532,7 @@
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>0.6640493282686909</t>
+          <t>0.6566890677277568</t>
         </is>
       </c>
     </row>
@@ -15549,7 +15549,7 @@
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>0.6323032965226588</t>
+          <t>0.6640493282686902</t>
         </is>
       </c>
     </row>
@@ -15566,7 +15566,7 @@
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>0.38269285380192286</t>
+          <t>0.2515373868284353</t>
         </is>
       </c>
     </row>
@@ -15583,7 +15583,7 @@
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>0.40311100702533</t>
+          <t>0.4227934965233137</t>
         </is>
       </c>
     </row>
@@ -15600,7 +15600,7 @@
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>0.34930389119462474</t>
+          <t>0.41683614865664975</t>
         </is>
       </c>
     </row>
@@ -15617,7 +15617,7 @@
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>0.42337657555433356</t>
+          <t>0.41683614865664975</t>
         </is>
       </c>
     </row>
@@ -15634,7 +15634,7 @@
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>0.36803068593488697</t>
+          <t>0.4177551663458443</t>
         </is>
       </c>
     </row>
@@ -15651,7 +15651,7 @@
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>0.37153660458225557</t>
+          <t>0.30628210806415096</t>
         </is>
       </c>
     </row>
@@ -15668,7 +15668,7 @@
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>0.3996024176010812</t>
+          <t>0.34180722018569537</t>
         </is>
       </c>
     </row>
@@ -15685,7 +15685,7 @@
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>0.3622175120720811</t>
+          <t>0.5534799700168623</t>
         </is>
       </c>
     </row>
@@ -15702,7 +15702,7 @@
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>0.27416960669424245</t>
+          <t>0.36598018995630693</t>
         </is>
       </c>
     </row>
@@ -15719,7 +15719,7 @@
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>0.4353828192990374</t>
+          <t>0.3287138354313423</t>
         </is>
       </c>
     </row>
@@ -15736,7 +15736,7 @@
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>0.5004537921507615</t>
+          <t>0.3736311549166649</t>
         </is>
       </c>
     </row>
@@ -15753,7 +15753,7 @@
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9165624930264294</t>
         </is>
       </c>
     </row>
@@ -15787,7 +15787,7 @@
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>0.8014678364619716</t>
+          <t>0.6680445579677966</t>
         </is>
       </c>
     </row>
@@ -15804,7 +15804,7 @@
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>0.934076827117862</t>
+          <t>0.9141572776607838</t>
         </is>
       </c>
     </row>
@@ -15855,7 +15855,7 @@
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>0.522809933503755</t>
+          <t>0.364496564362514</t>
         </is>
       </c>
     </row>
@@ -15872,7 +15872,7 @@
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>0.3522840139799054</t>
+          <t>0.40752952180973145</t>
         </is>
       </c>
     </row>
@@ -15889,7 +15889,7 @@
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>0.5483399343392193</t>
+          <t>0.43353279472459294</t>
         </is>
       </c>
     </row>
@@ -15906,7 +15906,7 @@
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>0.47372358991636565</t>
+          <t>0.40752952180973145</t>
         </is>
       </c>
     </row>
@@ -15923,7 +15923,7 @@
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>0.4471742512810563</t>
+          <t>0.504269158588869</t>
         </is>
       </c>
     </row>
@@ -15940,7 +15940,7 @@
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>0.44578885501758625</t>
+          <t>0.4872767055624077</t>
         </is>
       </c>
     </row>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>0.4997466087455868</t>
+          <t>0.4814640049052831</t>
         </is>
       </c>
     </row>
@@ -15991,7 +15991,7 @@
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>0.698978029656733</t>
+          <t>0.5601178715086944</t>
         </is>
       </c>
     </row>
@@ -16008,7 +16008,7 @@
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>0.9340768271178619</t>
+          <t>0.9077531044110295</t>
         </is>
       </c>
     </row>
@@ -16059,7 +16059,7 @@
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>0.47017739160776706</t>
+          <t>0.40496968640072506</t>
         </is>
       </c>
     </row>
@@ -16076,7 +16076,7 @@
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>0.4277718980060125</t>
+          <t>0.3683133007161098</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>0.7029155270281294</t>
+          <t>0.5956138427945634</t>
         </is>
       </c>
     </row>
@@ -16110,7 +16110,7 @@
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>0.47372358991636565</t>
+          <t>0.3971971715288736</t>
         </is>
       </c>
     </row>
@@ -16127,7 +16127,7 @@
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>0.29114716854259876</t>
+          <t>0.3367376801321767</t>
         </is>
       </c>
     </row>
@@ -16144,7 +16144,7 @@
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>0.5060883604535684</t>
+          <t>0.5404298550318657</t>
         </is>
       </c>
     </row>
@@ -16161,7 +16161,7 @@
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>0.3872805148151406</t>
+          <t>0.331353511650311</t>
         </is>
       </c>
     </row>
@@ -16178,7 +16178,7 @@
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>0.6430516235991681</t>
+          <t>0.6594788912204356</t>
         </is>
       </c>
     </row>
@@ -16195,7 +16195,7 @@
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>0.9190854481162105</t>
+          <t>0.9998182469603427</t>
         </is>
       </c>
     </row>
@@ -16246,7 +16246,7 @@
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>0.39178274164832066</t>
+          <t>0.5423954562772508</t>
         </is>
       </c>
     </row>
@@ -16263,7 +16263,7 @@
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>0.3062821080641511</t>
+          <t>0.44872529248665166</t>
         </is>
       </c>
     </row>
@@ -16280,7 +16280,7 @@
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>0.4929324319859154</t>
+          <t>0.38277724378301</t>
         </is>
       </c>
     </row>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>0.3845113849863816</t>
+          <t>0.44872529248665166</t>
         </is>
       </c>
     </row>
@@ -16314,7 +16314,7 @@
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>0.2981611106030612</t>
+          <t>0.3609702005210634</t>
         </is>
       </c>
     </row>
@@ -16331,7 +16331,7 @@
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>0.47026710937760235</t>
+          <t>0.406572149165678</t>
         </is>
       </c>
     </row>
@@ -16348,7 +16348,7 @@
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>0.41457713114803335</t>
+          <t>0.31402602311017846</t>
         </is>
       </c>
     </row>
@@ -16365,7 +16365,7 @@
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>0.6293585323087786</t>
+          <t>0.6359101833105781</t>
         </is>
       </c>
     </row>
@@ -16382,7 +16382,7 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>0.6915799630064797</t>
+          <t>0.7200433583156785</t>
         </is>
       </c>
     </row>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>0.7306508931782006</t>
+          <t>0.7433552279576409</t>
         </is>
       </c>
     </row>
@@ -16416,7 +16416,7 @@
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>0.45789407293545287</t>
+          <t>0.4221007870037096</t>
         </is>
       </c>
     </row>
@@ -16433,7 +16433,7 @@
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>0.36879821436859317</t>
+          <t>0.33627259675643945</t>
         </is>
       </c>
     </row>
@@ -16450,7 +16450,7 @@
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>0.40733046544895657</t>
+          <t>0.4161327230303815</t>
         </is>
       </c>
     </row>
@@ -16467,7 +16467,7 @@
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>0.40418981905339163</t>
+          <t>0.33627259675643945</t>
         </is>
       </c>
     </row>
@@ -16484,7 +16484,7 @@
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>0.3765001858869249</t>
+          <t>0.5176179413346554</t>
         </is>
       </c>
     </row>
@@ -16501,7 +16501,7 @@
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>0.49191655770842246</t>
+          <t>0.35842374173994673</t>
         </is>
       </c>
     </row>
@@ -16518,7 +16518,7 @@
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>0.6268176385167491</t>
+          <t>0.5779893862871156</t>
         </is>
       </c>
     </row>
@@ -16569,7 +16569,7 @@
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>0.39856457674055584</t>
+          <t>0.47113494776484405</t>
         </is>
       </c>
     </row>
@@ -16586,7 +16586,7 @@
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>0.2796482526266743</t>
+          <t>0.4097279398368835</t>
         </is>
       </c>
     </row>
@@ -16603,7 +16603,7 @@
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>0.4774785046410294</t>
+          <t>0.40791706799688165</t>
         </is>
       </c>
     </row>
@@ -16620,7 +16620,7 @@
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>0.339233585793611</t>
+          <t>0.4097279398368835</t>
         </is>
       </c>
     </row>
@@ -16637,7 +16637,7 @@
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>0.31571105829482743</t>
+          <t>0.319070152002913</t>
         </is>
       </c>
     </row>
@@ -16654,7 +16654,7 @@
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>0.5133633663215261</t>
+          <t>0.420806467124619</t>
         </is>
       </c>
     </row>
@@ -16671,7 +16671,7 @@
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>0.4905915442169744</t>
+          <t>0.3973350905109201</t>
         </is>
       </c>
     </row>
@@ -16705,7 +16705,7 @@
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>0.49886223957897563</t>
+          <t>0.3396871654766036</t>
         </is>
       </c>
     </row>
@@ -16722,7 +16722,7 @@
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>0.2660694999205808</t>
+          <t>0.26057802979495315</t>
         </is>
       </c>
     </row>
@@ -16739,7 +16739,7 @@
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>0.5126525674649292</t>
+          <t>0.3932753457555694</t>
         </is>
       </c>
     </row>
@@ -16756,7 +16756,7 @@
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>0.39625281978992544</t>
+          <t>0.34596885390418475</t>
         </is>
       </c>
     </row>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>0.31403152086999003</t>
+          <t>0.3280869839909</t>
         </is>
       </c>
     </row>
@@ -16790,7 +16790,7 @@
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>0.5487540105642498</t>
+          <t>0.4395807577299877</t>
         </is>
       </c>
     </row>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>0.5450687162046315</t>
+          <t>0.3957330564485795</t>
         </is>
       </c>
     </row>
@@ -16824,7 +16824,7 @@
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>0.41688894173905355</t>
+          <t>0.3396871654766036</t>
         </is>
       </c>
     </row>
@@ -16841,7 +16841,7 @@
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>0.2660694999205808</t>
+          <t>0.3661388824304299</t>
         </is>
       </c>
     </row>
@@ -16858,7 +16858,7 @@
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>0.5317930024070758</t>
+          <t>0.46881691137142933</t>
         </is>
       </c>
     </row>
@@ -16875,7 +16875,7 @@
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>0.3845113849863816</t>
+          <t>0.3661388824304299</t>
         </is>
       </c>
     </row>
@@ -16892,7 +16892,7 @@
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>0.36370050938568116</t>
+          <t>0.3737389652715958</t>
         </is>
       </c>
     </row>
@@ -16909,7 +16909,7 @@
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>0.5010673191136287</t>
+          <t>0.46665667266754185</t>
         </is>
       </c>
     </row>
@@ -16926,7 +16926,7 @@
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>0.6098517876332177</t>
+          <t>0.49553440787291136</t>
         </is>
       </c>
     </row>
@@ -16943,7 +16943,7 @@
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>0.8165219710173579</t>
+          <t>0.6892464284007229</t>
         </is>
       </c>
     </row>
@@ -16960,7 +16960,7 @@
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>0.7148881462351875</t>
+          <t>0.5165315119245918</t>
         </is>
       </c>
     </row>
@@ -16977,7 +16977,7 @@
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>0.9983636725938129</t>
+          <t>0.9517232097955572</t>
         </is>
       </c>
     </row>
@@ -16994,7 +16994,7 @@
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>0.18646802038688798</t>
+          <t>0.26716514219784054</t>
         </is>
       </c>
     </row>
@@ -17011,7 +17011,7 @@
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>0.6041184781729552</t>
+          <t>0.4923859028931846</t>
         </is>
       </c>
     </row>
@@ -17028,7 +17028,7 @@
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>0.2900351930497636</t>
+          <t>0.25098062191524234</t>
         </is>
       </c>
     </row>
@@ -17045,7 +17045,7 @@
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>0.48289161707715866</t>
+          <t>0.3870045758471272</t>
         </is>
       </c>
     </row>
@@ -17079,7 +17079,7 @@
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>0.42603399094958966</t>
+          <t>0.4204169163763543</t>
         </is>
       </c>
     </row>
@@ -17096,7 +17096,7 @@
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>0.36251223440722047</t>
+          <t>0.3447849457051402</t>
         </is>
       </c>
     </row>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>0.3483827919937081</t>
+          <t>0.27843347398690654</t>
         </is>
       </c>
     </row>
@@ -17130,7 +17130,7 @@
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.6709541167607033</t>
         </is>
       </c>
     </row>
@@ -17147,7 +17147,7 @@
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>0.20894377738414507</t>
+          <t>0.1956854321292014</t>
         </is>
       </c>
     </row>
@@ -17164,7 +17164,7 @@
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>0.663963071979175</t>
+          <t>0.5918775127888565</t>
         </is>
       </c>
     </row>
@@ -17181,7 +17181,7 @@
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>0.2644358860625594</t>
+          <t>0.24949849531507615</t>
         </is>
       </c>
     </row>
@@ -17198,7 +17198,7 @@
       </c>
       <c r="C986" t="inlineStr">
         <is>
-          <t>0.4416525341971574</t>
+          <t>0.4644632937248564</t>
         </is>
       </c>
     </row>
@@ -17215,7 +17215,7 @@
       </c>
       <c r="C987" t="inlineStr">
         <is>
-          <t>0.5997663863335141</t>
+          <t>0.5545416087514384</t>
         </is>
       </c>
     </row>
@@ -17232,7 +17232,7 @@
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>0.346280788629154</t>
+          <t>0.26396504126716824</t>
         </is>
       </c>
     </row>
@@ -17249,7 +17249,7 @@
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>0.2578035345308588</t>
+          <t>0.23989705159363717</t>
         </is>
       </c>
     </row>
@@ -17266,7 +17266,7 @@
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>0.22564652359495185</t>
+          <t>0.2666776004850358</t>
         </is>
       </c>
     </row>
@@ -17283,11 +17283,11 @@
       </c>
       <c r="C991" t="inlineStr">
         <is>
-          <t>0.3067214013209377</t>
+          <t>0.26846441620164263</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/correlation-values.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/correlation-values.xlsx
@@ -470,7 +470,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.7837347627229889</t>
+          <t>0.6735950135899843</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.49454187459533727</t>
+          <t>0.40748224413513284</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9983636725938129</t>
+          <t>0.8979052088716982</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.24875154804848737</t>
+          <t>0.16075433078195278</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.28061573126436873</t>
+          <t>0.22452374737498473</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.29933930777943907</t>
+          <t>0.3053083359360894</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.28061573126436873</t>
+          <t>0.22452374737498473</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.5964037105045181</t>
+          <t>0.49120517172728745</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.33022668966265006</t>
+          <t>0.30472644818738304</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.28061573126436873</t>
+          <t>0.22452374737498473</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.3783068001070032</t>
+          <t>0.2990751759868304</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.3893837628616456</t>
+          <t>0.22778554752356875</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.28061573126436873</t>
+          <t>0.22452374737498473</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.60828650810337</t>
+          <t>0.5692008500310732</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.4341809043647049</t>
+          <t>0.30732717255576975</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.4341809043647049</t>
+          <t>0.30732717255576975</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.4927132125756856</t>
+          <t>0.3996181007580702</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.4341809043647049</t>
+          <t>0.3333780366080064</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.4698048790553762</t>
+          <t>0.28451032136408055</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.4927132125756856</t>
+          <t>0.3996181007580702</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.4341809043647049</t>
+          <t>0.3274338345374948</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.4698048790553762</t>
+          <t>0.28451032136408055</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.42102403166091834</t>
+          <t>0.3996181007580702</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.4341809043647049</t>
+          <t>0.30732717255576975</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.42102403166091834</t>
+          <t>0.3996181007580702</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.5833772278175468</t>
+          <t>0.439740399700009</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.4077232968291963</t>
+          <t>0.2531621613701341</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.3724593937973763</t>
+          <t>0.3050506657364417</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.4767064184500158</t>
+          <t>0.3687467714269824</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.3493038911946247</t>
+          <t>0.2005361307133481</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.37585419340642046</t>
+          <t>0.28530108550893574</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.4253414987385144</t>
+          <t>0.33255070903135103</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.5800768080279897</t>
+          <t>0.3783843205593828</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.3990727128204651</t>
+          <t>0.274020840657258</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.46335010909276464</t>
+          <t>0.30472644818738287</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.33658393614582405</t>
+          <t>0.3735156001470874</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.3244140516663769</t>
+          <t>0.3280191523745337</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.9954515828457711</t>
+          <t>0.8661464015062368</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.6356147033646652</t>
+          <t>0.5673397964904265</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.49454187459533727</t>
+          <t>0.40748224413513284</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.8594420451309569</t>
+          <t>0.7592608055723085</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.24875154804848737</t>
+          <t>0.16075433078195278</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.4341809043647049</t>
+          <t>0.3099573429647827</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.3236485261118734</t>
+          <t>0.40119235196188074</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.4038083286957725</t>
+          <t>0.3032035229196784</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.4571072741159896</t>
+          <t>0.432080110021307</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.43797140072868285</t>
+          <t>0.4801965346526023</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.4774941823540069</t>
+          <t>0.3072885061396181</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.43797140072868285</t>
+          <t>0.4801965346526023</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.5260196505988888</t>
+          <t>0.4064340887023951</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.4993322148170272</t>
+          <t>0.43183689193317665</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.43797140072868285</t>
+          <t>0.4801965346526023</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.4299714681162115</t>
+          <t>0.4127305147238345</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.4745091203874024</t>
+          <t>0.6947485556392539</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.43797140072868285</t>
+          <t>0.4801965346526023</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.6555449163506603</t>
+          <t>0.7229620841769608</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.40924237215617</t>
+          <t>0.28727233480982245</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.40924237215617</t>
+          <t>0.28727233480982245</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.37100841315542876</t>
+          <t>0.2941178385196553</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.40924237215617</t>
+          <t>0.28727233480982245</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.36277596329720135</t>
+          <t>0.22999841411405114</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0.37100841315542876</t>
+          <t>0.2941178385196551</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.40924237215617</t>
+          <t>0.28727233480982245</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.35379709516089924</t>
+          <t>0.2299984141140513</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0.42596226663643627</t>
+          <t>0.2941178385196553</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.40924237215617</t>
+          <t>0.28727233480982245</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.42596226663643627</t>
+          <t>0.2941178385196553</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.7894632956214763</t>
+          <t>0.6140806820148603</t>
         </is>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.5195814918476986</t>
+          <t>0.2514245548265906</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.506155699806296</t>
+          <t>0.353965108188891</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.7070303572294226</t>
+          <t>0.4477712116396563</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.33838740051918387</t>
+          <t>0.3112781244591322</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.5068925511933657</t>
+          <t>0.38803324756449237</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0.36971464739794707</t>
+          <t>0.4116155964952707</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0.3653990922479821</t>
+          <t>0.2291110565855741</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0.3160936969142221</t>
+          <t>0.24078298382938784</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0.42743848007153595</t>
+          <t>0.28351509568128574</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0.33723433029070476</t>
+          <t>0.24077306293102407</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0.35964080329163384</t>
+          <t>0.25647232217752025</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0.8465640928174281</t>
+          <t>0.6735950135899843</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0.4038083286957725</t>
+          <t>0.3032035229196784</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0.4571072741159896</t>
+          <t>0.432080110021307</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0.40924237215617</t>
+          <t>0.28727233480982245</t>
         </is>
       </c>
     </row>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0.36119794803929844</t>
+          <t>0.32207233200031843</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.506880914847165</t>
+          <t>0.32005115559988073</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0.1956854321292013</t>
+          <t>0.20522322604229803</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0.12287174751921559</t>
+          <t>0.15127235498754332</t>
         </is>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0.2547856456762907</t>
+          <t>0.2922560340180931</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0.12287174751921559</t>
+          <t>0.15127235498754357</t>
         </is>
       </c>
     </row>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0.33814304349616814</t>
+          <t>0.31868121974217956</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0.24576279319461966</t>
+          <t>0.2796652621415975</t>
         </is>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0.12287174751921559</t>
+          <t>0.1512723549875435</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0.2472068511711864</t>
+          <t>0.32183546849969197</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0.19051896085701328</t>
+          <t>0.10248951753406683</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0.12287174751921559</t>
+          <t>0.13521132930619342</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0.19051896085701328</t>
+          <t>0.12977046792461022</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.6236235445348882</t>
+          <t>0.563683641537806</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0.6236235445348882</t>
+          <t>0.563683641537806</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>0.46663039544649976</t>
+          <t>0.5618750198565974</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>0.621733752446258</t>
+          <t>0.6243364699566732</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>0.5731206149729126</t>
+          <t>0.5452822458230049</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0.4666303954465001</t>
+          <t>0.5618750198565974</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>0.6217337524462581</t>
+          <t>0.6243364699566732</t>
         </is>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>0.5393305707579432</t>
+          <t>0.4282185044318852</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>0.4690180511294014</t>
+          <t>0.5618750198565974</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>0.530578909650542</t>
+          <t>0.4678265747984784</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>0.6251508347313245</t>
+          <t>0.5618750198565974</t>
         </is>
       </c>
     </row>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>0.4725842730944526</t>
+          <t>0.40748224413513284</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>0.37284906892312947</t>
+          <t>0.2870641029113866</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0.45128159172756055</t>
+          <t>0.44222078981445156</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>0.46763179144512707</t>
+          <t>0.44222078981445156</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>0.34180722018569537</t>
+          <t>0.22978416277560412</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>0.43353279472459294</t>
+          <t>0.34227174716095954</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0.5956138427945634</t>
+          <t>0.43348654967255024</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>0.38277724378301</t>
+          <t>0.3587742893400222</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>0.4161327230303815</t>
+          <t>0.30031950966512777</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>0.40791706799688165</t>
+          <t>0.34227174716095954</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>0.3932753457555694</t>
+          <t>0.37591162771990805</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>0.46881691137142933</t>
+          <t>0.34889752021609904</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>0.5165315119245918</t>
+          <t>0.4632310420376499</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>0.3870045758471272</t>
+          <t>0.28872818608180517</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>0.7344461802527668</t>
+          <t>0.7732266742876339</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>0.6709541167607033</t>
+          <t>0.6702874694471609</t>
         </is>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>0.1956854321292014</t>
+          <t>0.20522322604229803</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>0.5918775127888565</t>
+          <t>0.48087229361921047</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>0.24949849531507615</t>
+          <t>0.15619094494827582</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>0.3985944044877707</t>
+          <t>0.3633254960861991</t>
         </is>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>0.33635960252513386</t>
+          <t>0.4201566809319488</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>0.4774941823540069</t>
+          <t>0.3853284855274924</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>0.33635960252513386</t>
+          <t>0.4201566809319488</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>0.5260196505988888</t>
+          <t>0.4267325642887049</t>
         </is>
       </c>
     </row>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>0.4993322148170272</t>
+          <t>0.44734470157023726</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>0.33635960252513386</t>
+          <t>0.4201566809319488</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>0.4299714681162115</t>
+          <t>0.49274500067746035</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>0.500483442913183</t>
+          <t>0.5968926741375861</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>0.33635960252513386</t>
+          <t>0.4201566809319488</t>
         </is>
       </c>
     </row>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>0.7068939313820733</t>
+          <t>0.7217311311017477</t>
         </is>
       </c>
     </row>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>0.48197208724837626</t>
+          <t>0.29441042158614583</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>0.4819720872483764</t>
+          <t>0.29441042158614583</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>0.4860516409312434</t>
+          <t>0.3613343722518238</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>0.4819720872483764</t>
+          <t>0.29441042158614583</t>
         </is>
       </c>
     </row>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>0.5481784672318453</t>
+          <t>0.2745182500939756</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>0.4860516409312434</t>
+          <t>0.3613343722518238</t>
         </is>
       </c>
     </row>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>0.4819720872483764</t>
+          <t>0.29441042158614583</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>0.4318330259803657</t>
+          <t>0.2745182500939756</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>0.5904746591814525</t>
+          <t>0.3613343722518238</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>0.4819720872483764</t>
+          <t>0.29441042158614583</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>0.5904746591814525</t>
+          <t>0.3613343722518238</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>0.7894632956214763</t>
+          <t>0.7785191679211588</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>0.5195814918476986</t>
+          <t>0.30540888339631683</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>0.506155699806296</t>
+          <t>0.49260850305233317</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>0.7070303572294226</t>
+          <t>0.5140329940277352</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>0.5715326038193874</t>
+          <t>0.2897895328099573</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>0.5068925511933657</t>
+          <t>0.4768640165509615</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>0.36971464739794707</t>
+          <t>0.43773436294201334</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>0.3653990922479821</t>
+          <t>0.2482407631903675</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>0.3160936969142221</t>
+          <t>0.30540888339631683</t>
         </is>
       </c>
     </row>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>0.42743848007153595</t>
+          <t>0.2835150956812861</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>0.33723433029070476</t>
+          <t>0.2505289389121506</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>0.35964080329163384</t>
+          <t>0.2507205314865805</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>0.9954515828457711</t>
+          <t>0.7366209185150485</t>
         </is>
       </c>
     </row>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.8871408590080996</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>0.506880914847165</t>
+          <t>0.32005115559988073</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.8871408590080996</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>0.39859440448777056</t>
+          <t>0.3633254960861991</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>0.4819720872483764</t>
+          <t>0.29441042158614583</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>0.3020850220645954</t>
+          <t>0.3609084497608545</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9456603046006401</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>0.4292051739643861</t>
+          <t>0.41212918823545286</t>
         </is>
       </c>
     </row>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9456603046006401</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>0.575220061937785</t>
+          <t>0.3911668849527461</t>
         </is>
       </c>
     </row>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>0.371236489043109</t>
+          <t>0.3413578344976249</t>
         </is>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9456603046006401</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>0.3839184258202177</t>
+          <t>0.2737305785614264</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>0.2874393936563244</t>
+          <t>0.3263927502673093</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9456603046006401</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>0.5021243901047805</t>
+          <t>0.4592443230530496</t>
         </is>
       </c>
     </row>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>0.23989705159363708</t>
+          <t>0.2590020683701192</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>0.23989705159363708</t>
+          <t>0.259002068370119</t>
         </is>
       </c>
     </row>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>0.2341105157768489</t>
+          <t>0.22246743928026327</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>0.23989705159363708</t>
+          <t>0.259002068370119</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>0.2985408344729549</t>
+          <t>0.31749517060558374</t>
         </is>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>0.2341105157768489</t>
+          <t>0.2224674392802632</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>0.23989705159363708</t>
+          <t>0.259002068370119</t>
         </is>
       </c>
     </row>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>0.2985408344729549</t>
+          <t>0.31749517060558363</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>0.2481776934221702</t>
+          <t>0.22246743928026327</t>
         </is>
       </c>
     </row>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>0.23989705159363708</t>
+          <t>0.259002068370119</t>
         </is>
       </c>
     </row>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>0.2578035345308586</t>
+          <t>0.23049798962889725</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>0.30386268204781525</t>
+          <t>0.2237439423174271</t>
         </is>
       </c>
     </row>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>0.3410893578855814</t>
+          <t>0.3418247220476724</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>0.3867603476210346</t>
+          <t>0.3368811301737616</t>
         </is>
       </c>
     </row>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>0.29163161084389155</t>
+          <t>0.33354298457824033</t>
         </is>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>0.36598018995630693</t>
+          <t>0.3060155468073147</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>0.504269158588869</t>
+          <t>0.3130181938428318</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>0.3367376801321767</t>
+          <t>0.23435079891248614</t>
         </is>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>0.3609702005210634</t>
+          <t>0.2894474686949766</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>0.5176179413346554</t>
+          <t>0.3531277176165558</t>
         </is>
       </c>
     </row>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>0.319070152002913</t>
+          <t>0.38600019408451813</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>0.32305767352032305</t>
+          <t>0.31772017349886283</t>
         </is>
       </c>
     </row>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>0.3737389652715958</t>
+          <t>0.2722802410987242</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>0.25217929361481745</t>
+          <t>0.14794871102009852</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>0.4204169163763543</t>
+          <t>0.5164661536967272</t>
         </is>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>0.1956854321292013</t>
+          <t>0.20522322604229803</t>
         </is>
       </c>
     </row>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>0.4644632937248563</t>
+          <t>0.47867052696835294</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>0.9468188316776022</t>
+          <t>0.9760206482366148</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>0.23989705159363708</t>
+          <t>0.294202466418433</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>0.2666776004850358</t>
+          <t>0.26138632088113667</t>
         </is>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>0.4292051739643858</t>
+          <t>0.41212918823545286</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9456603046006401</t>
         </is>
       </c>
     </row>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>0.6077714831504353</t>
+          <t>0.48644388501963154</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>0.4080202395375498</t>
+          <t>0.38579526582038354</t>
         </is>
       </c>
     </row>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9456603046006401</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>0.46021146062088486</t>
+          <t>0.33217045504342574</t>
         </is>
       </c>
     </row>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>0.24345479644614318</t>
+          <t>0.32639275026730946</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9456603046006401</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>0.5021243901047805</t>
+          <t>0.5438532981889299</t>
         </is>
       </c>
     </row>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>0.1570461230034545</t>
+          <t>0.26384212278245817</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>0.1570461230034545</t>
+          <t>0.2638421227824581</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>0.20155734416848398</t>
+          <t>0.1674597871232766</t>
         </is>
       </c>
     </row>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>0.1570461230034545</t>
+          <t>0.2229191339847299</t>
         </is>
       </c>
     </row>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>0.2394280004913811</t>
+          <t>0.287134826969609</t>
         </is>
       </c>
     </row>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>0.20155734416848428</t>
+          <t>0.1674597871232766</t>
         </is>
       </c>
     </row>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>0.1570461230034545</t>
+          <t>0.2229191339847299</t>
         </is>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>0.23942800049138127</t>
+          <t>0.2871348269696095</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>0.18968641991373766</t>
+          <t>0.1674597871232766</t>
         </is>
       </c>
     </row>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>0.1570461230034545</t>
+          <t>0.2229191339847299</t>
         </is>
       </c>
     </row>
@@ -4363,7 +4363,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>0.20155734416848428</t>
+          <t>0.20013764599292255</t>
         </is>
       </c>
     </row>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>0.41180648180481433</t>
+          <t>0.3080513613545611</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>0.39780147719873604</t>
+          <t>0.37604768266536986</t>
         </is>
       </c>
     </row>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>0.49223109110628027</t>
+          <t>0.41610598584333747</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>0.34130395472606473</t>
+          <t>0.3157620096829248</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>0.31457442925833373</t>
+          <t>0.30677282206949785</t>
         </is>
       </c>
     </row>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>0.5614591765516176</t>
+          <t>0.34476794131033006</t>
         </is>
       </c>
     </row>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>0.4365287580150673</t>
+          <t>0.25440348573173815</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>0.3720905243622603</t>
+          <t>0.35094721551278385</t>
         </is>
       </c>
     </row>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>0.587595001753439</t>
+          <t>0.4186385627101415</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>0.3958452272273292</t>
+          <t>0.43932411541871585</t>
         </is>
       </c>
     </row>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>0.3873503720097874</t>
+          <t>0.357613931800908</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>0.4413278115545641</t>
+          <t>0.3377910861923096</t>
         </is>
       </c>
     </row>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>0.286813555304658</t>
+          <t>0.1867243877794935</t>
         </is>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>0.3040357620427356</t>
+          <t>0.36827974085542486</t>
         </is>
       </c>
     </row>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>0.12287174751921559</t>
+          <t>0.15127235498754332</t>
         </is>
       </c>
     </row>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>0.4244853505523972</t>
+          <t>0.3960849183761548</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9456603046006401</t>
         </is>
       </c>
     </row>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>0.1570461230034545</t>
+          <t>0.26384212278245817</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>0.23393894911481516</t>
+          <t>0.22452374737498465</t>
         </is>
       </c>
     </row>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>0.37830352017124513</t>
+          <t>0.373954589381791</t>
         </is>
       </c>
     </row>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.8952003127133933</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9940302114769562</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>0.37830352017124513</t>
+          <t>0.373954589381791</t>
         </is>
       </c>
     </row>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9202776547079442</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>0.9279241991352504</t>
+          <t>0.608351638297619</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>0.37830352017124513</t>
+          <t>0.373954589381791</t>
         </is>
       </c>
     </row>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>0.7228962675058498</t>
+          <t>0.4125819193032005</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>0.30957078018485373</t>
+          <t>0.4596368381919328</t>
         </is>
       </c>
     </row>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>0.30957078018485357</t>
+          <t>0.4596368381919327</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>0.422069636888282</t>
+          <t>0.4188190316377514</t>
         </is>
       </c>
     </row>
@@ -4890,7 +4890,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>0.277824748438822</t>
+          <t>0.45955231311845807</t>
         </is>
       </c>
     </row>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>0.4303321096733613</t>
+          <t>0.5189271104541419</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>0.422069636888282</t>
+          <t>0.4188190316377514</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>0.2778247484388223</t>
+          <t>0.45955231311845807</t>
         </is>
       </c>
     </row>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>0.4537997308321586</t>
+          <t>0.5189271104541419</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>0.37124510325957305</t>
+          <t>0.4188190316377514</t>
         </is>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>0.27739568315167323</t>
+          <t>0.45955231311845807</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>0.3882438142267917</t>
+          <t>0.4188190316377514</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>0.8421737325589584</t>
+          <t>0.8811710704850563</t>
         </is>
       </c>
     </row>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>0.9425223664137268</t>
+          <t>0.7057008498985318</t>
         </is>
       </c>
     </row>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>0.9560898739101289</t>
+          <t>0.9119929279670287</t>
         </is>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>0.7929262184467493</t>
+          <t>0.8606477175754431</t>
         </is>
       </c>
     </row>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>0.4116849262395709</t>
+          <t>0.45604521595455777</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>0.7964387391459472</t>
+          <t>0.7683119294931562</t>
         </is>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>0.9279241991352505</t>
+          <t>0.863849776424249</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>0.8367148971018239</t>
+          <t>0.8795365903336058</t>
         </is>
       </c>
     </row>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>0.4314474343717497</t>
+          <t>0.4037746749963804</t>
         </is>
       </c>
     </row>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>0.7207141663233686</t>
+          <t>0.7835390022973355</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>0.8463431086702904</t>
+          <t>0.7835390022973355</t>
         </is>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>0.8572966158276011</t>
+          <t>0.7854042597240635</t>
         </is>
       </c>
     </row>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>0.27801315382559455</t>
+          <t>0.29989639116789074</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>0.26646637764151254</t>
+          <t>0.2620135677166578</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>0.2547856456762907</t>
+          <t>0.2922560340180931</t>
         </is>
       </c>
     </row>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>0.34300888127030454</t>
+          <t>0.3895418292730154</t>
         </is>
       </c>
     </row>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>0.3205356790060601</t>
+          <t>0.32188107546533645</t>
         </is>
       </c>
     </row>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>0.32190931673034084</t>
+          <t>0.45963683819193285</t>
         </is>
       </c>
     </row>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>0.30696538543238094</t>
+          <t>0.21594480989645315</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>0.6077714831504353</t>
+          <t>0.48644388501963154</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>0.4517486125877633</t>
+          <t>0.47581571997247996</t>
         </is>
       </c>
     </row>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9456603046006401</t>
         </is>
       </c>
     </row>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>0.46021146062088486</t>
+          <t>0.36086048193714615</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>0.27586501835037197</t>
+          <t>0.31810802352639383</t>
         </is>
       </c>
     </row>
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9456603046006401</t>
         </is>
       </c>
     </row>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>0.497489485154167</t>
+          <t>0.5438532981889299</t>
         </is>
       </c>
     </row>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>0.15704612300345433</t>
+          <t>0.26384212278245817</t>
         </is>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>0.15704612300345433</t>
+          <t>0.2638421227824581</t>
         </is>
       </c>
     </row>
@@ -5502,7 +5502,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>0.20155734416848398</t>
+          <t>0.16745978712327653</t>
         </is>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>0.15704612300345433</t>
+          <t>0.22291913398473004</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>0.2394280004913811</t>
+          <t>0.287134826969609</t>
         </is>
       </c>
     </row>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>0.20155734416848428</t>
+          <t>0.16745978712327653</t>
         </is>
       </c>
     </row>
@@ -5570,7 +5570,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>0.1570461230034545</t>
+          <t>0.22291913398473004</t>
         </is>
       </c>
     </row>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>0.23942800049138127</t>
+          <t>0.2871348269696095</t>
         </is>
       </c>
     </row>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>0.18968641991373766</t>
+          <t>0.16745978712327653</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>0.1570461230034545</t>
+          <t>0.22291913398473004</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>0.20155734416848428</t>
+          <t>0.20013764599292255</t>
         </is>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>0.41180648180481433</t>
+          <t>0.3080513613545611</t>
         </is>
       </c>
     </row>
@@ -5672,7 +5672,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>0.4590472893533758</t>
+          <t>0.4021854371123556</t>
         </is>
       </c>
     </row>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>0.49223109110628027</t>
+          <t>0.41610598584333747</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>0.34130395472606473</t>
+          <t>0.3157620096829248</t>
         </is>
       </c>
     </row>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>0.31457442925833373</t>
+          <t>0.30677282206949785</t>
         </is>
       </c>
     </row>
@@ -5740,7 +5740,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>0.5614591765516176</t>
+          <t>0.36086048193714615</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>0.4365287580150673</t>
+          <t>0.25440348573173815</t>
         </is>
       </c>
     </row>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>0.3720905243622603</t>
+          <t>0.35094721551278385</t>
         </is>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>0.587595001753439</t>
+          <t>0.4186385627101415</t>
         </is>
       </c>
     </row>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>0.3958452272273292</t>
+          <t>0.43932411541871585</t>
         </is>
       </c>
     </row>
@@ -5825,7 +5825,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>0.3873503720097874</t>
+          <t>0.36086048193714615</t>
         </is>
       </c>
     </row>
@@ -5842,7 +5842,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>0.4413278115545641</t>
+          <t>0.36086048193714615</t>
         </is>
       </c>
     </row>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>0.286813555304658</t>
+          <t>0.25927190273283734</t>
         </is>
       </c>
     </row>
@@ -5876,7 +5876,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>0.2948242489321051</t>
+          <t>0.36827974085542486</t>
         </is>
       </c>
     </row>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>0.12287174751921559</t>
+          <t>0.15127235498754357</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>0.4244853505523972</t>
+          <t>0.3960849183761548</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9456603046006401</t>
         </is>
       </c>
     </row>
@@ -5944,7 +5944,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>0.15704612300345433</t>
+          <t>0.26384212278245817</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>0.26029918456443357</t>
+          <t>0.2916663836264264</t>
         </is>
       </c>
     </row>
@@ -5978,7 +5978,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.7817810745894892</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>0.6077714831504353</t>
+          <t>0.48644388501963154</t>
         </is>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9940302114769562</t>
         </is>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>0.6294699725425369</t>
+          <t>0.4127500974765844</t>
         </is>
       </c>
     </row>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>0.6077714831504353</t>
+          <t>0.48644388501963154</t>
         </is>
       </c>
     </row>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>0.7884901014091863</t>
+          <t>0.5310922733902661</t>
         </is>
       </c>
     </row>
@@ -6080,7 +6080,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>0.34927626861906186</t>
+          <t>0.5096367715378944</t>
         </is>
       </c>
     </row>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>0.34927626861906186</t>
+          <t>0.5096367715378943</t>
         </is>
       </c>
     </row>
@@ -6114,7 +6114,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>0.4991711404379956</t>
+          <t>0.46421121430460005</t>
         </is>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>0.34927626861906186</t>
+          <t>0.5096367715378943</t>
         </is>
       </c>
     </row>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>0.4990858240471232</t>
+          <t>0.5772962956144937</t>
         </is>
       </c>
     </row>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>0.4991711404379956</t>
+          <t>0.46421121430459994</t>
         </is>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>0.34927626861906186</t>
+          <t>0.5096367715378943</t>
         </is>
       </c>
     </row>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>0.4990858240471232</t>
+          <t>0.5772962956144937</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>0.45593892125793084</t>
+          <t>0.46421121430460005</t>
         </is>
       </c>
     </row>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>0.34927626861906186</t>
+          <t>0.5096367715378943</t>
         </is>
       </c>
     </row>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>0.45593892125793084</t>
+          <t>0.46421121430460005</t>
         </is>
       </c>
     </row>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>0.7927460781224013</t>
+          <t>0.875910834818496</t>
         </is>
       </c>
     </row>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>0.8658124521856001</t>
+          <t>0.863849776424249</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>0.9340768271178619</t>
+          <t>0.9940302114769562</t>
         </is>
       </c>
     </row>
@@ -6318,7 +6318,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>0.7967502766151928</t>
+          <t>0.9373889204053751</t>
         </is>
       </c>
     </row>
@@ -6335,7 +6335,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>0.38413897384245205</t>
+          <t>0.3303074841895915</t>
         </is>
       </c>
     </row>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>0.7712108921888025</t>
+          <t>0.863849776424249</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9940302114769562</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>0.9363261834682793</t>
+          <t>0.9940302114769562</t>
         </is>
       </c>
     </row>
@@ -6403,7 +6403,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>0.4410268750363729</t>
+          <t>0.49563196145643057</t>
         </is>
       </c>
     </row>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>0.7665065523048897</t>
+          <t>0.9940302114769562</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>0.9363261834682792</t>
+          <t>0.9940302114769562</t>
         </is>
       </c>
     </row>
@@ -6454,7 +6454,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>0.9363261834682792</t>
+          <t>0.9940302114769562</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>0.5167540516114503</t>
+          <t>0.3054159259786623</t>
         </is>
       </c>
     </row>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>0.5034557636043452</t>
+          <t>0.3948221400047791</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>0.33814304349616814</t>
+          <t>0.31868121974217956</t>
         </is>
       </c>
     </row>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>0.4811397552927737</t>
+          <t>0.3948221400047791</t>
         </is>
       </c>
     </row>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>0.575220061937785</t>
+          <t>0.3911668849527461</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>0.34927626861906186</t>
+          <t>0.5096367715378943</t>
         </is>
       </c>
     </row>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>0.24689103026625253</t>
+          <t>0.2640303540285766</t>
         </is>
       </c>
     </row>
@@ -6590,7 +6590,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>0.4080202395375498</t>
+          <t>0.3390258019347033</t>
         </is>
       </c>
     </row>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -6624,7 +6624,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>0.7971924265808772</t>
+          <t>0.5256789466173116</t>
         </is>
       </c>
     </row>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>0.3511208954052993</t>
+          <t>0.41145968847318215</t>
         </is>
       </c>
     </row>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>0.6478181787146774</t>
+          <t>0.4758157199724803</t>
         </is>
       </c>
     </row>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>0.29549936030419</t>
+          <t>0.4040097573248598</t>
         </is>
       </c>
     </row>
@@ -6692,7 +6692,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>0.2954993603041901</t>
+          <t>0.4040097573248598</t>
         </is>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>0.4008076572266032</t>
+          <t>0.367874147088066</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>0.2658424071346397</t>
+          <t>0.3858842814229208</t>
         </is>
       </c>
     </row>
@@ -6743,7 +6743,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>0.42205369908612667</t>
+          <t>0.4510870035159984</t>
         </is>
       </c>
     </row>
@@ -6760,7 +6760,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>0.4008076572266032</t>
+          <t>0.367874147088066</t>
         </is>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>0.2778247484388223</t>
+          <t>0.41418229273738716</t>
         </is>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>0.4537997308321586</t>
+          <t>0.43993675044668956</t>
         </is>
       </c>
     </row>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>0.3609240437216799</t>
+          <t>0.367874147088066</t>
         </is>
       </c>
     </row>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>0.2630619128655943</t>
+          <t>0.3836871337589306</t>
         </is>
       </c>
     </row>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>0.3882438142267917</t>
+          <t>0.40400975732485966</t>
         </is>
       </c>
     </row>
@@ -6862,7 +6862,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>0.9046249925477006</t>
+          <t>0.9011701012364366</t>
         </is>
       </c>
     </row>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>0.922758675971877</t>
+          <t>0.7140297246683526</t>
         </is>
       </c>
     </row>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.8524948864619754</t>
         </is>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>0.7168198219340959</t>
+          <t>0.8698195649472922</t>
         </is>
       </c>
     </row>
@@ -6930,7 +6930,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>0.4571315177215736</t>
+          <t>0.4964740227819389</t>
         </is>
       </c>
     </row>
@@ -6947,7 +6947,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>0.8084210804501292</t>
+          <t>0.7035103037093103</t>
         </is>
       </c>
     </row>
@@ -6964,7 +6964,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>0.9253745019461711</t>
+          <t>0.7433863667578553</t>
         </is>
       </c>
     </row>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>0.8359250880785022</t>
+          <t>0.8666175060984863</t>
         </is>
       </c>
     </row>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>0.43654070212816043</t>
+          <t>0.4458661534807896</t>
         </is>
       </c>
     </row>
@@ -7015,7 +7015,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>0.7779596231995676</t>
+          <t>0.8666175060984863</t>
         </is>
       </c>
     </row>
@@ -7032,7 +7032,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>0.9253745019461711</t>
+          <t>0.8666175060984863</t>
         </is>
       </c>
     </row>
@@ -7049,7 +7049,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>0.9560898739101289</t>
+          <t>0.8666175060984863</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>0.3396871654766036</t>
+          <t>0.24582588843777956</t>
         </is>
       </c>
     </row>
@@ -7083,7 +7083,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>0.26902405818170233</t>
+          <t>0.2384615841535796</t>
         </is>
       </c>
     </row>
@@ -7100,7 +7100,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>0.24576279319461966</t>
+          <t>0.2796652621415975</t>
         </is>
       </c>
     </row>
@@ -7117,7 +7117,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>0.34596885390418475</t>
+          <t>0.38512536562515665</t>
         </is>
       </c>
     </row>
@@ -7134,7 +7134,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>0.30571186497401054</t>
+          <t>0.27871590810874125</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>0.2658424071346395</t>
+          <t>0.3991198414336182</t>
         </is>
       </c>
     </row>
@@ -7168,7 +7168,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>0.24689103026625267</t>
+          <t>0.23546187625175785</t>
         </is>
       </c>
     </row>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>0.46021146062088486</t>
+          <t>0.33217045504342574</t>
         </is>
       </c>
     </row>
@@ -7202,7 +7202,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>0.25367812032067244</t>
+          <t>0.32639275026730963</t>
         </is>
       </c>
     </row>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9456603046006401</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>0.497489485154167</t>
+          <t>0.5438532981889299</t>
         </is>
       </c>
     </row>
@@ -7253,7 +7253,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>0.15704612300345433</t>
+          <t>0.26384212278245817</t>
         </is>
       </c>
     </row>
@@ -7270,7 +7270,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>0.15704612300345433</t>
+          <t>0.2638421227824581</t>
         </is>
       </c>
     </row>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>0.20155734416848398</t>
+          <t>0.1674597871232766</t>
         </is>
       </c>
     </row>
@@ -7304,7 +7304,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>0.15704612300345433</t>
+          <t>0.22291913398472998</t>
         </is>
       </c>
     </row>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>0.2394280004913811</t>
+          <t>0.287134826969609</t>
         </is>
       </c>
     </row>
@@ -7338,7 +7338,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>0.20155734416848428</t>
+          <t>0.16745978712327628</t>
         </is>
       </c>
     </row>
@@ -7355,7 +7355,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>0.1570461230034545</t>
+          <t>0.22291913398472998</t>
         </is>
       </c>
     </row>
@@ -7372,7 +7372,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>0.23942800049138127</t>
+          <t>0.2871348269696095</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>0.18968641991373766</t>
+          <t>0.1674597871232766</t>
         </is>
       </c>
     </row>
@@ -7406,7 +7406,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>0.1570461230034545</t>
+          <t>0.22291913398472998</t>
         </is>
       </c>
     </row>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>0.20155734416848428</t>
+          <t>0.20013764599292255</t>
         </is>
       </c>
     </row>
@@ -7440,7 +7440,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>0.41180648180481433</t>
+          <t>0.3080513613545611</t>
         </is>
       </c>
     </row>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>0.4033365749989805</t>
+          <t>0.41625424655677296</t>
         </is>
       </c>
     </row>
@@ -7474,7 +7474,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>0.49223109110628027</t>
+          <t>0.41610598584333747</t>
         </is>
       </c>
     </row>
@@ -7491,7 +7491,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>0.34130395472606473</t>
+          <t>0.3157620096829248</t>
         </is>
       </c>
     </row>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>0.31457442925833373</t>
+          <t>0.30677282206949785</t>
         </is>
       </c>
     </row>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>0.5614591765516176</t>
+          <t>0.37840520174964165</t>
         </is>
       </c>
     </row>
@@ -7542,7 +7542,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>0.4365287580150673</t>
+          <t>0.30257787314260126</t>
         </is>
       </c>
     </row>
@@ -7559,7 +7559,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>0.3720905243622603</t>
+          <t>0.35094721551278385</t>
         </is>
       </c>
     </row>
@@ -7576,7 +7576,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>0.587595001753439</t>
+          <t>0.4186385627101415</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>0.3958452272273292</t>
+          <t>0.43932411541871585</t>
         </is>
       </c>
     </row>
@@ -7610,7 +7610,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>0.3873503720097874</t>
+          <t>0.357613931800908</t>
         </is>
       </c>
     </row>
@@ -7627,7 +7627,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>0.4413278115545641</t>
+          <t>0.3377910861923096</t>
         </is>
       </c>
     </row>
@@ -7644,7 +7644,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>0.286813555304658</t>
+          <t>0.20284043088741005</t>
         </is>
       </c>
     </row>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>0.2948242489321051</t>
+          <t>0.36827974085542486</t>
         </is>
       </c>
     </row>
@@ -7678,7 +7678,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>0.12287174751921559</t>
+          <t>0.1512723549875435</t>
         </is>
       </c>
     </row>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>0.4244853505523972</t>
+          <t>0.3960849183761548</t>
         </is>
       </c>
     </row>
@@ -7712,7 +7712,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9456603046006401</t>
         </is>
       </c>
     </row>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>0.15704612300345433</t>
+          <t>0.26384212278245817</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>0.2602991845644338</t>
+          <t>0.2916663836264262</t>
         </is>
       </c>
     </row>
@@ -7763,7 +7763,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>0.7377621664326476</t>
+          <t>0.46103397230585713</t>
         </is>
       </c>
     </row>
@@ -7780,7 +7780,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>0.46021146062088486</t>
+          <t>0.33217045504342574</t>
         </is>
       </c>
     </row>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>0.7775302212400044</t>
+          <t>0.5234921156983421</t>
         </is>
       </c>
     </row>
@@ -7814,7 +7814,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>0.301168795851825</t>
+          <t>0.4716447898375372</t>
         </is>
       </c>
     </row>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>0.301168795851825</t>
+          <t>0.4716447898375372</t>
         </is>
       </c>
     </row>
@@ -7848,7 +7848,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>0.44511072315828126</t>
+          <t>0.43370589600260584</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>0.301168795851825</t>
+          <t>0.4716447898375372</t>
         </is>
       </c>
     </row>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>0.44216121226665656</t>
+          <t>0.5310195871732208</t>
         </is>
       </c>
     </row>
@@ -7899,7 +7899,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>0.44511072315828126</t>
+          <t>0.4337058960026057</t>
         </is>
       </c>
     </row>
@@ -7916,7 +7916,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>0.301168795851825</t>
+          <t>0.4873689971127367</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>0.44216121226665656</t>
+          <t>0.5310195871732208</t>
         </is>
       </c>
     </row>
@@ -7950,7 +7950,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>0.3914161979837935</t>
+          <t>0.43370589600260584</t>
         </is>
       </c>
     </row>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>0.301168795851825</t>
+          <t>0.4716447898375372</t>
         </is>
       </c>
     </row>
@@ -7984,7 +7984,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>0.4079598438416356</t>
+          <t>0.4696844590546905</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>0.9141572776607838</t>
+          <t>0.7663793114956149</t>
         </is>
       </c>
     </row>
@@ -8018,7 +8018,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>0.9483085247724613</t>
+          <t>0.9373889204053751</t>
         </is>
       </c>
     </row>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9760206482366148</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>0.8786202783349504</t>
+          <t>0.9373889204053754</t>
         </is>
       </c>
     </row>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>0.378380470400617</t>
+          <t>0.36261015962210685</t>
         </is>
       </c>
     </row>
@@ -8086,7 +8086,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>0.9123615008599151</t>
+          <t>0.8901257532696213</t>
         </is>
       </c>
     </row>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9373889204053754</t>
         </is>
       </c>
     </row>
@@ -8120,7 +8120,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>0.9243438421640973</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>0.46690829059145533</t>
+          <t>0.5336520901411825</t>
         </is>
       </c>
     </row>
@@ -8154,7 +8154,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>0.8331597342573913</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -8171,7 +8171,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>0.9279241991352505</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>0.9279241991352505</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -8205,7 +8205,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>0.30350066253386915</t>
+          <t>0.24582588843777956</t>
         </is>
       </c>
     </row>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>0.3338559518069289</t>
+          <t>0.27805681283830486</t>
         </is>
       </c>
     </row>
@@ -8239,7 +8239,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>0.2472068511711864</t>
+          <t>0.32183546849969197</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8256,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>0.356620856547144</t>
+          <t>0.38512536562515665</t>
         </is>
       </c>
     </row>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>0.3514604634157156</t>
+          <t>0.2737305785614264</t>
         </is>
       </c>
     </row>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>0.301168795851825</t>
+          <t>0.4716447898375372</t>
         </is>
       </c>
     </row>
@@ -8307,7 +8307,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>0.24689103026625267</t>
+          <t>0.25606599328295554</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>0.16892547863757293</t>
+          <t>0.1698828551091144</t>
         </is>
       </c>
     </row>
@@ -8341,7 +8341,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>0.9363261834682792</t>
+          <t>0.9530545534630865</t>
         </is>
       </c>
     </row>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>0.2598884457091272</t>
+          <t>0.21572847828542374</t>
         </is>
       </c>
     </row>
@@ -8375,7 +8375,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>0.2598884457091272</t>
+          <t>0.21572847828542357</t>
         </is>
       </c>
     </row>
@@ -8392,7 +8392,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>0.08094923286541499</t>
+          <t>0.06608210334981075</t>
         </is>
       </c>
     </row>
@@ -8409,7 +8409,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>0.06931715651152555</t>
+          <t>0.1314215250002715</t>
         </is>
       </c>
     </row>
@@ -8426,7 +8426,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>0.37183050973854376</t>
+          <t>0.20415579995404454</t>
         </is>
       </c>
     </row>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>0.09298777085892342</t>
+          <t>0.06608210334981075</t>
         </is>
       </c>
     </row>
@@ -8460,7 +8460,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>0.06931715651152555</t>
+          <t>0.13142152500027182</t>
         </is>
       </c>
     </row>
@@ -8477,7 +8477,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>0.2980510420755994</t>
+          <t>0.20971738225635403</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>0.09083079116134647</t>
+          <t>0.06608210334981075</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>0.06931715651152555</t>
+          <t>0.12722819594724374</t>
         </is>
       </c>
     </row>
@@ -8528,7 +8528,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>0.3108029498135991</t>
+          <t>0.1694791376950322</t>
         </is>
       </c>
     </row>
@@ -8545,7 +8545,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>0.5565717508970655</t>
+          <t>0.400624528068946</t>
         </is>
       </c>
     </row>
@@ -8562,7 +8562,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>0.5951439193872172</t>
+          <t>0.4171918702869598</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>0.5364034191481761</t>
+          <t>0.44861729533963624</t>
         </is>
       </c>
     </row>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>0.22763717241744635</t>
+          <t>0.26377694543119135</t>
         </is>
       </c>
     </row>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>0.3950025802292178</t>
+          <t>0.3861621671223644</t>
         </is>
       </c>
     </row>
@@ -8630,7 +8630,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>0.433057151365159</t>
+          <t>0.3304036201478088</t>
         </is>
       </c>
     </row>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>0.5174564566640414</t>
+          <t>0.3976289403512507</t>
         </is>
       </c>
     </row>
@@ -8664,7 +8664,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>0.5974785845045438</t>
+          <t>0.3044212763102754</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>0.40505700531056354</t>
+          <t>0.3254606163911415</t>
         </is>
       </c>
     </row>
@@ -8698,7 +8698,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>0.5608613275227112</t>
+          <t>0.2987307259192021</t>
         </is>
       </c>
     </row>
@@ -8715,7 +8715,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>0.4054385703498738</t>
+          <t>0.2944925832843281</t>
         </is>
       </c>
     </row>
@@ -8732,7 +8732,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>0.47755963127490136</t>
+          <t>0.36448949556192883</t>
         </is>
       </c>
     </row>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>0.3269816235093488</t>
+          <t>0.21832239997664576</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8766,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>0.4963127934346709</t>
+          <t>0.4647757659345919</t>
         </is>
       </c>
     </row>
@@ -8783,7 +8783,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>0.19051896085701328</t>
+          <t>0.10248951753406683</t>
         </is>
       </c>
     </row>
@@ -8800,7 +8800,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>0.5095315186782541</t>
+          <t>0.43185238302263296</t>
         </is>
       </c>
     </row>
@@ -8817,7 +8817,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>0.2437110206061107</t>
+          <t>0.3201703558479021</t>
         </is>
       </c>
     </row>
@@ -8834,7 +8834,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>0.22814241396309567</t>
+          <t>0.16706064270023877</t>
         </is>
       </c>
     </row>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>0.31663438638944313</t>
+          <t>0.23503193186811294</t>
         </is>
       </c>
     </row>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>0.497489485154167</t>
+          <t>0.5438532981889299</t>
         </is>
       </c>
     </row>
@@ -8885,7 +8885,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>0.15704612300345433</t>
+          <t>0.26384212278245817</t>
         </is>
       </c>
     </row>
@@ -8902,7 +8902,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>0.15704612300345433</t>
+          <t>0.2638421227824581</t>
         </is>
       </c>
     </row>
@@ -8919,7 +8919,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>0.20155734416848398</t>
+          <t>0.10632442494389437</t>
         </is>
       </c>
     </row>
@@ -8936,7 +8936,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>0.15704612300345433</t>
+          <t>0.16178377180534806</t>
         </is>
       </c>
     </row>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>0.2394280004913811</t>
+          <t>0.287134826969609</t>
         </is>
       </c>
     </row>
@@ -8970,7 +8970,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>0.20155734416848428</t>
+          <t>0.10632442494389437</t>
         </is>
       </c>
     </row>
@@ -8987,7 +8987,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>0.1570461230034545</t>
+          <t>0.16178377180534806</t>
         </is>
       </c>
     </row>
@@ -9004,7 +9004,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>0.23942800049138127</t>
+          <t>0.2871348269696095</t>
         </is>
       </c>
     </row>
@@ -9021,7 +9021,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>0.18968641991373766</t>
+          <t>0.10632442494389437</t>
         </is>
       </c>
     </row>
@@ -9038,7 +9038,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>0.1570461230034545</t>
+          <t>0.16178377180534806</t>
         </is>
       </c>
     </row>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>0.20155734416848428</t>
+          <t>0.20013764599292255</t>
         </is>
       </c>
     </row>
@@ -9072,7 +9072,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>0.41180648180481433</t>
+          <t>0.3080513613545611</t>
         </is>
       </c>
     </row>
@@ -9089,7 +9089,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>0.39780147719873604</t>
+          <t>0.37604768266536986</t>
         </is>
       </c>
     </row>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>0.49223109110628027</t>
+          <t>0.41610598584333747</t>
         </is>
       </c>
     </row>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>0.34130395472606473</t>
+          <t>0.3157620096829248</t>
         </is>
       </c>
     </row>
@@ -9140,7 +9140,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>0.31457442925833373</t>
+          <t>0.30677282206949785</t>
         </is>
       </c>
     </row>
@@ -9157,7 +9157,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>0.5614591765516176</t>
+          <t>0.34476794131033006</t>
         </is>
       </c>
     </row>
@@ -9174,7 +9174,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>0.4365287580150673</t>
+          <t>0.25440348573173815</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>0.3720905243622603</t>
+          <t>0.35094721551278385</t>
         </is>
       </c>
     </row>
@@ -9208,7 +9208,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>0.587595001753439</t>
+          <t>0.4186385627101415</t>
         </is>
       </c>
     </row>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>0.3958452272273292</t>
+          <t>0.43932411541871585</t>
         </is>
       </c>
     </row>
@@ -9242,7 +9242,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>0.3873503720097874</t>
+          <t>0.357613931800908</t>
         </is>
       </c>
     </row>
@@ -9259,7 +9259,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>0.4413278115545641</t>
+          <t>0.3377910861923096</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>0.286813555304658</t>
+          <t>0.1867243877794935</t>
         </is>
       </c>
     </row>
@@ -9293,7 +9293,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>0.2948242489321051</t>
+          <t>0.36827974085542486</t>
         </is>
       </c>
     </row>
@@ -9310,7 +9310,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>0.12287174751921559</t>
+          <t>0.13521132930619342</t>
         </is>
       </c>
     </row>
@@ -9327,7 +9327,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>0.4244853505523972</t>
+          <t>0.3960849183761548</t>
         </is>
       </c>
     </row>
@@ -9344,7 +9344,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.9456603046006401</t>
         </is>
       </c>
     </row>
@@ -9361,7 +9361,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>0.15704612300345433</t>
+          <t>0.26384212278245817</t>
         </is>
       </c>
     </row>
@@ -9378,7 +9378,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>0.23393894911481516</t>
+          <t>0.22452374737498465</t>
         </is>
       </c>
     </row>
@@ -9395,7 +9395,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>0.2598884457091272</t>
+          <t>0.27388625037664244</t>
         </is>
       </c>
     </row>
@@ -9412,7 +9412,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>0.2598884457091272</t>
+          <t>0.27388625037664244</t>
         </is>
       </c>
     </row>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>0.19062874387293743</t>
+          <t>0.12374460065253148</t>
         </is>
       </c>
     </row>
@@ -9446,7 +9446,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>0.1408925445357617</t>
+          <t>0.18008564261420404</t>
         </is>
       </c>
     </row>
@@ -9463,7 +9463,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>0.3832334757929576</t>
+          <t>0.27875488169904494</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>0.19062874387293727</t>
+          <t>0.1237446006525314</t>
         </is>
       </c>
     </row>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>0.1408925445357617</t>
+          <t>0.18008564261420404</t>
         </is>
       </c>
     </row>
@@ -9514,7 +9514,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>0.3317237536050764</t>
+          <t>0.24323169446404427</t>
         </is>
       </c>
     </row>
@@ -9531,7 +9531,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>0.15500331005811668</t>
+          <t>0.12374460065253148</t>
         </is>
       </c>
     </row>
@@ -9548,7 +9548,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>0.1408925445357617</t>
+          <t>0.18008564261420404</t>
         </is>
       </c>
     </row>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>0.3181530323188975</t>
+          <t>0.23351466907773075</t>
         </is>
       </c>
     </row>
@@ -9582,7 +9582,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>0.6150161159015992</t>
+          <t>0.40085336147056494</t>
         </is>
       </c>
     </row>
@@ -9599,7 +9599,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>0.767500103282422</t>
+          <t>0.5963879981365037</t>
         </is>
       </c>
     </row>
@@ -9616,7 +9616,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>0.6244664483706059</t>
+          <t>0.43050565067229607</t>
         </is>
       </c>
     </row>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>0.3126140672794965</t>
+          <t>0.3299906200141987</t>
         </is>
       </c>
     </row>
@@ -9650,7 +9650,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>0.47873830600235184</t>
+          <t>0.4001453070363213</t>
         </is>
       </c>
     </row>
@@ -9667,7 +9667,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>0.46620277330732024</t>
+          <t>0.39926995181985786</t>
         </is>
       </c>
     </row>
@@ -9684,7 +9684,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>0.5377876710142276</t>
+          <t>0.39961499624489744</t>
         </is>
       </c>
     </row>
@@ -9701,7 +9701,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>0.6301563622370473</t>
+          <t>0.33040362014780866</t>
         </is>
       </c>
     </row>
@@ -9718,7 +9718,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>0.4342550473542565</t>
+          <t>0.33987996173344065</t>
         </is>
       </c>
     </row>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>0.5252606125773686</t>
+          <t>0.3536220409905876</t>
         </is>
       </c>
     </row>
@@ -9752,7 +9752,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>0.4296990151477297</t>
+          <t>0.3445151779434183</t>
         </is>
       </c>
     </row>
@@ -9769,7 +9769,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>0.5170290523540362</t>
+          <t>0.3159103072851186</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9786,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>0.5156605655066537</t>
+          <t>0.3813389897684278</t>
         </is>
       </c>
     </row>
@@ -9803,7 +9803,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>0.5715369518091068</t>
+          <t>0.48170447466765526</t>
         </is>
       </c>
     </row>
@@ -9820,7 +9820,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>0.19051896085701328</t>
+          <t>0.12977046792461022</t>
         </is>
       </c>
     </row>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>0.6274880125062314</t>
+          <t>0.4831335900909398</t>
         </is>
       </c>
     </row>
@@ -9854,7 +9854,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>0.4125979503929431</t>
+          <t>0.4592443230530496</t>
         </is>
       </c>
     </row>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>0.22814241396309567</t>
+          <t>0.19888044190086643</t>
         </is>
       </c>
     </row>
@@ -9888,7 +9888,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>0.31663438638944313</t>
+          <t>0.1821194482411416</t>
         </is>
       </c>
     </row>
@@ -9905,7 +9905,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -9922,7 +9922,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>0.4721706725372217</t>
+          <t>0.6643461713039289</t>
         </is>
       </c>
     </row>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -9956,7 +9956,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>0.7659975659334801</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -9973,7 +9973,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>0.4721706725372217</t>
+          <t>0.6643461713039289</t>
         </is>
       </c>
     </row>
@@ -9990,7 +9990,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -10007,7 +10007,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -10024,7 +10024,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>0.5279623067294861</t>
+          <t>0.6643461713039289</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -10058,7 +10058,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>0.6311952331478198</t>
+          <t>0.6643461713039289</t>
         </is>
       </c>
     </row>
@@ -10075,7 +10075,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>0.6733778196813706</t>
+          <t>0.51447299539141</t>
         </is>
       </c>
     </row>
@@ -10092,7 +10092,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>0.46630448074125636</t>
+          <t>0.4922068652453409</t>
         </is>
       </c>
     </row>
@@ -10109,7 +10109,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>0.44768410871109493</t>
+          <t>0.5992390860926537</t>
         </is>
       </c>
     </row>
@@ -10126,7 +10126,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>0.5678338348998805</t>
+          <t>0.4313362930260771</t>
         </is>
       </c>
     </row>
@@ -10143,7 +10143,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>0.3287138354313423</t>
+          <t>0.3141181140942985</t>
         </is>
       </c>
     </row>
@@ -10160,7 +10160,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>0.4872767055624077</t>
+          <t>0.3738892040537566</t>
         </is>
       </c>
     </row>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>0.5404298550318657</t>
+          <t>0.5024631989313072</t>
         </is>
       </c>
     </row>
@@ -10194,7 +10194,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>0.406572149165678</t>
+          <t>0.464287296781831</t>
         </is>
       </c>
     </row>
@@ -10211,7 +10211,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>0.35842374173994673</t>
+          <t>0.36799990950995504</t>
         </is>
       </c>
     </row>
@@ -10228,7 +10228,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>0.420806467124619</t>
+          <t>0.5002721820138504</t>
         </is>
       </c>
     </row>
@@ -10245,7 +10245,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>0.4395807577299877</t>
+          <t>0.47332768605873354</t>
         </is>
       </c>
     </row>
@@ -10262,7 +10262,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>0.46665667266754185</t>
+          <t>0.4540382081638363</t>
         </is>
       </c>
     </row>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>0.4923859028931848</t>
+          <t>0.4506658513265</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10296,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>0.3447849457051402</t>
+          <t>0.2125919303346278</t>
         </is>
       </c>
     </row>
@@ -10313,7 +10313,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>0.6236235445348882</t>
+          <t>0.563683641537806</t>
         </is>
       </c>
     </row>
@@ -10330,7 +10330,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>0.5545416087514384</t>
+          <t>0.4716447898375371</t>
         </is>
       </c>
     </row>
@@ -10347,7 +10347,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>0.23989705159363725</t>
+          <t>0.2590020683701191</t>
         </is>
       </c>
     </row>
@@ -10364,7 +10364,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -10381,7 +10381,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>0.24989003499592172</t>
+          <t>0.15412912377195417</t>
         </is>
       </c>
     </row>
@@ -10398,7 +10398,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>0.4721706725372217</t>
+          <t>0.6643461713039289</t>
         </is>
       </c>
     </row>
@@ -10415,7 +10415,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -10432,7 +10432,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>0.7659975659334801</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -10449,7 +10449,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>0.4721706725372217</t>
+          <t>0.6643461713039289</t>
         </is>
       </c>
     </row>
@@ -10466,7 +10466,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>0.527962306729486</t>
+          <t>0.6643461713039289</t>
         </is>
       </c>
     </row>
@@ -10517,7 +10517,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -10534,7 +10534,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>0.6311952331478198</t>
+          <t>0.6643461713039289</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>0.6733778196813706</t>
+          <t>0.51447299539141</t>
         </is>
       </c>
     </row>
@@ -10568,7 +10568,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>0.46630448074125636</t>
+          <t>0.4922068652453409</t>
         </is>
       </c>
     </row>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>0.44768410871109493</t>
+          <t>0.5992390860926537</t>
         </is>
       </c>
     </row>
@@ -10602,7 +10602,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>0.5678338348998805</t>
+          <t>0.431336293026077</t>
         </is>
       </c>
     </row>
@@ -10619,7 +10619,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>0.3287138354313423</t>
+          <t>0.3141181140942985</t>
         </is>
       </c>
     </row>
@@ -10636,7 +10636,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>0.4872767055624077</t>
+          <t>0.3738892040537564</t>
         </is>
       </c>
     </row>
@@ -10653,7 +10653,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>0.5404298550318657</t>
+          <t>0.5001755869389143</t>
         </is>
       </c>
     </row>
@@ -10670,7 +10670,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>0.406572149165678</t>
+          <t>0.464287296781831</t>
         </is>
       </c>
     </row>
@@ -10687,7 +10687,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>0.35842374173994673</t>
+          <t>0.36799990950995504</t>
         </is>
       </c>
     </row>
@@ -10704,7 +10704,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>0.420806467124619</t>
+          <t>0.5002721820138504</t>
         </is>
       </c>
     </row>
@@ -10721,7 +10721,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>0.4395807577299877</t>
+          <t>0.47332768605873354</t>
         </is>
       </c>
     </row>
@@ -10738,7 +10738,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>0.46665667266754185</t>
+          <t>0.4540382081638363</t>
         </is>
       </c>
     </row>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>0.4923859028931846</t>
+          <t>0.4506658513265</t>
         </is>
       </c>
     </row>
@@ -10772,7 +10772,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>0.3447849457051402</t>
+          <t>0.2125919303346278</t>
         </is>
       </c>
     </row>
@@ -10789,7 +10789,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>0.6236235445348882</t>
+          <t>0.563683641537806</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10806,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>0.5545416087514384</t>
+          <t>0.4716447898375371</t>
         </is>
       </c>
     </row>
@@ -10823,7 +10823,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>0.23989705159363717</t>
+          <t>0.2590020683701191</t>
         </is>
       </c>
     </row>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -10857,7 +10857,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>0.24989003499592163</t>
+          <t>0.154129123771954</t>
         </is>
       </c>
     </row>
@@ -10874,7 +10874,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>0.527962306729486</t>
+          <t>0.6675220106055881</t>
         </is>
       </c>
     </row>
@@ -10891,7 +10891,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -10908,7 +10908,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>0.527962306729486</t>
+          <t>0.6675220106055881</t>
         </is>
       </c>
     </row>
@@ -10942,7 +10942,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>0.8174811389674482</t>
+          <t>0.6068130694057319</t>
         </is>
       </c>
     </row>
@@ -10959,7 +10959,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -10976,7 +10976,7 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>0.3930790908835561</t>
+          <t>0.43725955867838107</t>
         </is>
       </c>
     </row>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -11010,7 +11010,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>0.8197304953178658</t>
+          <t>0.6339992821913998</t>
         </is>
       </c>
     </row>
@@ -11027,7 +11027,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>0.5891062887626148</t>
+          <t>0.3739274938777523</t>
         </is>
       </c>
     </row>
@@ -11044,7 +11044,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>0.8317128366220478</t>
+          <t>0.6739634885508049</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>0.5514646657678854</t>
+          <t>0.6549635663096421</t>
         </is>
       </c>
     </row>
@@ -11078,7 +11078,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>0.4854463738219158</t>
+          <t>0.32534082611850723</t>
         </is>
       </c>
     </row>
@@ -11095,7 +11095,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>0.4649457271990004</t>
+          <t>0.5121548395067759</t>
         </is>
       </c>
     </row>
@@ -11112,7 +11112,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>0.7471044210626211</t>
+          <t>0.6653709795044311</t>
         </is>
       </c>
     </row>
@@ -11129,7 +11129,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>0.6444998494148108</t>
+          <t>0.5442643525988043</t>
         </is>
       </c>
     </row>
@@ -11146,7 +11146,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>0.34586074487170526</t>
+          <t>0.37534048932212594</t>
         </is>
       </c>
     </row>
@@ -11163,7 +11163,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>0.6279259245252811</t>
+          <t>0.5561336675460791</t>
         </is>
       </c>
     </row>
@@ -11180,7 +11180,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>0.644751787149397</t>
+          <t>0.6472035574392775</t>
         </is>
       </c>
     </row>
@@ -11197,7 +11197,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>0.6835194866860443</t>
+          <t>0.6095090208550966</t>
         </is>
       </c>
     </row>
@@ -11214,7 +11214,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>0.48734494627509306</t>
+          <t>0.5105049055458577</t>
         </is>
       </c>
     </row>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>0.31388690964622235</t>
+          <t>0.26122562846583997</t>
         </is>
       </c>
     </row>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>0.46663039544649976</t>
+          <t>0.5618750198565974</t>
         </is>
       </c>
     </row>
@@ -11265,7 +11265,7 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>0.5249116102430059</t>
+          <t>0.5599451693236414</t>
         </is>
       </c>
     </row>
@@ -11282,7 +11282,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>0.24548668393693537</t>
+          <t>0.22246743928026327</t>
         </is>
       </c>
     </row>
@@ -11299,7 +11299,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>0.4404246407911901</t>
+          <t>0.5675989585651703</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11316,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>0.24677168985170525</t>
+          <t>0.1644686663900655</t>
         </is>
       </c>
     </row>
@@ -11333,7 +11333,7 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>0.7659975659334801</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>0.5220469427063926</t>
+          <t>0.6675220106055881</t>
         </is>
       </c>
     </row>
@@ -11367,7 +11367,7 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -11384,7 +11384,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>0.5279623067294862</t>
+          <t>0.6675220106055881</t>
         </is>
       </c>
     </row>
@@ -11418,7 +11418,7 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>0.6311952331478198</t>
+          <t>0.6675220106055881</t>
         </is>
       </c>
     </row>
@@ -11452,7 +11452,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>0.6733778196813706</t>
+          <t>0.51447299539141</t>
         </is>
       </c>
     </row>
@@ -11469,7 +11469,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>0.46630448074125636</t>
+          <t>0.4922068652453409</t>
         </is>
       </c>
     </row>
@@ -11486,7 +11486,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>0.44768410871109493</t>
+          <t>0.5536820733474648</t>
         </is>
       </c>
     </row>
@@ -11503,7 +11503,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>0.5678338348998805</t>
+          <t>0.46567694847249996</t>
         </is>
       </c>
     </row>
@@ -11520,7 +11520,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>0.3287138354313423</t>
+          <t>0.3141181140942985</t>
         </is>
       </c>
     </row>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>0.4872767055624077</t>
+          <t>0.36361960283805705</t>
         </is>
       </c>
     </row>
@@ -11554,7 +11554,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>0.5404298550318657</t>
+          <t>0.5001755869389143</t>
         </is>
       </c>
     </row>
@@ -11571,7 +11571,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>0.406572149165678</t>
+          <t>0.464287296781831</t>
         </is>
       </c>
     </row>
@@ -11588,7 +11588,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>0.35842374173994673</t>
+          <t>0.36799990950995504</t>
         </is>
       </c>
     </row>
@@ -11605,7 +11605,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>0.420806467124619</t>
+          <t>0.5002721820138504</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>0.4395807577299877</t>
+          <t>0.47332768605873354</t>
         </is>
       </c>
     </row>
@@ -11639,7 +11639,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>0.46665667266754185</t>
+          <t>0.4540382081638363</t>
         </is>
       </c>
     </row>
@@ -11656,7 +11656,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>0.4923859028931846</t>
+          <t>0.4506658513265</t>
         </is>
       </c>
     </row>
@@ -11673,7 +11673,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>0.3447849457051402</t>
+          <t>0.2125919303346278</t>
         </is>
       </c>
     </row>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>0.621733752446258</t>
+          <t>0.6243364699566732</t>
         </is>
       </c>
     </row>
@@ -11707,7 +11707,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>0.5545416087514384</t>
+          <t>0.4716447898375371</t>
         </is>
       </c>
     </row>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>0.23989705159363717</t>
+          <t>0.2590020683701191</t>
         </is>
       </c>
     </row>
@@ -11741,7 +11741,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -11758,7 +11758,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>0.22035598380336646</t>
+          <t>0.14235305211154856</t>
         </is>
       </c>
     </row>
@@ -11775,7 +11775,7 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>0.8832225588099292</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -11792,7 +11792,7 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>0.7659975659334801</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>0.93335726001798</t>
+          <t>0.9256859869821294</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11826,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -11843,7 +11843,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>0.7659975659334801</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -11860,7 +11860,7 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>0.8631205685666311</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -11877,7 +11877,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>0.8562976890295143</t>
+          <t>0.6146455482593146</t>
         </is>
       </c>
     </row>
@@ -11894,7 +11894,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>0.5930625607293527</t>
+          <t>0.4800825654055036</t>
         </is>
       </c>
     </row>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>0.7290516460760733</t>
+          <t>0.6825351514527311</t>
         </is>
       </c>
     </row>
@@ -11928,7 +11928,7 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>0.49608996675510947</t>
+          <t>0.49002536922818546</t>
         </is>
       </c>
     </row>
@@ -11945,7 +11945,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>0.5561384747476391</t>
+          <t>0.4141482693119832</t>
         </is>
       </c>
     </row>
@@ -11962,7 +11962,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>0.4376661131372418</t>
+          <t>0.4147492702456586</t>
         </is>
       </c>
     </row>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>0.6388294174113751</t>
+          <t>0.5878879924018979</t>
         </is>
       </c>
     </row>
@@ -11996,7 +11996,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>0.6188104890662769</t>
+          <t>0.5905192058094549</t>
         </is>
       </c>
     </row>
@@ -12013,7 +12013,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>0.3305842326827207</t>
+          <t>0.3552491174767882</t>
         </is>
       </c>
     </row>
@@ -12030,7 +12030,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>0.5827102264428442</t>
+          <t>0.5428543640958985</t>
         </is>
       </c>
     </row>
@@ -12047,7 +12047,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>0.5937219208378038</t>
+          <t>0.5133744085713047</t>
         </is>
       </c>
     </row>
@@ -12064,7 +12064,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>0.5869063704681188</t>
+          <t>0.4874084298197593</t>
         </is>
       </c>
     </row>
@@ -12081,7 +12081,7 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>0.4616849483301997</t>
+          <t>0.43963439007296434</t>
         </is>
       </c>
     </row>
@@ -12098,7 +12098,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>0.3493038911946247</t>
+          <t>0.20289398827155236</t>
         </is>
       </c>
     </row>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>0.5731206149729126</t>
+          <t>0.5452822458230049</t>
         </is>
       </c>
     </row>
@@ -12132,7 +12132,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>0.5154523894976998</t>
+          <t>0.46138008828051735</t>
         </is>
       </c>
     </row>
@@ -12149,7 +12149,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>0.2985408344729549</t>
+          <t>0.31749517060558374</t>
         </is>
       </c>
     </row>
@@ -12166,7 +12166,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>0.7659975659334801</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -12183,7 +12183,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>0.32072631894965775</t>
+          <t>0.2835854539188921</t>
         </is>
       </c>
     </row>
@@ -12200,7 +12200,7 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>0.4721706725372219</t>
+          <t>0.6675220106055881</t>
         </is>
       </c>
     </row>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>0.8174811389674482</t>
+          <t>0.6068130694057319</t>
         </is>
       </c>
     </row>
@@ -12234,7 +12234,7 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>0.8412367762002596</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>0.35430691520139757</t>
+          <t>0.43725955867838107</t>
         </is>
       </c>
     </row>
@@ -12268,7 +12268,7 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>0.8412367762002596</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -12285,7 +12285,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>0.8197304953178658</t>
+          <t>0.6339992821913998</t>
         </is>
       </c>
     </row>
@@ -12302,7 +12302,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>0.5891062887626148</t>
+          <t>0.3739274938777523</t>
         </is>
       </c>
     </row>
@@ -12319,7 +12319,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>0.8317128366220478</t>
+          <t>0.6739634885508049</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12336,7 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>0.5514646657678854</t>
+          <t>0.6549635663096421</t>
         </is>
       </c>
     </row>
@@ -12353,7 +12353,7 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>0.4854463738219156</t>
+          <t>0.32534082611850723</t>
         </is>
       </c>
     </row>
@@ -12370,7 +12370,7 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>0.4649457271990004</t>
+          <t>0.5121548395067759</t>
         </is>
       </c>
     </row>
@@ -12387,7 +12387,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>0.7471044210626211</t>
+          <t>0.6653709795044311</t>
         </is>
       </c>
     </row>
@@ -12404,7 +12404,7 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>0.6444998494148108</t>
+          <t>0.5442643525988043</t>
         </is>
       </c>
     </row>
@@ -12421,7 +12421,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>0.34586074487170526</t>
+          <t>0.37534048932212594</t>
         </is>
       </c>
     </row>
@@ -12438,7 +12438,7 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>0.6279259245252811</t>
+          <t>0.5561336675460791</t>
         </is>
       </c>
     </row>
@@ -12455,7 +12455,7 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>0.644751787149397</t>
+          <t>0.6472035574392775</t>
         </is>
       </c>
     </row>
@@ -12472,7 +12472,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>0.6835194866860443</t>
+          <t>0.6095090208550966</t>
         </is>
       </c>
     </row>
@@ -12489,7 +12489,7 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>0.48734494627509306</t>
+          <t>0.5105049055458578</t>
         </is>
       </c>
     </row>
@@ -12506,7 +12506,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>0.31388690964622235</t>
+          <t>0.26122562846583997</t>
         </is>
       </c>
     </row>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>0.4666303954465001</t>
+          <t>0.5618750198565974</t>
         </is>
       </c>
     </row>
@@ -12540,7 +12540,7 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>0.5249116102430059</t>
+          <t>0.5599451693236414</t>
         </is>
       </c>
     </row>
@@ -12557,7 +12557,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>0.24548668393693537</t>
+          <t>0.22246743928026327</t>
         </is>
       </c>
     </row>
@@ -12574,7 +12574,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>0.4404246407911901</t>
+          <t>0.5675989585651703</t>
         </is>
       </c>
     </row>
@@ -12591,7 +12591,7 @@
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>0.24677168985170525</t>
+          <t>0.1644686663900655</t>
         </is>
       </c>
     </row>
@@ -12608,7 +12608,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>0.5279623067294861</t>
+          <t>0.6675220106055881</t>
         </is>
       </c>
     </row>
@@ -12642,7 +12642,7 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -12659,7 +12659,7 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>0.6311952331478198</t>
+          <t>0.6675220106055881</t>
         </is>
       </c>
     </row>
@@ -12676,7 +12676,7 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>0.6733778196813706</t>
+          <t>0.51447299539141</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>0.46630448074125636</t>
+          <t>0.4922068652453409</t>
         </is>
       </c>
     </row>
@@ -12710,7 +12710,7 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>0.44768410871109493</t>
+          <t>0.5536820733474648</t>
         </is>
       </c>
     </row>
@@ -12727,7 +12727,7 @@
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>0.5678338348998805</t>
+          <t>0.5192156297936594</t>
         </is>
       </c>
     </row>
@@ -12744,7 +12744,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>0.3287138354313423</t>
+          <t>0.3141181140942985</t>
         </is>
       </c>
     </row>
@@ -12761,7 +12761,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>0.4872767055624077</t>
+          <t>0.37065321504567816</t>
         </is>
       </c>
     </row>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>0.5404298550318657</t>
+          <t>0.5001755869389143</t>
         </is>
       </c>
     </row>
@@ -12795,7 +12795,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>0.406572149165678</t>
+          <t>0.464287296781831</t>
         </is>
       </c>
     </row>
@@ -12812,7 +12812,7 @@
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>0.35842374173994673</t>
+          <t>0.36799990950995504</t>
         </is>
       </c>
     </row>
@@ -12829,7 +12829,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>0.420806467124619</t>
+          <t>0.5002721820138504</t>
         </is>
       </c>
     </row>
@@ -12846,7 +12846,7 @@
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>0.4395807577299877</t>
+          <t>0.47332768605873354</t>
         </is>
       </c>
     </row>
@@ -12863,7 +12863,7 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>0.46665667266754185</t>
+          <t>0.4540382081638363</t>
         </is>
       </c>
     </row>
@@ -12880,7 +12880,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>0.4923859028931846</t>
+          <t>0.4506658513265</t>
         </is>
       </c>
     </row>
@@ -12897,7 +12897,7 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>0.3447849457051402</t>
+          <t>0.2125919303346278</t>
         </is>
       </c>
     </row>
@@ -12914,7 +12914,7 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>0.6217337524462581</t>
+          <t>0.6243364699566732</t>
         </is>
       </c>
     </row>
@@ -12931,7 +12931,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>0.5545416087514384</t>
+          <t>0.4716447898375371</t>
         </is>
       </c>
     </row>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>0.23989705159363717</t>
+          <t>0.2590020683701191</t>
         </is>
       </c>
     </row>
@@ -12965,7 +12965,7 @@
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -12982,7 +12982,7 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>0.22035598380336646</t>
+          <t>0.14235305211154856</t>
         </is>
       </c>
     </row>
@@ -12999,7 +12999,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>0.7382173318244967</t>
+          <t>0.6068130694057319</t>
         </is>
       </c>
     </row>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>0.7382173318244967</t>
+          <t>0.6068130694057319</t>
         </is>
       </c>
     </row>
@@ -13050,7 +13050,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>0.8562976890295143</t>
+          <t>0.6146455482593146</t>
         </is>
       </c>
     </row>
@@ -13067,7 +13067,7 @@
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>0.5930625607293527</t>
+          <t>0.48029786385654655</t>
         </is>
       </c>
     </row>
@@ -13084,7 +13084,7 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>0.7344461802527668</t>
+          <t>0.6130568706831484</t>
         </is>
       </c>
     </row>
@@ -13101,7 +13101,7 @@
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>0.49608996675510947</t>
+          <t>0.4881864029573987</t>
         </is>
       </c>
     </row>
@@ -13118,7 +13118,7 @@
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>0.6280228062762186</t>
+          <t>0.5333003793584078</t>
         </is>
       </c>
     </row>
@@ -13135,7 +13135,7 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>0.4376661131372418</t>
+          <t>0.4147492702456586</t>
         </is>
       </c>
     </row>
@@ -13152,7 +13152,7 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>0.6388294174113751</t>
+          <t>0.5878879924018979</t>
         </is>
       </c>
     </row>
@@ -13169,7 +13169,7 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>0.6188104890662769</t>
+          <t>0.5905192058094549</t>
         </is>
       </c>
     </row>
@@ -13186,7 +13186,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>0.3305842326827207</t>
+          <t>0.3552491174767882</t>
         </is>
       </c>
     </row>
@@ -13203,7 +13203,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>0.5827102264428442</t>
+          <t>0.5428543640958985</t>
         </is>
       </c>
     </row>
@@ -13220,7 +13220,7 @@
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>0.5937219208378038</t>
+          <t>0.5133744085713048</t>
         </is>
       </c>
     </row>
@@ -13237,7 +13237,7 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>0.5869063704681188</t>
+          <t>0.4874084298197593</t>
         </is>
       </c>
     </row>
@@ -13254,7 +13254,7 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>0.4616849483301997</t>
+          <t>0.43963439007296434</t>
         </is>
       </c>
     </row>
@@ -13271,7 +13271,7 @@
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>0.3218489925936724</t>
+          <t>0.20289398827155236</t>
         </is>
       </c>
     </row>
@@ -13288,7 +13288,7 @@
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>0.5393305707579432</t>
+          <t>0.4282185044318852</t>
         </is>
       </c>
     </row>
@@ -13305,7 +13305,7 @@
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>0.5154523894976996</t>
+          <t>0.46138008828051735</t>
         </is>
       </c>
     </row>
@@ -13322,7 +13322,7 @@
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>0.2985408344729549</t>
+          <t>0.31749517060558363</t>
         </is>
       </c>
     </row>
@@ -13339,7 +13339,7 @@
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -13356,7 +13356,7 @@
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>0.2951764701490733</t>
+          <t>0.2568507597614954</t>
         </is>
       </c>
     </row>
@@ -13373,7 +13373,7 @@
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>0.39307909088355614</t>
+          <t>0.43725955867838107</t>
         </is>
       </c>
     </row>
@@ -13390,7 +13390,7 @@
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>0.8412367762002596</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -13407,7 +13407,7 @@
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>0.7063535603543297</t>
+          <t>0.6339992821913998</t>
         </is>
       </c>
     </row>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>0.5298167826701612</t>
+          <t>0.3739274938777523</t>
         </is>
       </c>
     </row>
@@ -13441,7 +13441,7 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>0.6874396360667677</t>
+          <t>0.6739634885508049</t>
         </is>
       </c>
     </row>
@@ -13458,7 +13458,7 @@
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>0.5872685222320057</t>
+          <t>0.6549635663096421</t>
         </is>
       </c>
     </row>
@@ -13475,7 +13475,7 @@
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>0.4275314233130338</t>
+          <t>0.32534082611850723</t>
         </is>
       </c>
     </row>
@@ -13492,7 +13492,7 @@
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>0.5568534911067099</t>
+          <t>0.5121548395067759</t>
         </is>
       </c>
     </row>
@@ -13509,7 +13509,7 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>0.7459986809621644</t>
+          <t>0.6653709795044311</t>
         </is>
       </c>
     </row>
@@ -13526,7 +13526,7 @@
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>0.5658267947134226</t>
+          <t>0.5442643525988043</t>
         </is>
       </c>
     </row>
@@ -13543,7 +13543,7 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>0.3546926798606576</t>
+          <t>0.37534048932212594</t>
         </is>
       </c>
     </row>
@@ -13560,7 +13560,7 @@
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>0.5351381648487634</t>
+          <t>0.5561336675460791</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>0.6494322054076751</t>
+          <t>0.6472035574392775</t>
         </is>
       </c>
     </row>
@@ -13594,7 +13594,7 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>0.6804185558066548</t>
+          <t>0.6095090208550966</t>
         </is>
       </c>
     </row>
@@ -13611,7 +13611,7 @@
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>0.47841100190547087</t>
+          <t>0.5105049055458577</t>
         </is>
       </c>
     </row>
@@ -13628,7 +13628,7 @@
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>0.33081004471742625</t>
+          <t>0.26122562846583997</t>
         </is>
       </c>
     </row>
@@ -13645,7 +13645,7 @@
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>0.4690180511294014</t>
+          <t>0.5618750198565974</t>
         </is>
       </c>
     </row>
@@ -13662,7 +13662,7 @@
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>0.5403737229643103</t>
+          <t>0.5599451693236414</t>
         </is>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>0.2481776934221702</t>
+          <t>0.22246743928026327</t>
         </is>
       </c>
     </row>
@@ -13696,7 +13696,7 @@
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>0.4962162749834543</t>
+          <t>0.5675989585651703</t>
         </is>
       </c>
     </row>
@@ -13713,7 +13713,7 @@
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>0.2750415405810106</t>
+          <t>0.1644686663900655</t>
         </is>
       </c>
     </row>
@@ -13730,7 +13730,7 @@
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>0.6311952331478198</t>
+          <t>0.5759463819055027</t>
         </is>
       </c>
     </row>
@@ -13747,7 +13747,7 @@
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>0.6733778196813706</t>
+          <t>0.51447299539141</t>
         </is>
       </c>
     </row>
@@ -13764,7 +13764,7 @@
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>0.46630448074125636</t>
+          <t>0.4922068652453409</t>
         </is>
       </c>
     </row>
@@ -13781,7 +13781,7 @@
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>0.44768410871109493</t>
+          <t>0.5536820733474648</t>
         </is>
       </c>
     </row>
@@ -13798,7 +13798,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>0.5678338348998805</t>
+          <t>0.431336293026077</t>
         </is>
       </c>
     </row>
@@ -13815,7 +13815,7 @@
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>0.3287138354313423</t>
+          <t>0.3141181140942985</t>
         </is>
       </c>
     </row>
@@ -13832,7 +13832,7 @@
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>0.4872767055624077</t>
+          <t>0.36361960283805705</t>
         </is>
       </c>
     </row>
@@ -13849,7 +13849,7 @@
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>0.5404298550318657</t>
+          <t>0.5001755869389143</t>
         </is>
       </c>
     </row>
@@ -13866,7 +13866,7 @@
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>0.406572149165678</t>
+          <t>0.464287296781831</t>
         </is>
       </c>
     </row>
@@ -13883,7 +13883,7 @@
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>0.35842374173994673</t>
+          <t>0.36799990950995504</t>
         </is>
       </c>
     </row>
@@ -13900,7 +13900,7 @@
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>0.420806467124619</t>
+          <t>0.5002721820138504</t>
         </is>
       </c>
     </row>
@@ -13917,7 +13917,7 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>0.4395807577299877</t>
+          <t>0.47332768605873354</t>
         </is>
       </c>
     </row>
@@ -13934,7 +13934,7 @@
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>0.46665667266754185</t>
+          <t>0.4540382081638363</t>
         </is>
       </c>
     </row>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>0.4923859028931846</t>
+          <t>0.4506658513265</t>
         </is>
       </c>
     </row>
@@ -13968,7 +13968,7 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>0.3447849457051402</t>
+          <t>0.2125919303346278</t>
         </is>
       </c>
     </row>
@@ -13985,7 +13985,7 @@
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>0.530578909650542</t>
+          <t>0.4678265747984784</t>
         </is>
       </c>
     </row>
@@ -14002,7 +14002,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>0.5545416087514384</t>
+          <t>0.4716447898375371</t>
         </is>
       </c>
     </row>
@@ -14019,7 +14019,7 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>0.23989705159363717</t>
+          <t>0.2590020683701191</t>
         </is>
       </c>
     </row>
@@ -14036,7 +14036,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>0.8175072881213616</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -14053,7 +14053,7 @@
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>0.22035598380336646</t>
+          <t>0.14235305211154856</t>
         </is>
       </c>
     </row>
@@ -14070,7 +14070,7 @@
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>0.7063535603543297</t>
+          <t>0.6339992821913998</t>
         </is>
       </c>
     </row>
@@ -14087,7 +14087,7 @@
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>0.5298167826701612</t>
+          <t>0.3739274938777523</t>
         </is>
       </c>
     </row>
@@ -14104,7 +14104,7 @@
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>0.6874396360667677</t>
+          <t>0.6739634885508049</t>
         </is>
       </c>
     </row>
@@ -14121,7 +14121,7 @@
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>0.5872685222320057</t>
+          <t>0.6549635663096421</t>
         </is>
       </c>
     </row>
@@ -14138,7 +14138,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>0.4607665863757019</t>
+          <t>0.32534082611850723</t>
         </is>
       </c>
     </row>
@@ -14155,7 +14155,7 @@
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>0.5568534911067099</t>
+          <t>0.5121548395067759</t>
         </is>
       </c>
     </row>
@@ -14172,7 +14172,7 @@
       </c>
       <c r="C808" t="inlineStr">
         <is>
-          <t>0.7459986809621644</t>
+          <t>0.6653709795044311</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>0.5658267947134226</t>
+          <t>0.5442643525988043</t>
         </is>
       </c>
     </row>
@@ -14206,7 +14206,7 @@
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>0.3546926798606576</t>
+          <t>0.37534048932212594</t>
         </is>
       </c>
     </row>
@@ -14223,7 +14223,7 @@
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>0.5351381648487634</t>
+          <t>0.5561336675460791</t>
         </is>
       </c>
     </row>
@@ -14240,7 +14240,7 @@
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>0.6494322054076751</t>
+          <t>0.6472035574392775</t>
         </is>
       </c>
     </row>
@@ -14257,7 +14257,7 @@
       </c>
       <c r="C813" t="inlineStr">
         <is>
-          <t>0.6804185558066548</t>
+          <t>0.6095090208550966</t>
         </is>
       </c>
     </row>
@@ -14274,7 +14274,7 @@
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>0.47841100190547087</t>
+          <t>0.5105049055458577</t>
         </is>
       </c>
     </row>
@@ -14291,7 +14291,7 @@
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>0.33081004471742625</t>
+          <t>0.26122562846583997</t>
         </is>
       </c>
     </row>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>0.6251508347313245</t>
+          <t>0.5618750198565974</t>
         </is>
       </c>
     </row>
@@ -14325,7 +14325,7 @@
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>0.5403737229643103</t>
+          <t>0.5599451693236414</t>
         </is>
       </c>
     </row>
@@ -14342,7 +14342,7 @@
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>0.2578035345308586</t>
+          <t>0.23049798962889725</t>
         </is>
       </c>
     </row>
@@ -14359,7 +14359,7 @@
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>0.6311952331478198</t>
+          <t>0.5759463819055027</t>
         </is>
       </c>
     </row>
@@ -14376,7 +14376,7 @@
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>0.29562772805569887</t>
+          <t>0.27199726128114876</t>
         </is>
       </c>
     </row>
@@ -14393,7 +14393,7 @@
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>0.7656136834339384</t>
+          <t>0.623936948389752</t>
         </is>
       </c>
     </row>
@@ -14410,7 +14410,7 @@
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -14427,7 +14427,7 @@
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>0.7897544115288491</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -14444,7 +14444,7 @@
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>0.5719207344480417</t>
+          <t>0.47130705517861293</t>
         </is>
       </c>
     </row>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>0.7764870119178279</t>
+          <t>0.6454423154645335</t>
         </is>
       </c>
     </row>
@@ -14478,7 +14478,7 @@
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>0.8421737325589584</t>
+          <t>0.8818806233415394</t>
         </is>
       </c>
     </row>
@@ -14495,7 +14495,7 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>0.8327309447226083</t>
+          <t>0.8818806233415394</t>
         </is>
       </c>
     </row>
@@ -14512,7 +14512,7 @@
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>0.41043392847220883</t>
+          <t>0.33786303972625864</t>
         </is>
       </c>
     </row>
@@ -14529,7 +14529,7 @@
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>0.7594610554513269</t>
+          <t>0.7517001882888317</t>
         </is>
       </c>
     </row>
@@ -14546,7 +14546,7 @@
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>0.8327309447226083</t>
+          <t>0.7517001882888317</t>
         </is>
       </c>
     </row>
@@ -14563,7 +14563,7 @@
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>0.8728341199762158</t>
+          <t>0.7517001882888317</t>
         </is>
       </c>
     </row>
@@ -14580,7 +14580,7 @@
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>0.5344796582710443</t>
+          <t>0.39084202315374333</t>
         </is>
       </c>
     </row>
@@ -14597,7 +14597,7 @@
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>0.5430911203730543</t>
+          <t>0.41559966930667364</t>
         </is>
       </c>
     </row>
@@ -14614,7 +14614,7 @@
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>0.4725842730944526</t>
+          <t>0.40748224413513284</t>
         </is>
       </c>
     </row>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>0.5430911203730543</t>
+          <t>0.41559966930667364</t>
         </is>
       </c>
     </row>
@@ -14648,7 +14648,7 @@
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>0.30386268204781525</t>
+          <t>0.2237439423174271</t>
         </is>
       </c>
     </row>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>0.6733778196813706</t>
+          <t>0.51447299539141</t>
         </is>
       </c>
     </row>
@@ -14682,7 +14682,7 @@
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>0.43356138178785364</t>
+          <t>0.39948638139788434</t>
         </is>
       </c>
     </row>
@@ -14699,7 +14699,7 @@
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t>0.9227586759718769</t>
+          <t>0.7035103037093104</t>
         </is>
       </c>
     </row>
@@ -14716,7 +14716,7 @@
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>0.8466200810174342</t>
+          <t>0.7035103037093103</t>
         </is>
       </c>
     </row>
@@ -14733,7 +14733,7 @@
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>0.3643757305966676</t>
+          <t>0.34844433067874925</t>
         </is>
       </c>
     </row>
@@ -14750,7 +14750,7 @@
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>0.8852264858671106</t>
+          <t>0.814961148861902</t>
         </is>
       </c>
     </row>
@@ -14767,7 +14767,7 @@
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>0.9173221743734817</t>
+          <t>0.7035103037093104</t>
         </is>
       </c>
     </row>
@@ -14784,7 +14784,7 @@
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>0.8509307569319995</t>
+          <t>0.7140297246683526</t>
         </is>
       </c>
     </row>
@@ -14801,7 +14801,7 @@
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>0.7121113907714658</t>
+          <t>0.6718508659602892</t>
         </is>
       </c>
     </row>
@@ -14818,7 +14818,7 @@
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>0.7927460781224013</t>
+          <t>0.9373889204053751</t>
         </is>
       </c>
     </row>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="C847" t="inlineStr">
         <is>
-          <t>0.8582359526977396</t>
+          <t>0.9373889204053751</t>
         </is>
       </c>
     </row>
@@ -14852,7 +14852,7 @@
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>0.8686331278097014</t>
+          <t>0.9373889204053751</t>
         </is>
       </c>
     </row>
@@ -14869,7 +14869,7 @@
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>0.3796110150409093</t>
+          <t>0.27477789171326195</t>
         </is>
       </c>
     </row>
@@ -14886,7 +14886,7 @@
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>0.3622382311025777</t>
+          <t>0.28094588488109207</t>
         </is>
       </c>
     </row>
@@ -14903,7 +14903,7 @@
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>0.37284906892312947</t>
+          <t>0.2870641029113866</t>
         </is>
       </c>
     </row>
@@ -14920,7 +14920,7 @@
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>0.3622382311025777</t>
+          <t>0.34381107071038586</t>
         </is>
       </c>
     </row>
@@ -14937,7 +14937,7 @@
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>0.3410893578855814</t>
+          <t>0.3457826034574997</t>
         </is>
       </c>
     </row>
@@ -14954,7 +14954,7 @@
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>0.46630448074125636</t>
+          <t>0.4922068652453409</t>
         </is>
       </c>
     </row>
@@ -14971,7 +14971,7 @@
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>0.4424633717956969</t>
+          <t>0.32694630244983724</t>
         </is>
       </c>
     </row>
@@ -14988,7 +14988,7 @@
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>0.9340768271178619</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -15005,7 +15005,7 @@
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>0.6198544191595348</t>
+          <t>0.3517727469993759</t>
         </is>
       </c>
     </row>
@@ -15022,7 +15022,7 @@
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>0.8903484540676482</t>
+          <t>0.7960670081782801</t>
         </is>
       </c>
     </row>
@@ -15039,7 +15039,7 @@
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>0.9253745019461711</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -15056,7 +15056,7 @@
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -15073,7 +15073,7 @@
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>0.49263079881062743</t>
+          <t>0.4415884140330825</t>
         </is>
       </c>
     </row>
@@ -15090,7 +15090,7 @@
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>0.8720092226615501</t>
+          <t>0.917962716490072</t>
         </is>
       </c>
     </row>
@@ -15107,7 +15107,7 @@
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.917962716490072</t>
         </is>
       </c>
     </row>
@@ -15124,7 +15124,7 @@
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.917962716490072</t>
         </is>
       </c>
     </row>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>0.3860942359814779</t>
+          <t>0.29241469561720224</t>
         </is>
       </c>
     </row>
@@ -15158,7 +15158,7 @@
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>0.37817326609283186</t>
+          <t>0.2569134817814281</t>
         </is>
       </c>
     </row>
@@ -15175,7 +15175,7 @@
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>0.45128159172756055</t>
+          <t>0.44222078981445156</t>
         </is>
       </c>
     </row>
@@ -15192,7 +15192,7 @@
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>0.37817326609283186</t>
+          <t>0.33956503861306997</t>
         </is>
       </c>
     </row>
@@ -15209,7 +15209,7 @@
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>0.3867603476210346</t>
+          <t>0.3368811301737616</t>
         </is>
       </c>
     </row>
@@ -15226,7 +15226,7 @@
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>0.44768410871109493</t>
+          <t>0.5536820733474648</t>
         </is>
       </c>
     </row>
@@ -15243,7 +15243,7 @@
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>0.3392364391846777</t>
+          <t>0.41905152774887533</t>
         </is>
       </c>
     </row>
@@ -15260,7 +15260,7 @@
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>0.36750744410187997</t>
+          <t>0.3002216270015698</t>
         </is>
       </c>
     </row>
@@ -15277,7 +15277,7 @@
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>0.7281502424187285</t>
+          <t>0.7960670081782801</t>
         </is>
       </c>
     </row>
@@ -15294,7 +15294,7 @@
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>0.8848164612803978</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -15311,7 +15311,7 @@
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>0.8169512066599742</t>
+          <t>0.8055683753915861</t>
         </is>
       </c>
     </row>
@@ -15328,7 +15328,7 @@
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>0.4148187944275889</t>
+          <t>0.40048521648141155</t>
         </is>
       </c>
     </row>
@@ -15345,7 +15345,7 @@
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>0.6688041416458984</t>
+          <t>0.9373889204053754</t>
         </is>
       </c>
     </row>
@@ -15362,7 +15362,7 @@
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>0.7377457291933804</t>
+          <t>0.9373889204053754</t>
         </is>
       </c>
     </row>
@@ -15379,7 +15379,7 @@
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>0.7327443905133892</t>
+          <t>0.9373889204053754</t>
         </is>
       </c>
     </row>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>0.48015903371706237</t>
+          <t>0.3662093641672201</t>
         </is>
       </c>
     </row>
@@ -15413,7 +15413,7 @@
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>0.38825847231624866</t>
+          <t>0.28046840154347663</t>
         </is>
       </c>
     </row>
@@ -15430,7 +15430,7 @@
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>0.46763179144512707</t>
+          <t>0.44222078981445156</t>
         </is>
       </c>
     </row>
@@ -15447,7 +15447,7 @@
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>0.38825847231624866</t>
+          <t>0.33956503861306997</t>
         </is>
       </c>
     </row>
@@ -15464,7 +15464,7 @@
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>0.29163161084389155</t>
+          <t>0.33354298457824033</t>
         </is>
       </c>
     </row>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>0.5678338348998805</t>
+          <t>0.431336293026077</t>
         </is>
       </c>
     </row>
@@ -15498,7 +15498,7 @@
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>0.4114389021056236</t>
+          <t>0.3354304505015535</t>
         </is>
       </c>
     </row>
@@ -15515,7 +15515,7 @@
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>0.343843874269598</t>
+          <t>0.28471000695218945</t>
         </is>
       </c>
     </row>
@@ -15532,7 +15532,7 @@
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>0.6566890677277568</t>
+          <t>0.4445666269314981</t>
         </is>
       </c>
     </row>
@@ -15549,7 +15549,7 @@
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>0.6640493282686902</t>
+          <t>0.4964740227819389</t>
         </is>
       </c>
     </row>
@@ -15566,7 +15566,7 @@
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>0.2515373868284353</t>
+          <t>0.2635204497983254</t>
         </is>
       </c>
     </row>
@@ -15583,7 +15583,7 @@
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>0.4227934965233137</t>
+          <t>0.36261015962210685</t>
         </is>
       </c>
     </row>
@@ -15600,7 +15600,7 @@
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>0.41683614865664975</t>
+          <t>0.36261015962210685</t>
         </is>
       </c>
     </row>
@@ -15617,7 +15617,7 @@
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>0.41683614865664975</t>
+          <t>0.36261015962210685</t>
         </is>
       </c>
     </row>
@@ -15634,7 +15634,7 @@
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>0.4177551663458443</t>
+          <t>0.20930762083493018</t>
         </is>
       </c>
     </row>
@@ -15651,7 +15651,7 @@
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>0.30628210806415096</t>
+          <t>0.1982891991036019</t>
         </is>
       </c>
     </row>
@@ -15668,7 +15668,7 @@
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>0.34180722018569537</t>
+          <t>0.22978416277560412</t>
         </is>
       </c>
     </row>
@@ -15685,7 +15685,7 @@
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>0.5534799700168623</t>
+          <t>0.24798394140163263</t>
         </is>
       </c>
     </row>
@@ -15702,7 +15702,7 @@
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>0.36598018995630693</t>
+          <t>0.25297460725506116</t>
         </is>
       </c>
     </row>
@@ -15719,7 +15719,7 @@
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>0.3287138354313423</t>
+          <t>0.4502625714449189</t>
         </is>
       </c>
     </row>
@@ -15736,7 +15736,7 @@
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>0.3736311549166649</t>
+          <t>0.34957038302971877</t>
         </is>
       </c>
     </row>
@@ -15753,7 +15753,7 @@
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>0.9165624930264294</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -15770,7 +15770,7 @@
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9113605788661331</t>
         </is>
       </c>
     </row>
@@ -15787,7 +15787,7 @@
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>0.6680445579677966</t>
+          <t>0.630505626582654</t>
         </is>
       </c>
     </row>
@@ -15804,7 +15804,7 @@
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>0.9141572776607838</t>
+          <t>0.9113605788661331</t>
         </is>
       </c>
     </row>
@@ -15821,7 +15821,7 @@
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9113605788661331</t>
         </is>
       </c>
     </row>
@@ -15838,7 +15838,7 @@
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -15855,7 +15855,7 @@
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>0.364496564362514</t>
+          <t>0.28530108550893574</t>
         </is>
       </c>
     </row>
@@ -15872,7 +15872,7 @@
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>0.40752952180973145</t>
+          <t>0.3154115034997442</t>
         </is>
       </c>
     </row>
@@ -15889,7 +15889,7 @@
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>0.43353279472459294</t>
+          <t>0.34227174716095954</t>
         </is>
       </c>
     </row>
@@ -15906,7 +15906,7 @@
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>0.40752952180973145</t>
+          <t>0.38512536562515665</t>
         </is>
       </c>
     </row>
@@ -15923,7 +15923,7 @@
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>0.504269158588869</t>
+          <t>0.3130181938428319</t>
         </is>
       </c>
     </row>
@@ -15940,7 +15940,7 @@
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>0.4872767055624077</t>
+          <t>0.3738892040537566</t>
         </is>
       </c>
     </row>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>0.4814640049052831</t>
+          <t>0.698413259709402</t>
         </is>
       </c>
     </row>
@@ -15974,7 +15974,7 @@
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -15991,7 +15991,7 @@
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>0.5601178715086944</t>
+          <t>0.5638591383918468</t>
         </is>
       </c>
     </row>
@@ -16008,7 +16008,7 @@
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>0.9077531044110295</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -16025,7 +16025,7 @@
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -16042,7 +16042,7 @@
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -16059,7 +16059,7 @@
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>0.40496968640072506</t>
+          <t>0.3280191523745336</t>
         </is>
       </c>
     </row>
@@ -16076,7 +16076,7 @@
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>0.3683133007161098</t>
+          <t>0.24612257358270895</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>0.5956138427945634</t>
+          <t>0.43348654967255024</t>
         </is>
       </c>
     </row>
@@ -16110,7 +16110,7 @@
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>0.3971971715288736</t>
+          <t>0.33635585231732823</t>
         </is>
       </c>
     </row>
@@ -16127,7 +16127,7 @@
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>0.3367376801321767</t>
+          <t>0.20916767536039427</t>
         </is>
       </c>
     </row>
@@ -16144,7 +16144,7 @@
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>0.5404298550318657</t>
+          <t>0.5001755869389143</t>
         </is>
       </c>
     </row>
@@ -16161,7 +16161,7 @@
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>0.331353511650311</t>
+          <t>0.39948638139788434</t>
         </is>
       </c>
     </row>
@@ -16178,7 +16178,7 @@
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>0.6594788912204356</t>
+          <t>0.6869446020268781</t>
         </is>
       </c>
     </row>
@@ -16195,7 +16195,7 @@
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -16212,7 +16212,7 @@
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -16229,7 +16229,7 @@
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -16246,7 +16246,7 @@
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>0.5423954562772508</t>
+          <t>0.3783843205593828</t>
         </is>
       </c>
     </row>
@@ -16263,7 +16263,7 @@
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>0.44872529248665166</t>
+          <t>0.23946585660349812</t>
         </is>
       </c>
     </row>
@@ -16280,7 +16280,7 @@
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>0.38277724378301</t>
+          <t>0.3587742893400222</t>
         </is>
       </c>
     </row>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>0.44872529248665166</t>
+          <t>0.4004344006815812</t>
         </is>
       </c>
     </row>
@@ -16314,7 +16314,7 @@
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>0.3609702005210634</t>
+          <t>0.3311989478772833</t>
         </is>
       </c>
     </row>
@@ -16331,7 +16331,7 @@
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>0.406572149165678</t>
+          <t>0.464287296781831</t>
         </is>
       </c>
     </row>
@@ -16348,7 +16348,7 @@
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>0.31402602311017846</t>
+          <t>0.40721078261151744</t>
         </is>
       </c>
     </row>
@@ -16365,7 +16365,7 @@
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>0.6359101833105781</t>
+          <t>0.5952415587578049</t>
         </is>
       </c>
     </row>
@@ -16382,7 +16382,7 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>0.7200433583156785</t>
+          <t>0.7008181040593444</t>
         </is>
       </c>
     </row>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>0.7433552279576409</t>
+          <t>0.6601846709153507</t>
         </is>
       </c>
     </row>
@@ -16416,7 +16416,7 @@
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>0.4221007870037096</t>
+          <t>0.34409663223176495</t>
         </is>
       </c>
     </row>
@@ -16433,7 +16433,7 @@
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>0.33627259675643945</t>
+          <t>0.30750172264818865</t>
         </is>
       </c>
     </row>
@@ -16450,7 +16450,7 @@
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>0.4161327230303815</t>
+          <t>0.30031950966512777</t>
         </is>
       </c>
     </row>
@@ -16467,7 +16467,7 @@
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>0.33627259675643945</t>
+          <t>0.3094670579673635</t>
         </is>
       </c>
     </row>
@@ -16484,7 +16484,7 @@
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>0.5176179413346554</t>
+          <t>0.3531277176165558</t>
         </is>
       </c>
     </row>
@@ -16501,7 +16501,7 @@
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>0.35842374173994673</t>
+          <t>0.36799990950995504</t>
         </is>
       </c>
     </row>
@@ -16518,7 +16518,7 @@
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>0.5779893862871156</t>
+          <t>0.6871784051268405</t>
         </is>
       </c>
     </row>
@@ -16535,7 +16535,7 @@
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -16552,7 +16552,7 @@
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -16569,7 +16569,7 @@
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>0.47113494776484405</t>
+          <t>0.32072863448515604</t>
         </is>
       </c>
     </row>
@@ -16586,7 +16586,7 @@
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>0.4097279398368835</t>
+          <t>0.23500557016009843</t>
         </is>
       </c>
     </row>
@@ -16603,7 +16603,7 @@
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>0.40791706799688165</t>
+          <t>0.34227174716095954</t>
         </is>
       </c>
     </row>
@@ -16620,7 +16620,7 @@
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>0.4097279398368835</t>
+          <t>0.38512536562515665</t>
         </is>
       </c>
     </row>
@@ -16637,7 +16637,7 @@
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>0.319070152002913</t>
+          <t>0.38600019408451813</t>
         </is>
       </c>
     </row>
@@ -16654,7 +16654,7 @@
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>0.420806467124619</t>
+          <t>0.5002721820138504</t>
         </is>
       </c>
     </row>
@@ -16671,7 +16671,7 @@
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>0.3973350905109201</t>
+          <t>0.4875414040407667</t>
         </is>
       </c>
     </row>
@@ -16688,7 +16688,7 @@
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -16705,7 +16705,7 @@
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>0.3396871654766036</t>
+          <t>0.3735156001470874</t>
         </is>
       </c>
     </row>
@@ -16722,7 +16722,7 @@
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>0.26057802979495315</t>
+          <t>0.2426446236054055</t>
         </is>
       </c>
     </row>
@@ -16739,7 +16739,7 @@
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>0.3932753457555694</t>
+          <t>0.37591162771990805</t>
         </is>
       </c>
     </row>
@@ -16756,7 +16756,7 @@
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>0.34596885390418475</t>
+          <t>0.38512536562515665</t>
         </is>
       </c>
     </row>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>0.3280869839909</t>
+          <t>0.3177201734988628</t>
         </is>
       </c>
     </row>
@@ -16790,7 +16790,7 @@
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>0.4395807577299877</t>
+          <t>0.47332768605873354</t>
         </is>
       </c>
     </row>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>0.3957330564485795</t>
+          <t>0.5838984332384325</t>
         </is>
       </c>
     </row>
@@ -16824,7 +16824,7 @@
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>0.3396871654766036</t>
+          <t>0.3280191523745337</t>
         </is>
       </c>
     </row>
@@ -16841,7 +16841,7 @@
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>0.3661388824304299</t>
+          <t>0.24472259554641212</t>
         </is>
       </c>
     </row>
@@ -16858,7 +16858,7 @@
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>0.46881691137142933</t>
+          <t>0.34889752021609904</t>
         </is>
       </c>
     </row>
@@ -16875,7 +16875,7 @@
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>0.3661388824304299</t>
+          <t>0.38512536562515665</t>
         </is>
       </c>
     </row>
@@ -16892,7 +16892,7 @@
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>0.3737389652715958</t>
+          <t>0.27914226479879883</t>
         </is>
       </c>
     </row>
@@ -16909,7 +16909,7 @@
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>0.46665667266754185</t>
+          <t>0.4540382081638363</t>
         </is>
       </c>
     </row>
@@ -16926,7 +16926,7 @@
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>0.49553440787291136</t>
+          <t>0.515413974917949</t>
         </is>
       </c>
     </row>
@@ -16943,7 +16943,7 @@
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>0.6892464284007229</t>
+          <t>0.5673397964904265</t>
         </is>
       </c>
     </row>
@@ -16960,7 +16960,7 @@
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>0.5165315119245918</t>
+          <t>0.4632310420376499</t>
         </is>
       </c>
     </row>
@@ -16977,7 +16977,7 @@
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>0.9517232097955572</t>
+          <t>0.8092657877378318</t>
         </is>
       </c>
     </row>
@@ -16994,7 +16994,7 @@
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>0.26716514219784054</t>
+          <t>0.14794871102009882</t>
         </is>
       </c>
     </row>
@@ -17011,7 +17011,7 @@
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>0.4923859028931846</t>
+          <t>0.4506658513265</t>
         </is>
       </c>
     </row>
@@ -17028,7 +17028,7 @@
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>0.25098062191524234</t>
+          <t>0.2946024443279532</t>
         </is>
       </c>
     </row>
@@ -17045,7 +17045,7 @@
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>0.3870045758471272</t>
+          <t>0.28872818608180517</t>
         </is>
       </c>
     </row>
@@ -17062,7 +17062,7 @@
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>0.9998182469603427</t>
+          <t>0.9999999999999996</t>
         </is>
       </c>
     </row>
@@ -17079,7 +17079,7 @@
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>0.4204169163763543</t>
+          <t>0.5164661536967272</t>
         </is>
       </c>
     </row>
@@ -17096,7 +17096,7 @@
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>0.3447849457051402</t>
+          <t>0.27477789171326195</t>
         </is>
       </c>
     </row>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>0.27843347398690654</t>
+          <t>0.2639687955158585</t>
         </is>
       </c>
     </row>
@@ -17130,7 +17130,7 @@
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>0.6709541167607033</t>
+          <t>0.6702874694471609</t>
         </is>
       </c>
     </row>
@@ -17147,7 +17147,7 @@
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>0.1956854321292014</t>
+          <t>0.20522322604229803</t>
         </is>
       </c>
     </row>
@@ -17164,7 +17164,7 @@
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>0.5918775127888565</t>
+          <t>0.48087229361921047</t>
         </is>
       </c>
     </row>
@@ -17181,7 +17181,7 @@
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>0.24949849531507615</t>
+          <t>0.15619094494827582</t>
         </is>
       </c>
     </row>
@@ -17198,7 +17198,7 @@
       </c>
       <c r="C986" t="inlineStr">
         <is>
-          <t>0.4644632937248564</t>
+          <t>0.4786705269683528</t>
         </is>
       </c>
     </row>
@@ -17215,7 +17215,7 @@
       </c>
       <c r="C987" t="inlineStr">
         <is>
-          <t>0.5545416087514384</t>
+          <t>0.4716447898375371</t>
         </is>
       </c>
     </row>
@@ -17232,7 +17232,7 @@
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>0.26396504126716824</t>
+          <t>0.2639687955158585</t>
         </is>
       </c>
     </row>
@@ -17249,7 +17249,7 @@
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>0.23989705159363717</t>
+          <t>0.294202466418433</t>
         </is>
       </c>
     </row>
@@ -17266,7 +17266,7 @@
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>0.2666776004850358</t>
+          <t>0.16670008330317163</t>
         </is>
       </c>
     </row>
@@ -17283,7 +17283,7 @@
       </c>
       <c r="C991" t="inlineStr">
         <is>
-          <t>0.26846441620164263</t>
+          <t>0.1616975741134862</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/correlation-values.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnAllTrain/DataDrivenNCOR/correlation-values.xlsx
@@ -470,7 +470,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.6735950135899843</t>
+          <t>0.6925292663358589</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.40748224413513284</t>
+          <t>0.38512800413828113</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.8979052088716982</t>
+          <t>0.9113605788661331</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.16075433078195278</t>
+          <t>0.1841490836595273</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.22452374737498473</t>
+          <t>0.20054942955579527</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.3053083359360894</t>
+          <t>0.44497754340426887</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.22452374737498473</t>
+          <t>0.20054942955579527</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.49120517172728745</t>
+          <t>0.5136816884278812</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.30472644818738304</t>
+          <t>0.4381089752846306</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.22452374737498473</t>
+          <t>0.20054942955579527</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.2990751759868304</t>
+          <t>0.47607202694785444</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.22778554752356875</t>
+          <t>0.4789629486634457</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.22452374737498473</t>
+          <t>0.20054942955579527</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.5692008500310732</t>
+          <t>0.7079891911499864</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.30732717255576975</t>
+          <t>0.254477341392282</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.30732717255576975</t>
+          <t>0.2544773413922822</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.3996181007580702</t>
+          <t>0.2683800803281509</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.3333780366080064</t>
+          <t>0.2341403475866988</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.28451032136408055</t>
+          <t>0.36363636363636304</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.3996181007580702</t>
+          <t>0.2683800803281509</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.3274338345374948</t>
+          <t>0.2341403475866988</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.28451032136408055</t>
+          <t>0.2614924181447106</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.3996181007580702</t>
+          <t>0.22232252332845867</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.30732717255576975</t>
+          <t>0.2341403475866988</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.3996181007580702</t>
+          <t>0.2747778917132621</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.439740399700009</t>
+          <t>0.6146012889028412</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.2531621613701341</t>
+          <t>0.32159288959292814</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.3050506657364417</t>
+          <t>0.26690020740915504</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.3687467714269824</t>
+          <t>0.4986850815688651</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.2005361307133481</t>
+          <t>0.26848415119249835</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.28530108550893574</t>
+          <t>0.3535830157314273</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.33255070903135103</t>
+          <t>0.2793730382582777</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.3783843205593828</t>
+          <t>0.40824965204037933</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.274020840657258</t>
+          <t>0.43416825108545964</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.30472644818738287</t>
+          <t>0.4430641314483246</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.3735156001470874</t>
+          <t>0.2593904890103688</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.3280191523745337</t>
+          <t>0.25842376390174093</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.8661464015062368</t>
+          <t>0.8919191912837047</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.5673397964904265</t>
+          <t>0.5830696057848125</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.40748224413513284</t>
+          <t>0.38512800413828113</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.7592608055723085</t>
+          <t>0.7811686874697253</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.16075433078195278</t>
+          <t>0.1841490836595273</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.3099573429647827</t>
+          <t>0.25991451273365923</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.40119235196188074</t>
+          <t>0.2066979864503176</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.3032035229196784</t>
+          <t>0.3705567559917798</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9256859869821294</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.432080110021307</t>
+          <t>0.3077004257815325</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.4801965346526023</t>
+          <t>0.28886176636938427</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.3072885061396181</t>
+          <t>0.34147452236896836</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.4801965346526023</t>
+          <t>0.28886176636938427</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.4064340887023951</t>
+          <t>0.259390489010369</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.43183689193317665</t>
+          <t>0.2719956831549871</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.4801965346526023</t>
+          <t>0.28886176636938427</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.4127305147238345</t>
+          <t>0.2536007837892409</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.6947485556392539</t>
+          <t>0.49094626817744663</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.4801965346526023</t>
+          <t>0.29873072591920213</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.7229620841769608</t>
+          <t>0.668407034868569</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.28727233480982245</t>
+          <t>0.3172931814248238</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.28727233480982245</t>
+          <t>0.3172931814248238</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.2941178385196553</t>
+          <t>0.27579009058750004</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.28727233480982245</t>
+          <t>0.3172931814248238</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.22999841411405114</t>
+          <t>0.3033693170496722</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0.2941178385196551</t>
+          <t>0.27579009058750004</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.28727233480982245</t>
+          <t>0.3172931814248238</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.2299984141140513</t>
+          <t>0.26324350743118063</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0.2941178385196553</t>
+          <t>0.31031038975256325</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.28727233480982245</t>
+          <t>0.3172931814248238</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.2941178385196553</t>
+          <t>0.31031038975256325</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.6140806820148603</t>
+          <t>0.6409542415412528</t>
         </is>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.2514245548265906</t>
+          <t>0.3738892040537567</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.353965108188891</t>
+          <t>0.4127305147238343</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.4477712116396563</t>
+          <t>0.4911686306505259</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.3112781244591322</t>
+          <t>0.38776270608622293</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.38803324756449237</t>
+          <t>0.4572810028076522</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0.4116155964952707</t>
+          <t>0.29164716010591213</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0.2291110565855741</t>
+          <t>0.2817272239544851</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0.24078298382938784</t>
+          <t>0.2033564741913636</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0.28351509568128574</t>
+          <t>0.35249863826137384</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0.24077306293102407</t>
+          <t>0.31017273345447266</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0.25647232217752025</t>
+          <t>0.23377412486177904</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0.6735950135899843</t>
+          <t>0.6925292663358589</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0.3032035229196784</t>
+          <t>0.3705567559917798</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9545454545454541</t>
         </is>
       </c>
     </row>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0.432080110021307</t>
+          <t>0.3077004257815325</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0.28727233480982245</t>
+          <t>0.3172931814248238</t>
         </is>
       </c>
     </row>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0.32207233200031843</t>
+          <t>0.3582439949856517</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.32005115559988073</t>
+          <t>0.275662676018512</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0.20522322604229803</t>
+          <t>0.17435303184663814</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0.15127235498754332</t>
+          <t>0.10480143243485832</t>
         </is>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0.2922560340180931</t>
+          <t>0.25145218502255756</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0.15127235498754357</t>
+          <t>0.19893119266386497</t>
         </is>
       </c>
     </row>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0.31868121974217956</t>
+          <t>0.3261281449684399</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0.2796652621415975</t>
+          <t>0.25145218502255823</t>
         </is>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0.1512723549875435</t>
+          <t>0.19893119266386505</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0.32183546849969197</t>
+          <t>0.24323169446404427</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0.10248951753406683</t>
+          <t>0.10810971722965164</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0.13521132930619342</t>
+          <t>0.10368276726520208</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0.12977046792461022</t>
+          <t>0.1595340512072403</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.563683641537806</t>
+          <t>0.64001728668151</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0.563683641537806</t>
+          <t>0.64001728668151</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>0.5618750198565974</t>
+          <t>0.43687857212736164</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>0.6243364699566732</t>
+          <t>0.64001728668151</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>0.5452822458230049</t>
+          <t>0.494374732160722</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0.5618750198565974</t>
+          <t>0.4368785721273616</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>0.6243364699566732</t>
+          <t>0.6262947211324302</t>
         </is>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>0.4282185044318852</t>
+          <t>0.4377247352338844</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>0.5618750198565974</t>
+          <t>0.5126517666598237</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>0.4678265747984784</t>
+          <t>0.5618750198565975</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>0.5618750198565974</t>
+          <t>0.570351305126345</t>
         </is>
       </c>
     </row>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>0.40748224413513284</t>
+          <t>0.534077985951678</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>0.2870641029113866</t>
+          <t>0.3607444875998443</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0.44222078981445156</t>
+          <t>0.4880059594773313</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>0.44222078981445156</t>
+          <t>0.3882984928978217</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>0.22978416277560412</t>
+          <t>0.20504232641879053</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>0.34227174716095954</t>
+          <t>0.39681785004907894</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0.43348654967255024</t>
+          <t>0.5155593771968588</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>0.3587742893400222</t>
+          <t>0.2867018310757862</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>0.30031950966512777</t>
+          <t>0.4535035224031494</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>0.34227174716095954</t>
+          <t>0.3600504684411661</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>0.37591162771990805</t>
+          <t>0.4006435422444113</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>0.34889752021609904</t>
+          <t>0.339969228159045</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>0.4632310420376499</t>
+          <t>0.4910787766464719</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>0.28872818608180517</t>
+          <t>0.4288939787259883</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>0.7732266742876339</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>0.6702874694471609</t>
+          <t>0.6420771372305807</t>
         </is>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>0.20522322604229803</t>
+          <t>0.17435303184663814</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>0.48087229361921047</t>
+          <t>0.5618750198565975</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>0.15619094494827582</t>
+          <t>0.20963550100537473</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>0.3633254960861991</t>
+          <t>0.459905677854113</t>
         </is>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>0.4201566809319488</t>
+          <t>0.3599825755982029</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>0.3853284855274924</t>
+          <t>0.2878864532272824</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>0.4201566809319488</t>
+          <t>0.3599825755982029</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>0.4267325642887049</t>
+          <t>0.35150148611071896</t>
         </is>
       </c>
     </row>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>0.44734470157023726</t>
+          <t>0.27952474735991567</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>0.4201566809319488</t>
+          <t>0.3599825755982029</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>0.49274500067746035</t>
+          <t>0.34896890924391477</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>0.5968926741375861</t>
+          <t>0.5542790851250384</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>0.4201566809319488</t>
+          <t>0.3599825755982029</t>
         </is>
       </c>
     </row>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>0.7217311311017477</t>
+          <t>0.6590105095988549</t>
         </is>
       </c>
     </row>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>0.29441042158614583</t>
+          <t>0.16880099493339468</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>0.29441042158614583</t>
+          <t>0.16880099493339476</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>0.3613343722518238</t>
+          <t>0.26879171246780253</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>0.29441042158614583</t>
+          <t>0.18162820933507146</t>
         </is>
       </c>
     </row>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>0.2745182500939756</t>
+          <t>0.2729916718474916</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>0.3613343722518238</t>
+          <t>0.26879171246780253</t>
         </is>
       </c>
     </row>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>0.29441042158614583</t>
+          <t>0.18162820933507162</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>0.2745182500939756</t>
+          <t>0.23889325816269974</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>0.3613343722518238</t>
+          <t>0.3890282085629931</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>0.29441042158614583</t>
+          <t>0.16880099493339476</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>0.3613343722518238</t>
+          <t>0.3890282085629931</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>0.7785191679211588</t>
+          <t>0.679380367697719</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>0.30540888339631683</t>
+          <t>0.45980484897515833</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>0.49260850305233317</t>
+          <t>0.44046467710689857</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>0.5140329940277352</t>
+          <t>0.47472732099674436</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>0.2897895328099573</t>
+          <t>0.40538511871327537</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>0.4768640165509615</t>
+          <t>0.43650028364838095</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>0.43773436294201334</t>
+          <t>0.34647982949628414</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>0.2482407631903675</t>
+          <t>0.5265367693397226</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>0.30540888339631683</t>
+          <t>0.26352044979832523</t>
         </is>
       </c>
     </row>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>0.2835150956812861</t>
+          <t>0.4801351102611892</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>0.2505289389121506</t>
+          <t>0.39427015931314996</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>0.2507205314865805</t>
+          <t>0.2531333548515597</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>0.7366209185150485</t>
+          <t>0.7445974057580437</t>
         </is>
       </c>
     </row>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>0.8871408590080996</t>
+          <t>0.8289903910902391</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>0.32005115559988073</t>
+          <t>0.275662676018512</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>0.8871408590080996</t>
+          <t>0.8289903910902391</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>0.3633254960861991</t>
+          <t>0.4599056778541132</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>0.29441042158614583</t>
+          <t>0.16880099493339476</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>0.3609084497608545</t>
+          <t>0.3582439949856517</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>0.9456603046006401</t>
+          <t>0.8756633923230396</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>0.41212918823545286</t>
+          <t>0.29700447285202874</t>
         </is>
       </c>
     </row>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>0.9456603046006401</t>
+          <t>0.8756633923230396</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>0.3911668849527461</t>
+          <t>0.33891418365373543</t>
         </is>
       </c>
     </row>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>0.3413578344976249</t>
+          <t>0.2716208476011722</t>
         </is>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>0.9456603046006401</t>
+          <t>0.8756633923230396</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>0.2737305785614264</t>
+          <t>0.3859739817722262</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>0.3263927502673093</t>
+          <t>0.29232062214570154</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>0.9456603046006401</t>
+          <t>0.8756633923230396</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>0.4592443230530496</t>
+          <t>0.35926340560994313</t>
         </is>
       </c>
     </row>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>0.2590020683701192</t>
+          <t>0.2223335347325068</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>0.259002068370119</t>
+          <t>0.2223335347325068</t>
         </is>
       </c>
     </row>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>0.22246743928026327</t>
+          <t>0.18036939580116718</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>0.259002068370119</t>
+          <t>0.2223335347325068</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>0.31749517060558374</t>
+          <t>0.2034185668367179</t>
         </is>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>0.2224674392802632</t>
+          <t>0.18036939580116718</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>0.259002068370119</t>
+          <t>0.2223335347325068</t>
         </is>
       </c>
     </row>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>0.31749517060558363</t>
+          <t>0.21008320655373944</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>0.22246743928026327</t>
+          <t>0.23281581947703037</t>
         </is>
       </c>
     </row>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>0.259002068370119</t>
+          <t>0.2223335347325068</t>
         </is>
       </c>
     </row>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>0.23049798962889725</t>
+          <t>0.23281581947703037</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>0.2237439423174271</t>
+          <t>0.21132103764677057</t>
         </is>
       </c>
     </row>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>0.3418247220476724</t>
+          <t>0.32461704720017415</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>0.3368811301737616</t>
+          <t>0.30070549551124387</t>
         </is>
       </c>
     </row>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>0.33354298457824033</t>
+          <t>0.41214186581150974</t>
         </is>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>0.3060155468073147</t>
+          <t>0.19068998921734467</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>0.3130181938428318</t>
+          <t>0.5042320596938719</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>0.23435079891248614</t>
+          <t>0.3105515045851909</t>
         </is>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>0.2894474686949766</t>
+          <t>0.2779081837401416</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>0.3531277176165558</t>
+          <t>0.38274277902117143</t>
         </is>
       </c>
     </row>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>0.38600019408451813</t>
+          <t>0.3307609674043022</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>0.31772017349886283</t>
+          <t>0.45076332897668026</t>
         </is>
       </c>
     </row>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>0.2722802410987242</t>
+          <t>0.39667275118136547</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>0.14794871102009852</t>
+          <t>0.17601473363139464</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>0.5164661536967272</t>
+          <t>0.24602059622110212</t>
         </is>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>0.20522322604229803</t>
+          <t>0.17435303184663814</t>
         </is>
       </c>
     </row>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>0.47867052696835294</t>
+          <t>0.40234625153112163</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>0.9760206482366148</t>
+          <t>0.9256859869821294</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>0.294202466418433</t>
+          <t>0.2223335347325068</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>0.26138632088113667</t>
+          <t>0.27169206600791573</t>
         </is>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>0.41212918823545286</t>
+          <t>0.3594479267993932</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>0.9456603046006401</t>
+          <t>0.8756633923230396</t>
         </is>
       </c>
     </row>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>0.48644388501963154</t>
+          <t>0.3631507646763532</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>0.38579526582038354</t>
+          <t>0.28840715243309756</t>
         </is>
       </c>
     </row>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>0.9456603046006401</t>
+          <t>0.8756633923230396</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>0.33217045504342574</t>
+          <t>0.39917163949417445</t>
         </is>
       </c>
     </row>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>0.32639275026730946</t>
+          <t>0.29232062214570154</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>0.9456603046006401</t>
+          <t>0.8756633923230396</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>0.5438532981889299</t>
+          <t>0.400803456288459</t>
         </is>
       </c>
     </row>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>0.26384212278245817</t>
+          <t>0.17213860639627931</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>0.2638421227824581</t>
+          <t>0.17213860639627931</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>0.1674597871232766</t>
+          <t>0.17860485134413473</t>
         </is>
       </c>
     </row>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>0.2229191339847299</t>
+          <t>0.17213860639627931</t>
         </is>
       </c>
     </row>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>0.287134826969609</t>
+          <t>0.19038290014705236</t>
         </is>
       </c>
     </row>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>0.1674597871232766</t>
+          <t>0.17860485134413473</t>
         </is>
       </c>
     </row>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>0.2229191339847299</t>
+          <t>0.17213860639627931</t>
         </is>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>0.2871348269696095</t>
+          <t>0.19038290014705236</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>0.1674597871232766</t>
+          <t>0.18426512027617187</t>
         </is>
       </c>
     </row>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>0.2229191339847299</t>
+          <t>0.17213860639627931</t>
         </is>
       </c>
     </row>
@@ -4363,7 +4363,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>0.20013764599292255</t>
+          <t>0.18426512027617187</t>
         </is>
       </c>
     </row>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>0.3080513613545611</t>
+          <t>0.2214782125861168</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>0.37604768266536986</t>
+          <t>0.35469497054175386</t>
         </is>
       </c>
     </row>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>0.41610598584333747</t>
+          <t>0.3489112441051437</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>0.3157620096829248</t>
+          <t>0.39495662201733545</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>0.30677282206949785</t>
+          <t>0.1491373127197475</t>
         </is>
       </c>
     </row>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>0.34476794131033006</t>
+          <t>0.5137691765976177</t>
         </is>
       </c>
     </row>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>0.25440348573173815</t>
+          <t>0.3130467198075424</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>0.35094721551278385</t>
+          <t>0.32680970648964486</t>
         </is>
       </c>
     </row>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>0.4186385627101415</t>
+          <t>0.4416236186123722</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>0.43932411541871585</t>
+          <t>0.3077177138291461</t>
         </is>
       </c>
     </row>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>0.357613931800908</t>
+          <t>0.4093852689623796</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>0.3377910861923096</t>
+          <t>0.386221540638578</t>
         </is>
       </c>
     </row>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>0.1867243877794935</t>
+          <t>0.14674368359006718</t>
         </is>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>0.36827974085542486</t>
+          <t>0.1897492543387233</t>
         </is>
       </c>
     </row>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>0.15127235498754332</t>
+          <t>0.10480143243485832</t>
         </is>
       </c>
     </row>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>0.3960849183761548</t>
+          <t>0.309897757995595</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>0.9456603046006401</t>
+          <t>0.8756633923230396</t>
         </is>
       </c>
     </row>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>0.26384212278245817</t>
+          <t>0.17213860639627931</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>0.22452374737498465</t>
+          <t>0.24472773226684646</t>
         </is>
       </c>
     </row>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>0.373954589381791</t>
+          <t>0.3594479267993932</t>
         </is>
       </c>
     </row>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>0.8952003127133933</t>
+          <t>0.9940302114769562</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>0.373954589381791</t>
+          <t>0.3594479267993932</t>
         </is>
       </c>
     </row>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>0.9202776547079442</t>
+          <t>0.998509098917632</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>0.608351638297619</t>
+          <t>0.6226657212700845</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>0.373954589381791</t>
+          <t>0.3594479267993932</t>
         </is>
       </c>
     </row>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>0.4125819193032005</t>
+          <t>0.5826562200255081</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>0.4596368381919328</t>
+          <t>0.2564980688725382</t>
         </is>
       </c>
     </row>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>0.4596368381919327</t>
+          <t>0.25649806887253834</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>0.4188190316377514</t>
+          <t>0.3596742856026309</t>
         </is>
       </c>
     </row>
@@ -4890,7 +4890,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>0.45955231311845807</t>
+          <t>0.25649806887253834</t>
         </is>
       </c>
     </row>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>0.5189271104541419</t>
+          <t>0.3476132272083843</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>0.4188190316377514</t>
+          <t>0.3596742856026309</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>0.45955231311845807</t>
+          <t>0.2564980688725385</t>
         </is>
       </c>
     </row>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>0.5189271104541419</t>
+          <t>0.33749999515445844</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>0.4188190316377514</t>
+          <t>0.32444901529189074</t>
         </is>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>0.45955231311845807</t>
+          <t>0.23936895579120465</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>0.4188190316377514</t>
+          <t>0.3476132272083844</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>0.8811710704850563</t>
+          <t>0.7921322713149563</t>
         </is>
       </c>
     </row>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>0.7057008498985318</t>
+          <t>0.7843994284275847</t>
         </is>
       </c>
     </row>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>0.9119929279670287</t>
+          <t>0.7922611078729204</t>
         </is>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>0.8606477175754431</t>
+          <t>0.7775660571126504</t>
         </is>
       </c>
     </row>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>0.45604521595455777</t>
+          <t>0.28748814148977153</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>0.7683119294931562</t>
+          <t>0.6520273587434232</t>
         </is>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>0.863849776424249</t>
+          <t>0.7839140183443077</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>0.8795365903336058</t>
+          <t>0.7325254136588518</t>
         </is>
       </c>
     </row>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>0.4037746749963804</t>
+          <t>0.2980830976910024</t>
         </is>
       </c>
     </row>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>0.7835390022973355</t>
+          <t>0.5866496379167945</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>0.7835390022973355</t>
+          <t>0.6957600072937182</t>
         </is>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>0.7854042597240635</t>
+          <t>0.6564221893798347</t>
         </is>
       </c>
     </row>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>0.29989639116789074</t>
+          <t>0.3032706802673684</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>0.2620135677166578</t>
+          <t>0.4312052815619451</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>0.2922560340180931</t>
+          <t>0.25145218502255756</t>
         </is>
       </c>
     </row>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>0.3895418292730154</t>
+          <t>0.3681679202931804</t>
         </is>
       </c>
     </row>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>0.32188107546533645</t>
+          <t>0.3231624224876394</t>
         </is>
       </c>
     </row>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>0.45963683819193285</t>
+          <t>0.23936895579120465</t>
         </is>
       </c>
     </row>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>0.21594480989645315</t>
+          <t>0.18540393560658366</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>0.48644388501963154</t>
+          <t>0.3631507646763532</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>0.47581571997247996</t>
+          <t>0.2919918733834894</t>
         </is>
       </c>
     </row>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>0.9456603046006401</t>
+          <t>0.8756633923230396</t>
         </is>
       </c>
     </row>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>0.36086048193714615</t>
+          <t>0.39917163949417445</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>0.31810802352639383</t>
+          <t>0.29232062214570154</t>
         </is>
       </c>
     </row>
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>0.9456603046006401</t>
+          <t>0.8756633923230396</t>
         </is>
       </c>
     </row>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>0.5438532981889299</t>
+          <t>0.400803456288459</t>
         </is>
       </c>
     </row>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>0.26384212278245817</t>
+          <t>0.16641816387255956</t>
         </is>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>0.2638421227824581</t>
+          <t>0.16641816387255956</t>
         </is>
       </c>
     </row>
@@ -5502,7 +5502,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>0.16745978712327653</t>
+          <t>0.16280491703136754</t>
         </is>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>0.22291913398473004</t>
+          <t>0.12668406094173396</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>0.287134826969609</t>
+          <t>0.18327085200758605</t>
         </is>
       </c>
     </row>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>0.16745978712327653</t>
+          <t>0.1723465157212525</t>
         </is>
       </c>
     </row>
@@ -5570,7 +5570,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>0.22291913398473004</t>
+          <t>0.12668406094173396</t>
         </is>
       </c>
     </row>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>0.2871348269696095</t>
+          <t>0.18327085200758605</t>
         </is>
       </c>
     </row>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>0.16745978712327653</t>
+          <t>0.1687545604420265</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>0.22291913398473004</t>
+          <t>0.12668406094173396</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>0.20013764599292255</t>
+          <t>0.1815295720139741</t>
         </is>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>0.3080513613545611</t>
+          <t>0.2214782125861168</t>
         </is>
       </c>
     </row>
@@ -5672,7 +5672,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>0.4021854371123556</t>
+          <t>0.35469497054175386</t>
         </is>
       </c>
     </row>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>0.41610598584333747</t>
+          <t>0.3489112441051437</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>0.3157620096829248</t>
+          <t>0.39495662201733545</t>
         </is>
       </c>
     </row>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>0.30677282206949785</t>
+          <t>0.1491373127197475</t>
         </is>
       </c>
     </row>
@@ -5740,7 +5740,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>0.36086048193714615</t>
+          <t>0.5137691765976177</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>0.25440348573173815</t>
+          <t>0.33891418365373543</t>
         </is>
       </c>
     </row>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>0.35094721551278385</t>
+          <t>0.32680970648964486</t>
         </is>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>0.4186385627101415</t>
+          <t>0.4416236186123722</t>
         </is>
       </c>
     </row>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>0.43932411541871585</t>
+          <t>0.3077177138291461</t>
         </is>
       </c>
     </row>
@@ -5825,7 +5825,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>0.36086048193714615</t>
+          <t>0.4093852689623796</t>
         </is>
       </c>
     </row>
@@ -5842,7 +5842,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>0.36086048193714615</t>
+          <t>0.386221540638578</t>
         </is>
       </c>
     </row>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>0.25927190273283734</t>
+          <t>0.17771813420010457</t>
         </is>
       </c>
     </row>
@@ -5876,7 +5876,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>0.36827974085542486</t>
+          <t>0.19737067578573156</t>
         </is>
       </c>
     </row>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>0.15127235498754357</t>
+          <t>0.19893119266386497</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>0.3960849183761548</t>
+          <t>0.309897757995595</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>0.9456603046006401</t>
+          <t>0.8756633923230396</t>
         </is>
       </c>
     </row>
@@ -5944,7 +5944,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>0.26384212278245817</t>
+          <t>0.16641816387255956</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>0.2916663836264264</t>
+          <t>0.24472773226684646</t>
         </is>
       </c>
     </row>
@@ -5978,7 +5978,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>0.7817810745894892</t>
+          <t>0.9940302114769562</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>0.48644388501963154</t>
+          <t>0.3631507646763532</t>
         </is>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>0.9940302114769562</t>
+          <t>0.998509098917632</t>
         </is>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>0.4127500974765844</t>
+          <t>0.5092631918164707</t>
         </is>
       </c>
     </row>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>0.48644388501963154</t>
+          <t>0.3631507646763532</t>
         </is>
       </c>
     </row>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>0.5310922733902661</t>
+          <t>0.5826987274008839</t>
         </is>
       </c>
     </row>
@@ -6080,7 +6080,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>0.5096367715378944</t>
+          <t>0.29075477154951945</t>
         </is>
       </c>
     </row>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>0.5096367715378943</t>
+          <t>0.29075477154951956</t>
         </is>
       </c>
     </row>
@@ -6114,7 +6114,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>0.46421121430460005</t>
+          <t>0.44482624773771107</t>
         </is>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>0.5096367715378943</t>
+          <t>0.29075477154951956</t>
         </is>
       </c>
     </row>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>0.5772962956144937</t>
+          <t>0.3991198414336183</t>
         </is>
       </c>
     </row>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>0.46421121430459994</t>
+          <t>0.44482624773771107</t>
         </is>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>0.5096367715378943</t>
+          <t>0.29075477154951945</t>
         </is>
       </c>
     </row>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>0.5772962956144937</t>
+          <t>0.39907759553130767</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>0.46421121430460005</t>
+          <t>0.37617279410440857</t>
         </is>
       </c>
     </row>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>0.5096367715378943</t>
+          <t>0.2688084732661088</t>
         </is>
       </c>
     </row>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>0.46421121430460005</t>
+          <t>0.39911984143361806</t>
         </is>
       </c>
     </row>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>0.875910834818496</t>
+          <t>0.7243495030689876</t>
         </is>
       </c>
     </row>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>0.863849776424249</t>
+          <t>0.7586869333384064</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>0.9940302114769562</t>
+          <t>0.7903692169506279</t>
         </is>
       </c>
     </row>
@@ -6318,7 +6318,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>0.9373889204053751</t>
+          <t>0.8289903910902391</t>
         </is>
       </c>
     </row>
@@ -6335,7 +6335,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>0.3303074841895915</t>
+          <t>0.2614810052781487</t>
         </is>
       </c>
     </row>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>0.863849776424249</t>
+          <t>0.716131250098339</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>0.9940302114769562</t>
+          <t>0.789883806867351</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>0.9940302114769562</t>
+          <t>0.6517975808695494</t>
         </is>
       </c>
     </row>
@@ -6403,7 +6403,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>0.49563196145643057</t>
+          <t>0.27753332694067434</t>
         </is>
       </c>
     </row>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>0.9940302114769562</t>
+          <t>0.645378111555362</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>0.9940302114769562</t>
+          <t>0.7463239151410576</t>
         </is>
       </c>
     </row>
@@ -6454,7 +6454,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>0.9940302114769562</t>
+          <t>0.7895087908203787</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>0.3054159259786623</t>
+          <t>0.3584165660194925</t>
         </is>
       </c>
     </row>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>0.3948221400047791</t>
+          <t>0.4514345277197003</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>0.31868121974217956</t>
+          <t>0.3261281449684399</t>
         </is>
       </c>
     </row>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>0.3948221400047791</t>
+          <t>0.4027593129452391</t>
         </is>
       </c>
     </row>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>0.3911668849527461</t>
+          <t>0.37456966212017867</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>0.5096367715378943</t>
+          <t>0.2688084732661088</t>
         </is>
       </c>
     </row>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>0.2640303540285766</t>
+          <t>0.18988633217717568</t>
         </is>
       </c>
     </row>
@@ -6590,7 +6590,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>0.3390258019347033</t>
+          <t>0.35745970341158567</t>
         </is>
       </c>
     </row>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9940302114769562</t>
         </is>
       </c>
     </row>
@@ -6624,7 +6624,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>0.5256789466173116</t>
+          <t>0.5425609173373801</t>
         </is>
       </c>
     </row>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>0.41145968847318215</t>
+          <t>0.28840715243309756</t>
         </is>
       </c>
     </row>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>0.4758157199724803</t>
+          <t>0.4865635100597248</t>
         </is>
       </c>
     </row>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>0.4040097573248598</t>
+          <t>0.2564980688725382</t>
         </is>
       </c>
     </row>
@@ -6692,7 +6692,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>0.4040097573248598</t>
+          <t>0.25649806887253834</t>
         </is>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>0.367874147088066</t>
+          <t>0.3598578505616024</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>0.3858842814229208</t>
+          <t>0.25649806887253834</t>
         </is>
       </c>
     </row>
@@ -6743,7 +6743,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>0.4510870035159984</t>
+          <t>0.3476132272083843</t>
         </is>
       </c>
     </row>
@@ -6760,7 +6760,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>0.367874147088066</t>
+          <t>0.3598578505616024</t>
         </is>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>0.41418229273738716</t>
+          <t>0.25649806887253834</t>
         </is>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>0.43993675044668956</t>
+          <t>0.3313727508840451</t>
         </is>
       </c>
     </row>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>0.367874147088066</t>
+          <t>0.3156231010698849</t>
         </is>
       </c>
     </row>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>0.3836871337589306</t>
+          <t>0.21419317760024312</t>
         </is>
       </c>
     </row>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>0.40400975732485966</t>
+          <t>0.3476132272083844</t>
         </is>
       </c>
     </row>
@@ -6862,7 +6862,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>0.9011701012364366</t>
+          <t>0.8056718956393611</t>
         </is>
       </c>
     </row>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>0.7140297246683526</t>
+          <t>0.7843994284275848</t>
         </is>
       </c>
     </row>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>0.8524948864619754</t>
+          <t>0.8275409279421797</t>
         </is>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>0.8698195649472922</t>
+          <t>0.7775660571126504</t>
         </is>
       </c>
     </row>
@@ -6930,7 +6930,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>0.4964740227819389</t>
+          <t>0.3186812197421798</t>
         </is>
       </c>
     </row>
@@ -6947,7 +6947,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>0.7035103037093103</t>
+          <t>0.6520273587434232</t>
         </is>
       </c>
     </row>
@@ -6964,7 +6964,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>0.7433863667578553</t>
+          <t>0.7839140183443077</t>
         </is>
       </c>
     </row>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>0.8666175060984863</t>
+          <t>0.7325254136588518</t>
         </is>
       </c>
     </row>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>0.4458661534807896</t>
+          <t>0.2980830976910024</t>
         </is>
       </c>
     </row>
@@ -7015,7 +7015,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>0.8666175060984863</t>
+          <t>0.6261515675426753</t>
         </is>
       </c>
     </row>
@@ -7032,7 +7032,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>0.8666175060984863</t>
+          <t>0.6957600072937182</t>
         </is>
       </c>
     </row>
@@ -7049,7 +7049,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>0.8666175060984863</t>
+          <t>0.6988205097291602</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>0.24582588843777956</t>
+          <t>0.2821861607846835</t>
         </is>
       </c>
     </row>
@@ -7083,7 +7083,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>0.2384615841535796</t>
+          <t>0.4380424748338901</t>
         </is>
       </c>
     </row>
@@ -7100,7 +7100,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>0.2796652621415975</t>
+          <t>0.25145218502255823</t>
         </is>
       </c>
     </row>
@@ -7117,7 +7117,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>0.38512536562515665</t>
+          <t>0.371837149023041</t>
         </is>
       </c>
     </row>
@@ -7134,7 +7134,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>0.27871590810874125</t>
+          <t>0.30774253756253844</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>0.3991198414336182</t>
+          <t>0.21419317760024312</t>
         </is>
       </c>
     </row>
@@ -7168,7 +7168,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>0.23546187625175785</t>
+          <t>0.1796784010192586</t>
         </is>
       </c>
     </row>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>0.33217045504342574</t>
+          <t>0.39917163949417445</t>
         </is>
       </c>
     </row>
@@ -7202,7 +7202,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>0.32639275026730963</t>
+          <t>0.35745970341158567</t>
         </is>
       </c>
     </row>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>0.9456603046006401</t>
+          <t>0.8756633923230396</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>0.5438532981889299</t>
+          <t>0.400803456288459</t>
         </is>
       </c>
     </row>
@@ -7253,7 +7253,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>0.26384212278245817</t>
+          <t>0.16641816387255956</t>
         </is>
       </c>
     </row>
@@ -7270,7 +7270,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>0.2638421227824581</t>
+          <t>0.16641816387255956</t>
         </is>
       </c>
     </row>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>0.1674597871232766</t>
+          <t>0.16137509279328285</t>
         </is>
       </c>
     </row>
@@ -7304,7 +7304,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>0.22291913398472998</t>
+          <t>0.12668406094173404</t>
         </is>
       </c>
     </row>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>0.287134826969609</t>
+          <t>0.18327085200758605</t>
         </is>
       </c>
     </row>
@@ -7338,7 +7338,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>0.16745978712327628</t>
+          <t>0.16137509279328302</t>
         </is>
       </c>
     </row>
@@ -7355,7 +7355,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>0.22291913398472998</t>
+          <t>0.12668406094173404</t>
         </is>
       </c>
     </row>
@@ -7372,7 +7372,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>0.2871348269696095</t>
+          <t>0.18327085200758605</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>0.1674597871232766</t>
+          <t>0.13881057482162654</t>
         </is>
       </c>
     </row>
@@ -7406,7 +7406,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>0.22291913398472998</t>
+          <t>0.12668406094173404</t>
         </is>
       </c>
     </row>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>0.20013764599292255</t>
+          <t>0.1815295720139741</t>
         </is>
       </c>
     </row>
@@ -7440,7 +7440,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>0.3080513613545611</t>
+          <t>0.2839012723136865</t>
         </is>
       </c>
     </row>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>0.41625424655677296</t>
+          <t>0.35469497054175386</t>
         </is>
       </c>
     </row>
@@ -7474,7 +7474,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>0.41610598584333747</t>
+          <t>0.35745970341158567</t>
         </is>
       </c>
     </row>
@@ -7491,7 +7491,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>0.3157620096829248</t>
+          <t>0.39495662201733545</t>
         </is>
       </c>
     </row>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>0.30677282206949785</t>
+          <t>0.20185372413768915</t>
         </is>
       </c>
     </row>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>0.37840520174964165</t>
+          <t>0.5137691765976177</t>
         </is>
       </c>
     </row>
@@ -7542,7 +7542,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>0.30257787314260126</t>
+          <t>0.33891418365373527</t>
         </is>
       </c>
     </row>
@@ -7559,7 +7559,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>0.35094721551278385</t>
+          <t>0.39087933122226404</t>
         </is>
       </c>
     </row>
@@ -7576,7 +7576,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>0.4186385627101415</t>
+          <t>0.4416236186123722</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>0.43932411541871585</t>
+          <t>0.3077177138291461</t>
         </is>
       </c>
     </row>
@@ -7610,7 +7610,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>0.357613931800908</t>
+          <t>0.41974054393384114</t>
         </is>
       </c>
     </row>
@@ -7627,7 +7627,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>0.3377910861923096</t>
+          <t>0.41974054393384114</t>
         </is>
       </c>
     </row>
@@ -7644,7 +7644,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>0.20284043088741005</t>
+          <t>0.14674368359006718</t>
         </is>
       </c>
     </row>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>0.36827974085542486</t>
+          <t>0.17711136447718728</t>
         </is>
       </c>
     </row>
@@ -7678,7 +7678,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>0.1512723549875435</t>
+          <t>0.19893119266386505</t>
         </is>
       </c>
     </row>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>0.3960849183761548</t>
+          <t>0.309897757995595</t>
         </is>
       </c>
     </row>
@@ -7712,7 +7712,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>0.9456603046006401</t>
+          <t>0.8756633923230396</t>
         </is>
       </c>
     </row>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>0.26384212278245817</t>
+          <t>0.16641816387255956</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>0.2916663836264262</t>
+          <t>0.2676369874246148</t>
         </is>
       </c>
     </row>
@@ -7763,7 +7763,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>0.46103397230585713</t>
+          <t>0.540373393688496</t>
         </is>
       </c>
     </row>
@@ -7780,7 +7780,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>0.33217045504342574</t>
+          <t>0.39917163949417445</t>
         </is>
       </c>
     </row>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>0.5234921156983421</t>
+          <t>0.6056041416693605</t>
         </is>
       </c>
     </row>
@@ -7814,7 +7814,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>0.4716447898375372</t>
+          <t>0.27303801470746086</t>
         </is>
       </c>
     </row>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>0.4716447898375372</t>
+          <t>0.2730380147074612</t>
         </is>
       </c>
     </row>
@@ -7848,7 +7848,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>0.43370589600260584</t>
+          <t>0.386099471326718</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>0.4716447898375372</t>
+          <t>0.2730380147074612</t>
         </is>
       </c>
     </row>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>0.5310195871732208</t>
+          <t>0.37239830297138904</t>
         </is>
       </c>
     </row>
@@ -7899,7 +7899,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>0.4337058960026057</t>
+          <t>0.386099471326718</t>
         </is>
       </c>
     </row>
@@ -7916,7 +7916,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>0.4873689971127367</t>
+          <t>0.27303801470746103</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>0.5310195871732208</t>
+          <t>0.3278795648430805</t>
         </is>
       </c>
     </row>
@@ -7950,7 +7950,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>0.43370589600260584</t>
+          <t>0.35005107515699263</t>
         </is>
       </c>
     </row>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>0.4716447898375372</t>
+          <t>0.24952976753632664</t>
         </is>
       </c>
     </row>
@@ -7984,7 +7984,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>0.4696844590546905</t>
+          <t>0.3723983029713889</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>0.7663793114956149</t>
+          <t>0.796611158755632</t>
         </is>
       </c>
     </row>
@@ -8018,7 +8018,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>0.9373889204053751</t>
+          <t>0.8700551732479388</t>
         </is>
       </c>
     </row>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>0.9760206482366148</t>
+          <t>0.899679200154069</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>0.9373889204053754</t>
+          <t>0.8666885539038429</t>
         </is>
       </c>
     </row>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>0.36261015962210685</t>
+          <t>0.26827483093669663</t>
         </is>
       </c>
     </row>
@@ -8086,7 +8086,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>0.8901257532696213</t>
+          <t>0.8023402024728734</t>
         </is>
       </c>
     </row>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>0.9373889204053754</t>
+          <t>0.9043793386886254</t>
         </is>
       </c>
     </row>
@@ -8120,7 +8120,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.7366726793464256</t>
         </is>
       </c>
     </row>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>0.5336520901411825</t>
+          <t>0.3113996668124129</t>
         </is>
       </c>
     </row>
@@ -8154,7 +8154,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.7086404757174056</t>
         </is>
       </c>
     </row>
@@ -8171,7 +8171,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.7814157521140721</t>
         </is>
       </c>
     </row>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.732740537339611</t>
         </is>
       </c>
     </row>
@@ -8205,7 +8205,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>0.24582588843777956</t>
+          <t>0.3411799970168904</t>
         </is>
       </c>
     </row>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>0.27805681283830486</t>
+          <t>0.29237288661498173</t>
         </is>
       </c>
     </row>
@@ -8239,7 +8239,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>0.32183546849969197</t>
+          <t>0.24323169446404427</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8256,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>0.38512536562515665</t>
+          <t>0.3495739321193316</t>
         </is>
       </c>
     </row>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>0.2737305785614264</t>
+          <t>0.3859739817722262</t>
         </is>
       </c>
     </row>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>0.4716447898375372</t>
+          <t>0.24952976753632664</t>
         </is>
       </c>
     </row>
@@ -8307,7 +8307,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>0.25606599328295554</t>
+          <t>0.19077277599464804</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>0.1698828551091144</t>
+          <t>0.24145622046662682</t>
         </is>
       </c>
     </row>
@@ -8341,7 +8341,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>0.9530545534630865</t>
+          <t>0.9865446300055647</t>
         </is>
       </c>
     </row>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>0.21572847828542374</t>
+          <t>0.2564980688725382</t>
         </is>
       </c>
     </row>
@@ -8375,7 +8375,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>0.21572847828542357</t>
+          <t>0.2564980688725382</t>
         </is>
       </c>
     </row>
@@ -8392,7 +8392,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>0.06608210334981075</t>
+          <t>0.07427271856518469</t>
         </is>
       </c>
     </row>
@@ -8409,7 +8409,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>0.1314215250002715</t>
+          <t>0.05835344264666614</t>
         </is>
       </c>
     </row>
@@ -8426,7 +8426,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>0.20415579995404454</t>
+          <t>0.39566641959564564</t>
         </is>
       </c>
     </row>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>0.06608210334981075</t>
+          <t>0.11972726401973059</t>
         </is>
       </c>
     </row>
@@ -8460,7 +8460,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>0.13142152500027182</t>
+          <t>0.05835344264666646</t>
         </is>
       </c>
     </row>
@@ -8477,7 +8477,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>0.20971738225635403</t>
+          <t>0.22168314770619726</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>0.06608210334981075</t>
+          <t>0.11633198005295053</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>0.12722819594724374</t>
+          <t>0.0539896266307317</t>
         </is>
       </c>
     </row>
@@ -8528,7 +8528,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>0.1694791376950322</t>
+          <t>0.28531064536928163</t>
         </is>
       </c>
     </row>
@@ -8545,7 +8545,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>0.400624528068946</t>
+          <t>0.5380062355225276</t>
         </is>
       </c>
     </row>
@@ -8562,7 +8562,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>0.4171918702869598</t>
+          <t>0.45951805438869575</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>0.44861729533963624</t>
+          <t>0.33409589499687614</t>
         </is>
       </c>
     </row>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>0.26377694543119135</t>
+          <t>0.4161645968316358</t>
         </is>
       </c>
     </row>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>0.3861621671223644</t>
+          <t>0.39514720596475034</t>
         </is>
       </c>
     </row>
@@ -8630,7 +8630,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>0.3304036201478088</t>
+          <t>0.35157675121056486</t>
         </is>
       </c>
     </row>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>0.3976289403512507</t>
+          <t>0.3888726024884269</t>
         </is>
       </c>
     </row>
@@ -8664,7 +8664,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>0.3044212763102754</t>
+          <t>0.4075102241620991</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>0.3254606163911415</t>
+          <t>0.2687856551632291</t>
         </is>
       </c>
     </row>
@@ -8698,7 +8698,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>0.2987307259192021</t>
+          <t>0.4199099840221025</t>
         </is>
       </c>
     </row>
@@ -8715,7 +8715,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>0.2944925832843281</t>
+          <t>0.24481118592081824</t>
         </is>
       </c>
     </row>
@@ -8732,7 +8732,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>0.36448949556192883</t>
+          <t>0.2564980688725382</t>
         </is>
       </c>
     </row>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>0.21832239997664576</t>
+          <t>0.45242617932372353</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8766,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>0.4647757659345919</t>
+          <t>0.5850095279557124</t>
         </is>
       </c>
     </row>
@@ -8783,7 +8783,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>0.10248951753406683</t>
+          <t>0.10810971722965164</t>
         </is>
       </c>
     </row>
@@ -8800,7 +8800,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>0.43185238302263296</t>
+          <t>0.5258654312913171</t>
         </is>
       </c>
     </row>
@@ -8817,7 +8817,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>0.3201703558479021</t>
+          <t>0.28223742641185195</t>
         </is>
       </c>
     </row>
@@ -8834,7 +8834,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>0.16706064270023877</t>
+          <t>0.11184970576798646</t>
         </is>
       </c>
     </row>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>0.23503193186811294</t>
+          <t>0.23694626494925008</t>
         </is>
       </c>
     </row>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>0.5438532981889299</t>
+          <t>0.400803456288459</t>
         </is>
       </c>
     </row>
@@ -8885,7 +8885,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>0.26384212278245817</t>
+          <t>0.16641816387255956</t>
         </is>
       </c>
     </row>
@@ -8902,7 +8902,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>0.2638421227824581</t>
+          <t>0.16641816387255956</t>
         </is>
       </c>
     </row>
@@ -8919,7 +8919,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>0.10632442494389437</t>
+          <t>0.12515627362434423</t>
         </is>
       </c>
     </row>
@@ -8936,7 +8936,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>0.16178377180534806</t>
+          <t>0.07800884616727313</t>
         </is>
       </c>
     </row>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>0.287134826969609</t>
+          <t>0.1576032394974105</t>
         </is>
       </c>
     </row>
@@ -8970,7 +8970,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>0.10632442494389437</t>
+          <t>0.15649106290570144</t>
         </is>
       </c>
     </row>
@@ -8987,7 +8987,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>0.16178377180534806</t>
+          <t>0.07800884616727313</t>
         </is>
       </c>
     </row>
@@ -9004,7 +9004,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>0.2871348269696095</t>
+          <t>0.16641268410887708</t>
         </is>
       </c>
     </row>
@@ -9021,7 +9021,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>0.10632442494389437</t>
+          <t>0.15649106290570144</t>
         </is>
       </c>
     </row>
@@ -9038,7 +9038,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>0.16178377180534806</t>
+          <t>0.07800884616727313</t>
         </is>
       </c>
     </row>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>0.20013764599292255</t>
+          <t>0.1815295720139741</t>
         </is>
       </c>
     </row>
@@ -9072,7 +9072,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>0.3080513613545611</t>
+          <t>0.2214782125861168</t>
         </is>
       </c>
     </row>
@@ -9089,7 +9089,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>0.37604768266536986</t>
+          <t>0.35469497054175386</t>
         </is>
       </c>
     </row>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>0.41610598584333747</t>
+          <t>0.3489112441051437</t>
         </is>
       </c>
     </row>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>0.3157620096829248</t>
+          <t>0.39495662201733545</t>
         </is>
       </c>
     </row>
@@ -9140,7 +9140,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>0.30677282206949785</t>
+          <t>0.1491373127197475</t>
         </is>
       </c>
     </row>
@@ -9157,7 +9157,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>0.34476794131033006</t>
+          <t>0.5137691765976177</t>
         </is>
       </c>
     </row>
@@ -9174,7 +9174,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>0.25440348573173815</t>
+          <t>0.3130467198075424</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>0.35094721551278385</t>
+          <t>0.32680970648964486</t>
         </is>
       </c>
     </row>
@@ -9208,7 +9208,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>0.4186385627101415</t>
+          <t>0.4416236186123722</t>
         </is>
       </c>
     </row>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>0.43932411541871585</t>
+          <t>0.3077177138291461</t>
         </is>
       </c>
     </row>
@@ -9242,7 +9242,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>0.357613931800908</t>
+          <t>0.4093852689623796</t>
         </is>
       </c>
     </row>
@@ -9259,7 +9259,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>0.3377910861923096</t>
+          <t>0.386221540638578</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>0.1867243877794935</t>
+          <t>0.14674368359006718</t>
         </is>
       </c>
     </row>
@@ -9293,7 +9293,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>0.36827974085542486</t>
+          <t>0.19560761347699948</t>
         </is>
       </c>
     </row>
@@ -9310,7 +9310,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>0.13521132930619342</t>
+          <t>0.10368276726520208</t>
         </is>
       </c>
     </row>
@@ -9327,7 +9327,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>0.3960849183761548</t>
+          <t>0.309897757995595</t>
         </is>
       </c>
     </row>
@@ -9344,7 +9344,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>0.9456603046006401</t>
+          <t>0.8756633923230396</t>
         </is>
       </c>
     </row>
@@ -9361,7 +9361,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>0.26384212278245817</t>
+          <t>0.16641816387255956</t>
         </is>
       </c>
     </row>
@@ -9378,7 +9378,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>0.22452374737498465</t>
+          <t>0.24472773226684646</t>
         </is>
       </c>
     </row>
@@ -9395,7 +9395,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>0.27388625037664244</t>
+          <t>0.254477341392282</t>
         </is>
       </c>
     </row>
@@ -9412,7 +9412,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>0.27388625037664244</t>
+          <t>0.254477341392282</t>
         </is>
       </c>
     </row>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>0.12374460065253148</t>
+          <t>0.14068309521344283</t>
         </is>
       </c>
     </row>
@@ -9446,7 +9446,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>0.18008564261420404</t>
+          <t>0.09806223578256411</t>
         </is>
       </c>
     </row>
@@ -9463,7 +9463,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>0.27875488169904494</t>
+          <t>0.31959892460876127</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>0.1237446006525314</t>
+          <t>0.15649106290570144</t>
         </is>
       </c>
     </row>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>0.18008564261420404</t>
+          <t>0.09806223578256411</t>
         </is>
       </c>
     </row>
@@ -9514,7 +9514,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>0.24323169446404427</t>
+          <t>0.27641404892944016</t>
         </is>
       </c>
     </row>
@@ -9531,7 +9531,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>0.12374460065253148</t>
+          <t>0.15649106290570144</t>
         </is>
       </c>
     </row>
@@ -9548,7 +9548,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>0.18008564261420404</t>
+          <t>0.09806223578256411</t>
         </is>
       </c>
     </row>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>0.23351466907773075</t>
+          <t>0.2809458848810922</t>
         </is>
       </c>
     </row>
@@ -9582,7 +9582,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>0.40085336147056494</t>
+          <t>0.5252466432826775</t>
         </is>
       </c>
     </row>
@@ -9599,7 +9599,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>0.5963879981365037</t>
+          <t>0.599413227622412</t>
         </is>
       </c>
     </row>
@@ -9616,7 +9616,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>0.43050565067229607</t>
+          <t>0.44046467710689846</t>
         </is>
       </c>
     </row>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>0.3299906200141987</t>
+          <t>0.41510596605659966</t>
         </is>
       </c>
     </row>
@@ -9650,7 +9650,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>0.4001453070363213</t>
+          <t>0.5282980113144662</t>
         </is>
       </c>
     </row>
@@ -9667,7 +9667,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>0.39926995181985786</t>
+          <t>0.4016314828771954</t>
         </is>
       </c>
     </row>
@@ -9684,7 +9684,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>0.39961499624489744</t>
+          <t>0.458160549682177</t>
         </is>
       </c>
     </row>
@@ -9701,7 +9701,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>0.33040362014780866</t>
+          <t>0.5828312358699094</t>
         </is>
       </c>
     </row>
@@ -9718,7 +9718,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>0.33987996173344065</t>
+          <t>0.3930844633036238</t>
         </is>
       </c>
     </row>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>0.3536220409905876</t>
+          <t>0.5813213662937153</t>
         </is>
       </c>
     </row>
@@ -9752,7 +9752,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>0.3445151779434183</t>
+          <t>0.35160624970498133</t>
         </is>
       </c>
     </row>
@@ -9769,7 +9769,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>0.3159103072851186</t>
+          <t>0.40163148287719547</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9786,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>0.3813389897684278</t>
+          <t>0.5759434986705508</t>
         </is>
       </c>
     </row>
@@ -9803,7 +9803,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>0.48170447466765526</t>
+          <t>0.6267127255644175</t>
         </is>
       </c>
     </row>
@@ -9820,7 +9820,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>0.12977046792461022</t>
+          <t>0.1595340512072403</t>
         </is>
       </c>
     </row>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>0.4831335900909398</t>
+          <t>0.6582314061987998</t>
         </is>
       </c>
     </row>
@@ -9854,7 +9854,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>0.4592443230530496</t>
+          <t>0.3592634056099431</t>
         </is>
       </c>
     </row>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>0.19888044190086643</t>
+          <t>0.17244005788235478</t>
         </is>
       </c>
     </row>
@@ -9888,7 +9888,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>0.1821194482411416</t>
+          <t>0.21629580088184502</t>
         </is>
       </c>
     </row>
@@ -9905,7 +9905,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -9922,7 +9922,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>0.6643461713039289</t>
+          <t>0.5096687072835645</t>
         </is>
       </c>
     </row>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -9956,7 +9956,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.673963488550805</t>
         </is>
       </c>
     </row>
@@ -9973,7 +9973,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>0.6643461713039289</t>
+          <t>0.5096687072835645</t>
         </is>
       </c>
     </row>
@@ -9990,7 +9990,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -10007,7 +10007,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -10024,7 +10024,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>0.6643461713039289</t>
+          <t>0.5157281964313012</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -10058,7 +10058,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>0.6643461713039289</t>
+          <t>0.6220674651510426</t>
         </is>
       </c>
     </row>
@@ -10075,7 +10075,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>0.51447299539141</t>
+          <t>0.3904545198725445</t>
         </is>
       </c>
     </row>
@@ -10092,7 +10092,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>0.4922068652453409</t>
+          <t>0.3361270367564197</t>
         </is>
       </c>
     </row>
@@ -10109,7 +10109,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>0.5992390860926537</t>
+          <t>0.40150591606494546</t>
         </is>
       </c>
     </row>
@@ -10126,7 +10126,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>0.4313362930260771</t>
+          <t>0.40583791816167825</t>
         </is>
       </c>
     </row>
@@ -10143,7 +10143,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>0.3141181140942985</t>
+          <t>0.21581728985022586</t>
         </is>
       </c>
     </row>
@@ -10160,7 +10160,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>0.3738892040537566</t>
+          <t>0.33478637163026737</t>
         </is>
       </c>
     </row>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>0.5024631989313072</t>
+          <t>0.4233479061273053</t>
         </is>
       </c>
     </row>
@@ -10194,7 +10194,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>0.464287296781831</t>
+          <t>0.3071577212216938</t>
         </is>
       </c>
     </row>
@@ -10211,7 +10211,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>0.36799990950995504</t>
+          <t>0.4402494226382462</t>
         </is>
       </c>
     </row>
@@ -10228,7 +10228,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>0.5002721820138504</t>
+          <t>0.3541018852457421</t>
         </is>
       </c>
     </row>
@@ -10245,7 +10245,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>0.47332768605873354</t>
+          <t>0.3427894597323844</t>
         </is>
       </c>
     </row>
@@ -10262,7 +10262,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>0.4540382081638363</t>
+          <t>0.34787759011708597</t>
         </is>
       </c>
     </row>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>0.4506658513265</t>
+          <t>0.2747628079796837</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10296,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>0.2125919303346278</t>
+          <t>0.254477341392282</t>
         </is>
       </c>
     </row>
@@ -10313,7 +10313,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>0.563683641537806</t>
+          <t>0.64001728668151</t>
         </is>
       </c>
     </row>
@@ -10330,7 +10330,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>0.4716447898375371</t>
+          <t>0.5510072473373824</t>
         </is>
       </c>
     </row>
@@ -10347,7 +10347,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>0.2590020683701191</t>
+          <t>0.20021490277195833</t>
         </is>
       </c>
     </row>
@@ -10364,7 +10364,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -10381,7 +10381,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>0.15412912377195417</t>
+          <t>0.2391128074404913</t>
         </is>
       </c>
     </row>
@@ -10398,7 +10398,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>0.6643461713039289</t>
+          <t>0.5096687072835645</t>
         </is>
       </c>
     </row>
@@ -10415,7 +10415,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -10432,7 +10432,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.673963488550805</t>
         </is>
       </c>
     </row>
@@ -10449,7 +10449,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>0.6643461713039289</t>
+          <t>0.5096687072835645</t>
         </is>
       </c>
     </row>
@@ -10466,7 +10466,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>0.6643461713039289</t>
+          <t>0.5157281964313014</t>
         </is>
       </c>
     </row>
@@ -10517,7 +10517,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -10534,7 +10534,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>0.6643461713039289</t>
+          <t>0.6220674651510426</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>0.51447299539141</t>
+          <t>0.39045451987254437</t>
         </is>
       </c>
     </row>
@@ -10568,7 +10568,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>0.4922068652453409</t>
+          <t>0.3361270367564197</t>
         </is>
       </c>
     </row>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>0.5992390860926537</t>
+          <t>0.40150591606494546</t>
         </is>
       </c>
     </row>
@@ -10602,7 +10602,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>0.431336293026077</t>
+          <t>0.40583791816167825</t>
         </is>
       </c>
     </row>
@@ -10619,7 +10619,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>0.3141181140942985</t>
+          <t>0.21581728985022586</t>
         </is>
       </c>
     </row>
@@ -10636,7 +10636,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>0.3738892040537564</t>
+          <t>0.33478637163026737</t>
         </is>
       </c>
     </row>
@@ -10653,7 +10653,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>0.5001755869389143</t>
+          <t>0.42334790612730516</t>
         </is>
       </c>
     </row>
@@ -10670,7 +10670,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>0.464287296781831</t>
+          <t>0.3071577212216938</t>
         </is>
       </c>
     </row>
@@ -10687,7 +10687,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>0.36799990950995504</t>
+          <t>0.4402494226382462</t>
         </is>
       </c>
     </row>
@@ -10704,7 +10704,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>0.5002721820138504</t>
+          <t>0.3541018852457421</t>
         </is>
       </c>
     </row>
@@ -10721,7 +10721,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>0.47332768605873354</t>
+          <t>0.3427894597323844</t>
         </is>
       </c>
     </row>
@@ -10738,7 +10738,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>0.4540382081638363</t>
+          <t>0.34787759011708597</t>
         </is>
       </c>
     </row>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>0.4506658513265</t>
+          <t>0.2747628079796837</t>
         </is>
       </c>
     </row>
@@ -10772,7 +10772,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>0.2125919303346278</t>
+          <t>0.254477341392282</t>
         </is>
       </c>
     </row>
@@ -10789,7 +10789,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>0.563683641537806</t>
+          <t>0.64001728668151</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10806,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>0.4716447898375371</t>
+          <t>0.5510072473373824</t>
         </is>
       </c>
     </row>
@@ -10823,7 +10823,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>0.2590020683701191</t>
+          <t>0.20021490277195866</t>
         </is>
       </c>
     </row>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -10857,7 +10857,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>0.154129123771954</t>
+          <t>0.23911280744049113</t>
         </is>
       </c>
     </row>
@@ -10874,7 +10874,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>0.6675220106055881</t>
+          <t>0.5157281964313014</t>
         </is>
       </c>
     </row>
@@ -10891,7 +10891,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>0.8112781244591326</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -10908,7 +10908,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>0.8112781244591326</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>0.6675220106055881</t>
+          <t>0.5157281964313012</t>
         </is>
       </c>
     </row>
@@ -10942,7 +10942,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>0.6068130694057319</t>
+          <t>0.8137538616611122</t>
         </is>
       </c>
     </row>
@@ -10959,7 +10959,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>0.8112781244591326</t>
+          <t>0.8756633923230396</t>
         </is>
       </c>
     </row>
@@ -10976,7 +10976,7 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>0.43725955867838107</t>
+          <t>0.4091382887973736</t>
         </is>
       </c>
     </row>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>0.8112781244591326</t>
+          <t>0.8453509366224361</t>
         </is>
       </c>
     </row>
@@ -11010,7 +11010,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>0.6339992821913998</t>
+          <t>0.7241875139462561</t>
         </is>
       </c>
     </row>
@@ -11027,7 +11027,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>0.3739274938777523</t>
+          <t>0.5387569191586149</t>
         </is>
       </c>
     </row>
@@ -11044,7 +11044,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>0.6739634885508049</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>0.6549635663096421</t>
+          <t>0.40626339556083924</t>
         </is>
       </c>
     </row>
@@ -11078,7 +11078,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>0.32534082611850723</t>
+          <t>0.4657600249255898</t>
         </is>
       </c>
     </row>
@@ -11095,7 +11095,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>0.5121548395067759</t>
+          <t>0.35209211464906</t>
         </is>
       </c>
     </row>
@@ -11112,7 +11112,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>0.6653709795044311</t>
+          <t>0.5872483316174014</t>
         </is>
       </c>
     </row>
@@ -11129,7 +11129,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>0.5442643525988043</t>
+          <t>0.5673091068653628</t>
         </is>
       </c>
     </row>
@@ -11146,7 +11146,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>0.37534048932212594</t>
+          <t>0.3089895192173841</t>
         </is>
       </c>
     </row>
@@ -11163,7 +11163,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>0.5561336675460791</t>
+          <t>0.4732890891305184</t>
         </is>
       </c>
     </row>
@@ -11180,7 +11180,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>0.6472035574392775</t>
+          <t>0.5091402376136153</t>
         </is>
       </c>
     </row>
@@ -11197,7 +11197,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>0.6095090208550966</t>
+          <t>0.49836643112506923</t>
         </is>
       </c>
     </row>
@@ -11214,7 +11214,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>0.5105049055458577</t>
+          <t>0.31564324746390476</t>
         </is>
       </c>
     </row>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>0.26122562846583997</t>
+          <t>0.25598756363638636</t>
         </is>
       </c>
     </row>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>0.5618750198565974</t>
+          <t>0.43687857212736164</t>
         </is>
       </c>
     </row>
@@ -11265,7 +11265,7 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>0.5599451693236414</t>
+          <t>0.6073830557189305</t>
         </is>
       </c>
     </row>
@@ -11282,7 +11282,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>0.22246743928026327</t>
+          <t>0.17692219858480748</t>
         </is>
       </c>
     </row>
@@ -11299,7 +11299,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>0.5675989585651703</t>
+          <t>0.408212890127053</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11316,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>0.1644686663900655</t>
+          <t>0.1691411062132916</t>
         </is>
       </c>
     </row>
@@ -11333,7 +11333,7 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.673963488550805</t>
         </is>
       </c>
     </row>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>0.6675220106055881</t>
+          <t>0.5096687072835645</t>
         </is>
       </c>
     </row>
@@ -11367,7 +11367,7 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -11384,7 +11384,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>0.6675220106055881</t>
+          <t>0.5157281964313014</t>
         </is>
       </c>
     </row>
@@ -11418,7 +11418,7 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>0.6675220106055881</t>
+          <t>0.6220674651510426</t>
         </is>
       </c>
     </row>
@@ -11452,7 +11452,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>0.51447299539141</t>
+          <t>0.39045451987254437</t>
         </is>
       </c>
     </row>
@@ -11469,7 +11469,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>0.4922068652453409</t>
+          <t>0.3361270367564197</t>
         </is>
       </c>
     </row>
@@ -11486,7 +11486,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>0.5536820733474648</t>
+          <t>0.40150591606494546</t>
         </is>
       </c>
     </row>
@@ -11503,7 +11503,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>0.46567694847249996</t>
+          <t>0.40583791816167825</t>
         </is>
       </c>
     </row>
@@ -11520,7 +11520,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>0.3141181140942985</t>
+          <t>0.21581728985022586</t>
         </is>
       </c>
     </row>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>0.36361960283805705</t>
+          <t>0.33478637163026737</t>
         </is>
       </c>
     </row>
@@ -11554,7 +11554,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>0.5001755869389143</t>
+          <t>0.42334790612730516</t>
         </is>
       </c>
     </row>
@@ -11571,7 +11571,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>0.464287296781831</t>
+          <t>0.3071577212216938</t>
         </is>
       </c>
     </row>
@@ -11588,7 +11588,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>0.36799990950995504</t>
+          <t>0.4402494226382462</t>
         </is>
       </c>
     </row>
@@ -11605,7 +11605,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>0.5002721820138504</t>
+          <t>0.3541018852457421</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>0.47332768605873354</t>
+          <t>0.3427894597323844</t>
         </is>
       </c>
     </row>
@@ -11639,7 +11639,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>0.4540382081638363</t>
+          <t>0.34787759011708597</t>
         </is>
       </c>
     </row>
@@ -11656,7 +11656,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>0.4506658513265</t>
+          <t>0.2747628079796837</t>
         </is>
       </c>
     </row>
@@ -11673,7 +11673,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>0.2125919303346278</t>
+          <t>0.25424341600669215</t>
         </is>
       </c>
     </row>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>0.6243364699566732</t>
+          <t>0.64001728668151</t>
         </is>
       </c>
     </row>
@@ -11707,7 +11707,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>0.4716447898375371</t>
+          <t>0.5510072473373824</t>
         </is>
       </c>
     </row>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>0.2590020683701191</t>
+          <t>0.15972245513788236</t>
         </is>
       </c>
     </row>
@@ -11741,7 +11741,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -11758,7 +11758,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>0.14235305211154856</t>
+          <t>0.12470494491749433</t>
         </is>
       </c>
     </row>
@@ -11775,7 +11775,7 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>0.8112781244591326</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -11792,7 +11792,7 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.673963488550805</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>0.9256859869821294</t>
+          <t>0.9456603046006401</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11826,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>0.8112781244591326</t>
+          <t>0.8756633923230396</t>
         </is>
       </c>
     </row>
@@ -11843,7 +11843,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.673963488550805</t>
         </is>
       </c>
     </row>
@@ -11860,7 +11860,7 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>0.8112781244591326</t>
+          <t>0.8453509366224361</t>
         </is>
       </c>
     </row>
@@ -11877,7 +11877,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>0.6146455482593146</t>
+          <t>0.7034342125123181</t>
         </is>
       </c>
     </row>
@@ -11894,7 +11894,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>0.4800825654055036</t>
+          <t>0.38412171574754056</t>
         </is>
       </c>
     </row>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>0.6825351514527311</t>
+          <t>0.7094215512837194</t>
         </is>
       </c>
     </row>
@@ -11928,7 +11928,7 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>0.49002536922818546</t>
+          <t>0.45294933444873003</t>
         </is>
       </c>
     </row>
@@ -11945,7 +11945,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>0.4141482693119832</t>
+          <t>0.41006333250982474</t>
         </is>
       </c>
     </row>
@@ -11962,7 +11962,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>0.4147492702456586</t>
+          <t>0.2892649073136474</t>
         </is>
       </c>
     </row>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>0.5878879924018979</t>
+          <t>0.47031769231890236</t>
         </is>
       </c>
     </row>
@@ -11996,7 +11996,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>0.5905192058094549</t>
+          <t>0.48212220300133124</t>
         </is>
       </c>
     </row>
@@ -12013,7 +12013,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>0.3552491174767882</t>
+          <t>0.3350066294747929</t>
         </is>
       </c>
     </row>
@@ -12030,7 +12030,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>0.5428543640958985</t>
+          <t>0.411159533698468</t>
         </is>
       </c>
     </row>
@@ -12047,7 +12047,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>0.5133744085713047</t>
+          <t>0.5180830939785901</t>
         </is>
       </c>
     </row>
@@ -12064,7 +12064,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>0.4874084298197593</t>
+          <t>0.5073092874900442</t>
         </is>
       </c>
     </row>
@@ -12081,7 +12081,7 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>0.43963439007296434</t>
+          <t>0.36363636363636304</t>
         </is>
       </c>
     </row>
@@ -12098,7 +12098,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>0.20289398827155236</t>
+          <t>0.2782903013238055</t>
         </is>
       </c>
     </row>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>0.5452822458230049</t>
+          <t>0.494374732160722</t>
         </is>
       </c>
     </row>
@@ -12132,7 +12132,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>0.46138008828051735</t>
+          <t>0.5985933944461075</t>
         </is>
       </c>
     </row>
@@ -12149,7 +12149,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>0.31749517060558374</t>
+          <t>0.20013764599292255</t>
         </is>
       </c>
     </row>
@@ -12166,7 +12166,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.673963488550805</t>
         </is>
       </c>
     </row>
@@ -12183,7 +12183,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>0.2835854539188921</t>
+          <t>0.25663382419640285</t>
         </is>
       </c>
     </row>
@@ -12200,7 +12200,7 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>0.6675220106055881</t>
+          <t>0.4421790180954503</t>
         </is>
       </c>
     </row>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>0.6068130694057319</t>
+          <t>0.8137538616611122</t>
         </is>
       </c>
     </row>
@@ -12234,7 +12234,7 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>0.8112781244591326</t>
+          <t>0.8453509366224361</t>
         </is>
       </c>
     </row>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>0.43725955867838107</t>
+          <t>0.34909363481930905</t>
         </is>
       </c>
     </row>
@@ -12268,7 +12268,7 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>0.8112781244591326</t>
+          <t>0.8453509366224361</t>
         </is>
       </c>
     </row>
@@ -12285,7 +12285,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>0.6339992821913998</t>
+          <t>0.7241875139462561</t>
         </is>
       </c>
     </row>
@@ -12302,7 +12302,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>0.3739274938777523</t>
+          <t>0.5387569191586149</t>
         </is>
       </c>
     </row>
@@ -12319,7 +12319,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>0.6739634885508049</t>
+          <t>0.9023932827949785</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12336,7 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>0.6549635663096421</t>
+          <t>0.40626339556083924</t>
         </is>
       </c>
     </row>
@@ -12353,7 +12353,7 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>0.32534082611850723</t>
+          <t>0.4657600249255897</t>
         </is>
       </c>
     </row>
@@ -12370,7 +12370,7 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>0.5121548395067759</t>
+          <t>0.35209211464906015</t>
         </is>
       </c>
     </row>
@@ -12387,7 +12387,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>0.6653709795044311</t>
+          <t>0.5872483316174014</t>
         </is>
       </c>
     </row>
@@ -12404,7 +12404,7 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>0.5442643525988043</t>
+          <t>0.5673091068653628</t>
         </is>
       </c>
     </row>
@@ -12421,7 +12421,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>0.37534048932212594</t>
+          <t>0.3089895192173841</t>
         </is>
       </c>
     </row>
@@ -12438,7 +12438,7 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>0.5561336675460791</t>
+          <t>0.4732890891305184</t>
         </is>
       </c>
     </row>
@@ -12455,7 +12455,7 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>0.6472035574392775</t>
+          <t>0.5091402376136153</t>
         </is>
       </c>
     </row>
@@ -12472,7 +12472,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>0.6095090208550966</t>
+          <t>0.49836643112506923</t>
         </is>
       </c>
     </row>
@@ -12489,7 +12489,7 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>0.5105049055458578</t>
+          <t>0.31564324746390476</t>
         </is>
       </c>
     </row>
@@ -12506,7 +12506,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>0.26122562846583997</t>
+          <t>0.25598756363638636</t>
         </is>
       </c>
     </row>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>0.5618750198565974</t>
+          <t>0.4368785721273616</t>
         </is>
       </c>
     </row>
@@ -12540,7 +12540,7 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>0.5599451693236414</t>
+          <t>0.6073830557189304</t>
         </is>
       </c>
     </row>
@@ -12557,7 +12557,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>0.22246743928026327</t>
+          <t>0.18516732851288972</t>
         </is>
       </c>
     </row>
@@ -12574,7 +12574,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>0.5675989585651703</t>
+          <t>0.40821289012705314</t>
         </is>
       </c>
     </row>
@@ -12591,7 +12591,7 @@
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>0.1644686663900655</t>
+          <t>0.1691411062132916</t>
         </is>
       </c>
     </row>
@@ -12608,7 +12608,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>0.6675220106055881</t>
+          <t>0.5157281964313014</t>
         </is>
       </c>
     </row>
@@ -12642,7 +12642,7 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -12659,7 +12659,7 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>0.6675220106055881</t>
+          <t>0.6220674651510426</t>
         </is>
       </c>
     </row>
@@ -12676,7 +12676,7 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>0.51447299539141</t>
+          <t>0.39045451987254437</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>0.4922068652453409</t>
+          <t>0.3361270367564197</t>
         </is>
       </c>
     </row>
@@ -12710,7 +12710,7 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>0.5536820733474648</t>
+          <t>0.40150591606494546</t>
         </is>
       </c>
     </row>
@@ -12727,7 +12727,7 @@
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>0.5192156297936594</t>
+          <t>0.40583791816167825</t>
         </is>
       </c>
     </row>
@@ -12744,7 +12744,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>0.3141181140942985</t>
+          <t>0.21581728985022586</t>
         </is>
       </c>
     </row>
@@ -12761,7 +12761,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>0.37065321504567816</t>
+          <t>0.33478637163026737</t>
         </is>
       </c>
     </row>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>0.5001755869389143</t>
+          <t>0.42334790612730516</t>
         </is>
       </c>
     </row>
@@ -12795,7 +12795,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>0.464287296781831</t>
+          <t>0.3071577212216938</t>
         </is>
       </c>
     </row>
@@ -12812,7 +12812,7 @@
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>0.36799990950995504</t>
+          <t>0.4402494226382462</t>
         </is>
       </c>
     </row>
@@ -12829,7 +12829,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>0.5002721820138504</t>
+          <t>0.3541018852457421</t>
         </is>
       </c>
     </row>
@@ -12846,7 +12846,7 @@
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>0.47332768605873354</t>
+          <t>0.3427894597323844</t>
         </is>
       </c>
     </row>
@@ -12863,7 +12863,7 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>0.4540382081638363</t>
+          <t>0.34787759011708597</t>
         </is>
       </c>
     </row>
@@ -12880,7 +12880,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>0.4506658513265</t>
+          <t>0.27304036405784254</t>
         </is>
       </c>
     </row>
@@ -12897,7 +12897,7 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>0.2125919303346278</t>
+          <t>0.25424341600669215</t>
         </is>
       </c>
     </row>
@@ -12914,7 +12914,7 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>0.6243364699566732</t>
+          <t>0.6262947211324302</t>
         </is>
       </c>
     </row>
@@ -12931,7 +12931,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>0.4716447898375371</t>
+          <t>0.5510072473373824</t>
         </is>
       </c>
     </row>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>0.2590020683701191</t>
+          <t>0.15972245513788236</t>
         </is>
       </c>
     </row>
@@ -12965,7 +12965,7 @@
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -12982,7 +12982,7 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>0.14235305211154856</t>
+          <t>0.12470494491749433</t>
         </is>
       </c>
     </row>
@@ -12999,7 +12999,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>0.6068130694057319</t>
+          <t>0.7080363007141085</t>
         </is>
       </c>
     </row>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>0.6068130694057319</t>
+          <t>0.7080363007141085</t>
         </is>
       </c>
     </row>
@@ -13050,7 +13050,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>0.6146455482593146</t>
+          <t>0.703434212512318</t>
         </is>
       </c>
     </row>
@@ -13067,7 +13067,7 @@
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>0.48029786385654655</t>
+          <t>0.38412171574754056</t>
         </is>
       </c>
     </row>
@@ -13084,7 +13084,7 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>0.6130568706831484</t>
+          <t>0.7094215512837192</t>
         </is>
       </c>
     </row>
@@ -13101,7 +13101,7 @@
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>0.4881864029573987</t>
+          <t>0.45294933444873003</t>
         </is>
       </c>
     </row>
@@ -13118,7 +13118,7 @@
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>0.5333003793584078</t>
+          <t>0.5746356978376793</t>
         </is>
       </c>
     </row>
@@ -13135,7 +13135,7 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>0.4147492702456586</t>
+          <t>0.2892649073136474</t>
         </is>
       </c>
     </row>
@@ -13152,7 +13152,7 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>0.5878879924018979</t>
+          <t>0.47031769231890236</t>
         </is>
       </c>
     </row>
@@ -13169,7 +13169,7 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>0.5905192058094549</t>
+          <t>0.48212220300133124</t>
         </is>
       </c>
     </row>
@@ -13186,7 +13186,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>0.3552491174767882</t>
+          <t>0.3350066294747929</t>
         </is>
       </c>
     </row>
@@ -13203,7 +13203,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>0.5428543640958985</t>
+          <t>0.4111595336984679</t>
         </is>
       </c>
     </row>
@@ -13220,7 +13220,7 @@
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>0.5133744085713048</t>
+          <t>0.5180830939785901</t>
         </is>
       </c>
     </row>
@@ -13237,7 +13237,7 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>0.4874084298197593</t>
+          <t>0.5073092874900442</t>
         </is>
       </c>
     </row>
@@ -13254,7 +13254,7 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>0.43963439007296434</t>
+          <t>0.3087555852804644</t>
         </is>
       </c>
     </row>
@@ -13271,7 +13271,7 @@
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>0.20289398827155236</t>
+          <t>0.2782903013238055</t>
         </is>
       </c>
     </row>
@@ -13288,7 +13288,7 @@
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>0.4282185044318852</t>
+          <t>0.4377247352338844</t>
         </is>
       </c>
     </row>
@@ -13305,7 +13305,7 @@
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>0.46138008828051735</t>
+          <t>0.5985933944461075</t>
         </is>
       </c>
     </row>
@@ -13322,7 +13322,7 @@
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>0.31749517060558363</t>
+          <t>0.21008320655373944</t>
         </is>
       </c>
     </row>
@@ -13339,7 +13339,7 @@
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -13356,7 +13356,7 @@
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>0.2568507597614954</t>
+          <t>0.21093576990202</t>
         </is>
       </c>
     </row>
@@ -13373,7 +13373,7 @@
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>0.43725955867838107</t>
+          <t>0.40913828879737374</t>
         </is>
       </c>
     </row>
@@ -13390,7 +13390,7 @@
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>0.8112781244591326</t>
+          <t>0.8453509366224361</t>
         </is>
       </c>
     </row>
@@ -13407,7 +13407,7 @@
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>0.6339992821913998</t>
+          <t>0.552477405100605</t>
         </is>
       </c>
     </row>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>0.3739274938777523</t>
+          <t>0.4625193137362052</t>
         </is>
       </c>
     </row>
@@ -13441,7 +13441,7 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>0.6739634885508049</t>
+          <t>0.697845823084412</t>
         </is>
       </c>
     </row>
@@ -13458,7 +13458,7 @@
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>0.6549635663096421</t>
+          <t>0.45095507829179704</t>
         </is>
       </c>
     </row>
@@ -13475,7 +13475,7 @@
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>0.32534082611850723</t>
+          <t>0.30545040003956614</t>
         </is>
       </c>
     </row>
@@ -13492,7 +13492,7 @@
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>0.5121548395067759</t>
+          <t>0.399090208817897</t>
         </is>
       </c>
     </row>
@@ -13509,7 +13509,7 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>0.6653709795044311</t>
+          <t>0.6259990172041808</t>
         </is>
       </c>
     </row>
@@ -13526,7 +13526,7 @@
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>0.5442643525988043</t>
+          <t>0.4448612934524208</t>
         </is>
       </c>
     </row>
@@ -13543,7 +13543,7 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>0.37534048932212594</t>
+          <t>0.35620285814308933</t>
         </is>
       </c>
     </row>
@@ -13560,7 +13560,7 @@
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>0.5561336675460791</t>
+          <t>0.39967728947614495</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>0.6472035574392775</t>
+          <t>0.5305505867446411</t>
         </is>
       </c>
     </row>
@@ -13594,7 +13594,7 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>0.6095090208550966</t>
+          <t>0.5027136235241904</t>
         </is>
       </c>
     </row>
@@ -13611,7 +13611,7 @@
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>0.5105049055458577</t>
+          <t>0.25844421328982486</t>
         </is>
       </c>
     </row>
@@ -13628,7 +13628,7 @@
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>0.26122562846583997</t>
+          <t>0.24989010201352937</t>
         </is>
       </c>
     </row>
@@ -13645,7 +13645,7 @@
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>0.5618750198565974</t>
+          <t>0.5126517666598237</t>
         </is>
       </c>
     </row>
@@ -13662,7 +13662,7 @@
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>0.5599451693236414</t>
+          <t>0.532721820323455</t>
         </is>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>0.22246743928026327</t>
+          <t>0.17213860639627937</t>
         </is>
       </c>
     </row>
@@ -13696,7 +13696,7 @@
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>0.5675989585651703</t>
+          <t>0.4671972212052783</t>
         </is>
       </c>
     </row>
@@ -13713,7 +13713,7 @@
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>0.1644686663900655</t>
+          <t>0.15719656562233003</t>
         </is>
       </c>
     </row>
@@ -13730,7 +13730,7 @@
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>0.5759463819055027</t>
+          <t>0.6220674651510426</t>
         </is>
       </c>
     </row>
@@ -13747,7 +13747,7 @@
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>0.51447299539141</t>
+          <t>0.39045451987254437</t>
         </is>
       </c>
     </row>
@@ -13764,7 +13764,7 @@
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>0.4922068652453409</t>
+          <t>0.3361270367564197</t>
         </is>
       </c>
     </row>
@@ -13781,7 +13781,7 @@
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>0.5536820733474648</t>
+          <t>0.40150591606494546</t>
         </is>
       </c>
     </row>
@@ -13798,7 +13798,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>0.431336293026077</t>
+          <t>0.40583791816167825</t>
         </is>
       </c>
     </row>
@@ -13815,7 +13815,7 @@
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>0.3141181140942985</t>
+          <t>0.21581728985022586</t>
         </is>
       </c>
     </row>
@@ -13832,7 +13832,7 @@
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>0.36361960283805705</t>
+          <t>0.33478637163026737</t>
         </is>
       </c>
     </row>
@@ -13849,7 +13849,7 @@
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>0.5001755869389143</t>
+          <t>0.42334790612730516</t>
         </is>
       </c>
     </row>
@@ -13866,7 +13866,7 @@
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>0.464287296781831</t>
+          <t>0.3071577212216938</t>
         </is>
       </c>
     </row>
@@ -13883,7 +13883,7 @@
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>0.36799990950995504</t>
+          <t>0.4402494226382462</t>
         </is>
       </c>
     </row>
@@ -13900,7 +13900,7 @@
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>0.5002721820138504</t>
+          <t>0.3541018852457421</t>
         </is>
       </c>
     </row>
@@ -13917,7 +13917,7 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>0.47332768605873354</t>
+          <t>0.3427894597323844</t>
         </is>
       </c>
     </row>
@@ -13934,7 +13934,7 @@
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>0.4540382081638363</t>
+          <t>0.34787759011708597</t>
         </is>
       </c>
     </row>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>0.4506658513265</t>
+          <t>0.27304036405784254</t>
         </is>
       </c>
     </row>
@@ -13968,7 +13968,7 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>0.2125919303346278</t>
+          <t>0.25424341600669215</t>
         </is>
       </c>
     </row>
@@ -13985,7 +13985,7 @@
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>0.4678265747984784</t>
+          <t>0.5618750198565975</t>
         </is>
       </c>
     </row>
@@ -14002,7 +14002,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>0.4716447898375371</t>
+          <t>0.5510072473373824</t>
         </is>
       </c>
     </row>
@@ -14019,7 +14019,7 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>0.2590020683701191</t>
+          <t>0.15972245513788236</t>
         </is>
       </c>
     </row>
@@ -14036,7 +14036,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>0.9023932827949785</t>
+          <t>0.8112781244591326</t>
         </is>
       </c>
     </row>
@@ -14053,7 +14053,7 @@
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>0.14235305211154856</t>
+          <t>0.12470494491749433</t>
         </is>
       </c>
     </row>
@@ -14070,7 +14070,7 @@
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>0.6339992821913998</t>
+          <t>0.5892820275357067</t>
         </is>
       </c>
     </row>
@@ -14087,7 +14087,7 @@
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>0.3739274938777523</t>
+          <t>0.4625193137362052</t>
         </is>
       </c>
     </row>
@@ -14104,7 +14104,7 @@
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>0.6739634885508049</t>
+          <t>0.697845823084412</t>
         </is>
       </c>
     </row>
@@ -14121,7 +14121,7 @@
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>0.6549635663096421</t>
+          <t>0.45095507829179704</t>
         </is>
       </c>
     </row>
@@ -14138,7 +14138,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>0.32534082611850723</t>
+          <t>0.30545040003956614</t>
         </is>
       </c>
     </row>
@@ -14155,7 +14155,7 @@
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>0.5121548395067759</t>
+          <t>0.399090208817897</t>
         </is>
       </c>
     </row>
@@ -14172,7 +14172,7 @@
       </c>
       <c r="C808" t="inlineStr">
         <is>
-          <t>0.6653709795044311</t>
+          <t>0.6259990172041808</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>0.5442643525988043</t>
+          <t>0.4448612934524208</t>
         </is>
       </c>
     </row>
@@ -14206,7 +14206,7 @@
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>0.37534048932212594</t>
+          <t>0.35620285814308933</t>
         </is>
       </c>
     </row>
@@ -14223,7 +14223,7 @@
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>0.5561336675460791</t>
+          <t>0.39967728947614495</t>
         </is>
       </c>
     </row>
@@ -14240,7 +14240,7 @@
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>0.6472035574392775</t>
+          <t>0.5305505867446411</t>
         </is>
       </c>
     </row>
@@ -14257,7 +14257,7 @@
       </c>
       <c r="C813" t="inlineStr">
         <is>
-          <t>0.6095090208550966</t>
+          <t>0.5027136235241904</t>
         </is>
       </c>
     </row>
@@ -14274,7 +14274,7 @@
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>0.5105049055458577</t>
+          <t>0.28378408650222015</t>
         </is>
       </c>
     </row>
@@ -14291,7 +14291,7 @@
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>0.26122562846583997</t>
+          <t>0.2747778917132621</t>
         </is>
       </c>
     </row>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>0.5618750198565974</t>
+          <t>0.570351305126345</t>
         </is>
       </c>
     </row>
@@ -14325,7 +14325,7 @@
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>0.5599451693236414</t>
+          <t>0.532721820323455</t>
         </is>
       </c>
     </row>
@@ -14342,7 +14342,7 @@
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>0.23049798962889725</t>
+          <t>0.2169664208744548</t>
         </is>
       </c>
     </row>
@@ -14359,7 +14359,7 @@
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>0.5759463819055027</t>
+          <t>0.6220674651510426</t>
         </is>
       </c>
     </row>
@@ -14376,7 +14376,7 @@
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>0.27199726128114876</t>
+          <t>0.24702611169616637</t>
         </is>
       </c>
     </row>
@@ -14393,7 +14393,7 @@
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>0.623936948389752</t>
+          <t>0.5711813575755144</t>
         </is>
       </c>
     </row>
@@ -14410,7 +14410,7 @@
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.862685364091672</t>
         </is>
       </c>
     </row>
@@ -14427,7 +14427,7 @@
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.6992721610744367</t>
         </is>
       </c>
     </row>
@@ -14444,7 +14444,7 @@
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>0.47130705517861293</t>
+          <t>0.4727007014834327</t>
         </is>
       </c>
     </row>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>0.6454423154645335</t>
+          <t>0.6568221625538245</t>
         </is>
       </c>
     </row>
@@ -14478,7 +14478,7 @@
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>0.8818806233415394</t>
+          <t>0.6113524089561805</t>
         </is>
       </c>
     </row>
@@ -14495,7 +14495,7 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>0.8818806233415394</t>
+          <t>0.6994009976324004</t>
         </is>
       </c>
     </row>
@@ -14512,7 +14512,7 @@
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>0.33786303972625864</t>
+          <t>0.3063184450067001</t>
         </is>
       </c>
     </row>
@@ -14529,7 +14529,7 @@
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>0.7517001882888317</t>
+          <t>0.6176388486369973</t>
         </is>
       </c>
     </row>
@@ -14546,7 +14546,7 @@
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>0.7517001882888317</t>
+          <t>0.6176388486369973</t>
         </is>
       </c>
     </row>
@@ -14563,7 +14563,7 @@
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>0.7517001882888317</t>
+          <t>0.6176388486369973</t>
         </is>
       </c>
     </row>
@@ -14580,7 +14580,7 @@
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>0.39084202315374333</t>
+          <t>0.4941378792364477</t>
         </is>
       </c>
     </row>
@@ -14597,7 +14597,7 @@
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>0.41559966930667364</t>
+          <t>0.5252466432826777</t>
         </is>
       </c>
     </row>
@@ -14614,7 +14614,7 @@
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>0.40748224413513284</t>
+          <t>0.534077985951678</t>
         </is>
       </c>
     </row>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>0.41559966930667364</t>
+          <t>0.5067666085191077</t>
         </is>
       </c>
     </row>
@@ -14648,7 +14648,7 @@
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>0.2237439423174271</t>
+          <t>0.21132103764677057</t>
         </is>
       </c>
     </row>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>0.51447299539141</t>
+          <t>0.39045451987254437</t>
         </is>
       </c>
     </row>
@@ -14682,7 +14682,7 @@
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>0.39948638139788434</t>
+          <t>0.3203693418307015</t>
         </is>
       </c>
     </row>
@@ -14699,7 +14699,7 @@
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t>0.7035103037093104</t>
+          <t>0.7895087908203787</t>
         </is>
       </c>
     </row>
@@ -14716,7 +14716,7 @@
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>0.7035103037093103</t>
+          <t>0.7148052345066755</t>
         </is>
       </c>
     </row>
@@ -14733,7 +14733,7 @@
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>0.34844433067874925</t>
+          <t>0.25980852203889576</t>
         </is>
       </c>
     </row>
@@ -14750,7 +14750,7 @@
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>0.814961148861902</t>
+          <t>0.6395968439542234</t>
         </is>
       </c>
     </row>
@@ -14767,7 +14767,7 @@
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>0.7035103037093104</t>
+          <t>0.7397291228782492</t>
         </is>
       </c>
     </row>
@@ -14784,7 +14784,7 @@
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>0.7140297246683526</t>
+          <t>0.6583662590624512</t>
         </is>
       </c>
     </row>
@@ -14801,7 +14801,7 @@
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>0.6718508659602892</t>
+          <t>0.49119841817050147</t>
         </is>
       </c>
     </row>
@@ -14818,7 +14818,7 @@
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>0.9373889204053751</t>
+          <t>0.8871408590080995</t>
         </is>
       </c>
     </row>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="C847" t="inlineStr">
         <is>
-          <t>0.9373889204053751</t>
+          <t>0.8023402024728734</t>
         </is>
       </c>
     </row>
@@ -14852,7 +14852,7 @@
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>0.9373889204053751</t>
+          <t>0.8023402024728734</t>
         </is>
       </c>
     </row>
@@ -14869,7 +14869,7 @@
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>0.27477789171326195</t>
+          <t>0.32159288959292814</t>
         </is>
       </c>
     </row>
@@ -14886,7 +14886,7 @@
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>0.28094588488109207</t>
+          <t>0.35358301573142736</t>
         </is>
       </c>
     </row>
@@ -14903,7 +14903,7 @@
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>0.2870641029113866</t>
+          <t>0.3607444875998443</t>
         </is>
       </c>
     </row>
@@ -14920,7 +14920,7 @@
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>0.34381107071038586</t>
+          <t>0.35358301573142736</t>
         </is>
       </c>
     </row>
@@ -14937,7 +14937,7 @@
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>0.3457826034574997</t>
+          <t>0.32461704720017415</t>
         </is>
       </c>
     </row>
@@ -14954,7 +14954,7 @@
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>0.4922068652453409</t>
+          <t>0.3361270367564197</t>
         </is>
       </c>
     </row>
@@ -14971,7 +14971,7 @@
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>0.32694630244983724</t>
+          <t>0.3239209434581521</t>
         </is>
       </c>
     </row>
@@ -14988,7 +14988,7 @@
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.827053625580981</t>
         </is>
       </c>
     </row>
@@ -15005,7 +15005,7 @@
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>0.3517727469993759</t>
+          <t>0.39759812631666686</t>
         </is>
       </c>
     </row>
@@ -15022,7 +15022,7 @@
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>0.7960670081782801</t>
+          <t>0.7695066034073565</t>
         </is>
       </c>
     </row>
@@ -15039,7 +15039,7 @@
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.7771986565691511</t>
         </is>
       </c>
     </row>
@@ -15056,7 +15056,7 @@
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.8901257532696213</t>
         </is>
       </c>
     </row>
@@ -15073,7 +15073,7 @@
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>0.4415884140330825</t>
+          <t>0.42967186455287254</t>
         </is>
       </c>
     </row>
@@ -15090,7 +15090,7 @@
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>0.917962716490072</t>
+          <t>0.7960670081782801</t>
         </is>
       </c>
     </row>
@@ -15107,7 +15107,7 @@
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>0.917962716490072</t>
+          <t>0.7802515065392427</t>
         </is>
       </c>
     </row>
@@ -15124,7 +15124,7 @@
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>0.917962716490072</t>
+          <t>0.8170007152085467</t>
         </is>
       </c>
     </row>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>0.29241469561720224</t>
+          <t>0.3048033263882636</t>
         </is>
       </c>
     </row>
@@ -15158,7 +15158,7 @@
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>0.2569134817814281</t>
+          <t>0.3485937590756379</t>
         </is>
       </c>
     </row>
@@ -15175,7 +15175,7 @@
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>0.44222078981445156</t>
+          <t>0.4880059594773313</t>
         </is>
       </c>
     </row>
@@ -15192,7 +15192,7 @@
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>0.33956503861306997</t>
+          <t>0.3442231065543927</t>
         </is>
       </c>
     </row>
@@ -15209,7 +15209,7 @@
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>0.3368811301737616</t>
+          <t>0.30070549551124387</t>
         </is>
       </c>
     </row>
@@ -15226,7 +15226,7 @@
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>0.5536820733474648</t>
+          <t>0.40150591606494546</t>
         </is>
       </c>
     </row>
@@ -15243,7 +15243,7 @@
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>0.41905152774887533</t>
+          <t>0.3209939674550146</t>
         </is>
       </c>
     </row>
@@ -15260,7 +15260,7 @@
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>0.3002216270015698</t>
+          <t>0.22947819313877957</t>
         </is>
       </c>
     </row>
@@ -15277,7 +15277,7 @@
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>0.7960670081782801</t>
+          <t>0.6712526881415125</t>
         </is>
       </c>
     </row>
@@ -15294,7 +15294,7 @@
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.8344497155649022</t>
         </is>
       </c>
     </row>
@@ -15311,7 +15311,7 @@
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>0.8055683753915861</t>
+          <t>0.7686068694898335</t>
         </is>
       </c>
     </row>
@@ -15328,7 +15328,7 @@
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>0.40048521648141155</t>
+          <t>0.3137123260855817</t>
         </is>
       </c>
     </row>
@@ -15345,7 +15345,7 @@
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>0.9373889204053754</t>
+          <t>0.582656220025508</t>
         </is>
       </c>
     </row>
@@ -15362,7 +15362,7 @@
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>0.9373889204053754</t>
+          <t>0.6502884040232702</t>
         </is>
       </c>
     </row>
@@ -15379,7 +15379,7 @@
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>0.9373889204053754</t>
+          <t>0.6502884040232702</t>
         </is>
       </c>
     </row>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>0.3662093641672201</t>
+          <t>0.47627398339203997</t>
         </is>
       </c>
     </row>
@@ -15413,7 +15413,7 @@
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>0.28046840154347663</t>
+          <t>0.41237524818735954</t>
         </is>
       </c>
     </row>
@@ -15430,7 +15430,7 @@
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>0.44222078981445156</t>
+          <t>0.3882984928978217</t>
         </is>
       </c>
     </row>
@@ -15447,7 +15447,7 @@
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>0.33956503861306997</t>
+          <t>0.3871446108074979</t>
         </is>
       </c>
     </row>
@@ -15464,7 +15464,7 @@
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>0.33354298457824033</t>
+          <t>0.41214186581150997</t>
         </is>
       </c>
     </row>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>0.431336293026077</t>
+          <t>0.40583791816167825</t>
         </is>
       </c>
     </row>
@@ -15498,7 +15498,7 @@
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>0.3354304505015535</t>
+          <t>0.32679188430939465</t>
         </is>
       </c>
     </row>
@@ -15515,7 +15515,7 @@
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>0.28471000695218945</t>
+          <t>0.3467781957376539</t>
         </is>
       </c>
     </row>
@@ -15532,7 +15532,7 @@
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>0.4445666269314981</t>
+          <t>0.39571520197181076</t>
         </is>
       </c>
     </row>
@@ -15549,7 +15549,7 @@
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>0.4964740227819389</t>
+          <t>0.4727007014834327</t>
         </is>
       </c>
     </row>
@@ -15566,7 +15566,7 @@
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>0.2635204497983254</t>
+          <t>0.3002216270015698</t>
         </is>
       </c>
     </row>
@@ -15583,7 +15583,7 @@
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>0.36261015962210685</t>
+          <t>0.3137123260855817</t>
         </is>
       </c>
     </row>
@@ -15600,7 +15600,7 @@
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>0.36261015962210685</t>
+          <t>0.34270623167907255</t>
         </is>
       </c>
     </row>
@@ -15617,7 +15617,7 @@
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>0.36261015962210685</t>
+          <t>0.34270623167907255</t>
         </is>
       </c>
     </row>
@@ -15634,7 +15634,7 @@
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>0.20930762083493018</t>
+          <t>0.1995617966165078</t>
         </is>
       </c>
     </row>
@@ -15651,7 +15651,7 @@
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>0.1982891991036019</t>
+          <t>0.3186007544948279</t>
         </is>
       </c>
     </row>
@@ -15668,7 +15668,7 @@
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>0.22978416277560412</t>
+          <t>0.20504232641879053</t>
         </is>
       </c>
     </row>
@@ -15685,7 +15685,7 @@
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>0.24798394140163263</t>
+          <t>0.4088551340325145</t>
         </is>
       </c>
     </row>
@@ -15702,7 +15702,7 @@
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>0.25297460725506116</t>
+          <t>0.17435303184663845</t>
         </is>
       </c>
     </row>
@@ -15719,7 +15719,7 @@
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>0.4502625714449189</t>
+          <t>0.2544773413922822</t>
         </is>
       </c>
     </row>
@@ -15736,7 +15736,7 @@
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>0.34957038302971877</t>
+          <t>0.34263778595037375</t>
         </is>
       </c>
     </row>
@@ -15753,7 +15753,7 @@
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.8442101597210597</t>
         </is>
       </c>
     </row>
@@ -15770,7 +15770,7 @@
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>0.9113605788661331</t>
+          <t>0.8636363636363633</t>
         </is>
       </c>
     </row>
@@ -15787,7 +15787,7 @@
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>0.630505626582654</t>
+          <t>0.5117323096320336</t>
         </is>
       </c>
     </row>
@@ -15804,7 +15804,7 @@
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>0.9113605788661331</t>
+          <t>0.7468319054090377</t>
         </is>
       </c>
     </row>
@@ -15821,7 +15821,7 @@
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>0.9113605788661331</t>
+          <t>0.7941215903190535</t>
         </is>
       </c>
     </row>
@@ -15838,7 +15838,7 @@
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.7903692169506279</t>
         </is>
       </c>
     </row>
@@ -15855,7 +15855,7 @@
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>0.28530108550893574</t>
+          <t>0.33798823105363446</t>
         </is>
       </c>
     </row>
@@ -15872,7 +15872,7 @@
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>0.3154115034997442</t>
+          <t>0.33798823105363446</t>
         </is>
       </c>
     </row>
@@ -15889,7 +15889,7 @@
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>0.34227174716095954</t>
+          <t>0.39681785004907894</t>
         </is>
       </c>
     </row>
@@ -15906,7 +15906,7 @@
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>0.38512536562515665</t>
+          <t>0.33798823105363446</t>
         </is>
       </c>
     </row>
@@ -15923,7 +15923,7 @@
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>0.3130181938428319</t>
+          <t>0.5042320596938719</t>
         </is>
       </c>
     </row>
@@ -15940,7 +15940,7 @@
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>0.3738892040537566</t>
+          <t>0.33478637163026737</t>
         </is>
       </c>
     </row>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>0.698413259709402</t>
+          <t>0.2684827920756444</t>
         </is>
       </c>
     </row>
@@ -15974,7 +15974,7 @@
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9011701012364366</t>
         </is>
       </c>
     </row>
@@ -15991,7 +15991,7 @@
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>0.5638591383918468</t>
+          <t>0.42214538591507234</t>
         </is>
       </c>
     </row>
@@ -16008,7 +16008,7 @@
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.7785191679211588</t>
         </is>
       </c>
     </row>
@@ -16025,7 +16025,7 @@
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.8107575175711514</t>
         </is>
       </c>
     </row>
@@ -16042,7 +16042,7 @@
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.8733685971657758</t>
         </is>
       </c>
     </row>
@@ -16059,7 +16059,7 @@
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>0.3280191523745336</t>
+          <t>0.28604588350556726</t>
         </is>
       </c>
     </row>
@@ -16076,7 +16076,7 @@
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>0.24612257358270895</t>
+          <t>0.28992126419688713</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>0.43348654967255024</t>
+          <t>0.5155593771968588</t>
         </is>
       </c>
     </row>
@@ -16110,7 +16110,7 @@
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>0.33635585231732823</t>
+          <t>0.37568672857443614</t>
         </is>
       </c>
     </row>
@@ -16127,7 +16127,7 @@
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>0.20916767536039427</t>
+          <t>0.3105515045851909</t>
         </is>
       </c>
     </row>
@@ -16144,7 +16144,7 @@
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>0.5001755869389143</t>
+          <t>0.42334790612730516</t>
         </is>
       </c>
     </row>
@@ -16161,7 +16161,7 @@
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>0.39948638139788434</t>
+          <t>0.26286069665844214</t>
         </is>
       </c>
     </row>
@@ -16178,7 +16178,7 @@
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>0.6869446020268781</t>
+          <t>0.6074503337641765</t>
         </is>
       </c>
     </row>
@@ -16195,7 +16195,7 @@
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.8626853640916717</t>
         </is>
       </c>
     </row>
@@ -16212,7 +16212,7 @@
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9179627164900721</t>
         </is>
       </c>
     </row>
@@ -16229,7 +16229,7 @@
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>0.9999999999999996</t>
+          <t>0.9179627164900721</t>
         </is>
       </c>
     </row>
@@ -16246,7 +16246,7 @@
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>0.3783843205593828</t>
+          <t>0.40824965204037933</t>
         </is>
       </c>
     </row>
@@ -16263,7 +16263,7 @@
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>0.23946585660349812</t>
+          <t>0.28288509520091065</t>
         </is>
       </c>
     </row>
@@ -16280,7 +16280,7 @@
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>0.3587742893400222</t>
+          <t>0.2867018310757862</t>
         </is>
       </c>
     </row>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>0.4004344006815812</t>
+          <t>0.3059159291920415</t>
         </is>
       </c>
     </row>
@@ -16314,7 +16314,7 @@
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>0.3311989478772833</t>
+          <t>0.2779081837401416</t>
         </is>
       </c>
     </row>
@@ -16331,7 +16331,7 @@
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>0.464287296781831</t>
+          <t>0.3071577212216938</t>
         </is>
       </c>
     </row>
@@ -16348,7 +16348,7 @@
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>0.40721078261151744</t>
+          <t>0.31173177506400207</t>
         </is>
       </c>
     </row>
@@ -16365,7 +16365,7 @@
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>0.5952415587578049</t>
+          <t>0.582656220025508</t>
         </is>
       </c>
     </row>
@@ -16382,7 +16382,7 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>0.7008181040593444</t>
+          <t>0.6731182705636543</t>
         </is>
       </c>
     </row>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>0.6601846709153507</t>
+          <t>0.7375130663813257</t>
         </is>
       </c>
     </row>
@@ -16416,7 +16416,7 @@
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>0.34409663223176495</t>
+          <t>0.3484479431727625</t>
         </is>
       </c>
     </row>
@@ -16433,7 +16433,7 @@
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>0.30750172264818865</t>
+          <t>0.36169959812710517</t>
         </is>
       </c>
     </row>
@@ -16450,7 +16450,7 @@
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>0.30031950966512777</t>
+          <t>0.4535035224031494</t>
         </is>
       </c>
     </row>
@@ -16467,7 +16467,7 @@
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>0.3094670579673635</t>
+          <t>0.5114743814403537</t>
         </is>
       </c>
     </row>
@@ -16484,7 +16484,7 @@
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>0.3531277176165558</t>
+          <t>0.38274277902117143</t>
         </is>
       </c>
     </row>
@@ -16501,7 +16501,7 @@
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>0.36799990950995504</t>
+          <t>0.4402494226382462</t>
         </is>
       </c>
     </row>
@@ -16518,7 +16518,7 @@
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>0.6871784051268405</t>
+          <t>0.45818668178168</t>
         </is>
       </c>
     </row>
@@ -16569,7 +16569,7 @@
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>0.32072863448515604</t>
+          <t>0.5754236111929583</t>
         </is>
       </c>
     </row>
@@ -16586,7 +16586,7 @@
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>0.23500557016009843</t>
+          <t>0.3489689092439149</t>
         </is>
       </c>
     </row>
@@ -16603,7 +16603,7 @@
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>0.34227174716095954</t>
+          <t>0.3600504684411661</t>
         </is>
       </c>
     </row>
@@ -16620,7 +16620,7 @@
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>0.38512536562515665</t>
+          <t>0.4838185383683138</t>
         </is>
       </c>
     </row>
@@ -16637,7 +16637,7 @@
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>0.38600019408451813</t>
+          <t>0.3307609674043024</t>
         </is>
       </c>
     </row>
@@ -16654,7 +16654,7 @@
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>0.5002721820138504</t>
+          <t>0.3541018852457421</t>
         </is>
       </c>
     </row>
@@ -16671,7 +16671,7 @@
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>0.4875414040407667</t>
+          <t>0.4512958297408628</t>
         </is>
       </c>
     </row>
@@ -16705,7 +16705,7 @@
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>0.3735156001470874</t>
+          <t>0.35069109517372465</t>
         </is>
       </c>
     </row>
@@ -16722,7 +16722,7 @@
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>0.2426446236054055</t>
+          <t>0.2180901588020295</t>
         </is>
       </c>
     </row>
@@ -16739,7 +16739,7 @@
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>0.37591162771990805</t>
+          <t>0.4006435422444113</t>
         </is>
       </c>
     </row>
@@ -16756,7 +16756,7 @@
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>0.38512536562515665</t>
+          <t>0.26786633520860836</t>
         </is>
       </c>
     </row>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>0.3177201734988628</t>
+          <t>0.45076332897668026</t>
         </is>
       </c>
     </row>
@@ -16790,7 +16790,7 @@
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>0.47332768605873354</t>
+          <t>0.3427894597323844</t>
         </is>
       </c>
     </row>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>0.5838984332384325</t>
+          <t>0.4238108915306539</t>
         </is>
       </c>
     </row>
@@ -16824,7 +16824,7 @@
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>0.3280191523745337</t>
+          <t>0.2835358456356934</t>
         </is>
       </c>
     </row>
@@ -16841,7 +16841,7 @@
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>0.24472259554641212</t>
+          <t>0.2762115685491557</t>
         </is>
       </c>
     </row>
@@ -16858,7 +16858,7 @@
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>0.34889752021609904</t>
+          <t>0.339969228159045</t>
         </is>
       </c>
     </row>
@@ -16875,7 +16875,7 @@
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>0.38512536562515665</t>
+          <t>0.2457757564064391</t>
         </is>
       </c>
     </row>
@@ -16892,7 +16892,7 @@
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>0.27914226479879883</t>
+          <t>0.39667275118136547</t>
         </is>
       </c>
     </row>
@@ -16909,7 +16909,7 @@
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>0.4540382081638363</t>
+          <t>0.34787759011708597</t>
         </is>
       </c>
     </row>
@@ -16926,7 +16926,7 @@
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>0.515413974917949</t>
+          <t>0.4017580139299844</t>
         </is>
       </c>
     </row>
@@ -16943,7 +16943,7 @@
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>0.5673397964904265</t>
+          <t>0.5951300501580862</t>
         </is>
       </c>
     </row>
@@ -16960,7 +16960,7 @@
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>0.4632310420376499</t>
+          <t>0.4910787766464719</t>
         </is>
       </c>
     </row>
@@ -16977,7 +16977,7 @@
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>0.8092657877378318</t>
+          <t>0.8436854418505089</t>
         </is>
       </c>
     </row>
@@ -16994,7 +16994,7 @@
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>0.14794871102009882</t>
+          <t>0.17601473363139464</t>
         </is>
       </c>
     </row>
@@ -17011,7 +17011,7 @@
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>0.4506658513265</t>
+          <t>0.3142408655873683</t>
         </is>
       </c>
     </row>
@@ -17028,7 +17028,7 @@
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>0.2946024443279532</t>
+          <t>0.21644075853164874</t>
         </is>
       </c>
     </row>
@@ -17045,7 +17045,7 @@
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>0.28872818608180517</t>
+          <t>0.4288939787259883</t>
         </is>
       </c>
     </row>
@@ -17079,7 +17079,7 @@
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>0.5164661536967272</t>
+          <t>0.24602059622110226</t>
         </is>
       </c>
     </row>
@@ -17096,7 +17096,7 @@
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>0.27477789171326195</t>
+          <t>0.268921372421913</t>
         </is>
       </c>
     </row>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>0.2639687955158585</t>
+          <t>0.23295346845906184</t>
         </is>
       </c>
     </row>
@@ -17130,7 +17130,7 @@
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>0.6702874694471609</t>
+          <t>0.6420771372305807</t>
         </is>
       </c>
     </row>
@@ -17147,7 +17147,7 @@
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>0.20522322604229803</t>
+          <t>0.17435303184663814</t>
         </is>
       </c>
     </row>
@@ -17164,7 +17164,7 @@
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>0.48087229361921047</t>
+          <t>0.5618750198565975</t>
         </is>
       </c>
     </row>
@@ -17181,7 +17181,7 @@
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>0.15619094494827582</t>
+          <t>0.20963550100537473</t>
         </is>
       </c>
     </row>
@@ -17198,7 +17198,7 @@
       </c>
       <c r="C986" t="inlineStr">
         <is>
-          <t>0.4786705269683528</t>
+          <t>0.40234625153112147</t>
         </is>
       </c>
     </row>
@@ -17215,7 +17215,7 @@
       </c>
       <c r="C987" t="inlineStr">
         <is>
-          <t>0.4716447898375371</t>
+          <t>0.5510072473373824</t>
         </is>
       </c>
     </row>
@@ -17232,7 +17232,7 @@
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>0.2639687955158585</t>
+          <t>0.21158220586770327</t>
         </is>
       </c>
     </row>
@@ -17249,7 +17249,7 @@
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>0.294202466418433</t>
+          <t>0.2002149027719585</t>
         </is>
       </c>
     </row>
@@ -17266,7 +17266,7 @@
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>0.16670008330317163</t>
+          <t>0.24605532881283146</t>
         </is>
       </c>
     </row>
@@ -17283,7 +17283,7 @@
       </c>
       <c r="C991" t="inlineStr">
         <is>
-          <t>0.1616975741134862</t>
+          <t>0.250336995247353</t>
         </is>
       </c>
     </row>
